--- a/documents/暴率表.xlsx
+++ b/documents/暴率表.xlsx
@@ -1,43 +1,102 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView xWindow="6615" yWindow="0" windowWidth="13830" windowHeight="9450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
-  <extLst/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>怪物ID</t>
-  </si>
-  <si>
-    <t>装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具ID_2</t>
+  </si>
+  <si>
+    <t>概率_2</t>
+  </si>
+  <si>
+    <t>道具ID_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>概率_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具ID_3</t>
+  </si>
+  <si>
+    <t>概率_3</t>
+  </si>
+  <si>
+    <t>道具ID_4</t>
+  </si>
+  <si>
+    <t>概率_4</t>
+  </si>
+  <si>
+    <t>道具ID_5</t>
+  </si>
+  <si>
+    <t>概率_5</t>
+  </si>
+  <si>
+    <t>道具ID_6</t>
+  </si>
+  <si>
+    <t>概率_6</t>
+  </si>
+  <si>
+    <t>道具ID_7</t>
+  </si>
+  <si>
+    <t>概率_7</t>
+  </si>
+  <si>
+    <t>道具ID_8</t>
+  </si>
+  <si>
+    <t>概率_8</t>
+  </si>
+  <si>
+    <t>道具ID_9</t>
+  </si>
+  <si>
+    <t>概率_9</t>
+  </si>
+  <si>
+    <t>道具ID_10</t>
+  </si>
+  <si>
+    <t>概率_10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <name val="宋体"/>
+      <family val="7"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <family val="7"/>
       <charset val="134"/>
@@ -60,39 +119,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -391,6 +440,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -423,60 +473,727 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>10101</v>
+      </c>
+      <c r="B2" s="1">
+        <v>301001</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>301002</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>301003</v>
+      </c>
+      <c r="G2" s="1">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1">
+        <v>301004</v>
+      </c>
+      <c r="I2" s="1">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1">
+        <v>301005</v>
+      </c>
+      <c r="K2" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>10102</v>
+      </c>
+      <c r="B3" s="1">
+        <v>302001</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>302002</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>302003</v>
+      </c>
+      <c r="G3" s="1">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1">
+        <v>302004</v>
+      </c>
+      <c r="I3" s="1">
+        <v>8</v>
+      </c>
+      <c r="J3" s="1">
+        <v>302005</v>
+      </c>
+      <c r="K3" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>10103</v>
+      </c>
+      <c r="B4" s="1">
+        <v>303001</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>303002</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>303003</v>
+      </c>
+      <c r="G4" s="1">
+        <v>4</v>
+      </c>
+      <c r="H4" s="1">
+        <v>303004</v>
+      </c>
+      <c r="I4" s="1">
+        <v>8</v>
+      </c>
+      <c r="J4" s="1">
+        <v>303005</v>
+      </c>
+      <c r="K4" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>10104</v>
+      </c>
+      <c r="B5" s="1">
+        <v>304001</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>304002</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>304003</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1">
+        <v>304004</v>
+      </c>
+      <c r="I5" s="1">
+        <v>8</v>
+      </c>
+      <c r="J5" s="1">
+        <v>304005</v>
+      </c>
+      <c r="K5" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>10105</v>
+      </c>
+      <c r="B6" s="1">
+        <v>305001</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>305002</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>305003</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1">
+        <v>305004</v>
+      </c>
+      <c r="I6" s="1">
+        <v>8</v>
+      </c>
+      <c r="J6" s="1">
+        <v>305005</v>
+      </c>
+      <c r="K6" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>10106</v>
+      </c>
+      <c r="B7" s="1">
+        <v>306001</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>306002</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>306003</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4</v>
+      </c>
+      <c r="H7" s="1">
+        <v>306004</v>
+      </c>
+      <c r="I7" s="1">
+        <v>8</v>
+      </c>
+      <c r="J7" s="1">
+        <v>306005</v>
+      </c>
+      <c r="K7" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>10107</v>
+      </c>
+      <c r="B8" s="1">
+        <v>307001</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>307002</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>307003</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4</v>
+      </c>
+      <c r="H8" s="1">
+        <v>307004</v>
+      </c>
+      <c r="I8" s="1">
+        <v>8</v>
+      </c>
+      <c r="J8" s="1">
+        <v>307005</v>
+      </c>
+      <c r="K8" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>10108</v>
+      </c>
+      <c r="B9" s="1">
+        <v>308001</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>308002</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>308003</v>
+      </c>
+      <c r="G9" s="1">
+        <v>4</v>
+      </c>
+      <c r="H9" s="1">
+        <v>308004</v>
+      </c>
+      <c r="I9" s="1">
+        <v>8</v>
+      </c>
+      <c r="J9" s="1">
+        <v>308005</v>
+      </c>
+      <c r="K9" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>10109</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>10110</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>10111</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>10112</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>10113</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>10114</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>10115</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>10116</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>10117</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>10118</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>10119</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>10120</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>10121</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>10122</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
+        <v>10123</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
+        <v>10124</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
+        <v>10125</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
+        <v>20001</v>
+      </c>
+      <c r="B27" s="1">
+        <v>311001</v>
+      </c>
+      <c r="C27" s="1">
+        <v>4</v>
+      </c>
+      <c r="D27" s="1">
+        <v>311002</v>
+      </c>
+      <c r="E27" s="1">
+        <v>8</v>
+      </c>
+      <c r="F27" s="1">
+        <v>311003</v>
+      </c>
+      <c r="G27" s="1">
+        <v>16</v>
+      </c>
+      <c r="H27" s="1">
+        <v>311004</v>
+      </c>
+      <c r="I27" s="1">
+        <v>32</v>
+      </c>
+      <c r="J27" s="1">
+        <v>311005</v>
+      </c>
+      <c r="K27" s="1">
+        <v>64</v>
+      </c>
+      <c r="L27" s="1">
+        <v>309001</v>
+      </c>
+      <c r="M27" s="1">
+        <v>4</v>
+      </c>
+      <c r="N27" s="1">
+        <v>309002</v>
+      </c>
+      <c r="O27" s="1">
+        <v>8</v>
+      </c>
+      <c r="P27" s="1">
+        <v>309003</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>16</v>
+      </c>
+      <c r="R27" s="1">
+        <v>310001</v>
+      </c>
+      <c r="S27" s="1">
+        <v>4</v>
+      </c>
+      <c r="T27" s="1">
+        <v>310002</v>
+      </c>
+      <c r="U27" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A28" s="1">
+        <v>20002</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A29" s="1">
+        <v>20003</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A30" s="1">
+        <v>20004</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A31" s="1">
+        <v>20005</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A32" s="1">
+        <v>20006</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/documents/暴率表.xlsx
+++ b/documents/暴率表.xlsx
@@ -151,15 +151,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -511,15 +508,15 @@
   <dimension ref="A1:V138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B98" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G112" sqref="G112"/>
+      <selection pane="bottomRight" activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="19" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="10.5" style="1" customWidth="1"/>
@@ -592,7 +589,7 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>10101</v>
       </c>
       <c r="B2" s="1">
@@ -619,7 +616,7 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>10102</v>
       </c>
       <c r="B3" s="1">
@@ -646,7 +643,7 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>10103</v>
       </c>
       <c r="B4" s="1">
@@ -673,7 +670,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>10104</v>
       </c>
       <c r="B5" s="1">
@@ -700,22 +697,22 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>10105</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>307001</v>
       </c>
       <c r="C6" s="1">
         <v>32</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>307002</v>
       </c>
       <c r="E6" s="1">
         <v>32</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>307003</v>
       </c>
       <c r="G6" s="1">
@@ -727,7 +724,7 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>10106</v>
       </c>
       <c r="B7" s="1">
@@ -742,7 +739,7 @@
       <c r="E7" s="1">
         <v>32</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>307004</v>
       </c>
       <c r="G7" s="1">
@@ -754,7 +751,7 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>10107</v>
       </c>
       <c r="B8" s="1">
@@ -769,13 +766,19 @@
       <c r="E8" s="1">
         <v>32</v>
       </c>
+      <c r="F8" s="1">
+        <v>306002</v>
+      </c>
+      <c r="G8" s="1">
+        <v>32</v>
+      </c>
       <c r="V8" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>10108</v>
       </c>
       <c r="B9" s="1">
@@ -784,25 +787,31 @@
       <c r="C9" s="1">
         <v>64</v>
       </c>
-      <c r="D9" s="1">
-        <v>306002</v>
+      <c r="D9" s="2">
+        <v>303001</v>
       </c>
       <c r="E9" s="1">
-        <v>32</v>
-      </c>
-      <c r="F9" s="3">
+        <v>64</v>
+      </c>
+      <c r="F9" s="2">
+        <v>303002</v>
+      </c>
+      <c r="G9" s="1">
+        <v>64</v>
+      </c>
+      <c r="H9" s="2">
         <v>307006</v>
       </c>
-      <c r="G9" s="1">
+      <c r="I9" s="1">
         <v>32</v>
       </c>
       <c r="V9" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>10109</v>
       </c>
       <c r="V10" s="1">
@@ -811,28 +820,28 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>10110</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>307005</v>
       </c>
       <c r="C11" s="1">
         <v>40</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>307007</v>
       </c>
       <c r="E11" s="1">
         <v>50</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>307011</v>
       </c>
       <c r="G11" s="1">
         <v>40</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>307015</v>
       </c>
       <c r="I11" s="1">
@@ -844,7 +853,7 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>10111</v>
       </c>
       <c r="V12" s="1">
@@ -853,7 +862,7 @@
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>10112</v>
       </c>
       <c r="B13" s="1">
@@ -886,7 +895,7 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>10113</v>
       </c>
       <c r="B14" s="1">
@@ -919,7 +928,7 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>10114</v>
       </c>
       <c r="B15" s="1">
@@ -946,7 +955,7 @@
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>10115</v>
       </c>
       <c r="B16" s="1">
@@ -961,13 +970,13 @@
       <c r="E16" s="1">
         <v>40</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>302003</v>
       </c>
       <c r="G16" s="1">
         <v>80</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="2">
         <v>303003</v>
       </c>
       <c r="I16" s="1">
@@ -979,7 +988,7 @@
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>10116</v>
       </c>
       <c r="B17" s="1">
@@ -1018,7 +1027,7 @@
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>10117</v>
       </c>
       <c r="B18" s="1">
@@ -1057,7 +1066,7 @@
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>10118</v>
       </c>
       <c r="B19" s="1">
@@ -1096,7 +1105,7 @@
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>10119</v>
       </c>
       <c r="B20" s="1">
@@ -1135,7 +1144,7 @@
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>10120</v>
       </c>
       <c r="B21" s="1">
@@ -1174,7 +1183,7 @@
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>10121</v>
       </c>
       <c r="B22" s="1">
@@ -1195,7 +1204,7 @@
       <c r="G22" s="1">
         <v>64</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="2">
         <v>307008</v>
       </c>
       <c r="I22" s="1">
@@ -1213,14 +1222,14 @@
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>10122</v>
       </c>
       <c r="B23" s="1">
-        <v>301013</v>
+        <v>301012</v>
       </c>
       <c r="C23" s="1">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="D23" s="1">
         <v>302004</v>
@@ -1234,26 +1243,26 @@
       <c r="G23" s="1">
         <v>100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="2">
         <v>307009</v>
       </c>
       <c r="I23" s="1">
         <v>64</v>
       </c>
       <c r="V23" s="1">
-        <f t="shared" si="0"/>
+        <f>COUNT(B23:U23)/2</f>
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>10123</v>
       </c>
       <c r="B24" s="1">
-        <v>301012</v>
+        <v>301013</v>
       </c>
       <c r="C24" s="1">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="D24" s="1">
         <v>302005</v>
@@ -1267,26 +1276,26 @@
       <c r="G24" s="1">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="2">
         <v>307017</v>
       </c>
       <c r="I24" s="1">
         <v>64</v>
       </c>
       <c r="V24" s="1">
-        <f t="shared" si="0"/>
+        <f>COUNT(B24:U24)/2</f>
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>10124</v>
       </c>
       <c r="B25" s="1">
         <v>301014</v>
       </c>
       <c r="C25" s="1">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D25" s="1">
         <v>302006</v>
@@ -1300,7 +1309,7 @@
       <c r="G25" s="1">
         <v>100</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="2">
         <v>307013</v>
       </c>
       <c r="I25" s="1">
@@ -1312,14 +1321,14 @@
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>10125</v>
       </c>
       <c r="B26" s="1">
         <v>301015</v>
       </c>
       <c r="C26" s="1">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D26" s="1">
         <v>304003</v>
@@ -1345,14 +1354,14 @@
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>10126</v>
       </c>
       <c r="B27" s="1">
         <v>301016</v>
       </c>
       <c r="C27" s="1">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D27" s="1">
         <v>304004</v>
@@ -1366,7 +1375,7 @@
       <c r="G27" s="1">
         <v>64</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="2">
         <v>307010</v>
       </c>
       <c r="I27" s="1">
@@ -1378,16 +1387,16 @@
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>10201</v>
       </c>
       <c r="V28" s="1">
-        <f t="shared" si="0"/>
+        <f>COUNT(B28:U28)/2</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>10202</v>
       </c>
       <c r="V29" s="1">
@@ -1396,7 +1405,7 @@
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>10203</v>
       </c>
       <c r="V30" s="1">
@@ -1405,7 +1414,7 @@
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>10204</v>
       </c>
       <c r="B31" s="1">
@@ -1438,7 +1447,7 @@
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>10205</v>
       </c>
       <c r="B32" s="1">
@@ -1471,7 +1480,7 @@
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>10206</v>
       </c>
       <c r="B33" s="1">
@@ -1480,7 +1489,7 @@
       <c r="C33" s="1">
         <v>64</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="2">
         <v>302003</v>
       </c>
       <c r="E33" s="1">
@@ -1504,7 +1513,7 @@
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>10207</v>
       </c>
       <c r="B34" s="1">
@@ -1513,13 +1522,13 @@
       <c r="C34" s="1">
         <v>64</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="2">
         <v>303003</v>
       </c>
       <c r="E34" s="1">
         <v>75</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="2">
         <v>307005</v>
       </c>
       <c r="G34" s="1">
@@ -1531,7 +1540,7 @@
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <v>10208</v>
       </c>
       <c r="B35" s="1">
@@ -1546,7 +1555,7 @@
       <c r="E35" s="1">
         <v>32</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="2">
         <v>307011</v>
       </c>
       <c r="G35" s="1">
@@ -1558,7 +1567,7 @@
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>10209</v>
       </c>
       <c r="B36" s="1">
@@ -1573,7 +1582,7 @@
       <c r="E36" s="1">
         <v>32</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="2">
         <v>307015</v>
       </c>
       <c r="G36" s="1">
@@ -1585,7 +1594,7 @@
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <v>10210</v>
       </c>
       <c r="B37" s="1">
@@ -1618,7 +1627,7 @@
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A38" s="2">
+      <c r="A38" s="1">
         <v>10211</v>
       </c>
       <c r="B38" s="1">
@@ -1651,7 +1660,7 @@
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A39" s="2">
+      <c r="A39" s="1">
         <v>10212</v>
       </c>
       <c r="B39" s="1">
@@ -1684,7 +1693,7 @@
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A40" s="2">
+      <c r="A40" s="1">
         <v>10213</v>
       </c>
       <c r="B40" s="1">
@@ -1723,7 +1732,7 @@
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A41" s="2">
+      <c r="A41" s="1">
         <v>10214</v>
       </c>
       <c r="B41" s="1">
@@ -1744,13 +1753,13 @@
       <c r="G41" s="1">
         <v>75</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H41" s="2">
         <v>306018</v>
       </c>
       <c r="I41" s="1">
         <v>75</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J41" s="2">
         <v>307012</v>
       </c>
       <c r="K41" s="1">
@@ -1762,7 +1771,7 @@
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A42" s="2">
+      <c r="A42" s="1">
         <v>10215</v>
       </c>
       <c r="B42" s="1">
@@ -1783,7 +1792,7 @@
       <c r="G42" s="1">
         <v>75</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="2">
         <v>306019</v>
       </c>
       <c r="I42" s="1">
@@ -1795,7 +1804,7 @@
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A43" s="2">
+      <c r="A43" s="1">
         <v>10216</v>
       </c>
       <c r="B43" s="1">
@@ -1816,7 +1825,7 @@
       <c r="G43" s="1">
         <v>75</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="2">
         <v>306020</v>
       </c>
       <c r="I43" s="1">
@@ -1828,7 +1837,7 @@
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A44" s="2">
+      <c r="A44" s="1">
         <v>10217</v>
       </c>
       <c r="B44" s="1">
@@ -1849,7 +1858,7 @@
       <c r="G44" s="1">
         <v>75</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="2">
         <v>307019</v>
       </c>
       <c r="I44" s="1">
@@ -1861,7 +1870,7 @@
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A45" s="2">
+      <c r="A45" s="1">
         <v>10218</v>
       </c>
       <c r="V45" s="1">
@@ -1870,7 +1879,7 @@
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A46" s="2">
+      <c r="A46" s="1">
         <v>10219</v>
       </c>
       <c r="V46" s="1">
@@ -1879,7 +1888,7 @@
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A47" s="2">
+      <c r="A47" s="1">
         <v>10220</v>
       </c>
       <c r="B47" s="1">
@@ -1906,7 +1915,7 @@
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A48" s="2">
+      <c r="A48" s="1">
         <v>10221</v>
       </c>
       <c r="B48" s="1">
@@ -1933,7 +1942,7 @@
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A49" s="2">
+      <c r="A49" s="1">
         <v>10222</v>
       </c>
       <c r="B49" s="1">
@@ -1948,13 +1957,13 @@
       <c r="E49" s="1">
         <v>150</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="2">
         <v>306027</v>
       </c>
       <c r="G49" s="1">
         <v>150</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="2">
         <v>307022</v>
       </c>
       <c r="I49" s="1">
@@ -1966,7 +1975,7 @@
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A50" s="2">
+      <c r="A50" s="1">
         <v>10223</v>
       </c>
       <c r="B50" s="1">
@@ -1993,7 +2002,7 @@
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A51" s="2">
+      <c r="A51" s="1">
         <v>10224</v>
       </c>
       <c r="B51" s="1">
@@ -2008,13 +2017,13 @@
       <c r="E51" s="1">
         <v>150</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="2">
         <v>306025</v>
       </c>
       <c r="G51" s="1">
         <v>150</v>
       </c>
-      <c r="H51" s="3">
+      <c r="H51" s="2">
         <v>307023</v>
       </c>
       <c r="I51" s="1">
@@ -2026,7 +2035,7 @@
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A52" s="2">
+      <c r="A52" s="1">
         <v>10225</v>
       </c>
       <c r="B52" s="1">
@@ -2053,7 +2062,7 @@
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A53" s="2">
+      <c r="A53" s="1">
         <v>10226</v>
       </c>
       <c r="B53" s="1">
@@ -2068,13 +2077,13 @@
       <c r="E53" s="1">
         <v>150</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="2">
         <v>306026</v>
       </c>
       <c r="G53" s="1">
         <v>150</v>
       </c>
-      <c r="H53" s="3">
+      <c r="H53" s="2">
         <v>307024</v>
       </c>
       <c r="I53" s="1">
@@ -2086,7 +2095,7 @@
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A54" s="2">
+      <c r="A54" s="1">
         <v>10301</v>
       </c>
       <c r="B54" s="1">
@@ -2101,13 +2110,25 @@
       <c r="E54" s="1">
         <v>120</v>
       </c>
+      <c r="F54" s="2">
+        <v>305007</v>
+      </c>
+      <c r="G54" s="1">
+        <v>64</v>
+      </c>
+      <c r="H54" s="2">
+        <v>306012</v>
+      </c>
+      <c r="I54" s="1">
+        <v>64</v>
+      </c>
       <c r="V54" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A55" s="2">
+      <c r="A55" s="1">
         <v>10302</v>
       </c>
       <c r="B55" s="1">
@@ -2122,13 +2143,25 @@
       <c r="E55" s="1">
         <v>120</v>
       </c>
+      <c r="F55" s="2">
+        <v>305010</v>
+      </c>
+      <c r="G55" s="1">
+        <v>64</v>
+      </c>
+      <c r="H55" s="2">
+        <v>306013</v>
+      </c>
+      <c r="I55" s="1">
+        <v>64</v>
+      </c>
       <c r="V55" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A56" s="2">
+      <c r="A56" s="1">
         <v>10303</v>
       </c>
       <c r="B56" s="1">
@@ -2143,13 +2176,25 @@
       <c r="E56" s="1">
         <v>120</v>
       </c>
+      <c r="F56" s="2">
+        <v>305012</v>
+      </c>
+      <c r="G56" s="1">
+        <v>64</v>
+      </c>
+      <c r="H56" s="2">
+        <v>306014</v>
+      </c>
+      <c r="I56" s="1">
+        <v>64</v>
+      </c>
       <c r="V56" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A57" s="2">
+      <c r="A57" s="1">
         <v>10304</v>
       </c>
       <c r="B57" s="1">
@@ -2164,13 +2209,25 @@
       <c r="E57" s="1">
         <v>120</v>
       </c>
+      <c r="F57" s="2">
+        <v>305013</v>
+      </c>
+      <c r="G57" s="1">
+        <v>64</v>
+      </c>
+      <c r="H57" s="2">
+        <v>306015</v>
+      </c>
+      <c r="I57" s="1">
+        <v>64</v>
+      </c>
       <c r="V57" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A58" s="2">
+      <c r="A58" s="1">
         <v>10305</v>
       </c>
       <c r="B58" s="1">
@@ -2185,103 +2242,193 @@
       <c r="E58" s="1">
         <v>120</v>
       </c>
+      <c r="F58" s="2">
+        <v>305015</v>
+      </c>
+      <c r="G58" s="1">
+        <v>64</v>
+      </c>
+      <c r="H58" s="2">
+        <v>306018</v>
+      </c>
+      <c r="I58" s="1">
+        <v>64</v>
+      </c>
       <c r="V58" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A59" s="2">
+      <c r="A59" s="1">
         <v>10306</v>
       </c>
-      <c r="B59" s="1">
+      <c r="V59" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A60" s="1">
+        <v>10307</v>
+      </c>
+      <c r="B60" s="1">
+        <v>304003</v>
+      </c>
+      <c r="C60" s="1">
+        <v>32</v>
+      </c>
+      <c r="D60" s="1">
+        <v>303009</v>
+      </c>
+      <c r="E60" s="1">
+        <v>120</v>
+      </c>
+      <c r="F60" s="2">
+        <v>307017</v>
+      </c>
+      <c r="G60" s="1">
+        <v>64</v>
+      </c>
+      <c r="H60" s="2">
+        <v>307008</v>
+      </c>
+      <c r="I60" s="1">
+        <v>64</v>
+      </c>
+      <c r="V60" s="1">
+        <f>COUNT(D60:U60)/2</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A61" s="1">
+        <v>10308</v>
+      </c>
+      <c r="B61" s="1">
         <v>304004</v>
       </c>
-      <c r="C59" s="1">
-        <v>32</v>
-      </c>
-      <c r="D59" s="1">
-        <v>303009</v>
-      </c>
-      <c r="E59" s="1">
-        <v>120</v>
-      </c>
-      <c r="V59" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A60" s="2">
-        <v>10307</v>
-      </c>
-      <c r="B60" s="1">
+      <c r="C61" s="1">
+        <v>32</v>
+      </c>
+      <c r="D61" s="1">
+        <v>306012</v>
+      </c>
+      <c r="E61" s="1">
+        <v>64</v>
+      </c>
+      <c r="F61" s="2">
+        <v>306021</v>
+      </c>
+      <c r="G61" s="1">
+        <v>75</v>
+      </c>
+      <c r="H61" s="2">
+        <v>307009</v>
+      </c>
+      <c r="I61" s="1">
+        <v>64</v>
+      </c>
+      <c r="V61" s="1">
+        <f>COUNT(B61:U61)/2</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A62" s="1">
+        <v>10309</v>
+      </c>
+      <c r="B62" s="1">
         <v>304005</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C62" s="1">
         <v>100</v>
       </c>
-      <c r="D60" s="1">
-        <v>306012</v>
-      </c>
-      <c r="E60" s="1">
-        <v>64</v>
-      </c>
-      <c r="V60" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A61" s="2">
-        <v>10308</v>
-      </c>
-      <c r="B61" s="3">
+      <c r="D62" s="2">
         <v>306019</v>
       </c>
-      <c r="C61" s="1">
-        <v>64</v>
-      </c>
-      <c r="D61" s="3">
+      <c r="E62" s="1">
+        <v>64</v>
+      </c>
+      <c r="F62" s="2">
+        <v>306022</v>
+      </c>
+      <c r="G62" s="1">
+        <v>75</v>
+      </c>
+      <c r="H62" s="2">
         <v>307012</v>
       </c>
-      <c r="E61" s="1">
-        <v>64</v>
-      </c>
-      <c r="V61" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A62" s="2">
-        <v>10309</v>
+      <c r="I62" s="1">
+        <v>64</v>
       </c>
       <c r="V62" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>COUNT(B62:U62)/2</f>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A63" s="2">
+      <c r="A63" s="1">
         <v>10401</v>
       </c>
+      <c r="B63" s="1">
+        <v>220015</v>
+      </c>
+      <c r="C63" s="1">
+        <v>64</v>
+      </c>
+      <c r="D63" s="1">
+        <v>220017</v>
+      </c>
+      <c r="E63" s="1">
+        <v>64</v>
+      </c>
+      <c r="F63" s="1">
+        <v>220022</v>
+      </c>
+      <c r="G63" s="1">
+        <v>64</v>
+      </c>
+      <c r="H63" s="1">
+        <v>220023</v>
+      </c>
+      <c r="I63" s="1">
+        <v>64</v>
+      </c>
       <c r="V63" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A64" s="2">
+      <c r="A64" s="1">
         <v>10402</v>
       </c>
+      <c r="B64" s="1">
+        <v>220024</v>
+      </c>
+      <c r="C64" s="1">
+        <v>100</v>
+      </c>
+      <c r="D64" s="1">
+        <v>220025</v>
+      </c>
+      <c r="E64" s="1">
+        <v>100</v>
+      </c>
+      <c r="F64" s="1">
+        <v>220026</v>
+      </c>
+      <c r="G64" s="1">
+        <v>100</v>
+      </c>
       <c r="V64" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>COUNT(B64:U64)/2</f>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A65" s="2">
+      <c r="A65" s="1">
         <v>10403</v>
       </c>
       <c r="V65" s="1">
@@ -2290,7 +2437,7 @@
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A66" s="2">
+      <c r="A66" s="1">
         <v>10404</v>
       </c>
       <c r="V66" s="1">
@@ -2299,7 +2446,7 @@
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A67" s="2">
+      <c r="A67" s="1">
         <v>10405</v>
       </c>
       <c r="V67" s="1">
@@ -2308,7 +2455,7 @@
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A68" s="2">
+      <c r="A68" s="1">
         <v>10406</v>
       </c>
       <c r="V68" s="1">
@@ -2317,7 +2464,7 @@
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A69" s="2">
+      <c r="A69" s="1">
         <v>10407</v>
       </c>
       <c r="V69" s="1">
@@ -2326,7 +2473,7 @@
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A70" s="2">
+      <c r="A70" s="1">
         <v>10408</v>
       </c>
       <c r="V70" s="1">
@@ -2335,7 +2482,7 @@
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A71" s="2">
+      <c r="A71" s="1">
         <v>10409</v>
       </c>
       <c r="V71" s="1">
@@ -2344,7 +2491,7 @@
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A72" s="2">
+      <c r="A72" s="1">
         <v>10410</v>
       </c>
       <c r="V72" s="1">
@@ -2353,7 +2500,7 @@
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A73" s="2">
+      <c r="A73" s="1">
         <v>10411</v>
       </c>
       <c r="V73" s="1">
@@ -2362,7 +2509,7 @@
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A74" s="2">
+      <c r="A74" s="1">
         <v>10412</v>
       </c>
       <c r="V74" s="1">
@@ -2371,7 +2518,7 @@
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A75" s="2">
+      <c r="A75" s="1">
         <v>10413</v>
       </c>
       <c r="V75" s="1">
@@ -2380,7 +2527,7 @@
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A76" s="2">
+      <c r="A76" s="1">
         <v>10414</v>
       </c>
       <c r="V76" s="1">
@@ -2389,7 +2536,7 @@
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A77" s="2">
+      <c r="A77" s="1">
         <v>10601</v>
       </c>
       <c r="V77" s="1">
@@ -2398,7 +2545,7 @@
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A78" s="2">
+      <c r="A78" s="1">
         <v>10602</v>
       </c>
       <c r="V78" s="1">
@@ -2407,7 +2554,7 @@
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A79" s="2">
+      <c r="A79" s="1">
         <v>10603</v>
       </c>
       <c r="V79" s="1">
@@ -2416,7 +2563,7 @@
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A80" s="2">
+      <c r="A80" s="1">
         <v>10604</v>
       </c>
       <c r="V80" s="1">
@@ -2425,7 +2572,7 @@
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A81" s="2">
+      <c r="A81" s="1">
         <v>10605</v>
       </c>
       <c r="V81" s="1">
@@ -2434,7 +2581,7 @@
       </c>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A82" s="2">
+      <c r="A82" s="1">
         <v>10606</v>
       </c>
       <c r="V82" s="1">
@@ -2443,7 +2590,7 @@
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A83" s="2">
+      <c r="A83" s="1">
         <v>10701</v>
       </c>
       <c r="V83" s="1">
@@ -2452,7 +2599,7 @@
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A84" s="2">
+      <c r="A84" s="1">
         <v>10702</v>
       </c>
       <c r="V84" s="1">
@@ -2461,7 +2608,7 @@
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A85" s="2">
+      <c r="A85" s="1">
         <v>10703</v>
       </c>
       <c r="V85" s="1">
@@ -2470,7 +2617,7 @@
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A86" s="2">
+      <c r="A86" s="1">
         <v>10704</v>
       </c>
       <c r="V86" s="1">
@@ -2479,7 +2626,7 @@
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A87" s="2">
+      <c r="A87" s="1">
         <v>10705</v>
       </c>
       <c r="V87" s="1">
@@ -2488,7 +2635,7 @@
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A88" s="2">
+      <c r="A88" s="1">
         <v>10706</v>
       </c>
       <c r="V88" s="1">
@@ -2497,7 +2644,7 @@
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A89" s="2">
+      <c r="A89" s="1">
         <v>10707</v>
       </c>
       <c r="V89" s="1">
@@ -2506,7 +2653,7 @@
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A90" s="2">
+      <c r="A90" s="1">
         <v>10708</v>
       </c>
       <c r="V90" s="1">
@@ -2515,7 +2662,7 @@
       </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A91" s="2">
+      <c r="A91" s="1">
         <v>10709</v>
       </c>
       <c r="V91" s="1">
@@ -2524,7 +2671,7 @@
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A92" s="2">
+      <c r="A92" s="1">
         <v>10710</v>
       </c>
       <c r="V92" s="1">
@@ -2533,7 +2680,7 @@
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A93" s="2">
+      <c r="A93" s="1">
         <v>10711</v>
       </c>
       <c r="V93" s="1">
@@ -2542,7 +2689,7 @@
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A94" s="2">
+      <c r="A94" s="1">
         <v>20001</v>
       </c>
       <c r="B94" s="1">
@@ -2557,7 +2704,7 @@
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A95" s="2">
+      <c r="A95" s="1">
         <v>20002</v>
       </c>
       <c r="B95" s="1">
@@ -2572,7 +2719,7 @@
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A96" s="2">
+      <c r="A96" s="1">
         <v>20003</v>
       </c>
       <c r="V96" s="1">
@@ -2581,7 +2728,7 @@
       </c>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A97" s="2">
+      <c r="A97" s="1">
         <v>20004</v>
       </c>
       <c r="B97" s="1">
@@ -2626,7 +2773,7 @@
       </c>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A98" s="2">
+      <c r="A98" s="1">
         <v>20005</v>
       </c>
       <c r="B98" s="1">
@@ -2665,13 +2812,13 @@
       <c r="M98" s="1">
         <v>64</v>
       </c>
-      <c r="N98" s="3">
+      <c r="N98" s="2">
         <v>306021</v>
       </c>
       <c r="O98" s="1">
         <v>64</v>
       </c>
-      <c r="P98" s="3">
+      <c r="P98" s="2">
         <v>306022</v>
       </c>
       <c r="Q98" s="1">
@@ -2683,7 +2830,7 @@
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A99" s="2">
+      <c r="A99" s="1">
         <v>20006</v>
       </c>
       <c r="B99" s="1">
@@ -2698,19 +2845,19 @@
       <c r="E99" s="1">
         <v>32</v>
       </c>
-      <c r="F99" s="3">
+      <c r="F99" s="2">
         <v>307014</v>
       </c>
       <c r="G99" s="1">
         <v>64</v>
       </c>
-      <c r="H99" s="3">
+      <c r="H99" s="2">
         <v>307016</v>
       </c>
       <c r="I99" s="1">
         <v>64</v>
       </c>
-      <c r="J99" s="3">
+      <c r="J99" s="2">
         <v>307018</v>
       </c>
       <c r="K99" s="1">
@@ -2722,7 +2869,7 @@
       </c>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A100" s="2">
+      <c r="A100" s="1">
         <v>20007</v>
       </c>
       <c r="B100" s="1">
@@ -2749,7 +2896,7 @@
       </c>
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A101" s="2">
+      <c r="A101" s="1">
         <v>20008</v>
       </c>
       <c r="B101" s="1">
@@ -2776,7 +2923,7 @@
       </c>
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A102" s="2">
+      <c r="A102" s="1">
         <v>20009</v>
       </c>
       <c r="V102" s="1">
@@ -2785,7 +2932,7 @@
       </c>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A103" s="2">
+      <c r="A103" s="1">
         <v>20010</v>
       </c>
       <c r="B103" s="1">
@@ -2824,7 +2971,7 @@
       </c>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A104" s="2">
+      <c r="A104" s="1">
         <v>20011</v>
       </c>
       <c r="B104" s="1">
@@ -2839,19 +2986,19 @@
       <c r="E104" s="1">
         <v>75</v>
       </c>
-      <c r="F104" s="3">
+      <c r="F104" s="2">
         <v>307018</v>
       </c>
       <c r="G104" s="1">
         <v>64</v>
       </c>
-      <c r="H104" s="3">
+      <c r="H104" s="2">
         <v>307014</v>
       </c>
       <c r="I104" s="1">
         <v>64</v>
       </c>
-      <c r="J104" s="3">
+      <c r="J104" s="2">
         <v>307016</v>
       </c>
       <c r="K104" s="1">
@@ -2863,7 +3010,7 @@
       </c>
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A105" s="2">
+      <c r="A105" s="1">
         <v>20012</v>
       </c>
       <c r="B105" s="1">
@@ -2878,13 +3025,13 @@
       <c r="E105" s="1">
         <v>64</v>
       </c>
-      <c r="F105" s="3">
+      <c r="F105" s="2">
         <v>307018</v>
       </c>
       <c r="G105" s="1">
         <v>64</v>
       </c>
-      <c r="H105" s="3">
+      <c r="H105" s="2">
         <v>306021</v>
       </c>
       <c r="I105" s="1">
@@ -2896,7 +3043,7 @@
       </c>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A106" s="2">
+      <c r="A106" s="1">
         <v>20013</v>
       </c>
       <c r="B106" s="1">
@@ -2911,13 +3058,13 @@
       <c r="E106" s="1">
         <v>64</v>
       </c>
-      <c r="F106" s="3">
+      <c r="F106" s="2">
         <v>307014</v>
       </c>
       <c r="G106" s="1">
         <v>64</v>
       </c>
-      <c r="H106" s="3">
+      <c r="H106" s="2">
         <v>306022</v>
       </c>
       <c r="I106" s="1">
@@ -2929,7 +3076,7 @@
       </c>
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A107" s="2">
+      <c r="A107" s="1">
         <v>20014</v>
       </c>
       <c r="B107" s="1">
@@ -2944,7 +3091,7 @@
       <c r="E107" s="1">
         <v>64</v>
       </c>
-      <c r="F107" s="3">
+      <c r="F107" s="2">
         <v>307016</v>
       </c>
       <c r="G107" s="1">
@@ -2968,7 +3115,7 @@
       </c>
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A108" s="2">
+      <c r="A108" s="1">
         <v>20015</v>
       </c>
       <c r="B108" s="1">
@@ -3001,7 +3148,7 @@
       </c>
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A109" s="2">
+      <c r="A109" s="1">
         <v>20016</v>
       </c>
       <c r="B109" s="1">
@@ -3028,19 +3175,19 @@
       <c r="I109" s="1">
         <v>150</v>
       </c>
-      <c r="J109" s="3">
+      <c r="J109" s="2">
         <v>306028</v>
       </c>
       <c r="K109" s="1">
         <v>150</v>
       </c>
-      <c r="L109" s="3">
+      <c r="L109" s="2">
         <v>306029</v>
       </c>
       <c r="M109" s="1">
         <v>150</v>
       </c>
-      <c r="N109" s="3">
+      <c r="N109" s="2">
         <v>306030</v>
       </c>
       <c r="O109" s="1">
@@ -3052,7 +3199,7 @@
       </c>
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A110" s="2">
+      <c r="A110" s="1">
         <v>20017</v>
       </c>
       <c r="B110" s="1">
@@ -3079,19 +3226,19 @@
       <c r="I110" s="1">
         <v>150</v>
       </c>
-      <c r="J110" s="3">
+      <c r="J110" s="2">
         <v>307027</v>
       </c>
       <c r="K110" s="1">
         <v>150</v>
       </c>
-      <c r="L110" s="3">
+      <c r="L110" s="2">
         <v>307028</v>
       </c>
       <c r="M110" s="1">
         <v>150</v>
       </c>
-      <c r="N110" s="3">
+      <c r="N110" s="2">
         <v>307029</v>
       </c>
       <c r="O110" s="1">
@@ -3103,7 +3250,7 @@
       </c>
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A111" s="2">
+      <c r="A111" s="1">
         <v>20018</v>
       </c>
       <c r="B111" s="1">
@@ -3124,34 +3271,142 @@
       </c>
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A112" s="2">
+      <c r="A112" s="1">
         <v>20019</v>
       </c>
+      <c r="B112" s="1">
+        <v>301026</v>
+      </c>
+      <c r="C112" s="1">
+        <v>100</v>
+      </c>
+      <c r="D112" s="1">
+        <v>301029</v>
+      </c>
+      <c r="E112" s="1">
+        <v>100</v>
+      </c>
+      <c r="F112" s="1">
+        <v>301030</v>
+      </c>
+      <c r="G112" s="1">
+        <v>100</v>
+      </c>
+      <c r="H112" s="1">
+        <v>301033</v>
+      </c>
+      <c r="I112" s="1">
+        <v>500</v>
+      </c>
+      <c r="J112" s="1">
+        <v>301034</v>
+      </c>
+      <c r="K112" s="1">
+        <v>500</v>
+      </c>
+      <c r="L112" s="1">
+        <v>301035</v>
+      </c>
+      <c r="M112" s="1">
+        <v>500</v>
+      </c>
       <c r="V112" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A113" s="2">
+      <c r="A113" s="1">
         <v>20020</v>
       </c>
+      <c r="B113" s="1">
+        <v>301026</v>
+      </c>
+      <c r="C113" s="1">
+        <v>100</v>
+      </c>
+      <c r="D113" s="1">
+        <v>301029</v>
+      </c>
+      <c r="E113" s="1">
+        <v>100</v>
+      </c>
+      <c r="F113" s="1">
+        <v>301030</v>
+      </c>
+      <c r="G113" s="1">
+        <v>100</v>
+      </c>
+      <c r="H113" s="1">
+        <v>301033</v>
+      </c>
+      <c r="I113" s="1">
+        <v>500</v>
+      </c>
+      <c r="J113" s="1">
+        <v>301034</v>
+      </c>
+      <c r="K113" s="1">
+        <v>500</v>
+      </c>
+      <c r="L113" s="1">
+        <v>301035</v>
+      </c>
+      <c r="M113" s="1">
+        <v>500</v>
+      </c>
       <c r="V113" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A114" s="2">
+      <c r="A114" s="1">
         <v>20021</v>
       </c>
+      <c r="B114" s="1">
+        <v>301026</v>
+      </c>
+      <c r="C114" s="1">
+        <v>100</v>
+      </c>
+      <c r="D114" s="1">
+        <v>301029</v>
+      </c>
+      <c r="E114" s="1">
+        <v>100</v>
+      </c>
+      <c r="F114" s="1">
+        <v>301030</v>
+      </c>
+      <c r="G114" s="1">
+        <v>100</v>
+      </c>
+      <c r="H114" s="1">
+        <v>301033</v>
+      </c>
+      <c r="I114" s="1">
+        <v>500</v>
+      </c>
+      <c r="J114" s="1">
+        <v>301034</v>
+      </c>
+      <c r="K114" s="1">
+        <v>500</v>
+      </c>
+      <c r="L114" s="1">
+        <v>301035</v>
+      </c>
+      <c r="M114" s="1">
+        <v>500</v>
+      </c>
       <c r="V114" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A115" s="2">
+      <c r="A115" s="1">
         <v>20022</v>
       </c>
       <c r="V115" s="1">
@@ -3160,7 +3415,7 @@
       </c>
     </row>
     <row r="116" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A116" s="2">
+      <c r="A116" s="1">
         <v>20023</v>
       </c>
       <c r="V116" s="1">
@@ -3169,7 +3424,7 @@
       </c>
     </row>
     <row r="117" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A117" s="2">
+      <c r="A117" s="1">
         <v>20024</v>
       </c>
       <c r="V117" s="1">
@@ -3178,7 +3433,7 @@
       </c>
     </row>
     <row r="118" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A118" s="2">
+      <c r="A118" s="1">
         <v>20025</v>
       </c>
       <c r="V118" s="1">
@@ -3187,7 +3442,7 @@
       </c>
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A119" s="2">
+      <c r="A119" s="1">
         <v>20026</v>
       </c>
       <c r="V119" s="1">
@@ -3196,7 +3451,7 @@
       </c>
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A120" s="2">
+      <c r="A120" s="1">
         <v>20027</v>
       </c>
       <c r="V120" s="1">
@@ -3205,7 +3460,7 @@
       </c>
     </row>
     <row r="121" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A121" s="2">
+      <c r="A121" s="1">
         <v>20028</v>
       </c>
       <c r="V121" s="1">
@@ -3214,7 +3469,7 @@
       </c>
     </row>
     <row r="122" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A122" s="2">
+      <c r="A122" s="1">
         <v>20029</v>
       </c>
       <c r="V122" s="1">
@@ -3223,7 +3478,7 @@
       </c>
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A123" s="2">
+      <c r="A123" s="1">
         <v>20030</v>
       </c>
       <c r="V123" s="1">
@@ -3232,7 +3487,7 @@
       </c>
     </row>
     <row r="124" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A124" s="2">
+      <c r="A124" s="1">
         <v>20031</v>
       </c>
       <c r="V124" s="1">
@@ -3241,7 +3496,7 @@
       </c>
     </row>
     <row r="125" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A125" s="2">
+      <c r="A125" s="1">
         <v>20032</v>
       </c>
       <c r="V125" s="1">
@@ -3250,7 +3505,7 @@
       </c>
     </row>
     <row r="126" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A126" s="2">
+      <c r="A126" s="1">
         <v>20033</v>
       </c>
       <c r="V126" s="1">
@@ -3259,7 +3514,7 @@
       </c>
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A127" s="2">
+      <c r="A127" s="1">
         <v>20034</v>
       </c>
       <c r="V127" s="1">
@@ -3268,7 +3523,7 @@
       </c>
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A128" s="2">
+      <c r="A128" s="1">
         <v>20035</v>
       </c>
       <c r="V128" s="1">
@@ -3277,7 +3532,7 @@
       </c>
     </row>
     <row r="129" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A129" s="2">
+      <c r="A129" s="1">
         <v>20036</v>
       </c>
       <c r="V129" s="1">
@@ -3286,7 +3541,7 @@
       </c>
     </row>
     <row r="130" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A130" s="2">
+      <c r="A130" s="1">
         <v>20037</v>
       </c>
       <c r="V130" s="1">
@@ -3295,7 +3550,7 @@
       </c>
     </row>
     <row r="131" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A131" s="2">
+      <c r="A131" s="1">
         <v>20038</v>
       </c>
       <c r="V131" s="1">
@@ -3304,7 +3559,7 @@
       </c>
     </row>
     <row r="132" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A132" s="2">
+      <c r="A132" s="1">
         <v>20039</v>
       </c>
       <c r="V132" s="1">
@@ -3313,7 +3568,7 @@
       </c>
     </row>
     <row r="133" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A133" s="2">
+      <c r="A133" s="1">
         <v>20040</v>
       </c>
       <c r="V133" s="1">
@@ -3322,7 +3577,7 @@
       </c>
     </row>
     <row r="134" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A134" s="2">
+      <c r="A134" s="1">
         <v>20041</v>
       </c>
       <c r="V134" s="1">
@@ -3331,7 +3586,7 @@
       </c>
     </row>
     <row r="135" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A135" s="2">
+      <c r="A135" s="1">
         <v>20042</v>
       </c>
       <c r="V135" s="1">
@@ -3340,7 +3595,7 @@
       </c>
     </row>
     <row r="136" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A136" s="2">
+      <c r="A136" s="1">
         <v>20043</v>
       </c>
       <c r="V136" s="1">
@@ -3349,7 +3604,7 @@
       </c>
     </row>
     <row r="137" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A137" s="2">
+      <c r="A137" s="1">
         <v>20044</v>
       </c>
       <c r="V137" s="1">
@@ -3358,7 +3613,7 @@
       </c>
     </row>
     <row r="138" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A138" s="2">
+      <c r="A138" s="1">
         <v>20045</v>
       </c>
       <c r="V138" s="1">

--- a/documents/暴率表.xlsx
+++ b/documents/暴率表.xlsx
@@ -3324,8 +3324,8 @@
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3663,10 +3663,10 @@
   <dimension ref="A1:V138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H93" sqref="H93"/>
+      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3958,7 +3958,7 @@
         <v>307006</v>
       </c>
       <c r="I9" s="1">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="V9" s="1">
         <f t="shared" si="0"/>
@@ -4789,7 +4789,7 @@
         <v>301011</v>
       </c>
       <c r="C38" s="1">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="D38" s="1">
         <v>302005</v>
@@ -5586,36 +5586,132 @@
       <c r="A65" s="1">
         <v>10403</v>
       </c>
+      <c r="B65" s="1">
+        <v>304003</v>
+      </c>
+      <c r="C65" s="1">
+        <v>64</v>
+      </c>
+      <c r="D65" s="1">
+        <v>306010</v>
+      </c>
+      <c r="E65" s="1">
+        <v>64</v>
+      </c>
+      <c r="F65" s="1">
+        <v>305007</v>
+      </c>
+      <c r="G65" s="1">
+        <v>64</v>
+      </c>
+      <c r="H65" s="2">
+        <v>307008</v>
+      </c>
+      <c r="I65" s="1">
+        <v>64</v>
+      </c>
       <c r="V65" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
         <v>10404</v>
       </c>
+      <c r="B66" s="1">
+        <v>304003</v>
+      </c>
+      <c r="C66" s="1">
+        <v>64</v>
+      </c>
+      <c r="D66" s="1">
+        <v>306012</v>
+      </c>
+      <c r="E66" s="1">
+        <v>64</v>
+      </c>
+      <c r="F66" s="1">
+        <v>305010</v>
+      </c>
+      <c r="G66" s="1">
+        <v>64</v>
+      </c>
+      <c r="H66" s="2">
+        <v>307009</v>
+      </c>
+      <c r="I66" s="1">
+        <v>64</v>
+      </c>
       <c r="V66" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
         <v>10405</v>
       </c>
+      <c r="B67" s="1">
+        <v>304004</v>
+      </c>
+      <c r="C67" s="1">
+        <v>64</v>
+      </c>
+      <c r="D67" s="2">
+        <v>306018</v>
+      </c>
+      <c r="E67" s="1">
+        <v>64</v>
+      </c>
+      <c r="F67" s="1">
+        <v>305012</v>
+      </c>
+      <c r="G67" s="1">
+        <v>64</v>
+      </c>
+      <c r="H67" s="2">
+        <v>307010</v>
+      </c>
+      <c r="I67" s="1">
+        <v>64</v>
+      </c>
       <c r="V67" s="1">
         <f t="shared" ref="V67:V130" si="1">COUNT(B67:U67)/2</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
         <v>10406</v>
       </c>
+      <c r="B68" s="1">
+        <v>304004</v>
+      </c>
+      <c r="C68" s="1">
+        <v>64</v>
+      </c>
+      <c r="D68" s="2">
+        <v>306019</v>
+      </c>
+      <c r="E68" s="1">
+        <v>64</v>
+      </c>
+      <c r="F68" s="1">
+        <v>305013</v>
+      </c>
+      <c r="G68" s="1">
+        <v>64</v>
+      </c>
+      <c r="H68" s="2">
+        <v>307012</v>
+      </c>
+      <c r="I68" s="1">
+        <v>64</v>
+      </c>
       <c r="V68" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.15">
@@ -6016,7 +6112,7 @@
         <v>301017</v>
       </c>
       <c r="C99" s="1">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="D99" s="1">
         <v>304005</v>
@@ -6280,13 +6376,13 @@
         <v>307020</v>
       </c>
       <c r="I107" s="1">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="J107" s="1">
         <v>307021</v>
       </c>
       <c r="K107" s="1">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="V107" s="1">
         <f t="shared" si="1"/>
@@ -6313,13 +6409,13 @@
         <v>305017</v>
       </c>
       <c r="G108" s="1">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="H108" s="1">
         <v>306017</v>
       </c>
       <c r="I108" s="1">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="V108" s="1">
         <f t="shared" si="1"/>
@@ -6457,19 +6553,19 @@
         <v>301026</v>
       </c>
       <c r="C112" s="1">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D112" s="1">
         <v>301029</v>
       </c>
       <c r="E112" s="1">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="F112" s="1">
         <v>301030</v>
       </c>
       <c r="G112" s="1">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H112" s="1">
         <v>301033</v>
@@ -6502,19 +6598,19 @@
         <v>301026</v>
       </c>
       <c r="C113" s="1">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D113" s="1">
         <v>301029</v>
       </c>
       <c r="E113" s="1">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="F113" s="1">
         <v>301030</v>
       </c>
       <c r="G113" s="1">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H113" s="1">
         <v>301033</v>
@@ -6547,19 +6643,19 @@
         <v>301026</v>
       </c>
       <c r="C114" s="1">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D114" s="1">
         <v>301029</v>
       </c>
       <c r="E114" s="1">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="F114" s="1">
         <v>301030</v>
       </c>
       <c r="G114" s="1">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H114" s="1">
         <v>301033</v>
@@ -6812,8 +6908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D117" sqref="D117"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -10025,19 +10121,19 @@
       </c>
       <c r="C65" t="str">
         <f>IF(Sheet1!B65="","",VLOOKUP(Sheet1!B65,[2]装备!$A$3:$B$248,2))</f>
-        <v/>
+        <v>骷髅头盔</v>
       </c>
       <c r="D65" t="str">
         <f>IF(Sheet1!D65="","",VLOOKUP(Sheet1!D65,[2]装备!$A$3:$B$248,2))</f>
-        <v/>
+        <v>坚固手套</v>
       </c>
       <c r="E65" t="str">
         <f>IF(Sheet1!F65="","",VLOOKUP(Sheet1!F65,[2]装备!$A$3:$B$248,2))</f>
-        <v/>
+        <v>白色虎齿项链</v>
       </c>
       <c r="F65" t="str">
         <f>IF(Sheet1!H65="","",VLOOKUP(Sheet1!H65,[2]装备!$A$3:$B$248,2))</f>
-        <v/>
+        <v>魅力戒指</v>
       </c>
       <c r="G65" t="str">
         <f>IF(Sheet1!J65="","",VLOOKUP(Sheet1!J65,[2]装备!$A$3:$B$248,2))</f>
@@ -10075,19 +10171,19 @@
       </c>
       <c r="C66" t="str">
         <f>IF(Sheet1!B66="","",VLOOKUP(Sheet1!B66,[2]装备!$A$3:$B$248,2))</f>
-        <v/>
+        <v>骷髅头盔</v>
       </c>
       <c r="D66" t="str">
         <f>IF(Sheet1!D66="","",VLOOKUP(Sheet1!D66,[2]装备!$A$3:$B$248,2))</f>
-        <v/>
+        <v>死神手套</v>
       </c>
       <c r="E66" t="str">
         <f>IF(Sheet1!F66="","",VLOOKUP(Sheet1!F66,[2]装备!$A$3:$B$248,2))</f>
-        <v/>
+        <v>蓝翡翠项链</v>
       </c>
       <c r="F66" t="str">
         <f>IF(Sheet1!H66="","",VLOOKUP(Sheet1!H66,[2]装备!$A$3:$B$248,2))</f>
-        <v/>
+        <v>道德戒指</v>
       </c>
       <c r="G66" t="str">
         <f>IF(Sheet1!J66="","",VLOOKUP(Sheet1!J66,[2]装备!$A$3:$B$248,2))</f>
@@ -10125,19 +10221,19 @@
       </c>
       <c r="C67" t="str">
         <f>IF(Sheet1!B67="","",VLOOKUP(Sheet1!B67,[2]装备!$A$3:$B$248,2))</f>
-        <v/>
+        <v>道士头盔</v>
       </c>
       <c r="D67" t="str">
         <f>IF(Sheet1!D67="","",VLOOKUP(Sheet1!D67,[2]装备!$A$3:$B$248,2))</f>
-        <v/>
+        <v>幽灵手套</v>
       </c>
       <c r="E67" t="str">
         <f>IF(Sheet1!F67="","",VLOOKUP(Sheet1!F67,[2]装备!$A$3:$B$248,2))</f>
-        <v/>
+        <v>放大镜</v>
       </c>
       <c r="F67" t="str">
         <f>IF(Sheet1!H67="","",VLOOKUP(Sheet1!H67,[2]装备!$A$3:$B$248,2))</f>
-        <v/>
+        <v>降妖除魔戒指</v>
       </c>
       <c r="G67" t="str">
         <f>IF(Sheet1!J67="","",VLOOKUP(Sheet1!J67,[2]装备!$A$3:$B$248,2))</f>
@@ -10175,19 +10271,19 @@
       </c>
       <c r="C68" t="str">
         <f>IF(Sheet1!B68="","",VLOOKUP(Sheet1!B68,[2]装备!$A$3:$B$248,2))</f>
-        <v/>
+        <v>道士头盔</v>
       </c>
       <c r="D68" t="str">
         <f>IF(Sheet1!D68="","",VLOOKUP(Sheet1!D68,[2]装备!$A$3:$B$248,2))</f>
-        <v/>
+        <v>阎罗手套</v>
       </c>
       <c r="E68" t="str">
         <f>IF(Sheet1!F68="","",VLOOKUP(Sheet1!F68,[2]装备!$A$3:$B$248,2))</f>
-        <v/>
+        <v>竹笛</v>
       </c>
       <c r="F68" t="str">
         <f>IF(Sheet1!H68="","",VLOOKUP(Sheet1!H68,[2]装备!$A$3:$B$248,2))</f>
-        <v/>
+        <v>珊瑚戒指</v>
       </c>
       <c r="G68" t="str">
         <f>IF(Sheet1!J68="","",VLOOKUP(Sheet1!J68,[2]装备!$A$3:$B$248,2))</f>

--- a/documents/暴率表.xlsx
+++ b/documents/暴率表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="4875" yWindow="45" windowWidth="15615" windowHeight="7830" activeTab="1"/>
+    <workbookView xWindow="4875" yWindow="45" windowWidth="15615" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3322,7 +3322,904 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1">
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>ID</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>Name</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>201001</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>金创药(小)</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>201002</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>金创药(中)</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>201003</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>金创药(大)</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>201004</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>金创药(黄)</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>201005</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>金创药(玄)</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>201006</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>金创药(地)</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>201007</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>金创药(天)</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>201008</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>金创药(荒)</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>201009</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>金创药(洪)</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>201010</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>金创药(宙)</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>201011</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>魔法药(小)</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>201012</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>魔法药(中)</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>201013</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>魔法药(大)</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>201014</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>魔法药(黄)</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>201015</v>
+          </cell>
+          <cell r="B18" t="str">
+            <v>魔法药(玄)</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>201016</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v>魔法药(地)</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>201017</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v>魔法药(天)</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>201018</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>魔法药(荒)</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>201019</v>
+          </cell>
+          <cell r="B22" t="str">
+            <v>魔法药(洪)</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>201020</v>
+          </cell>
+          <cell r="B23" t="str">
+            <v>魔法药(宙)</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>202001</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v>双倍经验</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>202002</v>
+          </cell>
+          <cell r="B25" t="str">
+            <v>三倍经验</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>202003</v>
+          </cell>
+          <cell r="B26" t="str">
+            <v>四倍经验</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>202004</v>
+          </cell>
+          <cell r="B27" t="str">
+            <v>五倍经验</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>202005</v>
+          </cell>
+          <cell r="B28" t="str">
+            <v>六倍经验</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>202006</v>
+          </cell>
+          <cell r="B29" t="str">
+            <v>八倍经验</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>202007</v>
+          </cell>
+          <cell r="B30" t="str">
+            <v>十倍经验</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>202008</v>
+          </cell>
+          <cell r="B31" t="str">
+            <v>双倍声望</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>202009</v>
+          </cell>
+          <cell r="B32" t="str">
+            <v>三倍声望</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>202010</v>
+          </cell>
+          <cell r="B33" t="str">
+            <v>四倍声望</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>202011</v>
+          </cell>
+          <cell r="B34" t="str">
+            <v>五倍声望</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>202012</v>
+          </cell>
+          <cell r="B35" t="str">
+            <v>六倍声望</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>202013</v>
+          </cell>
+          <cell r="B36" t="str">
+            <v>八倍声望</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>202014</v>
+          </cell>
+          <cell r="B37" t="str">
+            <v>十倍声望</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>202015</v>
+          </cell>
+          <cell r="B38" t="str">
+            <v>双倍暴率</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>202016</v>
+          </cell>
+          <cell r="B39" t="str">
+            <v>三倍暴率</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>202017</v>
+          </cell>
+          <cell r="B40" t="str">
+            <v>四倍暴率</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>202018</v>
+          </cell>
+          <cell r="B41" t="str">
+            <v>五倍暴率</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>203001</v>
+          </cell>
+          <cell r="B42" t="str">
+            <v>零星铜币</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>203002</v>
+          </cell>
+          <cell r="B43" t="str">
+            <v>小堆铜币</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44">
+            <v>203003</v>
+          </cell>
+          <cell r="B44" t="str">
+            <v>大堆铜币</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45">
+            <v>203004</v>
+          </cell>
+          <cell r="B45" t="str">
+            <v>零星银币</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46">
+            <v>203005</v>
+          </cell>
+          <cell r="B46" t="str">
+            <v>小堆银币</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47">
+            <v>203006</v>
+          </cell>
+          <cell r="B47" t="str">
+            <v>大堆银币</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48">
+            <v>203007</v>
+          </cell>
+          <cell r="B48" t="str">
+            <v>银元</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49">
+            <v>203008</v>
+          </cell>
+          <cell r="B49" t="str">
+            <v>零星金币</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50">
+            <v>203009</v>
+          </cell>
+          <cell r="B50" t="str">
+            <v>小堆金币</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51">
+            <v>203010</v>
+          </cell>
+          <cell r="B51" t="str">
+            <v>大堆金币</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52">
+            <v>203011</v>
+          </cell>
+          <cell r="B52" t="str">
+            <v>金元宝</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53">
+            <v>203012</v>
+          </cell>
+          <cell r="B53" t="str">
+            <v>金条</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54">
+            <v>203013</v>
+          </cell>
+          <cell r="B54" t="str">
+            <v>金砖</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55">
+            <v>203014</v>
+          </cell>
+          <cell r="B55" t="str">
+            <v>金盒</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56">
+            <v>203015</v>
+          </cell>
+          <cell r="B56" t="str">
+            <v>富贵满堂</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57">
+            <v>203016</v>
+          </cell>
+          <cell r="B57" t="str">
+            <v>一级声望卷</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58">
+            <v>203017</v>
+          </cell>
+          <cell r="B58" t="str">
+            <v>二级声望卷</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59">
+            <v>203018</v>
+          </cell>
+          <cell r="B59" t="str">
+            <v>三级声望卷</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60">
+            <v>203019</v>
+          </cell>
+          <cell r="B60" t="str">
+            <v>四级声望卷</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61">
+            <v>203020</v>
+          </cell>
+          <cell r="B61" t="str">
+            <v>五级声望卷</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62">
+            <v>203021</v>
+          </cell>
+          <cell r="B62" t="str">
+            <v>六级声望卷</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63">
+            <v>203022</v>
+          </cell>
+          <cell r="B63" t="str">
+            <v>七级声望卷</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64">
+            <v>203023</v>
+          </cell>
+          <cell r="B64" t="str">
+            <v>八级声望卷</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65">
+            <v>203024</v>
+          </cell>
+          <cell r="B65" t="str">
+            <v>九级声望卷</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66">
+            <v>203025</v>
+          </cell>
+          <cell r="B66" t="str">
+            <v>十级声望卷</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67">
+            <v>203026</v>
+          </cell>
+          <cell r="B67" t="str">
+            <v>十一级声望卷</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68">
+            <v>203027</v>
+          </cell>
+          <cell r="B68" t="str">
+            <v>十二级声望卷</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69">
+            <v>203028</v>
+          </cell>
+          <cell r="B69" t="str">
+            <v>十三级声望卷</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70">
+            <v>203029</v>
+          </cell>
+          <cell r="B70" t="str">
+            <v>十四级声望卷</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71">
+            <v>203030</v>
+          </cell>
+          <cell r="B71" t="str">
+            <v>十五级声望卷</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72">
+            <v>203031</v>
+          </cell>
+          <cell r="B72" t="str">
+            <v>10元宝</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73">
+            <v>203032</v>
+          </cell>
+          <cell r="B73" t="str">
+            <v>20元宝</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74">
+            <v>203033</v>
+          </cell>
+          <cell r="B74" t="str">
+            <v>30元宝</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75">
+            <v>203034</v>
+          </cell>
+          <cell r="B75" t="str">
+            <v>50元宝</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76">
+            <v>203035</v>
+          </cell>
+          <cell r="B76" t="str">
+            <v>100元宝</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77">
+            <v>203036</v>
+          </cell>
+          <cell r="B77" t="str">
+            <v>200元宝</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78">
+            <v>203037</v>
+          </cell>
+          <cell r="B78" t="str">
+            <v>500元宝</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79">
+            <v>203038</v>
+          </cell>
+          <cell r="B79" t="str">
+            <v>1000元宝</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80">
+            <v>203039</v>
+          </cell>
+          <cell r="B80" t="str">
+            <v>2000元宝</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81">
+            <v>203040</v>
+          </cell>
+          <cell r="B81" t="str">
+            <v>5000元宝</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82">
+            <v>220001</v>
+          </cell>
+          <cell r="B82" t="str">
+            <v>火球术</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83">
+            <v>220002</v>
+          </cell>
+          <cell r="B83" t="str">
+            <v>治愈术</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84">
+            <v>220003</v>
+          </cell>
+          <cell r="B84" t="str">
+            <v>基本剑术</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85">
+            <v>220004</v>
+          </cell>
+          <cell r="B85" t="str">
+            <v>精神力战法</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86">
+            <v>220005</v>
+          </cell>
+          <cell r="B86" t="str">
+            <v>大火球</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87">
+            <v>220006</v>
+          </cell>
+          <cell r="B87" t="str">
+            <v>攻杀剑术</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88">
+            <v>220007</v>
+          </cell>
+          <cell r="B88" t="str">
+            <v>施毒术</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89">
+            <v>220008</v>
+          </cell>
+          <cell r="B89" t="str">
+            <v>抗拒火环</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90">
+            <v>220009</v>
+          </cell>
+          <cell r="B90" t="str">
+            <v>地狱火</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="A91">
+            <v>220010</v>
+          </cell>
+          <cell r="B91" t="str">
+            <v>雷电术</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="A92">
+            <v>220011</v>
+          </cell>
+          <cell r="B92" t="str">
+            <v>疾光电影</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="A93">
+            <v>220012</v>
+          </cell>
+          <cell r="B93" t="str">
+            <v>灵魂火符</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="A94">
+            <v>220013</v>
+          </cell>
+          <cell r="B94" t="str">
+            <v>幽灵盾</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="A95">
+            <v>220014</v>
+          </cell>
+          <cell r="B95" t="str">
+            <v>神圣战甲术</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="A96">
+            <v>220015</v>
+          </cell>
+          <cell r="B96" t="str">
+            <v>刺杀剑术</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="A97">
+            <v>220016</v>
+          </cell>
+          <cell r="B97" t="str">
+            <v>困魔咒</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="A98">
+            <v>220017</v>
+          </cell>
+          <cell r="B98" t="str">
+            <v>召唤骷髅</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="A99">
+            <v>220018</v>
+          </cell>
+          <cell r="B99" t="str">
+            <v>隐身术</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="A100">
+            <v>220019</v>
+          </cell>
+          <cell r="B100" t="str">
+            <v>集体隐身术</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="A101">
+            <v>220020</v>
+          </cell>
+          <cell r="B101" t="str">
+            <v>诱惑之光</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="A102">
+            <v>220021</v>
+          </cell>
+          <cell r="B102" t="str">
+            <v>瞬息移动</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="A103">
+            <v>220022</v>
+          </cell>
+          <cell r="B103" t="str">
+            <v>火墙</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="A104">
+            <v>220023</v>
+          </cell>
+          <cell r="B104" t="str">
+            <v>爆裂火焰</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="A105">
+            <v>220024</v>
+          </cell>
+          <cell r="B105" t="str">
+            <v>地狱雷光</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="A106">
+            <v>220025</v>
+          </cell>
+          <cell r="B106" t="str">
+            <v>半月弯刀</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="A107">
+            <v>220026</v>
+          </cell>
+          <cell r="B107" t="str">
+            <v>烈火剑法</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="A108">
+            <v>220027</v>
+          </cell>
+          <cell r="B108" t="str">
+            <v>野蛮冲撞</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="A109">
+            <v>220028</v>
+          </cell>
+          <cell r="B109" t="str">
+            <v>心灵启示</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="A110">
+            <v>220029</v>
+          </cell>
+          <cell r="B110" t="str">
+            <v>群体治疗术</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="A111">
+            <v>220030</v>
+          </cell>
+          <cell r="B111" t="str">
+            <v>召唤神兽</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="A112">
+            <v>220031</v>
+          </cell>
+          <cell r="B112" t="str">
+            <v>魔法盾</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="A113">
+            <v>220032</v>
+          </cell>
+          <cell r="B113" t="str">
+            <v>圣言术</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="A114">
+            <v>220033</v>
+          </cell>
+          <cell r="B114" t="str">
+            <v>冰咆哮</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3" refreshError="1"/>
       <sheetData sheetId="4" refreshError="1"/>
@@ -3662,7 +4559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V138"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -6908,8 +7805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C116" sqref="C116"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -7719,25 +8616,25 @@
         <f>VLOOKUP(A17,[1]普通怪属性!$A:$B,2)</f>
         <v>爬地僵尸</v>
       </c>
-      <c r="C17" t="e">
-        <f>IF(Sheet1!B17="","",VLOOKUP(Sheet1!B17,[2]装备!$A$3:$B$248,2))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D17" t="e">
-        <f>IF(Sheet1!D17="","",VLOOKUP(Sheet1!D17,[2]装备!$A$3:$B$248,2))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E17" t="e">
-        <f>IF(Sheet1!F17="","",VLOOKUP(Sheet1!F17,[2]装备!$A$3:$B$248,2))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F17" t="e">
-        <f>IF(Sheet1!H17="","",VLOOKUP(Sheet1!H17,[2]装备!$A$3:$B$248,2))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G17" t="e">
-        <f>IF(Sheet1!J17="","",VLOOKUP(Sheet1!J17,[2]装备!$A$3:$B$248,2))</f>
-        <v>#N/A</v>
+      <c r="C17" t="str">
+        <f>IF(Sheet1!B17="","",VLOOKUP(Sheet1!B17,[2]道具!$A$3:$B$248,2))</f>
+        <v>火球术</v>
+      </c>
+      <c r="D17" t="str">
+        <f>IF(Sheet1!D17="","",VLOOKUP(Sheet1!D17,[2]道具!$A$3:$B$248,2))</f>
+        <v>精神力战法</v>
+      </c>
+      <c r="E17" t="str">
+        <f>IF(Sheet1!F17="","",VLOOKUP(Sheet1!F17,[2]道具!$A$3:$B$248,2))</f>
+        <v>雷电术</v>
+      </c>
+      <c r="F17" t="str">
+        <f>IF(Sheet1!H17="","",VLOOKUP(Sheet1!H17,[2]道具!$A$3:$B$248,2))</f>
+        <v>幽灵盾</v>
+      </c>
+      <c r="G17" t="str">
+        <f>IF(Sheet1!J17="","",VLOOKUP(Sheet1!J17,[2]道具!$A$3:$B$248,2))</f>
+        <v>刺杀剑术</v>
       </c>
       <c r="H17" t="str">
         <f>IF(Sheet1!L17="","",VLOOKUP(Sheet1!L17,[2]装备!$A$3:$B$248,2))</f>
@@ -7769,25 +8666,25 @@
         <f>VLOOKUP(A18,[1]普通怪属性!$A:$B,2)</f>
         <v xml:space="preserve">行走僵尸 </v>
       </c>
-      <c r="C18" t="e">
-        <f>IF(Sheet1!B18="","",VLOOKUP(Sheet1!B18,[2]装备!$A$3:$B$248,2))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D18" t="e">
-        <f>IF(Sheet1!D18="","",VLOOKUP(Sheet1!D18,[2]装备!$A$3:$B$248,2))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E18" t="e">
-        <f>IF(Sheet1!F18="","",VLOOKUP(Sheet1!F18,[2]装备!$A$3:$B$248,2))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F18" t="e">
-        <f>IF(Sheet1!H18="","",VLOOKUP(Sheet1!H18,[2]装备!$A$3:$B$248,2))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G18" t="e">
-        <f>IF(Sheet1!J18="","",VLOOKUP(Sheet1!J18,[2]装备!$A$3:$B$248,2))</f>
-        <v>#N/A</v>
+      <c r="C18" t="str">
+        <f>IF(Sheet1!B18="","",VLOOKUP(Sheet1!B18,[2]道具!$A$3:$B$248,2))</f>
+        <v>火球术</v>
+      </c>
+      <c r="D18" t="str">
+        <f>IF(Sheet1!D18="","",VLOOKUP(Sheet1!D18,[2]道具!$A$3:$B$248,2))</f>
+        <v>大火球</v>
+      </c>
+      <c r="E18" t="str">
+        <f>IF(Sheet1!F18="","",VLOOKUP(Sheet1!F18,[2]道具!$A$3:$B$248,2))</f>
+        <v>雷电术</v>
+      </c>
+      <c r="F18" t="str">
+        <f>IF(Sheet1!H18="","",VLOOKUP(Sheet1!H18,[2]道具!$A$3:$B$248,2))</f>
+        <v>神圣战甲术</v>
+      </c>
+      <c r="G18" t="str">
+        <f>IF(Sheet1!J18="","",VLOOKUP(Sheet1!J18,[2]道具!$A$3:$B$248,2))</f>
+        <v>刺杀剑术</v>
       </c>
       <c r="H18" t="str">
         <f>IF(Sheet1!L18="","",VLOOKUP(Sheet1!L18,[2]装备!$A$3:$B$248,2))</f>
@@ -7819,25 +8716,25 @@
         <f>VLOOKUP(A19,[1]普通怪属性!$A:$B,2)</f>
         <v>残废僵尸</v>
       </c>
-      <c r="C19" t="e">
-        <f>IF(Sheet1!B19="","",VLOOKUP(Sheet1!B19,[2]装备!$A$3:$B$248,2))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D19" t="e">
-        <f>IF(Sheet1!D19="","",VLOOKUP(Sheet1!D19,[2]装备!$A$3:$B$248,2))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E19" t="e">
-        <f>IF(Sheet1!F19="","",VLOOKUP(Sheet1!F19,[2]装备!$A$3:$B$248,2))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F19" t="e">
-        <f>IF(Sheet1!H19="","",VLOOKUP(Sheet1!H19,[2]装备!$A$3:$B$248,2))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G19" t="e">
-        <f>IF(Sheet1!J19="","",VLOOKUP(Sheet1!J19,[2]装备!$A$3:$B$248,2))</f>
-        <v>#N/A</v>
+      <c r="C19" t="str">
+        <f>IF(Sheet1!B19="","",VLOOKUP(Sheet1!B19,[2]道具!$A$3:$B$248,2))</f>
+        <v>基本剑术</v>
+      </c>
+      <c r="D19" t="str">
+        <f>IF(Sheet1!D19="","",VLOOKUP(Sheet1!D19,[2]道具!$A$3:$B$248,2))</f>
+        <v>大火球</v>
+      </c>
+      <c r="E19" t="str">
+        <f>IF(Sheet1!F19="","",VLOOKUP(Sheet1!F19,[2]道具!$A$3:$B$248,2))</f>
+        <v>灵魂火符</v>
+      </c>
+      <c r="F19" t="str">
+        <f>IF(Sheet1!H19="","",VLOOKUP(Sheet1!H19,[2]道具!$A$3:$B$248,2))</f>
+        <v>神圣战甲术</v>
+      </c>
+      <c r="G19" t="str">
+        <f>IF(Sheet1!J19="","",VLOOKUP(Sheet1!J19,[2]道具!$A$3:$B$248,2))</f>
+        <v>火墙</v>
       </c>
       <c r="H19" t="str">
         <f>IF(Sheet1!L19="","",VLOOKUP(Sheet1!L19,[2]装备!$A$3:$B$248,2))</f>
@@ -7869,25 +8766,25 @@
         <f>VLOOKUP(A20,[1]普通怪属性!$A:$B,2)</f>
         <v xml:space="preserve">黄袍僵尸 </v>
       </c>
-      <c r="C20" t="e">
-        <f>IF(Sheet1!B20="","",VLOOKUP(Sheet1!B20,[2]装备!$A$3:$B$248,2))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D20" t="e">
-        <f>IF(Sheet1!D20="","",VLOOKUP(Sheet1!D20,[2]装备!$A$3:$B$248,2))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E20" t="e">
-        <f>IF(Sheet1!F20="","",VLOOKUP(Sheet1!F20,[2]装备!$A$3:$B$248,2))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F20" t="e">
-        <f>IF(Sheet1!H20="","",VLOOKUP(Sheet1!H20,[2]装备!$A$3:$B$248,2))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G20" t="e">
-        <f>IF(Sheet1!J20="","",VLOOKUP(Sheet1!J20,[2]装备!$A$3:$B$248,2))</f>
-        <v>#N/A</v>
+      <c r="C20" t="str">
+        <f>IF(Sheet1!B20="","",VLOOKUP(Sheet1!B20,[2]道具!$A$3:$B$248,2))</f>
+        <v>基本剑术</v>
+      </c>
+      <c r="D20" t="str">
+        <f>IF(Sheet1!D20="","",VLOOKUP(Sheet1!D20,[2]道具!$A$3:$B$248,2))</f>
+        <v>攻杀剑术</v>
+      </c>
+      <c r="E20" t="str">
+        <f>IF(Sheet1!F20="","",VLOOKUP(Sheet1!F20,[2]道具!$A$3:$B$248,2))</f>
+        <v>灵魂火符</v>
+      </c>
+      <c r="F20" t="str">
+        <f>IF(Sheet1!H20="","",VLOOKUP(Sheet1!H20,[2]道具!$A$3:$B$248,2))</f>
+        <v>召唤骷髅</v>
+      </c>
+      <c r="G20" t="str">
+        <f>IF(Sheet1!J20="","",VLOOKUP(Sheet1!J20,[2]道具!$A$3:$B$248,2))</f>
+        <v>火墙</v>
       </c>
       <c r="H20" t="str">
         <f>IF(Sheet1!L20="","",VLOOKUP(Sheet1!L20,[2]装备!$A$3:$B$248,2))</f>
@@ -7919,25 +8816,25 @@
         <f>VLOOKUP(A21,[1]普通怪属性!$A:$B,2)</f>
         <v xml:space="preserve">电僵尸 </v>
       </c>
-      <c r="C21" t="e">
-        <f>IF(Sheet1!B21="","",VLOOKUP(Sheet1!B21,[2]装备!$A$3:$B$248,2))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D21" t="e">
-        <f>IF(Sheet1!D21="","",VLOOKUP(Sheet1!D21,[2]装备!$A$3:$B$248,2))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E21" t="e">
-        <f>IF(Sheet1!F21="","",VLOOKUP(Sheet1!F21,[2]装备!$A$3:$B$248,2))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F21" t="e">
-        <f>IF(Sheet1!H21="","",VLOOKUP(Sheet1!H21,[2]装备!$A$3:$B$248,2))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G21" t="e">
-        <f>IF(Sheet1!J21="","",VLOOKUP(Sheet1!J21,[2]装备!$A$3:$B$248,2))</f>
-        <v>#N/A</v>
+      <c r="C21" t="str">
+        <f>IF(Sheet1!B21="","",VLOOKUP(Sheet1!B21,[2]道具!$A$3:$B$248,2))</f>
+        <v>精神力战法</v>
+      </c>
+      <c r="D21" t="str">
+        <f>IF(Sheet1!D21="","",VLOOKUP(Sheet1!D21,[2]道具!$A$3:$B$248,2))</f>
+        <v>攻杀剑术</v>
+      </c>
+      <c r="E21" t="str">
+        <f>IF(Sheet1!F21="","",VLOOKUP(Sheet1!F21,[2]道具!$A$3:$B$248,2))</f>
+        <v>幽灵盾</v>
+      </c>
+      <c r="F21" t="str">
+        <f>IF(Sheet1!H21="","",VLOOKUP(Sheet1!H21,[2]道具!$A$3:$B$248,2))</f>
+        <v>召唤骷髅</v>
+      </c>
+      <c r="G21" t="str">
+        <f>IF(Sheet1!J21="","",VLOOKUP(Sheet1!J21,[2]道具!$A$3:$B$248,2))</f>
+        <v>爆裂火焰</v>
       </c>
       <c r="H21" t="str">
         <f>IF(Sheet1!L21="","",VLOOKUP(Sheet1!L21,[2]装备!$A$3:$B$248,2))</f>
@@ -10019,21 +10916,21 @@
         <f>VLOOKUP(A63,[1]普通怪属性!$A:$B,2)</f>
         <v>恶灵僵尸</v>
       </c>
-      <c r="C63" t="e">
-        <f>IF(Sheet1!B63="","",VLOOKUP(Sheet1!B63,[2]装备!$A$3:$B$248,2))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D63" t="e">
-        <f>IF(Sheet1!D63="","",VLOOKUP(Sheet1!D63,[2]装备!$A$3:$B$248,2))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E63" t="e">
-        <f>IF(Sheet1!F63="","",VLOOKUP(Sheet1!F63,[2]装备!$A$3:$B$248,2))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F63" t="e">
-        <f>IF(Sheet1!H63="","",VLOOKUP(Sheet1!H63,[2]装备!$A$3:$B$248,2))</f>
-        <v>#N/A</v>
+      <c r="C63" t="str">
+        <f>IF(Sheet1!B63="","",VLOOKUP(Sheet1!B63,[2]道具!$A$3:$B$248,2))</f>
+        <v>刺杀剑术</v>
+      </c>
+      <c r="D63" t="str">
+        <f>IF(Sheet1!D63="","",VLOOKUP(Sheet1!D63,[2]道具!$A$3:$B$248,2))</f>
+        <v>召唤骷髅</v>
+      </c>
+      <c r="E63" t="str">
+        <f>IF(Sheet1!F63="","",VLOOKUP(Sheet1!F63,[2]道具!$A$3:$B$248,2))</f>
+        <v>火墙</v>
+      </c>
+      <c r="F63" t="str">
+        <f>IF(Sheet1!H63="","",VLOOKUP(Sheet1!H63,[2]道具!$A$3:$B$248,2))</f>
+        <v>爆裂火焰</v>
       </c>
       <c r="G63" t="str">
         <f>IF(Sheet1!J63="","",VLOOKUP(Sheet1!J63,[2]装备!$A$3:$B$248,2))</f>
@@ -10069,20 +10966,20 @@
         <f>VLOOKUP(A64,[1]普通怪属性!$A:$B,2)</f>
         <v>恶灵尸王</v>
       </c>
-      <c r="C64" t="e">
-        <f>IF(Sheet1!B64="","",VLOOKUP(Sheet1!B64,[2]装备!$A$3:$B$248,2))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D64" t="e">
-        <f>IF(Sheet1!D64="","",VLOOKUP(Sheet1!D64,[2]装备!$A$3:$B$248,2))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E64" t="e">
-        <f>IF(Sheet1!F64="","",VLOOKUP(Sheet1!F64,[2]装备!$A$3:$B$248,2))</f>
-        <v>#N/A</v>
+      <c r="C64" t="str">
+        <f>IF(Sheet1!B64="","",VLOOKUP(Sheet1!B64,[2]道具!$A$3:$B$248,2))</f>
+        <v>地狱雷光</v>
+      </c>
+      <c r="D64" t="str">
+        <f>IF(Sheet1!D64="","",VLOOKUP(Sheet1!D64,[2]道具!$A$3:$B$248,2))</f>
+        <v>半月弯刀</v>
+      </c>
+      <c r="E64" t="str">
+        <f>IF(Sheet1!F64="","",VLOOKUP(Sheet1!F64,[2]道具!$A$3:$B$248,2))</f>
+        <v>烈火剑法</v>
       </c>
       <c r="F64" t="str">
-        <f>IF(Sheet1!H64="","",VLOOKUP(Sheet1!H64,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H64="","",VLOOKUP(Sheet1!H64,[2]道具!$A$3:$B$248,2))</f>
         <v/>
       </c>
       <c r="G64" t="str">
@@ -11719,29 +12616,29 @@
         <f>VLOOKUP(A97,[1]BOSS怪属性!$A:$B,2)</f>
         <v>尸王</v>
       </c>
-      <c r="C97" t="e">
-        <f>IF(Sheet1!B97="","",VLOOKUP(Sheet1!B97,[2]装备!$A$3:$B$248,2))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D97" t="e">
-        <f>IF(Sheet1!D97="","",VLOOKUP(Sheet1!D97,[2]装备!$A$3:$B$248,2))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E97" t="e">
-        <f>IF(Sheet1!F97="","",VLOOKUP(Sheet1!F97,[2]装备!$A$3:$B$248,2))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F97" t="e">
-        <f>IF(Sheet1!H97="","",VLOOKUP(Sheet1!H97,[2]装备!$A$3:$B$248,2))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G97" t="e">
-        <f>IF(Sheet1!J97="","",VLOOKUP(Sheet1!J97,[2]装备!$A$3:$B$248,2))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H97" t="e">
-        <f>IF(Sheet1!L97="","",VLOOKUP(Sheet1!L97,[2]装备!$A$3:$B$248,2))</f>
-        <v>#N/A</v>
+      <c r="C97" t="str">
+        <f>IF(Sheet1!B97="","",VLOOKUP(Sheet1!B97,[2]道具!$A$3:$B$248,2))</f>
+        <v>地狱雷光</v>
+      </c>
+      <c r="D97" t="str">
+        <f>IF(Sheet1!D97="","",VLOOKUP(Sheet1!D97,[2]道具!$A$3:$B$248,2))</f>
+        <v>半月弯刀</v>
+      </c>
+      <c r="E97" t="str">
+        <f>IF(Sheet1!F97="","",VLOOKUP(Sheet1!F97,[2]道具!$A$3:$B$248,2))</f>
+        <v>烈火剑法</v>
+      </c>
+      <c r="F97" t="str">
+        <f>IF(Sheet1!H97="","",VLOOKUP(Sheet1!H97,[2]道具!$A$3:$B$248,2))</f>
+        <v>召唤神兽</v>
+      </c>
+      <c r="G97" t="str">
+        <f>IF(Sheet1!J97="","",VLOOKUP(Sheet1!J97,[2]道具!$A$3:$B$248,2))</f>
+        <v>魔法盾</v>
+      </c>
+      <c r="H97" t="str">
+        <f>IF(Sheet1!L97="","",VLOOKUP(Sheet1!L97,[2]道具!$A$3:$B$248,2))</f>
+        <v>冰咆哮</v>
       </c>
       <c r="I97" t="str">
         <f>IF(Sheet1!N97="","",VLOOKUP(Sheet1!N97,[2]装备!$A$3:$B$248,2))</f>

--- a/documents/暴率表.xlsx
+++ b/documents/暴率表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="4875" yWindow="45" windowWidth="15615" windowHeight="7830"/>
+    <workbookView xWindow="5325" yWindow="75" windowWidth="15615" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1348,8 +1348,6 @@
       <sheetName val="装备"/>
       <sheetName val="道具"/>
       <sheetName val="道具作用说明表"/>
-      <sheetName val="技能"/>
-      <sheetName val="buff"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -4220,9 +4218,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4563,7 +4559,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -4866,9 +4862,33 @@
       <c r="A10" s="1">
         <v>10109</v>
       </c>
+      <c r="B10">
+        <v>203001</v>
+      </c>
+      <c r="C10" s="1">
+        <v>64</v>
+      </c>
+      <c r="D10" s="1">
+        <v>203002</v>
+      </c>
+      <c r="E10" s="1">
+        <v>100</v>
+      </c>
+      <c r="F10" s="1">
+        <v>203003</v>
+      </c>
+      <c r="G10" s="1">
+        <v>150</v>
+      </c>
+      <c r="H10" s="1">
+        <v>203004</v>
+      </c>
+      <c r="I10" s="1">
+        <v>200</v>
+      </c>
       <c r="V10" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.15">
@@ -5442,9 +5462,33 @@
       <c r="A28" s="1">
         <v>10201</v>
       </c>
+      <c r="B28" s="1">
+        <v>203001</v>
+      </c>
+      <c r="C28" s="1">
+        <v>64</v>
+      </c>
+      <c r="D28" s="1">
+        <v>203002</v>
+      </c>
+      <c r="E28" s="1">
+        <v>100</v>
+      </c>
+      <c r="F28" s="1">
+        <v>203003</v>
+      </c>
+      <c r="G28" s="1">
+        <v>150</v>
+      </c>
+      <c r="H28" s="1">
+        <v>203004</v>
+      </c>
+      <c r="I28" s="1">
+        <v>200</v>
+      </c>
       <c r="V28" s="1">
         <f>COUNT(B28:U28)/2</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.15">
@@ -5925,18 +5969,66 @@
       <c r="A45" s="1">
         <v>10218</v>
       </c>
+      <c r="B45" s="1">
+        <v>203002</v>
+      </c>
+      <c r="C45" s="1">
+        <v>64</v>
+      </c>
+      <c r="D45" s="1">
+        <v>203003</v>
+      </c>
+      <c r="E45" s="1">
+        <v>100</v>
+      </c>
+      <c r="F45" s="1">
+        <v>203004</v>
+      </c>
+      <c r="G45" s="1">
+        <v>150</v>
+      </c>
+      <c r="H45" s="1">
+        <v>203005</v>
+      </c>
+      <c r="I45" s="1">
+        <v>200</v>
+      </c>
       <c r="V45" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>10219</v>
       </c>
+      <c r="B46" s="1">
+        <v>203002</v>
+      </c>
+      <c r="C46" s="1">
+        <v>64</v>
+      </c>
+      <c r="D46" s="1">
+        <v>203003</v>
+      </c>
+      <c r="E46" s="1">
+        <v>100</v>
+      </c>
+      <c r="F46" s="1">
+        <v>203004</v>
+      </c>
+      <c r="G46" s="1">
+        <v>150</v>
+      </c>
+      <c r="H46" s="1">
+        <v>203005</v>
+      </c>
+      <c r="I46" s="1">
+        <v>200</v>
+      </c>
       <c r="V46" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.15">
@@ -5997,33 +6089,45 @@
       <c r="A49" s="1">
         <v>10222</v>
       </c>
-      <c r="B49" s="1">
-        <v>301026</v>
+      <c r="B49" s="2">
+        <v>305010</v>
       </c>
       <c r="C49" s="1">
+        <v>64</v>
+      </c>
+      <c r="D49" s="2">
+        <v>305025</v>
+      </c>
+      <c r="E49" s="1">
         <v>250</v>
       </c>
-      <c r="D49" s="1">
-        <v>305025</v>
-      </c>
-      <c r="E49" s="1">
-        <v>150</v>
-      </c>
       <c r="F49" s="2">
+        <v>306015</v>
+      </c>
+      <c r="G49" s="1">
+        <v>64</v>
+      </c>
+      <c r="H49" s="2">
         <v>306027</v>
       </c>
-      <c r="G49" s="1">
-        <v>150</v>
-      </c>
-      <c r="H49" s="2">
+      <c r="I49" s="1">
+        <v>250</v>
+      </c>
+      <c r="J49" s="2">
+        <v>307009</v>
+      </c>
+      <c r="K49" s="1">
+        <v>64</v>
+      </c>
+      <c r="L49" s="2">
         <v>307022</v>
       </c>
-      <c r="I49" s="1">
-        <v>150</v>
+      <c r="M49" s="1">
+        <v>250</v>
       </c>
       <c r="V49" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.15">
@@ -6057,33 +6161,45 @@
       <c r="A51" s="1">
         <v>10224</v>
       </c>
-      <c r="B51" s="1">
-        <v>301029</v>
+      <c r="B51" s="2">
+        <v>305012</v>
       </c>
       <c r="C51" s="1">
+        <v>64</v>
+      </c>
+      <c r="D51" s="2">
+        <v>305024</v>
+      </c>
+      <c r="E51" s="1">
         <v>250</v>
       </c>
-      <c r="D51" s="1">
-        <v>305024</v>
-      </c>
-      <c r="E51" s="1">
-        <v>150</v>
-      </c>
       <c r="F51" s="2">
+        <v>306014</v>
+      </c>
+      <c r="G51" s="1">
+        <v>64</v>
+      </c>
+      <c r="H51" s="2">
         <v>306025</v>
       </c>
-      <c r="G51" s="1">
-        <v>150</v>
-      </c>
-      <c r="H51" s="2">
+      <c r="I51" s="1">
+        <v>250</v>
+      </c>
+      <c r="J51" s="2">
+        <v>307012</v>
+      </c>
+      <c r="K51" s="1">
+        <v>64</v>
+      </c>
+      <c r="L51" s="2">
         <v>307023</v>
       </c>
-      <c r="I51" s="1">
-        <v>150</v>
+      <c r="M51" s="1">
+        <v>250</v>
       </c>
       <c r="V51" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.15">
@@ -6117,33 +6233,45 @@
       <c r="A53" s="1">
         <v>10226</v>
       </c>
-      <c r="B53" s="1">
-        <v>301030</v>
+      <c r="B53" s="2">
+        <v>305013</v>
       </c>
       <c r="C53" s="1">
+        <v>64</v>
+      </c>
+      <c r="D53" s="2">
+        <v>305023</v>
+      </c>
+      <c r="E53" s="1">
         <v>250</v>
       </c>
-      <c r="D53" s="1">
-        <v>305023</v>
-      </c>
-      <c r="E53" s="1">
-        <v>150</v>
-      </c>
       <c r="F53" s="2">
+        <v>306012</v>
+      </c>
+      <c r="G53" s="1">
+        <v>64</v>
+      </c>
+      <c r="H53" s="2">
         <v>306026</v>
       </c>
-      <c r="G53" s="1">
-        <v>150</v>
-      </c>
-      <c r="H53" s="2">
+      <c r="I53" s="1">
+        <v>250</v>
+      </c>
+      <c r="J53" s="2">
+        <v>307008</v>
+      </c>
+      <c r="K53" s="1">
+        <v>64</v>
+      </c>
+      <c r="L53" s="2">
         <v>307024</v>
       </c>
-      <c r="I53" s="1">
-        <v>150</v>
+      <c r="M53" s="1">
+        <v>250</v>
       </c>
       <c r="V53" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.15">
@@ -6315,9 +6443,33 @@
       <c r="A59" s="1">
         <v>10306</v>
       </c>
+      <c r="B59" s="1">
+        <v>203003</v>
+      </c>
+      <c r="C59" s="1">
+        <v>64</v>
+      </c>
+      <c r="D59" s="1">
+        <v>203004</v>
+      </c>
+      <c r="E59" s="1">
+        <v>100</v>
+      </c>
+      <c r="F59" s="1">
+        <v>203005</v>
+      </c>
+      <c r="G59" s="1">
+        <v>150</v>
+      </c>
+      <c r="H59" s="1">
+        <v>203006</v>
+      </c>
+      <c r="I59" s="1">
+        <v>200</v>
+      </c>
       <c r="V59" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.15">
@@ -7294,29 +7446,35 @@
         <v>301027</v>
       </c>
       <c r="C108" s="1">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="D108" s="1">
+        <v>301026</v>
+      </c>
+      <c r="E108" s="1">
+        <v>150</v>
+      </c>
+      <c r="F108" s="1">
+        <v>301029</v>
+      </c>
+      <c r="G108" s="1">
+        <v>150</v>
+      </c>
+      <c r="H108" s="1">
+        <v>301030</v>
+      </c>
+      <c r="I108" s="1">
+        <v>150</v>
+      </c>
+      <c r="J108" s="1">
         <v>304007</v>
       </c>
-      <c r="E108" s="1">
+      <c r="K108" s="1">
         <v>75</v>
-      </c>
-      <c r="F108" s="1">
-        <v>305017</v>
-      </c>
-      <c r="G108" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H108" s="1">
-        <v>306017</v>
-      </c>
-      <c r="I108" s="1">
-        <v>1000</v>
       </c>
       <c r="V108" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.15">
@@ -7359,15 +7517,9 @@
       <c r="M109" s="1">
         <v>150</v>
       </c>
-      <c r="N109" s="2">
-        <v>306030</v>
-      </c>
-      <c r="O109" s="1">
-        <v>150</v>
-      </c>
       <c r="V109" s="1">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.15">
@@ -7399,26 +7551,16 @@
         <v>150</v>
       </c>
       <c r="J110" s="2">
-        <v>307027</v>
+        <v>306030</v>
       </c>
       <c r="K110" s="1">
         <v>150</v>
       </c>
-      <c r="L110" s="2">
-        <v>307028</v>
-      </c>
-      <c r="M110" s="1">
-        <v>150</v>
-      </c>
-      <c r="N110" s="2">
-        <v>307029</v>
-      </c>
-      <c r="O110" s="1">
-        <v>150</v>
-      </c>
+      <c r="L110" s="2"/>
+      <c r="N110" s="2"/>
       <c r="V110" s="1">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.15">
@@ -7429,17 +7571,35 @@
         <v>301031</v>
       </c>
       <c r="C111" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="D111" s="1">
         <v>301028</v>
       </c>
       <c r="E111" s="1">
-        <v>250</v>
+        <v>500</v>
+      </c>
+      <c r="F111" s="2">
+        <v>307027</v>
+      </c>
+      <c r="G111" s="1">
+        <v>150</v>
+      </c>
+      <c r="H111" s="2">
+        <v>307028</v>
+      </c>
+      <c r="I111" s="1">
+        <v>150</v>
+      </c>
+      <c r="J111" s="2">
+        <v>307029</v>
+      </c>
+      <c r="K111" s="1">
+        <v>150</v>
       </c>
       <c r="V111" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.15">
@@ -7450,19 +7610,19 @@
         <v>301026</v>
       </c>
       <c r="C112" s="1">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="D112" s="1">
         <v>301029</v>
       </c>
       <c r="E112" s="1">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="F112" s="1">
         <v>301030</v>
       </c>
       <c r="G112" s="1">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="H112" s="1">
         <v>301033</v>
@@ -7495,19 +7655,19 @@
         <v>301026</v>
       </c>
       <c r="C113" s="1">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="D113" s="1">
         <v>301029</v>
       </c>
       <c r="E113" s="1">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="F113" s="1">
         <v>301030</v>
       </c>
       <c r="G113" s="1">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="H113" s="1">
         <v>301033</v>
@@ -7540,19 +7700,19 @@
         <v>301026</v>
       </c>
       <c r="C114" s="1">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="D114" s="1">
         <v>301029</v>
       </c>
       <c r="E114" s="1">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="F114" s="1">
         <v>301030</v>
       </c>
       <c r="G114" s="1">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="H114" s="1">
         <v>301033</v>
@@ -7599,9 +7759,33 @@
       <c r="A117" s="1">
         <v>20024</v>
       </c>
+      <c r="B117" s="1">
+        <v>301031</v>
+      </c>
+      <c r="C117" s="1">
+        <v>650</v>
+      </c>
+      <c r="D117" s="1">
+        <v>301028</v>
+      </c>
+      <c r="E117" s="1">
+        <v>650</v>
+      </c>
+      <c r="F117" s="1">
+        <v>305017</v>
+      </c>
+      <c r="G117" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H117" s="1">
+        <v>306017</v>
+      </c>
+      <c r="I117" s="1">
+        <v>1000</v>
+      </c>
       <c r="V117" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:22" x14ac:dyDescent="0.15">
@@ -7806,7 +7990,7 @@
   <dimension ref="A1:L138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -7867,43 +8051,43 @@
         <v>稻草人</v>
       </c>
       <c r="C2" t="str">
-        <f>IF(Sheet1!B2="","",VLOOKUP(Sheet1!B2,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B2="","",IF(Sheet1!B2 &lt; 300000, VLOOKUP(Sheet1!B2,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B2,[2]装备!$A$3:$B$248,2)))</f>
         <v>木剑</v>
       </c>
       <c r="D2" t="str">
-        <f>IF(Sheet1!D2="","",VLOOKUP(Sheet1!D2,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D2="","",IF(Sheet1!D2 &lt; 300000, VLOOKUP(Sheet1!D2,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D2,[2]装备!$A$3:$B$248,2)))</f>
         <v>布衣(男)</v>
       </c>
       <c r="E2" t="str">
-        <f>IF(Sheet1!F2="","",VLOOKUP(Sheet1!F2,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F2="","",IF(Sheet1!F2 &lt; 300000, VLOOKUP(Sheet1!F2,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F2,[2]装备!$A$3:$B$248,2)))</f>
         <v>钢手镯</v>
       </c>
       <c r="F2" t="str">
-        <f>IF(Sheet1!H2="","",VLOOKUP(Sheet1!H2,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H2="","",IF(Sheet1!H2 &lt; 300000, VLOOKUP(Sheet1!H2,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H2,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G2" t="str">
-        <f>IF(Sheet1!J2="","",VLOOKUP(Sheet1!J2,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J2="","",IF(Sheet1!J2 &lt; 300000, VLOOKUP(Sheet1!J2,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J2,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H2" t="str">
-        <f>IF(Sheet1!L2="","",VLOOKUP(Sheet1!L2,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L2="","",IF(Sheet1!L2 &lt; 300000, VLOOKUP(Sheet1!L2,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L2,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I2" t="str">
-        <f>IF(Sheet1!N2="","",VLOOKUP(Sheet1!N2,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N2="","",IF(Sheet1!N2 &lt; 300000, VLOOKUP(Sheet1!N2,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N2,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J2" t="str">
-        <f>IF(Sheet1!P2="","",VLOOKUP(Sheet1!P2,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P2="","",IF(Sheet1!P2 &lt; 300000, VLOOKUP(Sheet1!P2,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P2,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K2" t="str">
-        <f>IF(Sheet1!R2="","",VLOOKUP(Sheet1!R2,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R2="","",IF(Sheet1!R2 &lt; 300000, VLOOKUP(Sheet1!R2,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R2,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L2" t="str">
-        <f>IF(Sheet1!T2="","",VLOOKUP(Sheet1!T2,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T2="","",IF(Sheet1!T2 &lt; 300000, VLOOKUP(Sheet1!T2,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T2,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -7917,43 +8101,43 @@
         <v>多钩猫</v>
       </c>
       <c r="C3" t="str">
-        <f>IF(Sheet1!B3="","",VLOOKUP(Sheet1!B3,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B3="","",IF(Sheet1!B3 &lt; 300000, VLOOKUP(Sheet1!B3,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B3,[2]装备!$A$3:$B$248,2)))</f>
         <v>乌木剑</v>
       </c>
       <c r="D3" t="str">
-        <f>IF(Sheet1!D3="","",VLOOKUP(Sheet1!D3,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D3="","",IF(Sheet1!D3 &lt; 300000, VLOOKUP(Sheet1!D3,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D3,[2]装备!$A$3:$B$248,2)))</f>
         <v>布衣(女)</v>
       </c>
       <c r="E3" t="str">
-        <f>IF(Sheet1!F3="","",VLOOKUP(Sheet1!F3,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F3="","",IF(Sheet1!F3 &lt; 300000, VLOOKUP(Sheet1!F3,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F3,[2]装备!$A$3:$B$248,2)))</f>
         <v>小手镯</v>
       </c>
       <c r="F3" t="str">
-        <f>IF(Sheet1!H3="","",VLOOKUP(Sheet1!H3,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H3="","",IF(Sheet1!H3 &lt; 300000, VLOOKUP(Sheet1!H3,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H3,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G3" t="str">
-        <f>IF(Sheet1!J3="","",VLOOKUP(Sheet1!J3,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J3="","",IF(Sheet1!J3 &lt; 300000, VLOOKUP(Sheet1!J3,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J3,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H3" t="str">
-        <f>IF(Sheet1!L3="","",VLOOKUP(Sheet1!L3,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L3="","",IF(Sheet1!L3 &lt; 300000, VLOOKUP(Sheet1!L3,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L3,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I3" t="str">
-        <f>IF(Sheet1!N3="","",VLOOKUP(Sheet1!N3,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N3="","",IF(Sheet1!N3 &lt; 300000, VLOOKUP(Sheet1!N3,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N3,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J3" t="str">
-        <f>IF(Sheet1!P3="","",VLOOKUP(Sheet1!P3,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P3="","",IF(Sheet1!P3 &lt; 300000, VLOOKUP(Sheet1!P3,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P3,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K3" t="str">
-        <f>IF(Sheet1!R3="","",VLOOKUP(Sheet1!R3,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R3="","",IF(Sheet1!R3 &lt; 300000, VLOOKUP(Sheet1!R3,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R3,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L3" t="str">
-        <f>IF(Sheet1!T3="","",VLOOKUP(Sheet1!T3,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T3="","",IF(Sheet1!T3 &lt; 300000, VLOOKUP(Sheet1!T3,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T3,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -7967,43 +8151,43 @@
         <v>钉钯猫</v>
       </c>
       <c r="C4" t="str">
-        <f>IF(Sheet1!B4="","",VLOOKUP(Sheet1!B4,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B4="","",IF(Sheet1!B4 &lt; 300000, VLOOKUP(Sheet1!B4,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B4,[2]装备!$A$3:$B$248,2)))</f>
         <v>匕首</v>
       </c>
       <c r="D4" t="str">
-        <f>IF(Sheet1!D4="","",VLOOKUP(Sheet1!D4,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D4="","",IF(Sheet1!D4 &lt; 300000, VLOOKUP(Sheet1!D4,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D4,[2]装备!$A$3:$B$248,2)))</f>
         <v>青铜头盔</v>
       </c>
       <c r="E4" t="str">
-        <f>IF(Sheet1!F4="","",VLOOKUP(Sheet1!F4,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F4="","",IF(Sheet1!F4 &lt; 300000, VLOOKUP(Sheet1!F4,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F4,[2]装备!$A$3:$B$248,2)))</f>
         <v>银手镯</v>
       </c>
       <c r="F4" t="str">
-        <f>IF(Sheet1!H4="","",VLOOKUP(Sheet1!H4,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H4="","",IF(Sheet1!H4 &lt; 300000, VLOOKUP(Sheet1!H4,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H4,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G4" t="str">
-        <f>IF(Sheet1!J4="","",VLOOKUP(Sheet1!J4,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J4="","",IF(Sheet1!J4 &lt; 300000, VLOOKUP(Sheet1!J4,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J4,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H4" t="str">
-        <f>IF(Sheet1!L4="","",VLOOKUP(Sheet1!L4,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L4="","",IF(Sheet1!L4 &lt; 300000, VLOOKUP(Sheet1!L4,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L4,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I4" t="str">
-        <f>IF(Sheet1!N4="","",VLOOKUP(Sheet1!N4,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N4="","",IF(Sheet1!N4 &lt; 300000, VLOOKUP(Sheet1!N4,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N4,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J4" t="str">
-        <f>IF(Sheet1!P4="","",VLOOKUP(Sheet1!P4,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P4="","",IF(Sheet1!P4 &lt; 300000, VLOOKUP(Sheet1!P4,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P4,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K4" t="str">
-        <f>IF(Sheet1!R4="","",VLOOKUP(Sheet1!R4,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R4="","",IF(Sheet1!R4 &lt; 300000, VLOOKUP(Sheet1!R4,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R4,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L4" t="str">
-        <f>IF(Sheet1!T4="","",VLOOKUP(Sheet1!T4,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T4="","",IF(Sheet1!T4 &lt; 300000, VLOOKUP(Sheet1!T4,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T4,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -8017,43 +8201,43 @@
         <v>蛤蟆</v>
       </c>
       <c r="C5" t="str">
-        <f>IF(Sheet1!B5="","",VLOOKUP(Sheet1!B5,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B5="","",IF(Sheet1!B5 &lt; 300000, VLOOKUP(Sheet1!B5,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B5,[2]装备!$A$3:$B$248,2)))</f>
         <v>青铜剑</v>
       </c>
       <c r="D5" t="str">
-        <f>IF(Sheet1!D5="","",VLOOKUP(Sheet1!D5,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D5="","",IF(Sheet1!D5 &lt; 300000, VLOOKUP(Sheet1!D5,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D5,[2]装备!$A$3:$B$248,2)))</f>
         <v>金项链</v>
       </c>
       <c r="E5" t="str">
-        <f>IF(Sheet1!F5="","",VLOOKUP(Sheet1!F5,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F5="","",IF(Sheet1!F5 &lt; 300000, VLOOKUP(Sheet1!F5,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F5,[2]装备!$A$3:$B$248,2)))</f>
         <v>大手镯</v>
       </c>
       <c r="F5" t="str">
-        <f>IF(Sheet1!H5="","",VLOOKUP(Sheet1!H5,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H5="","",IF(Sheet1!H5 &lt; 300000, VLOOKUP(Sheet1!H5,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H5,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G5" t="str">
-        <f>IF(Sheet1!J5="","",VLOOKUP(Sheet1!J5,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J5="","",IF(Sheet1!J5 &lt; 300000, VLOOKUP(Sheet1!J5,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J5,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H5" t="str">
-        <f>IF(Sheet1!L5="","",VLOOKUP(Sheet1!L5,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L5="","",IF(Sheet1!L5 &lt; 300000, VLOOKUP(Sheet1!L5,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L5,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I5" t="str">
-        <f>IF(Sheet1!N5="","",VLOOKUP(Sheet1!N5,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N5="","",IF(Sheet1!N5 &lt; 300000, VLOOKUP(Sheet1!N5,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N5,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J5" t="str">
-        <f>IF(Sheet1!P5="","",VLOOKUP(Sheet1!P5,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P5="","",IF(Sheet1!P5 &lt; 300000, VLOOKUP(Sheet1!P5,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P5,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K5" t="str">
-        <f>IF(Sheet1!R5="","",VLOOKUP(Sheet1!R5,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R5="","",IF(Sheet1!R5 &lt; 300000, VLOOKUP(Sheet1!R5,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R5,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L5" t="str">
-        <f>IF(Sheet1!T5="","",VLOOKUP(Sheet1!T5,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T5="","",IF(Sheet1!T5 &lt; 300000, VLOOKUP(Sheet1!T5,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T5,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -8067,43 +8251,43 @@
         <v>食人花</v>
       </c>
       <c r="C6" t="str">
-        <f>IF(Sheet1!B6="","",VLOOKUP(Sheet1!B6,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B6="","",IF(Sheet1!B6 &lt; 300000, VLOOKUP(Sheet1!B6,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B6,[2]装备!$A$3:$B$248,2)))</f>
         <v>古铜戒指</v>
       </c>
       <c r="D6" t="str">
-        <f>IF(Sheet1!D6="","",VLOOKUP(Sheet1!D6,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D6="","",IF(Sheet1!D6 &lt; 300000, VLOOKUP(Sheet1!D6,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D6,[2]装备!$A$3:$B$248,2)))</f>
         <v>六角戒指</v>
       </c>
       <c r="E6" t="str">
-        <f>IF(Sheet1!F6="","",VLOOKUP(Sheet1!F6,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F6="","",IF(Sheet1!F6 &lt; 300000, VLOOKUP(Sheet1!F6,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F6,[2]装备!$A$3:$B$248,2)))</f>
         <v>玻璃戒指</v>
       </c>
       <c r="F6" t="str">
-        <f>IF(Sheet1!H6="","",VLOOKUP(Sheet1!H6,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H6="","",IF(Sheet1!H6 &lt; 300000, VLOOKUP(Sheet1!H6,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H6,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G6" t="str">
-        <f>IF(Sheet1!J6="","",VLOOKUP(Sheet1!J6,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J6="","",IF(Sheet1!J6 &lt; 300000, VLOOKUP(Sheet1!J6,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J6,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H6" t="str">
-        <f>IF(Sheet1!L6="","",VLOOKUP(Sheet1!L6,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L6="","",IF(Sheet1!L6 &lt; 300000, VLOOKUP(Sheet1!L6,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L6,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I6" t="str">
-        <f>IF(Sheet1!N6="","",VLOOKUP(Sheet1!N6,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N6="","",IF(Sheet1!N6 &lt; 300000, VLOOKUP(Sheet1!N6,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N6,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J6" t="str">
-        <f>IF(Sheet1!P6="","",VLOOKUP(Sheet1!P6,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P6="","",IF(Sheet1!P6 &lt; 300000, VLOOKUP(Sheet1!P6,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P6,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K6" t="str">
-        <f>IF(Sheet1!R6="","",VLOOKUP(Sheet1!R6,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R6="","",IF(Sheet1!R6 &lt; 300000, VLOOKUP(Sheet1!R6,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R6,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L6" t="str">
-        <f>IF(Sheet1!T6="","",VLOOKUP(Sheet1!T6,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T6="","",IF(Sheet1!T6 &lt; 300000, VLOOKUP(Sheet1!T6,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T6,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -8117,43 +8301,43 @@
         <v>森林雪人</v>
       </c>
       <c r="C7" t="str">
-        <f>IF(Sheet1!B7="","",VLOOKUP(Sheet1!B7,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B7="","",IF(Sheet1!B7 &lt; 300000, VLOOKUP(Sheet1!B7,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B7,[2]装备!$A$3:$B$248,2)))</f>
         <v>铁剑</v>
       </c>
       <c r="D7" t="str">
-        <f>IF(Sheet1!D7="","",VLOOKUP(Sheet1!D7,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D7="","",IF(Sheet1!D7 &lt; 300000, VLOOKUP(Sheet1!D7,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D7,[2]装备!$A$3:$B$248,2)))</f>
         <v>传统项链</v>
       </c>
       <c r="E7" t="str">
-        <f>IF(Sheet1!F7="","",VLOOKUP(Sheet1!F7,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F7="","",IF(Sheet1!F7 &lt; 300000, VLOOKUP(Sheet1!F7,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F7,[2]装备!$A$3:$B$248,2)))</f>
         <v>牛角戒指</v>
       </c>
       <c r="F7" t="str">
-        <f>IF(Sheet1!H7="","",VLOOKUP(Sheet1!H7,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H7="","",IF(Sheet1!H7 &lt; 300000, VLOOKUP(Sheet1!H7,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H7,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G7" t="str">
-        <f>IF(Sheet1!J7="","",VLOOKUP(Sheet1!J7,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J7="","",IF(Sheet1!J7 &lt; 300000, VLOOKUP(Sheet1!J7,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J7,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H7" t="str">
-        <f>IF(Sheet1!L7="","",VLOOKUP(Sheet1!L7,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L7="","",IF(Sheet1!L7 &lt; 300000, VLOOKUP(Sheet1!L7,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L7,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I7" t="str">
-        <f>IF(Sheet1!N7="","",VLOOKUP(Sheet1!N7,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N7="","",IF(Sheet1!N7 &lt; 300000, VLOOKUP(Sheet1!N7,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N7,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J7" t="str">
-        <f>IF(Sheet1!P7="","",VLOOKUP(Sheet1!P7,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P7="","",IF(Sheet1!P7 &lt; 300000, VLOOKUP(Sheet1!P7,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P7,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K7" t="str">
-        <f>IF(Sheet1!R7="","",VLOOKUP(Sheet1!R7,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R7="","",IF(Sheet1!R7 &lt; 300000, VLOOKUP(Sheet1!R7,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R7,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L7" t="str">
-        <f>IF(Sheet1!T7="","",VLOOKUP(Sheet1!T7,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T7="","",IF(Sheet1!T7 &lt; 300000, VLOOKUP(Sheet1!T7,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T7,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -8167,43 +8351,43 @@
         <v>半兽人</v>
       </c>
       <c r="C8" t="str">
-        <f>IF(Sheet1!B8="","",VLOOKUP(Sheet1!B8,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B8="","",IF(Sheet1!B8 &lt; 300000, VLOOKUP(Sheet1!B8,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B8,[2]装备!$A$3:$B$248,2)))</f>
         <v>短剑</v>
       </c>
       <c r="D8" t="str">
-        <f>IF(Sheet1!D8="","",VLOOKUP(Sheet1!D8,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D8="","",IF(Sheet1!D8 &lt; 300000, VLOOKUP(Sheet1!D8,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D8,[2]装备!$A$3:$B$248,2)))</f>
         <v>铁手镯</v>
       </c>
       <c r="E8" t="str">
-        <f>IF(Sheet1!F8="","",VLOOKUP(Sheet1!F8,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F8="","",IF(Sheet1!F8 &lt; 300000, VLOOKUP(Sheet1!F8,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F8,[2]装备!$A$3:$B$248,2)))</f>
         <v>皮制手套</v>
       </c>
       <c r="F8" t="str">
-        <f>IF(Sheet1!H8="","",VLOOKUP(Sheet1!H8,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H8="","",IF(Sheet1!H8 &lt; 300000, VLOOKUP(Sheet1!H8,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H8,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G8" t="str">
-        <f>IF(Sheet1!J8="","",VLOOKUP(Sheet1!J8,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J8="","",IF(Sheet1!J8 &lt; 300000, VLOOKUP(Sheet1!J8,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J8,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H8" t="str">
-        <f>IF(Sheet1!L8="","",VLOOKUP(Sheet1!L8,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L8="","",IF(Sheet1!L8 &lt; 300000, VLOOKUP(Sheet1!L8,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L8,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I8" t="str">
-        <f>IF(Sheet1!N8="","",VLOOKUP(Sheet1!N8,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N8="","",IF(Sheet1!N8 &lt; 300000, VLOOKUP(Sheet1!N8,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N8,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J8" t="str">
-        <f>IF(Sheet1!P8="","",VLOOKUP(Sheet1!P8,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P8="","",IF(Sheet1!P8 &lt; 300000, VLOOKUP(Sheet1!P8,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P8,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K8" t="str">
-        <f>IF(Sheet1!R8="","",VLOOKUP(Sheet1!R8,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R8="","",IF(Sheet1!R8 &lt; 300000, VLOOKUP(Sheet1!R8,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R8,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L8" t="str">
-        <f>IF(Sheet1!T8="","",VLOOKUP(Sheet1!T8,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T8="","",IF(Sheet1!T8 &lt; 300000, VLOOKUP(Sheet1!T8,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T8,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -8217,43 +8401,43 @@
         <v>半兽战士</v>
       </c>
       <c r="C9" t="str">
-        <f>IF(Sheet1!B9="","",VLOOKUP(Sheet1!B9,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B9="","",IF(Sheet1!B9 &lt; 300000, VLOOKUP(Sheet1!B9,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B9,[2]装备!$A$3:$B$248,2)))</f>
         <v>青铜斧</v>
       </c>
       <c r="D9" t="str">
-        <f>IF(Sheet1!D9="","",VLOOKUP(Sheet1!D9,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D9="","",IF(Sheet1!D9 &lt; 300000, VLOOKUP(Sheet1!D9,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D9,[2]装备!$A$3:$B$248,2)))</f>
         <v>轻型盔甲(男)</v>
       </c>
       <c r="E9" t="str">
-        <f>IF(Sheet1!F9="","",VLOOKUP(Sheet1!F9,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F9="","",IF(Sheet1!F9 &lt; 300000, VLOOKUP(Sheet1!F9,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F9,[2]装备!$A$3:$B$248,2)))</f>
         <v>轻型盔甲(女)</v>
       </c>
       <c r="F9" t="str">
-        <f>IF(Sheet1!H9="","",VLOOKUP(Sheet1!H9,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H9="","",IF(Sheet1!H9 &lt; 300000, VLOOKUP(Sheet1!H9,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H9,[2]装备!$A$3:$B$248,2)))</f>
         <v>生铁戒指</v>
       </c>
       <c r="G9" t="str">
-        <f>IF(Sheet1!J9="","",VLOOKUP(Sheet1!J9,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J9="","",IF(Sheet1!J9 &lt; 300000, VLOOKUP(Sheet1!J9,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J9,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H9" t="str">
-        <f>IF(Sheet1!L9="","",VLOOKUP(Sheet1!L9,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L9="","",IF(Sheet1!L9 &lt; 300000, VLOOKUP(Sheet1!L9,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L9,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I9" t="str">
-        <f>IF(Sheet1!N9="","",VLOOKUP(Sheet1!N9,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N9="","",IF(Sheet1!N9 &lt; 300000, VLOOKUP(Sheet1!N9,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N9,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J9" t="str">
-        <f>IF(Sheet1!P9="","",VLOOKUP(Sheet1!P9,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P9="","",IF(Sheet1!P9 &lt; 300000, VLOOKUP(Sheet1!P9,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P9,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K9" t="str">
-        <f>IF(Sheet1!R9="","",VLOOKUP(Sheet1!R9,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R9="","",IF(Sheet1!R9 &lt; 300000, VLOOKUP(Sheet1!R9,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R9,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L9" t="str">
-        <f>IF(Sheet1!T9="","",VLOOKUP(Sheet1!T9,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T9="","",IF(Sheet1!T9 &lt; 300000, VLOOKUP(Sheet1!T9,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T9,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -8267,43 +8451,43 @@
         <v>山洞蝙蝠</v>
       </c>
       <c r="C10" t="str">
-        <f>IF(Sheet1!B10="","",VLOOKUP(Sheet1!B10,[2]装备!$A$3:$B$248,2))</f>
-        <v/>
+        <f>IF(Sheet1!B10="","",IF(Sheet1!B10 &lt; 300000, VLOOKUP(Sheet1!B10,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B10,[2]装备!$A$3:$B$248,2)))</f>
+        <v>零星铜币</v>
       </c>
       <c r="D10" t="str">
-        <f>IF(Sheet1!D10="","",VLOOKUP(Sheet1!D10,[2]装备!$A$3:$B$248,2))</f>
-        <v/>
+        <f>IF(Sheet1!D10="","",IF(Sheet1!D10 &lt; 300000, VLOOKUP(Sheet1!D10,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D10,[2]装备!$A$3:$B$248,2)))</f>
+        <v>小堆铜币</v>
       </c>
       <c r="E10" t="str">
-        <f>IF(Sheet1!F10="","",VLOOKUP(Sheet1!F10,[2]装备!$A$3:$B$248,2))</f>
-        <v/>
+        <f>IF(Sheet1!F10="","",IF(Sheet1!F10 &lt; 300000, VLOOKUP(Sheet1!F10,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F10,[2]装备!$A$3:$B$248,2)))</f>
+        <v>大堆铜币</v>
       </c>
       <c r="F10" t="str">
-        <f>IF(Sheet1!H10="","",VLOOKUP(Sheet1!H10,[2]装备!$A$3:$B$248,2))</f>
-        <v/>
+        <f>IF(Sheet1!H10="","",IF(Sheet1!H10 &lt; 300000, VLOOKUP(Sheet1!H10,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H10,[2]装备!$A$3:$B$248,2)))</f>
+        <v>零星银币</v>
       </c>
       <c r="G10" t="str">
-        <f>IF(Sheet1!J10="","",VLOOKUP(Sheet1!J10,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J10="","",IF(Sheet1!J10 &lt; 300000, VLOOKUP(Sheet1!J10,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J10,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H10" t="str">
-        <f>IF(Sheet1!L10="","",VLOOKUP(Sheet1!L10,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L10="","",IF(Sheet1!L10 &lt; 300000, VLOOKUP(Sheet1!L10,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L10,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I10" t="str">
-        <f>IF(Sheet1!N10="","",VLOOKUP(Sheet1!N10,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N10="","",IF(Sheet1!N10 &lt; 300000, VLOOKUP(Sheet1!N10,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N10,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J10" t="str">
-        <f>IF(Sheet1!P10="","",VLOOKUP(Sheet1!P10,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P10="","",IF(Sheet1!P10 &lt; 300000, VLOOKUP(Sheet1!P10,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P10,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K10" t="str">
-        <f>IF(Sheet1!R10="","",VLOOKUP(Sheet1!R10,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R10="","",IF(Sheet1!R10 &lt; 300000, VLOOKUP(Sheet1!R10,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R10,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L10" t="str">
-        <f>IF(Sheet1!T10="","",VLOOKUP(Sheet1!T10,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T10="","",IF(Sheet1!T10 &lt; 300000, VLOOKUP(Sheet1!T10,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T10,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -8317,43 +8501,43 @@
         <v>蝎子</v>
       </c>
       <c r="C11" t="str">
-        <f>IF(Sheet1!B11="","",VLOOKUP(Sheet1!B11,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B11="","",IF(Sheet1!B11 &lt; 300000, VLOOKUP(Sheet1!B11,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B11,[2]装备!$A$3:$B$248,2)))</f>
         <v>蓝色水晶戒指</v>
       </c>
       <c r="D11" t="str">
-        <f>IF(Sheet1!D11="","",VLOOKUP(Sheet1!D11,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D11="","",IF(Sheet1!D11 &lt; 300000, VLOOKUP(Sheet1!D11,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D11,[2]装备!$A$3:$B$248,2)))</f>
         <v>金戒指</v>
       </c>
       <c r="E11" t="str">
-        <f>IF(Sheet1!F11="","",VLOOKUP(Sheet1!F11,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F11="","",IF(Sheet1!F11 &lt; 300000, VLOOKUP(Sheet1!F11,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F11,[2]装备!$A$3:$B$248,2)))</f>
         <v>黑色水晶戒指</v>
       </c>
       <c r="F11" t="str">
-        <f>IF(Sheet1!H11="","",VLOOKUP(Sheet1!H11,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H11="","",IF(Sheet1!H11 &lt; 300000, VLOOKUP(Sheet1!H11,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H11,[2]装备!$A$3:$B$248,2)))</f>
         <v>珍珠戒指</v>
       </c>
       <c r="G11" t="str">
-        <f>IF(Sheet1!J11="","",VLOOKUP(Sheet1!J11,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J11="","",IF(Sheet1!J11 &lt; 300000, VLOOKUP(Sheet1!J11,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J11,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H11" t="str">
-        <f>IF(Sheet1!L11="","",VLOOKUP(Sheet1!L11,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L11="","",IF(Sheet1!L11 &lt; 300000, VLOOKUP(Sheet1!L11,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L11,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I11" t="str">
-        <f>IF(Sheet1!N11="","",VLOOKUP(Sheet1!N11,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N11="","",IF(Sheet1!N11 &lt; 300000, VLOOKUP(Sheet1!N11,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N11,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J11" t="str">
-        <f>IF(Sheet1!P11="","",VLOOKUP(Sheet1!P11,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P11="","",IF(Sheet1!P11 &lt; 300000, VLOOKUP(Sheet1!P11,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P11,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K11" t="str">
-        <f>IF(Sheet1!R11="","",VLOOKUP(Sheet1!R11,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R11="","",IF(Sheet1!R11 &lt; 300000, VLOOKUP(Sheet1!R11,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R11,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L11" t="str">
-        <f>IF(Sheet1!T11="","",VLOOKUP(Sheet1!T11,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T11="","",IF(Sheet1!T11 &lt; 300000, VLOOKUP(Sheet1!T11,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T11,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -8367,43 +8551,43 @@
         <v>洞蛆</v>
       </c>
       <c r="C12" t="str">
-        <f>IF(Sheet1!B12="","",VLOOKUP(Sheet1!B12,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B12="","",IF(Sheet1!B12 &lt; 300000, VLOOKUP(Sheet1!B12,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B12,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="D12" t="str">
-        <f>IF(Sheet1!D12="","",VLOOKUP(Sheet1!D12,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D12="","",IF(Sheet1!D12 &lt; 300000, VLOOKUP(Sheet1!D12,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D12,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="E12" t="str">
-        <f>IF(Sheet1!F12="","",VLOOKUP(Sheet1!F12,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F12="","",IF(Sheet1!F12 &lt; 300000, VLOOKUP(Sheet1!F12,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F12,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="F12" t="str">
-        <f>IF(Sheet1!H12="","",VLOOKUP(Sheet1!H12,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H12="","",IF(Sheet1!H12 &lt; 300000, VLOOKUP(Sheet1!H12,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H12,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G12" t="str">
-        <f>IF(Sheet1!J12="","",VLOOKUP(Sheet1!J12,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J12="","",IF(Sheet1!J12 &lt; 300000, VLOOKUP(Sheet1!J12,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J12,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H12" t="str">
-        <f>IF(Sheet1!L12="","",VLOOKUP(Sheet1!L12,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L12="","",IF(Sheet1!L12 &lt; 300000, VLOOKUP(Sheet1!L12,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L12,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I12" t="str">
-        <f>IF(Sheet1!N12="","",VLOOKUP(Sheet1!N12,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N12="","",IF(Sheet1!N12 &lt; 300000, VLOOKUP(Sheet1!N12,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N12,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J12" t="str">
-        <f>IF(Sheet1!P12="","",VLOOKUP(Sheet1!P12,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P12="","",IF(Sheet1!P12 &lt; 300000, VLOOKUP(Sheet1!P12,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P12,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K12" t="str">
-        <f>IF(Sheet1!R12="","",VLOOKUP(Sheet1!R12,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R12="","",IF(Sheet1!R12 &lt; 300000, VLOOKUP(Sheet1!R12,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R12,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L12" t="str">
-        <f>IF(Sheet1!T12="","",VLOOKUP(Sheet1!T12,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T12="","",IF(Sheet1!T12 &lt; 300000, VLOOKUP(Sheet1!T12,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T12,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -8417,43 +8601,43 @@
         <v>骷髅</v>
       </c>
       <c r="C13" t="str">
-        <f>IF(Sheet1!B13="","",VLOOKUP(Sheet1!B13,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B13="","",IF(Sheet1!B13 &lt; 300000, VLOOKUP(Sheet1!B13,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B13,[2]装备!$A$3:$B$248,2)))</f>
         <v>海魂</v>
       </c>
       <c r="D13" t="str">
-        <f>IF(Sheet1!D13="","",VLOOKUP(Sheet1!D13,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D13="","",IF(Sheet1!D13 &lt; 300000, VLOOKUP(Sheet1!D13,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D13,[2]装备!$A$3:$B$248,2)))</f>
         <v>黑檀项链</v>
       </c>
       <c r="E13" t="str">
-        <f>IF(Sheet1!F13="","",VLOOKUP(Sheet1!F13,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F13="","",IF(Sheet1!F13 &lt; 300000, VLOOKUP(Sheet1!F13,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F13,[2]装备!$A$3:$B$248,2)))</f>
         <v>灯笼项链</v>
       </c>
       <c r="F13" t="str">
-        <f>IF(Sheet1!H13="","",VLOOKUP(Sheet1!H13,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H13="","",IF(Sheet1!H13 &lt; 300000, VLOOKUP(Sheet1!H13,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H13,[2]装备!$A$3:$B$248,2)))</f>
         <v>琥珀项链</v>
       </c>
       <c r="G13" t="str">
-        <f>IF(Sheet1!J13="","",VLOOKUP(Sheet1!J13,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J13="","",IF(Sheet1!J13 &lt; 300000, VLOOKUP(Sheet1!J13,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J13,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H13" t="str">
-        <f>IF(Sheet1!L13="","",VLOOKUP(Sheet1!L13,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L13="","",IF(Sheet1!L13 &lt; 300000, VLOOKUP(Sheet1!L13,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L13,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I13" t="str">
-        <f>IF(Sheet1!N13="","",VLOOKUP(Sheet1!N13,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N13="","",IF(Sheet1!N13 &lt; 300000, VLOOKUP(Sheet1!N13,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N13,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J13" t="str">
-        <f>IF(Sheet1!P13="","",VLOOKUP(Sheet1!P13,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P13="","",IF(Sheet1!P13 &lt; 300000, VLOOKUP(Sheet1!P13,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P13,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K13" t="str">
-        <f>IF(Sheet1!R13="","",VLOOKUP(Sheet1!R13,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R13="","",IF(Sheet1!R13 &lt; 300000, VLOOKUP(Sheet1!R13,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R13,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L13" t="str">
-        <f>IF(Sheet1!T13="","",VLOOKUP(Sheet1!T13,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T13="","",IF(Sheet1!T13 &lt; 300000, VLOOKUP(Sheet1!T13,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T13,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -8467,43 +8651,43 @@
         <v>掷斧骷髅</v>
       </c>
       <c r="C14" t="str">
-        <f>IF(Sheet1!B14="","",VLOOKUP(Sheet1!B14,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B14="","",IF(Sheet1!B14 &lt; 300000, VLOOKUP(Sheet1!B14,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B14,[2]装备!$A$3:$B$248,2)))</f>
         <v>八荒</v>
       </c>
       <c r="D14" t="str">
-        <f>IF(Sheet1!D14="","",VLOOKUP(Sheet1!D14,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D14="","",IF(Sheet1!D14 &lt; 300000, VLOOKUP(Sheet1!D14,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D14,[2]装备!$A$3:$B$248,2)))</f>
         <v>黄色水晶项链</v>
       </c>
       <c r="E14" t="str">
-        <f>IF(Sheet1!F14="","",VLOOKUP(Sheet1!F14,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F14="","",IF(Sheet1!F14 &lt; 300000, VLOOKUP(Sheet1!F14,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F14,[2]装备!$A$3:$B$248,2)))</f>
         <v>白色虎齿项链</v>
       </c>
       <c r="F14" t="str">
-        <f>IF(Sheet1!H14="","",VLOOKUP(Sheet1!H14,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H14="","",IF(Sheet1!H14 &lt; 300000, VLOOKUP(Sheet1!H14,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H14,[2]装备!$A$3:$B$248,2)))</f>
         <v>魔法头盔</v>
       </c>
       <c r="G14" t="str">
-        <f>IF(Sheet1!J14="","",VLOOKUP(Sheet1!J14,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J14="","",IF(Sheet1!J14 &lt; 300000, VLOOKUP(Sheet1!J14,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J14,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H14" t="str">
-        <f>IF(Sheet1!L14="","",VLOOKUP(Sheet1!L14,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L14="","",IF(Sheet1!L14 &lt; 300000, VLOOKUP(Sheet1!L14,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L14,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I14" t="str">
-        <f>IF(Sheet1!N14="","",VLOOKUP(Sheet1!N14,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N14="","",IF(Sheet1!N14 &lt; 300000, VLOOKUP(Sheet1!N14,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N14,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J14" t="str">
-        <f>IF(Sheet1!P14="","",VLOOKUP(Sheet1!P14,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P14="","",IF(Sheet1!P14 &lt; 300000, VLOOKUP(Sheet1!P14,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P14,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K14" t="str">
-        <f>IF(Sheet1!R14="","",VLOOKUP(Sheet1!R14,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R14="","",IF(Sheet1!R14 &lt; 300000, VLOOKUP(Sheet1!R14,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R14,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L14" t="str">
-        <f>IF(Sheet1!T14="","",VLOOKUP(Sheet1!T14,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T14="","",IF(Sheet1!T14 &lt; 300000, VLOOKUP(Sheet1!T14,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T14,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -8517,43 +8701,43 @@
         <v>骷髅战士</v>
       </c>
       <c r="C15" t="str">
-        <f>IF(Sheet1!B15="","",VLOOKUP(Sheet1!B15,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B15="","",IF(Sheet1!B15 &lt; 300000, VLOOKUP(Sheet1!B15,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B15,[2]装备!$A$3:$B$248,2)))</f>
         <v>半月</v>
       </c>
       <c r="D15" t="str">
-        <f>IF(Sheet1!D15="","",VLOOKUP(Sheet1!D15,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D15="","",IF(Sheet1!D15 &lt; 300000, VLOOKUP(Sheet1!D15,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D15,[2]装备!$A$3:$B$248,2)))</f>
         <v>黑色水晶项链</v>
       </c>
       <c r="E15" t="str">
-        <f>IF(Sheet1!F15="","",VLOOKUP(Sheet1!F15,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F15="","",IF(Sheet1!F15 &lt; 300000, VLOOKUP(Sheet1!F15,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F15,[2]装备!$A$3:$B$248,2)))</f>
         <v>白金项链</v>
       </c>
       <c r="F15" t="str">
-        <f>IF(Sheet1!H15="","",VLOOKUP(Sheet1!H15,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H15="","",IF(Sheet1!H15 &lt; 300000, VLOOKUP(Sheet1!H15,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H15,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G15" t="str">
-        <f>IF(Sheet1!J15="","",VLOOKUP(Sheet1!J15,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J15="","",IF(Sheet1!J15 &lt; 300000, VLOOKUP(Sheet1!J15,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J15,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H15" t="str">
-        <f>IF(Sheet1!L15="","",VLOOKUP(Sheet1!L15,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L15="","",IF(Sheet1!L15 &lt; 300000, VLOOKUP(Sheet1!L15,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L15,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I15" t="str">
-        <f>IF(Sheet1!N15="","",VLOOKUP(Sheet1!N15,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N15="","",IF(Sheet1!N15 &lt; 300000, VLOOKUP(Sheet1!N15,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N15,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J15" t="str">
-        <f>IF(Sheet1!P15="","",VLOOKUP(Sheet1!P15,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P15="","",IF(Sheet1!P15 &lt; 300000, VLOOKUP(Sheet1!P15,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P15,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K15" t="str">
-        <f>IF(Sheet1!R15="","",VLOOKUP(Sheet1!R15,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R15="","",IF(Sheet1!R15 &lt; 300000, VLOOKUP(Sheet1!R15,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R15,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L15" t="str">
-        <f>IF(Sheet1!T15="","",VLOOKUP(Sheet1!T15,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T15="","",IF(Sheet1!T15 &lt; 300000, VLOOKUP(Sheet1!T15,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T15,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -8567,43 +8751,43 @@
         <v>骷髅战将</v>
       </c>
       <c r="C16" t="str">
-        <f>IF(Sheet1!B16="","",VLOOKUP(Sheet1!B16,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B16="","",IF(Sheet1!B16 &lt; 300000, VLOOKUP(Sheet1!B16,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B16,[2]装备!$A$3:$B$248,2)))</f>
         <v>轻型盔甲(男)</v>
       </c>
       <c r="D16" t="str">
-        <f>IF(Sheet1!D16="","",VLOOKUP(Sheet1!D16,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D16="","",IF(Sheet1!D16 &lt; 300000, VLOOKUP(Sheet1!D16,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D16,[2]装备!$A$3:$B$248,2)))</f>
         <v>轻型盔甲(女)</v>
       </c>
       <c r="E16" t="str">
-        <f>IF(Sheet1!F16="","",VLOOKUP(Sheet1!F16,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F16="","",IF(Sheet1!F16 &lt; 300000, VLOOKUP(Sheet1!F16,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F16,[2]装备!$A$3:$B$248,2)))</f>
         <v>中型盔甲(男)</v>
       </c>
       <c r="F16" t="str">
-        <f>IF(Sheet1!H16="","",VLOOKUP(Sheet1!H16,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H16="","",IF(Sheet1!H16 &lt; 300000, VLOOKUP(Sheet1!H16,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H16,[2]装备!$A$3:$B$248,2)))</f>
         <v>中型盔甲(女)</v>
       </c>
       <c r="G16" t="str">
-        <f>IF(Sheet1!J16="","",VLOOKUP(Sheet1!J16,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J16="","",IF(Sheet1!J16 &lt; 300000, VLOOKUP(Sheet1!J16,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J16,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H16" t="str">
-        <f>IF(Sheet1!L16="","",VLOOKUP(Sheet1!L16,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L16="","",IF(Sheet1!L16 &lt; 300000, VLOOKUP(Sheet1!L16,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L16,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I16" t="str">
-        <f>IF(Sheet1!N16="","",VLOOKUP(Sheet1!N16,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N16="","",IF(Sheet1!N16 &lt; 300000, VLOOKUP(Sheet1!N16,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N16,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J16" t="str">
-        <f>IF(Sheet1!P16="","",VLOOKUP(Sheet1!P16,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P16="","",IF(Sheet1!P16 &lt; 300000, VLOOKUP(Sheet1!P16,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P16,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K16" t="str">
-        <f>IF(Sheet1!R16="","",VLOOKUP(Sheet1!R16,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R16="","",IF(Sheet1!R16 &lt; 300000, VLOOKUP(Sheet1!R16,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R16,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L16" t="str">
-        <f>IF(Sheet1!T16="","",VLOOKUP(Sheet1!T16,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T16="","",IF(Sheet1!T16 &lt; 300000, VLOOKUP(Sheet1!T16,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T16,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -8617,43 +8801,43 @@
         <v>爬地僵尸</v>
       </c>
       <c r="C17" t="str">
-        <f>IF(Sheet1!B17="","",VLOOKUP(Sheet1!B17,[2]道具!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B17="","",IF(Sheet1!B17 &lt; 300000, VLOOKUP(Sheet1!B17,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B17,[2]装备!$A$3:$B$248,2)))</f>
         <v>火球术</v>
       </c>
       <c r="D17" t="str">
-        <f>IF(Sheet1!D17="","",VLOOKUP(Sheet1!D17,[2]道具!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D17="","",IF(Sheet1!D17 &lt; 300000, VLOOKUP(Sheet1!D17,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D17,[2]装备!$A$3:$B$248,2)))</f>
         <v>精神力战法</v>
       </c>
       <c r="E17" t="str">
-        <f>IF(Sheet1!F17="","",VLOOKUP(Sheet1!F17,[2]道具!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F17="","",IF(Sheet1!F17 &lt; 300000, VLOOKUP(Sheet1!F17,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F17,[2]装备!$A$3:$B$248,2)))</f>
         <v>雷电术</v>
       </c>
       <c r="F17" t="str">
-        <f>IF(Sheet1!H17="","",VLOOKUP(Sheet1!H17,[2]道具!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H17="","",IF(Sheet1!H17 &lt; 300000, VLOOKUP(Sheet1!H17,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H17,[2]装备!$A$3:$B$248,2)))</f>
         <v>幽灵盾</v>
       </c>
       <c r="G17" t="str">
-        <f>IF(Sheet1!J17="","",VLOOKUP(Sheet1!J17,[2]道具!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J17="","",IF(Sheet1!J17 &lt; 300000, VLOOKUP(Sheet1!J17,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J17,[2]装备!$A$3:$B$248,2)))</f>
         <v>刺杀剑术</v>
       </c>
       <c r="H17" t="str">
-        <f>IF(Sheet1!L17="","",VLOOKUP(Sheet1!L17,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L17="","",IF(Sheet1!L17 &lt; 300000, VLOOKUP(Sheet1!L17,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L17,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I17" t="str">
-        <f>IF(Sheet1!N17="","",VLOOKUP(Sheet1!N17,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N17="","",IF(Sheet1!N17 &lt; 300000, VLOOKUP(Sheet1!N17,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N17,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J17" t="str">
-        <f>IF(Sheet1!P17="","",VLOOKUP(Sheet1!P17,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P17="","",IF(Sheet1!P17 &lt; 300000, VLOOKUP(Sheet1!P17,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P17,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K17" t="str">
-        <f>IF(Sheet1!R17="","",VLOOKUP(Sheet1!R17,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R17="","",IF(Sheet1!R17 &lt; 300000, VLOOKUP(Sheet1!R17,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R17,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L17" t="str">
-        <f>IF(Sheet1!T17="","",VLOOKUP(Sheet1!T17,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T17="","",IF(Sheet1!T17 &lt; 300000, VLOOKUP(Sheet1!T17,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T17,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -8667,43 +8851,43 @@
         <v xml:space="preserve">行走僵尸 </v>
       </c>
       <c r="C18" t="str">
-        <f>IF(Sheet1!B18="","",VLOOKUP(Sheet1!B18,[2]道具!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B18="","",IF(Sheet1!B18 &lt; 300000, VLOOKUP(Sheet1!B18,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B18,[2]装备!$A$3:$B$248,2)))</f>
         <v>火球术</v>
       </c>
       <c r="D18" t="str">
-        <f>IF(Sheet1!D18="","",VLOOKUP(Sheet1!D18,[2]道具!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D18="","",IF(Sheet1!D18 &lt; 300000, VLOOKUP(Sheet1!D18,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D18,[2]装备!$A$3:$B$248,2)))</f>
         <v>大火球</v>
       </c>
       <c r="E18" t="str">
-        <f>IF(Sheet1!F18="","",VLOOKUP(Sheet1!F18,[2]道具!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F18="","",IF(Sheet1!F18 &lt; 300000, VLOOKUP(Sheet1!F18,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F18,[2]装备!$A$3:$B$248,2)))</f>
         <v>雷电术</v>
       </c>
       <c r="F18" t="str">
-        <f>IF(Sheet1!H18="","",VLOOKUP(Sheet1!H18,[2]道具!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H18="","",IF(Sheet1!H18 &lt; 300000, VLOOKUP(Sheet1!H18,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H18,[2]装备!$A$3:$B$248,2)))</f>
         <v>神圣战甲术</v>
       </c>
       <c r="G18" t="str">
-        <f>IF(Sheet1!J18="","",VLOOKUP(Sheet1!J18,[2]道具!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J18="","",IF(Sheet1!J18 &lt; 300000, VLOOKUP(Sheet1!J18,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J18,[2]装备!$A$3:$B$248,2)))</f>
         <v>刺杀剑术</v>
       </c>
       <c r="H18" t="str">
-        <f>IF(Sheet1!L18="","",VLOOKUP(Sheet1!L18,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L18="","",IF(Sheet1!L18 &lt; 300000, VLOOKUP(Sheet1!L18,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L18,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I18" t="str">
-        <f>IF(Sheet1!N18="","",VLOOKUP(Sheet1!N18,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N18="","",IF(Sheet1!N18 &lt; 300000, VLOOKUP(Sheet1!N18,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N18,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J18" t="str">
-        <f>IF(Sheet1!P18="","",VLOOKUP(Sheet1!P18,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P18="","",IF(Sheet1!P18 &lt; 300000, VLOOKUP(Sheet1!P18,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P18,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K18" t="str">
-        <f>IF(Sheet1!R18="","",VLOOKUP(Sheet1!R18,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R18="","",IF(Sheet1!R18 &lt; 300000, VLOOKUP(Sheet1!R18,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R18,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L18" t="str">
-        <f>IF(Sheet1!T18="","",VLOOKUP(Sheet1!T18,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T18="","",IF(Sheet1!T18 &lt; 300000, VLOOKUP(Sheet1!T18,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T18,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -8717,43 +8901,43 @@
         <v>残废僵尸</v>
       </c>
       <c r="C19" t="str">
-        <f>IF(Sheet1!B19="","",VLOOKUP(Sheet1!B19,[2]道具!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B19="","",IF(Sheet1!B19 &lt; 300000, VLOOKUP(Sheet1!B19,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B19,[2]装备!$A$3:$B$248,2)))</f>
         <v>基本剑术</v>
       </c>
       <c r="D19" t="str">
-        <f>IF(Sheet1!D19="","",VLOOKUP(Sheet1!D19,[2]道具!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D19="","",IF(Sheet1!D19 &lt; 300000, VLOOKUP(Sheet1!D19,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D19,[2]装备!$A$3:$B$248,2)))</f>
         <v>大火球</v>
       </c>
       <c r="E19" t="str">
-        <f>IF(Sheet1!F19="","",VLOOKUP(Sheet1!F19,[2]道具!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F19="","",IF(Sheet1!F19 &lt; 300000, VLOOKUP(Sheet1!F19,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F19,[2]装备!$A$3:$B$248,2)))</f>
         <v>灵魂火符</v>
       </c>
       <c r="F19" t="str">
-        <f>IF(Sheet1!H19="","",VLOOKUP(Sheet1!H19,[2]道具!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H19="","",IF(Sheet1!H19 &lt; 300000, VLOOKUP(Sheet1!H19,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H19,[2]装备!$A$3:$B$248,2)))</f>
         <v>神圣战甲术</v>
       </c>
       <c r="G19" t="str">
-        <f>IF(Sheet1!J19="","",VLOOKUP(Sheet1!J19,[2]道具!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J19="","",IF(Sheet1!J19 &lt; 300000, VLOOKUP(Sheet1!J19,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J19,[2]装备!$A$3:$B$248,2)))</f>
         <v>火墙</v>
       </c>
       <c r="H19" t="str">
-        <f>IF(Sheet1!L19="","",VLOOKUP(Sheet1!L19,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L19="","",IF(Sheet1!L19 &lt; 300000, VLOOKUP(Sheet1!L19,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L19,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I19" t="str">
-        <f>IF(Sheet1!N19="","",VLOOKUP(Sheet1!N19,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N19="","",IF(Sheet1!N19 &lt; 300000, VLOOKUP(Sheet1!N19,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N19,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J19" t="str">
-        <f>IF(Sheet1!P19="","",VLOOKUP(Sheet1!P19,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P19="","",IF(Sheet1!P19 &lt; 300000, VLOOKUP(Sheet1!P19,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P19,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K19" t="str">
-        <f>IF(Sheet1!R19="","",VLOOKUP(Sheet1!R19,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R19="","",IF(Sheet1!R19 &lt; 300000, VLOOKUP(Sheet1!R19,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R19,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L19" t="str">
-        <f>IF(Sheet1!T19="","",VLOOKUP(Sheet1!T19,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T19="","",IF(Sheet1!T19 &lt; 300000, VLOOKUP(Sheet1!T19,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T19,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -8767,43 +8951,43 @@
         <v xml:space="preserve">黄袍僵尸 </v>
       </c>
       <c r="C20" t="str">
-        <f>IF(Sheet1!B20="","",VLOOKUP(Sheet1!B20,[2]道具!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B20="","",IF(Sheet1!B20 &lt; 300000, VLOOKUP(Sheet1!B20,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B20,[2]装备!$A$3:$B$248,2)))</f>
         <v>基本剑术</v>
       </c>
       <c r="D20" t="str">
-        <f>IF(Sheet1!D20="","",VLOOKUP(Sheet1!D20,[2]道具!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D20="","",IF(Sheet1!D20 &lt; 300000, VLOOKUP(Sheet1!D20,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D20,[2]装备!$A$3:$B$248,2)))</f>
         <v>攻杀剑术</v>
       </c>
       <c r="E20" t="str">
-        <f>IF(Sheet1!F20="","",VLOOKUP(Sheet1!F20,[2]道具!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F20="","",IF(Sheet1!F20 &lt; 300000, VLOOKUP(Sheet1!F20,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F20,[2]装备!$A$3:$B$248,2)))</f>
         <v>灵魂火符</v>
       </c>
       <c r="F20" t="str">
-        <f>IF(Sheet1!H20="","",VLOOKUP(Sheet1!H20,[2]道具!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H20="","",IF(Sheet1!H20 &lt; 300000, VLOOKUP(Sheet1!H20,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H20,[2]装备!$A$3:$B$248,2)))</f>
         <v>召唤骷髅</v>
       </c>
       <c r="G20" t="str">
-        <f>IF(Sheet1!J20="","",VLOOKUP(Sheet1!J20,[2]道具!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J20="","",IF(Sheet1!J20 &lt; 300000, VLOOKUP(Sheet1!J20,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J20,[2]装备!$A$3:$B$248,2)))</f>
         <v>火墙</v>
       </c>
       <c r="H20" t="str">
-        <f>IF(Sheet1!L20="","",VLOOKUP(Sheet1!L20,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L20="","",IF(Sheet1!L20 &lt; 300000, VLOOKUP(Sheet1!L20,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L20,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I20" t="str">
-        <f>IF(Sheet1!N20="","",VLOOKUP(Sheet1!N20,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N20="","",IF(Sheet1!N20 &lt; 300000, VLOOKUP(Sheet1!N20,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N20,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J20" t="str">
-        <f>IF(Sheet1!P20="","",VLOOKUP(Sheet1!P20,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P20="","",IF(Sheet1!P20 &lt; 300000, VLOOKUP(Sheet1!P20,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P20,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K20" t="str">
-        <f>IF(Sheet1!R20="","",VLOOKUP(Sheet1!R20,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R20="","",IF(Sheet1!R20 &lt; 300000, VLOOKUP(Sheet1!R20,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R20,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L20" t="str">
-        <f>IF(Sheet1!T20="","",VLOOKUP(Sheet1!T20,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T20="","",IF(Sheet1!T20 &lt; 300000, VLOOKUP(Sheet1!T20,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T20,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -8817,43 +9001,43 @@
         <v xml:space="preserve">电僵尸 </v>
       </c>
       <c r="C21" t="str">
-        <f>IF(Sheet1!B21="","",VLOOKUP(Sheet1!B21,[2]道具!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B21="","",IF(Sheet1!B21 &lt; 300000, VLOOKUP(Sheet1!B21,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B21,[2]装备!$A$3:$B$248,2)))</f>
         <v>精神力战法</v>
       </c>
       <c r="D21" t="str">
-        <f>IF(Sheet1!D21="","",VLOOKUP(Sheet1!D21,[2]道具!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D21="","",IF(Sheet1!D21 &lt; 300000, VLOOKUP(Sheet1!D21,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D21,[2]装备!$A$3:$B$248,2)))</f>
         <v>攻杀剑术</v>
       </c>
       <c r="E21" t="str">
-        <f>IF(Sheet1!F21="","",VLOOKUP(Sheet1!F21,[2]道具!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F21="","",IF(Sheet1!F21 &lt; 300000, VLOOKUP(Sheet1!F21,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F21,[2]装备!$A$3:$B$248,2)))</f>
         <v>幽灵盾</v>
       </c>
       <c r="F21" t="str">
-        <f>IF(Sheet1!H21="","",VLOOKUP(Sheet1!H21,[2]道具!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H21="","",IF(Sheet1!H21 &lt; 300000, VLOOKUP(Sheet1!H21,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H21,[2]装备!$A$3:$B$248,2)))</f>
         <v>召唤骷髅</v>
       </c>
       <c r="G21" t="str">
-        <f>IF(Sheet1!J21="","",VLOOKUP(Sheet1!J21,[2]道具!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J21="","",IF(Sheet1!J21 &lt; 300000, VLOOKUP(Sheet1!J21,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J21,[2]装备!$A$3:$B$248,2)))</f>
         <v>爆裂火焰</v>
       </c>
       <c r="H21" t="str">
-        <f>IF(Sheet1!L21="","",VLOOKUP(Sheet1!L21,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L21="","",IF(Sheet1!L21 &lt; 300000, VLOOKUP(Sheet1!L21,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L21,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I21" t="str">
-        <f>IF(Sheet1!N21="","",VLOOKUP(Sheet1!N21,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N21="","",IF(Sheet1!N21 &lt; 300000, VLOOKUP(Sheet1!N21,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N21,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J21" t="str">
-        <f>IF(Sheet1!P21="","",VLOOKUP(Sheet1!P21,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P21="","",IF(Sheet1!P21 &lt; 300000, VLOOKUP(Sheet1!P21,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P21,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K21" t="str">
-        <f>IF(Sheet1!R21="","",VLOOKUP(Sheet1!R21,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R21="","",IF(Sheet1!R21 &lt; 300000, VLOOKUP(Sheet1!R21,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R21,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L21" t="str">
-        <f>IF(Sheet1!T21="","",VLOOKUP(Sheet1!T21,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T21="","",IF(Sheet1!T21 &lt; 300000, VLOOKUP(Sheet1!T21,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T21,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -8867,43 +9051,43 @@
         <v>粪虫</v>
       </c>
       <c r="C22" t="str">
-        <f>IF(Sheet1!B22="","",VLOOKUP(Sheet1!B22,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B22="","",IF(Sheet1!B22 &lt; 300000, VLOOKUP(Sheet1!B22,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B22,[2]装备!$A$3:$B$248,2)))</f>
         <v>魔鬼项链</v>
       </c>
       <c r="D22" t="str">
-        <f>IF(Sheet1!D22="","",VLOOKUP(Sheet1!D22,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D22="","",IF(Sheet1!D22 &lt; 300000, VLOOKUP(Sheet1!D22,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D22,[2]装备!$A$3:$B$248,2)))</f>
         <v>凤凰明珠</v>
       </c>
       <c r="E22" t="str">
-        <f>IF(Sheet1!F22="","",VLOOKUP(Sheet1!F22,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F22="","",IF(Sheet1!F22 &lt; 300000, VLOOKUP(Sheet1!F22,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F22,[2]装备!$A$3:$B$248,2)))</f>
         <v>蓝翡翠项链</v>
       </c>
       <c r="F22" t="str">
-        <f>IF(Sheet1!H22="","",VLOOKUP(Sheet1!H22,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H22="","",IF(Sheet1!H22 &lt; 300000, VLOOKUP(Sheet1!H22,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H22,[2]装备!$A$3:$B$248,2)))</f>
         <v>魅力戒指</v>
       </c>
       <c r="G22" t="str">
-        <f>IF(Sheet1!J22="","",VLOOKUP(Sheet1!J22,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J22="","",IF(Sheet1!J22 &lt; 300000, VLOOKUP(Sheet1!J22,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J22,[2]装备!$A$3:$B$248,2)))</f>
         <v>黑檀手镯</v>
       </c>
       <c r="H22" t="str">
-        <f>IF(Sheet1!L22="","",VLOOKUP(Sheet1!L22,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L22="","",IF(Sheet1!L22 &lt; 300000, VLOOKUP(Sheet1!L22,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L22,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I22" t="str">
-        <f>IF(Sheet1!N22="","",VLOOKUP(Sheet1!N22,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N22="","",IF(Sheet1!N22 &lt; 300000, VLOOKUP(Sheet1!N22,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N22,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J22" t="str">
-        <f>IF(Sheet1!P22="","",VLOOKUP(Sheet1!P22,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P22="","",IF(Sheet1!P22 &lt; 300000, VLOOKUP(Sheet1!P22,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P22,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K22" t="str">
-        <f>IF(Sheet1!R22="","",VLOOKUP(Sheet1!R22,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R22="","",IF(Sheet1!R22 &lt; 300000, VLOOKUP(Sheet1!R22,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R22,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L22" t="str">
-        <f>IF(Sheet1!T22="","",VLOOKUP(Sheet1!T22,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T22="","",IF(Sheet1!T22 &lt; 300000, VLOOKUP(Sheet1!T22,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T22,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -8917,43 +9101,43 @@
         <v>暗黑战士</v>
       </c>
       <c r="C23" t="str">
-        <f>IF(Sheet1!B23="","",VLOOKUP(Sheet1!B23,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B23="","",IF(Sheet1!B23 &lt; 300000, VLOOKUP(Sheet1!B23,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B23,[2]装备!$A$3:$B$248,2)))</f>
         <v>凌风</v>
       </c>
       <c r="D23" t="str">
-        <f>IF(Sheet1!D23="","",VLOOKUP(Sheet1!D23,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D23="","",IF(Sheet1!D23 &lt; 300000, VLOOKUP(Sheet1!D23,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D23,[2]装备!$A$3:$B$248,2)))</f>
         <v>重盔甲(男)</v>
       </c>
       <c r="E23" t="str">
-        <f>IF(Sheet1!F23="","",VLOOKUP(Sheet1!F23,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F23="","",IF(Sheet1!F23 &lt; 300000, VLOOKUP(Sheet1!F23,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F23,[2]装备!$A$3:$B$248,2)))</f>
         <v>重盔甲(女)</v>
       </c>
       <c r="F23" t="str">
-        <f>IF(Sheet1!H23="","",VLOOKUP(Sheet1!H23,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H23="","",IF(Sheet1!H23 &lt; 300000, VLOOKUP(Sheet1!H23,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H23,[2]装备!$A$3:$B$248,2)))</f>
         <v>道德戒指</v>
       </c>
       <c r="G23" t="str">
-        <f>IF(Sheet1!J23="","",VLOOKUP(Sheet1!J23,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J23="","",IF(Sheet1!J23 &lt; 300000, VLOOKUP(Sheet1!J23,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J23,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H23" t="str">
-        <f>IF(Sheet1!L23="","",VLOOKUP(Sheet1!L23,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L23="","",IF(Sheet1!L23 &lt; 300000, VLOOKUP(Sheet1!L23,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L23,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I23" t="str">
-        <f>IF(Sheet1!N23="","",VLOOKUP(Sheet1!N23,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N23="","",IF(Sheet1!N23 &lt; 300000, VLOOKUP(Sheet1!N23,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N23,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J23" t="str">
-        <f>IF(Sheet1!P23="","",VLOOKUP(Sheet1!P23,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P23="","",IF(Sheet1!P23 &lt; 300000, VLOOKUP(Sheet1!P23,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P23,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K23" t="str">
-        <f>IF(Sheet1!R23="","",VLOOKUP(Sheet1!R23,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R23="","",IF(Sheet1!R23 &lt; 300000, VLOOKUP(Sheet1!R23,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R23,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L23" t="str">
-        <f>IF(Sheet1!T23="","",VLOOKUP(Sheet1!T23,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T23="","",IF(Sheet1!T23 &lt; 300000, VLOOKUP(Sheet1!T23,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T23,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -8967,43 +9151,43 @@
         <v>沃玛战士</v>
       </c>
       <c r="C24" t="str">
-        <f>IF(Sheet1!B24="","",VLOOKUP(Sheet1!B24,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B24="","",IF(Sheet1!B24 &lt; 300000, VLOOKUP(Sheet1!B24,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B24,[2]装备!$A$3:$B$248,2)))</f>
         <v>破魂</v>
       </c>
       <c r="D24" t="str">
-        <f>IF(Sheet1!D24="","",VLOOKUP(Sheet1!D24,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D24="","",IF(Sheet1!D24 &lt; 300000, VLOOKUP(Sheet1!D24,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D24,[2]装备!$A$3:$B$248,2)))</f>
         <v>魔法长袍(男)</v>
       </c>
       <c r="E24" t="str">
-        <f>IF(Sheet1!F24="","",VLOOKUP(Sheet1!F24,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F24="","",IF(Sheet1!F24 &lt; 300000, VLOOKUP(Sheet1!F24,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F24,[2]装备!$A$3:$B$248,2)))</f>
         <v>魔法长袍(女)</v>
       </c>
       <c r="F24" t="str">
-        <f>IF(Sheet1!H24="","",VLOOKUP(Sheet1!H24,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H24="","",IF(Sheet1!H24 &lt; 300000, VLOOKUP(Sheet1!H24,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H24,[2]装备!$A$3:$B$248,2)))</f>
         <v>骷髅戒指</v>
       </c>
       <c r="G24" t="str">
-        <f>IF(Sheet1!J24="","",VLOOKUP(Sheet1!J24,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J24="","",IF(Sheet1!J24 &lt; 300000, VLOOKUP(Sheet1!J24,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J24,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H24" t="str">
-        <f>IF(Sheet1!L24="","",VLOOKUP(Sheet1!L24,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L24="","",IF(Sheet1!L24 &lt; 300000, VLOOKUP(Sheet1!L24,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L24,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I24" t="str">
-        <f>IF(Sheet1!N24="","",VLOOKUP(Sheet1!N24,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N24="","",IF(Sheet1!N24 &lt; 300000, VLOOKUP(Sheet1!N24,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N24,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J24" t="str">
-        <f>IF(Sheet1!P24="","",VLOOKUP(Sheet1!P24,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P24="","",IF(Sheet1!P24 &lt; 300000, VLOOKUP(Sheet1!P24,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P24,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K24" t="str">
-        <f>IF(Sheet1!R24="","",VLOOKUP(Sheet1!R24,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R24="","",IF(Sheet1!R24 &lt; 300000, VLOOKUP(Sheet1!R24,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R24,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L24" t="str">
-        <f>IF(Sheet1!T24="","",VLOOKUP(Sheet1!T24,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T24="","",IF(Sheet1!T24 &lt; 300000, VLOOKUP(Sheet1!T24,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T24,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -9017,43 +9201,43 @@
         <v>沃玛勇士</v>
       </c>
       <c r="C25" t="str">
-        <f>IF(Sheet1!B25="","",VLOOKUP(Sheet1!B25,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B25="","",IF(Sheet1!B25 &lt; 300000, VLOOKUP(Sheet1!B25,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B25,[2]装备!$A$3:$B$248,2)))</f>
         <v>斩马刀</v>
       </c>
       <c r="D25" t="str">
-        <f>IF(Sheet1!D25="","",VLOOKUP(Sheet1!D25,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D25="","",IF(Sheet1!D25 &lt; 300000, VLOOKUP(Sheet1!D25,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D25,[2]装备!$A$3:$B$248,2)))</f>
         <v>灵魂战衣(男)</v>
       </c>
       <c r="E25" t="str">
-        <f>IF(Sheet1!F25="","",VLOOKUP(Sheet1!F25,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F25="","",IF(Sheet1!F25 &lt; 300000, VLOOKUP(Sheet1!F25,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F25,[2]装备!$A$3:$B$248,2)))</f>
         <v>灵魂战衣(女)</v>
       </c>
       <c r="F25" t="str">
-        <f>IF(Sheet1!H25="","",VLOOKUP(Sheet1!H25,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H25="","",IF(Sheet1!H25 &lt; 300000, VLOOKUP(Sheet1!H25,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H25,[2]装备!$A$3:$B$248,2)))</f>
         <v>蛇眼戒指</v>
       </c>
       <c r="G25" t="str">
-        <f>IF(Sheet1!J25="","",VLOOKUP(Sheet1!J25,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J25="","",IF(Sheet1!J25 &lt; 300000, VLOOKUP(Sheet1!J25,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J25,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H25" t="str">
-        <f>IF(Sheet1!L25="","",VLOOKUP(Sheet1!L25,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L25="","",IF(Sheet1!L25 &lt; 300000, VLOOKUP(Sheet1!L25,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L25,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I25" t="str">
-        <f>IF(Sheet1!N25="","",VLOOKUP(Sheet1!N25,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N25="","",IF(Sheet1!N25 &lt; 300000, VLOOKUP(Sheet1!N25,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N25,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J25" t="str">
-        <f>IF(Sheet1!P25="","",VLOOKUP(Sheet1!P25,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P25="","",IF(Sheet1!P25 &lt; 300000, VLOOKUP(Sheet1!P25,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P25,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K25" t="str">
-        <f>IF(Sheet1!R25="","",VLOOKUP(Sheet1!R25,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R25="","",IF(Sheet1!R25 &lt; 300000, VLOOKUP(Sheet1!R25,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R25,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L25" t="str">
-        <f>IF(Sheet1!T25="","",VLOOKUP(Sheet1!T25,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T25="","",IF(Sheet1!T25 &lt; 300000, VLOOKUP(Sheet1!T25,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T25,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -9067,43 +9251,43 @@
         <v>沃玛战将</v>
       </c>
       <c r="C26" t="str">
-        <f>IF(Sheet1!B26="","",VLOOKUP(Sheet1!B26,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B26="","",IF(Sheet1!B26 &lt; 300000, VLOOKUP(Sheet1!B26,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B26,[2]装备!$A$3:$B$248,2)))</f>
         <v>偃月</v>
       </c>
       <c r="D26" t="str">
-        <f>IF(Sheet1!D26="","",VLOOKUP(Sheet1!D26,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D26="","",IF(Sheet1!D26 &lt; 300000, VLOOKUP(Sheet1!D26,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D26,[2]装备!$A$3:$B$248,2)))</f>
         <v>骷髅头盔</v>
       </c>
       <c r="E26" t="str">
-        <f>IF(Sheet1!F26="","",VLOOKUP(Sheet1!F26,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F26="","",IF(Sheet1!F26 &lt; 300000, VLOOKUP(Sheet1!F26,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F26,[2]装备!$A$3:$B$248,2)))</f>
         <v>放大镜</v>
       </c>
       <c r="F26" t="str">
-        <f>IF(Sheet1!H26="","",VLOOKUP(Sheet1!H26,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H26="","",IF(Sheet1!H26 &lt; 300000, VLOOKUP(Sheet1!H26,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H26,[2]装备!$A$3:$B$248,2)))</f>
         <v>道士手镯</v>
       </c>
       <c r="G26" t="str">
-        <f>IF(Sheet1!J26="","",VLOOKUP(Sheet1!J26,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J26="","",IF(Sheet1!J26 &lt; 300000, VLOOKUP(Sheet1!J26,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J26,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H26" t="str">
-        <f>IF(Sheet1!L26="","",VLOOKUP(Sheet1!L26,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L26="","",IF(Sheet1!L26 &lt; 300000, VLOOKUP(Sheet1!L26,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L26,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I26" t="str">
-        <f>IF(Sheet1!N26="","",VLOOKUP(Sheet1!N26,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N26="","",IF(Sheet1!N26 &lt; 300000, VLOOKUP(Sheet1!N26,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N26,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J26" t="str">
-        <f>IF(Sheet1!P26="","",VLOOKUP(Sheet1!P26,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P26="","",IF(Sheet1!P26 &lt; 300000, VLOOKUP(Sheet1!P26,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P26,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K26" t="str">
-        <f>IF(Sheet1!R26="","",VLOOKUP(Sheet1!R26,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R26="","",IF(Sheet1!R26 &lt; 300000, VLOOKUP(Sheet1!R26,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R26,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L26" t="str">
-        <f>IF(Sheet1!T26="","",VLOOKUP(Sheet1!T26,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T26="","",IF(Sheet1!T26 &lt; 300000, VLOOKUP(Sheet1!T26,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T26,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -9117,43 +9301,43 @@
         <v>火焰沃玛</v>
       </c>
       <c r="C27" t="str">
-        <f>IF(Sheet1!B27="","",VLOOKUP(Sheet1!B27,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B27="","",IF(Sheet1!B27 &lt; 300000, VLOOKUP(Sheet1!B27,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B27,[2]装备!$A$3:$B$248,2)))</f>
         <v>降魔</v>
       </c>
       <c r="D27" t="str">
-        <f>IF(Sheet1!D27="","",VLOOKUP(Sheet1!D27,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D27="","",IF(Sheet1!D27 &lt; 300000, VLOOKUP(Sheet1!D27,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D27,[2]装备!$A$3:$B$248,2)))</f>
         <v>道士头盔</v>
       </c>
       <c r="E27" t="str">
-        <f>IF(Sheet1!F27="","",VLOOKUP(Sheet1!F27,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F27="","",IF(Sheet1!F27 &lt; 300000, VLOOKUP(Sheet1!F27,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F27,[2]装备!$A$3:$B$248,2)))</f>
         <v>竹笛</v>
       </c>
       <c r="F27" t="str">
-        <f>IF(Sheet1!H27="","",VLOOKUP(Sheet1!H27,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H27="","",IF(Sheet1!H27 &lt; 300000, VLOOKUP(Sheet1!H27,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H27,[2]装备!$A$3:$B$248,2)))</f>
         <v>降妖除魔戒指</v>
       </c>
       <c r="G27" t="str">
-        <f>IF(Sheet1!J27="","",VLOOKUP(Sheet1!J27,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J27="","",IF(Sheet1!J27 &lt; 300000, VLOOKUP(Sheet1!J27,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J27,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H27" t="str">
-        <f>IF(Sheet1!L27="","",VLOOKUP(Sheet1!L27,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L27="","",IF(Sheet1!L27 &lt; 300000, VLOOKUP(Sheet1!L27,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L27,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I27" t="str">
-        <f>IF(Sheet1!N27="","",VLOOKUP(Sheet1!N27,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N27="","",IF(Sheet1!N27 &lt; 300000, VLOOKUP(Sheet1!N27,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N27,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J27" t="str">
-        <f>IF(Sheet1!P27="","",VLOOKUP(Sheet1!P27,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P27="","",IF(Sheet1!P27 &lt; 300000, VLOOKUP(Sheet1!P27,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P27,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K27" t="str">
-        <f>IF(Sheet1!R27="","",VLOOKUP(Sheet1!R27,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R27="","",IF(Sheet1!R27 &lt; 300000, VLOOKUP(Sheet1!R27,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R27,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L27" t="str">
-        <f>IF(Sheet1!T27="","",VLOOKUP(Sheet1!T27,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T27="","",IF(Sheet1!T27 &lt; 300000, VLOOKUP(Sheet1!T27,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T27,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -9167,43 +9351,43 @@
         <v>毒蜘蛛</v>
       </c>
       <c r="C28" t="str">
-        <f>IF(Sheet1!B28="","",VLOOKUP(Sheet1!B28,[2]装备!$A$3:$B$248,2))</f>
-        <v/>
+        <f>IF(Sheet1!B28="","",IF(Sheet1!B28 &lt; 300000, VLOOKUP(Sheet1!B28,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B28,[2]装备!$A$3:$B$248,2)))</f>
+        <v>零星铜币</v>
       </c>
       <c r="D28" t="str">
-        <f>IF(Sheet1!D28="","",VLOOKUP(Sheet1!D28,[2]装备!$A$3:$B$248,2))</f>
-        <v/>
+        <f>IF(Sheet1!D28="","",IF(Sheet1!D28 &lt; 300000, VLOOKUP(Sheet1!D28,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D28,[2]装备!$A$3:$B$248,2)))</f>
+        <v>小堆铜币</v>
       </c>
       <c r="E28" t="str">
-        <f>IF(Sheet1!F28="","",VLOOKUP(Sheet1!F28,[2]装备!$A$3:$B$248,2))</f>
-        <v/>
+        <f>IF(Sheet1!F28="","",IF(Sheet1!F28 &lt; 300000, VLOOKUP(Sheet1!F28,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F28,[2]装备!$A$3:$B$248,2)))</f>
+        <v>大堆铜币</v>
       </c>
       <c r="F28" t="str">
-        <f>IF(Sheet1!H28="","",VLOOKUP(Sheet1!H28,[2]装备!$A$3:$B$248,2))</f>
-        <v/>
+        <f>IF(Sheet1!H28="","",IF(Sheet1!H28 &lt; 300000, VLOOKUP(Sheet1!H28,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H28,[2]装备!$A$3:$B$248,2)))</f>
+        <v>零星银币</v>
       </c>
       <c r="G28" t="str">
-        <f>IF(Sheet1!J28="","",VLOOKUP(Sheet1!J28,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J28="","",IF(Sheet1!J28 &lt; 300000, VLOOKUP(Sheet1!J28,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J28,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H28" t="str">
-        <f>IF(Sheet1!L28="","",VLOOKUP(Sheet1!L28,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L28="","",IF(Sheet1!L28 &lt; 300000, VLOOKUP(Sheet1!L28,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L28,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I28" t="str">
-        <f>IF(Sheet1!N28="","",VLOOKUP(Sheet1!N28,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N28="","",IF(Sheet1!N28 &lt; 300000, VLOOKUP(Sheet1!N28,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N28,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J28" t="str">
-        <f>IF(Sheet1!P28="","",VLOOKUP(Sheet1!P28,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P28="","",IF(Sheet1!P28 &lt; 300000, VLOOKUP(Sheet1!P28,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P28,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K28" t="str">
-        <f>IF(Sheet1!R28="","",VLOOKUP(Sheet1!R28,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R28="","",IF(Sheet1!R28 &lt; 300000, VLOOKUP(Sheet1!R28,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R28,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L28" t="str">
-        <f>IF(Sheet1!T28="","",VLOOKUP(Sheet1!T28,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T28="","",IF(Sheet1!T28 &lt; 300000, VLOOKUP(Sheet1!T28,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T28,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -9217,43 +9401,43 @@
         <v>红蛇</v>
       </c>
       <c r="C29" t="str">
-        <f>IF(Sheet1!B29="","",VLOOKUP(Sheet1!B29,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B29="","",IF(Sheet1!B29 &lt; 300000, VLOOKUP(Sheet1!B29,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B29,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="D29" t="str">
-        <f>IF(Sheet1!D29="","",VLOOKUP(Sheet1!D29,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D29="","",IF(Sheet1!D29 &lt; 300000, VLOOKUP(Sheet1!D29,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D29,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="E29" t="str">
-        <f>IF(Sheet1!F29="","",VLOOKUP(Sheet1!F29,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F29="","",IF(Sheet1!F29 &lt; 300000, VLOOKUP(Sheet1!F29,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F29,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="F29" t="str">
-        <f>IF(Sheet1!H29="","",VLOOKUP(Sheet1!H29,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H29="","",IF(Sheet1!H29 &lt; 300000, VLOOKUP(Sheet1!H29,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H29,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G29" t="str">
-        <f>IF(Sheet1!J29="","",VLOOKUP(Sheet1!J29,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J29="","",IF(Sheet1!J29 &lt; 300000, VLOOKUP(Sheet1!J29,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J29,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H29" t="str">
-        <f>IF(Sheet1!L29="","",VLOOKUP(Sheet1!L29,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L29="","",IF(Sheet1!L29 &lt; 300000, VLOOKUP(Sheet1!L29,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L29,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I29" t="str">
-        <f>IF(Sheet1!N29="","",VLOOKUP(Sheet1!N29,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N29="","",IF(Sheet1!N29 &lt; 300000, VLOOKUP(Sheet1!N29,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N29,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J29" t="str">
-        <f>IF(Sheet1!P29="","",VLOOKUP(Sheet1!P29,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P29="","",IF(Sheet1!P29 &lt; 300000, VLOOKUP(Sheet1!P29,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P29,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K29" t="str">
-        <f>IF(Sheet1!R29="","",VLOOKUP(Sheet1!R29,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R29="","",IF(Sheet1!R29 &lt; 300000, VLOOKUP(Sheet1!R29,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R29,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L29" t="str">
-        <f>IF(Sheet1!T29="","",VLOOKUP(Sheet1!T29,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T29="","",IF(Sheet1!T29 &lt; 300000, VLOOKUP(Sheet1!T29,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T29,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -9267,43 +9451,43 @@
         <v>虎蛇</v>
       </c>
       <c r="C30" t="str">
-        <f>IF(Sheet1!B30="","",VLOOKUP(Sheet1!B30,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B30="","",IF(Sheet1!B30 &lt; 300000, VLOOKUP(Sheet1!B30,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B30,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="D30" t="str">
-        <f>IF(Sheet1!D30="","",VLOOKUP(Sheet1!D30,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D30="","",IF(Sheet1!D30 &lt; 300000, VLOOKUP(Sheet1!D30,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D30,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="E30" t="str">
-        <f>IF(Sheet1!F30="","",VLOOKUP(Sheet1!F30,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F30="","",IF(Sheet1!F30 &lt; 300000, VLOOKUP(Sheet1!F30,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F30,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="F30" t="str">
-        <f>IF(Sheet1!H30="","",VLOOKUP(Sheet1!H30,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H30="","",IF(Sheet1!H30 &lt; 300000, VLOOKUP(Sheet1!H30,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H30,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G30" t="str">
-        <f>IF(Sheet1!J30="","",VLOOKUP(Sheet1!J30,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J30="","",IF(Sheet1!J30 &lt; 300000, VLOOKUP(Sheet1!J30,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J30,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H30" t="str">
-        <f>IF(Sheet1!L30="","",VLOOKUP(Sheet1!L30,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L30="","",IF(Sheet1!L30 &lt; 300000, VLOOKUP(Sheet1!L30,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L30,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I30" t="str">
-        <f>IF(Sheet1!N30="","",VLOOKUP(Sheet1!N30,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N30="","",IF(Sheet1!N30 &lt; 300000, VLOOKUP(Sheet1!N30,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N30,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J30" t="str">
-        <f>IF(Sheet1!P30="","",VLOOKUP(Sheet1!P30,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P30="","",IF(Sheet1!P30 &lt; 300000, VLOOKUP(Sheet1!P30,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P30,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K30" t="str">
-        <f>IF(Sheet1!R30="","",VLOOKUP(Sheet1!R30,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R30="","",IF(Sheet1!R30 &lt; 300000, VLOOKUP(Sheet1!R30,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R30,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L30" t="str">
-        <f>IF(Sheet1!T30="","",VLOOKUP(Sheet1!T30,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T30="","",IF(Sheet1!T30 &lt; 300000, VLOOKUP(Sheet1!T30,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T30,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -9317,43 +9501,43 @@
         <v>盔甲虫</v>
       </c>
       <c r="C31" t="str">
-        <f>IF(Sheet1!B31="","",VLOOKUP(Sheet1!B31,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B31="","",IF(Sheet1!B31 &lt; 300000, VLOOKUP(Sheet1!B31,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B31,[2]装备!$A$3:$B$248,2)))</f>
         <v>破魂</v>
       </c>
       <c r="D31" t="str">
-        <f>IF(Sheet1!D31="","",VLOOKUP(Sheet1!D31,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D31="","",IF(Sheet1!D31 &lt; 300000, VLOOKUP(Sheet1!D31,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D31,[2]装备!$A$3:$B$248,2)))</f>
         <v>轻型盔甲(男)</v>
       </c>
       <c r="E31" t="str">
-        <f>IF(Sheet1!F31="","",VLOOKUP(Sheet1!F31,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F31="","",IF(Sheet1!F31 &lt; 300000, VLOOKUP(Sheet1!F31,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F31,[2]装备!$A$3:$B$248,2)))</f>
         <v>躲避手链</v>
       </c>
       <c r="F31" t="str">
-        <f>IF(Sheet1!H31="","",VLOOKUP(Sheet1!H31,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H31="","",IF(Sheet1!H31 &lt; 300000, VLOOKUP(Sheet1!H31,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H31,[2]装备!$A$3:$B$248,2)))</f>
         <v>琥珀项链</v>
       </c>
       <c r="G31" t="str">
-        <f>IF(Sheet1!J31="","",VLOOKUP(Sheet1!J31,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J31="","",IF(Sheet1!J31 &lt; 300000, VLOOKUP(Sheet1!J31,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J31,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H31" t="str">
-        <f>IF(Sheet1!L31="","",VLOOKUP(Sheet1!L31,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L31="","",IF(Sheet1!L31 &lt; 300000, VLOOKUP(Sheet1!L31,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L31,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I31" t="str">
-        <f>IF(Sheet1!N31="","",VLOOKUP(Sheet1!N31,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N31="","",IF(Sheet1!N31 &lt; 300000, VLOOKUP(Sheet1!N31,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N31,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J31" t="str">
-        <f>IF(Sheet1!P31="","",VLOOKUP(Sheet1!P31,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P31="","",IF(Sheet1!P31 &lt; 300000, VLOOKUP(Sheet1!P31,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P31,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K31" t="str">
-        <f>IF(Sheet1!R31="","",VLOOKUP(Sheet1!R31,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R31="","",IF(Sheet1!R31 &lt; 300000, VLOOKUP(Sheet1!R31,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R31,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L31" t="str">
-        <f>IF(Sheet1!T31="","",VLOOKUP(Sheet1!T31,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T31="","",IF(Sheet1!T31 &lt; 300000, VLOOKUP(Sheet1!T31,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T31,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -9367,43 +9551,43 @@
         <v>狼</v>
       </c>
       <c r="C32" t="str">
-        <f>IF(Sheet1!B32="","",VLOOKUP(Sheet1!B32,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B32="","",IF(Sheet1!B32 &lt; 300000, VLOOKUP(Sheet1!B32,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B32,[2]装备!$A$3:$B$248,2)))</f>
         <v>铁剑</v>
       </c>
       <c r="D32" t="str">
-        <f>IF(Sheet1!D32="","",VLOOKUP(Sheet1!D32,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D32="","",IF(Sheet1!D32 &lt; 300000, VLOOKUP(Sheet1!D32,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D32,[2]装备!$A$3:$B$248,2)))</f>
         <v>轻型盔甲(女)</v>
       </c>
       <c r="E32" t="str">
-        <f>IF(Sheet1!F32="","",VLOOKUP(Sheet1!F32,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F32="","",IF(Sheet1!F32 &lt; 300000, VLOOKUP(Sheet1!F32,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F32,[2]装备!$A$3:$B$248,2)))</f>
         <v>夏普儿手镯</v>
       </c>
       <c r="F32" t="str">
-        <f>IF(Sheet1!H32="","",VLOOKUP(Sheet1!H32,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H32="","",IF(Sheet1!H32 &lt; 300000, VLOOKUP(Sheet1!H32,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H32,[2]装备!$A$3:$B$248,2)))</f>
         <v>灯笼项链</v>
       </c>
       <c r="G32" t="str">
-        <f>IF(Sheet1!J32="","",VLOOKUP(Sheet1!J32,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J32="","",IF(Sheet1!J32 &lt; 300000, VLOOKUP(Sheet1!J32,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J32,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H32" t="str">
-        <f>IF(Sheet1!L32="","",VLOOKUP(Sheet1!L32,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L32="","",IF(Sheet1!L32 &lt; 300000, VLOOKUP(Sheet1!L32,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L32,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I32" t="str">
-        <f>IF(Sheet1!N32="","",VLOOKUP(Sheet1!N32,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N32="","",IF(Sheet1!N32 &lt; 300000, VLOOKUP(Sheet1!N32,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N32,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J32" t="str">
-        <f>IF(Sheet1!P32="","",VLOOKUP(Sheet1!P32,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P32="","",IF(Sheet1!P32 &lt; 300000, VLOOKUP(Sheet1!P32,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P32,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K32" t="str">
-        <f>IF(Sheet1!R32="","",VLOOKUP(Sheet1!R32,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R32="","",IF(Sheet1!R32 &lt; 300000, VLOOKUP(Sheet1!R32,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R32,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L32" t="str">
-        <f>IF(Sheet1!T32="","",VLOOKUP(Sheet1!T32,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T32="","",IF(Sheet1!T32 &lt; 300000, VLOOKUP(Sheet1!T32,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T32,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -9417,43 +9601,43 @@
         <v>威思而小虫</v>
       </c>
       <c r="C33" t="str">
-        <f>IF(Sheet1!B33="","",VLOOKUP(Sheet1!B33,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B33="","",IF(Sheet1!B33 &lt; 300000, VLOOKUP(Sheet1!B33,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B33,[2]装备!$A$3:$B$248,2)))</f>
         <v>青铜斧</v>
       </c>
       <c r="D33" t="str">
-        <f>IF(Sheet1!D33="","",VLOOKUP(Sheet1!D33,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D33="","",IF(Sheet1!D33 &lt; 300000, VLOOKUP(Sheet1!D33,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D33,[2]装备!$A$3:$B$248,2)))</f>
         <v>中型盔甲(男)</v>
       </c>
       <c r="E33" t="str">
-        <f>IF(Sheet1!F33="","",VLOOKUP(Sheet1!F33,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F33="","",IF(Sheet1!F33 &lt; 300000, VLOOKUP(Sheet1!F33,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F33,[2]装备!$A$3:$B$248,2)))</f>
         <v>避邪手镯</v>
       </c>
       <c r="F33" t="str">
-        <f>IF(Sheet1!H33="","",VLOOKUP(Sheet1!H33,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H33="","",IF(Sheet1!H33 &lt; 300000, VLOOKUP(Sheet1!H33,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H33,[2]装备!$A$3:$B$248,2)))</f>
         <v>黑檀项链</v>
       </c>
       <c r="G33" t="str">
-        <f>IF(Sheet1!J33="","",VLOOKUP(Sheet1!J33,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J33="","",IF(Sheet1!J33 &lt; 300000, VLOOKUP(Sheet1!J33,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J33,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H33" t="str">
-        <f>IF(Sheet1!L33="","",VLOOKUP(Sheet1!L33,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L33="","",IF(Sheet1!L33 &lt; 300000, VLOOKUP(Sheet1!L33,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L33,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I33" t="str">
-        <f>IF(Sheet1!N33="","",VLOOKUP(Sheet1!N33,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N33="","",IF(Sheet1!N33 &lt; 300000, VLOOKUP(Sheet1!N33,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N33,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J33" t="str">
-        <f>IF(Sheet1!P33="","",VLOOKUP(Sheet1!P33,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P33="","",IF(Sheet1!P33 &lt; 300000, VLOOKUP(Sheet1!P33,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P33,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K33" t="str">
-        <f>IF(Sheet1!R33="","",VLOOKUP(Sheet1!R33,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R33="","",IF(Sheet1!R33 &lt; 300000, VLOOKUP(Sheet1!R33,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R33,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L33" t="str">
-        <f>IF(Sheet1!T33="","",VLOOKUP(Sheet1!T33,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T33="","",IF(Sheet1!T33 &lt; 300000, VLOOKUP(Sheet1!T33,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T33,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -9467,43 +9651,43 @@
         <v>猎鹰</v>
       </c>
       <c r="C34" t="str">
-        <f>IF(Sheet1!B34="","",VLOOKUP(Sheet1!B34,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B34="","",IF(Sheet1!B34 &lt; 300000, VLOOKUP(Sheet1!B34,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B34,[2]装备!$A$3:$B$248,2)))</f>
         <v>海魂</v>
       </c>
       <c r="D34" t="str">
-        <f>IF(Sheet1!D34="","",VLOOKUP(Sheet1!D34,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D34="","",IF(Sheet1!D34 &lt; 300000, VLOOKUP(Sheet1!D34,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D34,[2]装备!$A$3:$B$248,2)))</f>
         <v>中型盔甲(女)</v>
       </c>
       <c r="E34" t="str">
-        <f>IF(Sheet1!F34="","",VLOOKUP(Sheet1!F34,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F34="","",IF(Sheet1!F34 &lt; 300000, VLOOKUP(Sheet1!F34,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F34,[2]装备!$A$3:$B$248,2)))</f>
         <v>蓝色水晶戒指</v>
       </c>
       <c r="F34" t="str">
-        <f>IF(Sheet1!H34="","",VLOOKUP(Sheet1!H34,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H34="","",IF(Sheet1!H34 &lt; 300000, VLOOKUP(Sheet1!H34,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H34,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G34" t="str">
-        <f>IF(Sheet1!J34="","",VLOOKUP(Sheet1!J34,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J34="","",IF(Sheet1!J34 &lt; 300000, VLOOKUP(Sheet1!J34,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J34,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H34" t="str">
-        <f>IF(Sheet1!L34="","",VLOOKUP(Sheet1!L34,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L34="","",IF(Sheet1!L34 &lt; 300000, VLOOKUP(Sheet1!L34,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L34,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I34" t="str">
-        <f>IF(Sheet1!N34="","",VLOOKUP(Sheet1!N34,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N34="","",IF(Sheet1!N34 &lt; 300000, VLOOKUP(Sheet1!N34,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N34,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J34" t="str">
-        <f>IF(Sheet1!P34="","",VLOOKUP(Sheet1!P34,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P34="","",IF(Sheet1!P34 &lt; 300000, VLOOKUP(Sheet1!P34,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P34,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K34" t="str">
-        <f>IF(Sheet1!R34="","",VLOOKUP(Sheet1!R34,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R34="","",IF(Sheet1!R34 &lt; 300000, VLOOKUP(Sheet1!R34,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R34,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L34" t="str">
-        <f>IF(Sheet1!T34="","",VLOOKUP(Sheet1!T34,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T34="","",IF(Sheet1!T34 &lt; 300000, VLOOKUP(Sheet1!T34,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T34,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -9517,43 +9701,43 @@
         <v>多角虫</v>
       </c>
       <c r="C35" t="str">
-        <f>IF(Sheet1!B35="","",VLOOKUP(Sheet1!B35,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B35="","",IF(Sheet1!B35 &lt; 300000, VLOOKUP(Sheet1!B35,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B35,[2]装备!$A$3:$B$248,2)))</f>
         <v>八荒</v>
       </c>
       <c r="D35" t="str">
-        <f>IF(Sheet1!D35="","",VLOOKUP(Sheet1!D35,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D35="","",IF(Sheet1!D35 &lt; 300000, VLOOKUP(Sheet1!D35,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D35,[2]装备!$A$3:$B$248,2)))</f>
         <v>青铜头盔</v>
       </c>
       <c r="E35" t="str">
-        <f>IF(Sheet1!F35="","",VLOOKUP(Sheet1!F35,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F35="","",IF(Sheet1!F35 &lt; 300000, VLOOKUP(Sheet1!F35,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F35,[2]装备!$A$3:$B$248,2)))</f>
         <v>黑色水晶戒指</v>
       </c>
       <c r="F35" t="str">
-        <f>IF(Sheet1!H35="","",VLOOKUP(Sheet1!H35,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H35="","",IF(Sheet1!H35 &lt; 300000, VLOOKUP(Sheet1!H35,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H35,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G35" t="str">
-        <f>IF(Sheet1!J35="","",VLOOKUP(Sheet1!J35,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J35="","",IF(Sheet1!J35 &lt; 300000, VLOOKUP(Sheet1!J35,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J35,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H35" t="str">
-        <f>IF(Sheet1!L35="","",VLOOKUP(Sheet1!L35,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L35="","",IF(Sheet1!L35 &lt; 300000, VLOOKUP(Sheet1!L35,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L35,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I35" t="str">
-        <f>IF(Sheet1!N35="","",VLOOKUP(Sheet1!N35,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N35="","",IF(Sheet1!N35 &lt; 300000, VLOOKUP(Sheet1!N35,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N35,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J35" t="str">
-        <f>IF(Sheet1!P35="","",VLOOKUP(Sheet1!P35,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P35="","",IF(Sheet1!P35 &lt; 300000, VLOOKUP(Sheet1!P35,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P35,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K35" t="str">
-        <f>IF(Sheet1!R35="","",VLOOKUP(Sheet1!R35,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R35="","",IF(Sheet1!R35 &lt; 300000, VLOOKUP(Sheet1!R35,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R35,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L35" t="str">
-        <f>IF(Sheet1!T35="","",VLOOKUP(Sheet1!T35,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T35="","",IF(Sheet1!T35 &lt; 300000, VLOOKUP(Sheet1!T35,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T35,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -9567,43 +9751,43 @@
         <v>沙虫</v>
       </c>
       <c r="C36" t="str">
-        <f>IF(Sheet1!B36="","",VLOOKUP(Sheet1!B36,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B36="","",IF(Sheet1!B36 &lt; 300000, VLOOKUP(Sheet1!B36,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B36,[2]装备!$A$3:$B$248,2)))</f>
         <v>半月</v>
       </c>
       <c r="D36" t="str">
-        <f>IF(Sheet1!D36="","",VLOOKUP(Sheet1!D36,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D36="","",IF(Sheet1!D36 &lt; 300000, VLOOKUP(Sheet1!D36,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D36,[2]装备!$A$3:$B$248,2)))</f>
         <v>魔法头盔</v>
       </c>
       <c r="E36" t="str">
-        <f>IF(Sheet1!F36="","",VLOOKUP(Sheet1!F36,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F36="","",IF(Sheet1!F36 &lt; 300000, VLOOKUP(Sheet1!F36,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F36,[2]装备!$A$3:$B$248,2)))</f>
         <v>珍珠戒指</v>
       </c>
       <c r="F36" t="str">
-        <f>IF(Sheet1!H36="","",VLOOKUP(Sheet1!H36,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H36="","",IF(Sheet1!H36 &lt; 300000, VLOOKUP(Sheet1!H36,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H36,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G36" t="str">
-        <f>IF(Sheet1!J36="","",VLOOKUP(Sheet1!J36,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J36="","",IF(Sheet1!J36 &lt; 300000, VLOOKUP(Sheet1!J36,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J36,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H36" t="str">
-        <f>IF(Sheet1!L36="","",VLOOKUP(Sheet1!L36,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L36="","",IF(Sheet1!L36 &lt; 300000, VLOOKUP(Sheet1!L36,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L36,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I36" t="str">
-        <f>IF(Sheet1!N36="","",VLOOKUP(Sheet1!N36,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N36="","",IF(Sheet1!N36 &lt; 300000, VLOOKUP(Sheet1!N36,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N36,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J36" t="str">
-        <f>IF(Sheet1!P36="","",VLOOKUP(Sheet1!P36,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P36="","",IF(Sheet1!P36 &lt; 300000, VLOOKUP(Sheet1!P36,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P36,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K36" t="str">
-        <f>IF(Sheet1!R36="","",VLOOKUP(Sheet1!R36,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R36="","",IF(Sheet1!R36 &lt; 300000, VLOOKUP(Sheet1!R36,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R36,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L36" t="str">
-        <f>IF(Sheet1!T36="","",VLOOKUP(Sheet1!T36,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T36="","",IF(Sheet1!T36 &lt; 300000, VLOOKUP(Sheet1!T36,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T36,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -9617,43 +9801,43 @@
         <v>蜈蚣</v>
       </c>
       <c r="C37" t="str">
-        <f>IF(Sheet1!B37="","",VLOOKUP(Sheet1!B37,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B37="","",IF(Sheet1!B37 &lt; 300000, VLOOKUP(Sheet1!B37,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B37,[2]装备!$A$3:$B$248,2)))</f>
         <v>八荒</v>
       </c>
       <c r="D37" t="str">
-        <f>IF(Sheet1!D37="","",VLOOKUP(Sheet1!D37,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D37="","",IF(Sheet1!D37 &lt; 300000, VLOOKUP(Sheet1!D37,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D37,[2]装备!$A$3:$B$248,2)))</f>
         <v>重盔甲(男)</v>
       </c>
       <c r="E37" t="str">
-        <f>IF(Sheet1!F37="","",VLOOKUP(Sheet1!F37,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F37="","",IF(Sheet1!F37 &lt; 300000, VLOOKUP(Sheet1!F37,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F37,[2]装备!$A$3:$B$248,2)))</f>
         <v>重盔甲(女)</v>
       </c>
       <c r="F37" t="str">
-        <f>IF(Sheet1!H37="","",VLOOKUP(Sheet1!H37,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H37="","",IF(Sheet1!H37 &lt; 300000, VLOOKUP(Sheet1!H37,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H37,[2]装备!$A$3:$B$248,2)))</f>
         <v>坚固手套</v>
       </c>
       <c r="G37" t="str">
-        <f>IF(Sheet1!J37="","",VLOOKUP(Sheet1!J37,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J37="","",IF(Sheet1!J37 &lt; 300000, VLOOKUP(Sheet1!J37,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J37,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H37" t="str">
-        <f>IF(Sheet1!L37="","",VLOOKUP(Sheet1!L37,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L37="","",IF(Sheet1!L37 &lt; 300000, VLOOKUP(Sheet1!L37,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L37,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I37" t="str">
-        <f>IF(Sheet1!N37="","",VLOOKUP(Sheet1!N37,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N37="","",IF(Sheet1!N37 &lt; 300000, VLOOKUP(Sheet1!N37,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N37,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J37" t="str">
-        <f>IF(Sheet1!P37="","",VLOOKUP(Sheet1!P37,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P37="","",IF(Sheet1!P37 &lt; 300000, VLOOKUP(Sheet1!P37,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P37,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K37" t="str">
-        <f>IF(Sheet1!R37="","",VLOOKUP(Sheet1!R37,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R37="","",IF(Sheet1!R37 &lt; 300000, VLOOKUP(Sheet1!R37,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R37,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L37" t="str">
-        <f>IF(Sheet1!T37="","",VLOOKUP(Sheet1!T37,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T37="","",IF(Sheet1!T37 &lt; 300000, VLOOKUP(Sheet1!T37,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T37,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -9667,43 +9851,43 @@
         <v>巨型蠕虫</v>
       </c>
       <c r="C38" t="str">
-        <f>IF(Sheet1!B38="","",VLOOKUP(Sheet1!B38,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B38="","",IF(Sheet1!B38 &lt; 300000, VLOOKUP(Sheet1!B38,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B38,[2]装备!$A$3:$B$248,2)))</f>
         <v>半月</v>
       </c>
       <c r="D38" t="str">
-        <f>IF(Sheet1!D38="","",VLOOKUP(Sheet1!D38,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D38="","",IF(Sheet1!D38 &lt; 300000, VLOOKUP(Sheet1!D38,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D38,[2]装备!$A$3:$B$248,2)))</f>
         <v>魔法长袍(男)</v>
       </c>
       <c r="E38" t="str">
-        <f>IF(Sheet1!F38="","",VLOOKUP(Sheet1!F38,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F38="","",IF(Sheet1!F38 &lt; 300000, VLOOKUP(Sheet1!F38,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F38,[2]装备!$A$3:$B$248,2)))</f>
         <v>魔法长袍(女)</v>
       </c>
       <c r="F38" t="str">
-        <f>IF(Sheet1!H38="","",VLOOKUP(Sheet1!H38,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H38="","",IF(Sheet1!H38 &lt; 300000, VLOOKUP(Sheet1!H38,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H38,[2]装备!$A$3:$B$248,2)))</f>
         <v>死神手套</v>
       </c>
       <c r="G38" t="str">
-        <f>IF(Sheet1!J38="","",VLOOKUP(Sheet1!J38,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J38="","",IF(Sheet1!J38 &lt; 300000, VLOOKUP(Sheet1!J38,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J38,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H38" t="str">
-        <f>IF(Sheet1!L38="","",VLOOKUP(Sheet1!L38,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L38="","",IF(Sheet1!L38 &lt; 300000, VLOOKUP(Sheet1!L38,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L38,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I38" t="str">
-        <f>IF(Sheet1!N38="","",VLOOKUP(Sheet1!N38,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N38="","",IF(Sheet1!N38 &lt; 300000, VLOOKUP(Sheet1!N38,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N38,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J38" t="str">
-        <f>IF(Sheet1!P38="","",VLOOKUP(Sheet1!P38,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P38="","",IF(Sheet1!P38 &lt; 300000, VLOOKUP(Sheet1!P38,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P38,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K38" t="str">
-        <f>IF(Sheet1!R38="","",VLOOKUP(Sheet1!R38,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R38="","",IF(Sheet1!R38 &lt; 300000, VLOOKUP(Sheet1!R38,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R38,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L38" t="str">
-        <f>IF(Sheet1!T38="","",VLOOKUP(Sheet1!T38,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T38="","",IF(Sheet1!T38 &lt; 300000, VLOOKUP(Sheet1!T38,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T38,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -9717,43 +9901,43 @@
         <v>跳跳蜂</v>
       </c>
       <c r="C39" t="str">
-        <f>IF(Sheet1!B39="","",VLOOKUP(Sheet1!B39,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B39="","",IF(Sheet1!B39 &lt; 300000, VLOOKUP(Sheet1!B39,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B39,[2]装备!$A$3:$B$248,2)))</f>
         <v>偃月</v>
       </c>
       <c r="D39" t="str">
-        <f>IF(Sheet1!D39="","",VLOOKUP(Sheet1!D39,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D39="","",IF(Sheet1!D39 &lt; 300000, VLOOKUP(Sheet1!D39,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D39,[2]装备!$A$3:$B$248,2)))</f>
         <v>灵魂战衣(男)</v>
       </c>
       <c r="E39" t="str">
-        <f>IF(Sheet1!F39="","",VLOOKUP(Sheet1!F39,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F39="","",IF(Sheet1!F39 &lt; 300000, VLOOKUP(Sheet1!F39,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F39,[2]装备!$A$3:$B$248,2)))</f>
         <v>灵魂战衣(女)</v>
       </c>
       <c r="F39" t="str">
-        <f>IF(Sheet1!H39="","",VLOOKUP(Sheet1!H39,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H39="","",IF(Sheet1!H39 &lt; 300000, VLOOKUP(Sheet1!H39,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H39,[2]装备!$A$3:$B$248,2)))</f>
         <v>魔法手镯</v>
       </c>
       <c r="G39" t="str">
-        <f>IF(Sheet1!J39="","",VLOOKUP(Sheet1!J39,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J39="","",IF(Sheet1!J39 &lt; 300000, VLOOKUP(Sheet1!J39,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J39,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H39" t="str">
-        <f>IF(Sheet1!L39="","",VLOOKUP(Sheet1!L39,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L39="","",IF(Sheet1!L39 &lt; 300000, VLOOKUP(Sheet1!L39,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L39,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I39" t="str">
-        <f>IF(Sheet1!N39="","",VLOOKUP(Sheet1!N39,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N39="","",IF(Sheet1!N39 &lt; 300000, VLOOKUP(Sheet1!N39,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N39,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J39" t="str">
-        <f>IF(Sheet1!P39="","",VLOOKUP(Sheet1!P39,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P39="","",IF(Sheet1!P39 &lt; 300000, VLOOKUP(Sheet1!P39,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P39,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K39" t="str">
-        <f>IF(Sheet1!R39="","",VLOOKUP(Sheet1!R39,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R39="","",IF(Sheet1!R39 &lt; 300000, VLOOKUP(Sheet1!R39,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R39,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L39" t="str">
-        <f>IF(Sheet1!T39="","",VLOOKUP(Sheet1!T39,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T39="","",IF(Sheet1!T39 &lt; 300000, VLOOKUP(Sheet1!T39,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T39,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -9767,43 +9951,43 @@
         <v>黑色恶蛆</v>
       </c>
       <c r="C40" t="str">
-        <f>IF(Sheet1!B40="","",VLOOKUP(Sheet1!B40,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B40="","",IF(Sheet1!B40 &lt; 300000, VLOOKUP(Sheet1!B40,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B40,[2]装备!$A$3:$B$248,2)))</f>
         <v>凝霜</v>
       </c>
       <c r="D40" t="str">
-        <f>IF(Sheet1!D40="","",VLOOKUP(Sheet1!D40,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D40="","",IF(Sheet1!D40 &lt; 300000, VLOOKUP(Sheet1!D40,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D40,[2]装备!$A$3:$B$248,2)))</f>
         <v>狂风项链</v>
       </c>
       <c r="E40" t="str">
-        <f>IF(Sheet1!F40="","",VLOOKUP(Sheet1!F40,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F40="","",IF(Sheet1!F40 &lt; 300000, VLOOKUP(Sheet1!F40,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F40,[2]装备!$A$3:$B$248,2)))</f>
         <v>蓝翡翠项链</v>
       </c>
       <c r="F40" t="str">
-        <f>IF(Sheet1!H40="","",VLOOKUP(Sheet1!H40,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H40="","",IF(Sheet1!H40 &lt; 300000, VLOOKUP(Sheet1!H40,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H40,[2]装备!$A$3:$B$248,2)))</f>
         <v>放大镜</v>
       </c>
       <c r="G40" t="str">
-        <f>IF(Sheet1!J40="","",VLOOKUP(Sheet1!J40,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J40="","",IF(Sheet1!J40 &lt; 300000, VLOOKUP(Sheet1!J40,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J40,[2]装备!$A$3:$B$248,2)))</f>
         <v>竹笛</v>
       </c>
       <c r="H40" t="str">
-        <f>IF(Sheet1!L40="","",VLOOKUP(Sheet1!L40,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L40="","",IF(Sheet1!L40 &lt; 300000, VLOOKUP(Sheet1!L40,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L40,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I40" t="str">
-        <f>IF(Sheet1!N40="","",VLOOKUP(Sheet1!N40,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N40="","",IF(Sheet1!N40 &lt; 300000, VLOOKUP(Sheet1!N40,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N40,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J40" t="str">
-        <f>IF(Sheet1!P40="","",VLOOKUP(Sheet1!P40,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P40="","",IF(Sheet1!P40 &lt; 300000, VLOOKUP(Sheet1!P40,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P40,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K40" t="str">
-        <f>IF(Sheet1!R40="","",VLOOKUP(Sheet1!R40,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R40="","",IF(Sheet1!R40 &lt; 300000, VLOOKUP(Sheet1!R40,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R40,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L40" t="str">
-        <f>IF(Sheet1!T40="","",VLOOKUP(Sheet1!T40,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T40="","",IF(Sheet1!T40 &lt; 300000, VLOOKUP(Sheet1!T40,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T40,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -9817,43 +10001,43 @@
         <v>钳虫</v>
       </c>
       <c r="C41" t="str">
-        <f>IF(Sheet1!B41="","",VLOOKUP(Sheet1!B41,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B41="","",IF(Sheet1!B41 &lt; 300000, VLOOKUP(Sheet1!B41,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B41,[2]装备!$A$3:$B$248,2)))</f>
         <v>骷髅头盔</v>
       </c>
       <c r="D41" t="str">
-        <f>IF(Sheet1!D41="","",VLOOKUP(Sheet1!D41,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D41="","",IF(Sheet1!D41 &lt; 300000, VLOOKUP(Sheet1!D41,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D41,[2]装备!$A$3:$B$248,2)))</f>
         <v>道士头盔</v>
       </c>
       <c r="E41" t="str">
-        <f>IF(Sheet1!F41="","",VLOOKUP(Sheet1!F41,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F41="","",IF(Sheet1!F41 &lt; 300000, VLOOKUP(Sheet1!F41,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F41,[2]装备!$A$3:$B$248,2)))</f>
         <v>金手镯</v>
       </c>
       <c r="F41" t="str">
-        <f>IF(Sheet1!H41="","",VLOOKUP(Sheet1!H41,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H41="","",IF(Sheet1!H41 &lt; 300000, VLOOKUP(Sheet1!H41,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H41,[2]装备!$A$3:$B$248,2)))</f>
         <v>幽灵手套</v>
       </c>
       <c r="G41" t="str">
-        <f>IF(Sheet1!J41="","",VLOOKUP(Sheet1!J41,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J41="","",IF(Sheet1!J41 &lt; 300000, VLOOKUP(Sheet1!J41,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J41,[2]装备!$A$3:$B$248,2)))</f>
         <v>珊瑚戒指</v>
       </c>
       <c r="H41" t="str">
-        <f>IF(Sheet1!L41="","",VLOOKUP(Sheet1!L41,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L41="","",IF(Sheet1!L41 &lt; 300000, VLOOKUP(Sheet1!L41,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L41,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I41" t="str">
-        <f>IF(Sheet1!N41="","",VLOOKUP(Sheet1!N41,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N41="","",IF(Sheet1!N41 &lt; 300000, VLOOKUP(Sheet1!N41,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N41,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J41" t="str">
-        <f>IF(Sheet1!P41="","",VLOOKUP(Sheet1!P41,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P41="","",IF(Sheet1!P41 &lt; 300000, VLOOKUP(Sheet1!P41,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P41,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K41" t="str">
-        <f>IF(Sheet1!R41="","",VLOOKUP(Sheet1!R41,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R41="","",IF(Sheet1!R41 &lt; 300000, VLOOKUP(Sheet1!R41,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R41,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L41" t="str">
-        <f>IF(Sheet1!T41="","",VLOOKUP(Sheet1!T41,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T41="","",IF(Sheet1!T41 &lt; 300000, VLOOKUP(Sheet1!T41,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T41,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -9867,43 +10051,43 @@
         <v>红野猪</v>
       </c>
       <c r="C42" t="str">
-        <f>IF(Sheet1!B42="","",VLOOKUP(Sheet1!B42,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B42="","",IF(Sheet1!B42 &lt; 300000, VLOOKUP(Sheet1!B42,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B42,[2]装备!$A$3:$B$248,2)))</f>
         <v>八荒</v>
       </c>
       <c r="D42" t="str">
-        <f>IF(Sheet1!D42="","",VLOOKUP(Sheet1!D42,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D42="","",IF(Sheet1!D42 &lt; 300000, VLOOKUP(Sheet1!D42,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D42,[2]装备!$A$3:$B$248,2)))</f>
         <v>重盔甲(男)</v>
       </c>
       <c r="E42" t="str">
-        <f>IF(Sheet1!F42="","",VLOOKUP(Sheet1!F42,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F42="","",IF(Sheet1!F42 &lt; 300000, VLOOKUP(Sheet1!F42,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F42,[2]装备!$A$3:$B$248,2)))</f>
         <v>重盔甲(女)</v>
       </c>
       <c r="F42" t="str">
-        <f>IF(Sheet1!H42="","",VLOOKUP(Sheet1!H42,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H42="","",IF(Sheet1!H42 &lt; 300000, VLOOKUP(Sheet1!H42,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H42,[2]装备!$A$3:$B$248,2)))</f>
         <v>阎罗手套</v>
       </c>
       <c r="G42" t="str">
-        <f>IF(Sheet1!J42="","",VLOOKUP(Sheet1!J42,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J42="","",IF(Sheet1!J42 &lt; 300000, VLOOKUP(Sheet1!J42,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J42,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H42" t="str">
-        <f>IF(Sheet1!L42="","",VLOOKUP(Sheet1!L42,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L42="","",IF(Sheet1!L42 &lt; 300000, VLOOKUP(Sheet1!L42,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L42,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I42" t="str">
-        <f>IF(Sheet1!N42="","",VLOOKUP(Sheet1!N42,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N42="","",IF(Sheet1!N42 &lt; 300000, VLOOKUP(Sheet1!N42,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N42,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J42" t="str">
-        <f>IF(Sheet1!P42="","",VLOOKUP(Sheet1!P42,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P42="","",IF(Sheet1!P42 &lt; 300000, VLOOKUP(Sheet1!P42,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P42,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K42" t="str">
-        <f>IF(Sheet1!R42="","",VLOOKUP(Sheet1!R42,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R42="","",IF(Sheet1!R42 &lt; 300000, VLOOKUP(Sheet1!R42,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R42,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L42" t="str">
-        <f>IF(Sheet1!T42="","",VLOOKUP(Sheet1!T42,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T42="","",IF(Sheet1!T42 &lt; 300000, VLOOKUP(Sheet1!T42,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T42,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -9917,43 +10101,43 @@
         <v>黑野猪</v>
       </c>
       <c r="C43" t="str">
-        <f>IF(Sheet1!B43="","",VLOOKUP(Sheet1!B43,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B43="","",IF(Sheet1!B43 &lt; 300000, VLOOKUP(Sheet1!B43,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B43,[2]装备!$A$3:$B$248,2)))</f>
         <v>半月</v>
       </c>
       <c r="D43" t="str">
-        <f>IF(Sheet1!D43="","",VLOOKUP(Sheet1!D43,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D43="","",IF(Sheet1!D43 &lt; 300000, VLOOKUP(Sheet1!D43,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D43,[2]装备!$A$3:$B$248,2)))</f>
         <v>魔法长袍(男)</v>
       </c>
       <c r="E43" t="str">
-        <f>IF(Sheet1!F43="","",VLOOKUP(Sheet1!F43,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F43="","",IF(Sheet1!F43 &lt; 300000, VLOOKUP(Sheet1!F43,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F43,[2]装备!$A$3:$B$248,2)))</f>
         <v>魔法长袍(女)</v>
       </c>
       <c r="F43" t="str">
-        <f>IF(Sheet1!H43="","",VLOOKUP(Sheet1!H43,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H43="","",IF(Sheet1!H43 &lt; 300000, VLOOKUP(Sheet1!H43,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H43,[2]装备!$A$3:$B$248,2)))</f>
         <v>魔力手镯</v>
       </c>
       <c r="G43" t="str">
-        <f>IF(Sheet1!J43="","",VLOOKUP(Sheet1!J43,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J43="","",IF(Sheet1!J43 &lt; 300000, VLOOKUP(Sheet1!J43,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J43,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H43" t="str">
-        <f>IF(Sheet1!L43="","",VLOOKUP(Sheet1!L43,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L43="","",IF(Sheet1!L43 &lt; 300000, VLOOKUP(Sheet1!L43,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L43,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I43" t="str">
-        <f>IF(Sheet1!N43="","",VLOOKUP(Sheet1!N43,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N43="","",IF(Sheet1!N43 &lt; 300000, VLOOKUP(Sheet1!N43,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N43,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J43" t="str">
-        <f>IF(Sheet1!P43="","",VLOOKUP(Sheet1!P43,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P43="","",IF(Sheet1!P43 &lt; 300000, VLOOKUP(Sheet1!P43,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P43,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K43" t="str">
-        <f>IF(Sheet1!R43="","",VLOOKUP(Sheet1!R43,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R43="","",IF(Sheet1!R43 &lt; 300000, VLOOKUP(Sheet1!R43,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R43,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L43" t="str">
-        <f>IF(Sheet1!T43="","",VLOOKUP(Sheet1!T43,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T43="","",IF(Sheet1!T43 &lt; 300000, VLOOKUP(Sheet1!T43,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T43,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -9967,43 +10151,43 @@
         <v>蝎蛇</v>
       </c>
       <c r="C44" t="str">
-        <f>IF(Sheet1!B44="","",VLOOKUP(Sheet1!B44,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B44="","",IF(Sheet1!B44 &lt; 300000, VLOOKUP(Sheet1!B44,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B44,[2]装备!$A$3:$B$248,2)))</f>
         <v>偃月</v>
       </c>
       <c r="D44" t="str">
-        <f>IF(Sheet1!D44="","",VLOOKUP(Sheet1!D44,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D44="","",IF(Sheet1!D44 &lt; 300000, VLOOKUP(Sheet1!D44,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D44,[2]装备!$A$3:$B$248,2)))</f>
         <v>灵魂战衣(男)</v>
       </c>
       <c r="E44" t="str">
-        <f>IF(Sheet1!F44="","",VLOOKUP(Sheet1!F44,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F44="","",IF(Sheet1!F44 &lt; 300000, VLOOKUP(Sheet1!F44,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F44,[2]装备!$A$3:$B$248,2)))</f>
         <v>灵魂战衣(女)</v>
       </c>
       <c r="F44" t="str">
-        <f>IF(Sheet1!H44="","",VLOOKUP(Sheet1!H44,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H44="","",IF(Sheet1!H44 &lt; 300000, VLOOKUP(Sheet1!H44,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H44,[2]装备!$A$3:$B$248,2)))</f>
         <v>狂风戒指</v>
       </c>
       <c r="G44" t="str">
-        <f>IF(Sheet1!J44="","",VLOOKUP(Sheet1!J44,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J44="","",IF(Sheet1!J44 &lt; 300000, VLOOKUP(Sheet1!J44,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J44,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H44" t="str">
-        <f>IF(Sheet1!L44="","",VLOOKUP(Sheet1!L44,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L44="","",IF(Sheet1!L44 &lt; 300000, VLOOKUP(Sheet1!L44,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L44,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I44" t="str">
-        <f>IF(Sheet1!N44="","",VLOOKUP(Sheet1!N44,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N44="","",IF(Sheet1!N44 &lt; 300000, VLOOKUP(Sheet1!N44,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N44,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J44" t="str">
-        <f>IF(Sheet1!P44="","",VLOOKUP(Sheet1!P44,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P44="","",IF(Sheet1!P44 &lt; 300000, VLOOKUP(Sheet1!P44,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P44,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K44" t="str">
-        <f>IF(Sheet1!R44="","",VLOOKUP(Sheet1!R44,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R44="","",IF(Sheet1!R44 &lt; 300000, VLOOKUP(Sheet1!R44,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R44,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L44" t="str">
-        <f>IF(Sheet1!T44="","",VLOOKUP(Sheet1!T44,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T44="","",IF(Sheet1!T44 &lt; 300000, VLOOKUP(Sheet1!T44,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T44,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -10017,43 +10201,43 @@
         <v>角蝇</v>
       </c>
       <c r="C45" t="str">
-        <f>IF(Sheet1!B45="","",VLOOKUP(Sheet1!B45,[2]装备!$A$3:$B$248,2))</f>
-        <v/>
+        <f>IF(Sheet1!B45="","",IF(Sheet1!B45 &lt; 300000, VLOOKUP(Sheet1!B45,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B45,[2]装备!$A$3:$B$248,2)))</f>
+        <v>小堆铜币</v>
       </c>
       <c r="D45" t="str">
-        <f>IF(Sheet1!D45="","",VLOOKUP(Sheet1!D45,[2]装备!$A$3:$B$248,2))</f>
-        <v/>
+        <f>IF(Sheet1!D45="","",IF(Sheet1!D45 &lt; 300000, VLOOKUP(Sheet1!D45,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D45,[2]装备!$A$3:$B$248,2)))</f>
+        <v>大堆铜币</v>
       </c>
       <c r="E45" t="str">
-        <f>IF(Sheet1!F45="","",VLOOKUP(Sheet1!F45,[2]装备!$A$3:$B$248,2))</f>
-        <v/>
+        <f>IF(Sheet1!F45="","",IF(Sheet1!F45 &lt; 300000, VLOOKUP(Sheet1!F45,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F45,[2]装备!$A$3:$B$248,2)))</f>
+        <v>零星银币</v>
       </c>
       <c r="F45" t="str">
-        <f>IF(Sheet1!H45="","",VLOOKUP(Sheet1!H45,[2]装备!$A$3:$B$248,2))</f>
-        <v/>
+        <f>IF(Sheet1!H45="","",IF(Sheet1!H45 &lt; 300000, VLOOKUP(Sheet1!H45,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H45,[2]装备!$A$3:$B$248,2)))</f>
+        <v>小堆银币</v>
       </c>
       <c r="G45" t="str">
-        <f>IF(Sheet1!J45="","",VLOOKUP(Sheet1!J45,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J45="","",IF(Sheet1!J45 &lt; 300000, VLOOKUP(Sheet1!J45,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J45,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H45" t="str">
-        <f>IF(Sheet1!L45="","",VLOOKUP(Sheet1!L45,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L45="","",IF(Sheet1!L45 &lt; 300000, VLOOKUP(Sheet1!L45,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L45,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I45" t="str">
-        <f>IF(Sheet1!N45="","",VLOOKUP(Sheet1!N45,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N45="","",IF(Sheet1!N45 &lt; 300000, VLOOKUP(Sheet1!N45,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N45,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J45" t="str">
-        <f>IF(Sheet1!P45="","",VLOOKUP(Sheet1!P45,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P45="","",IF(Sheet1!P45 &lt; 300000, VLOOKUP(Sheet1!P45,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P45,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K45" t="str">
-        <f>IF(Sheet1!R45="","",VLOOKUP(Sheet1!R45,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R45="","",IF(Sheet1!R45 &lt; 300000, VLOOKUP(Sheet1!R45,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R45,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L45" t="str">
-        <f>IF(Sheet1!T45="","",VLOOKUP(Sheet1!T45,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T45="","",IF(Sheet1!T45 &lt; 300000, VLOOKUP(Sheet1!T45,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T45,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -10067,43 +10251,43 @@
         <v>楔蛾</v>
       </c>
       <c r="C46" t="str">
-        <f>IF(Sheet1!B46="","",VLOOKUP(Sheet1!B46,[2]装备!$A$3:$B$248,2))</f>
-        <v/>
+        <f>IF(Sheet1!B46="","",IF(Sheet1!B46 &lt; 300000, VLOOKUP(Sheet1!B46,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B46,[2]装备!$A$3:$B$248,2)))</f>
+        <v>小堆铜币</v>
       </c>
       <c r="D46" t="str">
-        <f>IF(Sheet1!D46="","",VLOOKUP(Sheet1!D46,[2]装备!$A$3:$B$248,2))</f>
-        <v/>
+        <f>IF(Sheet1!D46="","",IF(Sheet1!D46 &lt; 300000, VLOOKUP(Sheet1!D46,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D46,[2]装备!$A$3:$B$248,2)))</f>
+        <v>大堆铜币</v>
       </c>
       <c r="E46" t="str">
-        <f>IF(Sheet1!F46="","",VLOOKUP(Sheet1!F46,[2]装备!$A$3:$B$248,2))</f>
-        <v/>
+        <f>IF(Sheet1!F46="","",IF(Sheet1!F46 &lt; 300000, VLOOKUP(Sheet1!F46,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F46,[2]装备!$A$3:$B$248,2)))</f>
+        <v>零星银币</v>
       </c>
       <c r="F46" t="str">
-        <f>IF(Sheet1!H46="","",VLOOKUP(Sheet1!H46,[2]装备!$A$3:$B$248,2))</f>
-        <v/>
+        <f>IF(Sheet1!H46="","",IF(Sheet1!H46 &lt; 300000, VLOOKUP(Sheet1!H46,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H46,[2]装备!$A$3:$B$248,2)))</f>
+        <v>小堆银币</v>
       </c>
       <c r="G46" t="str">
-        <f>IF(Sheet1!J46="","",VLOOKUP(Sheet1!J46,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J46="","",IF(Sheet1!J46 &lt; 300000, VLOOKUP(Sheet1!J46,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J46,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H46" t="str">
-        <f>IF(Sheet1!L46="","",VLOOKUP(Sheet1!L46,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L46="","",IF(Sheet1!L46 &lt; 300000, VLOOKUP(Sheet1!L46,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L46,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I46" t="str">
-        <f>IF(Sheet1!N46="","",VLOOKUP(Sheet1!N46,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N46="","",IF(Sheet1!N46 &lt; 300000, VLOOKUP(Sheet1!N46,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N46,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J46" t="str">
-        <f>IF(Sheet1!P46="","",VLOOKUP(Sheet1!P46,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P46="","",IF(Sheet1!P46 &lt; 300000, VLOOKUP(Sheet1!P46,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P46,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K46" t="str">
-        <f>IF(Sheet1!R46="","",VLOOKUP(Sheet1!R46,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R46="","",IF(Sheet1!R46 &lt; 300000, VLOOKUP(Sheet1!R46,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R46,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L46" t="str">
-        <f>IF(Sheet1!T46="","",VLOOKUP(Sheet1!T46,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T46="","",IF(Sheet1!T46 &lt; 300000, VLOOKUP(Sheet1!T46,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T46,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -10117,43 +10301,43 @@
         <v>大老鼠</v>
       </c>
       <c r="C47" t="str">
-        <f>IF(Sheet1!B47="","",VLOOKUP(Sheet1!B47,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B47="","",IF(Sheet1!B47 &lt; 300000, VLOOKUP(Sheet1!B47,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B47,[2]装备!$A$3:$B$248,2)))</f>
         <v>降魔</v>
       </c>
       <c r="D47" t="str">
-        <f>IF(Sheet1!D47="","",VLOOKUP(Sheet1!D47,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D47="","",IF(Sheet1!D47 &lt; 300000, VLOOKUP(Sheet1!D47,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D47,[2]装备!$A$3:$B$248,2)))</f>
         <v>骷髅头盔</v>
       </c>
       <c r="E47" t="str">
-        <f>IF(Sheet1!F47="","",VLOOKUP(Sheet1!F47,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F47="","",IF(Sheet1!F47 &lt; 300000, VLOOKUP(Sheet1!F47,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F47,[2]装备!$A$3:$B$248,2)))</f>
         <v>道士头盔</v>
       </c>
       <c r="F47" t="str">
-        <f>IF(Sheet1!H47="","",VLOOKUP(Sheet1!H47,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H47="","",IF(Sheet1!H47 &lt; 300000, VLOOKUP(Sheet1!H47,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H47,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G47" t="str">
-        <f>IF(Sheet1!J47="","",VLOOKUP(Sheet1!J47,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J47="","",IF(Sheet1!J47 &lt; 300000, VLOOKUP(Sheet1!J47,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J47,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H47" t="str">
-        <f>IF(Sheet1!L47="","",VLOOKUP(Sheet1!L47,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L47="","",IF(Sheet1!L47 &lt; 300000, VLOOKUP(Sheet1!L47,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L47,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I47" t="str">
-        <f>IF(Sheet1!N47="","",VLOOKUP(Sheet1!N47,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N47="","",IF(Sheet1!N47 &lt; 300000, VLOOKUP(Sheet1!N47,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N47,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J47" t="str">
-        <f>IF(Sheet1!P47="","",VLOOKUP(Sheet1!P47,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P47="","",IF(Sheet1!P47 &lt; 300000, VLOOKUP(Sheet1!P47,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P47,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K47" t="str">
-        <f>IF(Sheet1!R47="","",VLOOKUP(Sheet1!R47,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R47="","",IF(Sheet1!R47 &lt; 300000, VLOOKUP(Sheet1!R47,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R47,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L47" t="str">
-        <f>IF(Sheet1!T47="","",VLOOKUP(Sheet1!T47,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T47="","",IF(Sheet1!T47 &lt; 300000, VLOOKUP(Sheet1!T47,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T47,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -10167,43 +10351,43 @@
         <v>祖玛弓箭手</v>
       </c>
       <c r="C48" t="str">
-        <f>IF(Sheet1!B48="","",VLOOKUP(Sheet1!B48,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B48="","",IF(Sheet1!B48 &lt; 300000, VLOOKUP(Sheet1!B48,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B48,[2]装备!$A$3:$B$248,2)))</f>
         <v>偃月</v>
       </c>
       <c r="D48" t="str">
-        <f>IF(Sheet1!D48="","",VLOOKUP(Sheet1!D48,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D48="","",IF(Sheet1!D48 &lt; 300000, VLOOKUP(Sheet1!D48,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D48,[2]装备!$A$3:$B$248,2)))</f>
         <v>战神盔甲(男)</v>
       </c>
       <c r="E48" t="str">
-        <f>IF(Sheet1!F48="","",VLOOKUP(Sheet1!F48,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F48="","",IF(Sheet1!F48 &lt; 300000, VLOOKUP(Sheet1!F48,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F48,[2]装备!$A$3:$B$248,2)))</f>
         <v>战神盔甲(女)</v>
       </c>
       <c r="F48" t="str">
-        <f>IF(Sheet1!H48="","",VLOOKUP(Sheet1!H48,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H48="","",IF(Sheet1!H48 &lt; 300000, VLOOKUP(Sheet1!H48,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H48,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G48" t="str">
-        <f>IF(Sheet1!J48="","",VLOOKUP(Sheet1!J48,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J48="","",IF(Sheet1!J48 &lt; 300000, VLOOKUP(Sheet1!J48,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J48,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H48" t="str">
-        <f>IF(Sheet1!L48="","",VLOOKUP(Sheet1!L48,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L48="","",IF(Sheet1!L48 &lt; 300000, VLOOKUP(Sheet1!L48,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L48,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I48" t="str">
-        <f>IF(Sheet1!N48="","",VLOOKUP(Sheet1!N48,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N48="","",IF(Sheet1!N48 &lt; 300000, VLOOKUP(Sheet1!N48,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N48,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J48" t="str">
-        <f>IF(Sheet1!P48="","",VLOOKUP(Sheet1!P48,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P48="","",IF(Sheet1!P48 &lt; 300000, VLOOKUP(Sheet1!P48,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P48,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K48" t="str">
-        <f>IF(Sheet1!R48="","",VLOOKUP(Sheet1!R48,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R48="","",IF(Sheet1!R48 &lt; 300000, VLOOKUP(Sheet1!R48,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R48,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L48" t="str">
-        <f>IF(Sheet1!T48="","",VLOOKUP(Sheet1!T48,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T48="","",IF(Sheet1!T48 &lt; 300000, VLOOKUP(Sheet1!T48,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T48,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -10217,43 +10401,43 @@
         <v>祖玛弓箭手3</v>
       </c>
       <c r="C49" t="str">
-        <f>IF(Sheet1!B49="","",VLOOKUP(Sheet1!B49,[2]装备!$A$3:$B$248,2))</f>
-        <v>裁决之杖</v>
+        <f>IF(Sheet1!B49="","",IF(Sheet1!B49 &lt; 300000, VLOOKUP(Sheet1!B49,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B49,[2]装备!$A$3:$B$248,2)))</f>
+        <v>蓝翡翠项链</v>
       </c>
       <c r="D49" t="str">
-        <f>IF(Sheet1!D49="","",VLOOKUP(Sheet1!D49,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D49="","",IF(Sheet1!D49 &lt; 300000, VLOOKUP(Sheet1!D49,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D49,[2]装备!$A$3:$B$248,2)))</f>
         <v>恶魔铃铛</v>
       </c>
       <c r="E49" t="str">
-        <f>IF(Sheet1!F49="","",VLOOKUP(Sheet1!F49,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F49="","",IF(Sheet1!F49 &lt; 300000, VLOOKUP(Sheet1!F49,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F49,[2]装备!$A$3:$B$248,2)))</f>
+        <v>黑檀手镯</v>
+      </c>
+      <c r="F49" t="str">
+        <f>IF(Sheet1!H49="","",IF(Sheet1!H49 &lt; 300000, VLOOKUP(Sheet1!H49,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H49,[2]装备!$A$3:$B$248,2)))</f>
         <v>三眼手镯</v>
       </c>
-      <c r="F49" t="str">
-        <f>IF(Sheet1!H49="","",VLOOKUP(Sheet1!H49,[2]装备!$A$3:$B$248,2))</f>
+      <c r="G49" t="str">
+        <f>IF(Sheet1!J49="","",IF(Sheet1!J49 &lt; 300000, VLOOKUP(Sheet1!J49,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J49,[2]装备!$A$3:$B$248,2)))</f>
+        <v>道德戒指</v>
+      </c>
+      <c r="H49" t="str">
+        <f>IF(Sheet1!L49="","",IF(Sheet1!L49 &lt; 300000, VLOOKUP(Sheet1!L49,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L49,[2]装备!$A$3:$B$248,2)))</f>
         <v>力量戒指</v>
       </c>
-      <c r="G49" t="str">
-        <f>IF(Sheet1!J49="","",VLOOKUP(Sheet1!J49,[2]装备!$A$3:$B$248,2))</f>
-        <v/>
-      </c>
-      <c r="H49" t="str">
-        <f>IF(Sheet1!L49="","",VLOOKUP(Sheet1!L49,[2]装备!$A$3:$B$248,2))</f>
-        <v/>
-      </c>
       <c r="I49" t="str">
-        <f>IF(Sheet1!N49="","",VLOOKUP(Sheet1!N49,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N49="","",IF(Sheet1!N49 &lt; 300000, VLOOKUP(Sheet1!N49,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N49,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J49" t="str">
-        <f>IF(Sheet1!P49="","",VLOOKUP(Sheet1!P49,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P49="","",IF(Sheet1!P49 &lt; 300000, VLOOKUP(Sheet1!P49,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P49,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K49" t="str">
-        <f>IF(Sheet1!R49="","",VLOOKUP(Sheet1!R49,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R49="","",IF(Sheet1!R49 &lt; 300000, VLOOKUP(Sheet1!R49,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R49,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L49" t="str">
-        <f>IF(Sheet1!T49="","",VLOOKUP(Sheet1!T49,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T49="","",IF(Sheet1!T49 &lt; 300000, VLOOKUP(Sheet1!T49,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T49,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -10267,43 +10451,43 @@
         <v>祖玛雕像</v>
       </c>
       <c r="C50" t="str">
-        <f>IF(Sheet1!B50="","",VLOOKUP(Sheet1!B50,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B50="","",IF(Sheet1!B50 &lt; 300000, VLOOKUP(Sheet1!B50,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B50,[2]装备!$A$3:$B$248,2)))</f>
         <v>凝霜</v>
       </c>
       <c r="D50" t="str">
-        <f>IF(Sheet1!D50="","",VLOOKUP(Sheet1!D50,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D50="","",IF(Sheet1!D50 &lt; 300000, VLOOKUP(Sheet1!D50,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D50,[2]装备!$A$3:$B$248,2)))</f>
         <v>幽灵战衣(男)</v>
       </c>
       <c r="E50" t="str">
-        <f>IF(Sheet1!F50="","",VLOOKUP(Sheet1!F50,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F50="","",IF(Sheet1!F50 &lt; 300000, VLOOKUP(Sheet1!F50,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F50,[2]装备!$A$3:$B$248,2)))</f>
         <v>幽灵战衣(女)</v>
       </c>
       <c r="F50" t="str">
-        <f>IF(Sheet1!H50="","",VLOOKUP(Sheet1!H50,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H50="","",IF(Sheet1!H50 &lt; 300000, VLOOKUP(Sheet1!H50,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H50,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G50" t="str">
-        <f>IF(Sheet1!J50="","",VLOOKUP(Sheet1!J50,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J50="","",IF(Sheet1!J50 &lt; 300000, VLOOKUP(Sheet1!J50,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J50,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H50" t="str">
-        <f>IF(Sheet1!L50="","",VLOOKUP(Sheet1!L50,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L50="","",IF(Sheet1!L50 &lt; 300000, VLOOKUP(Sheet1!L50,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L50,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I50" t="str">
-        <f>IF(Sheet1!N50="","",VLOOKUP(Sheet1!N50,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N50="","",IF(Sheet1!N50 &lt; 300000, VLOOKUP(Sheet1!N50,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N50,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J50" t="str">
-        <f>IF(Sheet1!P50="","",VLOOKUP(Sheet1!P50,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P50="","",IF(Sheet1!P50 &lt; 300000, VLOOKUP(Sheet1!P50,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P50,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K50" t="str">
-        <f>IF(Sheet1!R50="","",VLOOKUP(Sheet1!R50,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R50="","",IF(Sheet1!R50 &lt; 300000, VLOOKUP(Sheet1!R50,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R50,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L50" t="str">
-        <f>IF(Sheet1!T50="","",VLOOKUP(Sheet1!T50,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T50="","",IF(Sheet1!T50 &lt; 300000, VLOOKUP(Sheet1!T50,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T50,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -10317,43 +10501,43 @@
         <v>祖玛雕像3</v>
       </c>
       <c r="C51" t="str">
-        <f>IF(Sheet1!B51="","",VLOOKUP(Sheet1!B51,[2]装备!$A$3:$B$248,2))</f>
-        <v>骨玉权杖</v>
+        <f>IF(Sheet1!B51="","",IF(Sheet1!B51 &lt; 300000, VLOOKUP(Sheet1!B51,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B51,[2]装备!$A$3:$B$248,2)))</f>
+        <v>放大镜</v>
       </c>
       <c r="D51" t="str">
-        <f>IF(Sheet1!D51="","",VLOOKUP(Sheet1!D51,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D51="","",IF(Sheet1!D51 &lt; 300000, VLOOKUP(Sheet1!D51,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D51,[2]装备!$A$3:$B$248,2)))</f>
         <v>灵魂项链</v>
       </c>
       <c r="E51" t="str">
-        <f>IF(Sheet1!F51="","",VLOOKUP(Sheet1!F51,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F51="","",IF(Sheet1!F51 &lt; 300000, VLOOKUP(Sheet1!F51,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F51,[2]装备!$A$3:$B$248,2)))</f>
+        <v>道士手镯</v>
+      </c>
+      <c r="F51" t="str">
+        <f>IF(Sheet1!H51="","",IF(Sheet1!H51 &lt; 300000, VLOOKUP(Sheet1!H51,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H51,[2]装备!$A$3:$B$248,2)))</f>
         <v>骑士手镯</v>
       </c>
-      <c r="F51" t="str">
-        <f>IF(Sheet1!H51="","",VLOOKUP(Sheet1!H51,[2]装备!$A$3:$B$248,2))</f>
+      <c r="G51" t="str">
+        <f>IF(Sheet1!J51="","",IF(Sheet1!J51 &lt; 300000, VLOOKUP(Sheet1!J51,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J51,[2]装备!$A$3:$B$248,2)))</f>
+        <v>珊瑚戒指</v>
+      </c>
+      <c r="H51" t="str">
+        <f>IF(Sheet1!L51="","",IF(Sheet1!L51 &lt; 300000, VLOOKUP(Sheet1!L51,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L51,[2]装备!$A$3:$B$248,2)))</f>
         <v>紫碧螺</v>
       </c>
-      <c r="G51" t="str">
-        <f>IF(Sheet1!J51="","",VLOOKUP(Sheet1!J51,[2]装备!$A$3:$B$248,2))</f>
-        <v/>
-      </c>
-      <c r="H51" t="str">
-        <f>IF(Sheet1!L51="","",VLOOKUP(Sheet1!L51,[2]装备!$A$3:$B$248,2))</f>
-        <v/>
-      </c>
       <c r="I51" t="str">
-        <f>IF(Sheet1!N51="","",VLOOKUP(Sheet1!N51,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N51="","",IF(Sheet1!N51 &lt; 300000, VLOOKUP(Sheet1!N51,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N51,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J51" t="str">
-        <f>IF(Sheet1!P51="","",VLOOKUP(Sheet1!P51,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P51="","",IF(Sheet1!P51 &lt; 300000, VLOOKUP(Sheet1!P51,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P51,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K51" t="str">
-        <f>IF(Sheet1!R51="","",VLOOKUP(Sheet1!R51,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R51="","",IF(Sheet1!R51 &lt; 300000, VLOOKUP(Sheet1!R51,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R51,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L51" t="str">
-        <f>IF(Sheet1!T51="","",VLOOKUP(Sheet1!T51,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T51="","",IF(Sheet1!T51 &lt; 300000, VLOOKUP(Sheet1!T51,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T51,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -10367,43 +10551,43 @@
         <v>祖玛卫士</v>
       </c>
       <c r="C52" t="str">
-        <f>IF(Sheet1!B52="","",VLOOKUP(Sheet1!B52,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B52="","",IF(Sheet1!B52 &lt; 300000, VLOOKUP(Sheet1!B52,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B52,[2]装备!$A$3:$B$248,2)))</f>
         <v>井中月</v>
       </c>
       <c r="D52" t="str">
-        <f>IF(Sheet1!D52="","",VLOOKUP(Sheet1!D52,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D52="","",IF(Sheet1!D52 &lt; 300000, VLOOKUP(Sheet1!D52,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D52,[2]装备!$A$3:$B$248,2)))</f>
         <v>恶魔长袍(男)</v>
       </c>
       <c r="E52" t="str">
-        <f>IF(Sheet1!F52="","",VLOOKUP(Sheet1!F52,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F52="","",IF(Sheet1!F52 &lt; 300000, VLOOKUP(Sheet1!F52,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F52,[2]装备!$A$3:$B$248,2)))</f>
         <v>恶魔长袍(女)</v>
       </c>
       <c r="F52" t="str">
-        <f>IF(Sheet1!H52="","",VLOOKUP(Sheet1!H52,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H52="","",IF(Sheet1!H52 &lt; 300000, VLOOKUP(Sheet1!H52,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H52,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G52" t="str">
-        <f>IF(Sheet1!J52="","",VLOOKUP(Sheet1!J52,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J52="","",IF(Sheet1!J52 &lt; 300000, VLOOKUP(Sheet1!J52,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J52,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H52" t="str">
-        <f>IF(Sheet1!L52="","",VLOOKUP(Sheet1!L52,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L52="","",IF(Sheet1!L52 &lt; 300000, VLOOKUP(Sheet1!L52,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L52,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I52" t="str">
-        <f>IF(Sheet1!N52="","",VLOOKUP(Sheet1!N52,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N52="","",IF(Sheet1!N52 &lt; 300000, VLOOKUP(Sheet1!N52,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N52,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J52" t="str">
-        <f>IF(Sheet1!P52="","",VLOOKUP(Sheet1!P52,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P52="","",IF(Sheet1!P52 &lt; 300000, VLOOKUP(Sheet1!P52,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P52,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K52" t="str">
-        <f>IF(Sheet1!R52="","",VLOOKUP(Sheet1!R52,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R52="","",IF(Sheet1!R52 &lt; 300000, VLOOKUP(Sheet1!R52,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R52,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L52" t="str">
-        <f>IF(Sheet1!T52="","",VLOOKUP(Sheet1!T52,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T52="","",IF(Sheet1!T52 &lt; 300000, VLOOKUP(Sheet1!T52,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T52,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -10417,43 +10601,43 @@
         <v>祖玛卫士3</v>
       </c>
       <c r="C53" t="str">
-        <f>IF(Sheet1!B53="","",VLOOKUP(Sheet1!B53,[2]装备!$A$3:$B$248,2))</f>
-        <v>龙纹剑</v>
+        <f>IF(Sheet1!B53="","",IF(Sheet1!B53 &lt; 300000, VLOOKUP(Sheet1!B53,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B53,[2]装备!$A$3:$B$248,2)))</f>
+        <v>竹笛</v>
       </c>
       <c r="D53" t="str">
-        <f>IF(Sheet1!D53="","",VLOOKUP(Sheet1!D53,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D53="","",IF(Sheet1!D53 &lt; 300000, VLOOKUP(Sheet1!D53,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D53,[2]装备!$A$3:$B$248,2)))</f>
         <v>绿色项链</v>
       </c>
       <c r="E53" t="str">
-        <f>IF(Sheet1!F53="","",VLOOKUP(Sheet1!F53,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F53="","",IF(Sheet1!F53 &lt; 300000, VLOOKUP(Sheet1!F53,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F53,[2]装备!$A$3:$B$248,2)))</f>
+        <v>死神手套</v>
+      </c>
+      <c r="F53" t="str">
+        <f>IF(Sheet1!H53="","",IF(Sheet1!H53 &lt; 300000, VLOOKUP(Sheet1!H53,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H53,[2]装备!$A$3:$B$248,2)))</f>
         <v>龙之手镯</v>
       </c>
-      <c r="F53" t="str">
-        <f>IF(Sheet1!H53="","",VLOOKUP(Sheet1!H53,[2]装备!$A$3:$B$248,2))</f>
+      <c r="G53" t="str">
+        <f>IF(Sheet1!J53="","",IF(Sheet1!J53 &lt; 300000, VLOOKUP(Sheet1!J53,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J53,[2]装备!$A$3:$B$248,2)))</f>
+        <v>魅力戒指</v>
+      </c>
+      <c r="H53" t="str">
+        <f>IF(Sheet1!L53="","",IF(Sheet1!L53 &lt; 300000, VLOOKUP(Sheet1!L53,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L53,[2]装备!$A$3:$B$248,2)))</f>
         <v>泰坦戒指</v>
       </c>
-      <c r="G53" t="str">
-        <f>IF(Sheet1!J53="","",VLOOKUP(Sheet1!J53,[2]装备!$A$3:$B$248,2))</f>
-        <v/>
-      </c>
-      <c r="H53" t="str">
-        <f>IF(Sheet1!L53="","",VLOOKUP(Sheet1!L53,[2]装备!$A$3:$B$248,2))</f>
-        <v/>
-      </c>
       <c r="I53" t="str">
-        <f>IF(Sheet1!N53="","",VLOOKUP(Sheet1!N53,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N53="","",IF(Sheet1!N53 &lt; 300000, VLOOKUP(Sheet1!N53,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N53,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J53" t="str">
-        <f>IF(Sheet1!P53="","",VLOOKUP(Sheet1!P53,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P53="","",IF(Sheet1!P53 &lt; 300000, VLOOKUP(Sheet1!P53,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P53,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K53" t="str">
-        <f>IF(Sheet1!R53="","",VLOOKUP(Sheet1!R53,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R53="","",IF(Sheet1!R53 &lt; 300000, VLOOKUP(Sheet1!R53,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R53,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L53" t="str">
-        <f>IF(Sheet1!T53="","",VLOOKUP(Sheet1!T53,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T53="","",IF(Sheet1!T53 &lt; 300000, VLOOKUP(Sheet1!T53,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T53,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -10467,43 +10651,43 @@
         <v>月魔蜘蛛</v>
       </c>
       <c r="C54" t="str">
-        <f>IF(Sheet1!B54="","",VLOOKUP(Sheet1!B54,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B54="","",IF(Sheet1!B54 &lt; 300000, VLOOKUP(Sheet1!B54,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B54,[2]装备!$A$3:$B$248,2)))</f>
         <v>修罗</v>
       </c>
       <c r="D54" t="str">
-        <f>IF(Sheet1!D54="","",VLOOKUP(Sheet1!D54,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D54="","",IF(Sheet1!D54 &lt; 300000, VLOOKUP(Sheet1!D54,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D54,[2]装备!$A$3:$B$248,2)))</f>
         <v>战神盔甲(男)</v>
       </c>
       <c r="E54" t="str">
-        <f>IF(Sheet1!F54="","",VLOOKUP(Sheet1!F54,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F54="","",IF(Sheet1!F54 &lt; 300000, VLOOKUP(Sheet1!F54,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F54,[2]装备!$A$3:$B$248,2)))</f>
         <v>白色虎齿项链</v>
       </c>
       <c r="F54" t="str">
-        <f>IF(Sheet1!H54="","",VLOOKUP(Sheet1!H54,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H54="","",IF(Sheet1!H54 &lt; 300000, VLOOKUP(Sheet1!H54,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H54,[2]装备!$A$3:$B$248,2)))</f>
         <v>死神手套</v>
       </c>
       <c r="G54" t="str">
-        <f>IF(Sheet1!J54="","",VLOOKUP(Sheet1!J54,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J54="","",IF(Sheet1!J54 &lt; 300000, VLOOKUP(Sheet1!J54,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J54,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H54" t="str">
-        <f>IF(Sheet1!L54="","",VLOOKUP(Sheet1!L54,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L54="","",IF(Sheet1!L54 &lt; 300000, VLOOKUP(Sheet1!L54,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L54,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I54" t="str">
-        <f>IF(Sheet1!N54="","",VLOOKUP(Sheet1!N54,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N54="","",IF(Sheet1!N54 &lt; 300000, VLOOKUP(Sheet1!N54,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N54,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J54" t="str">
-        <f>IF(Sheet1!P54="","",VLOOKUP(Sheet1!P54,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P54="","",IF(Sheet1!P54 &lt; 300000, VLOOKUP(Sheet1!P54,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P54,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K54" t="str">
-        <f>IF(Sheet1!R54="","",VLOOKUP(Sheet1!R54,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R54="","",IF(Sheet1!R54 &lt; 300000, VLOOKUP(Sheet1!R54,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R54,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L54" t="str">
-        <f>IF(Sheet1!T54="","",VLOOKUP(Sheet1!T54,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T54="","",IF(Sheet1!T54 &lt; 300000, VLOOKUP(Sheet1!T54,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T54,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -10517,43 +10701,43 @@
         <v>暴牙蜘蛛</v>
       </c>
       <c r="C55" t="str">
-        <f>IF(Sheet1!B55="","",VLOOKUP(Sheet1!B55,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B55="","",IF(Sheet1!B55 &lt; 300000, VLOOKUP(Sheet1!B55,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B55,[2]装备!$A$3:$B$248,2)))</f>
         <v>偃月</v>
       </c>
       <c r="D55" t="str">
-        <f>IF(Sheet1!D55="","",VLOOKUP(Sheet1!D55,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D55="","",IF(Sheet1!D55 &lt; 300000, VLOOKUP(Sheet1!D55,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D55,[2]装备!$A$3:$B$248,2)))</f>
         <v>战神盔甲(女)</v>
       </c>
       <c r="E55" t="str">
-        <f>IF(Sheet1!F55="","",VLOOKUP(Sheet1!F55,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F55="","",IF(Sheet1!F55 &lt; 300000, VLOOKUP(Sheet1!F55,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F55,[2]装备!$A$3:$B$248,2)))</f>
         <v>蓝翡翠项链</v>
       </c>
       <c r="F55" t="str">
-        <f>IF(Sheet1!H55="","",VLOOKUP(Sheet1!H55,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H55="","",IF(Sheet1!H55 &lt; 300000, VLOOKUP(Sheet1!H55,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H55,[2]装备!$A$3:$B$248,2)))</f>
         <v>金手镯</v>
       </c>
       <c r="G55" t="str">
-        <f>IF(Sheet1!J55="","",VLOOKUP(Sheet1!J55,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J55="","",IF(Sheet1!J55 &lt; 300000, VLOOKUP(Sheet1!J55,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J55,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H55" t="str">
-        <f>IF(Sheet1!L55="","",VLOOKUP(Sheet1!L55,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L55="","",IF(Sheet1!L55 &lt; 300000, VLOOKUP(Sheet1!L55,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L55,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I55" t="str">
-        <f>IF(Sheet1!N55="","",VLOOKUP(Sheet1!N55,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N55="","",IF(Sheet1!N55 &lt; 300000, VLOOKUP(Sheet1!N55,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N55,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J55" t="str">
-        <f>IF(Sheet1!P55="","",VLOOKUP(Sheet1!P55,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P55="","",IF(Sheet1!P55 &lt; 300000, VLOOKUP(Sheet1!P55,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P55,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K55" t="str">
-        <f>IF(Sheet1!R55="","",VLOOKUP(Sheet1!R55,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R55="","",IF(Sheet1!R55 &lt; 300000, VLOOKUP(Sheet1!R55,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R55,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L55" t="str">
-        <f>IF(Sheet1!T55="","",VLOOKUP(Sheet1!T55,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T55="","",IF(Sheet1!T55 &lt; 300000, VLOOKUP(Sheet1!T55,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T55,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -10567,43 +10751,43 @@
         <v>钢牙蜘蛛</v>
       </c>
       <c r="C56" t="str">
-        <f>IF(Sheet1!B56="","",VLOOKUP(Sheet1!B56,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B56="","",IF(Sheet1!B56 &lt; 300000, VLOOKUP(Sheet1!B56,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B56,[2]装备!$A$3:$B$248,2)))</f>
         <v>斩马刀</v>
       </c>
       <c r="D56" t="str">
-        <f>IF(Sheet1!D56="","",VLOOKUP(Sheet1!D56,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D56="","",IF(Sheet1!D56 &lt; 300000, VLOOKUP(Sheet1!D56,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D56,[2]装备!$A$3:$B$248,2)))</f>
         <v>幽灵战衣(男)</v>
       </c>
       <c r="E56" t="str">
-        <f>IF(Sheet1!F56="","",VLOOKUP(Sheet1!F56,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F56="","",IF(Sheet1!F56 &lt; 300000, VLOOKUP(Sheet1!F56,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F56,[2]装备!$A$3:$B$248,2)))</f>
         <v>放大镜</v>
       </c>
       <c r="F56" t="str">
-        <f>IF(Sheet1!H56="","",VLOOKUP(Sheet1!H56,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H56="","",IF(Sheet1!H56 &lt; 300000, VLOOKUP(Sheet1!H56,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H56,[2]装备!$A$3:$B$248,2)))</f>
         <v>道士手镯</v>
       </c>
       <c r="G56" t="str">
-        <f>IF(Sheet1!J56="","",VLOOKUP(Sheet1!J56,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J56="","",IF(Sheet1!J56 &lt; 300000, VLOOKUP(Sheet1!J56,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J56,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H56" t="str">
-        <f>IF(Sheet1!L56="","",VLOOKUP(Sheet1!L56,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L56="","",IF(Sheet1!L56 &lt; 300000, VLOOKUP(Sheet1!L56,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L56,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I56" t="str">
-        <f>IF(Sheet1!N56="","",VLOOKUP(Sheet1!N56,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N56="","",IF(Sheet1!N56 &lt; 300000, VLOOKUP(Sheet1!N56,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N56,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J56" t="str">
-        <f>IF(Sheet1!P56="","",VLOOKUP(Sheet1!P56,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P56="","",IF(Sheet1!P56 &lt; 300000, VLOOKUP(Sheet1!P56,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P56,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K56" t="str">
-        <f>IF(Sheet1!R56="","",VLOOKUP(Sheet1!R56,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R56="","",IF(Sheet1!R56 &lt; 300000, VLOOKUP(Sheet1!R56,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R56,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L56" t="str">
-        <f>IF(Sheet1!T56="","",VLOOKUP(Sheet1!T56,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T56="","",IF(Sheet1!T56 &lt; 300000, VLOOKUP(Sheet1!T56,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T56,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -10617,43 +10801,43 @@
         <v>天狼蜘蛛</v>
       </c>
       <c r="C57" t="str">
-        <f>IF(Sheet1!B57="","",VLOOKUP(Sheet1!B57,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B57="","",IF(Sheet1!B57 &lt; 300000, VLOOKUP(Sheet1!B57,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B57,[2]装备!$A$3:$B$248,2)))</f>
         <v>半月</v>
       </c>
       <c r="D57" t="str">
-        <f>IF(Sheet1!D57="","",VLOOKUP(Sheet1!D57,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D57="","",IF(Sheet1!D57 &lt; 300000, VLOOKUP(Sheet1!D57,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D57,[2]装备!$A$3:$B$248,2)))</f>
         <v>幽灵战衣(女)</v>
       </c>
       <c r="E57" t="str">
-        <f>IF(Sheet1!F57="","",VLOOKUP(Sheet1!F57,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F57="","",IF(Sheet1!F57 &lt; 300000, VLOOKUP(Sheet1!F57,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F57,[2]装备!$A$3:$B$248,2)))</f>
         <v>竹笛</v>
       </c>
       <c r="F57" t="str">
-        <f>IF(Sheet1!H57="","",VLOOKUP(Sheet1!H57,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H57="","",IF(Sheet1!H57 &lt; 300000, VLOOKUP(Sheet1!H57,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H57,[2]装备!$A$3:$B$248,2)))</f>
         <v>黑檀手镯</v>
       </c>
       <c r="G57" t="str">
-        <f>IF(Sheet1!J57="","",VLOOKUP(Sheet1!J57,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J57="","",IF(Sheet1!J57 &lt; 300000, VLOOKUP(Sheet1!J57,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J57,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H57" t="str">
-        <f>IF(Sheet1!L57="","",VLOOKUP(Sheet1!L57,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L57="","",IF(Sheet1!L57 &lt; 300000, VLOOKUP(Sheet1!L57,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L57,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I57" t="str">
-        <f>IF(Sheet1!N57="","",VLOOKUP(Sheet1!N57,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N57="","",IF(Sheet1!N57 &lt; 300000, VLOOKUP(Sheet1!N57,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N57,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J57" t="str">
-        <f>IF(Sheet1!P57="","",VLOOKUP(Sheet1!P57,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P57="","",IF(Sheet1!P57 &lt; 300000, VLOOKUP(Sheet1!P57,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P57,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K57" t="str">
-        <f>IF(Sheet1!R57="","",VLOOKUP(Sheet1!R57,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R57="","",IF(Sheet1!R57 &lt; 300000, VLOOKUP(Sheet1!R57,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R57,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L57" t="str">
-        <f>IF(Sheet1!T57="","",VLOOKUP(Sheet1!T57,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T57="","",IF(Sheet1!T57 &lt; 300000, VLOOKUP(Sheet1!T57,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T57,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -10667,43 +10851,43 @@
         <v>黑锷蜘蛛</v>
       </c>
       <c r="C58" t="str">
-        <f>IF(Sheet1!B58="","",VLOOKUP(Sheet1!B58,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B58="","",IF(Sheet1!B58 &lt; 300000, VLOOKUP(Sheet1!B58,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B58,[2]装备!$A$3:$B$248,2)))</f>
         <v>骷髅头盔</v>
       </c>
       <c r="D58" t="str">
-        <f>IF(Sheet1!D58="","",VLOOKUP(Sheet1!D58,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D58="","",IF(Sheet1!D58 &lt; 300000, VLOOKUP(Sheet1!D58,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D58,[2]装备!$A$3:$B$248,2)))</f>
         <v>恶魔长袍(男)</v>
       </c>
       <c r="E58" t="str">
-        <f>IF(Sheet1!F58="","",VLOOKUP(Sheet1!F58,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F58="","",IF(Sheet1!F58 &lt; 300000, VLOOKUP(Sheet1!F58,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F58,[2]装备!$A$3:$B$248,2)))</f>
         <v>狂风项链</v>
       </c>
       <c r="F58" t="str">
-        <f>IF(Sheet1!H58="","",VLOOKUP(Sheet1!H58,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H58="","",IF(Sheet1!H58 &lt; 300000, VLOOKUP(Sheet1!H58,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H58,[2]装备!$A$3:$B$248,2)))</f>
         <v>幽灵手套</v>
       </c>
       <c r="G58" t="str">
-        <f>IF(Sheet1!J58="","",VLOOKUP(Sheet1!J58,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J58="","",IF(Sheet1!J58 &lt; 300000, VLOOKUP(Sheet1!J58,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J58,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H58" t="str">
-        <f>IF(Sheet1!L58="","",VLOOKUP(Sheet1!L58,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L58="","",IF(Sheet1!L58 &lt; 300000, VLOOKUP(Sheet1!L58,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L58,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I58" t="str">
-        <f>IF(Sheet1!N58="","",VLOOKUP(Sheet1!N58,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N58="","",IF(Sheet1!N58 &lt; 300000, VLOOKUP(Sheet1!N58,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N58,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J58" t="str">
-        <f>IF(Sheet1!P58="","",VLOOKUP(Sheet1!P58,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P58="","",IF(Sheet1!P58 &lt; 300000, VLOOKUP(Sheet1!P58,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P58,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K58" t="str">
-        <f>IF(Sheet1!R58="","",VLOOKUP(Sheet1!R58,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R58="","",IF(Sheet1!R58 &lt; 300000, VLOOKUP(Sheet1!R58,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R58,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L58" t="str">
-        <f>IF(Sheet1!T58="","",VLOOKUP(Sheet1!T58,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T58="","",IF(Sheet1!T58 &lt; 300000, VLOOKUP(Sheet1!T58,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T58,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -10717,43 +10901,43 @@
         <v>幻影蜘蛛</v>
       </c>
       <c r="C59" t="str">
-        <f>IF(Sheet1!B59="","",VLOOKUP(Sheet1!B59,[2]装备!$A$3:$B$248,2))</f>
-        <v/>
+        <f>IF(Sheet1!B59="","",IF(Sheet1!B59 &lt; 300000, VLOOKUP(Sheet1!B59,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B59,[2]装备!$A$3:$B$248,2)))</f>
+        <v>大堆铜币</v>
       </c>
       <c r="D59" t="str">
-        <f>IF(Sheet1!D59="","",VLOOKUP(Sheet1!D59,[2]装备!$A$3:$B$248,2))</f>
-        <v/>
+        <f>IF(Sheet1!D59="","",IF(Sheet1!D59 &lt; 300000, VLOOKUP(Sheet1!D59,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D59,[2]装备!$A$3:$B$248,2)))</f>
+        <v>零星银币</v>
       </c>
       <c r="E59" t="str">
-        <f>IF(Sheet1!F59="","",VLOOKUP(Sheet1!F59,[2]装备!$A$3:$B$248,2))</f>
-        <v/>
+        <f>IF(Sheet1!F59="","",IF(Sheet1!F59 &lt; 300000, VLOOKUP(Sheet1!F59,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F59,[2]装备!$A$3:$B$248,2)))</f>
+        <v>小堆银币</v>
       </c>
       <c r="F59" t="str">
-        <f>IF(Sheet1!H59="","",VLOOKUP(Sheet1!H59,[2]装备!$A$3:$B$248,2))</f>
-        <v/>
+        <f>IF(Sheet1!H59="","",IF(Sheet1!H59 &lt; 300000, VLOOKUP(Sheet1!H59,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H59,[2]装备!$A$3:$B$248,2)))</f>
+        <v>大堆银币</v>
       </c>
       <c r="G59" t="str">
-        <f>IF(Sheet1!J59="","",VLOOKUP(Sheet1!J59,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J59="","",IF(Sheet1!J59 &lt; 300000, VLOOKUP(Sheet1!J59,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J59,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H59" t="str">
-        <f>IF(Sheet1!L59="","",VLOOKUP(Sheet1!L59,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L59="","",IF(Sheet1!L59 &lt; 300000, VLOOKUP(Sheet1!L59,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L59,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I59" t="str">
-        <f>IF(Sheet1!N59="","",VLOOKUP(Sheet1!N59,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N59="","",IF(Sheet1!N59 &lt; 300000, VLOOKUP(Sheet1!N59,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N59,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J59" t="str">
-        <f>IF(Sheet1!P59="","",VLOOKUP(Sheet1!P59,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P59="","",IF(Sheet1!P59 &lt; 300000, VLOOKUP(Sheet1!P59,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P59,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K59" t="str">
-        <f>IF(Sheet1!R59="","",VLOOKUP(Sheet1!R59,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R59="","",IF(Sheet1!R59 &lt; 300000, VLOOKUP(Sheet1!R59,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R59,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L59" t="str">
-        <f>IF(Sheet1!T59="","",VLOOKUP(Sheet1!T59,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T59="","",IF(Sheet1!T59 &lt; 300000, VLOOKUP(Sheet1!T59,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T59,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -10767,43 +10951,43 @@
         <v>花吻蜘蛛</v>
       </c>
       <c r="C60" t="str">
-        <f>IF(Sheet1!B60="","",VLOOKUP(Sheet1!B60,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B60="","",IF(Sheet1!B60 &lt; 300000, VLOOKUP(Sheet1!B60,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B60,[2]装备!$A$3:$B$248,2)))</f>
         <v>骷髅头盔</v>
       </c>
       <c r="D60" t="str">
-        <f>IF(Sheet1!D60="","",VLOOKUP(Sheet1!D60,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D60="","",IF(Sheet1!D60 &lt; 300000, VLOOKUP(Sheet1!D60,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D60,[2]装备!$A$3:$B$248,2)))</f>
         <v>恶魔长袍(女)</v>
       </c>
       <c r="E60" t="str">
-        <f>IF(Sheet1!F60="","",VLOOKUP(Sheet1!F60,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F60="","",IF(Sheet1!F60 &lt; 300000, VLOOKUP(Sheet1!F60,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F60,[2]装备!$A$3:$B$248,2)))</f>
         <v>骷髅戒指</v>
       </c>
       <c r="F60" t="str">
-        <f>IF(Sheet1!H60="","",VLOOKUP(Sheet1!H60,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H60="","",IF(Sheet1!H60 &lt; 300000, VLOOKUP(Sheet1!H60,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H60,[2]装备!$A$3:$B$248,2)))</f>
         <v>魅力戒指</v>
       </c>
       <c r="G60" t="str">
-        <f>IF(Sheet1!J60="","",VLOOKUP(Sheet1!J60,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J60="","",IF(Sheet1!J60 &lt; 300000, VLOOKUP(Sheet1!J60,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J60,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H60" t="str">
-        <f>IF(Sheet1!L60="","",VLOOKUP(Sheet1!L60,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L60="","",IF(Sheet1!L60 &lt; 300000, VLOOKUP(Sheet1!L60,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L60,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I60" t="str">
-        <f>IF(Sheet1!N60="","",VLOOKUP(Sheet1!N60,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N60="","",IF(Sheet1!N60 &lt; 300000, VLOOKUP(Sheet1!N60,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N60,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J60" t="str">
-        <f>IF(Sheet1!P60="","",VLOOKUP(Sheet1!P60,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P60="","",IF(Sheet1!P60 &lt; 300000, VLOOKUP(Sheet1!P60,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P60,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K60" t="str">
-        <f>IF(Sheet1!R60="","",VLOOKUP(Sheet1!R60,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R60="","",IF(Sheet1!R60 &lt; 300000, VLOOKUP(Sheet1!R60,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R60,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L60" t="str">
-        <f>IF(Sheet1!T60="","",VLOOKUP(Sheet1!T60,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T60="","",IF(Sheet1!T60 &lt; 300000, VLOOKUP(Sheet1!T60,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T60,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -10817,43 +11001,43 @@
         <v>邪恶巨人</v>
       </c>
       <c r="C61" t="str">
-        <f>IF(Sheet1!B61="","",VLOOKUP(Sheet1!B61,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B61="","",IF(Sheet1!B61 &lt; 300000, VLOOKUP(Sheet1!B61,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B61,[2]装备!$A$3:$B$248,2)))</f>
         <v>道士头盔</v>
       </c>
       <c r="D61" t="str">
-        <f>IF(Sheet1!D61="","",VLOOKUP(Sheet1!D61,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D61="","",IF(Sheet1!D61 &lt; 300000, VLOOKUP(Sheet1!D61,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D61,[2]装备!$A$3:$B$248,2)))</f>
         <v>死神手套</v>
       </c>
       <c r="E61" t="str">
-        <f>IF(Sheet1!F61="","",VLOOKUP(Sheet1!F61,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F61="","",IF(Sheet1!F61 &lt; 300000, VLOOKUP(Sheet1!F61,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F61,[2]装备!$A$3:$B$248,2)))</f>
         <v>思贝儿手镯</v>
       </c>
       <c r="F61" t="str">
-        <f>IF(Sheet1!H61="","",VLOOKUP(Sheet1!H61,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H61="","",IF(Sheet1!H61 &lt; 300000, VLOOKUP(Sheet1!H61,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H61,[2]装备!$A$3:$B$248,2)))</f>
         <v>道德戒指</v>
       </c>
       <c r="G61" t="str">
-        <f>IF(Sheet1!J61="","",VLOOKUP(Sheet1!J61,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J61="","",IF(Sheet1!J61 &lt; 300000, VLOOKUP(Sheet1!J61,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J61,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H61" t="str">
-        <f>IF(Sheet1!L61="","",VLOOKUP(Sheet1!L61,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L61="","",IF(Sheet1!L61 &lt; 300000, VLOOKUP(Sheet1!L61,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L61,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I61" t="str">
-        <f>IF(Sheet1!N61="","",VLOOKUP(Sheet1!N61,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N61="","",IF(Sheet1!N61 &lt; 300000, VLOOKUP(Sheet1!N61,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N61,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J61" t="str">
-        <f>IF(Sheet1!P61="","",VLOOKUP(Sheet1!P61,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P61="","",IF(Sheet1!P61 &lt; 300000, VLOOKUP(Sheet1!P61,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P61,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K61" t="str">
-        <f>IF(Sheet1!R61="","",VLOOKUP(Sheet1!R61,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R61="","",IF(Sheet1!R61 &lt; 300000, VLOOKUP(Sheet1!R61,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R61,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L61" t="str">
-        <f>IF(Sheet1!T61="","",VLOOKUP(Sheet1!T61,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T61="","",IF(Sheet1!T61 &lt; 300000, VLOOKUP(Sheet1!T61,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T61,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -10867,43 +11051,43 @@
         <v>血僵尸</v>
       </c>
       <c r="C62" t="str">
-        <f>IF(Sheet1!B62="","",VLOOKUP(Sheet1!B62,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B62="","",IF(Sheet1!B62 &lt; 300000, VLOOKUP(Sheet1!B62,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B62,[2]装备!$A$3:$B$248,2)))</f>
         <v>记忆头盔</v>
       </c>
       <c r="D62" t="str">
-        <f>IF(Sheet1!D62="","",VLOOKUP(Sheet1!D62,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D62="","",IF(Sheet1!D62 &lt; 300000, VLOOKUP(Sheet1!D62,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D62,[2]装备!$A$3:$B$248,2)))</f>
         <v>阎罗手套</v>
       </c>
       <c r="E62" t="str">
-        <f>IF(Sheet1!F62="","",VLOOKUP(Sheet1!F62,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F62="","",IF(Sheet1!F62 &lt; 300000, VLOOKUP(Sheet1!F62,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F62,[2]装备!$A$3:$B$248,2)))</f>
         <v>心灵手镯</v>
       </c>
       <c r="F62" t="str">
-        <f>IF(Sheet1!H62="","",VLOOKUP(Sheet1!H62,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H62="","",IF(Sheet1!H62 &lt; 300000, VLOOKUP(Sheet1!H62,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H62,[2]装备!$A$3:$B$248,2)))</f>
         <v>珊瑚戒指</v>
       </c>
       <c r="G62" t="str">
-        <f>IF(Sheet1!J62="","",VLOOKUP(Sheet1!J62,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J62="","",IF(Sheet1!J62 &lt; 300000, VLOOKUP(Sheet1!J62,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J62,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H62" t="str">
-        <f>IF(Sheet1!L62="","",VLOOKUP(Sheet1!L62,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L62="","",IF(Sheet1!L62 &lt; 300000, VLOOKUP(Sheet1!L62,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L62,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I62" t="str">
-        <f>IF(Sheet1!N62="","",VLOOKUP(Sheet1!N62,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N62="","",IF(Sheet1!N62 &lt; 300000, VLOOKUP(Sheet1!N62,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N62,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J62" t="str">
-        <f>IF(Sheet1!P62="","",VLOOKUP(Sheet1!P62,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P62="","",IF(Sheet1!P62 &lt; 300000, VLOOKUP(Sheet1!P62,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P62,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K62" t="str">
-        <f>IF(Sheet1!R62="","",VLOOKUP(Sheet1!R62,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R62="","",IF(Sheet1!R62 &lt; 300000, VLOOKUP(Sheet1!R62,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R62,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L62" t="str">
-        <f>IF(Sheet1!T62="","",VLOOKUP(Sheet1!T62,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T62="","",IF(Sheet1!T62 &lt; 300000, VLOOKUP(Sheet1!T62,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T62,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -10917,43 +11101,43 @@
         <v>恶灵僵尸</v>
       </c>
       <c r="C63" t="str">
-        <f>IF(Sheet1!B63="","",VLOOKUP(Sheet1!B63,[2]道具!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B63="","",IF(Sheet1!B63 &lt; 300000, VLOOKUP(Sheet1!B63,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B63,[2]装备!$A$3:$B$248,2)))</f>
         <v>刺杀剑术</v>
       </c>
       <c r="D63" t="str">
-        <f>IF(Sheet1!D63="","",VLOOKUP(Sheet1!D63,[2]道具!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D63="","",IF(Sheet1!D63 &lt; 300000, VLOOKUP(Sheet1!D63,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D63,[2]装备!$A$3:$B$248,2)))</f>
         <v>召唤骷髅</v>
       </c>
       <c r="E63" t="str">
-        <f>IF(Sheet1!F63="","",VLOOKUP(Sheet1!F63,[2]道具!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F63="","",IF(Sheet1!F63 &lt; 300000, VLOOKUP(Sheet1!F63,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F63,[2]装备!$A$3:$B$248,2)))</f>
         <v>火墙</v>
       </c>
       <c r="F63" t="str">
-        <f>IF(Sheet1!H63="","",VLOOKUP(Sheet1!H63,[2]道具!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H63="","",IF(Sheet1!H63 &lt; 300000, VLOOKUP(Sheet1!H63,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H63,[2]装备!$A$3:$B$248,2)))</f>
         <v>爆裂火焰</v>
       </c>
       <c r="G63" t="str">
-        <f>IF(Sheet1!J63="","",VLOOKUP(Sheet1!J63,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J63="","",IF(Sheet1!J63 &lt; 300000, VLOOKUP(Sheet1!J63,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J63,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H63" t="str">
-        <f>IF(Sheet1!L63="","",VLOOKUP(Sheet1!L63,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L63="","",IF(Sheet1!L63 &lt; 300000, VLOOKUP(Sheet1!L63,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L63,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I63" t="str">
-        <f>IF(Sheet1!N63="","",VLOOKUP(Sheet1!N63,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N63="","",IF(Sheet1!N63 &lt; 300000, VLOOKUP(Sheet1!N63,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N63,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J63" t="str">
-        <f>IF(Sheet1!P63="","",VLOOKUP(Sheet1!P63,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P63="","",IF(Sheet1!P63 &lt; 300000, VLOOKUP(Sheet1!P63,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P63,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K63" t="str">
-        <f>IF(Sheet1!R63="","",VLOOKUP(Sheet1!R63,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R63="","",IF(Sheet1!R63 &lt; 300000, VLOOKUP(Sheet1!R63,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R63,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L63" t="str">
-        <f>IF(Sheet1!T63="","",VLOOKUP(Sheet1!T63,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T63="","",IF(Sheet1!T63 &lt; 300000, VLOOKUP(Sheet1!T63,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T63,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -10967,43 +11151,43 @@
         <v>恶灵尸王</v>
       </c>
       <c r="C64" t="str">
-        <f>IF(Sheet1!B64="","",VLOOKUP(Sheet1!B64,[2]道具!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B64="","",IF(Sheet1!B64 &lt; 300000, VLOOKUP(Sheet1!B64,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B64,[2]装备!$A$3:$B$248,2)))</f>
         <v>地狱雷光</v>
       </c>
       <c r="D64" t="str">
-        <f>IF(Sheet1!D64="","",VLOOKUP(Sheet1!D64,[2]道具!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D64="","",IF(Sheet1!D64 &lt; 300000, VLOOKUP(Sheet1!D64,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D64,[2]装备!$A$3:$B$248,2)))</f>
         <v>半月弯刀</v>
       </c>
       <c r="E64" t="str">
-        <f>IF(Sheet1!F64="","",VLOOKUP(Sheet1!F64,[2]道具!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F64="","",IF(Sheet1!F64 &lt; 300000, VLOOKUP(Sheet1!F64,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F64,[2]装备!$A$3:$B$248,2)))</f>
         <v>烈火剑法</v>
       </c>
       <c r="F64" t="str">
-        <f>IF(Sheet1!H64="","",VLOOKUP(Sheet1!H64,[2]道具!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H64="","",IF(Sheet1!H64 &lt; 300000, VLOOKUP(Sheet1!H64,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H64,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G64" t="str">
-        <f>IF(Sheet1!J64="","",VLOOKUP(Sheet1!J64,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J64="","",IF(Sheet1!J64 &lt; 300000, VLOOKUP(Sheet1!J64,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J64,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H64" t="str">
-        <f>IF(Sheet1!L64="","",VLOOKUP(Sheet1!L64,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L64="","",IF(Sheet1!L64 &lt; 300000, VLOOKUP(Sheet1!L64,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L64,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I64" t="str">
-        <f>IF(Sheet1!N64="","",VLOOKUP(Sheet1!N64,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N64="","",IF(Sheet1!N64 &lt; 300000, VLOOKUP(Sheet1!N64,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N64,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J64" t="str">
-        <f>IF(Sheet1!P64="","",VLOOKUP(Sheet1!P64,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P64="","",IF(Sheet1!P64 &lt; 300000, VLOOKUP(Sheet1!P64,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P64,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K64" t="str">
-        <f>IF(Sheet1!R64="","",VLOOKUP(Sheet1!R64,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R64="","",IF(Sheet1!R64 &lt; 300000, VLOOKUP(Sheet1!R64,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R64,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L64" t="str">
-        <f>IF(Sheet1!T64="","",VLOOKUP(Sheet1!T64,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T64="","",IF(Sheet1!T64 &lt; 300000, VLOOKUP(Sheet1!T64,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T64,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -11017,43 +11201,43 @@
         <v>骷髅长枪兵</v>
       </c>
       <c r="C65" t="str">
-        <f>IF(Sheet1!B65="","",VLOOKUP(Sheet1!B65,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B65="","",IF(Sheet1!B65 &lt; 300000, VLOOKUP(Sheet1!B65,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B65,[2]装备!$A$3:$B$248,2)))</f>
         <v>骷髅头盔</v>
       </c>
       <c r="D65" t="str">
-        <f>IF(Sheet1!D65="","",VLOOKUP(Sheet1!D65,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D65="","",IF(Sheet1!D65 &lt; 300000, VLOOKUP(Sheet1!D65,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D65,[2]装备!$A$3:$B$248,2)))</f>
         <v>坚固手套</v>
       </c>
       <c r="E65" t="str">
-        <f>IF(Sheet1!F65="","",VLOOKUP(Sheet1!F65,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F65="","",IF(Sheet1!F65 &lt; 300000, VLOOKUP(Sheet1!F65,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F65,[2]装备!$A$3:$B$248,2)))</f>
         <v>白色虎齿项链</v>
       </c>
       <c r="F65" t="str">
-        <f>IF(Sheet1!H65="","",VLOOKUP(Sheet1!H65,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H65="","",IF(Sheet1!H65 &lt; 300000, VLOOKUP(Sheet1!H65,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H65,[2]装备!$A$3:$B$248,2)))</f>
         <v>魅力戒指</v>
       </c>
       <c r="G65" t="str">
-        <f>IF(Sheet1!J65="","",VLOOKUP(Sheet1!J65,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J65="","",IF(Sheet1!J65 &lt; 300000, VLOOKUP(Sheet1!J65,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J65,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H65" t="str">
-        <f>IF(Sheet1!L65="","",VLOOKUP(Sheet1!L65,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L65="","",IF(Sheet1!L65 &lt; 300000, VLOOKUP(Sheet1!L65,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L65,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I65" t="str">
-        <f>IF(Sheet1!N65="","",VLOOKUP(Sheet1!N65,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N65="","",IF(Sheet1!N65 &lt; 300000, VLOOKUP(Sheet1!N65,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N65,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J65" t="str">
-        <f>IF(Sheet1!P65="","",VLOOKUP(Sheet1!P65,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P65="","",IF(Sheet1!P65 &lt; 300000, VLOOKUP(Sheet1!P65,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P65,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K65" t="str">
-        <f>IF(Sheet1!R65="","",VLOOKUP(Sheet1!R65,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R65="","",IF(Sheet1!R65 &lt; 300000, VLOOKUP(Sheet1!R65,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R65,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L65" t="str">
-        <f>IF(Sheet1!T65="","",VLOOKUP(Sheet1!T65,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T65="","",IF(Sheet1!T65 &lt; 300000, VLOOKUP(Sheet1!T65,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T65,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -11067,43 +11251,43 @@
         <v>骷髅锤兵</v>
       </c>
       <c r="C66" t="str">
-        <f>IF(Sheet1!B66="","",VLOOKUP(Sheet1!B66,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B66="","",IF(Sheet1!B66 &lt; 300000, VLOOKUP(Sheet1!B66,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B66,[2]装备!$A$3:$B$248,2)))</f>
         <v>骷髅头盔</v>
       </c>
       <c r="D66" t="str">
-        <f>IF(Sheet1!D66="","",VLOOKUP(Sheet1!D66,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D66="","",IF(Sheet1!D66 &lt; 300000, VLOOKUP(Sheet1!D66,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D66,[2]装备!$A$3:$B$248,2)))</f>
         <v>死神手套</v>
       </c>
       <c r="E66" t="str">
-        <f>IF(Sheet1!F66="","",VLOOKUP(Sheet1!F66,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F66="","",IF(Sheet1!F66 &lt; 300000, VLOOKUP(Sheet1!F66,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F66,[2]装备!$A$3:$B$248,2)))</f>
         <v>蓝翡翠项链</v>
       </c>
       <c r="F66" t="str">
-        <f>IF(Sheet1!H66="","",VLOOKUP(Sheet1!H66,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H66="","",IF(Sheet1!H66 &lt; 300000, VLOOKUP(Sheet1!H66,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H66,[2]装备!$A$3:$B$248,2)))</f>
         <v>道德戒指</v>
       </c>
       <c r="G66" t="str">
-        <f>IF(Sheet1!J66="","",VLOOKUP(Sheet1!J66,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J66="","",IF(Sheet1!J66 &lt; 300000, VLOOKUP(Sheet1!J66,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J66,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H66" t="str">
-        <f>IF(Sheet1!L66="","",VLOOKUP(Sheet1!L66,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L66="","",IF(Sheet1!L66 &lt; 300000, VLOOKUP(Sheet1!L66,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L66,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I66" t="str">
-        <f>IF(Sheet1!N66="","",VLOOKUP(Sheet1!N66,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N66="","",IF(Sheet1!N66 &lt; 300000, VLOOKUP(Sheet1!N66,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N66,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J66" t="str">
-        <f>IF(Sheet1!P66="","",VLOOKUP(Sheet1!P66,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P66="","",IF(Sheet1!P66 &lt; 300000, VLOOKUP(Sheet1!P66,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P66,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K66" t="str">
-        <f>IF(Sheet1!R66="","",VLOOKUP(Sheet1!R66,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R66="","",IF(Sheet1!R66 &lt; 300000, VLOOKUP(Sheet1!R66,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R66,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L66" t="str">
-        <f>IF(Sheet1!T66="","",VLOOKUP(Sheet1!T66,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T66="","",IF(Sheet1!T66 &lt; 300000, VLOOKUP(Sheet1!T66,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T66,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -11117,43 +11301,43 @@
         <v>骷髅刀斧手</v>
       </c>
       <c r="C67" t="str">
-        <f>IF(Sheet1!B67="","",VLOOKUP(Sheet1!B67,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B67="","",IF(Sheet1!B67 &lt; 300000, VLOOKUP(Sheet1!B67,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B67,[2]装备!$A$3:$B$248,2)))</f>
         <v>道士头盔</v>
       </c>
       <c r="D67" t="str">
-        <f>IF(Sheet1!D67="","",VLOOKUP(Sheet1!D67,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D67="","",IF(Sheet1!D67 &lt; 300000, VLOOKUP(Sheet1!D67,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D67,[2]装备!$A$3:$B$248,2)))</f>
         <v>幽灵手套</v>
       </c>
       <c r="E67" t="str">
-        <f>IF(Sheet1!F67="","",VLOOKUP(Sheet1!F67,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F67="","",IF(Sheet1!F67 &lt; 300000, VLOOKUP(Sheet1!F67,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F67,[2]装备!$A$3:$B$248,2)))</f>
         <v>放大镜</v>
       </c>
       <c r="F67" t="str">
-        <f>IF(Sheet1!H67="","",VLOOKUP(Sheet1!H67,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H67="","",IF(Sheet1!H67 &lt; 300000, VLOOKUP(Sheet1!H67,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H67,[2]装备!$A$3:$B$248,2)))</f>
         <v>降妖除魔戒指</v>
       </c>
       <c r="G67" t="str">
-        <f>IF(Sheet1!J67="","",VLOOKUP(Sheet1!J67,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J67="","",IF(Sheet1!J67 &lt; 300000, VLOOKUP(Sheet1!J67,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J67,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H67" t="str">
-        <f>IF(Sheet1!L67="","",VLOOKUP(Sheet1!L67,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L67="","",IF(Sheet1!L67 &lt; 300000, VLOOKUP(Sheet1!L67,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L67,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I67" t="str">
-        <f>IF(Sheet1!N67="","",VLOOKUP(Sheet1!N67,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N67="","",IF(Sheet1!N67 &lt; 300000, VLOOKUP(Sheet1!N67,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N67,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J67" t="str">
-        <f>IF(Sheet1!P67="","",VLOOKUP(Sheet1!P67,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P67="","",IF(Sheet1!P67 &lt; 300000, VLOOKUP(Sheet1!P67,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P67,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K67" t="str">
-        <f>IF(Sheet1!R67="","",VLOOKUP(Sheet1!R67,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R67="","",IF(Sheet1!R67 &lt; 300000, VLOOKUP(Sheet1!R67,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R67,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L67" t="str">
-        <f>IF(Sheet1!T67="","",VLOOKUP(Sheet1!T67,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T67="","",IF(Sheet1!T67 &lt; 300000, VLOOKUP(Sheet1!T67,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T67,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -11167,43 +11351,43 @@
         <v>骷髅弓箭手</v>
       </c>
       <c r="C68" t="str">
-        <f>IF(Sheet1!B68="","",VLOOKUP(Sheet1!B68,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B68="","",IF(Sheet1!B68 &lt; 300000, VLOOKUP(Sheet1!B68,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B68,[2]装备!$A$3:$B$248,2)))</f>
         <v>道士头盔</v>
       </c>
       <c r="D68" t="str">
-        <f>IF(Sheet1!D68="","",VLOOKUP(Sheet1!D68,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D68="","",IF(Sheet1!D68 &lt; 300000, VLOOKUP(Sheet1!D68,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D68,[2]装备!$A$3:$B$248,2)))</f>
         <v>阎罗手套</v>
       </c>
       <c r="E68" t="str">
-        <f>IF(Sheet1!F68="","",VLOOKUP(Sheet1!F68,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F68="","",IF(Sheet1!F68 &lt; 300000, VLOOKUP(Sheet1!F68,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F68,[2]装备!$A$3:$B$248,2)))</f>
         <v>竹笛</v>
       </c>
       <c r="F68" t="str">
-        <f>IF(Sheet1!H68="","",VLOOKUP(Sheet1!H68,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H68="","",IF(Sheet1!H68 &lt; 300000, VLOOKUP(Sheet1!H68,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H68,[2]装备!$A$3:$B$248,2)))</f>
         <v>珊瑚戒指</v>
       </c>
       <c r="G68" t="str">
-        <f>IF(Sheet1!J68="","",VLOOKUP(Sheet1!J68,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J68="","",IF(Sheet1!J68 &lt; 300000, VLOOKUP(Sheet1!J68,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J68,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H68" t="str">
-        <f>IF(Sheet1!L68="","",VLOOKUP(Sheet1!L68,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L68="","",IF(Sheet1!L68 &lt; 300000, VLOOKUP(Sheet1!L68,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L68,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I68" t="str">
-        <f>IF(Sheet1!N68="","",VLOOKUP(Sheet1!N68,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N68="","",IF(Sheet1!N68 &lt; 300000, VLOOKUP(Sheet1!N68,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N68,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J68" t="str">
-        <f>IF(Sheet1!P68="","",VLOOKUP(Sheet1!P68,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P68="","",IF(Sheet1!P68 &lt; 300000, VLOOKUP(Sheet1!P68,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P68,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K68" t="str">
-        <f>IF(Sheet1!R68="","",VLOOKUP(Sheet1!R68,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R68="","",IF(Sheet1!R68 &lt; 300000, VLOOKUP(Sheet1!R68,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R68,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L68" t="str">
-        <f>IF(Sheet1!T68="","",VLOOKUP(Sheet1!T68,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T68="","",IF(Sheet1!T68 &lt; 300000, VLOOKUP(Sheet1!T68,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T68,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -11217,43 +11401,43 @@
         <v>牛头魔</v>
       </c>
       <c r="C69" t="str">
-        <f>IF(Sheet1!B69="","",VLOOKUP(Sheet1!B69,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B69="","",IF(Sheet1!B69 &lt; 300000, VLOOKUP(Sheet1!B69,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B69,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="D69" t="str">
-        <f>IF(Sheet1!D69="","",VLOOKUP(Sheet1!D69,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D69="","",IF(Sheet1!D69 &lt; 300000, VLOOKUP(Sheet1!D69,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D69,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="E69" t="str">
-        <f>IF(Sheet1!F69="","",VLOOKUP(Sheet1!F69,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F69="","",IF(Sheet1!F69 &lt; 300000, VLOOKUP(Sheet1!F69,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F69,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="F69" t="str">
-        <f>IF(Sheet1!H69="","",VLOOKUP(Sheet1!H69,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H69="","",IF(Sheet1!H69 &lt; 300000, VLOOKUP(Sheet1!H69,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H69,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G69" t="str">
-        <f>IF(Sheet1!J69="","",VLOOKUP(Sheet1!J69,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J69="","",IF(Sheet1!J69 &lt; 300000, VLOOKUP(Sheet1!J69,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J69,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H69" t="str">
-        <f>IF(Sheet1!L69="","",VLOOKUP(Sheet1!L69,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L69="","",IF(Sheet1!L69 &lt; 300000, VLOOKUP(Sheet1!L69,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L69,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I69" t="str">
-        <f>IF(Sheet1!N69="","",VLOOKUP(Sheet1!N69,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N69="","",IF(Sheet1!N69 &lt; 300000, VLOOKUP(Sheet1!N69,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N69,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J69" t="str">
-        <f>IF(Sheet1!P69="","",VLOOKUP(Sheet1!P69,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P69="","",IF(Sheet1!P69 &lt; 300000, VLOOKUP(Sheet1!P69,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P69,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K69" t="str">
-        <f>IF(Sheet1!R69="","",VLOOKUP(Sheet1!R69,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R69="","",IF(Sheet1!R69 &lt; 300000, VLOOKUP(Sheet1!R69,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R69,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L69" t="str">
-        <f>IF(Sheet1!T69="","",VLOOKUP(Sheet1!T69,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T69="","",IF(Sheet1!T69 &lt; 300000, VLOOKUP(Sheet1!T69,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T69,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -11267,43 +11451,43 @@
         <v>牛魔斗士</v>
       </c>
       <c r="C70" t="str">
-        <f>IF(Sheet1!B70="","",VLOOKUP(Sheet1!B70,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B70="","",IF(Sheet1!B70 &lt; 300000, VLOOKUP(Sheet1!B70,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B70,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="D70" t="str">
-        <f>IF(Sheet1!D70="","",VLOOKUP(Sheet1!D70,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D70="","",IF(Sheet1!D70 &lt; 300000, VLOOKUP(Sheet1!D70,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D70,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="E70" t="str">
-        <f>IF(Sheet1!F70="","",VLOOKUP(Sheet1!F70,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F70="","",IF(Sheet1!F70 &lt; 300000, VLOOKUP(Sheet1!F70,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F70,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="F70" t="str">
-        <f>IF(Sheet1!H70="","",VLOOKUP(Sheet1!H70,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H70="","",IF(Sheet1!H70 &lt; 300000, VLOOKUP(Sheet1!H70,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H70,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G70" t="str">
-        <f>IF(Sheet1!J70="","",VLOOKUP(Sheet1!J70,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J70="","",IF(Sheet1!J70 &lt; 300000, VLOOKUP(Sheet1!J70,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J70,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H70" t="str">
-        <f>IF(Sheet1!L70="","",VLOOKUP(Sheet1!L70,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L70="","",IF(Sheet1!L70 &lt; 300000, VLOOKUP(Sheet1!L70,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L70,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I70" t="str">
-        <f>IF(Sheet1!N70="","",VLOOKUP(Sheet1!N70,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N70="","",IF(Sheet1!N70 &lt; 300000, VLOOKUP(Sheet1!N70,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N70,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J70" t="str">
-        <f>IF(Sheet1!P70="","",VLOOKUP(Sheet1!P70,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P70="","",IF(Sheet1!P70 &lt; 300000, VLOOKUP(Sheet1!P70,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P70,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K70" t="str">
-        <f>IF(Sheet1!R70="","",VLOOKUP(Sheet1!R70,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R70="","",IF(Sheet1!R70 &lt; 300000, VLOOKUP(Sheet1!R70,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R70,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L70" t="str">
-        <f>IF(Sheet1!T70="","",VLOOKUP(Sheet1!T70,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T70="","",IF(Sheet1!T70 &lt; 300000, VLOOKUP(Sheet1!T70,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T70,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -11317,43 +11501,43 @@
         <v>牛魔战士</v>
       </c>
       <c r="C71" t="str">
-        <f>IF(Sheet1!B71="","",VLOOKUP(Sheet1!B71,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B71="","",IF(Sheet1!B71 &lt; 300000, VLOOKUP(Sheet1!B71,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B71,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="D71" t="str">
-        <f>IF(Sheet1!D71="","",VLOOKUP(Sheet1!D71,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D71="","",IF(Sheet1!D71 &lt; 300000, VLOOKUP(Sheet1!D71,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D71,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="E71" t="str">
-        <f>IF(Sheet1!F71="","",VLOOKUP(Sheet1!F71,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F71="","",IF(Sheet1!F71 &lt; 300000, VLOOKUP(Sheet1!F71,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F71,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="F71" t="str">
-        <f>IF(Sheet1!H71="","",VLOOKUP(Sheet1!H71,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H71="","",IF(Sheet1!H71 &lt; 300000, VLOOKUP(Sheet1!H71,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H71,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G71" t="str">
-        <f>IF(Sheet1!J71="","",VLOOKUP(Sheet1!J71,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J71="","",IF(Sheet1!J71 &lt; 300000, VLOOKUP(Sheet1!J71,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J71,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H71" t="str">
-        <f>IF(Sheet1!L71="","",VLOOKUP(Sheet1!L71,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L71="","",IF(Sheet1!L71 &lt; 300000, VLOOKUP(Sheet1!L71,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L71,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I71" t="str">
-        <f>IF(Sheet1!N71="","",VLOOKUP(Sheet1!N71,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N71="","",IF(Sheet1!N71 &lt; 300000, VLOOKUP(Sheet1!N71,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N71,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J71" t="str">
-        <f>IF(Sheet1!P71="","",VLOOKUP(Sheet1!P71,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P71="","",IF(Sheet1!P71 &lt; 300000, VLOOKUP(Sheet1!P71,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P71,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K71" t="str">
-        <f>IF(Sheet1!R71="","",VLOOKUP(Sheet1!R71,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R71="","",IF(Sheet1!R71 &lt; 300000, VLOOKUP(Sheet1!R71,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R71,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L71" t="str">
-        <f>IF(Sheet1!T71="","",VLOOKUP(Sheet1!T71,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T71="","",IF(Sheet1!T71 &lt; 300000, VLOOKUP(Sheet1!T71,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T71,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -11367,43 +11551,43 @@
         <v>牛魔侍卫</v>
       </c>
       <c r="C72" t="str">
-        <f>IF(Sheet1!B72="","",VLOOKUP(Sheet1!B72,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B72="","",IF(Sheet1!B72 &lt; 300000, VLOOKUP(Sheet1!B72,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B72,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="D72" t="str">
-        <f>IF(Sheet1!D72="","",VLOOKUP(Sheet1!D72,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D72="","",IF(Sheet1!D72 &lt; 300000, VLOOKUP(Sheet1!D72,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D72,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="E72" t="str">
-        <f>IF(Sheet1!F72="","",VLOOKUP(Sheet1!F72,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F72="","",IF(Sheet1!F72 &lt; 300000, VLOOKUP(Sheet1!F72,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F72,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="F72" t="str">
-        <f>IF(Sheet1!H72="","",VLOOKUP(Sheet1!H72,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H72="","",IF(Sheet1!H72 &lt; 300000, VLOOKUP(Sheet1!H72,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H72,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G72" t="str">
-        <f>IF(Sheet1!J72="","",VLOOKUP(Sheet1!J72,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J72="","",IF(Sheet1!J72 &lt; 300000, VLOOKUP(Sheet1!J72,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J72,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H72" t="str">
-        <f>IF(Sheet1!L72="","",VLOOKUP(Sheet1!L72,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L72="","",IF(Sheet1!L72 &lt; 300000, VLOOKUP(Sheet1!L72,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L72,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I72" t="str">
-        <f>IF(Sheet1!N72="","",VLOOKUP(Sheet1!N72,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N72="","",IF(Sheet1!N72 &lt; 300000, VLOOKUP(Sheet1!N72,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N72,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J72" t="str">
-        <f>IF(Sheet1!P72="","",VLOOKUP(Sheet1!P72,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P72="","",IF(Sheet1!P72 &lt; 300000, VLOOKUP(Sheet1!P72,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P72,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K72" t="str">
-        <f>IF(Sheet1!R72="","",VLOOKUP(Sheet1!R72,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R72="","",IF(Sheet1!R72 &lt; 300000, VLOOKUP(Sheet1!R72,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R72,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L72" t="str">
-        <f>IF(Sheet1!T72="","",VLOOKUP(Sheet1!T72,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T72="","",IF(Sheet1!T72 &lt; 300000, VLOOKUP(Sheet1!T72,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T72,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -11417,43 +11601,43 @@
         <v>牛魔将军</v>
       </c>
       <c r="C73" t="str">
-        <f>IF(Sheet1!B73="","",VLOOKUP(Sheet1!B73,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B73="","",IF(Sheet1!B73 &lt; 300000, VLOOKUP(Sheet1!B73,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B73,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="D73" t="str">
-        <f>IF(Sheet1!D73="","",VLOOKUP(Sheet1!D73,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D73="","",IF(Sheet1!D73 &lt; 300000, VLOOKUP(Sheet1!D73,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D73,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="E73" t="str">
-        <f>IF(Sheet1!F73="","",VLOOKUP(Sheet1!F73,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F73="","",IF(Sheet1!F73 &lt; 300000, VLOOKUP(Sheet1!F73,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F73,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="F73" t="str">
-        <f>IF(Sheet1!H73="","",VLOOKUP(Sheet1!H73,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H73="","",IF(Sheet1!H73 &lt; 300000, VLOOKUP(Sheet1!H73,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H73,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G73" t="str">
-        <f>IF(Sheet1!J73="","",VLOOKUP(Sheet1!J73,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J73="","",IF(Sheet1!J73 &lt; 300000, VLOOKUP(Sheet1!J73,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J73,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H73" t="str">
-        <f>IF(Sheet1!L73="","",VLOOKUP(Sheet1!L73,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L73="","",IF(Sheet1!L73 &lt; 300000, VLOOKUP(Sheet1!L73,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L73,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I73" t="str">
-        <f>IF(Sheet1!N73="","",VLOOKUP(Sheet1!N73,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N73="","",IF(Sheet1!N73 &lt; 300000, VLOOKUP(Sheet1!N73,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N73,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J73" t="str">
-        <f>IF(Sheet1!P73="","",VLOOKUP(Sheet1!P73,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P73="","",IF(Sheet1!P73 &lt; 300000, VLOOKUP(Sheet1!P73,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P73,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K73" t="str">
-        <f>IF(Sheet1!R73="","",VLOOKUP(Sheet1!R73,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R73="","",IF(Sheet1!R73 &lt; 300000, VLOOKUP(Sheet1!R73,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R73,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L73" t="str">
-        <f>IF(Sheet1!T73="","",VLOOKUP(Sheet1!T73,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T73="","",IF(Sheet1!T73 &lt; 300000, VLOOKUP(Sheet1!T73,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T73,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -11467,43 +11651,43 @@
         <v>牛魔法师</v>
       </c>
       <c r="C74" t="str">
-        <f>IF(Sheet1!B74="","",VLOOKUP(Sheet1!B74,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B74="","",IF(Sheet1!B74 &lt; 300000, VLOOKUP(Sheet1!B74,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B74,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="D74" t="str">
-        <f>IF(Sheet1!D74="","",VLOOKUP(Sheet1!D74,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D74="","",IF(Sheet1!D74 &lt; 300000, VLOOKUP(Sheet1!D74,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D74,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="E74" t="str">
-        <f>IF(Sheet1!F74="","",VLOOKUP(Sheet1!F74,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F74="","",IF(Sheet1!F74 &lt; 300000, VLOOKUP(Sheet1!F74,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F74,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="F74" t="str">
-        <f>IF(Sheet1!H74="","",VLOOKUP(Sheet1!H74,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H74="","",IF(Sheet1!H74 &lt; 300000, VLOOKUP(Sheet1!H74,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H74,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G74" t="str">
-        <f>IF(Sheet1!J74="","",VLOOKUP(Sheet1!J74,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J74="","",IF(Sheet1!J74 &lt; 300000, VLOOKUP(Sheet1!J74,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J74,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H74" t="str">
-        <f>IF(Sheet1!L74="","",VLOOKUP(Sheet1!L74,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L74="","",IF(Sheet1!L74 &lt; 300000, VLOOKUP(Sheet1!L74,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L74,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I74" t="str">
-        <f>IF(Sheet1!N74="","",VLOOKUP(Sheet1!N74,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N74="","",IF(Sheet1!N74 &lt; 300000, VLOOKUP(Sheet1!N74,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N74,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J74" t="str">
-        <f>IF(Sheet1!P74="","",VLOOKUP(Sheet1!P74,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P74="","",IF(Sheet1!P74 &lt; 300000, VLOOKUP(Sheet1!P74,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P74,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K74" t="str">
-        <f>IF(Sheet1!R74="","",VLOOKUP(Sheet1!R74,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R74="","",IF(Sheet1!R74 &lt; 300000, VLOOKUP(Sheet1!R74,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R74,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L74" t="str">
-        <f>IF(Sheet1!T74="","",VLOOKUP(Sheet1!T74,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T74="","",IF(Sheet1!T74 &lt; 300000, VLOOKUP(Sheet1!T74,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T74,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -11517,43 +11701,43 @@
         <v>牛魔祭司</v>
       </c>
       <c r="C75" t="str">
-        <f>IF(Sheet1!B75="","",VLOOKUP(Sheet1!B75,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B75="","",IF(Sheet1!B75 &lt; 300000, VLOOKUP(Sheet1!B75,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B75,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="D75" t="str">
-        <f>IF(Sheet1!D75="","",VLOOKUP(Sheet1!D75,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D75="","",IF(Sheet1!D75 &lt; 300000, VLOOKUP(Sheet1!D75,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D75,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="E75" t="str">
-        <f>IF(Sheet1!F75="","",VLOOKUP(Sheet1!F75,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F75="","",IF(Sheet1!F75 &lt; 300000, VLOOKUP(Sheet1!F75,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F75,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="F75" t="str">
-        <f>IF(Sheet1!H75="","",VLOOKUP(Sheet1!H75,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H75="","",IF(Sheet1!H75 &lt; 300000, VLOOKUP(Sheet1!H75,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H75,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G75" t="str">
-        <f>IF(Sheet1!J75="","",VLOOKUP(Sheet1!J75,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J75="","",IF(Sheet1!J75 &lt; 300000, VLOOKUP(Sheet1!J75,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J75,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H75" t="str">
-        <f>IF(Sheet1!L75="","",VLOOKUP(Sheet1!L75,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L75="","",IF(Sheet1!L75 &lt; 300000, VLOOKUP(Sheet1!L75,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L75,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I75" t="str">
-        <f>IF(Sheet1!N75="","",VLOOKUP(Sheet1!N75,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N75="","",IF(Sheet1!N75 &lt; 300000, VLOOKUP(Sheet1!N75,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N75,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J75" t="str">
-        <f>IF(Sheet1!P75="","",VLOOKUP(Sheet1!P75,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P75="","",IF(Sheet1!P75 &lt; 300000, VLOOKUP(Sheet1!P75,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P75,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K75" t="str">
-        <f>IF(Sheet1!R75="","",VLOOKUP(Sheet1!R75,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R75="","",IF(Sheet1!R75 &lt; 300000, VLOOKUP(Sheet1!R75,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R75,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L75" t="str">
-        <f>IF(Sheet1!T75="","",VLOOKUP(Sheet1!T75,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T75="","",IF(Sheet1!T75 &lt; 300000, VLOOKUP(Sheet1!T75,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T75,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -11567,43 +11751,43 @@
         <v>宝箱</v>
       </c>
       <c r="C76" t="str">
-        <f>IF(Sheet1!B76="","",VLOOKUP(Sheet1!B76,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B76="","",IF(Sheet1!B76 &lt; 300000, VLOOKUP(Sheet1!B76,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B76,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="D76" t="str">
-        <f>IF(Sheet1!D76="","",VLOOKUP(Sheet1!D76,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D76="","",IF(Sheet1!D76 &lt; 300000, VLOOKUP(Sheet1!D76,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D76,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="E76" t="str">
-        <f>IF(Sheet1!F76="","",VLOOKUP(Sheet1!F76,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F76="","",IF(Sheet1!F76 &lt; 300000, VLOOKUP(Sheet1!F76,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F76,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="F76" t="str">
-        <f>IF(Sheet1!H76="","",VLOOKUP(Sheet1!H76,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H76="","",IF(Sheet1!H76 &lt; 300000, VLOOKUP(Sheet1!H76,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H76,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G76" t="str">
-        <f>IF(Sheet1!J76="","",VLOOKUP(Sheet1!J76,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J76="","",IF(Sheet1!J76 &lt; 300000, VLOOKUP(Sheet1!J76,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J76,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H76" t="str">
-        <f>IF(Sheet1!L76="","",VLOOKUP(Sheet1!L76,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L76="","",IF(Sheet1!L76 &lt; 300000, VLOOKUP(Sheet1!L76,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L76,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I76" t="str">
-        <f>IF(Sheet1!N76="","",VLOOKUP(Sheet1!N76,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N76="","",IF(Sheet1!N76 &lt; 300000, VLOOKUP(Sheet1!N76,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N76,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J76" t="str">
-        <f>IF(Sheet1!P76="","",VLOOKUP(Sheet1!P76,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P76="","",IF(Sheet1!P76 &lt; 300000, VLOOKUP(Sheet1!P76,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P76,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K76" t="str">
-        <f>IF(Sheet1!R76="","",VLOOKUP(Sheet1!R76,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R76="","",IF(Sheet1!R76 &lt; 300000, VLOOKUP(Sheet1!R76,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R76,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L76" t="str">
-        <f>IF(Sheet1!T76="","",VLOOKUP(Sheet1!T76,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T76="","",IF(Sheet1!T76 &lt; 300000, VLOOKUP(Sheet1!T76,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T76,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -11617,43 +11801,43 @@
         <v>魔龙邪眼</v>
       </c>
       <c r="C77" t="str">
-        <f>IF(Sheet1!B77="","",VLOOKUP(Sheet1!B77,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B77="","",IF(Sheet1!B77 &lt; 300000, VLOOKUP(Sheet1!B77,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B77,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="D77" t="str">
-        <f>IF(Sheet1!D77="","",VLOOKUP(Sheet1!D77,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D77="","",IF(Sheet1!D77 &lt; 300000, VLOOKUP(Sheet1!D77,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D77,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="E77" t="str">
-        <f>IF(Sheet1!F77="","",VLOOKUP(Sheet1!F77,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F77="","",IF(Sheet1!F77 &lt; 300000, VLOOKUP(Sheet1!F77,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F77,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="F77" t="str">
-        <f>IF(Sheet1!H77="","",VLOOKUP(Sheet1!H77,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H77="","",IF(Sheet1!H77 &lt; 300000, VLOOKUP(Sheet1!H77,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H77,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G77" t="str">
-        <f>IF(Sheet1!J77="","",VLOOKUP(Sheet1!J77,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J77="","",IF(Sheet1!J77 &lt; 300000, VLOOKUP(Sheet1!J77,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J77,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H77" t="str">
-        <f>IF(Sheet1!L77="","",VLOOKUP(Sheet1!L77,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L77="","",IF(Sheet1!L77 &lt; 300000, VLOOKUP(Sheet1!L77,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L77,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I77" t="str">
-        <f>IF(Sheet1!N77="","",VLOOKUP(Sheet1!N77,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N77="","",IF(Sheet1!N77 &lt; 300000, VLOOKUP(Sheet1!N77,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N77,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J77" t="str">
-        <f>IF(Sheet1!P77="","",VLOOKUP(Sheet1!P77,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P77="","",IF(Sheet1!P77 &lt; 300000, VLOOKUP(Sheet1!P77,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P77,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K77" t="str">
-        <f>IF(Sheet1!R77="","",VLOOKUP(Sheet1!R77,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R77="","",IF(Sheet1!R77 &lt; 300000, VLOOKUP(Sheet1!R77,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R77,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L77" t="str">
-        <f>IF(Sheet1!T77="","",VLOOKUP(Sheet1!T77,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T77="","",IF(Sheet1!T77 &lt; 300000, VLOOKUP(Sheet1!T77,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T77,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -11667,43 +11851,43 @@
         <v>魔龙血蛙</v>
       </c>
       <c r="C78" t="str">
-        <f>IF(Sheet1!B78="","",VLOOKUP(Sheet1!B78,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B78="","",IF(Sheet1!B78 &lt; 300000, VLOOKUP(Sheet1!B78,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B78,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="D78" t="str">
-        <f>IF(Sheet1!D78="","",VLOOKUP(Sheet1!D78,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D78="","",IF(Sheet1!D78 &lt; 300000, VLOOKUP(Sheet1!D78,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D78,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="E78" t="str">
-        <f>IF(Sheet1!F78="","",VLOOKUP(Sheet1!F78,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F78="","",IF(Sheet1!F78 &lt; 300000, VLOOKUP(Sheet1!F78,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F78,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="F78" t="str">
-        <f>IF(Sheet1!H78="","",VLOOKUP(Sheet1!H78,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H78="","",IF(Sheet1!H78 &lt; 300000, VLOOKUP(Sheet1!H78,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H78,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G78" t="str">
-        <f>IF(Sheet1!J78="","",VLOOKUP(Sheet1!J78,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J78="","",IF(Sheet1!J78 &lt; 300000, VLOOKUP(Sheet1!J78,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J78,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H78" t="str">
-        <f>IF(Sheet1!L78="","",VLOOKUP(Sheet1!L78,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L78="","",IF(Sheet1!L78 &lt; 300000, VLOOKUP(Sheet1!L78,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L78,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I78" t="str">
-        <f>IF(Sheet1!N78="","",VLOOKUP(Sheet1!N78,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N78="","",IF(Sheet1!N78 &lt; 300000, VLOOKUP(Sheet1!N78,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N78,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J78" t="str">
-        <f>IF(Sheet1!P78="","",VLOOKUP(Sheet1!P78,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P78="","",IF(Sheet1!P78 &lt; 300000, VLOOKUP(Sheet1!P78,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P78,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K78" t="str">
-        <f>IF(Sheet1!R78="","",VLOOKUP(Sheet1!R78,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R78="","",IF(Sheet1!R78 &lt; 300000, VLOOKUP(Sheet1!R78,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R78,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L78" t="str">
-        <f>IF(Sheet1!T78="","",VLOOKUP(Sheet1!T78,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T78="","",IF(Sheet1!T78 &lt; 300000, VLOOKUP(Sheet1!T78,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T78,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -11717,43 +11901,43 @@
         <v>魔龙刺蛙</v>
       </c>
       <c r="C79" t="str">
-        <f>IF(Sheet1!B79="","",VLOOKUP(Sheet1!B79,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B79="","",IF(Sheet1!B79 &lt; 300000, VLOOKUP(Sheet1!B79,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B79,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="D79" t="str">
-        <f>IF(Sheet1!D79="","",VLOOKUP(Sheet1!D79,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D79="","",IF(Sheet1!D79 &lt; 300000, VLOOKUP(Sheet1!D79,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D79,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="E79" t="str">
-        <f>IF(Sheet1!F79="","",VLOOKUP(Sheet1!F79,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F79="","",IF(Sheet1!F79 &lt; 300000, VLOOKUP(Sheet1!F79,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F79,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="F79" t="str">
-        <f>IF(Sheet1!H79="","",VLOOKUP(Sheet1!H79,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H79="","",IF(Sheet1!H79 &lt; 300000, VLOOKUP(Sheet1!H79,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H79,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G79" t="str">
-        <f>IF(Sheet1!J79="","",VLOOKUP(Sheet1!J79,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J79="","",IF(Sheet1!J79 &lt; 300000, VLOOKUP(Sheet1!J79,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J79,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H79" t="str">
-        <f>IF(Sheet1!L79="","",VLOOKUP(Sheet1!L79,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L79="","",IF(Sheet1!L79 &lt; 300000, VLOOKUP(Sheet1!L79,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L79,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I79" t="str">
-        <f>IF(Sheet1!N79="","",VLOOKUP(Sheet1!N79,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N79="","",IF(Sheet1!N79 &lt; 300000, VLOOKUP(Sheet1!N79,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N79,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J79" t="str">
-        <f>IF(Sheet1!P79="","",VLOOKUP(Sheet1!P79,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P79="","",IF(Sheet1!P79 &lt; 300000, VLOOKUP(Sheet1!P79,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P79,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K79" t="str">
-        <f>IF(Sheet1!R79="","",VLOOKUP(Sheet1!R79,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R79="","",IF(Sheet1!R79 &lt; 300000, VLOOKUP(Sheet1!R79,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R79,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L79" t="str">
-        <f>IF(Sheet1!T79="","",VLOOKUP(Sheet1!T79,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T79="","",IF(Sheet1!T79 &lt; 300000, VLOOKUP(Sheet1!T79,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T79,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -11767,43 +11951,43 @@
         <v>魔龙刀兵</v>
       </c>
       <c r="C80" t="str">
-        <f>IF(Sheet1!B80="","",VLOOKUP(Sheet1!B80,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B80="","",IF(Sheet1!B80 &lt; 300000, VLOOKUP(Sheet1!B80,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B80,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="D80" t="str">
-        <f>IF(Sheet1!D80="","",VLOOKUP(Sheet1!D80,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D80="","",IF(Sheet1!D80 &lt; 300000, VLOOKUP(Sheet1!D80,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D80,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="E80" t="str">
-        <f>IF(Sheet1!F80="","",VLOOKUP(Sheet1!F80,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F80="","",IF(Sheet1!F80 &lt; 300000, VLOOKUP(Sheet1!F80,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F80,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="F80" t="str">
-        <f>IF(Sheet1!H80="","",VLOOKUP(Sheet1!H80,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H80="","",IF(Sheet1!H80 &lt; 300000, VLOOKUP(Sheet1!H80,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H80,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G80" t="str">
-        <f>IF(Sheet1!J80="","",VLOOKUP(Sheet1!J80,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J80="","",IF(Sheet1!J80 &lt; 300000, VLOOKUP(Sheet1!J80,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J80,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H80" t="str">
-        <f>IF(Sheet1!L80="","",VLOOKUP(Sheet1!L80,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L80="","",IF(Sheet1!L80 &lt; 300000, VLOOKUP(Sheet1!L80,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L80,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I80" t="str">
-        <f>IF(Sheet1!N80="","",VLOOKUP(Sheet1!N80,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N80="","",IF(Sheet1!N80 &lt; 300000, VLOOKUP(Sheet1!N80,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N80,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J80" t="str">
-        <f>IF(Sheet1!P80="","",VLOOKUP(Sheet1!P80,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P80="","",IF(Sheet1!P80 &lt; 300000, VLOOKUP(Sheet1!P80,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P80,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K80" t="str">
-        <f>IF(Sheet1!R80="","",VLOOKUP(Sheet1!R80,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R80="","",IF(Sheet1!R80 &lt; 300000, VLOOKUP(Sheet1!R80,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R80,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L80" t="str">
-        <f>IF(Sheet1!T80="","",VLOOKUP(Sheet1!T80,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T80="","",IF(Sheet1!T80 &lt; 300000, VLOOKUP(Sheet1!T80,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T80,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -11817,43 +12001,43 @@
         <v>魔龙破甲兵</v>
       </c>
       <c r="C81" t="str">
-        <f>IF(Sheet1!B81="","",VLOOKUP(Sheet1!B81,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B81="","",IF(Sheet1!B81 &lt; 300000, VLOOKUP(Sheet1!B81,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B81,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="D81" t="str">
-        <f>IF(Sheet1!D81="","",VLOOKUP(Sheet1!D81,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D81="","",IF(Sheet1!D81 &lt; 300000, VLOOKUP(Sheet1!D81,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D81,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="E81" t="str">
-        <f>IF(Sheet1!F81="","",VLOOKUP(Sheet1!F81,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F81="","",IF(Sheet1!F81 &lt; 300000, VLOOKUP(Sheet1!F81,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F81,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="F81" t="str">
-        <f>IF(Sheet1!H81="","",VLOOKUP(Sheet1!H81,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H81="","",IF(Sheet1!H81 &lt; 300000, VLOOKUP(Sheet1!H81,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H81,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G81" t="str">
-        <f>IF(Sheet1!J81="","",VLOOKUP(Sheet1!J81,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J81="","",IF(Sheet1!J81 &lt; 300000, VLOOKUP(Sheet1!J81,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J81,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H81" t="str">
-        <f>IF(Sheet1!L81="","",VLOOKUP(Sheet1!L81,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L81="","",IF(Sheet1!L81 &lt; 300000, VLOOKUP(Sheet1!L81,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L81,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I81" t="str">
-        <f>IF(Sheet1!N81="","",VLOOKUP(Sheet1!N81,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N81="","",IF(Sheet1!N81 &lt; 300000, VLOOKUP(Sheet1!N81,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N81,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J81" t="str">
-        <f>IF(Sheet1!P81="","",VLOOKUP(Sheet1!P81,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P81="","",IF(Sheet1!P81 &lt; 300000, VLOOKUP(Sheet1!P81,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P81,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K81" t="str">
-        <f>IF(Sheet1!R81="","",VLOOKUP(Sheet1!R81,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R81="","",IF(Sheet1!R81 &lt; 300000, VLOOKUP(Sheet1!R81,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R81,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L81" t="str">
-        <f>IF(Sheet1!T81="","",VLOOKUP(Sheet1!T81,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T81="","",IF(Sheet1!T81 &lt; 300000, VLOOKUP(Sheet1!T81,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T81,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -11867,43 +12051,43 @@
         <v>魔龙射手</v>
       </c>
       <c r="C82" t="str">
-        <f>IF(Sheet1!B82="","",VLOOKUP(Sheet1!B82,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B82="","",IF(Sheet1!B82 &lt; 300000, VLOOKUP(Sheet1!B82,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B82,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="D82" t="str">
-        <f>IF(Sheet1!D82="","",VLOOKUP(Sheet1!D82,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D82="","",IF(Sheet1!D82 &lt; 300000, VLOOKUP(Sheet1!D82,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D82,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="E82" t="str">
-        <f>IF(Sheet1!F82="","",VLOOKUP(Sheet1!F82,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F82="","",IF(Sheet1!F82 &lt; 300000, VLOOKUP(Sheet1!F82,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F82,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="F82" t="str">
-        <f>IF(Sheet1!H82="","",VLOOKUP(Sheet1!H82,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H82="","",IF(Sheet1!H82 &lt; 300000, VLOOKUP(Sheet1!H82,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H82,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G82" t="str">
-        <f>IF(Sheet1!J82="","",VLOOKUP(Sheet1!J82,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J82="","",IF(Sheet1!J82 &lt; 300000, VLOOKUP(Sheet1!J82,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J82,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H82" t="str">
-        <f>IF(Sheet1!L82="","",VLOOKUP(Sheet1!L82,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L82="","",IF(Sheet1!L82 &lt; 300000, VLOOKUP(Sheet1!L82,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L82,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I82" t="str">
-        <f>IF(Sheet1!N82="","",VLOOKUP(Sheet1!N82,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N82="","",IF(Sheet1!N82 &lt; 300000, VLOOKUP(Sheet1!N82,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N82,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J82" t="str">
-        <f>IF(Sheet1!P82="","",VLOOKUP(Sheet1!P82,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P82="","",IF(Sheet1!P82 &lt; 300000, VLOOKUP(Sheet1!P82,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P82,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K82" t="str">
-        <f>IF(Sheet1!R82="","",VLOOKUP(Sheet1!R82,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R82="","",IF(Sheet1!R82 &lt; 300000, VLOOKUP(Sheet1!R82,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R82,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L82" t="str">
-        <f>IF(Sheet1!T82="","",VLOOKUP(Sheet1!T82,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T82="","",IF(Sheet1!T82 &lt; 300000, VLOOKUP(Sheet1!T82,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T82,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -11917,43 +12101,43 @@
         <v>变异骷髅</v>
       </c>
       <c r="C83" t="str">
-        <f>IF(Sheet1!B83="","",VLOOKUP(Sheet1!B83,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B83="","",IF(Sheet1!B83 &lt; 300000, VLOOKUP(Sheet1!B83,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B83,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="D83" t="str">
-        <f>IF(Sheet1!D83="","",VLOOKUP(Sheet1!D83,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D83="","",IF(Sheet1!D83 &lt; 300000, VLOOKUP(Sheet1!D83,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D83,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="E83" t="str">
-        <f>IF(Sheet1!F83="","",VLOOKUP(Sheet1!F83,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F83="","",IF(Sheet1!F83 &lt; 300000, VLOOKUP(Sheet1!F83,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F83,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="F83" t="str">
-        <f>IF(Sheet1!H83="","",VLOOKUP(Sheet1!H83,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H83="","",IF(Sheet1!H83 &lt; 300000, VLOOKUP(Sheet1!H83,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H83,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G83" t="str">
-        <f>IF(Sheet1!J83="","",VLOOKUP(Sheet1!J83,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J83="","",IF(Sheet1!J83 &lt; 300000, VLOOKUP(Sheet1!J83,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J83,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H83" t="str">
-        <f>IF(Sheet1!L83="","",VLOOKUP(Sheet1!L83,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L83="","",IF(Sheet1!L83 &lt; 300000, VLOOKUP(Sheet1!L83,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L83,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I83" t="str">
-        <f>IF(Sheet1!N83="","",VLOOKUP(Sheet1!N83,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N83="","",IF(Sheet1!N83 &lt; 300000, VLOOKUP(Sheet1!N83,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N83,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J83" t="str">
-        <f>IF(Sheet1!P83="","",VLOOKUP(Sheet1!P83,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P83="","",IF(Sheet1!P83 &lt; 300000, VLOOKUP(Sheet1!P83,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P83,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K83" t="str">
-        <f>IF(Sheet1!R83="","",VLOOKUP(Sheet1!R83,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R83="","",IF(Sheet1!R83 &lt; 300000, VLOOKUP(Sheet1!R83,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R83,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L83" t="str">
-        <f>IF(Sheet1!T83="","",VLOOKUP(Sheet1!T83,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T83="","",IF(Sheet1!T83 &lt; 300000, VLOOKUP(Sheet1!T83,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T83,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -11967,43 +12151,43 @@
         <v>蜜蜂</v>
       </c>
       <c r="C84" t="str">
-        <f>IF(Sheet1!B84="","",VLOOKUP(Sheet1!B84,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B84="","",IF(Sheet1!B84 &lt; 300000, VLOOKUP(Sheet1!B84,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B84,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="D84" t="str">
-        <f>IF(Sheet1!D84="","",VLOOKUP(Sheet1!D84,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D84="","",IF(Sheet1!D84 &lt; 300000, VLOOKUP(Sheet1!D84,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D84,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="E84" t="str">
-        <f>IF(Sheet1!F84="","",VLOOKUP(Sheet1!F84,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F84="","",IF(Sheet1!F84 &lt; 300000, VLOOKUP(Sheet1!F84,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F84,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="F84" t="str">
-        <f>IF(Sheet1!H84="","",VLOOKUP(Sheet1!H84,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H84="","",IF(Sheet1!H84 &lt; 300000, VLOOKUP(Sheet1!H84,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H84,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G84" t="str">
-        <f>IF(Sheet1!J84="","",VLOOKUP(Sheet1!J84,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J84="","",IF(Sheet1!J84 &lt; 300000, VLOOKUP(Sheet1!J84,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J84,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H84" t="str">
-        <f>IF(Sheet1!L84="","",VLOOKUP(Sheet1!L84,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L84="","",IF(Sheet1!L84 &lt; 300000, VLOOKUP(Sheet1!L84,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L84,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I84" t="str">
-        <f>IF(Sheet1!N84="","",VLOOKUP(Sheet1!N84,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N84="","",IF(Sheet1!N84 &lt; 300000, VLOOKUP(Sheet1!N84,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N84,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J84" t="str">
-        <f>IF(Sheet1!P84="","",VLOOKUP(Sheet1!P84,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P84="","",IF(Sheet1!P84 &lt; 300000, VLOOKUP(Sheet1!P84,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P84,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K84" t="str">
-        <f>IF(Sheet1!R84="","",VLOOKUP(Sheet1!R84,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R84="","",IF(Sheet1!R84 &lt; 300000, VLOOKUP(Sheet1!R84,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R84,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L84" t="str">
-        <f>IF(Sheet1!T84="","",VLOOKUP(Sheet1!T84,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T84="","",IF(Sheet1!T84 &lt; 300000, VLOOKUP(Sheet1!T84,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T84,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -12017,43 +12201,43 @@
         <v>神兽</v>
       </c>
       <c r="C85" t="str">
-        <f>IF(Sheet1!B85="","",VLOOKUP(Sheet1!B85,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B85="","",IF(Sheet1!B85 &lt; 300000, VLOOKUP(Sheet1!B85,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B85,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="D85" t="str">
-        <f>IF(Sheet1!D85="","",VLOOKUP(Sheet1!D85,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D85="","",IF(Sheet1!D85 &lt; 300000, VLOOKUP(Sheet1!D85,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D85,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="E85" t="str">
-        <f>IF(Sheet1!F85="","",VLOOKUP(Sheet1!F85,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F85="","",IF(Sheet1!F85 &lt; 300000, VLOOKUP(Sheet1!F85,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F85,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="F85" t="str">
-        <f>IF(Sheet1!H85="","",VLOOKUP(Sheet1!H85,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H85="","",IF(Sheet1!H85 &lt; 300000, VLOOKUP(Sheet1!H85,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H85,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G85" t="str">
-        <f>IF(Sheet1!J85="","",VLOOKUP(Sheet1!J85,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J85="","",IF(Sheet1!J85 &lt; 300000, VLOOKUP(Sheet1!J85,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J85,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H85" t="str">
-        <f>IF(Sheet1!L85="","",VLOOKUP(Sheet1!L85,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L85="","",IF(Sheet1!L85 &lt; 300000, VLOOKUP(Sheet1!L85,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L85,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I85" t="str">
-        <f>IF(Sheet1!N85="","",VLOOKUP(Sheet1!N85,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N85="","",IF(Sheet1!N85 &lt; 300000, VLOOKUP(Sheet1!N85,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N85,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J85" t="str">
-        <f>IF(Sheet1!P85="","",VLOOKUP(Sheet1!P85,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P85="","",IF(Sheet1!P85 &lt; 300000, VLOOKUP(Sheet1!P85,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P85,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K85" t="str">
-        <f>IF(Sheet1!R85="","",VLOOKUP(Sheet1!R85,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R85="","",IF(Sheet1!R85 &lt; 300000, VLOOKUP(Sheet1!R85,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R85,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L85" t="str">
-        <f>IF(Sheet1!T85="","",VLOOKUP(Sheet1!T85,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T85="","",IF(Sheet1!T85 &lt; 300000, VLOOKUP(Sheet1!T85,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T85,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -12067,43 +12251,43 @@
         <v>红蛇王</v>
       </c>
       <c r="C86" t="str">
-        <f>IF(Sheet1!B86="","",VLOOKUP(Sheet1!B86,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B86="","",IF(Sheet1!B86 &lt; 300000, VLOOKUP(Sheet1!B86,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B86,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="D86" t="str">
-        <f>IF(Sheet1!D86="","",VLOOKUP(Sheet1!D86,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D86="","",IF(Sheet1!D86 &lt; 300000, VLOOKUP(Sheet1!D86,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D86,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="E86" t="str">
-        <f>IF(Sheet1!F86="","",VLOOKUP(Sheet1!F86,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F86="","",IF(Sheet1!F86 &lt; 300000, VLOOKUP(Sheet1!F86,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F86,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="F86" t="str">
-        <f>IF(Sheet1!H86="","",VLOOKUP(Sheet1!H86,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H86="","",IF(Sheet1!H86 &lt; 300000, VLOOKUP(Sheet1!H86,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H86,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G86" t="str">
-        <f>IF(Sheet1!J86="","",VLOOKUP(Sheet1!J86,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J86="","",IF(Sheet1!J86 &lt; 300000, VLOOKUP(Sheet1!J86,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J86,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H86" t="str">
-        <f>IF(Sheet1!L86="","",VLOOKUP(Sheet1!L86,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L86="","",IF(Sheet1!L86 &lt; 300000, VLOOKUP(Sheet1!L86,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L86,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I86" t="str">
-        <f>IF(Sheet1!N86="","",VLOOKUP(Sheet1!N86,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N86="","",IF(Sheet1!N86 &lt; 300000, VLOOKUP(Sheet1!N86,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N86,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J86" t="str">
-        <f>IF(Sheet1!P86="","",VLOOKUP(Sheet1!P86,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P86="","",IF(Sheet1!P86 &lt; 300000, VLOOKUP(Sheet1!P86,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P86,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K86" t="str">
-        <f>IF(Sheet1!R86="","",VLOOKUP(Sheet1!R86,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R86="","",IF(Sheet1!R86 &lt; 300000, VLOOKUP(Sheet1!R86,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R86,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L86" t="str">
-        <f>IF(Sheet1!T86="","",VLOOKUP(Sheet1!T86,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T86="","",IF(Sheet1!T86 &lt; 300000, VLOOKUP(Sheet1!T86,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T86,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -12117,43 +12301,43 @@
         <v>虎蛇王</v>
       </c>
       <c r="C87" t="str">
-        <f>IF(Sheet1!B87="","",VLOOKUP(Sheet1!B87,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B87="","",IF(Sheet1!B87 &lt; 300000, VLOOKUP(Sheet1!B87,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B87,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="D87" t="str">
-        <f>IF(Sheet1!D87="","",VLOOKUP(Sheet1!D87,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D87="","",IF(Sheet1!D87 &lt; 300000, VLOOKUP(Sheet1!D87,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D87,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="E87" t="str">
-        <f>IF(Sheet1!F87="","",VLOOKUP(Sheet1!F87,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F87="","",IF(Sheet1!F87 &lt; 300000, VLOOKUP(Sheet1!F87,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F87,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="F87" t="str">
-        <f>IF(Sheet1!H87="","",VLOOKUP(Sheet1!H87,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H87="","",IF(Sheet1!H87 &lt; 300000, VLOOKUP(Sheet1!H87,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H87,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G87" t="str">
-        <f>IF(Sheet1!J87="","",VLOOKUP(Sheet1!J87,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J87="","",IF(Sheet1!J87 &lt; 300000, VLOOKUP(Sheet1!J87,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J87,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H87" t="str">
-        <f>IF(Sheet1!L87="","",VLOOKUP(Sheet1!L87,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L87="","",IF(Sheet1!L87 &lt; 300000, VLOOKUP(Sheet1!L87,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L87,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I87" t="str">
-        <f>IF(Sheet1!N87="","",VLOOKUP(Sheet1!N87,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N87="","",IF(Sheet1!N87 &lt; 300000, VLOOKUP(Sheet1!N87,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N87,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J87" t="str">
-        <f>IF(Sheet1!P87="","",VLOOKUP(Sheet1!P87,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P87="","",IF(Sheet1!P87 &lt; 300000, VLOOKUP(Sheet1!P87,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P87,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K87" t="str">
-        <f>IF(Sheet1!R87="","",VLOOKUP(Sheet1!R87,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R87="","",IF(Sheet1!R87 &lt; 300000, VLOOKUP(Sheet1!R87,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R87,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L87" t="str">
-        <f>IF(Sheet1!T87="","",VLOOKUP(Sheet1!T87,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T87="","",IF(Sheet1!T87 &lt; 300000, VLOOKUP(Sheet1!T87,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T87,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -12167,43 +12351,43 @@
         <v>蜈蚣王</v>
       </c>
       <c r="C88" t="str">
-        <f>IF(Sheet1!B88="","",VLOOKUP(Sheet1!B88,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B88="","",IF(Sheet1!B88 &lt; 300000, VLOOKUP(Sheet1!B88,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B88,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="D88" t="str">
-        <f>IF(Sheet1!D88="","",VLOOKUP(Sheet1!D88,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D88="","",IF(Sheet1!D88 &lt; 300000, VLOOKUP(Sheet1!D88,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D88,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="E88" t="str">
-        <f>IF(Sheet1!F88="","",VLOOKUP(Sheet1!F88,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F88="","",IF(Sheet1!F88 &lt; 300000, VLOOKUP(Sheet1!F88,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F88,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="F88" t="str">
-        <f>IF(Sheet1!H88="","",VLOOKUP(Sheet1!H88,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H88="","",IF(Sheet1!H88 &lt; 300000, VLOOKUP(Sheet1!H88,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H88,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G88" t="str">
-        <f>IF(Sheet1!J88="","",VLOOKUP(Sheet1!J88,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J88="","",IF(Sheet1!J88 &lt; 300000, VLOOKUP(Sheet1!J88,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J88,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H88" t="str">
-        <f>IF(Sheet1!L88="","",VLOOKUP(Sheet1!L88,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L88="","",IF(Sheet1!L88 &lt; 300000, VLOOKUP(Sheet1!L88,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L88,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I88" t="str">
-        <f>IF(Sheet1!N88="","",VLOOKUP(Sheet1!N88,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N88="","",IF(Sheet1!N88 &lt; 300000, VLOOKUP(Sheet1!N88,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N88,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J88" t="str">
-        <f>IF(Sheet1!P88="","",VLOOKUP(Sheet1!P88,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P88="","",IF(Sheet1!P88 &lt; 300000, VLOOKUP(Sheet1!P88,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P88,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K88" t="str">
-        <f>IF(Sheet1!R88="","",VLOOKUP(Sheet1!R88,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R88="","",IF(Sheet1!R88 &lt; 300000, VLOOKUP(Sheet1!R88,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R88,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L88" t="str">
-        <f>IF(Sheet1!T88="","",VLOOKUP(Sheet1!T88,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T88="","",IF(Sheet1!T88 &lt; 300000, VLOOKUP(Sheet1!T88,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T88,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -12217,43 +12401,43 @@
         <v>蝎子王</v>
       </c>
       <c r="C89" t="str">
-        <f>IF(Sheet1!B89="","",VLOOKUP(Sheet1!B89,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B89="","",IF(Sheet1!B89 &lt; 300000, VLOOKUP(Sheet1!B89,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B89,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="D89" t="str">
-        <f>IF(Sheet1!D89="","",VLOOKUP(Sheet1!D89,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D89="","",IF(Sheet1!D89 &lt; 300000, VLOOKUP(Sheet1!D89,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D89,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="E89" t="str">
-        <f>IF(Sheet1!F89="","",VLOOKUP(Sheet1!F89,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F89="","",IF(Sheet1!F89 &lt; 300000, VLOOKUP(Sheet1!F89,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F89,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="F89" t="str">
-        <f>IF(Sheet1!H89="","",VLOOKUP(Sheet1!H89,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H89="","",IF(Sheet1!H89 &lt; 300000, VLOOKUP(Sheet1!H89,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H89,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G89" t="str">
-        <f>IF(Sheet1!J89="","",VLOOKUP(Sheet1!J89,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J89="","",IF(Sheet1!J89 &lt; 300000, VLOOKUP(Sheet1!J89,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J89,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H89" t="str">
-        <f>IF(Sheet1!L89="","",VLOOKUP(Sheet1!L89,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L89="","",IF(Sheet1!L89 &lt; 300000, VLOOKUP(Sheet1!L89,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L89,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I89" t="str">
-        <f>IF(Sheet1!N89="","",VLOOKUP(Sheet1!N89,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N89="","",IF(Sheet1!N89 &lt; 300000, VLOOKUP(Sheet1!N89,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N89,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J89" t="str">
-        <f>IF(Sheet1!P89="","",VLOOKUP(Sheet1!P89,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P89="","",IF(Sheet1!P89 &lt; 300000, VLOOKUP(Sheet1!P89,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P89,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K89" t="str">
-        <f>IF(Sheet1!R89="","",VLOOKUP(Sheet1!R89,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R89="","",IF(Sheet1!R89 &lt; 300000, VLOOKUP(Sheet1!R89,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R89,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L89" t="str">
-        <f>IF(Sheet1!T89="","",VLOOKUP(Sheet1!T89,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T89="","",IF(Sheet1!T89 &lt; 300000, VLOOKUP(Sheet1!T89,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T89,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -12267,43 +12451,43 @@
         <v>雪蚕王</v>
       </c>
       <c r="C90" t="str">
-        <f>IF(Sheet1!B90="","",VLOOKUP(Sheet1!B90,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B90="","",IF(Sheet1!B90 &lt; 300000, VLOOKUP(Sheet1!B90,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B90,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="D90" t="str">
-        <f>IF(Sheet1!D90="","",VLOOKUP(Sheet1!D90,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D90="","",IF(Sheet1!D90 &lt; 300000, VLOOKUP(Sheet1!D90,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D90,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="E90" t="str">
-        <f>IF(Sheet1!F90="","",VLOOKUP(Sheet1!F90,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F90="","",IF(Sheet1!F90 &lt; 300000, VLOOKUP(Sheet1!F90,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F90,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="F90" t="str">
-        <f>IF(Sheet1!H90="","",VLOOKUP(Sheet1!H90,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H90="","",IF(Sheet1!H90 &lt; 300000, VLOOKUP(Sheet1!H90,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H90,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G90" t="str">
-        <f>IF(Sheet1!J90="","",VLOOKUP(Sheet1!J90,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J90="","",IF(Sheet1!J90 &lt; 300000, VLOOKUP(Sheet1!J90,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J90,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H90" t="str">
-        <f>IF(Sheet1!L90="","",VLOOKUP(Sheet1!L90,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L90="","",IF(Sheet1!L90 &lt; 300000, VLOOKUP(Sheet1!L90,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L90,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I90" t="str">
-        <f>IF(Sheet1!N90="","",VLOOKUP(Sheet1!N90,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N90="","",IF(Sheet1!N90 &lt; 300000, VLOOKUP(Sheet1!N90,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N90,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J90" t="str">
-        <f>IF(Sheet1!P90="","",VLOOKUP(Sheet1!P90,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P90="","",IF(Sheet1!P90 &lt; 300000, VLOOKUP(Sheet1!P90,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P90,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K90" t="str">
-        <f>IF(Sheet1!R90="","",VLOOKUP(Sheet1!R90,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R90="","",IF(Sheet1!R90 &lt; 300000, VLOOKUP(Sheet1!R90,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R90,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L90" t="str">
-        <f>IF(Sheet1!T90="","",VLOOKUP(Sheet1!T90,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T90="","",IF(Sheet1!T90 &lt; 300000, VLOOKUP(Sheet1!T90,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T90,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -12317,43 +12501,43 @@
         <v>蛤蟆王</v>
       </c>
       <c r="C91" t="str">
-        <f>IF(Sheet1!B91="","",VLOOKUP(Sheet1!B91,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B91="","",IF(Sheet1!B91 &lt; 300000, VLOOKUP(Sheet1!B91,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B91,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="D91" t="str">
-        <f>IF(Sheet1!D91="","",VLOOKUP(Sheet1!D91,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D91="","",IF(Sheet1!D91 &lt; 300000, VLOOKUP(Sheet1!D91,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D91,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="E91" t="str">
-        <f>IF(Sheet1!F91="","",VLOOKUP(Sheet1!F91,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F91="","",IF(Sheet1!F91 &lt; 300000, VLOOKUP(Sheet1!F91,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F91,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="F91" t="str">
-        <f>IF(Sheet1!H91="","",VLOOKUP(Sheet1!H91,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H91="","",IF(Sheet1!H91 &lt; 300000, VLOOKUP(Sheet1!H91,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H91,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G91" t="str">
-        <f>IF(Sheet1!J91="","",VLOOKUP(Sheet1!J91,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J91="","",IF(Sheet1!J91 &lt; 300000, VLOOKUP(Sheet1!J91,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J91,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H91" t="str">
-        <f>IF(Sheet1!L91="","",VLOOKUP(Sheet1!L91,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L91="","",IF(Sheet1!L91 &lt; 300000, VLOOKUP(Sheet1!L91,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L91,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I91" t="str">
-        <f>IF(Sheet1!N91="","",VLOOKUP(Sheet1!N91,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N91="","",IF(Sheet1!N91 &lt; 300000, VLOOKUP(Sheet1!N91,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N91,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J91" t="str">
-        <f>IF(Sheet1!P91="","",VLOOKUP(Sheet1!P91,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P91="","",IF(Sheet1!P91 &lt; 300000, VLOOKUP(Sheet1!P91,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P91,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K91" t="str">
-        <f>IF(Sheet1!R91="","",VLOOKUP(Sheet1!R91,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R91="","",IF(Sheet1!R91 &lt; 300000, VLOOKUP(Sheet1!R91,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R91,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L91" t="str">
-        <f>IF(Sheet1!T91="","",VLOOKUP(Sheet1!T91,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T91="","",IF(Sheet1!T91 &lt; 300000, VLOOKUP(Sheet1!T91,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T91,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -12367,43 +12551,43 @@
         <v>电僵王</v>
       </c>
       <c r="C92" t="str">
-        <f>IF(Sheet1!B92="","",VLOOKUP(Sheet1!B92,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B92="","",IF(Sheet1!B92 &lt; 300000, VLOOKUP(Sheet1!B92,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B92,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="D92" t="str">
-        <f>IF(Sheet1!D92="","",VLOOKUP(Sheet1!D92,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D92="","",IF(Sheet1!D92 &lt; 300000, VLOOKUP(Sheet1!D92,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D92,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="E92" t="str">
-        <f>IF(Sheet1!F92="","",VLOOKUP(Sheet1!F92,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F92="","",IF(Sheet1!F92 &lt; 300000, VLOOKUP(Sheet1!F92,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F92,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="F92" t="str">
-        <f>IF(Sheet1!H92="","",VLOOKUP(Sheet1!H92,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H92="","",IF(Sheet1!H92 &lt; 300000, VLOOKUP(Sheet1!H92,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H92,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G92" t="str">
-        <f>IF(Sheet1!J92="","",VLOOKUP(Sheet1!J92,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J92="","",IF(Sheet1!J92 &lt; 300000, VLOOKUP(Sheet1!J92,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J92,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H92" t="str">
-        <f>IF(Sheet1!L92="","",VLOOKUP(Sheet1!L92,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L92="","",IF(Sheet1!L92 &lt; 300000, VLOOKUP(Sheet1!L92,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L92,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I92" t="str">
-        <f>IF(Sheet1!N92="","",VLOOKUP(Sheet1!N92,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N92="","",IF(Sheet1!N92 &lt; 300000, VLOOKUP(Sheet1!N92,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N92,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J92" t="str">
-        <f>IF(Sheet1!P92="","",VLOOKUP(Sheet1!P92,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P92="","",IF(Sheet1!P92 &lt; 300000, VLOOKUP(Sheet1!P92,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P92,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K92" t="str">
-        <f>IF(Sheet1!R92="","",VLOOKUP(Sheet1!R92,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R92="","",IF(Sheet1!R92 &lt; 300000, VLOOKUP(Sheet1!R92,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R92,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L92" t="str">
-        <f>IF(Sheet1!T92="","",VLOOKUP(Sheet1!T92,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T92="","",IF(Sheet1!T92 &lt; 300000, VLOOKUP(Sheet1!T92,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T92,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -12417,43 +12601,43 @@
         <v>楔蛾王</v>
       </c>
       <c r="C93" t="str">
-        <f>IF(Sheet1!B93="","",VLOOKUP(Sheet1!B93,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B93="","",IF(Sheet1!B93 &lt; 300000, VLOOKUP(Sheet1!B93,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B93,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="D93" t="str">
-        <f>IF(Sheet1!D93="","",VLOOKUP(Sheet1!D93,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D93="","",IF(Sheet1!D93 &lt; 300000, VLOOKUP(Sheet1!D93,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D93,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="E93" t="str">
-        <f>IF(Sheet1!F93="","",VLOOKUP(Sheet1!F93,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F93="","",IF(Sheet1!F93 &lt; 300000, VLOOKUP(Sheet1!F93,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F93,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="F93" t="str">
-        <f>IF(Sheet1!H93="","",VLOOKUP(Sheet1!H93,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H93="","",IF(Sheet1!H93 &lt; 300000, VLOOKUP(Sheet1!H93,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H93,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G93" t="str">
-        <f>IF(Sheet1!J93="","",VLOOKUP(Sheet1!J93,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J93="","",IF(Sheet1!J93 &lt; 300000, VLOOKUP(Sheet1!J93,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J93,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H93" t="str">
-        <f>IF(Sheet1!L93="","",VLOOKUP(Sheet1!L93,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L93="","",IF(Sheet1!L93 &lt; 300000, VLOOKUP(Sheet1!L93,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L93,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I93" t="str">
-        <f>IF(Sheet1!N93="","",VLOOKUP(Sheet1!N93,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N93="","",IF(Sheet1!N93 &lt; 300000, VLOOKUP(Sheet1!N93,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N93,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J93" t="str">
-        <f>IF(Sheet1!P93="","",VLOOKUP(Sheet1!P93,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P93="","",IF(Sheet1!P93 &lt; 300000, VLOOKUP(Sheet1!P93,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P93,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K93" t="str">
-        <f>IF(Sheet1!R93="","",VLOOKUP(Sheet1!R93,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R93="","",IF(Sheet1!R93 &lt; 300000, VLOOKUP(Sheet1!R93,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R93,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L93" t="str">
-        <f>IF(Sheet1!T93="","",VLOOKUP(Sheet1!T93,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T93="","",IF(Sheet1!T93 &lt; 300000, VLOOKUP(Sheet1!T93,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T93,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -12467,43 +12651,43 @@
         <v>半兽勇士</v>
       </c>
       <c r="C94" t="str">
-        <f>IF(Sheet1!B94="","",VLOOKUP(Sheet1!B94,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B94="","",IF(Sheet1!B94 &lt; 300000, VLOOKUP(Sheet1!B94,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B94,[2]装备!$A$3:$B$248,2)))</f>
         <v>修罗</v>
       </c>
       <c r="D94" t="str">
-        <f>IF(Sheet1!D94="","",VLOOKUP(Sheet1!D94,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D94="","",IF(Sheet1!D94 &lt; 300000, VLOOKUP(Sheet1!D94,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D94,[2]装备!$A$3:$B$248,2)))</f>
         <v>中型盔甲(男)</v>
       </c>
       <c r="E94" t="str">
-        <f>IF(Sheet1!F94="","",VLOOKUP(Sheet1!F94,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F94="","",IF(Sheet1!F94 &lt; 300000, VLOOKUP(Sheet1!F94,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F94,[2]装备!$A$3:$B$248,2)))</f>
         <v>中型盔甲(女)</v>
       </c>
       <c r="F94" t="str">
-        <f>IF(Sheet1!H94="","",VLOOKUP(Sheet1!H94,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H94="","",IF(Sheet1!H94 &lt; 300000, VLOOKUP(Sheet1!H94,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H94,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G94" t="str">
-        <f>IF(Sheet1!J94="","",VLOOKUP(Sheet1!J94,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J94="","",IF(Sheet1!J94 &lt; 300000, VLOOKUP(Sheet1!J94,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J94,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H94" t="str">
-        <f>IF(Sheet1!L94="","",VLOOKUP(Sheet1!L94,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L94="","",IF(Sheet1!L94 &lt; 300000, VLOOKUP(Sheet1!L94,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L94,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I94" t="str">
-        <f>IF(Sheet1!N94="","",VLOOKUP(Sheet1!N94,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N94="","",IF(Sheet1!N94 &lt; 300000, VLOOKUP(Sheet1!N94,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N94,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J94" t="str">
-        <f>IF(Sheet1!P94="","",VLOOKUP(Sheet1!P94,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P94="","",IF(Sheet1!P94 &lt; 300000, VLOOKUP(Sheet1!P94,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P94,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K94" t="str">
-        <f>IF(Sheet1!R94="","",VLOOKUP(Sheet1!R94,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R94="","",IF(Sheet1!R94 &lt; 300000, VLOOKUP(Sheet1!R94,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R94,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L94" t="str">
-        <f>IF(Sheet1!T94="","",VLOOKUP(Sheet1!T94,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T94="","",IF(Sheet1!T94 &lt; 300000, VLOOKUP(Sheet1!T94,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T94,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -12517,43 +12701,43 @@
         <v>半兽勇士</v>
       </c>
       <c r="C95" t="str">
-        <f>IF(Sheet1!B95="","",VLOOKUP(Sheet1!B95,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B95="","",IF(Sheet1!B95 &lt; 300000, VLOOKUP(Sheet1!B95,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B95,[2]装备!$A$3:$B$248,2)))</f>
         <v>罗刹</v>
       </c>
       <c r="D95" t="str">
-        <f>IF(Sheet1!D95="","",VLOOKUP(Sheet1!D95,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D95="","",IF(Sheet1!D95 &lt; 300000, VLOOKUP(Sheet1!D95,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D95,[2]装备!$A$3:$B$248,2)))</f>
         <v>中型盔甲(男)</v>
       </c>
       <c r="E95" t="str">
-        <f>IF(Sheet1!F95="","",VLOOKUP(Sheet1!F95,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F95="","",IF(Sheet1!F95 &lt; 300000, VLOOKUP(Sheet1!F95,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F95,[2]装备!$A$3:$B$248,2)))</f>
         <v>中型盔甲(女)</v>
       </c>
       <c r="F95" t="str">
-        <f>IF(Sheet1!H95="","",VLOOKUP(Sheet1!H95,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H95="","",IF(Sheet1!H95 &lt; 300000, VLOOKUP(Sheet1!H95,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H95,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G95" t="str">
-        <f>IF(Sheet1!J95="","",VLOOKUP(Sheet1!J95,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J95="","",IF(Sheet1!J95 &lt; 300000, VLOOKUP(Sheet1!J95,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J95,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H95" t="str">
-        <f>IF(Sheet1!L95="","",VLOOKUP(Sheet1!L95,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L95="","",IF(Sheet1!L95 &lt; 300000, VLOOKUP(Sheet1!L95,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L95,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I95" t="str">
-        <f>IF(Sheet1!N95="","",VLOOKUP(Sheet1!N95,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N95="","",IF(Sheet1!N95 &lt; 300000, VLOOKUP(Sheet1!N95,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N95,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J95" t="str">
-        <f>IF(Sheet1!P95="","",VLOOKUP(Sheet1!P95,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P95="","",IF(Sheet1!P95 &lt; 300000, VLOOKUP(Sheet1!P95,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P95,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K95" t="str">
-        <f>IF(Sheet1!R95="","",VLOOKUP(Sheet1!R95,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R95="","",IF(Sheet1!R95 &lt; 300000, VLOOKUP(Sheet1!R95,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R95,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L95" t="str">
-        <f>IF(Sheet1!T95="","",VLOOKUP(Sheet1!T95,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T95="","",IF(Sheet1!T95 &lt; 300000, VLOOKUP(Sheet1!T95,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T95,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -12567,43 +12751,43 @@
         <v>骷髅精灵</v>
       </c>
       <c r="C96" t="str">
-        <f>IF(Sheet1!B96="","",VLOOKUP(Sheet1!B96,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B96="","",IF(Sheet1!B96 &lt; 300000, VLOOKUP(Sheet1!B96,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B96,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="D96" t="str">
-        <f>IF(Sheet1!D96="","",VLOOKUP(Sheet1!D96,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D96="","",IF(Sheet1!D96 &lt; 300000, VLOOKUP(Sheet1!D96,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D96,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="E96" t="str">
-        <f>IF(Sheet1!F96="","",VLOOKUP(Sheet1!F96,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F96="","",IF(Sheet1!F96 &lt; 300000, VLOOKUP(Sheet1!F96,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F96,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="F96" t="str">
-        <f>IF(Sheet1!H96="","",VLOOKUP(Sheet1!H96,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H96="","",IF(Sheet1!H96 &lt; 300000, VLOOKUP(Sheet1!H96,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H96,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G96" t="str">
-        <f>IF(Sheet1!J96="","",VLOOKUP(Sheet1!J96,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J96="","",IF(Sheet1!J96 &lt; 300000, VLOOKUP(Sheet1!J96,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J96,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H96" t="str">
-        <f>IF(Sheet1!L96="","",VLOOKUP(Sheet1!L96,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L96="","",IF(Sheet1!L96 &lt; 300000, VLOOKUP(Sheet1!L96,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L96,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I96" t="str">
-        <f>IF(Sheet1!N96="","",VLOOKUP(Sheet1!N96,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N96="","",IF(Sheet1!N96 &lt; 300000, VLOOKUP(Sheet1!N96,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N96,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J96" t="str">
-        <f>IF(Sheet1!P96="","",VLOOKUP(Sheet1!P96,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P96="","",IF(Sheet1!P96 &lt; 300000, VLOOKUP(Sheet1!P96,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P96,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K96" t="str">
-        <f>IF(Sheet1!R96="","",VLOOKUP(Sheet1!R96,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R96="","",IF(Sheet1!R96 &lt; 300000, VLOOKUP(Sheet1!R96,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R96,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L96" t="str">
-        <f>IF(Sheet1!T96="","",VLOOKUP(Sheet1!T96,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T96="","",IF(Sheet1!T96 &lt; 300000, VLOOKUP(Sheet1!T96,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T96,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -12617,43 +12801,43 @@
         <v>尸王</v>
       </c>
       <c r="C97" t="str">
-        <f>IF(Sheet1!B97="","",VLOOKUP(Sheet1!B97,[2]道具!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B97="","",IF(Sheet1!B97 &lt; 300000, VLOOKUP(Sheet1!B97,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B97,[2]装备!$A$3:$B$248,2)))</f>
         <v>地狱雷光</v>
       </c>
       <c r="D97" t="str">
-        <f>IF(Sheet1!D97="","",VLOOKUP(Sheet1!D97,[2]道具!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D97="","",IF(Sheet1!D97 &lt; 300000, VLOOKUP(Sheet1!D97,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D97,[2]装备!$A$3:$B$248,2)))</f>
         <v>半月弯刀</v>
       </c>
       <c r="E97" t="str">
-        <f>IF(Sheet1!F97="","",VLOOKUP(Sheet1!F97,[2]道具!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F97="","",IF(Sheet1!F97 &lt; 300000, VLOOKUP(Sheet1!F97,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F97,[2]装备!$A$3:$B$248,2)))</f>
         <v>烈火剑法</v>
       </c>
       <c r="F97" t="str">
-        <f>IF(Sheet1!H97="","",VLOOKUP(Sheet1!H97,[2]道具!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H97="","",IF(Sheet1!H97 &lt; 300000, VLOOKUP(Sheet1!H97,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H97,[2]装备!$A$3:$B$248,2)))</f>
         <v>召唤神兽</v>
       </c>
       <c r="G97" t="str">
-        <f>IF(Sheet1!J97="","",VLOOKUP(Sheet1!J97,[2]道具!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J97="","",IF(Sheet1!J97 &lt; 300000, VLOOKUP(Sheet1!J97,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J97,[2]装备!$A$3:$B$248,2)))</f>
         <v>魔法盾</v>
       </c>
       <c r="H97" t="str">
-        <f>IF(Sheet1!L97="","",VLOOKUP(Sheet1!L97,[2]道具!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L97="","",IF(Sheet1!L97 &lt; 300000, VLOOKUP(Sheet1!L97,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L97,[2]装备!$A$3:$B$248,2)))</f>
         <v>冰咆哮</v>
       </c>
       <c r="I97" t="str">
-        <f>IF(Sheet1!N97="","",VLOOKUP(Sheet1!N97,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N97="","",IF(Sheet1!N97 &lt; 300000, VLOOKUP(Sheet1!N97,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N97,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J97" t="str">
-        <f>IF(Sheet1!P97="","",VLOOKUP(Sheet1!P97,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P97="","",IF(Sheet1!P97 &lt; 300000, VLOOKUP(Sheet1!P97,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P97,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K97" t="str">
-        <f>IF(Sheet1!R97="","",VLOOKUP(Sheet1!R97,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R97="","",IF(Sheet1!R97 &lt; 300000, VLOOKUP(Sheet1!R97,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R97,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L97" t="str">
-        <f>IF(Sheet1!T97="","",VLOOKUP(Sheet1!T97,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T97="","",IF(Sheet1!T97 &lt; 300000, VLOOKUP(Sheet1!T97,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T97,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -12667,43 +12851,43 @@
         <v>沃玛卫士</v>
       </c>
       <c r="C98" t="str">
-        <f>IF(Sheet1!B98="","",VLOOKUP(Sheet1!B98,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B98="","",IF(Sheet1!B98 &lt; 300000, VLOOKUP(Sheet1!B98,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B98,[2]装备!$A$3:$B$248,2)))</f>
         <v>魔杖</v>
       </c>
       <c r="D98" t="str">
-        <f>IF(Sheet1!D98="","",VLOOKUP(Sheet1!D98,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D98="","",IF(Sheet1!D98 &lt; 300000, VLOOKUP(Sheet1!D98,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D98,[2]装备!$A$3:$B$248,2)))</f>
         <v>银蛇</v>
       </c>
       <c r="E98" t="str">
-        <f>IF(Sheet1!F98="","",VLOOKUP(Sheet1!F98,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F98="","",IF(Sheet1!F98 &lt; 300000, VLOOKUP(Sheet1!F98,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F98,[2]装备!$A$3:$B$248,2)))</f>
         <v>炼狱</v>
       </c>
       <c r="F98" t="str">
-        <f>IF(Sheet1!H98="","",VLOOKUP(Sheet1!H98,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H98="","",IF(Sheet1!H98 &lt; 300000, VLOOKUP(Sheet1!H98,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H98,[2]装备!$A$3:$B$248,2)))</f>
         <v>生命项链</v>
       </c>
       <c r="G98" t="str">
-        <f>IF(Sheet1!J98="","",VLOOKUP(Sheet1!J98,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J98="","",IF(Sheet1!J98 &lt; 300000, VLOOKUP(Sheet1!J98,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J98,[2]装备!$A$3:$B$248,2)))</f>
         <v>天珠项链</v>
       </c>
       <c r="H98" t="str">
-        <f>IF(Sheet1!L98="","",VLOOKUP(Sheet1!L98,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L98="","",IF(Sheet1!L98 &lt; 300000, VLOOKUP(Sheet1!L98,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L98,[2]装备!$A$3:$B$248,2)))</f>
         <v>幽灵项链</v>
       </c>
       <c r="I98" t="str">
-        <f>IF(Sheet1!N98="","",VLOOKUP(Sheet1!N98,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N98="","",IF(Sheet1!N98 &lt; 300000, VLOOKUP(Sheet1!N98,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N98,[2]装备!$A$3:$B$248,2)))</f>
         <v>思贝儿手镯</v>
       </c>
       <c r="J98" t="str">
-        <f>IF(Sheet1!P98="","",VLOOKUP(Sheet1!P98,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P98="","",IF(Sheet1!P98 &lt; 300000, VLOOKUP(Sheet1!P98,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P98,[2]装备!$A$3:$B$248,2)))</f>
         <v>心灵手镯</v>
       </c>
       <c r="K98" t="str">
-        <f>IF(Sheet1!R98="","",VLOOKUP(Sheet1!R98,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R98="","",IF(Sheet1!R98 &lt; 300000, VLOOKUP(Sheet1!R98,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R98,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L98" t="str">
-        <f>IF(Sheet1!T98="","",VLOOKUP(Sheet1!T98,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T98="","",IF(Sheet1!T98 &lt; 300000, VLOOKUP(Sheet1!T98,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T98,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -12717,43 +12901,43 @@
         <v>沃玛教主</v>
       </c>
       <c r="C99" t="str">
-        <f>IF(Sheet1!B99="","",VLOOKUP(Sheet1!B99,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B99="","",IF(Sheet1!B99 &lt; 300000, VLOOKUP(Sheet1!B99,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B99,[2]装备!$A$3:$B$248,2)))</f>
         <v>祈祷之刃</v>
       </c>
       <c r="D99" t="str">
-        <f>IF(Sheet1!D99="","",VLOOKUP(Sheet1!D99,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D99="","",IF(Sheet1!D99 &lt; 300000, VLOOKUP(Sheet1!D99,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D99,[2]装备!$A$3:$B$248,2)))</f>
         <v>记忆头盔</v>
       </c>
       <c r="E99" t="str">
-        <f>IF(Sheet1!F99="","",VLOOKUP(Sheet1!F99,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F99="","",IF(Sheet1!F99 &lt; 300000, VLOOKUP(Sheet1!F99,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F99,[2]装备!$A$3:$B$248,2)))</f>
         <v>红宝石戒指</v>
       </c>
       <c r="F99" t="str">
-        <f>IF(Sheet1!H99="","",VLOOKUP(Sheet1!H99,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H99="","",IF(Sheet1!H99 &lt; 300000, VLOOKUP(Sheet1!H99,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H99,[2]装备!$A$3:$B$248,2)))</f>
         <v>铂金戒指</v>
       </c>
       <c r="G99" t="str">
-        <f>IF(Sheet1!J99="","",VLOOKUP(Sheet1!J99,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J99="","",IF(Sheet1!J99 &lt; 300000, VLOOKUP(Sheet1!J99,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J99,[2]装备!$A$3:$B$248,2)))</f>
         <v>龙之戒指</v>
       </c>
       <c r="H99" t="str">
-        <f>IF(Sheet1!L99="","",VLOOKUP(Sheet1!L99,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L99="","",IF(Sheet1!L99 &lt; 300000, VLOOKUP(Sheet1!L99,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L99,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I99" t="str">
-        <f>IF(Sheet1!N99="","",VLOOKUP(Sheet1!N99,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N99="","",IF(Sheet1!N99 &lt; 300000, VLOOKUP(Sheet1!N99,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N99,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J99" t="str">
-        <f>IF(Sheet1!P99="","",VLOOKUP(Sheet1!P99,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P99="","",IF(Sheet1!P99 &lt; 300000, VLOOKUP(Sheet1!P99,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P99,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K99" t="str">
-        <f>IF(Sheet1!R99="","",VLOOKUP(Sheet1!R99,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R99="","",IF(Sheet1!R99 &lt; 300000, VLOOKUP(Sheet1!R99,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R99,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L99" t="str">
-        <f>IF(Sheet1!T99="","",VLOOKUP(Sheet1!T99,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T99="","",IF(Sheet1!T99 &lt; 300000, VLOOKUP(Sheet1!T99,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T99,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -12767,43 +12951,43 @@
         <v>巨型多角虫</v>
       </c>
       <c r="C100" t="str">
-        <f>IF(Sheet1!B100="","",VLOOKUP(Sheet1!B100,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B100="","",IF(Sheet1!B100 &lt; 300000, VLOOKUP(Sheet1!B100,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B100,[2]装备!$A$3:$B$248,2)))</f>
         <v>八荒</v>
       </c>
       <c r="D100" t="str">
-        <f>IF(Sheet1!D100="","",VLOOKUP(Sheet1!D100,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D100="","",IF(Sheet1!D100 &lt; 300000, VLOOKUP(Sheet1!D100,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D100,[2]装备!$A$3:$B$248,2)))</f>
         <v>半月</v>
       </c>
       <c r="E100" t="str">
-        <f>IF(Sheet1!F100="","",VLOOKUP(Sheet1!F100,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F100="","",IF(Sheet1!F100 &lt; 300000, VLOOKUP(Sheet1!F100,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F100,[2]装备!$A$3:$B$248,2)))</f>
         <v>降魔</v>
       </c>
       <c r="F100" t="str">
-        <f>IF(Sheet1!H100="","",VLOOKUP(Sheet1!H100,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H100="","",IF(Sheet1!H100 &lt; 300000, VLOOKUP(Sheet1!H100,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H100,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G100" t="str">
-        <f>IF(Sheet1!J100="","",VLOOKUP(Sheet1!J100,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J100="","",IF(Sheet1!J100 &lt; 300000, VLOOKUP(Sheet1!J100,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J100,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H100" t="str">
-        <f>IF(Sheet1!L100="","",VLOOKUP(Sheet1!L100,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L100="","",IF(Sheet1!L100 &lt; 300000, VLOOKUP(Sheet1!L100,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L100,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I100" t="str">
-        <f>IF(Sheet1!N100="","",VLOOKUP(Sheet1!N100,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N100="","",IF(Sheet1!N100 &lt; 300000, VLOOKUP(Sheet1!N100,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N100,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J100" t="str">
-        <f>IF(Sheet1!P100="","",VLOOKUP(Sheet1!P100,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P100="","",IF(Sheet1!P100 &lt; 300000, VLOOKUP(Sheet1!P100,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P100,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K100" t="str">
-        <f>IF(Sheet1!R100="","",VLOOKUP(Sheet1!R100,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R100="","",IF(Sheet1!R100 &lt; 300000, VLOOKUP(Sheet1!R100,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R100,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L100" t="str">
-        <f>IF(Sheet1!T100="","",VLOOKUP(Sheet1!T100,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T100="","",IF(Sheet1!T100 &lt; 300000, VLOOKUP(Sheet1!T100,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T100,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -12817,43 +13001,43 @@
         <v>巨型多角虫</v>
       </c>
       <c r="C101" t="str">
-        <f>IF(Sheet1!B101="","",VLOOKUP(Sheet1!B101,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B101="","",IF(Sheet1!B101 &lt; 300000, VLOOKUP(Sheet1!B101,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B101,[2]装备!$A$3:$B$248,2)))</f>
         <v>海魂</v>
       </c>
       <c r="D101" t="str">
-        <f>IF(Sheet1!D101="","",VLOOKUP(Sheet1!D101,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D101="","",IF(Sheet1!D101 &lt; 300000, VLOOKUP(Sheet1!D101,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D101,[2]装备!$A$3:$B$248,2)))</f>
         <v>斩马刀</v>
       </c>
       <c r="E101" t="str">
-        <f>IF(Sheet1!F101="","",VLOOKUP(Sheet1!F101,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F101="","",IF(Sheet1!F101 &lt; 300000, VLOOKUP(Sheet1!F101,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F101,[2]装备!$A$3:$B$248,2)))</f>
         <v>修罗</v>
       </c>
       <c r="F101" t="str">
-        <f>IF(Sheet1!H101="","",VLOOKUP(Sheet1!H101,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H101="","",IF(Sheet1!H101 &lt; 300000, VLOOKUP(Sheet1!H101,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H101,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G101" t="str">
-        <f>IF(Sheet1!J101="","",VLOOKUP(Sheet1!J101,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J101="","",IF(Sheet1!J101 &lt; 300000, VLOOKUP(Sheet1!J101,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J101,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H101" t="str">
-        <f>IF(Sheet1!L101="","",VLOOKUP(Sheet1!L101,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L101="","",IF(Sheet1!L101 &lt; 300000, VLOOKUP(Sheet1!L101,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L101,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I101" t="str">
-        <f>IF(Sheet1!N101="","",VLOOKUP(Sheet1!N101,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N101="","",IF(Sheet1!N101 &lt; 300000, VLOOKUP(Sheet1!N101,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N101,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J101" t="str">
-        <f>IF(Sheet1!P101="","",VLOOKUP(Sheet1!P101,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P101="","",IF(Sheet1!P101 &lt; 300000, VLOOKUP(Sheet1!P101,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P101,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K101" t="str">
-        <f>IF(Sheet1!R101="","",VLOOKUP(Sheet1!R101,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R101="","",IF(Sheet1!R101 &lt; 300000, VLOOKUP(Sheet1!R101,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R101,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L101" t="str">
-        <f>IF(Sheet1!T101="","",VLOOKUP(Sheet1!T101,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T101="","",IF(Sheet1!T101 &lt; 300000, VLOOKUP(Sheet1!T101,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T101,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -12867,43 +13051,43 @@
         <v>神鹰</v>
       </c>
       <c r="C102" t="str">
-        <f>IF(Sheet1!B102="","",VLOOKUP(Sheet1!B102,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B102="","",IF(Sheet1!B102 &lt; 300000, VLOOKUP(Sheet1!B102,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B102,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="D102" t="str">
-        <f>IF(Sheet1!D102="","",VLOOKUP(Sheet1!D102,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D102="","",IF(Sheet1!D102 &lt; 300000, VLOOKUP(Sheet1!D102,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D102,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="E102" t="str">
-        <f>IF(Sheet1!F102="","",VLOOKUP(Sheet1!F102,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F102="","",IF(Sheet1!F102 &lt; 300000, VLOOKUP(Sheet1!F102,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F102,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="F102" t="str">
-        <f>IF(Sheet1!H102="","",VLOOKUP(Sheet1!H102,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H102="","",IF(Sheet1!H102 &lt; 300000, VLOOKUP(Sheet1!H102,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H102,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G102" t="str">
-        <f>IF(Sheet1!J102="","",VLOOKUP(Sheet1!J102,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J102="","",IF(Sheet1!J102 &lt; 300000, VLOOKUP(Sheet1!J102,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J102,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H102" t="str">
-        <f>IF(Sheet1!L102="","",VLOOKUP(Sheet1!L102,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L102="","",IF(Sheet1!L102 &lt; 300000, VLOOKUP(Sheet1!L102,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L102,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I102" t="str">
-        <f>IF(Sheet1!N102="","",VLOOKUP(Sheet1!N102,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N102="","",IF(Sheet1!N102 &lt; 300000, VLOOKUP(Sheet1!N102,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N102,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J102" t="str">
-        <f>IF(Sheet1!P102="","",VLOOKUP(Sheet1!P102,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P102="","",IF(Sheet1!P102 &lt; 300000, VLOOKUP(Sheet1!P102,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P102,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K102" t="str">
-        <f>IF(Sheet1!R102="","",VLOOKUP(Sheet1!R102,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R102="","",IF(Sheet1!R102 &lt; 300000, VLOOKUP(Sheet1!R102,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R102,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L102" t="str">
-        <f>IF(Sheet1!T102="","",VLOOKUP(Sheet1!T102,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T102="","",IF(Sheet1!T102 &lt; 300000, VLOOKUP(Sheet1!T102,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T102,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -12917,43 +13101,43 @@
         <v>邪恶钳虫</v>
       </c>
       <c r="C103" t="str">
-        <f>IF(Sheet1!B103="","",VLOOKUP(Sheet1!B103,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B103="","",IF(Sheet1!B103 &lt; 300000, VLOOKUP(Sheet1!B103,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B103,[2]装备!$A$3:$B$248,2)))</f>
         <v>无极棍</v>
       </c>
       <c r="D103" t="str">
-        <f>IF(Sheet1!D103="","",VLOOKUP(Sheet1!D103,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D103="","",IF(Sheet1!D103 &lt; 300000, VLOOKUP(Sheet1!D103,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D103,[2]装备!$A$3:$B$248,2)))</f>
         <v>记忆项链</v>
       </c>
       <c r="E103" t="str">
-        <f>IF(Sheet1!F103="","",VLOOKUP(Sheet1!F103,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F103="","",IF(Sheet1!F103 &lt; 300000, VLOOKUP(Sheet1!F103,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F103,[2]装备!$A$3:$B$248,2)))</f>
         <v>生命项链</v>
       </c>
       <c r="F103" t="str">
-        <f>IF(Sheet1!H103="","",VLOOKUP(Sheet1!H103,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H103="","",IF(Sheet1!H103 &lt; 300000, VLOOKUP(Sheet1!H103,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H103,[2]装备!$A$3:$B$248,2)))</f>
         <v>天珠项链</v>
       </c>
       <c r="G103" t="str">
-        <f>IF(Sheet1!J103="","",VLOOKUP(Sheet1!J103,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J103="","",IF(Sheet1!J103 &lt; 300000, VLOOKUP(Sheet1!J103,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J103,[2]装备!$A$3:$B$248,2)))</f>
         <v>幽灵项链</v>
       </c>
       <c r="H103" t="str">
-        <f>IF(Sheet1!L103="","",VLOOKUP(Sheet1!L103,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L103="","",IF(Sheet1!L103 &lt; 300000, VLOOKUP(Sheet1!L103,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L103,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I103" t="str">
-        <f>IF(Sheet1!N103="","",VLOOKUP(Sheet1!N103,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N103="","",IF(Sheet1!N103 &lt; 300000, VLOOKUP(Sheet1!N103,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N103,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J103" t="str">
-        <f>IF(Sheet1!P103="","",VLOOKUP(Sheet1!P103,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P103="","",IF(Sheet1!P103 &lt; 300000, VLOOKUP(Sheet1!P103,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P103,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K103" t="str">
-        <f>IF(Sheet1!R103="","",VLOOKUP(Sheet1!R103,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R103="","",IF(Sheet1!R103 &lt; 300000, VLOOKUP(Sheet1!R103,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R103,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L103" t="str">
-        <f>IF(Sheet1!T103="","",VLOOKUP(Sheet1!T103,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T103="","",IF(Sheet1!T103 &lt; 300000, VLOOKUP(Sheet1!T103,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T103,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -12967,43 +13151,43 @@
         <v>触龙神</v>
       </c>
       <c r="C104" t="str">
-        <f>IF(Sheet1!B104="","",VLOOKUP(Sheet1!B104,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B104="","",IF(Sheet1!B104 &lt; 300000, VLOOKUP(Sheet1!B104,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B104,[2]装备!$A$3:$B$248,2)))</f>
         <v>祈祷头盔</v>
       </c>
       <c r="D104" t="str">
-        <f>IF(Sheet1!D104="","",VLOOKUP(Sheet1!D104,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D104="","",IF(Sheet1!D104 &lt; 300000, VLOOKUP(Sheet1!D104,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D104,[2]装备!$A$3:$B$248,2)))</f>
         <v>记忆手镯</v>
       </c>
       <c r="E104" t="str">
-        <f>IF(Sheet1!F104="","",VLOOKUP(Sheet1!F104,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F104="","",IF(Sheet1!F104 &lt; 300000, VLOOKUP(Sheet1!F104,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F104,[2]装备!$A$3:$B$248,2)))</f>
         <v>龙之戒指</v>
       </c>
       <c r="F104" t="str">
-        <f>IF(Sheet1!H104="","",VLOOKUP(Sheet1!H104,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H104="","",IF(Sheet1!H104 &lt; 300000, VLOOKUP(Sheet1!H104,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H104,[2]装备!$A$3:$B$248,2)))</f>
         <v>红宝石戒指</v>
       </c>
       <c r="G104" t="str">
-        <f>IF(Sheet1!J104="","",VLOOKUP(Sheet1!J104,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J104="","",IF(Sheet1!J104 &lt; 300000, VLOOKUP(Sheet1!J104,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J104,[2]装备!$A$3:$B$248,2)))</f>
         <v>铂金戒指</v>
       </c>
       <c r="H104" t="str">
-        <f>IF(Sheet1!L104="","",VLOOKUP(Sheet1!L104,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L104="","",IF(Sheet1!L104 &lt; 300000, VLOOKUP(Sheet1!L104,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L104,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I104" t="str">
-        <f>IF(Sheet1!N104="","",VLOOKUP(Sheet1!N104,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N104="","",IF(Sheet1!N104 &lt; 300000, VLOOKUP(Sheet1!N104,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N104,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J104" t="str">
-        <f>IF(Sheet1!P104="","",VLOOKUP(Sheet1!P104,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P104="","",IF(Sheet1!P104 &lt; 300000, VLOOKUP(Sheet1!P104,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P104,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K104" t="str">
-        <f>IF(Sheet1!R104="","",VLOOKUP(Sheet1!R104,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R104="","",IF(Sheet1!R104 &lt; 300000, VLOOKUP(Sheet1!R104,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R104,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L104" t="str">
-        <f>IF(Sheet1!T104="","",VLOOKUP(Sheet1!T104,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T104="","",IF(Sheet1!T104 &lt; 300000, VLOOKUP(Sheet1!T104,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T104,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -13017,43 +13201,43 @@
         <v>邪恶毒蛇</v>
       </c>
       <c r="C105" t="str">
-        <f>IF(Sheet1!B105="","",VLOOKUP(Sheet1!B105,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B105="","",IF(Sheet1!B105 &lt; 300000, VLOOKUP(Sheet1!B105,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B105,[2]装备!$A$3:$B$248,2)))</f>
         <v>魔杖</v>
       </c>
       <c r="D105" t="str">
-        <f>IF(Sheet1!D105="","",VLOOKUP(Sheet1!D105,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D105="","",IF(Sheet1!D105 &lt; 300000, VLOOKUP(Sheet1!D105,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D105,[2]装备!$A$3:$B$248,2)))</f>
         <v>生命项链</v>
       </c>
       <c r="E105" t="str">
-        <f>IF(Sheet1!F105="","",VLOOKUP(Sheet1!F105,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F105="","",IF(Sheet1!F105 &lt; 300000, VLOOKUP(Sheet1!F105,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F105,[2]装备!$A$3:$B$248,2)))</f>
         <v>龙之戒指</v>
       </c>
       <c r="F105" t="str">
-        <f>IF(Sheet1!H105="","",VLOOKUP(Sheet1!H105,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H105="","",IF(Sheet1!H105 &lt; 300000, VLOOKUP(Sheet1!H105,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H105,[2]装备!$A$3:$B$248,2)))</f>
         <v>思贝儿手镯</v>
       </c>
       <c r="G105" t="str">
-        <f>IF(Sheet1!J105="","",VLOOKUP(Sheet1!J105,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J105="","",IF(Sheet1!J105 &lt; 300000, VLOOKUP(Sheet1!J105,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J105,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H105" t="str">
-        <f>IF(Sheet1!L105="","",VLOOKUP(Sheet1!L105,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L105="","",IF(Sheet1!L105 &lt; 300000, VLOOKUP(Sheet1!L105,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L105,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I105" t="str">
-        <f>IF(Sheet1!N105="","",VLOOKUP(Sheet1!N105,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N105="","",IF(Sheet1!N105 &lt; 300000, VLOOKUP(Sheet1!N105,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N105,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J105" t="str">
-        <f>IF(Sheet1!P105="","",VLOOKUP(Sheet1!P105,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P105="","",IF(Sheet1!P105 &lt; 300000, VLOOKUP(Sheet1!P105,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P105,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K105" t="str">
-        <f>IF(Sheet1!R105="","",VLOOKUP(Sheet1!R105,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R105="","",IF(Sheet1!R105 &lt; 300000, VLOOKUP(Sheet1!R105,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R105,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L105" t="str">
-        <f>IF(Sheet1!T105="","",VLOOKUP(Sheet1!T105,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T105="","",IF(Sheet1!T105 &lt; 300000, VLOOKUP(Sheet1!T105,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T105,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -13067,43 +13251,43 @@
         <v>白野猪</v>
       </c>
       <c r="C106" t="str">
-        <f>IF(Sheet1!B106="","",VLOOKUP(Sheet1!B106,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B106="","",IF(Sheet1!B106 &lt; 300000, VLOOKUP(Sheet1!B106,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B106,[2]装备!$A$3:$B$248,2)))</f>
         <v>银蛇</v>
       </c>
       <c r="D106" t="str">
-        <f>IF(Sheet1!D106="","",VLOOKUP(Sheet1!D106,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D106="","",IF(Sheet1!D106 &lt; 300000, VLOOKUP(Sheet1!D106,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D106,[2]装备!$A$3:$B$248,2)))</f>
         <v>天珠项链</v>
       </c>
       <c r="E106" t="str">
-        <f>IF(Sheet1!F106="","",VLOOKUP(Sheet1!F106,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F106="","",IF(Sheet1!F106 &lt; 300000, VLOOKUP(Sheet1!F106,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F106,[2]装备!$A$3:$B$248,2)))</f>
         <v>红宝石戒指</v>
       </c>
       <c r="F106" t="str">
-        <f>IF(Sheet1!H106="","",VLOOKUP(Sheet1!H106,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H106="","",IF(Sheet1!H106 &lt; 300000, VLOOKUP(Sheet1!H106,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H106,[2]装备!$A$3:$B$248,2)))</f>
         <v>心灵手镯</v>
       </c>
       <c r="G106" t="str">
-        <f>IF(Sheet1!J106="","",VLOOKUP(Sheet1!J106,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J106="","",IF(Sheet1!J106 &lt; 300000, VLOOKUP(Sheet1!J106,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J106,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H106" t="str">
-        <f>IF(Sheet1!L106="","",VLOOKUP(Sheet1!L106,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L106="","",IF(Sheet1!L106 &lt; 300000, VLOOKUP(Sheet1!L106,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L106,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I106" t="str">
-        <f>IF(Sheet1!N106="","",VLOOKUP(Sheet1!N106,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N106="","",IF(Sheet1!N106 &lt; 300000, VLOOKUP(Sheet1!N106,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N106,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J106" t="str">
-        <f>IF(Sheet1!P106="","",VLOOKUP(Sheet1!P106,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P106="","",IF(Sheet1!P106 &lt; 300000, VLOOKUP(Sheet1!P106,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P106,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K106" t="str">
-        <f>IF(Sheet1!R106="","",VLOOKUP(Sheet1!R106,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R106="","",IF(Sheet1!R106 &lt; 300000, VLOOKUP(Sheet1!R106,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R106,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L106" t="str">
-        <f>IF(Sheet1!T106="","",VLOOKUP(Sheet1!T106,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T106="","",IF(Sheet1!T106 &lt; 300000, VLOOKUP(Sheet1!T106,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T106,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -13117,43 +13301,43 @@
         <v>古墓石王</v>
       </c>
       <c r="C107" t="str">
-        <f>IF(Sheet1!B107="","",VLOOKUP(Sheet1!B107,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B107="","",IF(Sheet1!B107 &lt; 300000, VLOOKUP(Sheet1!B107,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B107,[2]装备!$A$3:$B$248,2)))</f>
         <v>炼狱</v>
       </c>
       <c r="D107" t="str">
-        <f>IF(Sheet1!D107="","",VLOOKUP(Sheet1!D107,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D107="","",IF(Sheet1!D107 &lt; 300000, VLOOKUP(Sheet1!D107,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D107,[2]装备!$A$3:$B$248,2)))</f>
         <v>幽灵项链</v>
       </c>
       <c r="E107" t="str">
-        <f>IF(Sheet1!F107="","",VLOOKUP(Sheet1!F107,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F107="","",IF(Sheet1!F107 &lt; 300000, VLOOKUP(Sheet1!F107,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F107,[2]装备!$A$3:$B$248,2)))</f>
         <v>铂金戒指</v>
       </c>
       <c r="F107" t="str">
-        <f>IF(Sheet1!H107="","",VLOOKUP(Sheet1!H107,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H107="","",IF(Sheet1!H107 &lt; 300000, VLOOKUP(Sheet1!H107,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H107,[2]装备!$A$3:$B$248,2)))</f>
         <v>记忆戒指</v>
       </c>
       <c r="G107" t="str">
-        <f>IF(Sheet1!J107="","",VLOOKUP(Sheet1!J107,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J107="","",IF(Sheet1!J107 &lt; 300000, VLOOKUP(Sheet1!J107,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J107,[2]装备!$A$3:$B$248,2)))</f>
         <v>祈祷戒指</v>
       </c>
       <c r="H107" t="str">
-        <f>IF(Sheet1!L107="","",VLOOKUP(Sheet1!L107,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L107="","",IF(Sheet1!L107 &lt; 300000, VLOOKUP(Sheet1!L107,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L107,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I107" t="str">
-        <f>IF(Sheet1!N107="","",VLOOKUP(Sheet1!N107,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N107="","",IF(Sheet1!N107 &lt; 300000, VLOOKUP(Sheet1!N107,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N107,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J107" t="str">
-        <f>IF(Sheet1!P107="","",VLOOKUP(Sheet1!P107,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P107="","",IF(Sheet1!P107 &lt; 300000, VLOOKUP(Sheet1!P107,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P107,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K107" t="str">
-        <f>IF(Sheet1!R107="","",VLOOKUP(Sheet1!R107,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R107="","",IF(Sheet1!R107 &lt; 300000, VLOOKUP(Sheet1!R107,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R107,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L107" t="str">
-        <f>IF(Sheet1!T107="","",VLOOKUP(Sheet1!T107,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T107="","",IF(Sheet1!T107 &lt; 300000, VLOOKUP(Sheet1!T107,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T107,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -13167,43 +13351,43 @@
         <v>祖玛教主</v>
       </c>
       <c r="C108" t="str">
-        <f>IF(Sheet1!B108="","",VLOOKUP(Sheet1!B108,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B108="","",IF(Sheet1!B108 &lt; 300000, VLOOKUP(Sheet1!B108,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B108,[2]装备!$A$3:$B$248,2)))</f>
         <v>命运之刃</v>
       </c>
       <c r="D108" t="str">
-        <f>IF(Sheet1!D108="","",VLOOKUP(Sheet1!D108,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D108="","",IF(Sheet1!D108 &lt; 300000, VLOOKUP(Sheet1!D108,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D108,[2]装备!$A$3:$B$248,2)))</f>
+        <v>裁决之杖</v>
+      </c>
+      <c r="E108" t="str">
+        <f>IF(Sheet1!F108="","",IF(Sheet1!F108 &lt; 300000, VLOOKUP(Sheet1!F108,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F108,[2]装备!$A$3:$B$248,2)))</f>
+        <v>骨玉权杖</v>
+      </c>
+      <c r="F108" t="str">
+        <f>IF(Sheet1!H108="","",IF(Sheet1!H108 &lt; 300000, VLOOKUP(Sheet1!H108,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H108,[2]装备!$A$3:$B$248,2)))</f>
+        <v>龙纹剑</v>
+      </c>
+      <c r="G108" t="str">
+        <f>IF(Sheet1!J108="","",IF(Sheet1!J108 &lt; 300000, VLOOKUP(Sheet1!J108,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J108,[2]装备!$A$3:$B$248,2)))</f>
         <v>黑铁头盔</v>
       </c>
-      <c r="E108" t="str">
-        <f>IF(Sheet1!F108="","",VLOOKUP(Sheet1!F108,[2]装备!$A$3:$B$248,2))</f>
-        <v>祈祷项链</v>
-      </c>
-      <c r="F108" t="str">
-        <f>IF(Sheet1!H108="","",VLOOKUP(Sheet1!H108,[2]装备!$A$3:$B$248,2))</f>
-        <v>祈祷手镯</v>
-      </c>
-      <c r="G108" t="str">
-        <f>IF(Sheet1!J108="","",VLOOKUP(Sheet1!J108,[2]装备!$A$3:$B$248,2))</f>
-        <v/>
-      </c>
       <c r="H108" t="str">
-        <f>IF(Sheet1!L108="","",VLOOKUP(Sheet1!L108,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L108="","",IF(Sheet1!L108 &lt; 300000, VLOOKUP(Sheet1!L108,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L108,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I108" t="str">
-        <f>IF(Sheet1!N108="","",VLOOKUP(Sheet1!N108,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N108="","",IF(Sheet1!N108 &lt; 300000, VLOOKUP(Sheet1!N108,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N108,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J108" t="str">
-        <f>IF(Sheet1!P108="","",VLOOKUP(Sheet1!P108,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P108="","",IF(Sheet1!P108 &lt; 300000, VLOOKUP(Sheet1!P108,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P108,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K108" t="str">
-        <f>IF(Sheet1!R108="","",VLOOKUP(Sheet1!R108,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R108="","",IF(Sheet1!R108 &lt; 300000, VLOOKUP(Sheet1!R108,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R108,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L108" t="str">
-        <f>IF(Sheet1!T108="","",VLOOKUP(Sheet1!T108,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T108="","",IF(Sheet1!T108 &lt; 300000, VLOOKUP(Sheet1!T108,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T108,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -13217,43 +13401,43 @@
         <v>双头血魔</v>
       </c>
       <c r="C109" t="str">
-        <f>IF(Sheet1!B109="","",VLOOKUP(Sheet1!B109,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B109="","",IF(Sheet1!B109 &lt; 300000, VLOOKUP(Sheet1!B109,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B109,[2]装备!$A$3:$B$248,2)))</f>
         <v>赤血魔剑</v>
       </c>
       <c r="D109" t="str">
-        <f>IF(Sheet1!D109="","",VLOOKUP(Sheet1!D109,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D109="","",IF(Sheet1!D109 &lt; 300000, VLOOKUP(Sheet1!D109,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D109,[2]装备!$A$3:$B$248,2)))</f>
         <v>圣战头盔</v>
       </c>
       <c r="E109" t="str">
-        <f>IF(Sheet1!F109="","",VLOOKUP(Sheet1!F109,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F109="","",IF(Sheet1!F109 &lt; 300000, VLOOKUP(Sheet1!F109,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F109,[2]装备!$A$3:$B$248,2)))</f>
         <v>法神头盔</v>
       </c>
       <c r="F109" t="str">
-        <f>IF(Sheet1!H109="","",VLOOKUP(Sheet1!H109,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H109="","",IF(Sheet1!H109 &lt; 300000, VLOOKUP(Sheet1!H109,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H109,[2]装备!$A$3:$B$248,2)))</f>
         <v>天尊头盔</v>
       </c>
       <c r="G109" t="str">
-        <f>IF(Sheet1!J109="","",VLOOKUP(Sheet1!J109,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J109="","",IF(Sheet1!J109 &lt; 300000, VLOOKUP(Sheet1!J109,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J109,[2]装备!$A$3:$B$248,2)))</f>
         <v>圣战手镯</v>
       </c>
       <c r="H109" t="str">
-        <f>IF(Sheet1!L109="","",VLOOKUP(Sheet1!L109,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L109="","",IF(Sheet1!L109 &lt; 300000, VLOOKUP(Sheet1!L109,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L109,[2]装备!$A$3:$B$248,2)))</f>
         <v>法神手镯</v>
       </c>
       <c r="I109" t="str">
-        <f>IF(Sheet1!N109="","",VLOOKUP(Sheet1!N109,[2]装备!$A$3:$B$248,2))</f>
-        <v>天尊手镯</v>
+        <f>IF(Sheet1!N109="","",IF(Sheet1!N109 &lt; 300000, VLOOKUP(Sheet1!N109,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N109,[2]装备!$A$3:$B$248,2)))</f>
+        <v/>
       </c>
       <c r="J109" t="str">
-        <f>IF(Sheet1!P109="","",VLOOKUP(Sheet1!P109,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P109="","",IF(Sheet1!P109 &lt; 300000, VLOOKUP(Sheet1!P109,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P109,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K109" t="str">
-        <f>IF(Sheet1!R109="","",VLOOKUP(Sheet1!R109,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R109="","",IF(Sheet1!R109 &lt; 300000, VLOOKUP(Sheet1!R109,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R109,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L109" t="str">
-        <f>IF(Sheet1!T109="","",VLOOKUP(Sheet1!T109,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T109="","",IF(Sheet1!T109 &lt; 300000, VLOOKUP(Sheet1!T109,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T109,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -13267,43 +13451,43 @@
         <v>双头金刚</v>
       </c>
       <c r="C110" t="str">
-        <f>IF(Sheet1!B110="","",VLOOKUP(Sheet1!B110,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B110="","",IF(Sheet1!B110 &lt; 300000, VLOOKUP(Sheet1!B110,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B110,[2]装备!$A$3:$B$248,2)))</f>
         <v>血饮</v>
       </c>
       <c r="D110" t="str">
-        <f>IF(Sheet1!D110="","",VLOOKUP(Sheet1!D110,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D110="","",IF(Sheet1!D110 &lt; 300000, VLOOKUP(Sheet1!D110,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D110,[2]装备!$A$3:$B$248,2)))</f>
         <v>圣战项链</v>
       </c>
       <c r="E110" t="str">
-        <f>IF(Sheet1!F110="","",VLOOKUP(Sheet1!F110,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F110="","",IF(Sheet1!F110 &lt; 300000, VLOOKUP(Sheet1!F110,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F110,[2]装备!$A$3:$B$248,2)))</f>
         <v>法神项链</v>
       </c>
       <c r="F110" t="str">
-        <f>IF(Sheet1!H110="","",VLOOKUP(Sheet1!H110,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H110="","",IF(Sheet1!H110 &lt; 300000, VLOOKUP(Sheet1!H110,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H110,[2]装备!$A$3:$B$248,2)))</f>
         <v>天尊项链</v>
       </c>
       <c r="G110" t="str">
-        <f>IF(Sheet1!J110="","",VLOOKUP(Sheet1!J110,[2]装备!$A$3:$B$248,2))</f>
-        <v>圣战戒指</v>
+        <f>IF(Sheet1!J110="","",IF(Sheet1!J110 &lt; 300000, VLOOKUP(Sheet1!J110,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J110,[2]装备!$A$3:$B$248,2)))</f>
+        <v>天尊手镯</v>
       </c>
       <c r="H110" t="str">
-        <f>IF(Sheet1!L110="","",VLOOKUP(Sheet1!L110,[2]装备!$A$3:$B$248,2))</f>
-        <v>法神戒指</v>
+        <f>IF(Sheet1!L110="","",IF(Sheet1!L110 &lt; 300000, VLOOKUP(Sheet1!L110,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L110,[2]装备!$A$3:$B$248,2)))</f>
+        <v/>
       </c>
       <c r="I110" t="str">
-        <f>IF(Sheet1!N110="","",VLOOKUP(Sheet1!N110,[2]装备!$A$3:$B$248,2))</f>
-        <v>天尊戒指</v>
+        <f>IF(Sheet1!N110="","",IF(Sheet1!N110 &lt; 300000, VLOOKUP(Sheet1!N110,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N110,[2]装备!$A$3:$B$248,2)))</f>
+        <v/>
       </c>
       <c r="J110" t="str">
-        <f>IF(Sheet1!P110="","",VLOOKUP(Sheet1!P110,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P110="","",IF(Sheet1!P110 &lt; 300000, VLOOKUP(Sheet1!P110,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P110,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K110" t="str">
-        <f>IF(Sheet1!R110="","",VLOOKUP(Sheet1!R110,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R110="","",IF(Sheet1!R110 &lt; 300000, VLOOKUP(Sheet1!R110,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R110,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L110" t="str">
-        <f>IF(Sheet1!T110="","",VLOOKUP(Sheet1!T110,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T110="","",IF(Sheet1!T110 &lt; 300000, VLOOKUP(Sheet1!T110,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T110,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -13317,43 +13501,43 @@
         <v>赤月恶魔</v>
       </c>
       <c r="C111" t="str">
-        <f>IF(Sheet1!B111="","",VLOOKUP(Sheet1!B111,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B111="","",IF(Sheet1!B111 &lt; 300000, VLOOKUP(Sheet1!B111,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B111,[2]装备!$A$3:$B$248,2)))</f>
         <v>嗜魂法杖</v>
       </c>
       <c r="D111" t="str">
-        <f>IF(Sheet1!D111="","",VLOOKUP(Sheet1!D111,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D111="","",IF(Sheet1!D111 &lt; 300000, VLOOKUP(Sheet1!D111,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D111,[2]装备!$A$3:$B$248,2)))</f>
         <v>屠龙</v>
       </c>
       <c r="E111" t="str">
-        <f>IF(Sheet1!F111="","",VLOOKUP(Sheet1!F111,[2]装备!$A$3:$B$248,2))</f>
-        <v/>
+        <f>IF(Sheet1!F111="","",IF(Sheet1!F111 &lt; 300000, VLOOKUP(Sheet1!F111,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F111,[2]装备!$A$3:$B$248,2)))</f>
+        <v>圣战戒指</v>
       </c>
       <c r="F111" t="str">
-        <f>IF(Sheet1!H111="","",VLOOKUP(Sheet1!H111,[2]装备!$A$3:$B$248,2))</f>
-        <v/>
+        <f>IF(Sheet1!H111="","",IF(Sheet1!H111 &lt; 300000, VLOOKUP(Sheet1!H111,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H111,[2]装备!$A$3:$B$248,2)))</f>
+        <v>法神戒指</v>
       </c>
       <c r="G111" t="str">
-        <f>IF(Sheet1!J111="","",VLOOKUP(Sheet1!J111,[2]装备!$A$3:$B$248,2))</f>
-        <v/>
+        <f>IF(Sheet1!J111="","",IF(Sheet1!J111 &lt; 300000, VLOOKUP(Sheet1!J111,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J111,[2]装备!$A$3:$B$248,2)))</f>
+        <v>天尊戒指</v>
       </c>
       <c r="H111" t="str">
-        <f>IF(Sheet1!L111="","",VLOOKUP(Sheet1!L111,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L111="","",IF(Sheet1!L111 &lt; 300000, VLOOKUP(Sheet1!L111,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L111,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I111" t="str">
-        <f>IF(Sheet1!N111="","",VLOOKUP(Sheet1!N111,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N111="","",IF(Sheet1!N111 &lt; 300000, VLOOKUP(Sheet1!N111,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N111,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J111" t="str">
-        <f>IF(Sheet1!P111="","",VLOOKUP(Sheet1!P111,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P111="","",IF(Sheet1!P111 &lt; 300000, VLOOKUP(Sheet1!P111,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P111,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K111" t="str">
-        <f>IF(Sheet1!R111="","",VLOOKUP(Sheet1!R111,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R111="","",IF(Sheet1!R111 &lt; 300000, VLOOKUP(Sheet1!R111,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R111,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L111" t="str">
-        <f>IF(Sheet1!T111="","",VLOOKUP(Sheet1!T111,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T111="","",IF(Sheet1!T111 &lt; 300000, VLOOKUP(Sheet1!T111,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T111,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -13367,43 +13551,43 @@
         <v>黄泉教主</v>
       </c>
       <c r="C112" t="str">
-        <f>IF(Sheet1!B112="","",VLOOKUP(Sheet1!B112,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B112="","",IF(Sheet1!B112 &lt; 300000, VLOOKUP(Sheet1!B112,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B112,[2]装备!$A$3:$B$248,2)))</f>
         <v>裁决之杖</v>
       </c>
       <c r="D112" t="str">
-        <f>IF(Sheet1!D112="","",VLOOKUP(Sheet1!D112,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D112="","",IF(Sheet1!D112 &lt; 300000, VLOOKUP(Sheet1!D112,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D112,[2]装备!$A$3:$B$248,2)))</f>
         <v>骨玉权杖</v>
       </c>
       <c r="E112" t="str">
-        <f>IF(Sheet1!F112="","",VLOOKUP(Sheet1!F112,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F112="","",IF(Sheet1!F112 &lt; 300000, VLOOKUP(Sheet1!F112,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F112,[2]装备!$A$3:$B$248,2)))</f>
         <v>龙纹剑</v>
       </c>
       <c r="F112" t="str">
-        <f>IF(Sheet1!H112="","",VLOOKUP(Sheet1!H112,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H112="","",IF(Sheet1!H112 &lt; 300000, VLOOKUP(Sheet1!H112,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H112,[2]装备!$A$3:$B$248,2)))</f>
         <v>龙牙</v>
       </c>
       <c r="G112" t="str">
-        <f>IF(Sheet1!J112="","",VLOOKUP(Sheet1!J112,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J112="","",IF(Sheet1!J112 &lt; 300000, VLOOKUP(Sheet1!J112,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J112,[2]装备!$A$3:$B$248,2)))</f>
         <v>怒斩</v>
       </c>
       <c r="H112" t="str">
-        <f>IF(Sheet1!L112="","",VLOOKUP(Sheet1!L112,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L112="","",IF(Sheet1!L112 &lt; 300000, VLOOKUP(Sheet1!L112,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L112,[2]装备!$A$3:$B$248,2)))</f>
         <v>逍遥扇</v>
       </c>
       <c r="I112" t="str">
-        <f>IF(Sheet1!N112="","",VLOOKUP(Sheet1!N112,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N112="","",IF(Sheet1!N112 &lt; 300000, VLOOKUP(Sheet1!N112,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N112,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J112" t="str">
-        <f>IF(Sheet1!P112="","",VLOOKUP(Sheet1!P112,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P112="","",IF(Sheet1!P112 &lt; 300000, VLOOKUP(Sheet1!P112,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P112,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K112" t="str">
-        <f>IF(Sheet1!R112="","",VLOOKUP(Sheet1!R112,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R112="","",IF(Sheet1!R112 &lt; 300000, VLOOKUP(Sheet1!R112,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R112,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L112" t="str">
-        <f>IF(Sheet1!T112="","",VLOOKUP(Sheet1!T112,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T112="","",IF(Sheet1!T112 &lt; 300000, VLOOKUP(Sheet1!T112,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T112,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -13417,43 +13601,43 @@
         <v>恶灵教主</v>
       </c>
       <c r="C113" t="str">
-        <f>IF(Sheet1!B113="","",VLOOKUP(Sheet1!B113,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B113="","",IF(Sheet1!B113 &lt; 300000, VLOOKUP(Sheet1!B113,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B113,[2]装备!$A$3:$B$248,2)))</f>
         <v>裁决之杖</v>
       </c>
       <c r="D113" t="str">
-        <f>IF(Sheet1!D113="","",VLOOKUP(Sheet1!D113,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D113="","",IF(Sheet1!D113 &lt; 300000, VLOOKUP(Sheet1!D113,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D113,[2]装备!$A$3:$B$248,2)))</f>
         <v>骨玉权杖</v>
       </c>
       <c r="E113" t="str">
-        <f>IF(Sheet1!F113="","",VLOOKUP(Sheet1!F113,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F113="","",IF(Sheet1!F113 &lt; 300000, VLOOKUP(Sheet1!F113,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F113,[2]装备!$A$3:$B$248,2)))</f>
         <v>龙纹剑</v>
       </c>
       <c r="F113" t="str">
-        <f>IF(Sheet1!H113="","",VLOOKUP(Sheet1!H113,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H113="","",IF(Sheet1!H113 &lt; 300000, VLOOKUP(Sheet1!H113,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H113,[2]装备!$A$3:$B$248,2)))</f>
         <v>龙牙</v>
       </c>
       <c r="G113" t="str">
-        <f>IF(Sheet1!J113="","",VLOOKUP(Sheet1!J113,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J113="","",IF(Sheet1!J113 &lt; 300000, VLOOKUP(Sheet1!J113,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J113,[2]装备!$A$3:$B$248,2)))</f>
         <v>怒斩</v>
       </c>
       <c r="H113" t="str">
-        <f>IF(Sheet1!L113="","",VLOOKUP(Sheet1!L113,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L113="","",IF(Sheet1!L113 &lt; 300000, VLOOKUP(Sheet1!L113,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L113,[2]装备!$A$3:$B$248,2)))</f>
         <v>逍遥扇</v>
       </c>
       <c r="I113" t="str">
-        <f>IF(Sheet1!N113="","",VLOOKUP(Sheet1!N113,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N113="","",IF(Sheet1!N113 &lt; 300000, VLOOKUP(Sheet1!N113,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N113,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J113" t="str">
-        <f>IF(Sheet1!P113="","",VLOOKUP(Sheet1!P113,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P113="","",IF(Sheet1!P113 &lt; 300000, VLOOKUP(Sheet1!P113,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P113,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K113" t="str">
-        <f>IF(Sheet1!R113="","",VLOOKUP(Sheet1!R113,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R113="","",IF(Sheet1!R113 &lt; 300000, VLOOKUP(Sheet1!R113,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R113,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L113" t="str">
-        <f>IF(Sheet1!T113="","",VLOOKUP(Sheet1!T113,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T113="","",IF(Sheet1!T113 &lt; 300000, VLOOKUP(Sheet1!T113,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T113,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -13467,43 +13651,43 @@
         <v>牛魔王</v>
       </c>
       <c r="C114" t="str">
-        <f>IF(Sheet1!B114="","",VLOOKUP(Sheet1!B114,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B114="","",IF(Sheet1!B114 &lt; 300000, VLOOKUP(Sheet1!B114,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B114,[2]装备!$A$3:$B$248,2)))</f>
         <v>裁决之杖</v>
       </c>
       <c r="D114" t="str">
-        <f>IF(Sheet1!D114="","",VLOOKUP(Sheet1!D114,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D114="","",IF(Sheet1!D114 &lt; 300000, VLOOKUP(Sheet1!D114,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D114,[2]装备!$A$3:$B$248,2)))</f>
         <v>骨玉权杖</v>
       </c>
       <c r="E114" t="str">
-        <f>IF(Sheet1!F114="","",VLOOKUP(Sheet1!F114,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F114="","",IF(Sheet1!F114 &lt; 300000, VLOOKUP(Sheet1!F114,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F114,[2]装备!$A$3:$B$248,2)))</f>
         <v>龙纹剑</v>
       </c>
       <c r="F114" t="str">
-        <f>IF(Sheet1!H114="","",VLOOKUP(Sheet1!H114,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H114="","",IF(Sheet1!H114 &lt; 300000, VLOOKUP(Sheet1!H114,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H114,[2]装备!$A$3:$B$248,2)))</f>
         <v>龙牙</v>
       </c>
       <c r="G114" t="str">
-        <f>IF(Sheet1!J114="","",VLOOKUP(Sheet1!J114,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J114="","",IF(Sheet1!J114 &lt; 300000, VLOOKUP(Sheet1!J114,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J114,[2]装备!$A$3:$B$248,2)))</f>
         <v>怒斩</v>
       </c>
       <c r="H114" t="str">
-        <f>IF(Sheet1!L114="","",VLOOKUP(Sheet1!L114,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L114="","",IF(Sheet1!L114 &lt; 300000, VLOOKUP(Sheet1!L114,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L114,[2]装备!$A$3:$B$248,2)))</f>
         <v>逍遥扇</v>
       </c>
       <c r="I114" t="str">
-        <f>IF(Sheet1!N114="","",VLOOKUP(Sheet1!N114,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N114="","",IF(Sheet1!N114 &lt; 300000, VLOOKUP(Sheet1!N114,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N114,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J114" t="str">
-        <f>IF(Sheet1!P114="","",VLOOKUP(Sheet1!P114,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P114="","",IF(Sheet1!P114 &lt; 300000, VLOOKUP(Sheet1!P114,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P114,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K114" t="str">
-        <f>IF(Sheet1!R114="","",VLOOKUP(Sheet1!R114,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R114="","",IF(Sheet1!R114 &lt; 300000, VLOOKUP(Sheet1!R114,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R114,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L114" t="str">
-        <f>IF(Sheet1!T114="","",VLOOKUP(Sheet1!T114,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T114="","",IF(Sheet1!T114 &lt; 300000, VLOOKUP(Sheet1!T114,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T114,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -13517,43 +13701,43 @@
         <v>虹魔蝎卫</v>
       </c>
       <c r="C115" t="str">
-        <f>IF(Sheet1!B115="","",VLOOKUP(Sheet1!B115,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B115="","",IF(Sheet1!B115 &lt; 300000, VLOOKUP(Sheet1!B115,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B115,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="D115" t="str">
-        <f>IF(Sheet1!D115="","",VLOOKUP(Sheet1!D115,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D115="","",IF(Sheet1!D115 &lt; 300000, VLOOKUP(Sheet1!D115,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D115,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="E115" t="str">
-        <f>IF(Sheet1!F115="","",VLOOKUP(Sheet1!F115,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F115="","",IF(Sheet1!F115 &lt; 300000, VLOOKUP(Sheet1!F115,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F115,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="F115" t="str">
-        <f>IF(Sheet1!H115="","",VLOOKUP(Sheet1!H115,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H115="","",IF(Sheet1!H115 &lt; 300000, VLOOKUP(Sheet1!H115,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H115,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G115" t="str">
-        <f>IF(Sheet1!J115="","",VLOOKUP(Sheet1!J115,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J115="","",IF(Sheet1!J115 &lt; 300000, VLOOKUP(Sheet1!J115,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J115,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H115" t="str">
-        <f>IF(Sheet1!L115="","",VLOOKUP(Sheet1!L115,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L115="","",IF(Sheet1!L115 &lt; 300000, VLOOKUP(Sheet1!L115,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L115,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I115" t="str">
-        <f>IF(Sheet1!N115="","",VLOOKUP(Sheet1!N115,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N115="","",IF(Sheet1!N115 &lt; 300000, VLOOKUP(Sheet1!N115,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N115,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J115" t="str">
-        <f>IF(Sheet1!P115="","",VLOOKUP(Sheet1!P115,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P115="","",IF(Sheet1!P115 &lt; 300000, VLOOKUP(Sheet1!P115,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P115,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K115" t="str">
-        <f>IF(Sheet1!R115="","",VLOOKUP(Sheet1!R115,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R115="","",IF(Sheet1!R115 &lt; 300000, VLOOKUP(Sheet1!R115,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R115,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L115" t="str">
-        <f>IF(Sheet1!T115="","",VLOOKUP(Sheet1!T115,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T115="","",IF(Sheet1!T115 &lt; 300000, VLOOKUP(Sheet1!T115,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T115,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -13567,43 +13751,43 @@
         <v>虹魔猪卫</v>
       </c>
       <c r="C116" t="str">
-        <f>IF(Sheet1!B116="","",VLOOKUP(Sheet1!B116,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B116="","",IF(Sheet1!B116 &lt; 300000, VLOOKUP(Sheet1!B116,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B116,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="D116" t="str">
-        <f>IF(Sheet1!D116="","",VLOOKUP(Sheet1!D116,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D116="","",IF(Sheet1!D116 &lt; 300000, VLOOKUP(Sheet1!D116,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D116,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="E116" t="str">
-        <f>IF(Sheet1!F116="","",VLOOKUP(Sheet1!F116,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F116="","",IF(Sheet1!F116 &lt; 300000, VLOOKUP(Sheet1!F116,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F116,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="F116" t="str">
-        <f>IF(Sheet1!H116="","",VLOOKUP(Sheet1!H116,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H116="","",IF(Sheet1!H116 &lt; 300000, VLOOKUP(Sheet1!H116,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H116,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G116" t="str">
-        <f>IF(Sheet1!J116="","",VLOOKUP(Sheet1!J116,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J116="","",IF(Sheet1!J116 &lt; 300000, VLOOKUP(Sheet1!J116,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J116,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H116" t="str">
-        <f>IF(Sheet1!L116="","",VLOOKUP(Sheet1!L116,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L116="","",IF(Sheet1!L116 &lt; 300000, VLOOKUP(Sheet1!L116,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L116,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I116" t="str">
-        <f>IF(Sheet1!N116="","",VLOOKUP(Sheet1!N116,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N116="","",IF(Sheet1!N116 &lt; 300000, VLOOKUP(Sheet1!N116,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N116,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J116" t="str">
-        <f>IF(Sheet1!P116="","",VLOOKUP(Sheet1!P116,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P116="","",IF(Sheet1!P116 &lt; 300000, VLOOKUP(Sheet1!P116,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P116,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K116" t="str">
-        <f>IF(Sheet1!R116="","",VLOOKUP(Sheet1!R116,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R116="","",IF(Sheet1!R116 &lt; 300000, VLOOKUP(Sheet1!R116,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R116,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L116" t="str">
-        <f>IF(Sheet1!T116="","",VLOOKUP(Sheet1!T116,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T116="","",IF(Sheet1!T116 &lt; 300000, VLOOKUP(Sheet1!T116,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T116,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -13617,43 +13801,43 @@
         <v>虹魔教主</v>
       </c>
       <c r="C117" t="str">
-        <f>IF(Sheet1!B117="","",VLOOKUP(Sheet1!B117,[2]装备!$A$3:$B$248,2))</f>
-        <v/>
+        <f>IF(Sheet1!B117="","",IF(Sheet1!B117 &lt; 300000, VLOOKUP(Sheet1!B117,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B117,[2]装备!$A$3:$B$248,2)))</f>
+        <v>嗜魂法杖</v>
       </c>
       <c r="D117" t="str">
-        <f>IF(Sheet1!D117="","",VLOOKUP(Sheet1!D117,[2]装备!$A$3:$B$248,2))</f>
-        <v/>
+        <f>IF(Sheet1!D117="","",IF(Sheet1!D117 &lt; 300000, VLOOKUP(Sheet1!D117,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D117,[2]装备!$A$3:$B$248,2)))</f>
+        <v>屠龙</v>
       </c>
       <c r="E117" t="str">
-        <f>IF(Sheet1!F117="","",VLOOKUP(Sheet1!F117,[2]装备!$A$3:$B$248,2))</f>
-        <v/>
+        <f>IF(Sheet1!F117="","",IF(Sheet1!F117 &lt; 300000, VLOOKUP(Sheet1!F117,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F117,[2]装备!$A$3:$B$248,2)))</f>
+        <v>祈祷项链</v>
       </c>
       <c r="F117" t="str">
-        <f>IF(Sheet1!H117="","",VLOOKUP(Sheet1!H117,[2]装备!$A$3:$B$248,2))</f>
-        <v/>
+        <f>IF(Sheet1!H117="","",IF(Sheet1!H117 &lt; 300000, VLOOKUP(Sheet1!H117,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H117,[2]装备!$A$3:$B$248,2)))</f>
+        <v>祈祷手镯</v>
       </c>
       <c r="G117" t="str">
-        <f>IF(Sheet1!J117="","",VLOOKUP(Sheet1!J117,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J117="","",IF(Sheet1!J117 &lt; 300000, VLOOKUP(Sheet1!J117,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J117,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H117" t="str">
-        <f>IF(Sheet1!L117="","",VLOOKUP(Sheet1!L117,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L117="","",IF(Sheet1!L117 &lt; 300000, VLOOKUP(Sheet1!L117,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L117,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I117" t="str">
-        <f>IF(Sheet1!N117="","",VLOOKUP(Sheet1!N117,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N117="","",IF(Sheet1!N117 &lt; 300000, VLOOKUP(Sheet1!N117,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N117,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J117" t="str">
-        <f>IF(Sheet1!P117="","",VLOOKUP(Sheet1!P117,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P117="","",IF(Sheet1!P117 &lt; 300000, VLOOKUP(Sheet1!P117,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P117,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K117" t="str">
-        <f>IF(Sheet1!R117="","",VLOOKUP(Sheet1!R117,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R117="","",IF(Sheet1!R117 &lt; 300000, VLOOKUP(Sheet1!R117,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R117,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L117" t="str">
-        <f>IF(Sheet1!T117="","",VLOOKUP(Sheet1!T117,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T117="","",IF(Sheet1!T117 &lt; 300000, VLOOKUP(Sheet1!T117,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T117,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -13667,43 +13851,43 @@
         <v>千年树妖</v>
       </c>
       <c r="C118" t="str">
-        <f>IF(Sheet1!B118="","",VLOOKUP(Sheet1!B118,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B118="","",IF(Sheet1!B118 &lt; 300000, VLOOKUP(Sheet1!B118,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B118,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="D118" t="str">
-        <f>IF(Sheet1!D118="","",VLOOKUP(Sheet1!D118,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D118="","",IF(Sheet1!D118 &lt; 300000, VLOOKUP(Sheet1!D118,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D118,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="E118" t="str">
-        <f>IF(Sheet1!F118="","",VLOOKUP(Sheet1!F118,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F118="","",IF(Sheet1!F118 &lt; 300000, VLOOKUP(Sheet1!F118,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F118,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="F118" t="str">
-        <f>IF(Sheet1!H118="","",VLOOKUP(Sheet1!H118,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H118="","",IF(Sheet1!H118 &lt; 300000, VLOOKUP(Sheet1!H118,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H118,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G118" t="str">
-        <f>IF(Sheet1!J118="","",VLOOKUP(Sheet1!J118,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J118="","",IF(Sheet1!J118 &lt; 300000, VLOOKUP(Sheet1!J118,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J118,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H118" t="str">
-        <f>IF(Sheet1!L118="","",VLOOKUP(Sheet1!L118,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L118="","",IF(Sheet1!L118 &lt; 300000, VLOOKUP(Sheet1!L118,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L118,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I118" t="str">
-        <f>IF(Sheet1!N118="","",VLOOKUP(Sheet1!N118,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N118="","",IF(Sheet1!N118 &lt; 300000, VLOOKUP(Sheet1!N118,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N118,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J118" t="str">
-        <f>IF(Sheet1!P118="","",VLOOKUP(Sheet1!P118,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P118="","",IF(Sheet1!P118 &lt; 300000, VLOOKUP(Sheet1!P118,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P118,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K118" t="str">
-        <f>IF(Sheet1!R118="","",VLOOKUP(Sheet1!R118,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R118="","",IF(Sheet1!R118 &lt; 300000, VLOOKUP(Sheet1!R118,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R118,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L118" t="str">
-        <f>IF(Sheet1!T118="","",VLOOKUP(Sheet1!T118,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T118="","",IF(Sheet1!T118 &lt; 300000, VLOOKUP(Sheet1!T118,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T118,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -13717,43 +13901,43 @@
         <v>万年树妖</v>
       </c>
       <c r="C119" t="str">
-        <f>IF(Sheet1!B119="","",VLOOKUP(Sheet1!B119,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B119="","",IF(Sheet1!B119 &lt; 300000, VLOOKUP(Sheet1!B119,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B119,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="D119" t="str">
-        <f>IF(Sheet1!D119="","",VLOOKUP(Sheet1!D119,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D119="","",IF(Sheet1!D119 &lt; 300000, VLOOKUP(Sheet1!D119,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D119,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="E119" t="str">
-        <f>IF(Sheet1!F119="","",VLOOKUP(Sheet1!F119,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F119="","",IF(Sheet1!F119 &lt; 300000, VLOOKUP(Sheet1!F119,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F119,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="F119" t="str">
-        <f>IF(Sheet1!H119="","",VLOOKUP(Sheet1!H119,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H119="","",IF(Sheet1!H119 &lt; 300000, VLOOKUP(Sheet1!H119,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H119,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G119" t="str">
-        <f>IF(Sheet1!J119="","",VLOOKUP(Sheet1!J119,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J119="","",IF(Sheet1!J119 &lt; 300000, VLOOKUP(Sheet1!J119,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J119,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H119" t="str">
-        <f>IF(Sheet1!L119="","",VLOOKUP(Sheet1!L119,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L119="","",IF(Sheet1!L119 &lt; 300000, VLOOKUP(Sheet1!L119,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L119,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I119" t="str">
-        <f>IF(Sheet1!N119="","",VLOOKUP(Sheet1!N119,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N119="","",IF(Sheet1!N119 &lt; 300000, VLOOKUP(Sheet1!N119,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N119,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J119" t="str">
-        <f>IF(Sheet1!P119="","",VLOOKUP(Sheet1!P119,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P119="","",IF(Sheet1!P119 &lt; 300000, VLOOKUP(Sheet1!P119,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P119,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K119" t="str">
-        <f>IF(Sheet1!R119="","",VLOOKUP(Sheet1!R119,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R119="","",IF(Sheet1!R119 &lt; 300000, VLOOKUP(Sheet1!R119,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R119,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L119" t="str">
-        <f>IF(Sheet1!T119="","",VLOOKUP(Sheet1!T119,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T119="","",IF(Sheet1!T119 &lt; 300000, VLOOKUP(Sheet1!T119,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T119,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -13767,43 +13951,43 @@
         <v>魔龙巨蛾</v>
       </c>
       <c r="C120" t="str">
-        <f>IF(Sheet1!B120="","",VLOOKUP(Sheet1!B120,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B120="","",IF(Sheet1!B120 &lt; 300000, VLOOKUP(Sheet1!B120,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B120,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="D120" t="str">
-        <f>IF(Sheet1!D120="","",VLOOKUP(Sheet1!D120,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D120="","",IF(Sheet1!D120 &lt; 300000, VLOOKUP(Sheet1!D120,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D120,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="E120" t="str">
-        <f>IF(Sheet1!F120="","",VLOOKUP(Sheet1!F120,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F120="","",IF(Sheet1!F120 &lt; 300000, VLOOKUP(Sheet1!F120,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F120,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="F120" t="str">
-        <f>IF(Sheet1!H120="","",VLOOKUP(Sheet1!H120,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H120="","",IF(Sheet1!H120 &lt; 300000, VLOOKUP(Sheet1!H120,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H120,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G120" t="str">
-        <f>IF(Sheet1!J120="","",VLOOKUP(Sheet1!J120,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J120="","",IF(Sheet1!J120 &lt; 300000, VLOOKUP(Sheet1!J120,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J120,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H120" t="str">
-        <f>IF(Sheet1!L120="","",VLOOKUP(Sheet1!L120,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L120="","",IF(Sheet1!L120 &lt; 300000, VLOOKUP(Sheet1!L120,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L120,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I120" t="str">
-        <f>IF(Sheet1!N120="","",VLOOKUP(Sheet1!N120,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N120="","",IF(Sheet1!N120 &lt; 300000, VLOOKUP(Sheet1!N120,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N120,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J120" t="str">
-        <f>IF(Sheet1!P120="","",VLOOKUP(Sheet1!P120,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P120="","",IF(Sheet1!P120 &lt; 300000, VLOOKUP(Sheet1!P120,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P120,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K120" t="str">
-        <f>IF(Sheet1!R120="","",VLOOKUP(Sheet1!R120,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R120="","",IF(Sheet1!R120 &lt; 300000, VLOOKUP(Sheet1!R120,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R120,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L120" t="str">
-        <f>IF(Sheet1!T120="","",VLOOKUP(Sheet1!T120,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T120="","",IF(Sheet1!T120 &lt; 300000, VLOOKUP(Sheet1!T120,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T120,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -13817,43 +14001,43 @@
         <v>魔龙力士</v>
       </c>
       <c r="C121" t="str">
-        <f>IF(Sheet1!B121="","",VLOOKUP(Sheet1!B121,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B121="","",IF(Sheet1!B121 &lt; 300000, VLOOKUP(Sheet1!B121,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B121,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="D121" t="str">
-        <f>IF(Sheet1!D121="","",VLOOKUP(Sheet1!D121,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D121="","",IF(Sheet1!D121 &lt; 300000, VLOOKUP(Sheet1!D121,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D121,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="E121" t="str">
-        <f>IF(Sheet1!F121="","",VLOOKUP(Sheet1!F121,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F121="","",IF(Sheet1!F121 &lt; 300000, VLOOKUP(Sheet1!F121,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F121,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="F121" t="str">
-        <f>IF(Sheet1!H121="","",VLOOKUP(Sheet1!H121,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H121="","",IF(Sheet1!H121 &lt; 300000, VLOOKUP(Sheet1!H121,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H121,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G121" t="str">
-        <f>IF(Sheet1!J121="","",VLOOKUP(Sheet1!J121,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J121="","",IF(Sheet1!J121 &lt; 300000, VLOOKUP(Sheet1!J121,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J121,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H121" t="str">
-        <f>IF(Sheet1!L121="","",VLOOKUP(Sheet1!L121,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L121="","",IF(Sheet1!L121 &lt; 300000, VLOOKUP(Sheet1!L121,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L121,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I121" t="str">
-        <f>IF(Sheet1!N121="","",VLOOKUP(Sheet1!N121,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N121="","",IF(Sheet1!N121 &lt; 300000, VLOOKUP(Sheet1!N121,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N121,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J121" t="str">
-        <f>IF(Sheet1!P121="","",VLOOKUP(Sheet1!P121,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P121="","",IF(Sheet1!P121 &lt; 300000, VLOOKUP(Sheet1!P121,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P121,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K121" t="str">
-        <f>IF(Sheet1!R121="","",VLOOKUP(Sheet1!R121,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R121="","",IF(Sheet1!R121 &lt; 300000, VLOOKUP(Sheet1!R121,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R121,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L121" t="str">
-        <f>IF(Sheet1!T121="","",VLOOKUP(Sheet1!T121,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T121="","",IF(Sheet1!T121 &lt; 300000, VLOOKUP(Sheet1!T121,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T121,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -13867,43 +14051,43 @@
         <v>魔龙战将</v>
       </c>
       <c r="C122" t="str">
-        <f>IF(Sheet1!B122="","",VLOOKUP(Sheet1!B122,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B122="","",IF(Sheet1!B122 &lt; 300000, VLOOKUP(Sheet1!B122,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B122,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="D122" t="str">
-        <f>IF(Sheet1!D122="","",VLOOKUP(Sheet1!D122,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D122="","",IF(Sheet1!D122 &lt; 300000, VLOOKUP(Sheet1!D122,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D122,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="E122" t="str">
-        <f>IF(Sheet1!F122="","",VLOOKUP(Sheet1!F122,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F122="","",IF(Sheet1!F122 &lt; 300000, VLOOKUP(Sheet1!F122,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F122,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="F122" t="str">
-        <f>IF(Sheet1!H122="","",VLOOKUP(Sheet1!H122,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H122="","",IF(Sheet1!H122 &lt; 300000, VLOOKUP(Sheet1!H122,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H122,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G122" t="str">
-        <f>IF(Sheet1!J122="","",VLOOKUP(Sheet1!J122,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J122="","",IF(Sheet1!J122 &lt; 300000, VLOOKUP(Sheet1!J122,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J122,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H122" t="str">
-        <f>IF(Sheet1!L122="","",VLOOKUP(Sheet1!L122,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L122="","",IF(Sheet1!L122 &lt; 300000, VLOOKUP(Sheet1!L122,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L122,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I122" t="str">
-        <f>IF(Sheet1!N122="","",VLOOKUP(Sheet1!N122,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N122="","",IF(Sheet1!N122 &lt; 300000, VLOOKUP(Sheet1!N122,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N122,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J122" t="str">
-        <f>IF(Sheet1!P122="","",VLOOKUP(Sheet1!P122,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P122="","",IF(Sheet1!P122 &lt; 300000, VLOOKUP(Sheet1!P122,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P122,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K122" t="str">
-        <f>IF(Sheet1!R122="","",VLOOKUP(Sheet1!R122,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R122="","",IF(Sheet1!R122 &lt; 300000, VLOOKUP(Sheet1!R122,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R122,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L122" t="str">
-        <f>IF(Sheet1!T122="","",VLOOKUP(Sheet1!T122,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T122="","",IF(Sheet1!T122 &lt; 300000, VLOOKUP(Sheet1!T122,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T122,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -13917,43 +14101,43 @@
         <v>魔龙教主</v>
       </c>
       <c r="C123" t="str">
-        <f>IF(Sheet1!B123="","",VLOOKUP(Sheet1!B123,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B123="","",IF(Sheet1!B123 &lt; 300000, VLOOKUP(Sheet1!B123,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B123,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="D123" t="str">
-        <f>IF(Sheet1!D123="","",VLOOKUP(Sheet1!D123,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D123="","",IF(Sheet1!D123 &lt; 300000, VLOOKUP(Sheet1!D123,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D123,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="E123" t="str">
-        <f>IF(Sheet1!F123="","",VLOOKUP(Sheet1!F123,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F123="","",IF(Sheet1!F123 &lt; 300000, VLOOKUP(Sheet1!F123,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F123,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="F123" t="str">
-        <f>IF(Sheet1!H123="","",VLOOKUP(Sheet1!H123,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H123="","",IF(Sheet1!H123 &lt; 300000, VLOOKUP(Sheet1!H123,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H123,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G123" t="str">
-        <f>IF(Sheet1!J123="","",VLOOKUP(Sheet1!J123,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J123="","",IF(Sheet1!J123 &lt; 300000, VLOOKUP(Sheet1!J123,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J123,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H123" t="str">
-        <f>IF(Sheet1!L123="","",VLOOKUP(Sheet1!L123,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L123="","",IF(Sheet1!L123 &lt; 300000, VLOOKUP(Sheet1!L123,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L123,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I123" t="str">
-        <f>IF(Sheet1!N123="","",VLOOKUP(Sheet1!N123,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N123="","",IF(Sheet1!N123 &lt; 300000, VLOOKUP(Sheet1!N123,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N123,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J123" t="str">
-        <f>IF(Sheet1!P123="","",VLOOKUP(Sheet1!P123,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P123="","",IF(Sheet1!P123 &lt; 300000, VLOOKUP(Sheet1!P123,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P123,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K123" t="str">
-        <f>IF(Sheet1!R123="","",VLOOKUP(Sheet1!R123,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R123="","",IF(Sheet1!R123 &lt; 300000, VLOOKUP(Sheet1!R123,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R123,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L123" t="str">
-        <f>IF(Sheet1!T123="","",VLOOKUP(Sheet1!T123,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T123="","",IF(Sheet1!T123 &lt; 300000, VLOOKUP(Sheet1!T123,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T123,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -13967,43 +14151,43 @@
         <v>魔龙树妖</v>
       </c>
       <c r="C124" t="str">
-        <f>IF(Sheet1!B124="","",VLOOKUP(Sheet1!B124,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B124="","",IF(Sheet1!B124 &lt; 300000, VLOOKUP(Sheet1!B124,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B124,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="D124" t="str">
-        <f>IF(Sheet1!D124="","",VLOOKUP(Sheet1!D124,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D124="","",IF(Sheet1!D124 &lt; 300000, VLOOKUP(Sheet1!D124,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D124,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="E124" t="str">
-        <f>IF(Sheet1!F124="","",VLOOKUP(Sheet1!F124,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F124="","",IF(Sheet1!F124 &lt; 300000, VLOOKUP(Sheet1!F124,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F124,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="F124" t="str">
-        <f>IF(Sheet1!H124="","",VLOOKUP(Sheet1!H124,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H124="","",IF(Sheet1!H124 &lt; 300000, VLOOKUP(Sheet1!H124,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H124,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G124" t="str">
-        <f>IF(Sheet1!J124="","",VLOOKUP(Sheet1!J124,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J124="","",IF(Sheet1!J124 &lt; 300000, VLOOKUP(Sheet1!J124,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J124,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H124" t="str">
-        <f>IF(Sheet1!L124="","",VLOOKUP(Sheet1!L124,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L124="","",IF(Sheet1!L124 &lt; 300000, VLOOKUP(Sheet1!L124,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L124,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I124" t="str">
-        <f>IF(Sheet1!N124="","",VLOOKUP(Sheet1!N124,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N124="","",IF(Sheet1!N124 &lt; 300000, VLOOKUP(Sheet1!N124,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N124,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J124" t="str">
-        <f>IF(Sheet1!P124="","",VLOOKUP(Sheet1!P124,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P124="","",IF(Sheet1!P124 &lt; 300000, VLOOKUP(Sheet1!P124,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P124,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K124" t="str">
-        <f>IF(Sheet1!R124="","",VLOOKUP(Sheet1!R124,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R124="","",IF(Sheet1!R124 &lt; 300000, VLOOKUP(Sheet1!R124,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R124,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L124" t="str">
-        <f>IF(Sheet1!T124="","",VLOOKUP(Sheet1!T124,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T124="","",IF(Sheet1!T124 &lt; 300000, VLOOKUP(Sheet1!T124,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T124,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -14017,43 +14201,43 @@
         <v>暗之双头血魔</v>
       </c>
       <c r="C125" t="str">
-        <f>IF(Sheet1!B125="","",VLOOKUP(Sheet1!B125,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B125="","",IF(Sheet1!B125 &lt; 300000, VLOOKUP(Sheet1!B125,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B125,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="D125" t="str">
-        <f>IF(Sheet1!D125="","",VLOOKUP(Sheet1!D125,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D125="","",IF(Sheet1!D125 &lt; 300000, VLOOKUP(Sheet1!D125,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D125,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="E125" t="str">
-        <f>IF(Sheet1!F125="","",VLOOKUP(Sheet1!F125,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F125="","",IF(Sheet1!F125 &lt; 300000, VLOOKUP(Sheet1!F125,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F125,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="F125" t="str">
-        <f>IF(Sheet1!H125="","",VLOOKUP(Sheet1!H125,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H125="","",IF(Sheet1!H125 &lt; 300000, VLOOKUP(Sheet1!H125,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H125,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G125" t="str">
-        <f>IF(Sheet1!J125="","",VLOOKUP(Sheet1!J125,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J125="","",IF(Sheet1!J125 &lt; 300000, VLOOKUP(Sheet1!J125,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J125,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H125" t="str">
-        <f>IF(Sheet1!L125="","",VLOOKUP(Sheet1!L125,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L125="","",IF(Sheet1!L125 &lt; 300000, VLOOKUP(Sheet1!L125,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L125,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I125" t="str">
-        <f>IF(Sheet1!N125="","",VLOOKUP(Sheet1!N125,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N125="","",IF(Sheet1!N125 &lt; 300000, VLOOKUP(Sheet1!N125,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N125,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J125" t="str">
-        <f>IF(Sheet1!P125="","",VLOOKUP(Sheet1!P125,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P125="","",IF(Sheet1!P125 &lt; 300000, VLOOKUP(Sheet1!P125,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P125,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K125" t="str">
-        <f>IF(Sheet1!R125="","",VLOOKUP(Sheet1!R125,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R125="","",IF(Sheet1!R125 &lt; 300000, VLOOKUP(Sheet1!R125,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R125,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L125" t="str">
-        <f>IF(Sheet1!T125="","",VLOOKUP(Sheet1!T125,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T125="","",IF(Sheet1!T125 &lt; 300000, VLOOKUP(Sheet1!T125,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T125,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -14067,43 +14251,43 @@
         <v>暗之骷髅精灵</v>
       </c>
       <c r="C126" t="str">
-        <f>IF(Sheet1!B126="","",VLOOKUP(Sheet1!B126,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B126="","",IF(Sheet1!B126 &lt; 300000, VLOOKUP(Sheet1!B126,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B126,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="D126" t="str">
-        <f>IF(Sheet1!D126="","",VLOOKUP(Sheet1!D126,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D126="","",IF(Sheet1!D126 &lt; 300000, VLOOKUP(Sheet1!D126,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D126,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="E126" t="str">
-        <f>IF(Sheet1!F126="","",VLOOKUP(Sheet1!F126,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F126="","",IF(Sheet1!F126 &lt; 300000, VLOOKUP(Sheet1!F126,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F126,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="F126" t="str">
-        <f>IF(Sheet1!H126="","",VLOOKUP(Sheet1!H126,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H126="","",IF(Sheet1!H126 &lt; 300000, VLOOKUP(Sheet1!H126,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H126,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G126" t="str">
-        <f>IF(Sheet1!J126="","",VLOOKUP(Sheet1!J126,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J126="","",IF(Sheet1!J126 &lt; 300000, VLOOKUP(Sheet1!J126,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J126,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H126" t="str">
-        <f>IF(Sheet1!L126="","",VLOOKUP(Sheet1!L126,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L126="","",IF(Sheet1!L126 &lt; 300000, VLOOKUP(Sheet1!L126,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L126,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I126" t="str">
-        <f>IF(Sheet1!N126="","",VLOOKUP(Sheet1!N126,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N126="","",IF(Sheet1!N126 &lt; 300000, VLOOKUP(Sheet1!N126,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N126,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J126" t="str">
-        <f>IF(Sheet1!P126="","",VLOOKUP(Sheet1!P126,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P126="","",IF(Sheet1!P126 &lt; 300000, VLOOKUP(Sheet1!P126,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P126,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K126" t="str">
-        <f>IF(Sheet1!R126="","",VLOOKUP(Sheet1!R126,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R126="","",IF(Sheet1!R126 &lt; 300000, VLOOKUP(Sheet1!R126,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R126,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L126" t="str">
-        <f>IF(Sheet1!T126="","",VLOOKUP(Sheet1!T126,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T126="","",IF(Sheet1!T126 &lt; 300000, VLOOKUP(Sheet1!T126,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T126,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -14117,43 +14301,43 @@
         <v>暗之双头金刚</v>
       </c>
       <c r="C127" t="str">
-        <f>IF(Sheet1!B127="","",VLOOKUP(Sheet1!B127,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B127="","",IF(Sheet1!B127 &lt; 300000, VLOOKUP(Sheet1!B127,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B127,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="D127" t="str">
-        <f>IF(Sheet1!D127="","",VLOOKUP(Sheet1!D127,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D127="","",IF(Sheet1!D127 &lt; 300000, VLOOKUP(Sheet1!D127,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D127,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="E127" t="str">
-        <f>IF(Sheet1!F127="","",VLOOKUP(Sheet1!F127,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F127="","",IF(Sheet1!F127 &lt; 300000, VLOOKUP(Sheet1!F127,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F127,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="F127" t="str">
-        <f>IF(Sheet1!H127="","",VLOOKUP(Sheet1!H127,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H127="","",IF(Sheet1!H127 &lt; 300000, VLOOKUP(Sheet1!H127,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H127,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G127" t="str">
-        <f>IF(Sheet1!J127="","",VLOOKUP(Sheet1!J127,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J127="","",IF(Sheet1!J127 &lt; 300000, VLOOKUP(Sheet1!J127,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J127,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H127" t="str">
-        <f>IF(Sheet1!L127="","",VLOOKUP(Sheet1!L127,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L127="","",IF(Sheet1!L127 &lt; 300000, VLOOKUP(Sheet1!L127,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L127,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I127" t="str">
-        <f>IF(Sheet1!N127="","",VLOOKUP(Sheet1!N127,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N127="","",IF(Sheet1!N127 &lt; 300000, VLOOKUP(Sheet1!N127,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N127,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J127" t="str">
-        <f>IF(Sheet1!P127="","",VLOOKUP(Sheet1!P127,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P127="","",IF(Sheet1!P127 &lt; 300000, VLOOKUP(Sheet1!P127,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P127,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K127" t="str">
-        <f>IF(Sheet1!R127="","",VLOOKUP(Sheet1!R127,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R127="","",IF(Sheet1!R127 &lt; 300000, VLOOKUP(Sheet1!R127,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R127,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L127" t="str">
-        <f>IF(Sheet1!T127="","",VLOOKUP(Sheet1!T127,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T127="","",IF(Sheet1!T127 &lt; 300000, VLOOKUP(Sheet1!T127,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T127,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -14167,43 +14351,43 @@
         <v>暗之沃玛教主</v>
       </c>
       <c r="C128" t="str">
-        <f>IF(Sheet1!B128="","",VLOOKUP(Sheet1!B128,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B128="","",IF(Sheet1!B128 &lt; 300000, VLOOKUP(Sheet1!B128,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B128,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="D128" t="str">
-        <f>IF(Sheet1!D128="","",VLOOKUP(Sheet1!D128,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D128="","",IF(Sheet1!D128 &lt; 300000, VLOOKUP(Sheet1!D128,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D128,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="E128" t="str">
-        <f>IF(Sheet1!F128="","",VLOOKUP(Sheet1!F128,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F128="","",IF(Sheet1!F128 &lt; 300000, VLOOKUP(Sheet1!F128,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F128,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="F128" t="str">
-        <f>IF(Sheet1!H128="","",VLOOKUP(Sheet1!H128,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H128="","",IF(Sheet1!H128 &lt; 300000, VLOOKUP(Sheet1!H128,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H128,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G128" t="str">
-        <f>IF(Sheet1!J128="","",VLOOKUP(Sheet1!J128,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J128="","",IF(Sheet1!J128 &lt; 300000, VLOOKUP(Sheet1!J128,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J128,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H128" t="str">
-        <f>IF(Sheet1!L128="","",VLOOKUP(Sheet1!L128,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L128="","",IF(Sheet1!L128 &lt; 300000, VLOOKUP(Sheet1!L128,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L128,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I128" t="str">
-        <f>IF(Sheet1!N128="","",VLOOKUP(Sheet1!N128,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N128="","",IF(Sheet1!N128 &lt; 300000, VLOOKUP(Sheet1!N128,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N128,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J128" t="str">
-        <f>IF(Sheet1!P128="","",VLOOKUP(Sheet1!P128,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P128="","",IF(Sheet1!P128 &lt; 300000, VLOOKUP(Sheet1!P128,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P128,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K128" t="str">
-        <f>IF(Sheet1!R128="","",VLOOKUP(Sheet1!R128,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R128="","",IF(Sheet1!R128 &lt; 300000, VLOOKUP(Sheet1!R128,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R128,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L128" t="str">
-        <f>IF(Sheet1!T128="","",VLOOKUP(Sheet1!T128,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T128="","",IF(Sheet1!T128 &lt; 300000, VLOOKUP(Sheet1!T128,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T128,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -14217,43 +14401,43 @@
         <v>暗之黄泉教主</v>
       </c>
       <c r="C129" t="str">
-        <f>IF(Sheet1!B129="","",VLOOKUP(Sheet1!B129,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B129="","",IF(Sheet1!B129 &lt; 300000, VLOOKUP(Sheet1!B129,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B129,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="D129" t="str">
-        <f>IF(Sheet1!D129="","",VLOOKUP(Sheet1!D129,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D129="","",IF(Sheet1!D129 &lt; 300000, VLOOKUP(Sheet1!D129,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D129,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="E129" t="str">
-        <f>IF(Sheet1!F129="","",VLOOKUP(Sheet1!F129,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F129="","",IF(Sheet1!F129 &lt; 300000, VLOOKUP(Sheet1!F129,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F129,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="F129" t="str">
-        <f>IF(Sheet1!H129="","",VLOOKUP(Sheet1!H129,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H129="","",IF(Sheet1!H129 &lt; 300000, VLOOKUP(Sheet1!H129,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H129,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G129" t="str">
-        <f>IF(Sheet1!J129="","",VLOOKUP(Sheet1!J129,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J129="","",IF(Sheet1!J129 &lt; 300000, VLOOKUP(Sheet1!J129,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J129,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H129" t="str">
-        <f>IF(Sheet1!L129="","",VLOOKUP(Sheet1!L129,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L129="","",IF(Sheet1!L129 &lt; 300000, VLOOKUP(Sheet1!L129,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L129,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I129" t="str">
-        <f>IF(Sheet1!N129="","",VLOOKUP(Sheet1!N129,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N129="","",IF(Sheet1!N129 &lt; 300000, VLOOKUP(Sheet1!N129,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N129,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J129" t="str">
-        <f>IF(Sheet1!P129="","",VLOOKUP(Sheet1!P129,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P129="","",IF(Sheet1!P129 &lt; 300000, VLOOKUP(Sheet1!P129,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P129,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K129" t="str">
-        <f>IF(Sheet1!R129="","",VLOOKUP(Sheet1!R129,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R129="","",IF(Sheet1!R129 &lt; 300000, VLOOKUP(Sheet1!R129,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R129,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L129" t="str">
-        <f>IF(Sheet1!T129="","",VLOOKUP(Sheet1!T129,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T129="","",IF(Sheet1!T129 &lt; 300000, VLOOKUP(Sheet1!T129,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T129,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -14267,43 +14451,43 @@
         <v>暗之虹魔教主</v>
       </c>
       <c r="C130" t="str">
-        <f>IF(Sheet1!B130="","",VLOOKUP(Sheet1!B130,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B130="","",IF(Sheet1!B130 &lt; 300000, VLOOKUP(Sheet1!B130,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B130,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="D130" t="str">
-        <f>IF(Sheet1!D130="","",VLOOKUP(Sheet1!D130,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D130="","",IF(Sheet1!D130 &lt; 300000, VLOOKUP(Sheet1!D130,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D130,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="E130" t="str">
-        <f>IF(Sheet1!F130="","",VLOOKUP(Sheet1!F130,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F130="","",IF(Sheet1!F130 &lt; 300000, VLOOKUP(Sheet1!F130,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F130,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="F130" t="str">
-        <f>IF(Sheet1!H130="","",VLOOKUP(Sheet1!H130,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H130="","",IF(Sheet1!H130 &lt; 300000, VLOOKUP(Sheet1!H130,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H130,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G130" t="str">
-        <f>IF(Sheet1!J130="","",VLOOKUP(Sheet1!J130,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J130="","",IF(Sheet1!J130 &lt; 300000, VLOOKUP(Sheet1!J130,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J130,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H130" t="str">
-        <f>IF(Sheet1!L130="","",VLOOKUP(Sheet1!L130,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L130="","",IF(Sheet1!L130 &lt; 300000, VLOOKUP(Sheet1!L130,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L130,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I130" t="str">
-        <f>IF(Sheet1!N130="","",VLOOKUP(Sheet1!N130,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N130="","",IF(Sheet1!N130 &lt; 300000, VLOOKUP(Sheet1!N130,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N130,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J130" t="str">
-        <f>IF(Sheet1!P130="","",VLOOKUP(Sheet1!P130,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P130="","",IF(Sheet1!P130 &lt; 300000, VLOOKUP(Sheet1!P130,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P130,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K130" t="str">
-        <f>IF(Sheet1!R130="","",VLOOKUP(Sheet1!R130,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R130="","",IF(Sheet1!R130 &lt; 300000, VLOOKUP(Sheet1!R130,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R130,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L130" t="str">
-        <f>IF(Sheet1!T130="","",VLOOKUP(Sheet1!T130,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T130="","",IF(Sheet1!T130 &lt; 300000, VLOOKUP(Sheet1!T130,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T130,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -14317,43 +14501,43 @@
         <v>重装使者</v>
       </c>
       <c r="C131" t="str">
-        <f>IF(Sheet1!B131="","",VLOOKUP(Sheet1!B131,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B131="","",IF(Sheet1!B131 &lt; 300000, VLOOKUP(Sheet1!B131,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B131,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="D131" t="str">
-        <f>IF(Sheet1!D131="","",VLOOKUP(Sheet1!D131,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D131="","",IF(Sheet1!D131 &lt; 300000, VLOOKUP(Sheet1!D131,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D131,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="E131" t="str">
-        <f>IF(Sheet1!F131="","",VLOOKUP(Sheet1!F131,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F131="","",IF(Sheet1!F131 &lt; 300000, VLOOKUP(Sheet1!F131,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F131,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="F131" t="str">
-        <f>IF(Sheet1!H131="","",VLOOKUP(Sheet1!H131,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H131="","",IF(Sheet1!H131 &lt; 300000, VLOOKUP(Sheet1!H131,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H131,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G131" t="str">
-        <f>IF(Sheet1!J131="","",VLOOKUP(Sheet1!J131,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J131="","",IF(Sheet1!J131 &lt; 300000, VLOOKUP(Sheet1!J131,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J131,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H131" t="str">
-        <f>IF(Sheet1!L131="","",VLOOKUP(Sheet1!L131,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L131="","",IF(Sheet1!L131 &lt; 300000, VLOOKUP(Sheet1!L131,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L131,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I131" t="str">
-        <f>IF(Sheet1!N131="","",VLOOKUP(Sheet1!N131,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N131="","",IF(Sheet1!N131 &lt; 300000, VLOOKUP(Sheet1!N131,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N131,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J131" t="str">
-        <f>IF(Sheet1!P131="","",VLOOKUP(Sheet1!P131,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P131="","",IF(Sheet1!P131 &lt; 300000, VLOOKUP(Sheet1!P131,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P131,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K131" t="str">
-        <f>IF(Sheet1!R131="","",VLOOKUP(Sheet1!R131,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R131="","",IF(Sheet1!R131 &lt; 300000, VLOOKUP(Sheet1!R131,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R131,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L131" t="str">
-        <f>IF(Sheet1!T131="","",VLOOKUP(Sheet1!T131,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T131="","",IF(Sheet1!T131 &lt; 300000, VLOOKUP(Sheet1!T131,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T131,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -14367,43 +14551,43 @@
         <v>暗之赤月恶魔</v>
       </c>
       <c r="C132" t="str">
-        <f>IF(Sheet1!B132="","",VLOOKUP(Sheet1!B132,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B132="","",IF(Sheet1!B132 &lt; 300000, VLOOKUP(Sheet1!B132,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B132,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="D132" t="str">
-        <f>IF(Sheet1!D132="","",VLOOKUP(Sheet1!D132,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D132="","",IF(Sheet1!D132 &lt; 300000, VLOOKUP(Sheet1!D132,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D132,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="E132" t="str">
-        <f>IF(Sheet1!F132="","",VLOOKUP(Sheet1!F132,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F132="","",IF(Sheet1!F132 &lt; 300000, VLOOKUP(Sheet1!F132,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F132,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="F132" t="str">
-        <f>IF(Sheet1!H132="","",VLOOKUP(Sheet1!H132,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H132="","",IF(Sheet1!H132 &lt; 300000, VLOOKUP(Sheet1!H132,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H132,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G132" t="str">
-        <f>IF(Sheet1!J132="","",VLOOKUP(Sheet1!J132,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J132="","",IF(Sheet1!J132 &lt; 300000, VLOOKUP(Sheet1!J132,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J132,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H132" t="str">
-        <f>IF(Sheet1!L132="","",VLOOKUP(Sheet1!L132,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L132="","",IF(Sheet1!L132 &lt; 300000, VLOOKUP(Sheet1!L132,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L132,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I132" t="str">
-        <f>IF(Sheet1!N132="","",VLOOKUP(Sheet1!N132,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N132="","",IF(Sheet1!N132 &lt; 300000, VLOOKUP(Sheet1!N132,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N132,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J132" t="str">
-        <f>IF(Sheet1!P132="","",VLOOKUP(Sheet1!P132,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P132="","",IF(Sheet1!P132 &lt; 300000, VLOOKUP(Sheet1!P132,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P132,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K132" t="str">
-        <f>IF(Sheet1!R132="","",VLOOKUP(Sheet1!R132,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R132="","",IF(Sheet1!R132 &lt; 300000, VLOOKUP(Sheet1!R132,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R132,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L132" t="str">
-        <f>IF(Sheet1!T132="","",VLOOKUP(Sheet1!T132,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T132="","",IF(Sheet1!T132 &lt; 300000, VLOOKUP(Sheet1!T132,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T132,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -14417,43 +14601,43 @@
         <v>暗之触龙神</v>
       </c>
       <c r="C133" t="str">
-        <f>IF(Sheet1!B133="","",VLOOKUP(Sheet1!B133,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B133="","",IF(Sheet1!B133 &lt; 300000, VLOOKUP(Sheet1!B133,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B133,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="D133" t="str">
-        <f>IF(Sheet1!D133="","",VLOOKUP(Sheet1!D133,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D133="","",IF(Sheet1!D133 &lt; 300000, VLOOKUP(Sheet1!D133,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D133,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="E133" t="str">
-        <f>IF(Sheet1!F133="","",VLOOKUP(Sheet1!F133,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F133="","",IF(Sheet1!F133 &lt; 300000, VLOOKUP(Sheet1!F133,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F133,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="F133" t="str">
-        <f>IF(Sheet1!H133="","",VLOOKUP(Sheet1!H133,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H133="","",IF(Sheet1!H133 &lt; 300000, VLOOKUP(Sheet1!H133,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H133,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G133" t="str">
-        <f>IF(Sheet1!J133="","",VLOOKUP(Sheet1!J133,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J133="","",IF(Sheet1!J133 &lt; 300000, VLOOKUP(Sheet1!J133,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J133,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H133" t="str">
-        <f>IF(Sheet1!L133="","",VLOOKUP(Sheet1!L133,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L133="","",IF(Sheet1!L133 &lt; 300000, VLOOKUP(Sheet1!L133,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L133,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I133" t="str">
-        <f>IF(Sheet1!N133="","",VLOOKUP(Sheet1!N133,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N133="","",IF(Sheet1!N133 &lt; 300000, VLOOKUP(Sheet1!N133,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N133,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J133" t="str">
-        <f>IF(Sheet1!P133="","",VLOOKUP(Sheet1!P133,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P133="","",IF(Sheet1!P133 &lt; 300000, VLOOKUP(Sheet1!P133,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P133,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K133" t="str">
-        <f>IF(Sheet1!R133="","",VLOOKUP(Sheet1!R133,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R133="","",IF(Sheet1!R133 &lt; 300000, VLOOKUP(Sheet1!R133,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R133,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L133" t="str">
-        <f>IF(Sheet1!T133="","",VLOOKUP(Sheet1!T133,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T133="","",IF(Sheet1!T133 &lt; 300000, VLOOKUP(Sheet1!T133,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T133,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -14467,43 +14651,43 @@
         <v>暗之魔龙教主</v>
       </c>
       <c r="C134" t="str">
-        <f>IF(Sheet1!B134="","",VLOOKUP(Sheet1!B134,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B134="","",IF(Sheet1!B134 &lt; 300000, VLOOKUP(Sheet1!B134,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B134,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="D134" t="str">
-        <f>IF(Sheet1!D134="","",VLOOKUP(Sheet1!D134,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D134="","",IF(Sheet1!D134 &lt; 300000, VLOOKUP(Sheet1!D134,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D134,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="E134" t="str">
-        <f>IF(Sheet1!F134="","",VLOOKUP(Sheet1!F134,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F134="","",IF(Sheet1!F134 &lt; 300000, VLOOKUP(Sheet1!F134,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F134,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="F134" t="str">
-        <f>IF(Sheet1!H134="","",VLOOKUP(Sheet1!H134,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H134="","",IF(Sheet1!H134 &lt; 300000, VLOOKUP(Sheet1!H134,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H134,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G134" t="str">
-        <f>IF(Sheet1!J134="","",VLOOKUP(Sheet1!J134,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J134="","",IF(Sheet1!J134 &lt; 300000, VLOOKUP(Sheet1!J134,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J134,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H134" t="str">
-        <f>IF(Sheet1!L134="","",VLOOKUP(Sheet1!L134,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L134="","",IF(Sheet1!L134 &lt; 300000, VLOOKUP(Sheet1!L134,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L134,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I134" t="str">
-        <f>IF(Sheet1!N134="","",VLOOKUP(Sheet1!N134,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N134="","",IF(Sheet1!N134 &lt; 300000, VLOOKUP(Sheet1!N134,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N134,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J134" t="str">
-        <f>IF(Sheet1!P134="","",VLOOKUP(Sheet1!P134,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P134="","",IF(Sheet1!P134 &lt; 300000, VLOOKUP(Sheet1!P134,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P134,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K134" t="str">
-        <f>IF(Sheet1!R134="","",VLOOKUP(Sheet1!R134,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R134="","",IF(Sheet1!R134 &lt; 300000, VLOOKUP(Sheet1!R134,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R134,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L134" t="str">
-        <f>IF(Sheet1!T134="","",VLOOKUP(Sheet1!T134,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T134="","",IF(Sheet1!T134 &lt; 300000, VLOOKUP(Sheet1!T134,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T134,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -14517,43 +14701,43 @@
         <v>暗之魔龙巨蛾</v>
       </c>
       <c r="C135" t="str">
-        <f>IF(Sheet1!B135="","",VLOOKUP(Sheet1!B135,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B135="","",IF(Sheet1!B135 &lt; 300000, VLOOKUP(Sheet1!B135,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B135,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="D135" t="str">
-        <f>IF(Sheet1!D135="","",VLOOKUP(Sheet1!D135,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D135="","",IF(Sheet1!D135 &lt; 300000, VLOOKUP(Sheet1!D135,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D135,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="E135" t="str">
-        <f>IF(Sheet1!F135="","",VLOOKUP(Sheet1!F135,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F135="","",IF(Sheet1!F135 &lt; 300000, VLOOKUP(Sheet1!F135,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F135,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="F135" t="str">
-        <f>IF(Sheet1!H135="","",VLOOKUP(Sheet1!H135,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H135="","",IF(Sheet1!H135 &lt; 300000, VLOOKUP(Sheet1!H135,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H135,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G135" t="str">
-        <f>IF(Sheet1!J135="","",VLOOKUP(Sheet1!J135,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J135="","",IF(Sheet1!J135 &lt; 300000, VLOOKUP(Sheet1!J135,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J135,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H135" t="str">
-        <f>IF(Sheet1!L135="","",VLOOKUP(Sheet1!L135,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L135="","",IF(Sheet1!L135 &lt; 300000, VLOOKUP(Sheet1!L135,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L135,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I135" t="str">
-        <f>IF(Sheet1!N135="","",VLOOKUP(Sheet1!N135,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N135="","",IF(Sheet1!N135 &lt; 300000, VLOOKUP(Sheet1!N135,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N135,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J135" t="str">
-        <f>IF(Sheet1!P135="","",VLOOKUP(Sheet1!P135,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P135="","",IF(Sheet1!P135 &lt; 300000, VLOOKUP(Sheet1!P135,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P135,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K135" t="str">
-        <f>IF(Sheet1!R135="","",VLOOKUP(Sheet1!R135,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R135="","",IF(Sheet1!R135 &lt; 300000, VLOOKUP(Sheet1!R135,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R135,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L135" t="str">
-        <f>IF(Sheet1!T135="","",VLOOKUP(Sheet1!T135,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T135="","",IF(Sheet1!T135 &lt; 300000, VLOOKUP(Sheet1!T135,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T135,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -14567,43 +14751,43 @@
         <v>暗之魔龙力士</v>
       </c>
       <c r="C136" t="str">
-        <f>IF(Sheet1!B136="","",VLOOKUP(Sheet1!B136,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B136="","",IF(Sheet1!B136 &lt; 300000, VLOOKUP(Sheet1!B136,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B136,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="D136" t="str">
-        <f>IF(Sheet1!D136="","",VLOOKUP(Sheet1!D136,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D136="","",IF(Sheet1!D136 &lt; 300000, VLOOKUP(Sheet1!D136,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D136,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="E136" t="str">
-        <f>IF(Sheet1!F136="","",VLOOKUP(Sheet1!F136,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F136="","",IF(Sheet1!F136 &lt; 300000, VLOOKUP(Sheet1!F136,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F136,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="F136" t="str">
-        <f>IF(Sheet1!H136="","",VLOOKUP(Sheet1!H136,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H136="","",IF(Sheet1!H136 &lt; 300000, VLOOKUP(Sheet1!H136,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H136,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G136" t="str">
-        <f>IF(Sheet1!J136="","",VLOOKUP(Sheet1!J136,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J136="","",IF(Sheet1!J136 &lt; 300000, VLOOKUP(Sheet1!J136,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J136,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H136" t="str">
-        <f>IF(Sheet1!L136="","",VLOOKUP(Sheet1!L136,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L136="","",IF(Sheet1!L136 &lt; 300000, VLOOKUP(Sheet1!L136,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L136,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I136" t="str">
-        <f>IF(Sheet1!N136="","",VLOOKUP(Sheet1!N136,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N136="","",IF(Sheet1!N136 &lt; 300000, VLOOKUP(Sheet1!N136,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N136,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J136" t="str">
-        <f>IF(Sheet1!P136="","",VLOOKUP(Sheet1!P136,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P136="","",IF(Sheet1!P136 &lt; 300000, VLOOKUP(Sheet1!P136,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P136,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K136" t="str">
-        <f>IF(Sheet1!R136="","",VLOOKUP(Sheet1!R136,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R136="","",IF(Sheet1!R136 &lt; 300000, VLOOKUP(Sheet1!R136,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R136,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L136" t="str">
-        <f>IF(Sheet1!T136="","",VLOOKUP(Sheet1!T136,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T136="","",IF(Sheet1!T136 &lt; 300000, VLOOKUP(Sheet1!T136,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T136,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -14617,43 +14801,43 @@
         <v>暗之牛魔王</v>
       </c>
       <c r="C137" t="str">
-        <f>IF(Sheet1!B137="","",VLOOKUP(Sheet1!B137,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B137="","",IF(Sheet1!B137 &lt; 300000, VLOOKUP(Sheet1!B137,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B137,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="D137" t="str">
-        <f>IF(Sheet1!D137="","",VLOOKUP(Sheet1!D137,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D137="","",IF(Sheet1!D137 &lt; 300000, VLOOKUP(Sheet1!D137,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D137,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="E137" t="str">
-        <f>IF(Sheet1!F137="","",VLOOKUP(Sheet1!F137,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F137="","",IF(Sheet1!F137 &lt; 300000, VLOOKUP(Sheet1!F137,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F137,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="F137" t="str">
-        <f>IF(Sheet1!H137="","",VLOOKUP(Sheet1!H137,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H137="","",IF(Sheet1!H137 &lt; 300000, VLOOKUP(Sheet1!H137,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H137,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G137" t="str">
-        <f>IF(Sheet1!J137="","",VLOOKUP(Sheet1!J137,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J137="","",IF(Sheet1!J137 &lt; 300000, VLOOKUP(Sheet1!J137,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J137,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H137" t="str">
-        <f>IF(Sheet1!L137="","",VLOOKUP(Sheet1!L137,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L137="","",IF(Sheet1!L137 &lt; 300000, VLOOKUP(Sheet1!L137,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L137,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I137" t="str">
-        <f>IF(Sheet1!N137="","",VLOOKUP(Sheet1!N137,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N137="","",IF(Sheet1!N137 &lt; 300000, VLOOKUP(Sheet1!N137,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N137,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J137" t="str">
-        <f>IF(Sheet1!P137="","",VLOOKUP(Sheet1!P137,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P137="","",IF(Sheet1!P137 &lt; 300000, VLOOKUP(Sheet1!P137,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P137,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K137" t="str">
-        <f>IF(Sheet1!R137="","",VLOOKUP(Sheet1!R137,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R137="","",IF(Sheet1!R137 &lt; 300000, VLOOKUP(Sheet1!R137,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R137,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L137" t="str">
-        <f>IF(Sheet1!T137="","",VLOOKUP(Sheet1!T137,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T137="","",IF(Sheet1!T137 &lt; 300000, VLOOKUP(Sheet1!T137,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T137,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>
@@ -14667,43 +14851,43 @@
         <v>暗之祖玛教主</v>
       </c>
       <c r="C138" t="str">
-        <f>IF(Sheet1!B138="","",VLOOKUP(Sheet1!B138,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!B138="","",IF(Sheet1!B138 &lt; 300000, VLOOKUP(Sheet1!B138,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B138,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="D138" t="str">
-        <f>IF(Sheet1!D138="","",VLOOKUP(Sheet1!D138,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!D138="","",IF(Sheet1!D138 &lt; 300000, VLOOKUP(Sheet1!D138,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D138,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="E138" t="str">
-        <f>IF(Sheet1!F138="","",VLOOKUP(Sheet1!F138,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!F138="","",IF(Sheet1!F138 &lt; 300000, VLOOKUP(Sheet1!F138,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F138,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="F138" t="str">
-        <f>IF(Sheet1!H138="","",VLOOKUP(Sheet1!H138,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!H138="","",IF(Sheet1!H138 &lt; 300000, VLOOKUP(Sheet1!H138,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H138,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="G138" t="str">
-        <f>IF(Sheet1!J138="","",VLOOKUP(Sheet1!J138,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!J138="","",IF(Sheet1!J138 &lt; 300000, VLOOKUP(Sheet1!J138,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J138,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="H138" t="str">
-        <f>IF(Sheet1!L138="","",VLOOKUP(Sheet1!L138,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!L138="","",IF(Sheet1!L138 &lt; 300000, VLOOKUP(Sheet1!L138,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L138,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="I138" t="str">
-        <f>IF(Sheet1!N138="","",VLOOKUP(Sheet1!N138,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!N138="","",IF(Sheet1!N138 &lt; 300000, VLOOKUP(Sheet1!N138,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N138,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="J138" t="str">
-        <f>IF(Sheet1!P138="","",VLOOKUP(Sheet1!P138,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!P138="","",IF(Sheet1!P138 &lt; 300000, VLOOKUP(Sheet1!P138,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P138,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="K138" t="str">
-        <f>IF(Sheet1!R138="","",VLOOKUP(Sheet1!R138,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!R138="","",IF(Sheet1!R138 &lt; 300000, VLOOKUP(Sheet1!R138,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!R138,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
       <c r="L138" t="str">
-        <f>IF(Sheet1!T138="","",VLOOKUP(Sheet1!T138,[2]装备!$A$3:$B$248,2))</f>
+        <f>IF(Sheet1!T138="","",IF(Sheet1!T138 &lt; 300000, VLOOKUP(Sheet1!T138,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!T138,[2]装备!$A$3:$B$248,2)))</f>
         <v/>
       </c>
     </row>

--- a/documents/暴率表.xlsx
+++ b/documents/暴率表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="5325" yWindow="75" windowWidth="15615" windowHeight="7830"/>
+    <workbookView xWindow="5325" yWindow="75" windowWidth="15615" windowHeight="9045"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -163,7 +163,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -172,6 +172,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4218,7 +4221,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4556,10 +4559,10 @@
   <dimension ref="A1:V138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
+      <selection pane="bottomRight" activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -6767,153 +6770,675 @@
       <c r="A69" s="1">
         <v>10407</v>
       </c>
+      <c r="B69" s="3">
+        <v>301014</v>
+      </c>
+      <c r="C69" s="1">
+        <v>64</v>
+      </c>
+      <c r="D69" s="3">
+        <v>303007</v>
+      </c>
+      <c r="E69" s="1">
+        <v>64</v>
+      </c>
+      <c r="F69" s="3">
+        <v>304004</v>
+      </c>
+      <c r="G69" s="1">
+        <v>64</v>
+      </c>
+      <c r="H69" s="3">
+        <v>305010</v>
+      </c>
+      <c r="I69" s="1">
+        <v>64</v>
+      </c>
+      <c r="J69" s="3">
+        <v>306019</v>
+      </c>
+      <c r="K69" s="1">
+        <v>64</v>
+      </c>
       <c r="V69" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
         <v>10408</v>
       </c>
+      <c r="B70" s="3">
+        <v>301015</v>
+      </c>
+      <c r="C70" s="1">
+        <v>64</v>
+      </c>
+      <c r="D70" s="3">
+        <v>303008</v>
+      </c>
+      <c r="E70" s="1">
+        <v>64</v>
+      </c>
+      <c r="F70" s="3">
+        <v>304005</v>
+      </c>
+      <c r="G70" s="1">
+        <v>64</v>
+      </c>
+      <c r="H70" s="3">
+        <v>305012</v>
+      </c>
+      <c r="I70" s="1">
+        <v>64</v>
+      </c>
+      <c r="J70" s="3">
+        <v>307008</v>
+      </c>
+      <c r="K70" s="1">
+        <v>64</v>
+      </c>
       <c r="V70" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
         <v>10409</v>
       </c>
+      <c r="B71" s="3">
+        <v>302007</v>
+      </c>
+      <c r="C71" s="1">
+        <v>64</v>
+      </c>
+      <c r="D71" s="3">
+        <v>305024</v>
+      </c>
+      <c r="E71" s="1">
+        <v>100</v>
+      </c>
+      <c r="F71" s="3">
+        <v>306026</v>
+      </c>
+      <c r="G71" s="1">
+        <v>100</v>
+      </c>
+      <c r="H71" s="3">
+        <v>307022</v>
+      </c>
+      <c r="I71" s="1">
+        <v>100</v>
+      </c>
       <c r="V71" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
         <v>10410</v>
       </c>
+      <c r="B72" s="3">
+        <v>301016</v>
+      </c>
+      <c r="C72" s="1">
+        <v>64</v>
+      </c>
+      <c r="D72" s="3">
+        <v>303009</v>
+      </c>
+      <c r="E72" s="1">
+        <v>64</v>
+      </c>
+      <c r="F72" s="3">
+        <v>304007</v>
+      </c>
+      <c r="G72" s="1">
+        <v>100</v>
+      </c>
+      <c r="H72" s="3">
+        <v>305013</v>
+      </c>
+      <c r="I72" s="1">
+        <v>64</v>
+      </c>
+      <c r="J72" s="3">
+        <v>307009</v>
+      </c>
+      <c r="K72" s="1">
+        <v>64</v>
+      </c>
       <c r="V72" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
         <v>10411</v>
       </c>
+      <c r="B73" s="3">
+        <v>302008</v>
+      </c>
+      <c r="C73" s="1">
+        <v>64</v>
+      </c>
+      <c r="D73" s="3">
+        <v>305023</v>
+      </c>
+      <c r="E73" s="1">
+        <v>100</v>
+      </c>
+      <c r="F73" s="3">
+        <v>306027</v>
+      </c>
+      <c r="G73" s="1">
+        <v>100</v>
+      </c>
+      <c r="H73" s="3">
+        <v>307023</v>
+      </c>
+      <c r="I73" s="1">
+        <v>100</v>
+      </c>
       <c r="V73" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
         <v>10412</v>
       </c>
+      <c r="B74" s="3">
+        <v>301023</v>
+      </c>
+      <c r="C74" s="1">
+        <v>64</v>
+      </c>
+      <c r="D74" s="3">
+        <v>304003</v>
+      </c>
+      <c r="E74" s="1">
+        <v>64</v>
+      </c>
+      <c r="F74" s="3">
+        <v>304005</v>
+      </c>
+      <c r="G74" s="1">
+        <v>64</v>
+      </c>
+      <c r="H74" s="3">
+        <v>306018</v>
+      </c>
+      <c r="I74" s="1">
+        <v>64</v>
+      </c>
+      <c r="J74" s="3">
+        <v>307012</v>
+      </c>
+      <c r="K74" s="1">
+        <v>64</v>
+      </c>
       <c r="V74" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
         <v>10413</v>
       </c>
+      <c r="B75" s="3">
+        <v>302009</v>
+      </c>
+      <c r="C75" s="1">
+        <v>64</v>
+      </c>
+      <c r="D75" s="3">
+        <v>305025</v>
+      </c>
+      <c r="E75" s="1">
+        <v>100</v>
+      </c>
+      <c r="F75" s="3">
+        <v>306025</v>
+      </c>
+      <c r="G75" s="1">
+        <v>100</v>
+      </c>
+      <c r="H75" s="3">
+        <v>307024</v>
+      </c>
+      <c r="I75" s="1">
+        <v>100</v>
+      </c>
       <c r="V75" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
         <v>10414</v>
       </c>
+      <c r="B76" s="1">
+        <v>203003</v>
+      </c>
+      <c r="C76" s="1">
+        <v>64</v>
+      </c>
+      <c r="D76" s="1">
+        <v>203004</v>
+      </c>
+      <c r="E76" s="1">
+        <v>100</v>
+      </c>
+      <c r="F76" s="1">
+        <v>203005</v>
+      </c>
+      <c r="G76" s="1">
+        <v>150</v>
+      </c>
+      <c r="H76" s="1">
+        <v>203006</v>
+      </c>
+      <c r="I76" s="1">
+        <v>200</v>
+      </c>
       <c r="V76" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
         <v>10601</v>
       </c>
+      <c r="B77" s="3">
+        <v>301026</v>
+      </c>
+      <c r="C77" s="1">
+        <v>100</v>
+      </c>
+      <c r="D77" s="3">
+        <v>305023</v>
+      </c>
+      <c r="E77" s="1">
+        <v>100</v>
+      </c>
+      <c r="F77" s="3">
+        <v>306025</v>
+      </c>
+      <c r="G77" s="1">
+        <v>100</v>
+      </c>
+      <c r="H77" s="3">
+        <v>307022</v>
+      </c>
+      <c r="I77" s="1">
+        <v>100</v>
+      </c>
+      <c r="J77" s="3">
+        <v>309001</v>
+      </c>
+      <c r="K77" s="1">
+        <v>64</v>
+      </c>
+      <c r="L77" s="3">
+        <v>309003</v>
+      </c>
+      <c r="M77" s="1">
+        <v>75</v>
+      </c>
       <c r="V77" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
         <v>10602</v>
       </c>
+      <c r="B78" s="3">
+        <v>301029</v>
+      </c>
+      <c r="C78" s="1">
+        <v>100</v>
+      </c>
+      <c r="D78" s="3">
+        <v>305024</v>
+      </c>
+      <c r="E78" s="1">
+        <v>100</v>
+      </c>
+      <c r="F78" s="3">
+        <v>306026</v>
+      </c>
+      <c r="G78" s="1">
+        <v>100</v>
+      </c>
+      <c r="H78" s="3">
+        <v>307023</v>
+      </c>
+      <c r="I78" s="1">
+        <v>100</v>
+      </c>
+      <c r="J78" s="3">
+        <v>309002</v>
+      </c>
+      <c r="K78" s="1">
+        <v>64</v>
+      </c>
+      <c r="L78" s="3">
+        <v>309004</v>
+      </c>
+      <c r="M78" s="1">
+        <v>75</v>
+      </c>
       <c r="V78" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
         <v>10603</v>
       </c>
+      <c r="B79" s="3">
+        <v>301030</v>
+      </c>
+      <c r="C79" s="1">
+        <v>100</v>
+      </c>
+      <c r="D79" s="3">
+        <v>305025</v>
+      </c>
+      <c r="E79" s="1">
+        <v>100</v>
+      </c>
+      <c r="F79" s="3">
+        <v>306027</v>
+      </c>
+      <c r="G79" s="1">
+        <v>100</v>
+      </c>
+      <c r="H79" s="3">
+        <v>307024</v>
+      </c>
+      <c r="I79" s="1">
+        <v>100</v>
+      </c>
+      <c r="J79" s="3">
+        <v>310001</v>
+      </c>
+      <c r="K79" s="1">
+        <v>64</v>
+      </c>
+      <c r="L79" s="3">
+        <v>310003</v>
+      </c>
+      <c r="M79" s="1">
+        <v>75</v>
+      </c>
       <c r="V79" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
         <v>10604</v>
       </c>
+      <c r="B80" s="3">
+        <v>304008</v>
+      </c>
+      <c r="C80" s="1">
+        <v>200</v>
+      </c>
+      <c r="D80" s="3">
+        <v>305026</v>
+      </c>
+      <c r="E80" s="1">
+        <v>200</v>
+      </c>
+      <c r="F80" s="3">
+        <v>306028</v>
+      </c>
+      <c r="G80" s="1">
+        <v>200</v>
+      </c>
+      <c r="H80" s="3">
+        <v>307027</v>
+      </c>
+      <c r="I80" s="1">
+        <v>200</v>
+      </c>
+      <c r="J80" s="3">
+        <v>310002</v>
+      </c>
+      <c r="K80" s="1">
+        <v>64</v>
+      </c>
+      <c r="L80" s="3">
+        <v>310004</v>
+      </c>
+      <c r="M80" s="1">
+        <v>75</v>
+      </c>
       <c r="V80" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
         <v>10605</v>
       </c>
+      <c r="B81" s="3">
+        <v>304009</v>
+      </c>
+      <c r="C81" s="1">
+        <v>200</v>
+      </c>
+      <c r="D81" s="3">
+        <v>305027</v>
+      </c>
+      <c r="E81" s="1">
+        <v>200</v>
+      </c>
+      <c r="F81" s="3">
+        <v>306029</v>
+      </c>
+      <c r="G81" s="1">
+        <v>200</v>
+      </c>
+      <c r="H81" s="3">
+        <v>307028</v>
+      </c>
+      <c r="I81" s="1">
+        <v>200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>311002</v>
+      </c>
+      <c r="K81" s="1">
+        <v>64</v>
+      </c>
+      <c r="L81" s="3">
+        <v>311007</v>
+      </c>
+      <c r="M81" s="1">
+        <v>64</v>
+      </c>
       <c r="V81" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
         <v>10606</v>
       </c>
+      <c r="B82" s="3">
+        <v>304010</v>
+      </c>
+      <c r="C82" s="1">
+        <v>200</v>
+      </c>
+      <c r="D82" s="3">
+        <v>305028</v>
+      </c>
+      <c r="E82" s="1">
+        <v>200</v>
+      </c>
+      <c r="F82" s="3">
+        <v>306030</v>
+      </c>
+      <c r="G82" s="1">
+        <v>200</v>
+      </c>
+      <c r="H82" s="3">
+        <v>307029</v>
+      </c>
+      <c r="I82" s="1">
+        <v>200</v>
+      </c>
+      <c r="J82" s="3">
+        <v>311012</v>
+      </c>
+      <c r="K82" s="1">
+        <v>64</v>
+      </c>
+      <c r="L82" s="3">
+        <v>311017</v>
+      </c>
+      <c r="M82" s="1">
+        <v>64</v>
+      </c>
       <c r="V82" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
         <v>10701</v>
       </c>
+      <c r="B83" s="3">
+        <v>308006</v>
+      </c>
+      <c r="C83" s="1">
+        <v>75</v>
+      </c>
+      <c r="D83" s="3">
+        <v>308009</v>
+      </c>
+      <c r="E83" s="1">
+        <v>75</v>
+      </c>
+      <c r="F83" s="3">
+        <v>308012</v>
+      </c>
+      <c r="G83" s="1">
+        <v>150</v>
+      </c>
+      <c r="H83" s="3">
+        <v>308015</v>
+      </c>
+      <c r="I83" s="1">
+        <v>150</v>
+      </c>
+      <c r="J83" s="3">
+        <v>308018</v>
+      </c>
+      <c r="K83" s="1">
+        <v>200</v>
+      </c>
       <c r="V83" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
         <v>10702</v>
       </c>
+      <c r="B84" s="3">
+        <v>308007</v>
+      </c>
+      <c r="C84" s="1">
+        <v>75</v>
+      </c>
+      <c r="D84" s="3">
+        <v>308010</v>
+      </c>
+      <c r="E84" s="1">
+        <v>75</v>
+      </c>
+      <c r="F84" s="3">
+        <v>308013</v>
+      </c>
+      <c r="G84" s="1">
+        <v>150</v>
+      </c>
+      <c r="H84" s="3">
+        <v>308016</v>
+      </c>
+      <c r="I84" s="1">
+        <v>200</v>
+      </c>
+      <c r="J84" s="3">
+        <v>308019</v>
+      </c>
+      <c r="K84" s="1">
+        <v>200</v>
+      </c>
       <c r="V84" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
         <v>10703</v>
       </c>
+      <c r="B85" s="3">
+        <v>308008</v>
+      </c>
+      <c r="C85" s="1">
+        <v>75</v>
+      </c>
+      <c r="D85" s="3">
+        <v>308011</v>
+      </c>
+      <c r="E85" s="1">
+        <v>150</v>
+      </c>
+      <c r="F85" s="3">
+        <v>308014</v>
+      </c>
+      <c r="G85" s="1">
+        <v>150</v>
+      </c>
+      <c r="H85" s="3">
+        <v>308017</v>
+      </c>
+      <c r="I85" s="1">
+        <v>200</v>
+      </c>
+      <c r="J85" s="3">
+        <v>308020</v>
+      </c>
+      <c r="K85" s="1">
+        <v>200</v>
+      </c>
       <c r="V85" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.15">
@@ -6998,21 +7523,39 @@
       <c r="C94" s="1">
         <v>40</v>
       </c>
-      <c r="D94" s="1">
-        <v>302003</v>
+      <c r="D94" s="3">
+        <v>308001</v>
       </c>
       <c r="E94" s="1">
-        <v>64</v>
-      </c>
-      <c r="F94" s="1">
-        <v>303003</v>
+        <v>75</v>
+      </c>
+      <c r="F94" s="3">
+        <v>308002</v>
       </c>
       <c r="G94" s="1">
-        <v>64</v>
+        <v>75</v>
+      </c>
+      <c r="H94" s="3">
+        <v>308003</v>
+      </c>
+      <c r="I94" s="1">
+        <v>75</v>
+      </c>
+      <c r="J94" s="3">
+        <v>308004</v>
+      </c>
+      <c r="K94" s="1">
+        <v>75</v>
+      </c>
+      <c r="L94" s="3">
+        <v>308005</v>
+      </c>
+      <c r="M94" s="1">
+        <v>75</v>
       </c>
       <c r="V94" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.15">
@@ -7025,30 +7568,72 @@
       <c r="C95" s="1">
         <v>100</v>
       </c>
-      <c r="D95" s="1">
-        <v>302003</v>
+      <c r="D95" s="3">
+        <v>308001</v>
       </c>
       <c r="E95" s="1">
-        <v>64</v>
-      </c>
-      <c r="F95" s="1">
-        <v>303003</v>
+        <v>75</v>
+      </c>
+      <c r="F95" s="3">
+        <v>308002</v>
       </c>
       <c r="G95" s="1">
-        <v>64</v>
+        <v>75</v>
+      </c>
+      <c r="H95" s="3">
+        <v>308003</v>
+      </c>
+      <c r="I95" s="1">
+        <v>75</v>
+      </c>
+      <c r="J95" s="3">
+        <v>308004</v>
+      </c>
+      <c r="K95" s="1">
+        <v>75</v>
+      </c>
+      <c r="L95" s="3">
+        <v>308005</v>
+      </c>
+      <c r="M95" s="1">
+        <v>75</v>
       </c>
       <c r="V95" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
         <v>20003</v>
       </c>
+      <c r="B96" s="3">
+        <v>311001</v>
+      </c>
+      <c r="C96" s="1">
+        <v>100</v>
+      </c>
+      <c r="D96" s="3">
+        <v>311006</v>
+      </c>
+      <c r="E96" s="1">
+        <v>100</v>
+      </c>
+      <c r="F96" s="3">
+        <v>311011</v>
+      </c>
+      <c r="G96" s="1">
+        <v>100</v>
+      </c>
+      <c r="H96" s="3">
+        <v>311016</v>
+      </c>
+      <c r="I96" s="1">
+        <v>100</v>
+      </c>
       <c r="V96" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.15">
@@ -7597,9 +8182,21 @@
       <c r="K111" s="1">
         <v>150</v>
       </c>
+      <c r="L111" s="1">
+        <v>305017</v>
+      </c>
+      <c r="M111" s="1">
+        <v>1000</v>
+      </c>
+      <c r="N111" s="1">
+        <v>306017</v>
+      </c>
+      <c r="O111" s="1">
+        <v>1000</v>
+      </c>
       <c r="V111" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.15">
@@ -7741,69 +8338,195 @@
       <c r="A115" s="1">
         <v>20022</v>
       </c>
+      <c r="B115" s="3">
+        <v>305018</v>
+      </c>
+      <c r="C115" s="1">
+        <v>650</v>
+      </c>
+      <c r="D115" s="3">
+        <v>305019</v>
+      </c>
+      <c r="E115" s="1">
+        <v>650</v>
+      </c>
+      <c r="F115" s="3">
+        <v>306023</v>
+      </c>
+      <c r="G115" s="1">
+        <v>650</v>
+      </c>
+      <c r="H115" s="3">
+        <v>306024</v>
+      </c>
+      <c r="I115" s="1">
+        <v>650</v>
+      </c>
+      <c r="J115" s="3">
+        <v>307025</v>
+      </c>
+      <c r="K115" s="1">
+        <v>650</v>
+      </c>
+      <c r="L115" s="3">
+        <v>307026</v>
+      </c>
+      <c r="M115" s="1">
+        <v>650</v>
+      </c>
       <c r="V115" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A116" s="1">
         <v>20023</v>
       </c>
+      <c r="B116" s="3">
+        <v>305018</v>
+      </c>
+      <c r="C116" s="1">
+        <v>650</v>
+      </c>
+      <c r="D116" s="3">
+        <v>305019</v>
+      </c>
+      <c r="E116" s="1">
+        <v>650</v>
+      </c>
+      <c r="F116" s="3">
+        <v>306023</v>
+      </c>
+      <c r="G116" s="1">
+        <v>650</v>
+      </c>
+      <c r="H116" s="3">
+        <v>306024</v>
+      </c>
+      <c r="I116" s="1">
+        <v>650</v>
+      </c>
+      <c r="J116" s="3">
+        <v>307025</v>
+      </c>
+      <c r="K116" s="1">
+        <v>650</v>
+      </c>
+      <c r="L116" s="3">
+        <v>307026</v>
+      </c>
+      <c r="M116" s="1">
+        <v>650</v>
+      </c>
       <c r="V116" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A117" s="1">
         <v>20024</v>
       </c>
-      <c r="B117" s="1">
-        <v>301031</v>
+      <c r="B117" s="3">
+        <v>301017</v>
       </c>
       <c r="C117" s="1">
-        <v>650</v>
-      </c>
-      <c r="D117" s="1">
-        <v>301028</v>
+        <v>1500</v>
+      </c>
+      <c r="D117" s="3">
+        <v>305017</v>
       </c>
       <c r="E117" s="1">
-        <v>650</v>
-      </c>
-      <c r="F117" s="1">
-        <v>305017</v>
+        <v>1500</v>
+      </c>
+      <c r="F117" s="3">
+        <v>305019</v>
       </c>
       <c r="G117" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H117" s="1">
+        <v>500</v>
+      </c>
+      <c r="H117" s="3">
         <v>306017</v>
       </c>
       <c r="I117" s="1">
-        <v>1000</v>
+        <v>1500</v>
+      </c>
+      <c r="J117" s="3">
+        <v>306024</v>
+      </c>
+      <c r="K117" s="1">
+        <v>500</v>
+      </c>
+      <c r="L117" s="3">
+        <v>307021</v>
+      </c>
+      <c r="M117" s="1">
+        <v>1500</v>
+      </c>
+      <c r="N117" s="3">
+        <v>307026</v>
+      </c>
+      <c r="O117" s="1">
+        <v>500</v>
       </c>
       <c r="V117" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A118" s="1">
         <v>20025</v>
       </c>
+      <c r="B118" s="3">
+        <v>301026</v>
+      </c>
+      <c r="C118" s="1">
+        <v>100</v>
+      </c>
+      <c r="D118" s="3">
+        <v>301029</v>
+      </c>
+      <c r="E118" s="1">
+        <v>100</v>
+      </c>
+      <c r="F118" s="3">
+        <v>301030</v>
+      </c>
+      <c r="G118" s="1">
+        <v>100</v>
+      </c>
       <c r="V118" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A119" s="1">
         <v>20026</v>
       </c>
+      <c r="B119" s="3">
+        <v>301026</v>
+      </c>
+      <c r="C119" s="1">
+        <v>100</v>
+      </c>
+      <c r="D119" s="3">
+        <v>301029</v>
+      </c>
+      <c r="E119" s="1">
+        <v>100</v>
+      </c>
+      <c r="F119" s="3">
+        <v>301030</v>
+      </c>
+      <c r="G119" s="1">
+        <v>100</v>
+      </c>
       <c r="V119" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.15">
@@ -7989,8 +8712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L138"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="H102" sqref="H102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -11402,23 +12125,23 @@
       </c>
       <c r="C69" t="str">
         <f>IF(Sheet1!B69="","",IF(Sheet1!B69 &lt; 300000, VLOOKUP(Sheet1!B69,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B69,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>斩马刀</v>
       </c>
       <c r="D69" t="str">
         <f>IF(Sheet1!D69="","",IF(Sheet1!D69 &lt; 300000, VLOOKUP(Sheet1!D69,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D69,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>战神盔甲(女)</v>
       </c>
       <c r="E69" t="str">
         <f>IF(Sheet1!F69="","",IF(Sheet1!F69 &lt; 300000, VLOOKUP(Sheet1!F69,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F69,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>道士头盔</v>
       </c>
       <c r="F69" t="str">
         <f>IF(Sheet1!H69="","",IF(Sheet1!H69 &lt; 300000, VLOOKUP(Sheet1!H69,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H69,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>蓝翡翠项链</v>
       </c>
       <c r="G69" t="str">
         <f>IF(Sheet1!J69="","",IF(Sheet1!J69 &lt; 300000, VLOOKUP(Sheet1!J69,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J69,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>阎罗手套</v>
       </c>
       <c r="H69" t="str">
         <f>IF(Sheet1!L69="","",IF(Sheet1!L69 &lt; 300000, VLOOKUP(Sheet1!L69,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L69,[2]装备!$A$3:$B$248,2)))</f>
@@ -11452,23 +12175,23 @@
       </c>
       <c r="C70" t="str">
         <f>IF(Sheet1!B70="","",IF(Sheet1!B70 &lt; 300000, VLOOKUP(Sheet1!B70,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B70,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>偃月</v>
       </c>
       <c r="D70" t="str">
         <f>IF(Sheet1!D70="","",IF(Sheet1!D70 &lt; 300000, VLOOKUP(Sheet1!D70,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D70,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>幽灵战衣(女)</v>
       </c>
       <c r="E70" t="str">
         <f>IF(Sheet1!F70="","",IF(Sheet1!F70 &lt; 300000, VLOOKUP(Sheet1!F70,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F70,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>记忆头盔</v>
       </c>
       <c r="F70" t="str">
         <f>IF(Sheet1!H70="","",IF(Sheet1!H70 &lt; 300000, VLOOKUP(Sheet1!H70,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H70,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>放大镜</v>
       </c>
       <c r="G70" t="str">
         <f>IF(Sheet1!J70="","",IF(Sheet1!J70 &lt; 300000, VLOOKUP(Sheet1!J70,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J70,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>魅力戒指</v>
       </c>
       <c r="H70" t="str">
         <f>IF(Sheet1!L70="","",IF(Sheet1!L70 &lt; 300000, VLOOKUP(Sheet1!L70,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L70,[2]装备!$A$3:$B$248,2)))</f>
@@ -11502,19 +12225,19 @@
       </c>
       <c r="C71" t="str">
         <f>IF(Sheet1!B71="","",IF(Sheet1!B71 &lt; 300000, VLOOKUP(Sheet1!B71,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B71,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>战神盔甲(男)</v>
       </c>
       <c r="D71" t="str">
         <f>IF(Sheet1!D71="","",IF(Sheet1!D71 &lt; 300000, VLOOKUP(Sheet1!D71,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D71,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>灵魂项链</v>
       </c>
       <c r="E71" t="str">
         <f>IF(Sheet1!F71="","",IF(Sheet1!F71 &lt; 300000, VLOOKUP(Sheet1!F71,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F71,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>龙之手镯</v>
       </c>
       <c r="F71" t="str">
         <f>IF(Sheet1!H71="","",IF(Sheet1!H71 &lt; 300000, VLOOKUP(Sheet1!H71,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H71,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>力量戒指</v>
       </c>
       <c r="G71" t="str">
         <f>IF(Sheet1!J71="","",IF(Sheet1!J71 &lt; 300000, VLOOKUP(Sheet1!J71,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J71,[2]装备!$A$3:$B$248,2)))</f>
@@ -11552,23 +12275,23 @@
       </c>
       <c r="C72" t="str">
         <f>IF(Sheet1!B72="","",IF(Sheet1!B72 &lt; 300000, VLOOKUP(Sheet1!B72,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B72,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>降魔</v>
       </c>
       <c r="D72" t="str">
         <f>IF(Sheet1!D72="","",IF(Sheet1!D72 &lt; 300000, VLOOKUP(Sheet1!D72,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D72,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>恶魔长袍(女)</v>
       </c>
       <c r="E72" t="str">
         <f>IF(Sheet1!F72="","",IF(Sheet1!F72 &lt; 300000, VLOOKUP(Sheet1!F72,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F72,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>黑铁头盔</v>
       </c>
       <c r="F72" t="str">
         <f>IF(Sheet1!H72="","",IF(Sheet1!H72 &lt; 300000, VLOOKUP(Sheet1!H72,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H72,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>竹笛</v>
       </c>
       <c r="G72" t="str">
         <f>IF(Sheet1!J72="","",IF(Sheet1!J72 &lt; 300000, VLOOKUP(Sheet1!J72,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J72,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>道德戒指</v>
       </c>
       <c r="H72" t="str">
         <f>IF(Sheet1!L72="","",IF(Sheet1!L72 &lt; 300000, VLOOKUP(Sheet1!L72,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L72,[2]装备!$A$3:$B$248,2)))</f>
@@ -11602,19 +12325,19 @@
       </c>
       <c r="C73" t="str">
         <f>IF(Sheet1!B73="","",IF(Sheet1!B73 &lt; 300000, VLOOKUP(Sheet1!B73,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B73,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>幽灵战衣(男)</v>
       </c>
       <c r="D73" t="str">
         <f>IF(Sheet1!D73="","",IF(Sheet1!D73 &lt; 300000, VLOOKUP(Sheet1!D73,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D73,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>绿色项链</v>
       </c>
       <c r="E73" t="str">
         <f>IF(Sheet1!F73="","",IF(Sheet1!F73 &lt; 300000, VLOOKUP(Sheet1!F73,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F73,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>三眼手镯</v>
       </c>
       <c r="F73" t="str">
         <f>IF(Sheet1!H73="","",IF(Sheet1!H73 &lt; 300000, VLOOKUP(Sheet1!H73,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H73,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>紫碧螺</v>
       </c>
       <c r="G73" t="str">
         <f>IF(Sheet1!J73="","",IF(Sheet1!J73 &lt; 300000, VLOOKUP(Sheet1!J73,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J73,[2]装备!$A$3:$B$248,2)))</f>
@@ -11652,23 +12375,23 @@
       </c>
       <c r="C74" t="str">
         <f>IF(Sheet1!B74="","",IF(Sheet1!B74 &lt; 300000, VLOOKUP(Sheet1!B74,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B74,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>凝霜</v>
       </c>
       <c r="D74" t="str">
         <f>IF(Sheet1!D74="","",IF(Sheet1!D74 &lt; 300000, VLOOKUP(Sheet1!D74,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D74,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>骷髅头盔</v>
       </c>
       <c r="E74" t="str">
         <f>IF(Sheet1!F74="","",IF(Sheet1!F74 &lt; 300000, VLOOKUP(Sheet1!F74,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F74,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>记忆头盔</v>
       </c>
       <c r="F74" t="str">
         <f>IF(Sheet1!H74="","",IF(Sheet1!H74 &lt; 300000, VLOOKUP(Sheet1!H74,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H74,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>幽灵手套</v>
       </c>
       <c r="G74" t="str">
         <f>IF(Sheet1!J74="","",IF(Sheet1!J74 &lt; 300000, VLOOKUP(Sheet1!J74,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J74,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>珊瑚戒指</v>
       </c>
       <c r="H74" t="str">
         <f>IF(Sheet1!L74="","",IF(Sheet1!L74 &lt; 300000, VLOOKUP(Sheet1!L74,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L74,[2]装备!$A$3:$B$248,2)))</f>
@@ -11702,19 +12425,19 @@
       </c>
       <c r="C75" t="str">
         <f>IF(Sheet1!B75="","",IF(Sheet1!B75 &lt; 300000, VLOOKUP(Sheet1!B75,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B75,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>恶魔长袍(男)</v>
       </c>
       <c r="D75" t="str">
         <f>IF(Sheet1!D75="","",IF(Sheet1!D75 &lt; 300000, VLOOKUP(Sheet1!D75,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D75,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>恶魔铃铛</v>
       </c>
       <c r="E75" t="str">
         <f>IF(Sheet1!F75="","",IF(Sheet1!F75 &lt; 300000, VLOOKUP(Sheet1!F75,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F75,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>骑士手镯</v>
       </c>
       <c r="F75" t="str">
         <f>IF(Sheet1!H75="","",IF(Sheet1!H75 &lt; 300000, VLOOKUP(Sheet1!H75,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H75,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>泰坦戒指</v>
       </c>
       <c r="G75" t="str">
         <f>IF(Sheet1!J75="","",IF(Sheet1!J75 &lt; 300000, VLOOKUP(Sheet1!J75,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J75,[2]装备!$A$3:$B$248,2)))</f>
@@ -11752,19 +12475,19 @@
       </c>
       <c r="C76" t="str">
         <f>IF(Sheet1!B76="","",IF(Sheet1!B76 &lt; 300000, VLOOKUP(Sheet1!B76,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B76,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>大堆铜币</v>
       </c>
       <c r="D76" t="str">
         <f>IF(Sheet1!D76="","",IF(Sheet1!D76 &lt; 300000, VLOOKUP(Sheet1!D76,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D76,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>零星银币</v>
       </c>
       <c r="E76" t="str">
         <f>IF(Sheet1!F76="","",IF(Sheet1!F76 &lt; 300000, VLOOKUP(Sheet1!F76,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F76,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>小堆银币</v>
       </c>
       <c r="F76" t="str">
         <f>IF(Sheet1!H76="","",IF(Sheet1!H76 &lt; 300000, VLOOKUP(Sheet1!H76,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H76,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>大堆银币</v>
       </c>
       <c r="G76" t="str">
         <f>IF(Sheet1!J76="","",IF(Sheet1!J76 &lt; 300000, VLOOKUP(Sheet1!J76,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J76,[2]装备!$A$3:$B$248,2)))</f>
@@ -11802,27 +12525,27 @@
       </c>
       <c r="C77" t="str">
         <f>IF(Sheet1!B77="","",IF(Sheet1!B77 &lt; 300000, VLOOKUP(Sheet1!B77,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B77,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>裁决之杖</v>
       </c>
       <c r="D77" t="str">
         <f>IF(Sheet1!D77="","",IF(Sheet1!D77 &lt; 300000, VLOOKUP(Sheet1!D77,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D77,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>绿色项链</v>
       </c>
       <c r="E77" t="str">
         <f>IF(Sheet1!F77="","",IF(Sheet1!F77 &lt; 300000, VLOOKUP(Sheet1!F77,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F77,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>骑士手镯</v>
       </c>
       <c r="F77" t="str">
         <f>IF(Sheet1!H77="","",IF(Sheet1!H77 &lt; 300000, VLOOKUP(Sheet1!H77,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H77,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>力量戒指</v>
       </c>
       <c r="G77" t="str">
         <f>IF(Sheet1!J77="","",IF(Sheet1!J77 &lt; 300000, VLOOKUP(Sheet1!J77,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J77,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>兽皮腰带</v>
       </c>
       <c r="H77" t="str">
         <f>IF(Sheet1!L77="","",IF(Sheet1!L77 &lt; 300000, VLOOKUP(Sheet1!L77,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L77,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>青铜腰带</v>
       </c>
       <c r="I77" t="str">
         <f>IF(Sheet1!N77="","",IF(Sheet1!N77 &lt; 300000, VLOOKUP(Sheet1!N77,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N77,[2]装备!$A$3:$B$248,2)))</f>
@@ -11852,27 +12575,27 @@
       </c>
       <c r="C78" t="str">
         <f>IF(Sheet1!B78="","",IF(Sheet1!B78 &lt; 300000, VLOOKUP(Sheet1!B78,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B78,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>骨玉权杖</v>
       </c>
       <c r="D78" t="str">
         <f>IF(Sheet1!D78="","",IF(Sheet1!D78 &lt; 300000, VLOOKUP(Sheet1!D78,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D78,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>灵魂项链</v>
       </c>
       <c r="E78" t="str">
         <f>IF(Sheet1!F78="","",IF(Sheet1!F78 &lt; 300000, VLOOKUP(Sheet1!F78,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F78,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>龙之手镯</v>
       </c>
       <c r="F78" t="str">
         <f>IF(Sheet1!H78="","",IF(Sheet1!H78 &lt; 300000, VLOOKUP(Sheet1!H78,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H78,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>紫碧螺</v>
       </c>
       <c r="G78" t="str">
         <f>IF(Sheet1!J78="","",IF(Sheet1!J78 &lt; 300000, VLOOKUP(Sheet1!J78,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J78,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>铁腰带</v>
       </c>
       <c r="H78" t="str">
         <f>IF(Sheet1!L78="","",IF(Sheet1!L78 &lt; 300000, VLOOKUP(Sheet1!L78,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L78,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>钢铁腰带</v>
       </c>
       <c r="I78" t="str">
         <f>IF(Sheet1!N78="","",IF(Sheet1!N78 &lt; 300000, VLOOKUP(Sheet1!N78,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N78,[2]装备!$A$3:$B$248,2)))</f>
@@ -11902,27 +12625,27 @@
       </c>
       <c r="C79" t="str">
         <f>IF(Sheet1!B79="","",IF(Sheet1!B79 &lt; 300000, VLOOKUP(Sheet1!B79,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B79,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>龙纹剑</v>
       </c>
       <c r="D79" t="str">
         <f>IF(Sheet1!D79="","",IF(Sheet1!D79 &lt; 300000, VLOOKUP(Sheet1!D79,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D79,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>恶魔铃铛</v>
       </c>
       <c r="E79" t="str">
         <f>IF(Sheet1!F79="","",IF(Sheet1!F79 &lt; 300000, VLOOKUP(Sheet1!F79,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F79,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>三眼手镯</v>
       </c>
       <c r="F79" t="str">
         <f>IF(Sheet1!H79="","",IF(Sheet1!H79 &lt; 300000, VLOOKUP(Sheet1!H79,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H79,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>泰坦戒指</v>
       </c>
       <c r="G79" t="str">
         <f>IF(Sheet1!J79="","",IF(Sheet1!J79 &lt; 300000, VLOOKUP(Sheet1!J79,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J79,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>布鞋</v>
       </c>
       <c r="H79" t="str">
         <f>IF(Sheet1!L79="","",IF(Sheet1!L79 &lt; 300000, VLOOKUP(Sheet1!L79,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L79,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>紫绸靴</v>
       </c>
       <c r="I79" t="str">
         <f>IF(Sheet1!N79="","",IF(Sheet1!N79 &lt; 300000, VLOOKUP(Sheet1!N79,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N79,[2]装备!$A$3:$B$248,2)))</f>
@@ -11952,27 +12675,27 @@
       </c>
       <c r="C80" t="str">
         <f>IF(Sheet1!B80="","",IF(Sheet1!B80 &lt; 300000, VLOOKUP(Sheet1!B80,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B80,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>圣战头盔</v>
       </c>
       <c r="D80" t="str">
         <f>IF(Sheet1!D80="","",IF(Sheet1!D80 &lt; 300000, VLOOKUP(Sheet1!D80,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D80,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>圣战项链</v>
       </c>
       <c r="E80" t="str">
         <f>IF(Sheet1!F80="","",IF(Sheet1!F80 &lt; 300000, VLOOKUP(Sheet1!F80,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F80,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>圣战手镯</v>
       </c>
       <c r="F80" t="str">
         <f>IF(Sheet1!H80="","",IF(Sheet1!H80 &lt; 300000, VLOOKUP(Sheet1!H80,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H80,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>圣战戒指</v>
       </c>
       <c r="G80" t="str">
         <f>IF(Sheet1!J80="","",IF(Sheet1!J80 &lt; 300000, VLOOKUP(Sheet1!J80,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J80,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>鹿皮靴</v>
       </c>
       <c r="H80" t="str">
         <f>IF(Sheet1!L80="","",IF(Sheet1!L80 &lt; 300000, VLOOKUP(Sheet1!L80,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L80,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>避魂靴</v>
       </c>
       <c r="I80" t="str">
         <f>IF(Sheet1!N80="","",IF(Sheet1!N80 &lt; 300000, VLOOKUP(Sheet1!N80,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N80,[2]装备!$A$3:$B$248,2)))</f>
@@ -12002,27 +12725,27 @@
       </c>
       <c r="C81" t="str">
         <f>IF(Sheet1!B81="","",IF(Sheet1!B81 &lt; 300000, VLOOKUP(Sheet1!B81,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B81,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>法神头盔</v>
       </c>
       <c r="D81" t="str">
         <f>IF(Sheet1!D81="","",IF(Sheet1!D81 &lt; 300000, VLOOKUP(Sheet1!D81,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D81,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>法神项链</v>
       </c>
       <c r="E81" t="str">
         <f>IF(Sheet1!F81="","",IF(Sheet1!F81 &lt; 300000, VLOOKUP(Sheet1!F81,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F81,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>法神手镯</v>
       </c>
       <c r="F81" t="str">
         <f>IF(Sheet1!H81="","",IF(Sheet1!H81 &lt; 300000, VLOOKUP(Sheet1!H81,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H81,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>法神戒指</v>
       </c>
       <c r="G81" t="str">
         <f>IF(Sheet1!J81="","",IF(Sheet1!J81 &lt; 300000, VLOOKUP(Sheet1!J81,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J81,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>蓝宝石2</v>
       </c>
       <c r="H81" t="str">
         <f>IF(Sheet1!L81="","",IF(Sheet1!L81 &lt; 300000, VLOOKUP(Sheet1!L81,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L81,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>紫宝石2</v>
       </c>
       <c r="I81" t="str">
         <f>IF(Sheet1!N81="","",IF(Sheet1!N81 &lt; 300000, VLOOKUP(Sheet1!N81,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N81,[2]装备!$A$3:$B$248,2)))</f>
@@ -12052,27 +12775,27 @@
       </c>
       <c r="C82" t="str">
         <f>IF(Sheet1!B82="","",IF(Sheet1!B82 &lt; 300000, VLOOKUP(Sheet1!B82,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B82,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>天尊头盔</v>
       </c>
       <c r="D82" t="str">
         <f>IF(Sheet1!D82="","",IF(Sheet1!D82 &lt; 300000, VLOOKUP(Sheet1!D82,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D82,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>天尊项链</v>
       </c>
       <c r="E82" t="str">
         <f>IF(Sheet1!F82="","",IF(Sheet1!F82 &lt; 300000, VLOOKUP(Sheet1!F82,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F82,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>天尊手镯</v>
       </c>
       <c r="F82" t="str">
         <f>IF(Sheet1!H82="","",IF(Sheet1!H82 &lt; 300000, VLOOKUP(Sheet1!H82,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H82,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>天尊戒指</v>
       </c>
       <c r="G82" t="str">
         <f>IF(Sheet1!J82="","",IF(Sheet1!J82 &lt; 300000, VLOOKUP(Sheet1!J82,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J82,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>红宝石2</v>
       </c>
       <c r="H82" t="str">
         <f>IF(Sheet1!L82="","",IF(Sheet1!L82 &lt; 300000, VLOOKUP(Sheet1!L82,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L82,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>绿宝石2</v>
       </c>
       <c r="I82" t="str">
         <f>IF(Sheet1!N82="","",IF(Sheet1!N82 &lt; 300000, VLOOKUP(Sheet1!N82,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N82,[2]装备!$A$3:$B$248,2)))</f>
@@ -12102,23 +12825,23 @@
       </c>
       <c r="C83" t="str">
         <f>IF(Sheet1!B83="","",IF(Sheet1!B83 &lt; 300000, VLOOKUP(Sheet1!B83,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B83,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>勋章21号</v>
       </c>
       <c r="D83" t="str">
         <f>IF(Sheet1!D83="","",IF(Sheet1!D83 &lt; 300000, VLOOKUP(Sheet1!D83,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D83,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>勋章24号</v>
       </c>
       <c r="E83" t="str">
         <f>IF(Sheet1!F83="","",IF(Sheet1!F83 &lt; 300000, VLOOKUP(Sheet1!F83,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F83,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>勋章32号</v>
       </c>
       <c r="F83" t="str">
         <f>IF(Sheet1!H83="","",IF(Sheet1!H83 &lt; 300000, VLOOKUP(Sheet1!H83,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H83,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>勋章35号</v>
       </c>
       <c r="G83" t="str">
         <f>IF(Sheet1!J83="","",IF(Sheet1!J83 &lt; 300000, VLOOKUP(Sheet1!J83,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J83,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>勋章43号</v>
       </c>
       <c r="H83" t="str">
         <f>IF(Sheet1!L83="","",IF(Sheet1!L83 &lt; 300000, VLOOKUP(Sheet1!L83,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L83,[2]装备!$A$3:$B$248,2)))</f>
@@ -12152,23 +12875,23 @@
       </c>
       <c r="C84" t="str">
         <f>IF(Sheet1!B84="","",IF(Sheet1!B84 &lt; 300000, VLOOKUP(Sheet1!B84,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B84,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>勋章22号</v>
       </c>
       <c r="D84" t="str">
         <f>IF(Sheet1!D84="","",IF(Sheet1!D84 &lt; 300000, VLOOKUP(Sheet1!D84,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D84,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>勋章25号</v>
       </c>
       <c r="E84" t="str">
         <f>IF(Sheet1!F84="","",IF(Sheet1!F84 &lt; 300000, VLOOKUP(Sheet1!F84,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F84,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>勋章33号</v>
       </c>
       <c r="F84" t="str">
         <f>IF(Sheet1!H84="","",IF(Sheet1!H84 &lt; 300000, VLOOKUP(Sheet1!H84,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H84,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>勋章41号</v>
       </c>
       <c r="G84" t="str">
         <f>IF(Sheet1!J84="","",IF(Sheet1!J84 &lt; 300000, VLOOKUP(Sheet1!J84,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J84,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>勋章44号</v>
       </c>
       <c r="H84" t="str">
         <f>IF(Sheet1!L84="","",IF(Sheet1!L84 &lt; 300000, VLOOKUP(Sheet1!L84,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L84,[2]装备!$A$3:$B$248,2)))</f>
@@ -12202,23 +12925,23 @@
       </c>
       <c r="C85" t="str">
         <f>IF(Sheet1!B85="","",IF(Sheet1!B85 &lt; 300000, VLOOKUP(Sheet1!B85,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B85,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>勋章23号</v>
       </c>
       <c r="D85" t="str">
         <f>IF(Sheet1!D85="","",IF(Sheet1!D85 &lt; 300000, VLOOKUP(Sheet1!D85,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D85,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>勋章31号</v>
       </c>
       <c r="E85" t="str">
         <f>IF(Sheet1!F85="","",IF(Sheet1!F85 &lt; 300000, VLOOKUP(Sheet1!F85,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F85,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>勋章34号</v>
       </c>
       <c r="F85" t="str">
         <f>IF(Sheet1!H85="","",IF(Sheet1!H85 &lt; 300000, VLOOKUP(Sheet1!H85,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H85,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>勋章42号</v>
       </c>
       <c r="G85" t="str">
         <f>IF(Sheet1!J85="","",IF(Sheet1!J85 &lt; 300000, VLOOKUP(Sheet1!J85,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J85,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>勋章45号</v>
       </c>
       <c r="H85" t="str">
         <f>IF(Sheet1!L85="","",IF(Sheet1!L85 &lt; 300000, VLOOKUP(Sheet1!L85,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L85,[2]装备!$A$3:$B$248,2)))</f>
@@ -12656,23 +13379,23 @@
       </c>
       <c r="D94" t="str">
         <f>IF(Sheet1!D94="","",IF(Sheet1!D94 &lt; 300000, VLOOKUP(Sheet1!D94,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D94,[2]装备!$A$3:$B$248,2)))</f>
-        <v>中型盔甲(男)</v>
+        <v>勋章11号</v>
       </c>
       <c r="E94" t="str">
         <f>IF(Sheet1!F94="","",IF(Sheet1!F94 &lt; 300000, VLOOKUP(Sheet1!F94,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F94,[2]装备!$A$3:$B$248,2)))</f>
-        <v>中型盔甲(女)</v>
+        <v>勋章12号</v>
       </c>
       <c r="F94" t="str">
         <f>IF(Sheet1!H94="","",IF(Sheet1!H94 &lt; 300000, VLOOKUP(Sheet1!H94,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H94,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>勋章13号</v>
       </c>
       <c r="G94" t="str">
         <f>IF(Sheet1!J94="","",IF(Sheet1!J94 &lt; 300000, VLOOKUP(Sheet1!J94,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J94,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>勋章14号</v>
       </c>
       <c r="H94" t="str">
         <f>IF(Sheet1!L94="","",IF(Sheet1!L94 &lt; 300000, VLOOKUP(Sheet1!L94,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L94,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>勋章15号</v>
       </c>
       <c r="I94" t="str">
         <f>IF(Sheet1!N94="","",IF(Sheet1!N94 &lt; 300000, VLOOKUP(Sheet1!N94,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N94,[2]装备!$A$3:$B$248,2)))</f>
@@ -12706,23 +13429,23 @@
       </c>
       <c r="D95" t="str">
         <f>IF(Sheet1!D95="","",IF(Sheet1!D95 &lt; 300000, VLOOKUP(Sheet1!D95,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D95,[2]装备!$A$3:$B$248,2)))</f>
-        <v>中型盔甲(男)</v>
+        <v>勋章11号</v>
       </c>
       <c r="E95" t="str">
         <f>IF(Sheet1!F95="","",IF(Sheet1!F95 &lt; 300000, VLOOKUP(Sheet1!F95,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F95,[2]装备!$A$3:$B$248,2)))</f>
-        <v>中型盔甲(女)</v>
+        <v>勋章12号</v>
       </c>
       <c r="F95" t="str">
         <f>IF(Sheet1!H95="","",IF(Sheet1!H95 &lt; 300000, VLOOKUP(Sheet1!H95,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H95,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>勋章13号</v>
       </c>
       <c r="G95" t="str">
         <f>IF(Sheet1!J95="","",IF(Sheet1!J95 &lt; 300000, VLOOKUP(Sheet1!J95,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J95,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>勋章14号</v>
       </c>
       <c r="H95" t="str">
         <f>IF(Sheet1!L95="","",IF(Sheet1!L95 &lt; 300000, VLOOKUP(Sheet1!L95,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L95,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>勋章15号</v>
       </c>
       <c r="I95" t="str">
         <f>IF(Sheet1!N95="","",IF(Sheet1!N95 &lt; 300000, VLOOKUP(Sheet1!N95,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N95,[2]装备!$A$3:$B$248,2)))</f>
@@ -12752,19 +13475,19 @@
       </c>
       <c r="C96" t="str">
         <f>IF(Sheet1!B96="","",IF(Sheet1!B96 &lt; 300000, VLOOKUP(Sheet1!B96,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B96,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>蓝宝石1</v>
       </c>
       <c r="D96" t="str">
         <f>IF(Sheet1!D96="","",IF(Sheet1!D96 &lt; 300000, VLOOKUP(Sheet1!D96,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D96,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>紫宝石1</v>
       </c>
       <c r="E96" t="str">
         <f>IF(Sheet1!F96="","",IF(Sheet1!F96 &lt; 300000, VLOOKUP(Sheet1!F96,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F96,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>红宝石1</v>
       </c>
       <c r="F96" t="str">
         <f>IF(Sheet1!H96="","",IF(Sheet1!H96 &lt; 300000, VLOOKUP(Sheet1!H96,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H96,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>绿宝石1</v>
       </c>
       <c r="G96" t="str">
         <f>IF(Sheet1!J96="","",IF(Sheet1!J96 &lt; 300000, VLOOKUP(Sheet1!J96,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J96,[2]装备!$A$3:$B$248,2)))</f>
@@ -13522,11 +14245,11 @@
       </c>
       <c r="H111" t="str">
         <f>IF(Sheet1!L111="","",IF(Sheet1!L111 &lt; 300000, VLOOKUP(Sheet1!L111,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L111,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>祈祷项链</v>
       </c>
       <c r="I111" t="str">
         <f>IF(Sheet1!N111="","",IF(Sheet1!N111 &lt; 300000, VLOOKUP(Sheet1!N111,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N111,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>祈祷手镯</v>
       </c>
       <c r="J111" t="str">
         <f>IF(Sheet1!P111="","",IF(Sheet1!P111 &lt; 300000, VLOOKUP(Sheet1!P111,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P111,[2]装备!$A$3:$B$248,2)))</f>
@@ -13702,27 +14425,27 @@
       </c>
       <c r="C115" t="str">
         <f>IF(Sheet1!B115="","",IF(Sheet1!B115 &lt; 300000, VLOOKUP(Sheet1!B115,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B115,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>魔血项链</v>
       </c>
       <c r="D115" t="str">
         <f>IF(Sheet1!D115="","",IF(Sheet1!D115 &lt; 300000, VLOOKUP(Sheet1!D115,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D115,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>虹魔项链</v>
       </c>
       <c r="E115" t="str">
         <f>IF(Sheet1!F115="","",IF(Sheet1!F115 &lt; 300000, VLOOKUP(Sheet1!F115,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F115,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>魔血手镯</v>
       </c>
       <c r="F115" t="str">
         <f>IF(Sheet1!H115="","",IF(Sheet1!H115 &lt; 300000, VLOOKUP(Sheet1!H115,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H115,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>虹魔手镯</v>
       </c>
       <c r="G115" t="str">
         <f>IF(Sheet1!J115="","",IF(Sheet1!J115 &lt; 300000, VLOOKUP(Sheet1!J115,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J115,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>魔血戒指</v>
       </c>
       <c r="H115" t="str">
         <f>IF(Sheet1!L115="","",IF(Sheet1!L115 &lt; 300000, VLOOKUP(Sheet1!L115,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L115,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>虹魔戒指</v>
       </c>
       <c r="I115" t="str">
         <f>IF(Sheet1!N115="","",IF(Sheet1!N115 &lt; 300000, VLOOKUP(Sheet1!N115,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N115,[2]装备!$A$3:$B$248,2)))</f>
@@ -13752,27 +14475,27 @@
       </c>
       <c r="C116" t="str">
         <f>IF(Sheet1!B116="","",IF(Sheet1!B116 &lt; 300000, VLOOKUP(Sheet1!B116,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B116,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>魔血项链</v>
       </c>
       <c r="D116" t="str">
         <f>IF(Sheet1!D116="","",IF(Sheet1!D116 &lt; 300000, VLOOKUP(Sheet1!D116,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D116,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>虹魔项链</v>
       </c>
       <c r="E116" t="str">
         <f>IF(Sheet1!F116="","",IF(Sheet1!F116 &lt; 300000, VLOOKUP(Sheet1!F116,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F116,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>魔血手镯</v>
       </c>
       <c r="F116" t="str">
         <f>IF(Sheet1!H116="","",IF(Sheet1!H116 &lt; 300000, VLOOKUP(Sheet1!H116,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H116,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>虹魔手镯</v>
       </c>
       <c r="G116" t="str">
         <f>IF(Sheet1!J116="","",IF(Sheet1!J116 &lt; 300000, VLOOKUP(Sheet1!J116,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J116,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>魔血戒指</v>
       </c>
       <c r="H116" t="str">
         <f>IF(Sheet1!L116="","",IF(Sheet1!L116 &lt; 300000, VLOOKUP(Sheet1!L116,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L116,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>虹魔戒指</v>
       </c>
       <c r="I116" t="str">
         <f>IF(Sheet1!N116="","",IF(Sheet1!N116 &lt; 300000, VLOOKUP(Sheet1!N116,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N116,[2]装备!$A$3:$B$248,2)))</f>
@@ -13802,15 +14525,15 @@
       </c>
       <c r="C117" t="str">
         <f>IF(Sheet1!B117="","",IF(Sheet1!B117 &lt; 300000, VLOOKUP(Sheet1!B117,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B117,[2]装备!$A$3:$B$248,2)))</f>
-        <v>嗜魂法杖</v>
+        <v>祈祷之刃</v>
       </c>
       <c r="D117" t="str">
         <f>IF(Sheet1!D117="","",IF(Sheet1!D117 &lt; 300000, VLOOKUP(Sheet1!D117,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D117,[2]装备!$A$3:$B$248,2)))</f>
-        <v>屠龙</v>
+        <v>祈祷项链</v>
       </c>
       <c r="E117" t="str">
         <f>IF(Sheet1!F117="","",IF(Sheet1!F117 &lt; 300000, VLOOKUP(Sheet1!F117,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F117,[2]装备!$A$3:$B$248,2)))</f>
-        <v>祈祷项链</v>
+        <v>虹魔项链</v>
       </c>
       <c r="F117" t="str">
         <f>IF(Sheet1!H117="","",IF(Sheet1!H117 &lt; 300000, VLOOKUP(Sheet1!H117,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H117,[2]装备!$A$3:$B$248,2)))</f>
@@ -13818,15 +14541,15 @@
       </c>
       <c r="G117" t="str">
         <f>IF(Sheet1!J117="","",IF(Sheet1!J117 &lt; 300000, VLOOKUP(Sheet1!J117,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J117,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>虹魔手镯</v>
       </c>
       <c r="H117" t="str">
         <f>IF(Sheet1!L117="","",IF(Sheet1!L117 &lt; 300000, VLOOKUP(Sheet1!L117,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L117,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>祈祷戒指</v>
       </c>
       <c r="I117" t="str">
         <f>IF(Sheet1!N117="","",IF(Sheet1!N117 &lt; 300000, VLOOKUP(Sheet1!N117,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N117,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>虹魔戒指</v>
       </c>
       <c r="J117" t="str">
         <f>IF(Sheet1!P117="","",IF(Sheet1!P117 &lt; 300000, VLOOKUP(Sheet1!P117,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P117,[2]装备!$A$3:$B$248,2)))</f>
@@ -13852,15 +14575,15 @@
       </c>
       <c r="C118" t="str">
         <f>IF(Sheet1!B118="","",IF(Sheet1!B118 &lt; 300000, VLOOKUP(Sheet1!B118,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B118,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>裁决之杖</v>
       </c>
       <c r="D118" t="str">
         <f>IF(Sheet1!D118="","",IF(Sheet1!D118 &lt; 300000, VLOOKUP(Sheet1!D118,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D118,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>骨玉权杖</v>
       </c>
       <c r="E118" t="str">
         <f>IF(Sheet1!F118="","",IF(Sheet1!F118 &lt; 300000, VLOOKUP(Sheet1!F118,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F118,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>龙纹剑</v>
       </c>
       <c r="F118" t="str">
         <f>IF(Sheet1!H118="","",IF(Sheet1!H118 &lt; 300000, VLOOKUP(Sheet1!H118,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H118,[2]装备!$A$3:$B$248,2)))</f>
@@ -13902,15 +14625,15 @@
       </c>
       <c r="C119" t="str">
         <f>IF(Sheet1!B119="","",IF(Sheet1!B119 &lt; 300000, VLOOKUP(Sheet1!B119,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B119,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>裁决之杖</v>
       </c>
       <c r="D119" t="str">
         <f>IF(Sheet1!D119="","",IF(Sheet1!D119 &lt; 300000, VLOOKUP(Sheet1!D119,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D119,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>骨玉权杖</v>
       </c>
       <c r="E119" t="str">
         <f>IF(Sheet1!F119="","",IF(Sheet1!F119 &lt; 300000, VLOOKUP(Sheet1!F119,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F119,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>龙纹剑</v>
       </c>
       <c r="F119" t="str">
         <f>IF(Sheet1!H119="","",IF(Sheet1!H119 &lt; 300000, VLOOKUP(Sheet1!H119,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H119,[2]装备!$A$3:$B$248,2)))</f>

--- a/documents/暴率表.xlsx
+++ b/documents/暴率表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="5325" yWindow="75" windowWidth="15615" windowHeight="9045"/>
+    <workbookView xWindow="5130" yWindow="30" windowWidth="15615" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4221,7 +4221,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4559,10 +4559,10 @@
   <dimension ref="A1:V138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B111" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E97" sqref="E97"/>
+      <selection pane="bottomRight" activeCell="E129" sqref="E129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -4865,7 +4865,7 @@
       <c r="A10" s="1">
         <v>10109</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>203001</v>
       </c>
       <c r="C10" s="1">
@@ -6770,31 +6770,31 @@
       <c r="A69" s="1">
         <v>10407</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69" s="2">
         <v>301014</v>
       </c>
       <c r="C69" s="1">
         <v>64</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D69" s="2">
         <v>303007</v>
       </c>
       <c r="E69" s="1">
         <v>64</v>
       </c>
-      <c r="F69" s="3">
+      <c r="F69" s="2">
         <v>304004</v>
       </c>
       <c r="G69" s="1">
         <v>64</v>
       </c>
-      <c r="H69" s="3">
+      <c r="H69" s="2">
         <v>305010</v>
       </c>
       <c r="I69" s="1">
         <v>64</v>
       </c>
-      <c r="J69" s="3">
+      <c r="J69" s="2">
         <v>306019</v>
       </c>
       <c r="K69" s="1">
@@ -6809,31 +6809,31 @@
       <c r="A70" s="1">
         <v>10408</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70" s="2">
         <v>301015</v>
       </c>
       <c r="C70" s="1">
         <v>64</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70" s="2">
         <v>303008</v>
       </c>
       <c r="E70" s="1">
         <v>64</v>
       </c>
-      <c r="F70" s="3">
+      <c r="F70" s="2">
         <v>304005</v>
       </c>
       <c r="G70" s="1">
         <v>64</v>
       </c>
-      <c r="H70" s="3">
+      <c r="H70" s="2">
         <v>305012</v>
       </c>
       <c r="I70" s="1">
         <v>64</v>
       </c>
-      <c r="J70" s="3">
+      <c r="J70" s="2">
         <v>307008</v>
       </c>
       <c r="K70" s="1">
@@ -6848,25 +6848,25 @@
       <c r="A71" s="1">
         <v>10409</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71" s="2">
         <v>302007</v>
       </c>
       <c r="C71" s="1">
         <v>64</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D71" s="2">
         <v>305024</v>
       </c>
       <c r="E71" s="1">
         <v>100</v>
       </c>
-      <c r="F71" s="3">
+      <c r="F71" s="2">
         <v>306026</v>
       </c>
       <c r="G71" s="1">
         <v>100</v>
       </c>
-      <c r="H71" s="3">
+      <c r="H71" s="2">
         <v>307022</v>
       </c>
       <c r="I71" s="1">
@@ -6881,31 +6881,31 @@
       <c r="A72" s="1">
         <v>10410</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72" s="2">
         <v>301016</v>
       </c>
       <c r="C72" s="1">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="2">
         <v>303009</v>
       </c>
       <c r="E72" s="1">
         <v>64</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F72" s="2">
         <v>304007</v>
       </c>
       <c r="G72" s="1">
         <v>100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="H72" s="2">
         <v>305013</v>
       </c>
       <c r="I72" s="1">
         <v>64</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="2">
         <v>307009</v>
       </c>
       <c r="K72" s="1">
@@ -6920,25 +6920,25 @@
       <c r="A73" s="1">
         <v>10411</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" s="2">
         <v>302008</v>
       </c>
       <c r="C73" s="1">
         <v>64</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D73" s="2">
         <v>305023</v>
       </c>
       <c r="E73" s="1">
         <v>100</v>
       </c>
-      <c r="F73" s="3">
+      <c r="F73" s="2">
         <v>306027</v>
       </c>
       <c r="G73" s="1">
         <v>100</v>
       </c>
-      <c r="H73" s="3">
+      <c r="H73" s="2">
         <v>307023</v>
       </c>
       <c r="I73" s="1">
@@ -6953,31 +6953,31 @@
       <c r="A74" s="1">
         <v>10412</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74" s="2">
         <v>301023</v>
       </c>
       <c r="C74" s="1">
         <v>64</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D74" s="2">
         <v>304003</v>
       </c>
       <c r="E74" s="1">
         <v>64</v>
       </c>
-      <c r="F74" s="3">
+      <c r="F74" s="2">
         <v>304005</v>
       </c>
       <c r="G74" s="1">
         <v>64</v>
       </c>
-      <c r="H74" s="3">
+      <c r="H74" s="2">
         <v>306018</v>
       </c>
       <c r="I74" s="1">
         <v>64</v>
       </c>
-      <c r="J74" s="3">
+      <c r="J74" s="2">
         <v>307012</v>
       </c>
       <c r="K74" s="1">
@@ -6992,25 +6992,25 @@
       <c r="A75" s="1">
         <v>10413</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75" s="2">
         <v>302009</v>
       </c>
       <c r="C75" s="1">
         <v>64</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D75" s="2">
         <v>305025</v>
       </c>
       <c r="E75" s="1">
         <v>100</v>
       </c>
-      <c r="F75" s="3">
+      <c r="F75" s="2">
         <v>306025</v>
       </c>
       <c r="G75" s="1">
         <v>100</v>
       </c>
-      <c r="H75" s="3">
+      <c r="H75" s="2">
         <v>307024</v>
       </c>
       <c r="I75" s="1">
@@ -7058,37 +7058,37 @@
       <c r="A77" s="1">
         <v>10601</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77" s="2">
         <v>301026</v>
       </c>
       <c r="C77" s="1">
         <v>100</v>
       </c>
-      <c r="D77" s="3">
+      <c r="D77" s="2">
         <v>305023</v>
       </c>
       <c r="E77" s="1">
         <v>100</v>
       </c>
-      <c r="F77" s="3">
+      <c r="F77" s="2">
         <v>306025</v>
       </c>
       <c r="G77" s="1">
         <v>100</v>
       </c>
-      <c r="H77" s="3">
+      <c r="H77" s="2">
         <v>307022</v>
       </c>
       <c r="I77" s="1">
         <v>100</v>
       </c>
-      <c r="J77" s="3">
+      <c r="J77" s="2">
         <v>309001</v>
       </c>
       <c r="K77" s="1">
         <v>64</v>
       </c>
-      <c r="L77" s="3">
+      <c r="L77" s="2">
         <v>309003</v>
       </c>
       <c r="M77" s="1">
@@ -7103,37 +7103,37 @@
       <c r="A78" s="1">
         <v>10602</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78" s="2">
         <v>301029</v>
       </c>
       <c r="C78" s="1">
         <v>100</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D78" s="2">
         <v>305024</v>
       </c>
       <c r="E78" s="1">
         <v>100</v>
       </c>
-      <c r="F78" s="3">
+      <c r="F78" s="2">
         <v>306026</v>
       </c>
       <c r="G78" s="1">
         <v>100</v>
       </c>
-      <c r="H78" s="3">
+      <c r="H78" s="2">
         <v>307023</v>
       </c>
       <c r="I78" s="1">
         <v>100</v>
       </c>
-      <c r="J78" s="3">
+      <c r="J78" s="2">
         <v>309002</v>
       </c>
       <c r="K78" s="1">
         <v>64</v>
       </c>
-      <c r="L78" s="3">
+      <c r="L78" s="2">
         <v>309004</v>
       </c>
       <c r="M78" s="1">
@@ -7148,37 +7148,37 @@
       <c r="A79" s="1">
         <v>10603</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B79" s="2">
         <v>301030</v>
       </c>
       <c r="C79" s="1">
         <v>100</v>
       </c>
-      <c r="D79" s="3">
+      <c r="D79" s="2">
         <v>305025</v>
       </c>
       <c r="E79" s="1">
         <v>100</v>
       </c>
-      <c r="F79" s="3">
+      <c r="F79" s="2">
         <v>306027</v>
       </c>
       <c r="G79" s="1">
         <v>100</v>
       </c>
-      <c r="H79" s="3">
+      <c r="H79" s="2">
         <v>307024</v>
       </c>
       <c r="I79" s="1">
         <v>100</v>
       </c>
-      <c r="J79" s="3">
+      <c r="J79" s="2">
         <v>310001</v>
       </c>
       <c r="K79" s="1">
         <v>64</v>
       </c>
-      <c r="L79" s="3">
+      <c r="L79" s="2">
         <v>310003</v>
       </c>
       <c r="M79" s="1">
@@ -7193,37 +7193,37 @@
       <c r="A80" s="1">
         <v>10604</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B80" s="2">
         <v>304008</v>
       </c>
       <c r="C80" s="1">
         <v>200</v>
       </c>
-      <c r="D80" s="3">
+      <c r="D80" s="2">
         <v>305026</v>
       </c>
       <c r="E80" s="1">
         <v>200</v>
       </c>
-      <c r="F80" s="3">
+      <c r="F80" s="2">
         <v>306028</v>
       </c>
       <c r="G80" s="1">
         <v>200</v>
       </c>
-      <c r="H80" s="3">
+      <c r="H80" s="2">
         <v>307027</v>
       </c>
       <c r="I80" s="1">
         <v>200</v>
       </c>
-      <c r="J80" s="3">
+      <c r="J80" s="2">
         <v>310002</v>
       </c>
       <c r="K80" s="1">
         <v>64</v>
       </c>
-      <c r="L80" s="3">
+      <c r="L80" s="2">
         <v>310004</v>
       </c>
       <c r="M80" s="1">
@@ -7238,37 +7238,37 @@
       <c r="A81" s="1">
         <v>10605</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B81" s="2">
         <v>304009</v>
       </c>
       <c r="C81" s="1">
         <v>200</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="2">
         <v>305027</v>
       </c>
       <c r="E81" s="1">
         <v>200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="F81" s="2">
         <v>306029</v>
       </c>
       <c r="G81" s="1">
         <v>200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="H81" s="2">
         <v>307028</v>
       </c>
       <c r="I81" s="1">
         <v>200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="J81" s="2">
         <v>311002</v>
       </c>
       <c r="K81" s="1">
         <v>64</v>
       </c>
-      <c r="L81" s="3">
+      <c r="L81" s="2">
         <v>311007</v>
       </c>
       <c r="M81" s="1">
@@ -7283,37 +7283,37 @@
       <c r="A82" s="1">
         <v>10606</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B82" s="2">
         <v>304010</v>
       </c>
       <c r="C82" s="1">
         <v>200</v>
       </c>
-      <c r="D82" s="3">
+      <c r="D82" s="2">
         <v>305028</v>
       </c>
       <c r="E82" s="1">
         <v>200</v>
       </c>
-      <c r="F82" s="3">
+      <c r="F82" s="2">
         <v>306030</v>
       </c>
       <c r="G82" s="1">
         <v>200</v>
       </c>
-      <c r="H82" s="3">
+      <c r="H82" s="2">
         <v>307029</v>
       </c>
       <c r="I82" s="1">
         <v>200</v>
       </c>
-      <c r="J82" s="3">
+      <c r="J82" s="2">
         <v>311012</v>
       </c>
       <c r="K82" s="1">
         <v>64</v>
       </c>
-      <c r="L82" s="3">
+      <c r="L82" s="2">
         <v>311017</v>
       </c>
       <c r="M82" s="1">
@@ -7328,31 +7328,31 @@
       <c r="A83" s="1">
         <v>10701</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B83" s="2">
         <v>308006</v>
       </c>
       <c r="C83" s="1">
         <v>75</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="2">
         <v>308009</v>
       </c>
       <c r="E83" s="1">
         <v>75</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F83" s="2">
         <v>308012</v>
       </c>
       <c r="G83" s="1">
         <v>150</v>
       </c>
-      <c r="H83" s="3">
+      <c r="H83" s="2">
         <v>308015</v>
       </c>
       <c r="I83" s="1">
         <v>150</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="2">
         <v>308018</v>
       </c>
       <c r="K83" s="1">
@@ -7367,31 +7367,31 @@
       <c r="A84" s="1">
         <v>10702</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B84" s="2">
         <v>308007</v>
       </c>
       <c r="C84" s="1">
         <v>75</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D84" s="2">
         <v>308010</v>
       </c>
       <c r="E84" s="1">
         <v>75</v>
       </c>
-      <c r="F84" s="3">
+      <c r="F84" s="2">
         <v>308013</v>
       </c>
       <c r="G84" s="1">
         <v>150</v>
       </c>
-      <c r="H84" s="3">
+      <c r="H84" s="2">
         <v>308016</v>
       </c>
       <c r="I84" s="1">
         <v>200</v>
       </c>
-      <c r="J84" s="3">
+      <c r="J84" s="2">
         <v>308019</v>
       </c>
       <c r="K84" s="1">
@@ -7406,31 +7406,31 @@
       <c r="A85" s="1">
         <v>10703</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B85" s="2">
         <v>308008</v>
       </c>
       <c r="C85" s="1">
         <v>75</v>
       </c>
-      <c r="D85" s="3">
+      <c r="D85" s="2">
         <v>308011</v>
       </c>
       <c r="E85" s="1">
         <v>150</v>
       </c>
-      <c r="F85" s="3">
+      <c r="F85" s="2">
         <v>308014</v>
       </c>
       <c r="G85" s="1">
         <v>150</v>
       </c>
-      <c r="H85" s="3">
+      <c r="H85" s="2">
         <v>308017</v>
       </c>
       <c r="I85" s="1">
         <v>200</v>
       </c>
-      <c r="J85" s="3">
+      <c r="J85" s="2">
         <v>308020</v>
       </c>
       <c r="K85" s="1">
@@ -7523,31 +7523,31 @@
       <c r="C94" s="1">
         <v>40</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="2">
         <v>308001</v>
       </c>
       <c r="E94" s="1">
         <v>75</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94" s="2">
         <v>308002</v>
       </c>
       <c r="G94" s="1">
         <v>75</v>
       </c>
-      <c r="H94" s="3">
+      <c r="H94" s="2">
         <v>308003</v>
       </c>
       <c r="I94" s="1">
         <v>75</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94" s="2">
         <v>308004</v>
       </c>
       <c r="K94" s="1">
         <v>75</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="2">
         <v>308005</v>
       </c>
       <c r="M94" s="1">
@@ -7568,31 +7568,31 @@
       <c r="C95" s="1">
         <v>100</v>
       </c>
-      <c r="D95" s="3">
+      <c r="D95" s="2">
         <v>308001</v>
       </c>
       <c r="E95" s="1">
         <v>75</v>
       </c>
-      <c r="F95" s="3">
+      <c r="F95" s="2">
         <v>308002</v>
       </c>
       <c r="G95" s="1">
         <v>75</v>
       </c>
-      <c r="H95" s="3">
+      <c r="H95" s="2">
         <v>308003</v>
       </c>
       <c r="I95" s="1">
         <v>75</v>
       </c>
-      <c r="J95" s="3">
+      <c r="J95" s="2">
         <v>308004</v>
       </c>
       <c r="K95" s="1">
         <v>75</v>
       </c>
-      <c r="L95" s="3">
+      <c r="L95" s="2">
         <v>308005</v>
       </c>
       <c r="M95" s="1">
@@ -7607,25 +7607,25 @@
       <c r="A96" s="1">
         <v>20003</v>
       </c>
-      <c r="B96" s="3">
+      <c r="B96" s="2">
         <v>311001</v>
       </c>
       <c r="C96" s="1">
         <v>100</v>
       </c>
-      <c r="D96" s="3">
+      <c r="D96" s="2">
         <v>311006</v>
       </c>
       <c r="E96" s="1">
         <v>100</v>
       </c>
-      <c r="F96" s="3">
+      <c r="F96" s="2">
         <v>311011</v>
       </c>
       <c r="G96" s="1">
         <v>100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="H96" s="2">
         <v>311016</v>
       </c>
       <c r="I96" s="1">
@@ -8329,46 +8329,52 @@
       <c r="M114" s="1">
         <v>500</v>
       </c>
+      <c r="N114" s="3">
+        <v>301036</v>
+      </c>
+      <c r="O114" s="1">
+        <v>1000</v>
+      </c>
       <c r="V114" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A115" s="1">
         <v>20022</v>
       </c>
-      <c r="B115" s="3">
+      <c r="B115" s="2">
         <v>305018</v>
       </c>
       <c r="C115" s="1">
         <v>650</v>
       </c>
-      <c r="D115" s="3">
+      <c r="D115" s="2">
         <v>305019</v>
       </c>
       <c r="E115" s="1">
         <v>650</v>
       </c>
-      <c r="F115" s="3">
+      <c r="F115" s="2">
         <v>306023</v>
       </c>
       <c r="G115" s="1">
         <v>650</v>
       </c>
-      <c r="H115" s="3">
+      <c r="H115" s="2">
         <v>306024</v>
       </c>
       <c r="I115" s="1">
         <v>650</v>
       </c>
-      <c r="J115" s="3">
+      <c r="J115" s="2">
         <v>307025</v>
       </c>
       <c r="K115" s="1">
         <v>650</v>
       </c>
-      <c r="L115" s="3">
+      <c r="L115" s="2">
         <v>307026</v>
       </c>
       <c r="M115" s="1">
@@ -8383,37 +8389,37 @@
       <c r="A116" s="1">
         <v>20023</v>
       </c>
-      <c r="B116" s="3">
+      <c r="B116" s="2">
         <v>305018</v>
       </c>
       <c r="C116" s="1">
         <v>650</v>
       </c>
-      <c r="D116" s="3">
+      <c r="D116" s="2">
         <v>305019</v>
       </c>
       <c r="E116" s="1">
         <v>650</v>
       </c>
-      <c r="F116" s="3">
+      <c r="F116" s="2">
         <v>306023</v>
       </c>
       <c r="G116" s="1">
         <v>650</v>
       </c>
-      <c r="H116" s="3">
+      <c r="H116" s="2">
         <v>306024</v>
       </c>
       <c r="I116" s="1">
         <v>650</v>
       </c>
-      <c r="J116" s="3">
+      <c r="J116" s="2">
         <v>307025</v>
       </c>
       <c r="K116" s="1">
         <v>650</v>
       </c>
-      <c r="L116" s="3">
+      <c r="L116" s="2">
         <v>307026</v>
       </c>
       <c r="M116" s="1">
@@ -8428,43 +8434,43 @@
       <c r="A117" s="1">
         <v>20024</v>
       </c>
-      <c r="B117" s="3">
+      <c r="B117" s="2">
         <v>301017</v>
       </c>
       <c r="C117" s="1">
         <v>1500</v>
       </c>
-      <c r="D117" s="3">
+      <c r="D117" s="2">
         <v>305017</v>
       </c>
       <c r="E117" s="1">
         <v>1500</v>
       </c>
-      <c r="F117" s="3">
+      <c r="F117" s="2">
         <v>305019</v>
       </c>
       <c r="G117" s="1">
         <v>500</v>
       </c>
-      <c r="H117" s="3">
+      <c r="H117" s="2">
         <v>306017</v>
       </c>
       <c r="I117" s="1">
         <v>1500</v>
       </c>
-      <c r="J117" s="3">
+      <c r="J117" s="2">
         <v>306024</v>
       </c>
       <c r="K117" s="1">
         <v>500</v>
       </c>
-      <c r="L117" s="3">
+      <c r="L117" s="2">
         <v>307021</v>
       </c>
       <c r="M117" s="1">
         <v>1500</v>
       </c>
-      <c r="N117" s="3">
+      <c r="N117" s="2">
         <v>307026</v>
       </c>
       <c r="O117" s="1">
@@ -8479,19 +8485,19 @@
       <c r="A118" s="1">
         <v>20025</v>
       </c>
-      <c r="B118" s="3">
+      <c r="B118" s="2">
         <v>301026</v>
       </c>
       <c r="C118" s="1">
         <v>100</v>
       </c>
-      <c r="D118" s="3">
+      <c r="D118" s="2">
         <v>301029</v>
       </c>
       <c r="E118" s="1">
         <v>100</v>
       </c>
-      <c r="F118" s="3">
+      <c r="F118" s="2">
         <v>301030</v>
       </c>
       <c r="G118" s="1">
@@ -8506,19 +8512,19 @@
       <c r="A119" s="1">
         <v>20026</v>
       </c>
-      <c r="B119" s="3">
+      <c r="B119" s="2">
         <v>301026</v>
       </c>
       <c r="C119" s="1">
         <v>100</v>
       </c>
-      <c r="D119" s="3">
+      <c r="D119" s="2">
         <v>301029</v>
       </c>
       <c r="E119" s="1">
         <v>100</v>
       </c>
-      <c r="F119" s="3">
+      <c r="F119" s="2">
         <v>301030</v>
       </c>
       <c r="G119" s="1">
@@ -8560,9 +8566,45 @@
       <c r="A123" s="1">
         <v>20030</v>
       </c>
+      <c r="B123" s="2">
+        <v>301037</v>
+      </c>
+      <c r="C123" s="1">
+        <v>500</v>
+      </c>
+      <c r="D123" s="2">
+        <v>301038</v>
+      </c>
+      <c r="E123" s="1">
+        <v>500</v>
+      </c>
+      <c r="F123" s="2">
+        <v>301039</v>
+      </c>
+      <c r="G123" s="1">
+        <v>500</v>
+      </c>
+      <c r="H123" s="2">
+        <v>302016</v>
+      </c>
+      <c r="I123" s="1">
+        <v>500</v>
+      </c>
+      <c r="J123" s="2">
+        <v>303016</v>
+      </c>
+      <c r="K123" s="1">
+        <v>500</v>
+      </c>
+      <c r="L123" s="2">
+        <v>303016</v>
+      </c>
+      <c r="M123" s="1">
+        <v>500</v>
+      </c>
       <c r="V123" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124" spans="1:22" x14ac:dyDescent="0.15">
@@ -8712,8 +8754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L138"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="H102" sqref="H102"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="E121" sqref="E121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -14399,7 +14441,7 @@
       </c>
       <c r="I114" t="str">
         <f>IF(Sheet1!N114="","",IF(Sheet1!N114 &lt; 300000, VLOOKUP(Sheet1!N114,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N114,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>霸者之刃</v>
       </c>
       <c r="J114" t="str">
         <f>IF(Sheet1!P114="","",IF(Sheet1!P114 &lt; 300000, VLOOKUP(Sheet1!P114,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!P114,[2]装备!$A$3:$B$248,2)))</f>
@@ -14825,27 +14867,27 @@
       </c>
       <c r="C123" t="str">
         <f>IF(Sheet1!B123="","",IF(Sheet1!B123 &lt; 300000, VLOOKUP(Sheet1!B123,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!B123,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>开天</v>
       </c>
       <c r="D123" t="str">
         <f>IF(Sheet1!D123="","",IF(Sheet1!D123 &lt; 300000, VLOOKUP(Sheet1!D123,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!D123,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>镇天</v>
       </c>
       <c r="E123" t="str">
         <f>IF(Sheet1!F123="","",IF(Sheet1!F123 &lt; 300000, VLOOKUP(Sheet1!F123,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!F123,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>玄天</v>
       </c>
       <c r="F123" t="str">
         <f>IF(Sheet1!H123="","",IF(Sheet1!H123 &lt; 300000, VLOOKUP(Sheet1!H123,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!H123,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>凤天魔甲</v>
       </c>
       <c r="G123" t="str">
         <f>IF(Sheet1!J123="","",IF(Sheet1!J123 &lt; 300000, VLOOKUP(Sheet1!J123,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!J123,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>凰天魔衣</v>
       </c>
       <c r="H123" t="str">
         <f>IF(Sheet1!L123="","",IF(Sheet1!L123 &lt; 300000, VLOOKUP(Sheet1!L123,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!L123,[2]装备!$A$3:$B$248,2)))</f>
-        <v/>
+        <v>凰天魔衣</v>
       </c>
       <c r="I123" t="str">
         <f>IF(Sheet1!N123="","",IF(Sheet1!N123 &lt; 300000, VLOOKUP(Sheet1!N123,[2]道具!$A$3:$B$248,2), VLOOKUP(Sheet1!N123,[2]装备!$A$3:$B$248,2)))</f>

--- a/documents/暴率表.xlsx
+++ b/documents/暴率表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="45" windowWidth="13170" windowHeight="9330"/>
+    <workbookView xWindow="7320" yWindow="135" windowWidth="13170" windowHeight="9240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -225,7 +225,127 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="31">
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="9"/>
@@ -1377,13 +1497,19 @@
           </cell>
         </row>
         <row r="140">
-          <cell r="B140"/>
+          <cell r="B140">
+            <v>0</v>
+          </cell>
         </row>
         <row r="141">
-          <cell r="B141"/>
+          <cell r="B141">
+            <v>0</v>
+          </cell>
         </row>
         <row r="142">
-          <cell r="B142"/>
+          <cell r="B142">
+            <v>0</v>
+          </cell>
         </row>
         <row r="143">
           <cell r="A143">
@@ -7374,10 +7500,10 @@
   <dimension ref="A1:V181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B149" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B146" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A159" sqref="A159:XFD159"/>
+      <selection pane="bottomRight" activeCell="C164" sqref="C164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7564,7 +7690,7 @@
         <v>301005</v>
       </c>
       <c r="E6" s="1">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F6" s="1">
         <v>305001</v>
@@ -10401,19 +10527,19 @@
         <v>304008</v>
       </c>
       <c r="C91" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D91" s="1">
         <v>304009</v>
       </c>
       <c r="E91" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F91" s="1">
         <v>304010</v>
       </c>
       <c r="G91" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H91" s="1">
         <v>304014</v>
@@ -10446,19 +10572,19 @@
         <v>305026</v>
       </c>
       <c r="C92" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D92" s="1">
         <v>305027</v>
       </c>
       <c r="E92" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F92" s="1">
         <v>305028</v>
       </c>
       <c r="G92" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H92" s="1">
         <v>305035</v>
@@ -10491,19 +10617,19 @@
         <v>306028</v>
       </c>
       <c r="C93" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D93" s="1">
         <v>306029</v>
       </c>
       <c r="E93" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F93" s="1">
         <v>306030</v>
       </c>
       <c r="G93" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H93" s="1">
         <v>306037</v>
@@ -10536,19 +10662,19 @@
         <v>307027</v>
       </c>
       <c r="C94" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D94" s="1">
         <v>307028</v>
       </c>
       <c r="E94" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F94" s="1">
         <v>307029</v>
       </c>
       <c r="G94" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H94" s="1">
         <v>307036</v>
@@ -10803,13 +10929,13 @@
         <v>301033</v>
       </c>
       <c r="C103" s="1">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="D103" s="1">
         <v>304011</v>
       </c>
       <c r="E103" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F103" s="1">
         <v>304017</v>
@@ -10821,7 +10947,7 @@
         <v>305032</v>
       </c>
       <c r="I103" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="J103" s="1">
         <v>305038</v>
@@ -10842,13 +10968,13 @@
         <v>301034</v>
       </c>
       <c r="C104" s="1">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="D104" s="1">
         <v>304012</v>
       </c>
       <c r="E104" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F104" s="1">
         <v>304018</v>
@@ -10860,7 +10986,7 @@
         <v>305033</v>
       </c>
       <c r="I104" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="J104" s="1">
         <v>305039</v>
@@ -10881,13 +11007,13 @@
         <v>301035</v>
       </c>
       <c r="C105" s="1">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="D105" s="1">
         <v>304013</v>
       </c>
       <c r="E105" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F105" s="1">
         <v>304019</v>
@@ -10899,7 +11025,7 @@
         <v>305034</v>
       </c>
       <c r="I105" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="J105" s="1">
         <v>305040</v>
@@ -10926,7 +11052,7 @@
         <v>306034</v>
       </c>
       <c r="E106" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F106" s="1">
         <v>306040</v>
@@ -10934,13 +11060,13 @@
       <c r="G106" s="1">
         <v>300</v>
       </c>
-      <c r="H106" s="3">
+      <c r="H106" s="2">
         <v>310005</v>
       </c>
       <c r="I106" s="1">
-        <v>150</v>
-      </c>
-      <c r="J106" s="3">
+        <v>100</v>
+      </c>
+      <c r="J106" s="2">
         <v>310011</v>
       </c>
       <c r="K106" s="1">
@@ -10965,7 +11091,7 @@
         <v>306035</v>
       </c>
       <c r="E107" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F107" s="1">
         <v>306041</v>
@@ -10973,13 +11099,13 @@
       <c r="G107" s="1">
         <v>300</v>
       </c>
-      <c r="H107" s="3">
+      <c r="H107" s="2">
         <v>310006</v>
       </c>
       <c r="I107" s="1">
-        <v>150</v>
-      </c>
-      <c r="J107" s="3">
+        <v>100</v>
+      </c>
+      <c r="J107" s="2">
         <v>310012</v>
       </c>
       <c r="K107" s="1">
@@ -11004,7 +11130,7 @@
         <v>306036</v>
       </c>
       <c r="E108" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F108" s="1">
         <v>306042</v>
@@ -11012,13 +11138,13 @@
       <c r="G108" s="1">
         <v>300</v>
       </c>
-      <c r="H108" s="3">
+      <c r="H108" s="2">
         <v>310007</v>
       </c>
       <c r="I108" s="1">
-        <v>150</v>
-      </c>
-      <c r="J108" s="3">
+        <v>100</v>
+      </c>
+      <c r="J108" s="2">
         <v>310013</v>
       </c>
       <c r="K108" s="1">
@@ -11091,19 +11217,19 @@
         <v>309005</v>
       </c>
       <c r="C111" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D111" s="1">
         <v>309006</v>
       </c>
       <c r="E111" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F111" s="1">
         <v>309007</v>
       </c>
       <c r="G111" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H111" s="1">
         <v>309008</v>
@@ -11136,19 +11262,19 @@
         <v>308006</v>
       </c>
       <c r="C112" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D112" s="1">
         <v>308007</v>
       </c>
       <c r="E112" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F112" s="1">
         <v>308008</v>
       </c>
       <c r="G112" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H112" s="1">
         <v>308009</v>
@@ -11204,18 +11330,54 @@
       <c r="A114" s="1">
         <v>10115</v>
       </c>
+      <c r="B114" s="1">
+        <v>203005</v>
+      </c>
+      <c r="C114" s="1">
+        <v>32</v>
+      </c>
+      <c r="D114" s="1">
+        <v>203006</v>
+      </c>
+      <c r="E114" s="1">
+        <v>64</v>
+      </c>
+      <c r="F114" s="1">
+        <v>203007</v>
+      </c>
+      <c r="G114" s="1">
+        <v>75</v>
+      </c>
       <c r="V114" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:22">
       <c r="A115" s="1">
         <v>10116</v>
       </c>
+      <c r="B115" s="1">
+        <v>203005</v>
+      </c>
+      <c r="C115" s="1">
+        <v>32</v>
+      </c>
+      <c r="D115" s="1">
+        <v>203006</v>
+      </c>
+      <c r="E115" s="1">
+        <v>64</v>
+      </c>
+      <c r="F115" s="1">
+        <v>203007</v>
+      </c>
+      <c r="G115" s="1">
+        <v>75</v>
+      </c>
       <c r="V115" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:22">
@@ -11241,26 +11403,44 @@
         <v>10119</v>
       </c>
       <c r="B118" s="1">
+        <v>305032</v>
+      </c>
+      <c r="C118" s="1">
+        <v>75</v>
+      </c>
+      <c r="D118" s="1">
+        <v>305033</v>
+      </c>
+      <c r="E118" s="1">
+        <v>75</v>
+      </c>
+      <c r="F118" s="1">
+        <v>305034</v>
+      </c>
+      <c r="G118" s="1">
+        <v>75</v>
+      </c>
+      <c r="H118" s="1">
         <v>305041</v>
       </c>
-      <c r="C118" s="1">
+      <c r="I118" s="1">
         <v>400</v>
       </c>
-      <c r="D118" s="1">
+      <c r="J118" s="1">
         <v>305042</v>
       </c>
-      <c r="E118" s="1">
+      <c r="K118" s="1">
         <v>400</v>
       </c>
-      <c r="F118" s="1">
+      <c r="L118" s="1">
         <v>305043</v>
       </c>
-      <c r="G118" s="1">
+      <c r="M118" s="1">
         <v>400</v>
       </c>
       <c r="V118" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119" spans="1:22">
@@ -11268,53 +11448,89 @@
         <v>10120</v>
       </c>
       <c r="B119" s="1">
+        <v>306034</v>
+      </c>
+      <c r="C119" s="1">
+        <v>75</v>
+      </c>
+      <c r="D119" s="1">
+        <v>306035</v>
+      </c>
+      <c r="E119" s="1">
+        <v>75</v>
+      </c>
+      <c r="F119" s="1">
+        <v>306036</v>
+      </c>
+      <c r="G119" s="1">
+        <v>75</v>
+      </c>
+      <c r="H119" s="1">
         <v>306043</v>
       </c>
-      <c r="C119" s="1">
+      <c r="I119" s="1">
         <v>400</v>
       </c>
-      <c r="D119" s="1">
+      <c r="J119" s="1">
         <v>306044</v>
       </c>
-      <c r="E119" s="1">
+      <c r="K119" s="1">
         <v>400</v>
       </c>
-      <c r="F119" s="1">
+      <c r="L119" s="1">
         <v>306045</v>
       </c>
-      <c r="G119" s="1">
+      <c r="M119" s="1">
         <v>400</v>
       </c>
       <c r="V119" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="120" spans="1:22">
       <c r="A120" s="1">
         <v>10121</v>
       </c>
-      <c r="B120" s="5">
+      <c r="B120" s="1">
+        <v>307033</v>
+      </c>
+      <c r="C120" s="1">
+        <v>75</v>
+      </c>
+      <c r="D120" s="1">
+        <v>307034</v>
+      </c>
+      <c r="E120" s="1">
+        <v>75</v>
+      </c>
+      <c r="F120" s="1">
+        <v>307035</v>
+      </c>
+      <c r="G120" s="1">
+        <v>75</v>
+      </c>
+      <c r="H120" s="5">
         <v>307042</v>
       </c>
-      <c r="C120" s="1">
+      <c r="I120" s="1">
         <v>400</v>
       </c>
-      <c r="D120" s="5">
+      <c r="J120" s="5">
         <v>307043</v>
       </c>
-      <c r="E120" s="1">
+      <c r="K120" s="1">
         <v>400</v>
       </c>
-      <c r="F120" s="5">
+      <c r="L120" s="5">
         <v>307044</v>
       </c>
-      <c r="G120" s="1">
+      <c r="M120" s="1">
         <v>400</v>
       </c>
       <c r="V120" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121" spans="1:22">
@@ -11322,26 +11538,44 @@
         <v>10122</v>
       </c>
       <c r="B121" s="1">
+        <v>308006</v>
+      </c>
+      <c r="C121" s="1">
+        <v>75</v>
+      </c>
+      <c r="D121" s="1">
+        <v>308007</v>
+      </c>
+      <c r="E121" s="1">
+        <v>75</v>
+      </c>
+      <c r="F121" s="1">
+        <v>308008</v>
+      </c>
+      <c r="G121" s="1">
+        <v>75</v>
+      </c>
+      <c r="H121" s="1">
         <v>308012</v>
       </c>
-      <c r="C121" s="1">
+      <c r="I121" s="1">
         <v>400</v>
       </c>
-      <c r="D121" s="1">
+      <c r="J121" s="1">
         <v>308013</v>
       </c>
-      <c r="E121" s="1">
+      <c r="K121" s="1">
         <v>400</v>
       </c>
-      <c r="F121" s="1">
+      <c r="L121" s="1">
         <v>308014</v>
       </c>
-      <c r="G121" s="1">
+      <c r="M121" s="1">
         <v>400</v>
       </c>
       <c r="V121" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="122" spans="1:22">
@@ -11349,53 +11583,89 @@
         <v>10123</v>
       </c>
       <c r="B122" s="1">
+        <v>309005</v>
+      </c>
+      <c r="C122" s="1">
+        <v>75</v>
+      </c>
+      <c r="D122" s="1">
+        <v>309006</v>
+      </c>
+      <c r="E122" s="1">
+        <v>75</v>
+      </c>
+      <c r="F122" s="1">
+        <v>309007</v>
+      </c>
+      <c r="G122" s="1">
+        <v>75</v>
+      </c>
+      <c r="H122" s="1">
         <v>309014</v>
       </c>
-      <c r="C122" s="1">
+      <c r="I122" s="1">
         <v>400</v>
       </c>
-      <c r="D122" s="1">
+      <c r="J122" s="1">
         <v>309015</v>
       </c>
-      <c r="E122" s="1">
+      <c r="K122" s="1">
         <v>400</v>
       </c>
-      <c r="F122" s="1">
+      <c r="L122" s="1">
         <v>309016</v>
       </c>
-      <c r="G122" s="1">
+      <c r="M122" s="1">
         <v>400</v>
       </c>
       <c r="V122" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123" spans="1:22">
       <c r="A123" s="1">
         <v>10124</v>
       </c>
-      <c r="B123" s="1">
+      <c r="B123" s="2">
+        <v>310005</v>
+      </c>
+      <c r="C123" s="1">
+        <v>75</v>
+      </c>
+      <c r="D123" s="2">
+        <v>310006</v>
+      </c>
+      <c r="E123" s="1">
+        <v>75</v>
+      </c>
+      <c r="F123" s="2">
+        <v>310007</v>
+      </c>
+      <c r="G123" s="1">
+        <v>75</v>
+      </c>
+      <c r="H123" s="1">
         <v>310014</v>
       </c>
-      <c r="C123" s="1">
+      <c r="I123" s="1">
         <v>400</v>
       </c>
-      <c r="D123" s="1">
+      <c r="J123" s="1">
         <v>310015</v>
       </c>
-      <c r="E123" s="1">
+      <c r="K123" s="1">
         <v>400</v>
       </c>
-      <c r="F123" s="1">
+      <c r="L123" s="1">
         <v>310016</v>
       </c>
-      <c r="G123" s="1">
+      <c r="M123" s="1">
         <v>400</v>
       </c>
       <c r="V123" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124" spans="1:22">
@@ -11412,26 +11682,44 @@
         <v>10126</v>
       </c>
       <c r="B125" s="1">
+        <v>304011</v>
+      </c>
+      <c r="C125" s="1">
+        <v>75</v>
+      </c>
+      <c r="D125" s="1">
+        <v>304012</v>
+      </c>
+      <c r="E125" s="1">
+        <v>75</v>
+      </c>
+      <c r="F125" s="1">
+        <v>304013</v>
+      </c>
+      <c r="G125" s="1">
+        <v>75</v>
+      </c>
+      <c r="H125" s="1">
         <v>304020</v>
       </c>
-      <c r="C125" s="1">
+      <c r="I125" s="1">
         <v>400</v>
       </c>
-      <c r="D125" s="1">
+      <c r="J125" s="1">
         <v>304021</v>
       </c>
-      <c r="E125" s="1">
+      <c r="K125" s="1">
         <v>400</v>
       </c>
-      <c r="F125" s="1">
+      <c r="L125" s="1">
         <v>304022</v>
       </c>
-      <c r="G125" s="1">
+      <c r="M125" s="1">
         <v>400</v>
       </c>
       <c r="V125" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="126" spans="1:22">
@@ -11493,26 +11781,44 @@
         <v>10129</v>
       </c>
       <c r="B128" s="1">
+        <v>304014</v>
+      </c>
+      <c r="C128" s="1">
+        <v>75</v>
+      </c>
+      <c r="D128" s="1">
+        <v>304015</v>
+      </c>
+      <c r="E128" s="1">
+        <v>75</v>
+      </c>
+      <c r="F128" s="1">
+        <v>304016</v>
+      </c>
+      <c r="G128" s="1">
+        <v>75</v>
+      </c>
+      <c r="H128" s="1">
         <v>304023</v>
       </c>
-      <c r="C128" s="1">
+      <c r="I128" s="1">
         <v>400</v>
       </c>
-      <c r="D128" s="1">
+      <c r="J128" s="1">
         <v>304024</v>
       </c>
-      <c r="E128" s="1">
+      <c r="K128" s="1">
         <v>400</v>
       </c>
-      <c r="F128" s="1">
+      <c r="L128" s="1">
         <v>304025</v>
       </c>
-      <c r="G128" s="1">
+      <c r="M128" s="1">
         <v>400</v>
       </c>
       <c r="V128" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="129" spans="1:22">
@@ -11520,26 +11826,44 @@
         <v>10130</v>
       </c>
       <c r="B129" s="1">
+        <v>309008</v>
+      </c>
+      <c r="C129" s="1">
+        <v>75</v>
+      </c>
+      <c r="D129" s="1">
+        <v>309009</v>
+      </c>
+      <c r="E129" s="1">
+        <v>75</v>
+      </c>
+      <c r="F129" s="1">
+        <v>309010</v>
+      </c>
+      <c r="G129" s="1">
+        <v>75</v>
+      </c>
+      <c r="H129" s="1">
         <v>309017</v>
       </c>
-      <c r="C129" s="1">
+      <c r="I129" s="1">
         <v>400</v>
       </c>
-      <c r="D129" s="1">
+      <c r="J129" s="1">
         <v>309018</v>
       </c>
-      <c r="E129" s="1">
+      <c r="K129" s="1">
         <v>400</v>
       </c>
-      <c r="F129" s="1">
+      <c r="L129" s="1">
         <v>309019</v>
       </c>
-      <c r="G129" s="1">
+      <c r="M129" s="1">
         <v>400</v>
       </c>
       <c r="V129" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130" spans="1:22">
@@ -11547,26 +11871,44 @@
         <v>10131</v>
       </c>
       <c r="B130" s="1">
+        <v>310008</v>
+      </c>
+      <c r="C130" s="1">
+        <v>75</v>
+      </c>
+      <c r="D130" s="1">
+        <v>310009</v>
+      </c>
+      <c r="E130" s="1">
+        <v>75</v>
+      </c>
+      <c r="F130" s="1">
+        <v>310010</v>
+      </c>
+      <c r="G130" s="1">
+        <v>75</v>
+      </c>
+      <c r="H130" s="1">
         <v>310017</v>
       </c>
-      <c r="C130" s="1">
+      <c r="I130" s="1">
         <v>400</v>
       </c>
-      <c r="D130" s="1">
+      <c r="J130" s="1">
         <v>310018</v>
       </c>
-      <c r="E130" s="1">
+      <c r="K130" s="1">
         <v>400</v>
       </c>
-      <c r="F130" s="1">
+      <c r="L130" s="1">
         <v>310019</v>
       </c>
-      <c r="G130" s="1">
+      <c r="M130" s="1">
         <v>400</v>
       </c>
       <c r="V130" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="131" spans="1:22">
@@ -11574,26 +11916,44 @@
         <v>10132</v>
       </c>
       <c r="B131" s="1">
+        <v>305035</v>
+      </c>
+      <c r="C131" s="1">
+        <v>75</v>
+      </c>
+      <c r="D131" s="1">
+        <v>305036</v>
+      </c>
+      <c r="E131" s="1">
+        <v>75</v>
+      </c>
+      <c r="F131" s="1">
+        <v>305037</v>
+      </c>
+      <c r="G131" s="1">
+        <v>75</v>
+      </c>
+      <c r="H131" s="1">
         <v>305044</v>
       </c>
-      <c r="C131" s="1">
+      <c r="I131" s="1">
         <v>400</v>
       </c>
-      <c r="D131" s="1">
+      <c r="J131" s="1">
         <v>305045</v>
       </c>
-      <c r="E131" s="1">
+      <c r="K131" s="1">
         <v>400</v>
       </c>
-      <c r="F131" s="1">
+      <c r="L131" s="1">
         <v>305046</v>
       </c>
-      <c r="G131" s="1">
+      <c r="M131" s="1">
         <v>400</v>
       </c>
       <c r="V131" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="132" spans="1:22">
@@ -11601,62 +11961,116 @@
         <v>10133</v>
       </c>
       <c r="B132" s="1">
+        <v>306037</v>
+      </c>
+      <c r="C132" s="1">
+        <v>75</v>
+      </c>
+      <c r="D132" s="1">
+        <v>306038</v>
+      </c>
+      <c r="E132" s="1">
+        <v>75</v>
+      </c>
+      <c r="F132" s="1">
+        <v>306039</v>
+      </c>
+      <c r="G132" s="1">
+        <v>75</v>
+      </c>
+      <c r="H132" s="1">
         <v>306046</v>
       </c>
-      <c r="C132" s="1">
+      <c r="I132" s="1">
         <v>400</v>
       </c>
-      <c r="D132" s="1">
+      <c r="J132" s="1">
         <v>306047</v>
       </c>
-      <c r="E132" s="1">
+      <c r="K132" s="1">
         <v>400</v>
       </c>
-      <c r="F132" s="1">
+      <c r="L132" s="1">
         <v>306048</v>
       </c>
-      <c r="G132" s="1">
+      <c r="M132" s="1">
         <v>400</v>
       </c>
       <c r="V132" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="133" spans="1:22">
       <c r="A133" s="1">
         <v>10134</v>
       </c>
-      <c r="B133" s="5">
+      <c r="B133" s="1">
+        <v>307036</v>
+      </c>
+      <c r="C133" s="1">
+        <v>75</v>
+      </c>
+      <c r="D133" s="1">
+        <v>307037</v>
+      </c>
+      <c r="E133" s="1">
+        <v>75</v>
+      </c>
+      <c r="F133" s="1">
+        <v>307038</v>
+      </c>
+      <c r="G133" s="1">
+        <v>75</v>
+      </c>
+      <c r="H133" s="5">
         <v>307045</v>
       </c>
-      <c r="C133" s="1">
+      <c r="I133" s="1">
         <v>400</v>
       </c>
-      <c r="D133" s="5">
+      <c r="J133" s="5">
         <v>307046</v>
       </c>
-      <c r="E133" s="1">
+      <c r="K133" s="1">
         <v>400</v>
       </c>
-      <c r="F133" s="5">
+      <c r="L133" s="5">
         <v>307047</v>
       </c>
-      <c r="G133" s="1">
+      <c r="M133" s="1">
         <v>400</v>
       </c>
       <c r="V133" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="134" spans="1:22">
       <c r="A134" s="1">
         <v>10135</v>
       </c>
+      <c r="B134" s="1">
+        <v>308006</v>
+      </c>
+      <c r="C134" s="1">
+        <v>75</v>
+      </c>
+      <c r="D134" s="1">
+        <v>308007</v>
+      </c>
+      <c r="E134" s="1">
+        <v>75</v>
+      </c>
+      <c r="F134" s="1">
+        <v>308008</v>
+      </c>
+      <c r="G134" s="1">
+        <v>75</v>
+      </c>
       <c r="V134" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135" spans="1:22">
@@ -11711,7 +12125,7 @@
         <v>205004</v>
       </c>
       <c r="C137" s="1">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="D137" s="2">
         <v>308001</v>
@@ -11962,7 +12376,7 @@
         <v>205001</v>
       </c>
       <c r="C143" s="1">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="D143" s="2">
         <v>308001</v>
@@ -11986,32 +12400,38 @@
         <v>20009</v>
       </c>
       <c r="B144" s="2">
+        <v>205007</v>
+      </c>
+      <c r="C144" s="1">
+        <v>640</v>
+      </c>
+      <c r="D144" s="2">
         <v>308001</v>
       </c>
-      <c r="C144" s="1">
+      <c r="E144" s="1">
         <v>75</v>
       </c>
-      <c r="D144" s="2">
+      <c r="F144" s="2">
         <v>308002</v>
       </c>
-      <c r="E144" s="1">
+      <c r="G144" s="1">
         <v>150</v>
       </c>
-      <c r="F144" s="2">
+      <c r="H144" s="2">
         <v>311001</v>
       </c>
-      <c r="G144" s="1">
+      <c r="I144" s="1">
         <v>75</v>
       </c>
-      <c r="H144" s="2">
+      <c r="J144" s="2">
         <v>311002</v>
       </c>
-      <c r="I144" s="1">
+      <c r="K144" s="1">
         <v>150</v>
       </c>
       <c r="V144" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145" spans="1:22">
@@ -12207,39 +12627,45 @@
       <c r="A150" s="1">
         <v>20015</v>
       </c>
-      <c r="B150" s="1">
+      <c r="B150" s="2">
+        <v>205007</v>
+      </c>
+      <c r="C150" s="1">
+        <v>500</v>
+      </c>
+      <c r="D150" s="1">
         <v>301027</v>
       </c>
-      <c r="C150" s="1">
+      <c r="E150" s="1">
         <v>1000</v>
       </c>
-      <c r="D150" s="1">
+      <c r="F150" s="1">
         <v>301026</v>
-      </c>
-      <c r="E150" s="1">
-        <v>150</v>
-      </c>
-      <c r="F150" s="1">
-        <v>301029</v>
       </c>
       <c r="G150" s="1">
         <v>150</v>
       </c>
       <c r="H150" s="1">
-        <v>301030</v>
+        <v>301029</v>
       </c>
       <c r="I150" s="1">
         <v>150</v>
       </c>
       <c r="J150" s="1">
+        <v>301030</v>
+      </c>
+      <c r="K150" s="1">
+        <v>150</v>
+      </c>
+      <c r="L150" s="1">
         <v>304007</v>
       </c>
-      <c r="K150" s="1">
+      <c r="M150" s="1">
         <v>75</v>
       </c>
       <c r="V150" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="151" spans="1:22">
@@ -12365,13 +12791,13 @@
         <v>301031</v>
       </c>
       <c r="C153" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="D153" s="1">
         <v>301028</v>
       </c>
       <c r="E153" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="F153" s="2">
         <v>307027</v>
@@ -13374,44 +13800,50 @@
         <v>20040</v>
       </c>
       <c r="B175" s="1">
-        <v>302017</v>
+        <v>220034</v>
       </c>
       <c r="C175" s="1">
         <v>500</v>
       </c>
       <c r="D175" s="1">
-        <v>302018</v>
+        <v>302017</v>
       </c>
       <c r="E175" s="1">
         <v>500</v>
       </c>
       <c r="F175" s="1">
-        <v>302019</v>
+        <v>302018</v>
       </c>
       <c r="G175" s="1">
         <v>500</v>
       </c>
       <c r="H175" s="1">
-        <v>303017</v>
+        <v>302019</v>
       </c>
       <c r="I175" s="1">
         <v>500</v>
       </c>
       <c r="J175" s="1">
-        <v>303018</v>
+        <v>303017</v>
       </c>
       <c r="K175" s="1">
         <v>500</v>
       </c>
       <c r="L175" s="1">
-        <v>303019</v>
+        <v>303018</v>
       </c>
       <c r="M175" s="1">
         <v>500</v>
       </c>
+      <c r="N175" s="1">
+        <v>303019</v>
+      </c>
+      <c r="O175" s="1">
+        <v>500</v>
+      </c>
       <c r="V175" s="1">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="176" spans="1:22">
@@ -13554,26 +13986,38 @@
         <v>20044</v>
       </c>
       <c r="B179" s="1">
+        <v>205007</v>
+      </c>
+      <c r="C179" s="1">
+        <v>300</v>
+      </c>
+      <c r="D179" s="1">
+        <v>205010</v>
+      </c>
+      <c r="E179" s="1">
+        <v>300</v>
+      </c>
+      <c r="F179" s="1">
         <v>301043</v>
-      </c>
-      <c r="C179" s="1">
-        <v>750</v>
-      </c>
-      <c r="D179" s="1">
-        <v>301044</v>
-      </c>
-      <c r="E179" s="1">
-        <v>750</v>
-      </c>
-      <c r="F179" s="1">
-        <v>301045</v>
       </c>
       <c r="G179" s="1">
         <v>750</v>
       </c>
+      <c r="H179" s="1">
+        <v>301044</v>
+      </c>
+      <c r="I179" s="1">
+        <v>750</v>
+      </c>
+      <c r="J179" s="1">
+        <v>301045</v>
+      </c>
+      <c r="K179" s="1">
+        <v>750</v>
+      </c>
       <c r="V179" s="1">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="180" spans="1:22">
@@ -13584,7 +14028,7 @@
         <v>205004</v>
       </c>
       <c r="C180" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="V180" s="1">
         <f t="shared" si="2"/>
@@ -13599,7 +14043,7 @@
         <v>205001</v>
       </c>
       <c r="C181" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="V181" s="1">
         <f t="shared" si="2"/>
@@ -13608,39 +14052,154 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="L106:U108 I106:I108 B109:U117 B124:U127 B1:U105 B106:G108 B121:B123 D121:D123 B119 D119 C119:C123 F121:F123 B118:D118 F118:F119 H118:U123 B128:B132 D128:D132 F128:F132 H128:U133 B134:U1048576">
-    <cfRule type="expression" dxfId="6" priority="8">
+  <conditionalFormatting sqref="L106:U108 N118:U123 N128:U133 B110:U110 B118:B119 F118:F119 D118:D119 B124:U127 H134:U134 F106:G108 F104:H105 B103:H103 J103:U105 F109:U109 B113:U117 B111:B112 D111:D112 F111:F112 H111:U112 B1:U102 B104:E109 B135:U1048576">
+    <cfRule type="expression" dxfId="30" priority="41">
       <formula>AND(B1&gt;200000,B1&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K106:K108">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="29" priority="39">
       <formula>AND(K106&gt;200000,K106&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H121:H123 J121:J123 H119 J119 I119:I123 L121:L123 H118:J118 L118:L119">
+    <cfRule type="expression" dxfId="28" priority="33">
+      <formula>AND(H118&gt;200000,H118&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K118:K123">
+    <cfRule type="expression" dxfId="27" priority="32">
+      <formula>AND(K118&gt;200000,K118&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M118:M123">
+    <cfRule type="expression" dxfId="26" priority="31">
+      <formula>AND(M118&gt;200000,M118&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B120 F120 D120 C118:C123">
+    <cfRule type="expression" dxfId="25" priority="30">
+      <formula>AND(B118&gt;200000,B118&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B121 D121 F121">
+    <cfRule type="expression" dxfId="24" priority="29">
+      <formula>AND(B121&gt;200000,B121&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B122 D122 F122">
+    <cfRule type="expression" dxfId="23" priority="28">
+      <formula>AND(B122&gt;200000,B122&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E118:E123">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="22" priority="25">
       <formula>AND(E118&gt;200000,E118&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G118:G123">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="21" priority="24">
       <formula>AND(G118&gt;200000,G118&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H128:H132 J128:J132 L128:L132">
+    <cfRule type="expression" dxfId="20" priority="23">
+      <formula>AND(H128&gt;200000,H128&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I128:I133">
+    <cfRule type="expression" dxfId="19" priority="22">
+      <formula>AND(I128&gt;200000,I128&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K128:K133">
+    <cfRule type="expression" dxfId="18" priority="21">
+      <formula>AND(K128&gt;200000,K128&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M128:M133">
+    <cfRule type="expression" dxfId="17" priority="20">
+      <formula>AND(M128&gt;200000,M128&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B128 D128 F128">
+    <cfRule type="expression" dxfId="16" priority="16">
+      <formula>AND(B128&gt;200000,B128&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B129 D129 F129">
+    <cfRule type="expression" dxfId="15" priority="15">
+      <formula>AND(B129&gt;200000,B129&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B130 D130 F130">
+    <cfRule type="expression" dxfId="14" priority="14">
+      <formula>AND(B130&gt;200000,B130&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B131 D131 F131">
+    <cfRule type="expression" dxfId="13" priority="13">
+      <formula>AND(B131&gt;200000,B131&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B132:B133 D132:D133 F132:F133">
+    <cfRule type="expression" dxfId="12" priority="12">
+      <formula>AND(B132&gt;200000,B132&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C134">
+    <cfRule type="expression" dxfId="11" priority="11">
+      <formula>AND(C134&gt;200000,C134&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B134 D134 F134">
+    <cfRule type="expression" dxfId="10" priority="10">
+      <formula>AND(B134&gt;200000,B134&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E134">
+    <cfRule type="expression" dxfId="9" priority="9">
+      <formula>AND(E134&gt;200000,E134&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G134">
+    <cfRule type="expression" dxfId="8" priority="8">
+      <formula>AND(G134&gt;200000,G134&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C128:C133">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>AND(C128&gt;200000,C128&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E128:E133">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>AND(E128&gt;200000,E128&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G128:G133">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>AND(G128&gt;200000,G128&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I103:I108">
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>AND(I103&gt;200000,I103&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C111:C112">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>AND(C111&gt;200000,C111&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111:E112">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>AND(E111&gt;200000,E111&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G111:G112">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>AND(G111&gt;200000,G111&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
@@ -13653,8 +14212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L181"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="A159" sqref="A159:XFD159"/>
+    <sheetView topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="B183" sqref="B183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -19313,15 +19872,15 @@
       </c>
       <c r="C114" t="str">
         <f>IF(Sheet1!B114="","",IF(Sheet1!B114 &lt; 300000, VLOOKUP(Sheet1!B114,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!B114,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>小堆银币</v>
       </c>
       <c r="D114" t="str">
         <f>IF(Sheet1!D114="","",IF(Sheet1!D114 &lt; 300000, VLOOKUP(Sheet1!D114,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!D114,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>大堆银币</v>
       </c>
       <c r="E114" t="str">
         <f>IF(Sheet1!F114="","",IF(Sheet1!F114 &lt; 300000, VLOOKUP(Sheet1!F114,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!F114,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>银元</v>
       </c>
       <c r="F114" t="str">
         <f>IF(Sheet1!H114="","",IF(Sheet1!H114 &lt; 300000, VLOOKUP(Sheet1!H114,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!H114,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -19363,15 +19922,15 @@
       </c>
       <c r="C115" t="str">
         <f>IF(Sheet1!B115="","",IF(Sheet1!B115 &lt; 300000, VLOOKUP(Sheet1!B115,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!B115,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>小堆银币</v>
       </c>
       <c r="D115" t="str">
         <f>IF(Sheet1!D115="","",IF(Sheet1!D115 &lt; 300000, VLOOKUP(Sheet1!D115,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!D115,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>大堆银币</v>
       </c>
       <c r="E115" t="str">
         <f>IF(Sheet1!F115="","",IF(Sheet1!F115 &lt; 300000, VLOOKUP(Sheet1!F115,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!F115,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>银元</v>
       </c>
       <c r="F115" t="str">
         <f>IF(Sheet1!H115="","",IF(Sheet1!H115 &lt; 300000, VLOOKUP(Sheet1!H115,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!H115,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -19513,27 +20072,27 @@
       </c>
       <c r="C118" t="str">
         <f>IF(Sheet1!B118="","",IF(Sheet1!B118 &lt; 300000, VLOOKUP(Sheet1!B118,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!B118,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>王者项链(战)</v>
+        <v>雷霆项链</v>
       </c>
       <c r="D118" t="str">
         <f>IF(Sheet1!D118="","",IF(Sheet1!D118 &lt; 300000, VLOOKUP(Sheet1!D118,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!D118,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>王者项链(法)</v>
+        <v>烈焰项链</v>
       </c>
       <c r="E118" t="str">
         <f>IF(Sheet1!F118="","",IF(Sheet1!F118 &lt; 300000, VLOOKUP(Sheet1!F118,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!F118,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>王者项链(道)</v>
+        <v>光芒项链</v>
       </c>
       <c r="F118" t="str">
         <f>IF(Sheet1!H118="","",IF(Sheet1!H118 &lt; 300000, VLOOKUP(Sheet1!H118,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!H118,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>王者项链(战)</v>
       </c>
       <c r="G118" t="str">
         <f>IF(Sheet1!J118="","",IF(Sheet1!J118 &lt; 300000, VLOOKUP(Sheet1!J118,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!J118,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>王者项链(法)</v>
       </c>
       <c r="H118" t="str">
         <f>IF(Sheet1!L118="","",IF(Sheet1!L118 &lt; 300000, VLOOKUP(Sheet1!L118,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!L118,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>王者项链(道)</v>
       </c>
       <c r="I118" t="str">
         <f>IF(Sheet1!N118="","",IF(Sheet1!N118 &lt; 300000, VLOOKUP(Sheet1!N118,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!N118,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -19563,27 +20122,27 @@
       </c>
       <c r="C119" t="str">
         <f>IF(Sheet1!B119="","",IF(Sheet1!B119 &lt; 300000, VLOOKUP(Sheet1!B119,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!B119,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>王者护腕(战)</v>
+        <v>雷霆护腕</v>
       </c>
       <c r="D119" t="str">
         <f>IF(Sheet1!D119="","",IF(Sheet1!D119 &lt; 300000, VLOOKUP(Sheet1!D119,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!D119,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>王者护腕(法)</v>
+        <v>烈焰护腕</v>
       </c>
       <c r="E119" t="str">
         <f>IF(Sheet1!F119="","",IF(Sheet1!F119 &lt; 300000, VLOOKUP(Sheet1!F119,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!F119,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>王者护腕(道)</v>
+        <v>光芒护腕</v>
       </c>
       <c r="F119" t="str">
         <f>IF(Sheet1!H119="","",IF(Sheet1!H119 &lt; 300000, VLOOKUP(Sheet1!H119,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!H119,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>王者护腕(战)</v>
       </c>
       <c r="G119" t="str">
         <f>IF(Sheet1!J119="","",IF(Sheet1!J119 &lt; 300000, VLOOKUP(Sheet1!J119,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!J119,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>王者护腕(法)</v>
       </c>
       <c r="H119" t="str">
         <f>IF(Sheet1!L119="","",IF(Sheet1!L119 &lt; 300000, VLOOKUP(Sheet1!L119,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!L119,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>王者护腕(道)</v>
       </c>
       <c r="I119" t="str">
         <f>IF(Sheet1!N119="","",IF(Sheet1!N119 &lt; 300000, VLOOKUP(Sheet1!N119,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!N119,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -19613,27 +20172,27 @@
       </c>
       <c r="C120" t="str">
         <f>IF(Sheet1!B120="","",IF(Sheet1!B120 &lt; 300000, VLOOKUP(Sheet1!B120,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!B120,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>王者战戒</v>
+        <v>雷霆战戒</v>
       </c>
       <c r="D120" t="str">
         <f>IF(Sheet1!D120="","",IF(Sheet1!D120 &lt; 300000, VLOOKUP(Sheet1!D120,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!D120,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>王者魔戒</v>
+        <v>烈焰魔戒</v>
       </c>
       <c r="E120" t="str">
         <f>IF(Sheet1!F120="","",IF(Sheet1!F120 &lt; 300000, VLOOKUP(Sheet1!F120,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!F120,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>王者道戒</v>
+        <v>光芒道戒</v>
       </c>
       <c r="F120" t="str">
         <f>IF(Sheet1!H120="","",IF(Sheet1!H120 &lt; 300000, VLOOKUP(Sheet1!H120,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!H120,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>王者战戒</v>
       </c>
       <c r="G120" t="str">
         <f>IF(Sheet1!J120="","",IF(Sheet1!J120 &lt; 300000, VLOOKUP(Sheet1!J120,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!J120,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>王者魔戒</v>
       </c>
       <c r="H120" t="str">
         <f>IF(Sheet1!L120="","",IF(Sheet1!L120 &lt; 300000, VLOOKUP(Sheet1!L120,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!L120,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>王者道戒</v>
       </c>
       <c r="I120" t="str">
         <f>IF(Sheet1!N120="","",IF(Sheet1!N120 &lt; 300000, VLOOKUP(Sheet1!N120,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!N120,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -19663,27 +20222,27 @@
       </c>
       <c r="C121" t="str">
         <f>IF(Sheet1!B121="","",IF(Sheet1!B121 &lt; 300000, VLOOKUP(Sheet1!B121,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!B121,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>王者勋章(战)</v>
+        <v>银星勋章(战)</v>
       </c>
       <c r="D121" t="str">
         <f>IF(Sheet1!D121="","",IF(Sheet1!D121 &lt; 300000, VLOOKUP(Sheet1!D121,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!D121,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>王者勋章(法)</v>
+        <v>银星勋章(法)</v>
       </c>
       <c r="E121" t="str">
         <f>IF(Sheet1!F121="","",IF(Sheet1!F121 &lt; 300000, VLOOKUP(Sheet1!F121,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!F121,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>王者勋章(道)</v>
+        <v>银星勋章(道)</v>
       </c>
       <c r="F121" t="str">
         <f>IF(Sheet1!H121="","",IF(Sheet1!H121 &lt; 300000, VLOOKUP(Sheet1!H121,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!H121,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>王者勋章(战)</v>
       </c>
       <c r="G121" t="str">
         <f>IF(Sheet1!J121="","",IF(Sheet1!J121 &lt; 300000, VLOOKUP(Sheet1!J121,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!J121,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>王者勋章(法)</v>
       </c>
       <c r="H121" t="str">
         <f>IF(Sheet1!L121="","",IF(Sheet1!L121 &lt; 300000, VLOOKUP(Sheet1!L121,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!L121,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>王者勋章(道)</v>
       </c>
       <c r="I121" t="str">
         <f>IF(Sheet1!N121="","",IF(Sheet1!N121 &lt; 300000, VLOOKUP(Sheet1!N121,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!N121,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -19713,27 +20272,27 @@
       </c>
       <c r="C122" t="str">
         <f>IF(Sheet1!B122="","",IF(Sheet1!B122 &lt; 300000, VLOOKUP(Sheet1!B122,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!B122,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>王者腰带(战)</v>
+        <v>雷霆腰带</v>
       </c>
       <c r="D122" t="str">
         <f>IF(Sheet1!D122="","",IF(Sheet1!D122 &lt; 300000, VLOOKUP(Sheet1!D122,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!D122,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>王者腰带(法)</v>
+        <v>烈焰腰带</v>
       </c>
       <c r="E122" t="str">
         <f>IF(Sheet1!F122="","",IF(Sheet1!F122 &lt; 300000, VLOOKUP(Sheet1!F122,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!F122,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>王者腰带(道)</v>
+        <v>光芒腰带</v>
       </c>
       <c r="F122" t="str">
         <f>IF(Sheet1!H122="","",IF(Sheet1!H122 &lt; 300000, VLOOKUP(Sheet1!H122,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!H122,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>王者腰带(战)</v>
       </c>
       <c r="G122" t="str">
         <f>IF(Sheet1!J122="","",IF(Sheet1!J122 &lt; 300000, VLOOKUP(Sheet1!J122,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!J122,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>王者腰带(法)</v>
       </c>
       <c r="H122" t="str">
         <f>IF(Sheet1!L122="","",IF(Sheet1!L122 &lt; 300000, VLOOKUP(Sheet1!L122,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!L122,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>王者腰带(道)</v>
       </c>
       <c r="I122" t="str">
         <f>IF(Sheet1!N122="","",IF(Sheet1!N122 &lt; 300000, VLOOKUP(Sheet1!N122,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!N122,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -19763,27 +20322,27 @@
       </c>
       <c r="C123" t="str">
         <f>IF(Sheet1!B123="","",IF(Sheet1!B123 &lt; 300000, VLOOKUP(Sheet1!B123,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!B123,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>王者战靴</v>
+        <v>雷霆战靴</v>
       </c>
       <c r="D123" t="str">
         <f>IF(Sheet1!D123="","",IF(Sheet1!D123 &lt; 300000, VLOOKUP(Sheet1!D123,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!D123,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>王者魔靴</v>
+        <v>烈焰魔靴</v>
       </c>
       <c r="E123" t="str">
         <f>IF(Sheet1!F123="","",IF(Sheet1!F123 &lt; 300000, VLOOKUP(Sheet1!F123,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!F123,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>王者道靴</v>
+        <v>光芒道靴</v>
       </c>
       <c r="F123" t="str">
         <f>IF(Sheet1!H123="","",IF(Sheet1!H123 &lt; 300000, VLOOKUP(Sheet1!H123,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!H123,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>王者战靴</v>
       </c>
       <c r="G123" t="str">
         <f>IF(Sheet1!J123="","",IF(Sheet1!J123 &lt; 300000, VLOOKUP(Sheet1!J123,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!J123,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>王者魔靴</v>
       </c>
       <c r="H123" t="str">
         <f>IF(Sheet1!L123="","",IF(Sheet1!L123 &lt; 300000, VLOOKUP(Sheet1!L123,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!L123,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>王者道靴</v>
       </c>
       <c r="I123" t="str">
         <f>IF(Sheet1!N123="","",IF(Sheet1!N123 &lt; 300000, VLOOKUP(Sheet1!N123,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!N123,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -19863,27 +20422,27 @@
       </c>
       <c r="C125" t="str">
         <f>IF(Sheet1!B125="","",IF(Sheet1!B125 &lt; 300000, VLOOKUP(Sheet1!B125,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!B125,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>王者战盔</v>
+        <v>圣龙盔</v>
       </c>
       <c r="D125" t="str">
         <f>IF(Sheet1!D125="","",IF(Sheet1!D125 &lt; 300000, VLOOKUP(Sheet1!D125,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!D125,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>王者魔盔</v>
+        <v>天龙盔</v>
       </c>
       <c r="E125" t="str">
         <f>IF(Sheet1!F125="","",IF(Sheet1!F125 &lt; 300000, VLOOKUP(Sheet1!F125,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!F125,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>王者道盔</v>
+        <v>魔龙盔</v>
       </c>
       <c r="F125" t="str">
         <f>IF(Sheet1!H125="","",IF(Sheet1!H125 &lt; 300000, VLOOKUP(Sheet1!H125,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!H125,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>王者战盔</v>
       </c>
       <c r="G125" t="str">
         <f>IF(Sheet1!J125="","",IF(Sheet1!J125 &lt; 300000, VLOOKUP(Sheet1!J125,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!J125,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>王者魔盔</v>
       </c>
       <c r="H125" t="str">
         <f>IF(Sheet1!L125="","",IF(Sheet1!L125 &lt; 300000, VLOOKUP(Sheet1!L125,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!L125,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>王者道盔</v>
       </c>
       <c r="I125" t="str">
         <f>IF(Sheet1!N125="","",IF(Sheet1!N125 &lt; 300000, VLOOKUP(Sheet1!N125,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!N125,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -20013,27 +20572,27 @@
       </c>
       <c r="C128" t="str">
         <f>IF(Sheet1!B128="","",IF(Sheet1!B128 &lt; 300000, VLOOKUP(Sheet1!B128,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!B128,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>炎龙战盔</v>
+        <v>星王战盔</v>
       </c>
       <c r="D128" t="str">
         <f>IF(Sheet1!D128="","",IF(Sheet1!D128 &lt; 300000, VLOOKUP(Sheet1!D128,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!D128,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>雷龙魔盔</v>
+        <v>星王魔盔</v>
       </c>
       <c r="E128" t="str">
         <f>IF(Sheet1!F128="","",IF(Sheet1!F128 &lt; 300000, VLOOKUP(Sheet1!F128,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!F128,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>青龙道盔</v>
+        <v>星王道盔</v>
       </c>
       <c r="F128" t="str">
         <f>IF(Sheet1!H128="","",IF(Sheet1!H128 &lt; 300000, VLOOKUP(Sheet1!H128,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!H128,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>炎龙战盔</v>
       </c>
       <c r="G128" t="str">
         <f>IF(Sheet1!J128="","",IF(Sheet1!J128 &lt; 300000, VLOOKUP(Sheet1!J128,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!J128,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>雷龙魔盔</v>
       </c>
       <c r="H128" t="str">
         <f>IF(Sheet1!L128="","",IF(Sheet1!L128 &lt; 300000, VLOOKUP(Sheet1!L128,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!L128,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>青龙道盔</v>
       </c>
       <c r="I128" t="str">
         <f>IF(Sheet1!N128="","",IF(Sheet1!N128 &lt; 300000, VLOOKUP(Sheet1!N128,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!N128,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -20063,27 +20622,27 @@
       </c>
       <c r="C129" t="str">
         <f>IF(Sheet1!B129="","",IF(Sheet1!B129 &lt; 300000, VLOOKUP(Sheet1!B129,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!B129,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>炎龙腰带</v>
+        <v>星王腰带(战)</v>
       </c>
       <c r="D129" t="str">
         <f>IF(Sheet1!D129="","",IF(Sheet1!D129 &lt; 300000, VLOOKUP(Sheet1!D129,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!D129,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>雷龙腰带</v>
+        <v>星王腰带(法)</v>
       </c>
       <c r="E129" t="str">
         <f>IF(Sheet1!F129="","",IF(Sheet1!F129 &lt; 300000, VLOOKUP(Sheet1!F129,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!F129,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>青龙腰带</v>
+        <v>星王腰带(道)</v>
       </c>
       <c r="F129" t="str">
         <f>IF(Sheet1!H129="","",IF(Sheet1!H129 &lt; 300000, VLOOKUP(Sheet1!H129,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!H129,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>炎龙腰带</v>
       </c>
       <c r="G129" t="str">
         <f>IF(Sheet1!J129="","",IF(Sheet1!J129 &lt; 300000, VLOOKUP(Sheet1!J129,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!J129,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>雷龙腰带</v>
       </c>
       <c r="H129" t="str">
         <f>IF(Sheet1!L129="","",IF(Sheet1!L129 &lt; 300000, VLOOKUP(Sheet1!L129,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!L129,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>青龙腰带</v>
       </c>
       <c r="I129" t="str">
         <f>IF(Sheet1!N129="","",IF(Sheet1!N129 &lt; 300000, VLOOKUP(Sheet1!N129,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!N129,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -20113,27 +20672,27 @@
       </c>
       <c r="C130" t="str">
         <f>IF(Sheet1!B130="","",IF(Sheet1!B130 &lt; 300000, VLOOKUP(Sheet1!B130,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!B130,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>炎龙战靴</v>
+        <v>星王战靴</v>
       </c>
       <c r="D130" t="str">
         <f>IF(Sheet1!D130="","",IF(Sheet1!D130 &lt; 300000, VLOOKUP(Sheet1!D130,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!D130,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>雷龙魔靴</v>
+        <v>星王魔靴</v>
       </c>
       <c r="E130" t="str">
         <f>IF(Sheet1!F130="","",IF(Sheet1!F130 &lt; 300000, VLOOKUP(Sheet1!F130,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!F130,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>青龙道靴</v>
+        <v>星王道靴</v>
       </c>
       <c r="F130" t="str">
         <f>IF(Sheet1!H130="","",IF(Sheet1!H130 &lt; 300000, VLOOKUP(Sheet1!H130,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!H130,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>炎龙战靴</v>
       </c>
       <c r="G130" t="str">
         <f>IF(Sheet1!J130="","",IF(Sheet1!J130 &lt; 300000, VLOOKUP(Sheet1!J130,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!J130,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>雷龙魔靴</v>
       </c>
       <c r="H130" t="str">
         <f>IF(Sheet1!L130="","",IF(Sheet1!L130 &lt; 300000, VLOOKUP(Sheet1!L130,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!L130,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>青龙道靴</v>
       </c>
       <c r="I130" t="str">
         <f>IF(Sheet1!N130="","",IF(Sheet1!N130 &lt; 300000, VLOOKUP(Sheet1!N130,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!N130,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -20163,27 +20722,27 @@
       </c>
       <c r="C131" t="str">
         <f>IF(Sheet1!B131="","",IF(Sheet1!B131 &lt; 300000, VLOOKUP(Sheet1!B131,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!B131,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>炎龙项链</v>
+        <v>星王项链(战)</v>
       </c>
       <c r="D131" t="str">
         <f>IF(Sheet1!D131="","",IF(Sheet1!D131 &lt; 300000, VLOOKUP(Sheet1!D131,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!D131,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>雷龙项链</v>
+        <v>星王项链(法)</v>
       </c>
       <c r="E131" t="str">
         <f>IF(Sheet1!F131="","",IF(Sheet1!F131 &lt; 300000, VLOOKUP(Sheet1!F131,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!F131,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>青龙项链</v>
+        <v>星王项链(道)</v>
       </c>
       <c r="F131" t="str">
         <f>IF(Sheet1!H131="","",IF(Sheet1!H131 &lt; 300000, VLOOKUP(Sheet1!H131,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!H131,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>炎龙项链</v>
       </c>
       <c r="G131" t="str">
         <f>IF(Sheet1!J131="","",IF(Sheet1!J131 &lt; 300000, VLOOKUP(Sheet1!J131,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!J131,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>雷龙项链</v>
       </c>
       <c r="H131" t="str">
         <f>IF(Sheet1!L131="","",IF(Sheet1!L131 &lt; 300000, VLOOKUP(Sheet1!L131,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!L131,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>青龙项链</v>
       </c>
       <c r="I131" t="str">
         <f>IF(Sheet1!N131="","",IF(Sheet1!N131 &lt; 300000, VLOOKUP(Sheet1!N131,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!N131,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -20213,27 +20772,27 @@
       </c>
       <c r="C132" t="str">
         <f>IF(Sheet1!B132="","",IF(Sheet1!B132 &lt; 300000, VLOOKUP(Sheet1!B132,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!B132,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>炎龙护腕</v>
+        <v>星王护腕(战)</v>
       </c>
       <c r="D132" t="str">
         <f>IF(Sheet1!D132="","",IF(Sheet1!D132 &lt; 300000, VLOOKUP(Sheet1!D132,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!D132,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>雷龙护腕</v>
+        <v>星王护腕(法)</v>
       </c>
       <c r="E132" t="str">
         <f>IF(Sheet1!F132="","",IF(Sheet1!F132 &lt; 300000, VLOOKUP(Sheet1!F132,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!F132,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>青龙护腕</v>
+        <v>星王护腕(道)</v>
       </c>
       <c r="F132" t="str">
         <f>IF(Sheet1!H132="","",IF(Sheet1!H132 &lt; 300000, VLOOKUP(Sheet1!H132,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!H132,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>炎龙护腕</v>
       </c>
       <c r="G132" t="str">
         <f>IF(Sheet1!J132="","",IF(Sheet1!J132 &lt; 300000, VLOOKUP(Sheet1!J132,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!J132,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>雷龙护腕</v>
       </c>
       <c r="H132" t="str">
         <f>IF(Sheet1!L132="","",IF(Sheet1!L132 &lt; 300000, VLOOKUP(Sheet1!L132,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!L132,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>青龙护腕</v>
       </c>
       <c r="I132" t="str">
         <f>IF(Sheet1!N132="","",IF(Sheet1!N132 &lt; 300000, VLOOKUP(Sheet1!N132,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!N132,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -20263,27 +20822,27 @@
       </c>
       <c r="C133" t="str">
         <f>IF(Sheet1!B133="","",IF(Sheet1!B133 &lt; 300000, VLOOKUP(Sheet1!B133,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!B133,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>炎龙战戒</v>
+        <v>星王战戒</v>
       </c>
       <c r="D133" t="str">
         <f>IF(Sheet1!D133="","",IF(Sheet1!D133 &lt; 300000, VLOOKUP(Sheet1!D133,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!D133,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>雷龙魔戒</v>
+        <v>星王魔戒</v>
       </c>
       <c r="E133" t="str">
         <f>IF(Sheet1!F133="","",IF(Sheet1!F133 &lt; 300000, VLOOKUP(Sheet1!F133,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!F133,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>青龙道戒</v>
+        <v>星王道戒</v>
       </c>
       <c r="F133" t="str">
         <f>IF(Sheet1!H133="","",IF(Sheet1!H133 &lt; 300000, VLOOKUP(Sheet1!H133,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!H133,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>炎龙战戒</v>
       </c>
       <c r="G133" t="str">
         <f>IF(Sheet1!J133="","",IF(Sheet1!J133 &lt; 300000, VLOOKUP(Sheet1!J133,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!J133,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>雷龙魔戒</v>
       </c>
       <c r="H133" t="str">
         <f>IF(Sheet1!L133="","",IF(Sheet1!L133 &lt; 300000, VLOOKUP(Sheet1!L133,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!L133,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>青龙道戒</v>
       </c>
       <c r="I133" t="str">
         <f>IF(Sheet1!N133="","",IF(Sheet1!N133 &lt; 300000, VLOOKUP(Sheet1!N133,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!N133,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -20313,15 +20872,15 @@
       </c>
       <c r="C134" t="str">
         <f>IF(Sheet1!B134="","",IF(Sheet1!B134 &lt; 300000, VLOOKUP(Sheet1!B134,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!B134,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>银星勋章(战)</v>
       </c>
       <c r="D134" t="str">
         <f>IF(Sheet1!D134="","",IF(Sheet1!D134 &lt; 300000, VLOOKUP(Sheet1!D134,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!D134,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>银星勋章(法)</v>
       </c>
       <c r="E134" t="str">
         <f>IF(Sheet1!F134="","",IF(Sheet1!F134 &lt; 300000, VLOOKUP(Sheet1!F134,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!F134,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>银星勋章(道)</v>
       </c>
       <c r="F134" t="str">
         <f>IF(Sheet1!H134="","",IF(Sheet1!H134 &lt; 300000, VLOOKUP(Sheet1!H134,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!H134,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -20813,23 +21372,23 @@
       </c>
       <c r="C144" t="str">
         <f>IF(Sheet1!B144="","",IF(Sheet1!B144 &lt; 300000, VLOOKUP(Sheet1!B144,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!B144,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>初级勋章1</v>
+        <v>神石结晶(小)</v>
       </c>
       <c r="D144" t="str">
         <f>IF(Sheet1!D144="","",IF(Sheet1!D144 &lt; 300000, VLOOKUP(Sheet1!D144,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!D144,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>初级勋章2</v>
+        <v>初级勋章1</v>
       </c>
       <c r="E144" t="str">
         <f>IF(Sheet1!F144="","",IF(Sheet1!F144 &lt; 300000, VLOOKUP(Sheet1!F144,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!F144,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>初级宝石1</v>
+        <v>初级勋章2</v>
       </c>
       <c r="F144" t="str">
         <f>IF(Sheet1!H144="","",IF(Sheet1!H144 &lt; 300000, VLOOKUP(Sheet1!H144,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!H144,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>初级宝石2</v>
+        <v>初级宝石1</v>
       </c>
       <c r="G144" t="str">
         <f>IF(Sheet1!J144="","",IF(Sheet1!J144 &lt; 300000, VLOOKUP(Sheet1!J144,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!J144,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>初级宝石2</v>
       </c>
       <c r="H144" t="str">
         <f>IF(Sheet1!L144="","",IF(Sheet1!L144 &lt; 300000, VLOOKUP(Sheet1!L144,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!L144,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -21113,27 +21672,27 @@
       </c>
       <c r="C150" t="str">
         <f>IF(Sheet1!B150="","",IF(Sheet1!B150 &lt; 300000, VLOOKUP(Sheet1!B150,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!B150,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>命运之刃</v>
+        <v>神石结晶(小)</v>
       </c>
       <c r="D150" t="str">
         <f>IF(Sheet1!D150="","",IF(Sheet1!D150 &lt; 300000, VLOOKUP(Sheet1!D150,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!D150,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>裁决之杖</v>
+        <v>命运之刃</v>
       </c>
       <c r="E150" t="str">
         <f>IF(Sheet1!F150="","",IF(Sheet1!F150 &lt; 300000, VLOOKUP(Sheet1!F150,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!F150,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>骨玉权杖</v>
+        <v>裁决之杖</v>
       </c>
       <c r="F150" t="str">
         <f>IF(Sheet1!H150="","",IF(Sheet1!H150 &lt; 300000, VLOOKUP(Sheet1!H150,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!H150,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>龙纹剑</v>
+        <v>骨玉权杖</v>
       </c>
       <c r="G150" t="str">
         <f>IF(Sheet1!J150="","",IF(Sheet1!J150 &lt; 300000, VLOOKUP(Sheet1!J150,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!J150,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>黑铁头盔</v>
+        <v>龙纹剑</v>
       </c>
       <c r="H150" t="str">
         <f>IF(Sheet1!L150="","",IF(Sheet1!L150 &lt; 300000, VLOOKUP(Sheet1!L150,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!L150,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>黑铁头盔</v>
       </c>
       <c r="I150" t="str">
         <f>IF(Sheet1!N150="","",IF(Sheet1!N150 &lt; 300000, VLOOKUP(Sheet1!N150,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!N150,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -22363,31 +22922,31 @@
       </c>
       <c r="C175" t="str">
         <f>IF(Sheet1!B175="","",IF(Sheet1!B175 &lt; 300000, VLOOKUP(Sheet1!B175,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!B175,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>虎啸战甲(男)</v>
+        <v>战神守护</v>
       </c>
       <c r="D175" t="str">
         <f>IF(Sheet1!D175="","",IF(Sheet1!D175 &lt; 300000, VLOOKUP(Sheet1!D175,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!D175,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>聚魔法衣(男)</v>
+        <v>虎啸战甲(男)</v>
       </c>
       <c r="E175" t="str">
         <f>IF(Sheet1!F175="","",IF(Sheet1!F175 &lt; 300000, VLOOKUP(Sheet1!F175,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!F175,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>暗咒道袍(男)</v>
+        <v>聚魔法衣(男)</v>
       </c>
       <c r="F175" t="str">
         <f>IF(Sheet1!H175="","",IF(Sheet1!H175 &lt; 300000, VLOOKUP(Sheet1!H175,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!H175,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>虎啸战甲(女)</v>
+        <v>暗咒道袍(男)</v>
       </c>
       <c r="G175" t="str">
         <f>IF(Sheet1!J175="","",IF(Sheet1!J175 &lt; 300000, VLOOKUP(Sheet1!J175,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!J175,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>聚魔法衣(女)</v>
+        <v>虎啸战甲(女)</v>
       </c>
       <c r="H175" t="str">
         <f>IF(Sheet1!L175="","",IF(Sheet1!L175 &lt; 300000, VLOOKUP(Sheet1!L175,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!L175,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>暗咒道袍(女)</v>
+        <v>聚魔法衣(女)</v>
       </c>
       <c r="I175" t="str">
         <f>IF(Sheet1!N175="","",IF(Sheet1!N175 &lt; 300000, VLOOKUP(Sheet1!N175,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!N175,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>暗咒道袍(女)</v>
       </c>
       <c r="J175" t="str">
         <f>IF(Sheet1!P175="","",IF(Sheet1!P175 &lt; 300000, VLOOKUP(Sheet1!P175,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!P175,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -22563,23 +23122,23 @@
       </c>
       <c r="C179" t="str">
         <f>IF(Sheet1!B179="","",IF(Sheet1!B179 &lt; 300000, VLOOKUP(Sheet1!B179,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!B179,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>炎龙刃</v>
+        <v>神石结晶(小)</v>
       </c>
       <c r="D179" t="str">
         <f>IF(Sheet1!D179="","",IF(Sheet1!D179 &lt; 300000, VLOOKUP(Sheet1!D179,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!D179,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>雷龙杖</v>
+        <v>灵魂碎片(小)</v>
       </c>
       <c r="E179" t="str">
         <f>IF(Sheet1!F179="","",IF(Sheet1!F179 &lt; 300000, VLOOKUP(Sheet1!F179,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!F179,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>青龙刺</v>
+        <v>炎龙刃</v>
       </c>
       <c r="F179" t="str">
         <f>IF(Sheet1!H179="","",IF(Sheet1!H179 &lt; 300000, VLOOKUP(Sheet1!H179,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!H179,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>雷龙杖</v>
       </c>
       <c r="G179" t="str">
         <f>IF(Sheet1!J179="","",IF(Sheet1!J179 &lt; 300000, VLOOKUP(Sheet1!J179,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!J179,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>青龙刺</v>
       </c>
       <c r="H179" t="str">
         <f>IF(Sheet1!L179="","",IF(Sheet1!L179 &lt; 300000, VLOOKUP(Sheet1!L179,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!L179,[2]装备!$A$3:$B$600,2,FALSE)))</f>

--- a/documents/暴率表.xlsx
+++ b/documents/暴率表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="135" windowWidth="13170" windowHeight="9240"/>
+    <workbookView xWindow="7320" yWindow="195" windowWidth="13170" windowHeight="9180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -225,7 +225,297 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="89">
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="9"/>
@@ -1496,498 +1786,723 @@
             <v>蓝影刀客</v>
           </cell>
         </row>
+        <row r="138">
+          <cell r="A138">
+            <v>10137</v>
+          </cell>
+          <cell r="B138" t="str">
+            <v>练功师-双防0</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="A139">
+            <v>10138</v>
+          </cell>
+          <cell r="B139" t="str">
+            <v>练功师-双防1</v>
+          </cell>
+        </row>
         <row r="140">
-          <cell r="B140">
-            <v>0</v>
+          <cell r="A140">
+            <v>10139</v>
+          </cell>
+          <cell r="B140" t="str">
+            <v>练功师-双防2</v>
           </cell>
         </row>
         <row r="141">
-          <cell r="B141">
-            <v>0</v>
+          <cell r="A141">
+            <v>10140</v>
+          </cell>
+          <cell r="B141" t="str">
+            <v>练功师-双防3</v>
           </cell>
         </row>
         <row r="142">
-          <cell r="B142">
-            <v>0</v>
+          <cell r="A142">
+            <v>10141</v>
+          </cell>
+          <cell r="B142" t="str">
+            <v>练功师-双防4</v>
           </cell>
         </row>
         <row r="143">
           <cell r="A143">
-            <v>11000</v>
+            <v>10142</v>
           </cell>
           <cell r="B143" t="str">
-            <v>地下刀兵</v>
+            <v>练功师-双防5</v>
           </cell>
         </row>
         <row r="144">
           <cell r="A144">
-            <v>11001</v>
+            <v>10143</v>
           </cell>
           <cell r="B144" t="str">
-            <v>地下力士</v>
+            <v>练功师-双防6</v>
           </cell>
         </row>
         <row r="145">
           <cell r="A145">
-            <v>11002</v>
+            <v>10144</v>
           </cell>
           <cell r="B145" t="str">
-            <v>地下射手</v>
+            <v>练功师-双防7</v>
           </cell>
         </row>
         <row r="146">
           <cell r="A146">
-            <v>11003</v>
+            <v>10145</v>
           </cell>
           <cell r="B146" t="str">
-            <v>陨落护卫</v>
+            <v>练功师-双防8</v>
           </cell>
         </row>
         <row r="147">
           <cell r="A147">
-            <v>11004</v>
+            <v>10146</v>
           </cell>
           <cell r="B147" t="str">
-            <v>陨落火蜥蜴</v>
+            <v>练功师-双防9</v>
           </cell>
         </row>
         <row r="148">
           <cell r="A148">
-            <v>11005</v>
+            <v>10147</v>
           </cell>
           <cell r="B148" t="str">
-            <v>陨落刀虫</v>
+            <v>练功师-物攻0</v>
           </cell>
         </row>
         <row r="149">
           <cell r="A149">
-            <v>11006</v>
+            <v>10148</v>
           </cell>
           <cell r="B149" t="str">
-            <v>迷雾白虎</v>
+            <v>练功师-物攻1</v>
           </cell>
         </row>
         <row r="150">
           <cell r="A150">
-            <v>11007</v>
+            <v>10149</v>
           </cell>
           <cell r="B150" t="str">
-            <v>迷雾甲虫</v>
+            <v>练功师-物攻2</v>
           </cell>
         </row>
         <row r="151">
           <cell r="A151">
-            <v>11008</v>
+            <v>10150</v>
           </cell>
           <cell r="B151" t="str">
-            <v>静寂骷髅精灵</v>
+            <v>练功师-物攻3</v>
           </cell>
         </row>
         <row r="152">
           <cell r="A152">
-            <v>11009</v>
+            <v>10151</v>
           </cell>
           <cell r="B152" t="str">
-            <v>静寂黄泉教主</v>
+            <v>练功师-物攻4</v>
           </cell>
         </row>
         <row r="153">
           <cell r="A153">
-            <v>11010</v>
+            <v>10152</v>
           </cell>
           <cell r="B153" t="str">
-            <v>静寂双头金刚</v>
+            <v>练功师-物攻5</v>
           </cell>
         </row>
         <row r="154">
           <cell r="A154">
-            <v>11011</v>
+            <v>10153</v>
           </cell>
           <cell r="B154" t="str">
-            <v>恶魔锤兵</v>
+            <v>练功师-物攻6</v>
           </cell>
         </row>
         <row r="155">
           <cell r="A155">
-            <v>11012</v>
+            <v>10154</v>
           </cell>
           <cell r="B155" t="str">
-            <v>恶魔长枪兵</v>
+            <v>练功师-物攻7</v>
           </cell>
         </row>
         <row r="156">
           <cell r="A156">
-            <v>11013</v>
+            <v>10155</v>
           </cell>
           <cell r="B156" t="str">
-            <v>恶魔刀斧手</v>
+            <v>练功师-物攻8</v>
           </cell>
         </row>
         <row r="157">
           <cell r="A157">
-            <v>11014</v>
+            <v>10156</v>
           </cell>
           <cell r="B157" t="str">
-            <v>峡谷银狼</v>
+            <v>练功师-物攻9</v>
           </cell>
         </row>
         <row r="158">
           <cell r="A158">
-            <v>11015</v>
+            <v>10157</v>
           </cell>
           <cell r="B158" t="str">
-            <v>峡谷猩猩</v>
+            <v>练功师-魔攻0</v>
           </cell>
         </row>
         <row r="159">
           <cell r="A159">
-            <v>11016</v>
+            <v>10158</v>
           </cell>
           <cell r="B159" t="str">
-            <v>皇陵蛇妖</v>
+            <v>练功师-魔攻1</v>
           </cell>
         </row>
         <row r="160">
           <cell r="A160">
-            <v>11017</v>
+            <v>10159</v>
           </cell>
           <cell r="B160" t="str">
-            <v>皇陵教主</v>
+            <v>练功师-魔攻2</v>
           </cell>
         </row>
         <row r="161">
           <cell r="A161">
-            <v>11018</v>
+            <v>10160</v>
           </cell>
           <cell r="B161" t="str">
-            <v>皇陵护法</v>
+            <v>练功师-魔攻3</v>
           </cell>
         </row>
         <row r="162">
           <cell r="A162">
-            <v>11019</v>
+            <v>10161</v>
           </cell>
           <cell r="B162" t="str">
-            <v>历魂刀卫</v>
+            <v>练功师-魔攻4</v>
           </cell>
         </row>
         <row r="163">
           <cell r="A163">
-            <v>11020</v>
+            <v>10162</v>
           </cell>
           <cell r="B163" t="str">
-            <v>历魂刀兵</v>
+            <v>练功师-魔攻5</v>
           </cell>
         </row>
         <row r="164">
           <cell r="A164">
-            <v>11021</v>
+            <v>10163</v>
           </cell>
           <cell r="B164" t="str">
-            <v>历魂弓手</v>
+            <v>练功师-魔攻6</v>
           </cell>
         </row>
         <row r="165">
           <cell r="A165">
-            <v>11022</v>
+            <v>10164</v>
           </cell>
           <cell r="B165" t="str">
-            <v>魔殿卫士</v>
+            <v>练功师-魔攻7</v>
           </cell>
         </row>
         <row r="166">
           <cell r="A166">
-            <v>11023</v>
+            <v>10165</v>
           </cell>
           <cell r="B166" t="str">
-            <v>魔殿战士</v>
+            <v>练功师-魔攻8</v>
           </cell>
         </row>
         <row r="167">
           <cell r="A167">
-            <v>11024</v>
+            <v>10166</v>
           </cell>
           <cell r="B167" t="str">
-            <v>魔殿女巫</v>
-          </cell>
-        </row>
-        <row r="168">
-          <cell r="A168">
-            <v>11025</v>
-          </cell>
-          <cell r="B168" t="str">
-            <v>尘封铜猪</v>
-          </cell>
-        </row>
-        <row r="169">
-          <cell r="A169">
-            <v>11026</v>
-          </cell>
-          <cell r="B169" t="str">
-            <v>尘封天使</v>
-          </cell>
-        </row>
-        <row r="170">
-          <cell r="A170">
-            <v>11027</v>
-          </cell>
-          <cell r="B170" t="str">
-            <v>远古恐龙</v>
-          </cell>
-        </row>
-        <row r="171">
-          <cell r="A171">
-            <v>11028</v>
-          </cell>
-          <cell r="B171" t="str">
-            <v>山谷蜥蜴</v>
-          </cell>
-        </row>
-        <row r="172">
-          <cell r="A172">
-            <v>11029</v>
-          </cell>
-          <cell r="B172" t="str">
-            <v>穿山甲</v>
+            <v>练功师-魔攻9</v>
           </cell>
         </row>
         <row r="173">
           <cell r="A173">
-            <v>11030</v>
+            <v>11000</v>
           </cell>
           <cell r="B173" t="str">
-            <v>火凤凰</v>
+            <v>地下刀兵</v>
           </cell>
         </row>
         <row r="174">
           <cell r="A174">
-            <v>11031</v>
+            <v>11001</v>
           </cell>
           <cell r="B174" t="str">
-            <v>冰青龙</v>
+            <v>地下力士</v>
           </cell>
         </row>
         <row r="175">
           <cell r="A175">
-            <v>11032</v>
+            <v>11002</v>
           </cell>
           <cell r="B175" t="str">
-            <v>遗忘红狼</v>
+            <v>地下射手</v>
           </cell>
         </row>
         <row r="176">
           <cell r="A176">
-            <v>11033</v>
+            <v>11003</v>
           </cell>
           <cell r="B176" t="str">
-            <v>遗忘黑虎</v>
+            <v>陨落护卫</v>
           </cell>
         </row>
         <row r="177">
           <cell r="A177">
-            <v>11034</v>
+            <v>11004</v>
           </cell>
           <cell r="B177" t="str">
-            <v>天宫蛇妖</v>
+            <v>陨落火蜥蜴</v>
           </cell>
         </row>
         <row r="178">
           <cell r="A178">
-            <v>11035</v>
+            <v>11005</v>
           </cell>
           <cell r="B178" t="str">
-            <v>天宫乌龟</v>
+            <v>陨落刀虫</v>
           </cell>
         </row>
         <row r="179">
           <cell r="A179">
-            <v>11036</v>
+            <v>11006</v>
           </cell>
           <cell r="B179" t="str">
-            <v>暗之圣域精灵</v>
+            <v>迷雾白虎</v>
           </cell>
         </row>
         <row r="180">
           <cell r="A180">
-            <v>11037</v>
+            <v>11007</v>
           </cell>
           <cell r="B180" t="str">
-            <v>暗之邪恶毒蛇</v>
+            <v>迷雾甲虫</v>
           </cell>
         </row>
         <row r="181">
           <cell r="A181">
-            <v>11038</v>
+            <v>11008</v>
           </cell>
           <cell r="B181" t="str">
-            <v>邪恶的远古恶魔</v>
+            <v>静寂骷髅精灵</v>
           </cell>
         </row>
         <row r="182">
           <cell r="A182">
-            <v>11039</v>
+            <v>11009</v>
           </cell>
           <cell r="B182" t="str">
-            <v>雪域冰女</v>
+            <v>静寂黄泉教主</v>
           </cell>
         </row>
         <row r="183">
           <cell r="A183">
-            <v>11040</v>
+            <v>11010</v>
           </cell>
           <cell r="B183" t="str">
-            <v>雪域将军</v>
+            <v>静寂双头金刚</v>
           </cell>
         </row>
         <row r="184">
           <cell r="A184">
-            <v>11041</v>
+            <v>11011</v>
           </cell>
           <cell r="B184" t="str">
-            <v>雪域射手</v>
+            <v>恶魔锤兵</v>
           </cell>
         </row>
         <row r="185">
           <cell r="A185">
-            <v>11042</v>
+            <v>11012</v>
           </cell>
           <cell r="B185" t="str">
-            <v>雪域魔王</v>
+            <v>恶魔长枪兵</v>
           </cell>
         </row>
         <row r="186">
           <cell r="A186">
-            <v>11043</v>
+            <v>11013</v>
           </cell>
           <cell r="B186" t="str">
-            <v>石雕兵马俑</v>
+            <v>恶魔刀斧手</v>
           </cell>
         </row>
         <row r="187">
           <cell r="A187">
-            <v>11044</v>
+            <v>11014</v>
           </cell>
           <cell r="B187" t="str">
-            <v>石雕俑护卫</v>
+            <v>峡谷银狼</v>
           </cell>
         </row>
         <row r="188">
           <cell r="A188">
-            <v>11045</v>
+            <v>11015</v>
           </cell>
           <cell r="B188" t="str">
-            <v>机关巨锤兽</v>
+            <v>峡谷猩猩</v>
           </cell>
         </row>
         <row r="189">
           <cell r="A189">
-            <v>11046</v>
+            <v>11016</v>
           </cell>
           <cell r="B189" t="str">
-            <v>沼泽鳄鱼</v>
+            <v>皇陵蛇妖</v>
           </cell>
         </row>
         <row r="190">
           <cell r="A190">
-            <v>11047</v>
+            <v>11017</v>
           </cell>
           <cell r="B190" t="str">
-            <v>沼泽八爪鱼</v>
+            <v>皇陵教主</v>
           </cell>
         </row>
         <row r="191">
           <cell r="A191">
-            <v>11048</v>
+            <v>11018</v>
           </cell>
           <cell r="B191" t="str">
-            <v>沼泽霸刺</v>
+            <v>皇陵护法</v>
           </cell>
         </row>
         <row r="192">
           <cell r="A192">
-            <v>11049</v>
+            <v>11019</v>
           </cell>
           <cell r="B192" t="str">
-            <v>恶魔树妖</v>
+            <v>历魂刀卫</v>
           </cell>
         </row>
         <row r="193">
           <cell r="A193">
-            <v>11050</v>
+            <v>11020</v>
           </cell>
           <cell r="B193" t="str">
-            <v>魔王领主</v>
+            <v>历魂刀兵</v>
           </cell>
         </row>
         <row r="194">
           <cell r="A194">
-            <v>11051</v>
+            <v>11021</v>
           </cell>
           <cell r="B194" t="str">
-            <v>魔王将军</v>
+            <v>历魂弓手</v>
           </cell>
         </row>
         <row r="195">
           <cell r="A195">
-            <v>11052</v>
+            <v>11022</v>
           </cell>
           <cell r="B195" t="str">
-            <v>远古妖王</v>
+            <v>魔殿卫士</v>
           </cell>
         </row>
         <row r="196">
           <cell r="A196">
-            <v>11053</v>
+            <v>11023</v>
           </cell>
           <cell r="B196" t="str">
-            <v>花仙子</v>
+            <v>魔殿战士</v>
           </cell>
         </row>
         <row r="197">
           <cell r="A197">
-            <v>11054</v>
+            <v>11024</v>
           </cell>
           <cell r="B197" t="str">
-            <v>元素精灵</v>
+            <v>魔殿女巫</v>
           </cell>
         </row>
         <row r="198">
           <cell r="A198">
-            <v>11055</v>
+            <v>11025</v>
           </cell>
           <cell r="B198" t="str">
-            <v>熔岩泥魂</v>
+            <v>尘封铜猪</v>
           </cell>
         </row>
         <row r="199">
           <cell r="A199">
-            <v>11056</v>
+            <v>11026</v>
           </cell>
           <cell r="B199" t="str">
-            <v>魔族守卫</v>
+            <v>尘封天使</v>
           </cell>
         </row>
         <row r="200">
           <cell r="A200">
-            <v>11057</v>
+            <v>11027</v>
           </cell>
           <cell r="B200" t="str">
-            <v>魔族战将</v>
+            <v>远古恐龙</v>
           </cell>
         </row>
         <row r="201">
           <cell r="A201">
-            <v>11058</v>
+            <v>11028</v>
           </cell>
           <cell r="B201" t="str">
-            <v>魔族射手</v>
+            <v>山谷蜥蜴</v>
           </cell>
         </row>
         <row r="202">
           <cell r="A202">
+            <v>11029</v>
+          </cell>
+          <cell r="B202" t="str">
+            <v>穿山甲</v>
+          </cell>
+        </row>
+        <row r="203">
+          <cell r="A203">
+            <v>11030</v>
+          </cell>
+          <cell r="B203" t="str">
+            <v>火凤凰</v>
+          </cell>
+        </row>
+        <row r="204">
+          <cell r="A204">
+            <v>11031</v>
+          </cell>
+          <cell r="B204" t="str">
+            <v>冰青龙</v>
+          </cell>
+        </row>
+        <row r="205">
+          <cell r="A205">
+            <v>11032</v>
+          </cell>
+          <cell r="B205" t="str">
+            <v>遗忘红狼</v>
+          </cell>
+        </row>
+        <row r="206">
+          <cell r="A206">
+            <v>11033</v>
+          </cell>
+          <cell r="B206" t="str">
+            <v>遗忘黑虎</v>
+          </cell>
+        </row>
+        <row r="207">
+          <cell r="A207">
+            <v>11034</v>
+          </cell>
+          <cell r="B207" t="str">
+            <v>天宫蛇妖</v>
+          </cell>
+        </row>
+        <row r="208">
+          <cell r="A208">
+            <v>11035</v>
+          </cell>
+          <cell r="B208" t="str">
+            <v>天宫乌龟</v>
+          </cell>
+        </row>
+        <row r="209">
+          <cell r="A209">
+            <v>11036</v>
+          </cell>
+          <cell r="B209" t="str">
+            <v>暗之圣域精灵</v>
+          </cell>
+        </row>
+        <row r="210">
+          <cell r="A210">
+            <v>11037</v>
+          </cell>
+          <cell r="B210" t="str">
+            <v>暗之邪恶毒蛇</v>
+          </cell>
+        </row>
+        <row r="211">
+          <cell r="A211">
+            <v>11038</v>
+          </cell>
+          <cell r="B211" t="str">
+            <v>邪恶的远古恶魔</v>
+          </cell>
+        </row>
+        <row r="212">
+          <cell r="A212">
+            <v>11039</v>
+          </cell>
+          <cell r="B212" t="str">
+            <v>雪域冰女</v>
+          </cell>
+        </row>
+        <row r="213">
+          <cell r="A213">
+            <v>11040</v>
+          </cell>
+          <cell r="B213" t="str">
+            <v>雪域将军</v>
+          </cell>
+        </row>
+        <row r="214">
+          <cell r="A214">
+            <v>11041</v>
+          </cell>
+          <cell r="B214" t="str">
+            <v>雪域射手</v>
+          </cell>
+        </row>
+        <row r="215">
+          <cell r="A215">
+            <v>11042</v>
+          </cell>
+          <cell r="B215" t="str">
+            <v>雪域魔王</v>
+          </cell>
+        </row>
+        <row r="216">
+          <cell r="A216">
+            <v>11043</v>
+          </cell>
+          <cell r="B216" t="str">
+            <v>石雕兵马俑</v>
+          </cell>
+        </row>
+        <row r="217">
+          <cell r="A217">
+            <v>11044</v>
+          </cell>
+          <cell r="B217" t="str">
+            <v>石雕俑护卫</v>
+          </cell>
+        </row>
+        <row r="218">
+          <cell r="A218">
+            <v>11045</v>
+          </cell>
+          <cell r="B218" t="str">
+            <v>机关巨锤兽</v>
+          </cell>
+        </row>
+        <row r="219">
+          <cell r="A219">
+            <v>11046</v>
+          </cell>
+          <cell r="B219" t="str">
+            <v>沼泽鳄鱼</v>
+          </cell>
+        </row>
+        <row r="220">
+          <cell r="A220">
+            <v>11047</v>
+          </cell>
+          <cell r="B220" t="str">
+            <v>沼泽八爪鱼</v>
+          </cell>
+        </row>
+        <row r="221">
+          <cell r="A221">
+            <v>11048</v>
+          </cell>
+          <cell r="B221" t="str">
+            <v>沼泽霸刺</v>
+          </cell>
+        </row>
+        <row r="222">
+          <cell r="A222">
+            <v>11049</v>
+          </cell>
+          <cell r="B222" t="str">
+            <v>恶魔树妖</v>
+          </cell>
+        </row>
+        <row r="223">
+          <cell r="A223">
+            <v>11050</v>
+          </cell>
+          <cell r="B223" t="str">
+            <v>魔王领主</v>
+          </cell>
+        </row>
+        <row r="224">
+          <cell r="A224">
+            <v>11051</v>
+          </cell>
+          <cell r="B224" t="str">
+            <v>魔王将军</v>
+          </cell>
+        </row>
+        <row r="225">
+          <cell r="A225">
+            <v>11052</v>
+          </cell>
+          <cell r="B225" t="str">
+            <v>远古妖王</v>
+          </cell>
+        </row>
+        <row r="226">
+          <cell r="A226">
+            <v>11053</v>
+          </cell>
+          <cell r="B226" t="str">
+            <v>花仙子</v>
+          </cell>
+        </row>
+        <row r="227">
+          <cell r="A227">
+            <v>11054</v>
+          </cell>
+          <cell r="B227" t="str">
+            <v>元素精灵</v>
+          </cell>
+        </row>
+        <row r="228">
+          <cell r="A228">
+            <v>11055</v>
+          </cell>
+          <cell r="B228" t="str">
+            <v>熔岩泥魂</v>
+          </cell>
+        </row>
+        <row r="229">
+          <cell r="A229">
+            <v>11056</v>
+          </cell>
+          <cell r="B229" t="str">
+            <v>魔族守卫</v>
+          </cell>
+        </row>
+        <row r="230">
+          <cell r="A230">
+            <v>11057</v>
+          </cell>
+          <cell r="B230" t="str">
+            <v>魔族战将</v>
+          </cell>
+        </row>
+        <row r="231">
+          <cell r="A231">
+            <v>11058</v>
+          </cell>
+          <cell r="B231" t="str">
+            <v>魔族射手</v>
+          </cell>
+        </row>
+        <row r="232">
+          <cell r="A232">
             <v>11059</v>
           </cell>
-          <cell r="B202" t="str">
+          <cell r="B232" t="str">
             <v>魔族卫士</v>
           </cell>
         </row>
@@ -6368,801 +6883,873 @@
         </row>
         <row r="24">
           <cell r="A24">
-            <v>203001</v>
+            <v>201021</v>
           </cell>
           <cell r="B24" t="str">
-            <v>零星铜币</v>
+            <v>替身娃娃</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25">
-            <v>203002</v>
+            <v>203001</v>
           </cell>
           <cell r="B25" t="str">
-            <v>小堆铜币</v>
+            <v>零星铜币</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26">
-            <v>203003</v>
+            <v>203002</v>
           </cell>
           <cell r="B26" t="str">
-            <v>大堆铜币</v>
+            <v>小堆铜币</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27">
-            <v>203004</v>
+            <v>203003</v>
           </cell>
           <cell r="B27" t="str">
-            <v>零星银币</v>
+            <v>大堆铜币</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28">
-            <v>203005</v>
+            <v>203004</v>
           </cell>
           <cell r="B28" t="str">
-            <v>小堆银币</v>
+            <v>零星银币</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29">
-            <v>203006</v>
+            <v>203005</v>
           </cell>
           <cell r="B29" t="str">
-            <v>大堆银币</v>
+            <v>小堆银币</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30">
-            <v>203007</v>
+            <v>203006</v>
           </cell>
           <cell r="B30" t="str">
-            <v>银元</v>
+            <v>大堆银币</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31">
-            <v>203008</v>
+            <v>203007</v>
           </cell>
           <cell r="B31" t="str">
-            <v>零星金币</v>
+            <v>银元</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32">
-            <v>203009</v>
+            <v>203008</v>
           </cell>
           <cell r="B32" t="str">
-            <v>小堆金币</v>
+            <v>零星金币</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33">
-            <v>203010</v>
+            <v>203009</v>
           </cell>
           <cell r="B33" t="str">
-            <v>大堆金币</v>
+            <v>小堆金币</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34">
-            <v>203011</v>
+            <v>203010</v>
           </cell>
           <cell r="B34" t="str">
-            <v>金元宝</v>
+            <v>大堆金币</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35">
-            <v>203012</v>
+            <v>203011</v>
           </cell>
           <cell r="B35" t="str">
-            <v>金条</v>
+            <v>金元宝</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36">
-            <v>203013</v>
+            <v>203012</v>
           </cell>
           <cell r="B36" t="str">
-            <v>金砖</v>
+            <v>金条</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37">
-            <v>203014</v>
+            <v>203013</v>
           </cell>
           <cell r="B37" t="str">
-            <v>金盒</v>
+            <v>金砖</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38">
-            <v>203015</v>
+            <v>203014</v>
           </cell>
           <cell r="B38" t="str">
-            <v>富贵满堂</v>
+            <v>金盒</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39">
-            <v>203016</v>
+            <v>203015</v>
           </cell>
           <cell r="B39" t="str">
-            <v>一级声望卷</v>
+            <v>富贵满堂</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40">
-            <v>203017</v>
+            <v>203016</v>
           </cell>
           <cell r="B40" t="str">
-            <v>二级声望卷</v>
+            <v>一级声望卷</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41">
-            <v>203018</v>
+            <v>203017</v>
           </cell>
           <cell r="B41" t="str">
-            <v>三级声望卷</v>
+            <v>二级声望卷</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42">
-            <v>203019</v>
+            <v>203018</v>
           </cell>
           <cell r="B42" t="str">
-            <v>四级声望卷</v>
+            <v>三级声望卷</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43">
-            <v>203020</v>
+            <v>203019</v>
           </cell>
           <cell r="B43" t="str">
-            <v>五级声望卷</v>
+            <v>四级声望卷</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44">
-            <v>203021</v>
+            <v>203020</v>
           </cell>
           <cell r="B44" t="str">
-            <v>六级声望卷</v>
+            <v>五级声望卷</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45">
-            <v>203022</v>
+            <v>203021</v>
           </cell>
           <cell r="B45" t="str">
-            <v>七级声望卷</v>
+            <v>六级声望卷</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46">
-            <v>203023</v>
+            <v>203022</v>
           </cell>
           <cell r="B46" t="str">
-            <v>八级声望卷</v>
+            <v>七级声望卷</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47">
-            <v>203024</v>
+            <v>203023</v>
           </cell>
           <cell r="B47" t="str">
-            <v>九级声望卷</v>
+            <v>八级声望卷</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48">
-            <v>203025</v>
+            <v>203024</v>
           </cell>
           <cell r="B48" t="str">
-            <v>十级声望卷</v>
+            <v>九级声望卷</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49">
-            <v>203026</v>
+            <v>203025</v>
           </cell>
           <cell r="B49" t="str">
-            <v>十一级声望卷</v>
+            <v>十级声望卷</v>
           </cell>
         </row>
         <row r="50">
           <cell r="A50">
-            <v>203027</v>
+            <v>203026</v>
           </cell>
           <cell r="B50" t="str">
-            <v>十二级声望卷</v>
+            <v>十一级声望卷</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51">
-            <v>203028</v>
+            <v>203027</v>
           </cell>
           <cell r="B51" t="str">
-            <v>十三级声望卷</v>
+            <v>十二级声望卷</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52">
-            <v>203029</v>
+            <v>203028</v>
           </cell>
           <cell r="B52" t="str">
-            <v>十四级声望卷</v>
+            <v>十三级声望卷</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53">
-            <v>203030</v>
+            <v>203029</v>
           </cell>
           <cell r="B53" t="str">
-            <v>十五级声望卷</v>
+            <v>十四级声望卷</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54">
-            <v>204001</v>
+            <v>203030</v>
           </cell>
           <cell r="B54" t="str">
-            <v>混沌石</v>
+            <v>十五级声望卷</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55">
-            <v>205001</v>
+            <v>204001</v>
           </cell>
           <cell r="B55" t="str">
-            <v>魔御精华(小)</v>
+            <v>混沌石</v>
           </cell>
         </row>
         <row r="56">
           <cell r="A56">
-            <v>205002</v>
+            <v>204002</v>
           </cell>
           <cell r="B56" t="str">
-            <v>魔御精华(中)</v>
+            <v>筑基丹</v>
           </cell>
         </row>
         <row r="57">
           <cell r="A57">
-            <v>205003</v>
+            <v>205001</v>
           </cell>
           <cell r="B57" t="str">
-            <v>魔御精华(大)</v>
+            <v>魔御精华(小)</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58">
-            <v>205004</v>
+            <v>205002</v>
           </cell>
           <cell r="B58" t="str">
-            <v>防御精华(小)</v>
+            <v>魔御精华(中)</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59">
-            <v>205005</v>
+            <v>205003</v>
           </cell>
           <cell r="B59" t="str">
-            <v>防御精华(中)</v>
+            <v>魔御精华(大)</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60">
-            <v>205006</v>
+            <v>205004</v>
           </cell>
           <cell r="B60" t="str">
-            <v>防御精华(大)</v>
+            <v>防御精华(小)</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61">
-            <v>205007</v>
+            <v>205005</v>
           </cell>
           <cell r="B61" t="str">
-            <v>神石结晶(小)</v>
+            <v>防御精华(中)</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62">
-            <v>205008</v>
+            <v>205006</v>
           </cell>
           <cell r="B62" t="str">
-            <v>神石结晶(中)</v>
+            <v>防御精华(大)</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63">
-            <v>205009</v>
+            <v>205007</v>
           </cell>
           <cell r="B63" t="str">
-            <v>神石结晶(大)</v>
+            <v>神石结晶(小)</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64">
-            <v>205010</v>
+            <v>205008</v>
           </cell>
           <cell r="B64" t="str">
-            <v>灵魂碎片(小)</v>
+            <v>神石结晶(中)</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65">
-            <v>205011</v>
+            <v>205009</v>
           </cell>
           <cell r="B65" t="str">
-            <v>灵魂碎片(中)</v>
+            <v>神石结晶(大)</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66">
-            <v>205012</v>
+            <v>205010</v>
           </cell>
           <cell r="B66" t="str">
-            <v>灵魂碎片(大)</v>
+            <v>灵魂碎片(小)</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67">
-            <v>220001</v>
+            <v>205011</v>
           </cell>
           <cell r="B67" t="str">
-            <v>火球术</v>
+            <v>灵魂碎片(中)</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68">
-            <v>220002</v>
+            <v>205012</v>
           </cell>
           <cell r="B68" t="str">
-            <v>治愈术</v>
+            <v>灵魂碎片(大)</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69">
-            <v>220003</v>
+            <v>220001</v>
           </cell>
           <cell r="B69" t="str">
-            <v>基本剑术</v>
+            <v>火球术</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70">
-            <v>220004</v>
+            <v>220002</v>
           </cell>
           <cell r="B70" t="str">
-            <v>精神力战法</v>
+            <v>治愈术</v>
           </cell>
         </row>
         <row r="71">
           <cell r="A71">
-            <v>220005</v>
+            <v>220003</v>
           </cell>
           <cell r="B71" t="str">
-            <v>大火球</v>
+            <v>基本剑术</v>
           </cell>
         </row>
         <row r="72">
           <cell r="A72">
-            <v>220006</v>
+            <v>220004</v>
           </cell>
           <cell r="B72" t="str">
-            <v>攻杀剑术</v>
+            <v>精神力战法</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73">
-            <v>220007</v>
+            <v>220005</v>
           </cell>
           <cell r="B73" t="str">
-            <v>施毒术</v>
+            <v>大火球</v>
           </cell>
         </row>
         <row r="74">
           <cell r="A74">
-            <v>220008</v>
+            <v>220006</v>
           </cell>
           <cell r="B74" t="str">
-            <v>抗拒火环</v>
+            <v>攻杀剑术</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75">
-            <v>220009</v>
+            <v>220007</v>
           </cell>
           <cell r="B75" t="str">
-            <v>地狱火</v>
+            <v>施毒术</v>
           </cell>
         </row>
         <row r="76">
           <cell r="A76">
-            <v>220010</v>
+            <v>220008</v>
           </cell>
           <cell r="B76" t="str">
-            <v>雷电术</v>
+            <v>抗拒火环</v>
           </cell>
         </row>
         <row r="77">
           <cell r="A77">
-            <v>220011</v>
+            <v>220009</v>
           </cell>
           <cell r="B77" t="str">
-            <v>疾光电影</v>
+            <v>地狱火</v>
           </cell>
         </row>
         <row r="78">
           <cell r="A78">
-            <v>220012</v>
+            <v>220010</v>
           </cell>
           <cell r="B78" t="str">
-            <v>灵魂火符</v>
+            <v>雷电术</v>
           </cell>
         </row>
         <row r="79">
           <cell r="A79">
-            <v>220013</v>
+            <v>220011</v>
           </cell>
           <cell r="B79" t="str">
-            <v>幽灵盾</v>
+            <v>疾光电影</v>
           </cell>
         </row>
         <row r="80">
           <cell r="A80">
-            <v>220014</v>
+            <v>220012</v>
           </cell>
           <cell r="B80" t="str">
-            <v>神圣战甲术</v>
+            <v>灵魂火符</v>
           </cell>
         </row>
         <row r="81">
           <cell r="A81">
-            <v>220015</v>
+            <v>220013</v>
           </cell>
           <cell r="B81" t="str">
-            <v>刺杀剑术</v>
+            <v>幽灵盾</v>
           </cell>
         </row>
         <row r="82">
           <cell r="A82">
-            <v>220016</v>
+            <v>220014</v>
           </cell>
           <cell r="B82" t="str">
-            <v>困魔咒</v>
+            <v>神圣战甲术</v>
           </cell>
         </row>
         <row r="83">
           <cell r="A83">
-            <v>220017</v>
+            <v>220015</v>
           </cell>
           <cell r="B83" t="str">
-            <v>召唤骷髅</v>
+            <v>刺杀剑术</v>
           </cell>
         </row>
         <row r="84">
           <cell r="A84">
-            <v>220018</v>
+            <v>220016</v>
           </cell>
           <cell r="B84" t="str">
-            <v>隐身术</v>
+            <v>困魔咒</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85">
-            <v>220019</v>
+            <v>220017</v>
           </cell>
           <cell r="B85" t="str">
-            <v>集体隐身术</v>
+            <v>召唤骷髅</v>
           </cell>
         </row>
         <row r="86">
           <cell r="A86">
-            <v>220020</v>
+            <v>220018</v>
           </cell>
           <cell r="B86" t="str">
-            <v>诱惑之光</v>
+            <v>隐身术</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87">
-            <v>220021</v>
+            <v>220019</v>
           </cell>
           <cell r="B87" t="str">
-            <v>瞬息移动</v>
+            <v>集体隐身术</v>
           </cell>
         </row>
         <row r="88">
           <cell r="A88">
-            <v>220022</v>
+            <v>220020</v>
           </cell>
           <cell r="B88" t="str">
-            <v>附体之炎</v>
+            <v>诱惑之光</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89">
-            <v>220023</v>
+            <v>220021</v>
           </cell>
           <cell r="B89" t="str">
-            <v>爆裂火焰</v>
+            <v>瞬息移动</v>
           </cell>
         </row>
         <row r="90">
           <cell r="A90">
-            <v>220024</v>
+            <v>220022</v>
           </cell>
           <cell r="B90" t="str">
-            <v>地狱雷光</v>
+            <v>附体之炎</v>
           </cell>
         </row>
         <row r="91">
           <cell r="A91">
-            <v>220025</v>
+            <v>220023</v>
           </cell>
           <cell r="B91" t="str">
-            <v>半月弯刀</v>
+            <v>爆裂火焰</v>
           </cell>
         </row>
         <row r="92">
           <cell r="A92">
-            <v>220026</v>
+            <v>220024</v>
           </cell>
           <cell r="B92" t="str">
-            <v>烈火剑法</v>
+            <v>地狱雷光</v>
           </cell>
         </row>
         <row r="93">
           <cell r="A93">
-            <v>220027</v>
+            <v>220025</v>
           </cell>
           <cell r="B93" t="str">
-            <v>野蛮冲撞</v>
+            <v>半月弯刀</v>
           </cell>
         </row>
         <row r="94">
           <cell r="A94">
-            <v>220028</v>
+            <v>220026</v>
           </cell>
           <cell r="B94" t="str">
-            <v>心灵启示</v>
+            <v>烈火剑法</v>
           </cell>
         </row>
         <row r="95">
           <cell r="A95">
-            <v>220029</v>
+            <v>220027</v>
           </cell>
           <cell r="B95" t="str">
-            <v>群体治疗术</v>
+            <v>野蛮冲撞</v>
           </cell>
         </row>
         <row r="96">
           <cell r="A96">
-            <v>220030</v>
+            <v>220028</v>
           </cell>
           <cell r="B96" t="str">
-            <v>召唤神兽</v>
+            <v>心灵启示</v>
           </cell>
         </row>
         <row r="97">
           <cell r="A97">
-            <v>220031</v>
+            <v>220029</v>
           </cell>
           <cell r="B97" t="str">
-            <v>魔法盾</v>
+            <v>群体治疗术</v>
           </cell>
         </row>
         <row r="98">
           <cell r="A98">
-            <v>220032</v>
+            <v>220030</v>
           </cell>
           <cell r="B98" t="str">
-            <v>圣言术</v>
+            <v>召唤神兽</v>
           </cell>
         </row>
         <row r="99">
           <cell r="A99">
-            <v>220033</v>
+            <v>220031</v>
           </cell>
           <cell r="B99" t="str">
-            <v>冰咆哮</v>
+            <v>魔法盾</v>
           </cell>
         </row>
         <row r="100">
           <cell r="A100">
-            <v>220034</v>
+            <v>220032</v>
           </cell>
           <cell r="B100" t="str">
-            <v>战神守护</v>
+            <v>圣言术</v>
           </cell>
         </row>
         <row r="101">
           <cell r="A101">
-            <v>220035</v>
+            <v>220033</v>
           </cell>
           <cell r="B101" t="str">
-            <v>逐日剑法</v>
+            <v>冰咆哮</v>
           </cell>
         </row>
         <row r="102">
           <cell r="A102">
-            <v>220036</v>
+            <v>220034</v>
           </cell>
           <cell r="B102" t="str">
-            <v>开天斩</v>
+            <v>战神守护</v>
           </cell>
         </row>
         <row r="103">
           <cell r="A103">
-            <v>299001</v>
+            <v>220035</v>
           </cell>
           <cell r="B103" t="str">
-            <v>鹿肉</v>
+            <v>逐日剑法</v>
           </cell>
         </row>
         <row r="104">
           <cell r="A104">
-            <v>299002</v>
+            <v>220036</v>
           </cell>
           <cell r="B104" t="str">
-            <v>蟾酥</v>
+            <v>开天斩</v>
           </cell>
         </row>
         <row r="105">
           <cell r="A105">
-            <v>299003</v>
+            <v>299001</v>
           </cell>
           <cell r="B105" t="str">
-            <v>树叶</v>
+            <v>鹿肉</v>
           </cell>
         </row>
         <row r="106">
           <cell r="A106">
-            <v>299004</v>
+            <v>299002</v>
           </cell>
           <cell r="B106" t="str">
-            <v>蝎尾</v>
+            <v>蟾酥</v>
           </cell>
         </row>
         <row r="107">
           <cell r="A107">
-            <v>299005</v>
+            <v>299003</v>
           </cell>
           <cell r="B107" t="str">
-            <v>蛆卵</v>
+            <v>树叶</v>
           </cell>
         </row>
         <row r="108">
           <cell r="A108">
-            <v>299006</v>
+            <v>299004</v>
           </cell>
           <cell r="B108" t="str">
-            <v>背刺</v>
+            <v>蝎尾</v>
           </cell>
         </row>
         <row r="109">
           <cell r="A109">
-            <v>299007</v>
+            <v>299005</v>
           </cell>
           <cell r="B109" t="str">
-            <v>蜘蛛牙齿</v>
+            <v>蛆卵</v>
           </cell>
         </row>
         <row r="110">
           <cell r="A110">
-            <v>299008</v>
+            <v>299006</v>
           </cell>
           <cell r="B110" t="str">
-            <v>蛇胆</v>
+            <v>背刺</v>
           </cell>
         </row>
         <row r="111">
           <cell r="A111">
-            <v>299009</v>
+            <v>299007</v>
           </cell>
           <cell r="B111" t="str">
-            <v>羽毛</v>
+            <v>蜘蛛牙齿</v>
           </cell>
         </row>
         <row r="112">
           <cell r="A112">
-            <v>299010</v>
+            <v>299008</v>
           </cell>
           <cell r="B112" t="str">
-            <v>天龙</v>
+            <v>蛇胆</v>
           </cell>
         </row>
         <row r="113">
           <cell r="A113">
-            <v>299011</v>
+            <v>299009</v>
           </cell>
           <cell r="B113" t="str">
-            <v>野猪镣牙</v>
+            <v>羽毛</v>
           </cell>
         </row>
         <row r="114">
           <cell r="A114">
-            <v>299012</v>
+            <v>299010</v>
           </cell>
           <cell r="B114" t="str">
-            <v>蝶粉</v>
+            <v>天龙</v>
           </cell>
         </row>
         <row r="115">
           <cell r="A115">
-            <v>299013</v>
+            <v>299011</v>
           </cell>
           <cell r="B115" t="str">
-            <v>古怪石头</v>
+            <v>野猪镣牙</v>
           </cell>
         </row>
         <row r="116">
           <cell r="A116">
-            <v>299014</v>
+            <v>299012</v>
           </cell>
           <cell r="B116" t="str">
-            <v>蛛丝</v>
+            <v>蝶粉</v>
           </cell>
         </row>
         <row r="117">
           <cell r="A117">
-            <v>299015</v>
+            <v>299013</v>
           </cell>
           <cell r="B117" t="str">
-            <v>发霉的书籍</v>
+            <v>古怪石头</v>
           </cell>
         </row>
         <row r="118">
           <cell r="A118">
-            <v>299016</v>
+            <v>299014</v>
           </cell>
           <cell r="B118" t="str">
-            <v>魂火</v>
+            <v>蛛丝</v>
           </cell>
         </row>
         <row r="119">
           <cell r="A119">
-            <v>299017</v>
+            <v>299015</v>
           </cell>
           <cell r="B119" t="str">
-            <v>牛角</v>
+            <v>发霉的书籍</v>
           </cell>
         </row>
         <row r="120">
           <cell r="A120">
-            <v>299018</v>
+            <v>299016</v>
           </cell>
           <cell r="B120" t="str">
-            <v>牛黄</v>
+            <v>魂火</v>
           </cell>
         </row>
         <row r="121">
           <cell r="A121">
-            <v>299019</v>
+            <v>299017</v>
           </cell>
           <cell r="B121" t="str">
-            <v>带魔气的眼睛</v>
+            <v>牛角</v>
           </cell>
         </row>
         <row r="122">
           <cell r="A122">
+            <v>299018</v>
+          </cell>
+          <cell r="B122" t="str">
+            <v>牛黄</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="A123">
+            <v>299019</v>
+          </cell>
+          <cell r="B123" t="str">
+            <v>带魔气的眼睛</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="A124">
             <v>299020</v>
           </cell>
-          <cell r="B122" t="str">
+          <cell r="B124" t="str">
             <v>龙骨</v>
           </cell>
         </row>
+        <row r="125">
+          <cell r="A125">
+            <v>299021</v>
+          </cell>
+          <cell r="B125" t="str">
+            <v>千年蛛丝</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="A126">
+            <v>299022</v>
+          </cell>
+          <cell r="B126" t="str">
+            <v>手杖</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="A127">
+            <v>299023</v>
+          </cell>
+          <cell r="B127" t="str">
+            <v>狼毫</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="A128">
+            <v>299024</v>
+          </cell>
+          <cell r="B128" t="str">
+            <v>冰之精</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="A129">
+            <v>299025</v>
+          </cell>
+          <cell r="B129" t="str">
+            <v>官印</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="A130">
+            <v>299026</v>
+          </cell>
+          <cell r="B130" t="str">
+            <v>火之精</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="A131">
+            <v>299027</v>
+          </cell>
+          <cell r="B131" t="str">
+            <v>火龙内丹</v>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7499,11 +8086,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B146" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B152" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C164" sqref="C164"/>
+      <selection pane="bottomRight" activeCell="M168" sqref="M168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -10527,37 +11114,37 @@
         <v>304008</v>
       </c>
       <c r="C91" s="1">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="D91" s="1">
         <v>304009</v>
       </c>
       <c r="E91" s="1">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="F91" s="1">
         <v>304010</v>
       </c>
       <c r="G91" s="1">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="H91" s="1">
         <v>304014</v>
       </c>
       <c r="I91" s="1">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="J91" s="1">
         <v>304015</v>
       </c>
       <c r="K91" s="1">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="L91" s="1">
         <v>304016</v>
       </c>
       <c r="M91" s="1">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="V91" s="1">
         <f t="shared" si="1"/>
@@ -10572,37 +11159,37 @@
         <v>305026</v>
       </c>
       <c r="C92" s="1">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="D92" s="1">
         <v>305027</v>
       </c>
       <c r="E92" s="1">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="F92" s="1">
         <v>305028</v>
       </c>
       <c r="G92" s="1">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="H92" s="1">
         <v>305035</v>
       </c>
       <c r="I92" s="1">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="J92" s="1">
         <v>305036</v>
       </c>
       <c r="K92" s="1">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="L92" s="1">
         <v>305037</v>
       </c>
       <c r="M92" s="1">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="V92" s="1">
         <f t="shared" si="1"/>
@@ -10617,37 +11204,37 @@
         <v>306028</v>
       </c>
       <c r="C93" s="1">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="D93" s="1">
         <v>306029</v>
       </c>
       <c r="E93" s="1">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="F93" s="1">
         <v>306030</v>
       </c>
       <c r="G93" s="1">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="H93" s="1">
         <v>306037</v>
       </c>
       <c r="I93" s="1">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="J93" s="1">
         <v>306038</v>
       </c>
       <c r="K93" s="1">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="L93" s="1">
         <v>306039</v>
       </c>
       <c r="M93" s="1">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="V93" s="1">
         <f t="shared" si="1"/>
@@ -10662,37 +11249,37 @@
         <v>307027</v>
       </c>
       <c r="C94" s="1">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="D94" s="1">
         <v>307028</v>
       </c>
       <c r="E94" s="1">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="F94" s="1">
         <v>307029</v>
       </c>
       <c r="G94" s="1">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="H94" s="1">
         <v>307036</v>
       </c>
       <c r="I94" s="1">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="J94" s="1">
         <v>307037</v>
       </c>
       <c r="K94" s="1">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="L94" s="1">
         <v>307038</v>
       </c>
       <c r="M94" s="1">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="V94" s="1">
         <f t="shared" si="1"/>
@@ -10704,26 +11291,44 @@
         <v>10096</v>
       </c>
       <c r="B95" s="1">
+        <v>299021</v>
+      </c>
+      <c r="C95" s="1">
+        <v>64</v>
+      </c>
+      <c r="D95" s="1">
+        <v>201004</v>
+      </c>
+      <c r="E95" s="1">
+        <v>32</v>
+      </c>
+      <c r="F95" s="1">
+        <v>201014</v>
+      </c>
+      <c r="G95" s="1">
+        <v>32</v>
+      </c>
+      <c r="H95" s="1">
         <v>301033</v>
       </c>
-      <c r="C95" s="1">
-        <v>300</v>
-      </c>
-      <c r="D95" s="1">
+      <c r="I95" s="1">
+        <v>320</v>
+      </c>
+      <c r="J95" s="1">
         <v>301034</v>
       </c>
-      <c r="E95" s="1">
-        <v>300</v>
-      </c>
-      <c r="F95" s="1">
+      <c r="K95" s="1">
+        <v>320</v>
+      </c>
+      <c r="L95" s="1">
         <v>301035</v>
       </c>
-      <c r="G95" s="1">
-        <v>300</v>
+      <c r="M95" s="1">
+        <v>320</v>
       </c>
       <c r="V95" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:22">
@@ -10731,32 +11336,44 @@
         <v>10097</v>
       </c>
       <c r="B96" s="1">
+        <v>201004</v>
+      </c>
+      <c r="C96" s="1">
+        <v>32</v>
+      </c>
+      <c r="D96" s="1">
+        <v>201014</v>
+      </c>
+      <c r="E96" s="1">
+        <v>32</v>
+      </c>
+      <c r="F96" s="1">
         <v>308004</v>
-      </c>
-      <c r="C96" s="1">
-        <v>150</v>
-      </c>
-      <c r="D96" s="1">
-        <v>308005</v>
-      </c>
-      <c r="E96" s="1">
-        <v>300</v>
-      </c>
-      <c r="F96" s="1">
-        <v>311004</v>
       </c>
       <c r="G96" s="1">
         <v>150</v>
       </c>
       <c r="H96" s="1">
-        <v>311005</v>
+        <v>308005</v>
       </c>
       <c r="I96" s="1">
         <v>300</v>
       </c>
+      <c r="J96" s="1">
+        <v>311004</v>
+      </c>
+      <c r="K96" s="1">
+        <v>150</v>
+      </c>
+      <c r="L96" s="1">
+        <v>311005</v>
+      </c>
+      <c r="M96" s="1">
+        <v>300</v>
+      </c>
       <c r="V96" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:22">
@@ -10767,19 +11384,19 @@
         <v>309008</v>
       </c>
       <c r="C97" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="D97" s="1">
         <v>309009</v>
       </c>
       <c r="E97" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="F97" s="1">
         <v>309010</v>
       </c>
       <c r="G97" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="V97" s="1">
         <f t="shared" si="1"/>
@@ -10794,19 +11411,19 @@
         <v>308006</v>
       </c>
       <c r="C98" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="D98" s="1">
         <v>308007</v>
       </c>
       <c r="E98" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="F98" s="1">
         <v>308008</v>
       </c>
       <c r="G98" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="V98" s="1">
         <f t="shared" si="1"/>
@@ -10821,19 +11438,19 @@
         <v>310008</v>
       </c>
       <c r="C99" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="D99" s="1">
         <v>310009</v>
       </c>
       <c r="E99" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="F99" s="1">
         <v>310010</v>
       </c>
       <c r="G99" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="V99" s="1">
         <f t="shared" si="1"/>
@@ -10926,38 +11543,44 @@
         <v>10104</v>
       </c>
       <c r="B103" s="1">
-        <v>301033</v>
+        <v>299022</v>
       </c>
       <c r="C103" s="1">
-        <v>150</v>
+        <v>64</v>
       </c>
       <c r="D103" s="1">
+        <v>220033</v>
+      </c>
+      <c r="E103" s="1">
+        <v>64</v>
+      </c>
+      <c r="F103" s="1">
         <v>304011</v>
       </c>
-      <c r="E103" s="1">
-        <v>100</v>
-      </c>
-      <c r="F103" s="1">
+      <c r="G103" s="1">
+        <v>64</v>
+      </c>
+      <c r="H103" s="1">
         <v>304017</v>
       </c>
-      <c r="G103" s="1">
-        <v>300</v>
-      </c>
-      <c r="H103" s="1">
+      <c r="I103" s="1">
+        <v>500</v>
+      </c>
+      <c r="J103" s="1">
         <v>305032</v>
       </c>
-      <c r="I103" s="1">
-        <v>100</v>
-      </c>
-      <c r="J103" s="1">
+      <c r="K103" s="1">
+        <v>64</v>
+      </c>
+      <c r="L103" s="1">
         <v>305038</v>
       </c>
-      <c r="K103" s="1">
-        <v>300</v>
+      <c r="M103" s="1">
+        <v>500</v>
       </c>
       <c r="V103" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:22">
@@ -10965,38 +11588,44 @@
         <v>10105</v>
       </c>
       <c r="B104" s="1">
-        <v>301034</v>
+        <v>201004</v>
       </c>
       <c r="C104" s="1">
-        <v>150</v>
+        <v>64</v>
       </c>
       <c r="D104" s="1">
+        <v>220029</v>
+      </c>
+      <c r="E104" s="1">
+        <v>64</v>
+      </c>
+      <c r="F104" s="1">
         <v>304012</v>
       </c>
-      <c r="E104" s="1">
-        <v>100</v>
-      </c>
-      <c r="F104" s="1">
+      <c r="G104" s="1">
+        <v>64</v>
+      </c>
+      <c r="H104" s="1">
         <v>304018</v>
       </c>
-      <c r="G104" s="1">
-        <v>300</v>
-      </c>
-      <c r="H104" s="1">
+      <c r="I104" s="1">
+        <v>500</v>
+      </c>
+      <c r="J104" s="1">
         <v>305033</v>
       </c>
-      <c r="I104" s="1">
-        <v>100</v>
-      </c>
-      <c r="J104" s="1">
+      <c r="K104" s="1">
+        <v>64</v>
+      </c>
+      <c r="L104" s="1">
         <v>305039</v>
       </c>
-      <c r="K104" s="1">
-        <v>300</v>
+      <c r="M104" s="1">
+        <v>500</v>
       </c>
       <c r="V104" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:22">
@@ -11004,38 +11633,44 @@
         <v>10106</v>
       </c>
       <c r="B105" s="1">
-        <v>301035</v>
+        <v>201004</v>
       </c>
       <c r="C105" s="1">
-        <v>150</v>
+        <v>64</v>
       </c>
       <c r="D105" s="1">
+        <v>220026</v>
+      </c>
+      <c r="E105" s="1">
+        <v>64</v>
+      </c>
+      <c r="F105" s="1">
         <v>304013</v>
       </c>
-      <c r="E105" s="1">
-        <v>100</v>
-      </c>
-      <c r="F105" s="1">
+      <c r="G105" s="1">
+        <v>64</v>
+      </c>
+      <c r="H105" s="1">
         <v>304019</v>
       </c>
-      <c r="G105" s="1">
-        <v>300</v>
-      </c>
-      <c r="H105" s="1">
+      <c r="I105" s="1">
+        <v>500</v>
+      </c>
+      <c r="J105" s="1">
         <v>305034</v>
       </c>
-      <c r="I105" s="1">
-        <v>100</v>
-      </c>
-      <c r="J105" s="1">
+      <c r="K105" s="1">
+        <v>64</v>
+      </c>
+      <c r="L105" s="1">
         <v>305040</v>
       </c>
-      <c r="K105" s="1">
-        <v>300</v>
+      <c r="M105" s="1">
+        <v>500</v>
       </c>
       <c r="V105" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:22">
@@ -11043,38 +11678,44 @@
         <v>10107</v>
       </c>
       <c r="B106" s="1">
-        <v>301037</v>
+        <v>299022</v>
       </c>
       <c r="C106" s="1">
+        <v>64</v>
+      </c>
+      <c r="D106" s="1">
+        <v>201004</v>
+      </c>
+      <c r="E106" s="1">
+        <v>64</v>
+      </c>
+      <c r="F106" s="1">
+        <v>306034</v>
+      </c>
+      <c r="G106" s="1">
+        <v>64</v>
+      </c>
+      <c r="H106" s="1">
+        <v>306040</v>
+      </c>
+      <c r="I106" s="1">
         <v>500</v>
       </c>
-      <c r="D106" s="1">
-        <v>306034</v>
-      </c>
-      <c r="E106" s="1">
-        <v>100</v>
-      </c>
-      <c r="F106" s="1">
-        <v>306040</v>
-      </c>
-      <c r="G106" s="1">
-        <v>300</v>
-      </c>
-      <c r="H106" s="2">
+      <c r="J106" s="2">
         <v>310005</v>
       </c>
-      <c r="I106" s="1">
-        <v>100</v>
-      </c>
-      <c r="J106" s="2">
+      <c r="K106" s="1">
+        <v>64</v>
+      </c>
+      <c r="L106" s="2">
         <v>310011</v>
       </c>
-      <c r="K106" s="1">
-        <v>300</v>
+      <c r="M106" s="1">
+        <v>500</v>
       </c>
       <c r="V106" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107" spans="1:22">
@@ -11082,38 +11723,44 @@
         <v>10108</v>
       </c>
       <c r="B107" s="1">
-        <v>301038</v>
+        <v>201014</v>
       </c>
       <c r="C107" s="1">
+        <v>64</v>
+      </c>
+      <c r="D107" s="1">
+        <v>201004</v>
+      </c>
+      <c r="E107" s="1">
+        <v>64</v>
+      </c>
+      <c r="F107" s="1">
+        <v>306035</v>
+      </c>
+      <c r="G107" s="1">
+        <v>64</v>
+      </c>
+      <c r="H107" s="1">
+        <v>306041</v>
+      </c>
+      <c r="I107" s="1">
         <v>500</v>
       </c>
-      <c r="D107" s="1">
-        <v>306035</v>
-      </c>
-      <c r="E107" s="1">
-        <v>100</v>
-      </c>
-      <c r="F107" s="1">
-        <v>306041</v>
-      </c>
-      <c r="G107" s="1">
-        <v>300</v>
-      </c>
-      <c r="H107" s="2">
+      <c r="J107" s="2">
         <v>310006</v>
       </c>
-      <c r="I107" s="1">
-        <v>100</v>
-      </c>
-      <c r="J107" s="2">
+      <c r="K107" s="1">
+        <v>64</v>
+      </c>
+      <c r="L107" s="2">
         <v>310012</v>
       </c>
-      <c r="K107" s="1">
-        <v>300</v>
+      <c r="M107" s="1">
+        <v>500</v>
       </c>
       <c r="V107" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:22">
@@ -11121,38 +11768,44 @@
         <v>10109</v>
       </c>
       <c r="B108" s="1">
-        <v>301039</v>
+        <v>201014</v>
       </c>
       <c r="C108" s="1">
+        <v>64</v>
+      </c>
+      <c r="D108" s="1">
+        <v>201004</v>
+      </c>
+      <c r="E108" s="1">
+        <v>64</v>
+      </c>
+      <c r="F108" s="1">
+        <v>306036</v>
+      </c>
+      <c r="G108" s="1">
+        <v>64</v>
+      </c>
+      <c r="H108" s="1">
+        <v>306042</v>
+      </c>
+      <c r="I108" s="1">
         <v>500</v>
       </c>
-      <c r="D108" s="1">
-        <v>306036</v>
-      </c>
-      <c r="E108" s="1">
-        <v>100</v>
-      </c>
-      <c r="F108" s="1">
-        <v>306042</v>
-      </c>
-      <c r="G108" s="1">
-        <v>300</v>
-      </c>
-      <c r="H108" s="2">
+      <c r="J108" s="2">
         <v>310007</v>
       </c>
-      <c r="I108" s="1">
-        <v>100</v>
-      </c>
-      <c r="J108" s="2">
+      <c r="K108" s="1">
+        <v>64</v>
+      </c>
+      <c r="L108" s="2">
         <v>310013</v>
       </c>
-      <c r="K108" s="1">
-        <v>300</v>
+      <c r="M108" s="1">
+        <v>500</v>
       </c>
       <c r="V108" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109" spans="1:22">
@@ -11163,19 +11816,19 @@
         <v>307033</v>
       </c>
       <c r="C109" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D109" s="1">
         <v>307034</v>
       </c>
       <c r="E109" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F109" s="1">
         <v>307035</v>
       </c>
       <c r="G109" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="V109" s="1">
         <f t="shared" si="1"/>
@@ -11217,37 +11870,37 @@
         <v>309005</v>
       </c>
       <c r="C111" s="1">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="D111" s="1">
         <v>309006</v>
       </c>
       <c r="E111" s="1">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="F111" s="1">
         <v>309007</v>
       </c>
       <c r="G111" s="1">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="H111" s="1">
         <v>309008</v>
       </c>
       <c r="I111" s="1">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J111" s="1">
         <v>309009</v>
       </c>
       <c r="K111" s="1">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L111" s="1">
         <v>309010</v>
       </c>
       <c r="M111" s="1">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V111" s="1">
         <f t="shared" si="1"/>
@@ -11262,37 +11915,37 @@
         <v>308006</v>
       </c>
       <c r="C112" s="1">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="D112" s="1">
         <v>308007</v>
       </c>
       <c r="E112" s="1">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="F112" s="1">
         <v>308008</v>
       </c>
       <c r="G112" s="1">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="H112" s="1">
         <v>308009</v>
       </c>
       <c r="I112" s="1">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J112" s="1">
         <v>308010</v>
       </c>
       <c r="K112" s="1">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L112" s="1">
         <v>308011</v>
       </c>
       <c r="M112" s="1">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V112" s="1">
         <f t="shared" si="1"/>
@@ -11384,18 +12037,36 @@
       <c r="A116" s="1">
         <v>10117</v>
       </c>
+      <c r="B116" s="1">
+        <v>299023</v>
+      </c>
+      <c r="C116" s="1">
+        <v>75</v>
+      </c>
       <c r="V116" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:22">
       <c r="A117" s="1">
         <v>10118</v>
       </c>
+      <c r="B117" s="1">
+        <v>201005</v>
+      </c>
+      <c r="C117" s="1">
+        <v>64</v>
+      </c>
+      <c r="D117" s="1">
+        <v>201015</v>
+      </c>
+      <c r="E117" s="1">
+        <v>64</v>
+      </c>
       <c r="V117" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:22">
@@ -11403,40 +12074,40 @@
         <v>10119</v>
       </c>
       <c r="B118" s="1">
-        <v>305032</v>
+        <v>305029</v>
       </c>
       <c r="C118" s="1">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D118" s="1">
-        <v>305033</v>
+        <v>305030</v>
       </c>
       <c r="E118" s="1">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="F118" s="1">
-        <v>305034</v>
+        <v>305031</v>
       </c>
       <c r="G118" s="1">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H118" s="1">
         <v>305041</v>
       </c>
       <c r="I118" s="1">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J118" s="1">
         <v>305042</v>
       </c>
       <c r="K118" s="1">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L118" s="1">
         <v>305043</v>
       </c>
       <c r="M118" s="1">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="V118" s="1">
         <f t="shared" si="1"/>
@@ -11448,40 +12119,40 @@
         <v>10120</v>
       </c>
       <c r="B119" s="1">
-        <v>306034</v>
+        <v>306031</v>
       </c>
       <c r="C119" s="1">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D119" s="1">
-        <v>306035</v>
+        <v>306032</v>
       </c>
       <c r="E119" s="1">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="F119" s="1">
-        <v>306036</v>
+        <v>306033</v>
       </c>
       <c r="G119" s="1">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H119" s="1">
         <v>306043</v>
       </c>
       <c r="I119" s="1">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J119" s="1">
         <v>306044</v>
       </c>
       <c r="K119" s="1">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L119" s="1">
         <v>306045</v>
       </c>
       <c r="M119" s="1">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="V119" s="1">
         <f t="shared" si="1"/>
@@ -11493,40 +12164,40 @@
         <v>10121</v>
       </c>
       <c r="B120" s="1">
-        <v>307033</v>
+        <v>307030</v>
       </c>
       <c r="C120" s="1">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D120" s="1">
-        <v>307034</v>
+        <v>307031</v>
       </c>
       <c r="E120" s="1">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="F120" s="1">
-        <v>307035</v>
+        <v>307032</v>
       </c>
       <c r="G120" s="1">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H120" s="5">
         <v>307042</v>
       </c>
       <c r="I120" s="1">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J120" s="5">
         <v>307043</v>
       </c>
       <c r="K120" s="1">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L120" s="5">
         <v>307044</v>
       </c>
       <c r="M120" s="1">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="V120" s="1">
         <f t="shared" si="1"/>
@@ -11541,37 +12212,37 @@
         <v>308006</v>
       </c>
       <c r="C121" s="1">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D121" s="1">
         <v>308007</v>
       </c>
       <c r="E121" s="1">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="F121" s="1">
         <v>308008</v>
       </c>
       <c r="G121" s="1">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H121" s="1">
         <v>308012</v>
       </c>
       <c r="I121" s="1">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J121" s="1">
         <v>308013</v>
       </c>
       <c r="K121" s="1">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L121" s="1">
         <v>308014</v>
       </c>
       <c r="M121" s="1">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="V121" s="1">
         <f t="shared" si="1"/>
@@ -11586,37 +12257,37 @@
         <v>309005</v>
       </c>
       <c r="C122" s="1">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D122" s="1">
         <v>309006</v>
       </c>
       <c r="E122" s="1">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="F122" s="1">
         <v>309007</v>
       </c>
       <c r="G122" s="1">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H122" s="1">
         <v>309014</v>
       </c>
       <c r="I122" s="1">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J122" s="1">
         <v>309015</v>
       </c>
       <c r="K122" s="1">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L122" s="1">
         <v>309016</v>
       </c>
       <c r="M122" s="1">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="V122" s="1">
         <f t="shared" si="1"/>
@@ -11631,37 +12302,37 @@
         <v>310005</v>
       </c>
       <c r="C123" s="1">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D123" s="2">
         <v>310006</v>
       </c>
       <c r="E123" s="1">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="F123" s="2">
         <v>310007</v>
       </c>
       <c r="G123" s="1">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H123" s="1">
         <v>310014</v>
       </c>
       <c r="I123" s="1">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J123" s="1">
         <v>310015</v>
       </c>
       <c r="K123" s="1">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L123" s="1">
         <v>310016</v>
       </c>
       <c r="M123" s="1">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="V123" s="1">
         <f t="shared" si="1"/>
@@ -11672,9 +12343,15 @@
       <c r="A124" s="1">
         <v>10125</v>
       </c>
+      <c r="B124" s="1">
+        <v>201015</v>
+      </c>
+      <c r="C124" s="1">
+        <v>32</v>
+      </c>
       <c r="V124" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:22">
@@ -11682,44 +12359,50 @@
         <v>10126</v>
       </c>
       <c r="B125" s="1">
+        <v>299024</v>
+      </c>
+      <c r="C125" s="1">
+        <v>750</v>
+      </c>
+      <c r="D125" s="1">
         <v>304011</v>
       </c>
-      <c r="C125" s="1">
-        <v>75</v>
-      </c>
-      <c r="D125" s="1">
+      <c r="E125" s="1">
+        <v>64</v>
+      </c>
+      <c r="F125" s="1">
         <v>304012</v>
       </c>
-      <c r="E125" s="1">
-        <v>75</v>
-      </c>
-      <c r="F125" s="1">
+      <c r="G125" s="1">
+        <v>64</v>
+      </c>
+      <c r="H125" s="1">
         <v>304013</v>
       </c>
-      <c r="G125" s="1">
-        <v>75</v>
-      </c>
-      <c r="H125" s="1">
+      <c r="I125" s="1">
+        <v>64</v>
+      </c>
+      <c r="J125" s="1">
         <v>304020</v>
       </c>
-      <c r="I125" s="1">
-        <v>400</v>
-      </c>
-      <c r="J125" s="1">
+      <c r="K125" s="1">
+        <v>750</v>
+      </c>
+      <c r="L125" s="1">
         <v>304021</v>
       </c>
-      <c r="K125" s="1">
-        <v>400</v>
-      </c>
-      <c r="L125" s="1">
+      <c r="M125" s="1">
+        <v>750</v>
+      </c>
+      <c r="N125" s="1">
         <v>304022</v>
       </c>
-      <c r="M125" s="1">
-        <v>400</v>
+      <c r="O125" s="1">
+        <v>750</v>
       </c>
       <c r="V125" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126" spans="1:22">
@@ -11744,9 +12427,15 @@
       <c r="G126" s="1">
         <v>75</v>
       </c>
+      <c r="H126" s="1">
+        <v>299026</v>
+      </c>
+      <c r="I126" s="1">
+        <v>1000</v>
+      </c>
       <c r="V126" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:22">
@@ -11771,9 +12460,15 @@
       <c r="G127" s="1">
         <v>75</v>
       </c>
+      <c r="H127" s="1">
+        <v>299026</v>
+      </c>
+      <c r="I127" s="1">
+        <v>1000</v>
+      </c>
       <c r="V127" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128" spans="1:22">
@@ -11784,37 +12479,37 @@
         <v>304014</v>
       </c>
       <c r="C128" s="1">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D128" s="1">
         <v>304015</v>
       </c>
       <c r="E128" s="1">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="F128" s="1">
         <v>304016</v>
       </c>
       <c r="G128" s="1">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H128" s="1">
         <v>304023</v>
       </c>
       <c r="I128" s="1">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="J128" s="1">
         <v>304024</v>
       </c>
       <c r="K128" s="1">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="L128" s="1">
         <v>304025</v>
       </c>
       <c r="M128" s="1">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="V128" s="1">
         <f t="shared" si="1"/>
@@ -11829,37 +12524,37 @@
         <v>309008</v>
       </c>
       <c r="C129" s="1">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D129" s="1">
         <v>309009</v>
       </c>
       <c r="E129" s="1">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="F129" s="1">
         <v>309010</v>
       </c>
       <c r="G129" s="1">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H129" s="1">
         <v>309017</v>
       </c>
       <c r="I129" s="1">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="J129" s="1">
         <v>309018</v>
       </c>
       <c r="K129" s="1">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="L129" s="1">
         <v>309019</v>
       </c>
       <c r="M129" s="1">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="V129" s="1">
         <f t="shared" si="1"/>
@@ -11874,37 +12569,37 @@
         <v>310008</v>
       </c>
       <c r="C130" s="1">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D130" s="1">
         <v>310009</v>
       </c>
       <c r="E130" s="1">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="F130" s="1">
         <v>310010</v>
       </c>
       <c r="G130" s="1">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H130" s="1">
         <v>310017</v>
       </c>
       <c r="I130" s="1">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="J130" s="1">
         <v>310018</v>
       </c>
       <c r="K130" s="1">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="L130" s="1">
         <v>310019</v>
       </c>
       <c r="M130" s="1">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="V130" s="1">
         <f t="shared" si="1"/>
@@ -11919,37 +12614,37 @@
         <v>305035</v>
       </c>
       <c r="C131" s="1">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D131" s="1">
         <v>305036</v>
       </c>
       <c r="E131" s="1">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="F131" s="1">
         <v>305037</v>
       </c>
       <c r="G131" s="1">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H131" s="1">
         <v>305044</v>
       </c>
       <c r="I131" s="1">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="J131" s="1">
         <v>305045</v>
       </c>
       <c r="K131" s="1">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="L131" s="1">
         <v>305046</v>
       </c>
       <c r="M131" s="1">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="V131" s="1">
         <f t="shared" si="1"/>
@@ -11964,37 +12659,37 @@
         <v>306037</v>
       </c>
       <c r="C132" s="1">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D132" s="1">
         <v>306038</v>
       </c>
       <c r="E132" s="1">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="F132" s="1">
         <v>306039</v>
       </c>
       <c r="G132" s="1">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H132" s="1">
         <v>306046</v>
       </c>
       <c r="I132" s="1">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="J132" s="1">
         <v>306047</v>
       </c>
       <c r="K132" s="1">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="L132" s="1">
         <v>306048</v>
       </c>
       <c r="M132" s="1">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="V132" s="1">
         <f t="shared" si="1"/>
@@ -12009,37 +12704,37 @@
         <v>307036</v>
       </c>
       <c r="C133" s="1">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D133" s="1">
         <v>307037</v>
       </c>
       <c r="E133" s="1">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="F133" s="1">
         <v>307038</v>
       </c>
       <c r="G133" s="1">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H133" s="5">
         <v>307045</v>
       </c>
       <c r="I133" s="1">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="J133" s="5">
         <v>307046</v>
       </c>
       <c r="K133" s="1">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="L133" s="5">
         <v>307047</v>
       </c>
       <c r="M133" s="1">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="V133" s="1">
         <f t="shared" si="1"/>
@@ -12054,19 +12749,19 @@
         <v>308006</v>
       </c>
       <c r="C134" s="1">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D134" s="1">
         <v>308007</v>
       </c>
       <c r="E134" s="1">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="F134" s="1">
         <v>308008</v>
       </c>
       <c r="G134" s="1">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="V134" s="1">
         <f t="shared" si="1"/>
@@ -12077,9 +12772,27 @@
       <c r="A135" s="1">
         <v>10136</v>
       </c>
+      <c r="B135" s="1">
+        <v>299025</v>
+      </c>
+      <c r="C135" s="1">
+        <v>75</v>
+      </c>
+      <c r="D135" s="1">
+        <v>201005</v>
+      </c>
+      <c r="E135" s="1">
+        <v>32</v>
+      </c>
+      <c r="F135" s="1">
+        <v>201015</v>
+      </c>
+      <c r="G135" s="1">
+        <v>32</v>
+      </c>
       <c r="V135" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:22">
@@ -12125,7 +12838,7 @@
         <v>205004</v>
       </c>
       <c r="C137" s="1">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="D137" s="2">
         <v>308001</v>
@@ -12376,7 +13089,7 @@
         <v>205001</v>
       </c>
       <c r="C143" s="1">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="D143" s="2">
         <v>308001</v>
@@ -12403,7 +13116,7 @@
         <v>205007</v>
       </c>
       <c r="C144" s="1">
-        <v>640</v>
+        <v>1000</v>
       </c>
       <c r="D144" s="2">
         <v>308001</v>
@@ -12848,19 +13561,19 @@
         <v>301033</v>
       </c>
       <c r="I154" s="1">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="J154" s="1">
         <v>301034</v>
       </c>
       <c r="K154" s="1">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L154" s="1">
         <v>301035</v>
       </c>
       <c r="M154" s="1">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="V154" s="1">
         <f t="shared" si="1"/>
@@ -12893,19 +13606,19 @@
         <v>301033</v>
       </c>
       <c r="I155" s="1">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="J155" s="1">
         <v>301034</v>
       </c>
       <c r="K155" s="1">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L155" s="1">
         <v>301035</v>
       </c>
       <c r="M155" s="1">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="V155" s="1">
         <f t="shared" si="1"/>
@@ -13772,27 +14485,45 @@
       <c r="A174" s="1">
         <v>20039</v>
       </c>
-      <c r="B174" s="1">
-        <v>307036</v>
+      <c r="B174" s="2">
+        <v>301037</v>
       </c>
       <c r="C174" s="1">
         <v>300</v>
       </c>
-      <c r="D174" s="1">
-        <v>307037</v>
+      <c r="D174" s="2">
+        <v>301038</v>
       </c>
       <c r="E174" s="1">
         <v>300</v>
       </c>
-      <c r="F174" s="1">
-        <v>307038</v>
+      <c r="F174" s="2">
+        <v>301039</v>
       </c>
       <c r="G174" s="1">
         <v>300</v>
       </c>
+      <c r="H174" s="1">
+        <v>307036</v>
+      </c>
+      <c r="I174" s="1">
+        <v>500</v>
+      </c>
+      <c r="J174" s="1">
+        <v>307037</v>
+      </c>
+      <c r="K174" s="1">
+        <v>500</v>
+      </c>
+      <c r="L174" s="1">
+        <v>307038</v>
+      </c>
+      <c r="M174" s="1">
+        <v>500</v>
+      </c>
       <c r="V174" s="1">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="175" spans="1:22">
@@ -13803,47 +14534,53 @@
         <v>220034</v>
       </c>
       <c r="C175" s="1">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D175" s="1">
+        <v>205010</v>
+      </c>
+      <c r="E175" s="1">
+        <v>300</v>
+      </c>
+      <c r="F175" s="1">
         <v>302017</v>
-      </c>
-      <c r="E175" s="1">
-        <v>500</v>
-      </c>
-      <c r="F175" s="1">
-        <v>302018</v>
       </c>
       <c r="G175" s="1">
         <v>500</v>
       </c>
       <c r="H175" s="1">
-        <v>302019</v>
+        <v>302018</v>
       </c>
       <c r="I175" s="1">
         <v>500</v>
       </c>
       <c r="J175" s="1">
-        <v>303017</v>
+        <v>302019</v>
       </c>
       <c r="K175" s="1">
         <v>500</v>
       </c>
       <c r="L175" s="1">
-        <v>303018</v>
+        <v>303017</v>
       </c>
       <c r="M175" s="1">
         <v>500</v>
       </c>
       <c r="N175" s="1">
-        <v>303019</v>
+        <v>303018</v>
       </c>
       <c r="O175" s="1">
         <v>500</v>
       </c>
+      <c r="P175" s="1">
+        <v>303019</v>
+      </c>
+      <c r="Q175" s="1">
+        <v>500</v>
+      </c>
       <c r="V175" s="1">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="176" spans="1:22">
@@ -13854,19 +14591,19 @@
         <v>301037</v>
       </c>
       <c r="C176" s="1">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="D176" s="2">
         <v>301038</v>
       </c>
       <c r="E176" s="1">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F176" s="2">
         <v>301039</v>
       </c>
       <c r="G176" s="1">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H176" s="1">
         <v>307039</v>
@@ -13917,37 +14654,37 @@
         <v>302020</v>
       </c>
       <c r="I177" s="1">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="J177" s="1">
         <v>302021</v>
       </c>
       <c r="K177" s="1">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L177" s="1">
         <v>302022</v>
       </c>
       <c r="M177" s="1">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="N177" s="1">
         <v>303020</v>
       </c>
       <c r="O177" s="1">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="P177" s="1">
         <v>303021</v>
       </c>
       <c r="Q177" s="1">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="R177" s="1">
         <v>303022</v>
       </c>
       <c r="S177" s="1">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="V177" s="1">
         <f t="shared" si="2"/>
@@ -13959,26 +14696,32 @@
         <v>20043</v>
       </c>
       <c r="B178" s="1">
+        <v>205007</v>
+      </c>
+      <c r="C178" s="1">
+        <v>300</v>
+      </c>
+      <c r="D178" s="1">
         <v>301043</v>
-      </c>
-      <c r="C178" s="1">
-        <v>750</v>
-      </c>
-      <c r="D178" s="1">
-        <v>301044</v>
       </c>
       <c r="E178" s="1">
         <v>750</v>
       </c>
       <c r="F178" s="1">
-        <v>301045</v>
+        <v>301044</v>
       </c>
       <c r="G178" s="1">
         <v>750</v>
       </c>
+      <c r="H178" s="1">
+        <v>301045</v>
+      </c>
+      <c r="I178" s="1">
+        <v>750</v>
+      </c>
       <c r="V178" s="1">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="179" spans="1:22">
@@ -13986,38 +14729,32 @@
         <v>20044</v>
       </c>
       <c r="B179" s="1">
-        <v>205007</v>
+        <v>299027</v>
       </c>
       <c r="C179" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="D179" s="1">
-        <v>205010</v>
+        <v>301043</v>
       </c>
       <c r="E179" s="1">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="F179" s="1">
-        <v>301043</v>
+        <v>301044</v>
       </c>
       <c r="G179" s="1">
         <v>750</v>
       </c>
       <c r="H179" s="1">
-        <v>301044</v>
+        <v>301045</v>
       </c>
       <c r="I179" s="1">
         <v>750</v>
       </c>
-      <c r="J179" s="1">
-        <v>301045</v>
-      </c>
-      <c r="K179" s="1">
-        <v>750</v>
-      </c>
       <c r="V179" s="1">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="180" spans="1:22">
@@ -14028,7 +14765,7 @@
         <v>205004</v>
       </c>
       <c r="C180" s="1">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="V180" s="1">
         <f t="shared" si="2"/>
@@ -14043,7 +14780,7 @@
         <v>205001</v>
       </c>
       <c r="C181" s="1">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="V181" s="1">
         <f t="shared" si="2"/>
@@ -14052,154 +14789,184 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="L106:U108 N118:U123 N128:U133 B110:U110 B118:B119 F118:F119 D118:D119 B124:U127 H134:U134 F106:G108 F104:H105 B103:H103 J103:U105 F109:U109 B113:U117 B111:B112 D111:D112 F111:F112 H111:U112 B1:U102 B104:E109 B135:U1048576">
-    <cfRule type="expression" dxfId="30" priority="41">
+  <conditionalFormatting sqref="N118:U123 N128:U133 B110:U110 B118:B119 F118:F119 D118:D119 H134:U134 F109:U109 B111:B112 D111:D112 F111:F112 H111:U112 B104:E109 B103:J103 L103:L108 J103:J105 D104:I108 B135:U1048576 B1:U102 N103:U108 B113:U117 B124:U127">
+    <cfRule type="expression" dxfId="88" priority="70">
       <formula>AND(B1&gt;200000,B1&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K106:K108">
-    <cfRule type="expression" dxfId="29" priority="39">
-      <formula>AND(K106&gt;200000,K106&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H121:H123 J121:J123 H119 J119 I119:I123 L121:L123 H118:J118 L118:L119">
-    <cfRule type="expression" dxfId="28" priority="33">
+  <conditionalFormatting sqref="H121:H123 J121:J123 L121:L123 H118:H119 L118:L119 J118:J119">
+    <cfRule type="expression" dxfId="87" priority="62">
       <formula>AND(H118&gt;200000,H118&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B120 F120 D120 C118:C123">
+    <cfRule type="expression" dxfId="86" priority="59">
+      <formula>AND(B118&gt;200000,B118&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B121 D121 F121">
+    <cfRule type="expression" dxfId="85" priority="58">
+      <formula>AND(B121&gt;200000,B121&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B122 D122 F122">
+    <cfRule type="expression" dxfId="84" priority="57">
+      <formula>AND(B122&gt;200000,B122&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H128:H132 J128:J132 L128:L132">
+    <cfRule type="expression" dxfId="81" priority="52">
+      <formula>AND(H128&gt;200000,H128&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B128 D128 F128">
+    <cfRule type="expression" dxfId="79" priority="45">
+      <formula>AND(B128&gt;200000,B128&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B129 D129 F129">
+    <cfRule type="expression" dxfId="78" priority="44">
+      <formula>AND(B129&gt;200000,B129&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B130 D130 F130">
+    <cfRule type="expression" dxfId="77" priority="43">
+      <formula>AND(B130&gt;200000,B130&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B131 D131 F131">
+    <cfRule type="expression" dxfId="76" priority="42">
+      <formula>AND(B131&gt;200000,B131&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B132:B133 D132:D133 F132:F133">
+    <cfRule type="expression" dxfId="75" priority="41">
+      <formula>AND(B132&gt;200000,B132&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C134">
+    <cfRule type="expression" dxfId="74" priority="40">
+      <formula>AND(C134&gt;200000,C134&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B134 D134 F134">
+    <cfRule type="expression" dxfId="73" priority="39">
+      <formula>AND(B134&gt;200000,B134&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I103:I108">
+    <cfRule type="expression" dxfId="67" priority="33">
+      <formula>AND(I103&gt;200000,I103&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C111:C112">
+    <cfRule type="expression" dxfId="66" priority="32">
+      <formula>AND(C111&gt;200000,C111&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111:E112">
+    <cfRule type="expression" dxfId="59" priority="21">
+      <formula>AND(E111&gt;200000,E111&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G111:G112">
+    <cfRule type="expression" dxfId="58" priority="20">
+      <formula>AND(G111&gt;200000,G111&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K103:K108">
+    <cfRule type="expression" dxfId="42" priority="19">
+      <formula>AND(K103&gt;200000,K103&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M103:M108">
+    <cfRule type="expression" dxfId="38" priority="18">
+      <formula>AND(M103&gt;200000,M103&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M103:M108">
+    <cfRule type="expression" dxfId="36" priority="17">
+      <formula>AND(M103&gt;200000,M103&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118:E123">
+    <cfRule type="expression" dxfId="31" priority="16">
+      <formula>AND(E118&gt;200000,E118&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G118:G123">
+    <cfRule type="expression" dxfId="29" priority="15">
+      <formula>AND(G118&gt;200000,G118&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C128:C133">
+    <cfRule type="expression" dxfId="27" priority="14">
+      <formula>AND(C128&gt;200000,C128&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E134">
+    <cfRule type="expression" dxfId="25" priority="13">
+      <formula>AND(E134&gt;200000,E134&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E128:E133">
+    <cfRule type="expression" dxfId="23" priority="12">
+      <formula>AND(E128&gt;200000,E128&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G134">
+    <cfRule type="expression" dxfId="21" priority="11">
+      <formula>AND(G134&gt;200000,G134&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G128:G133">
+    <cfRule type="expression" dxfId="19" priority="10">
+      <formula>AND(G128&gt;200000,G128&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I128:I133">
+    <cfRule type="expression" dxfId="17" priority="9">
+      <formula>AND(I128&gt;200000,I128&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K128:K133">
+    <cfRule type="expression" dxfId="15" priority="8">
+      <formula>AND(K128&gt;200000,K128&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M128:M133">
+    <cfRule type="expression" dxfId="13" priority="7">
+      <formula>AND(M128&gt;200000,M128&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I118:I123">
+    <cfRule type="expression" dxfId="11" priority="6">
+      <formula>AND(I118&gt;200000,I118&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I118:I123">
+    <cfRule type="expression" dxfId="9" priority="5">
+      <formula>AND(I118&gt;200000,I118&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K118:K123">
-    <cfRule type="expression" dxfId="27" priority="32">
+    <cfRule type="expression" dxfId="7" priority="4">
+      <formula>AND(K118&gt;200000,K118&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K118:K123">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>AND(K118&gt;200000,K118&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M118:M123">
-    <cfRule type="expression" dxfId="26" priority="31">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>AND(M118&gt;200000,M118&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B120 F120 D120 C118:C123">
-    <cfRule type="expression" dxfId="25" priority="30">
-      <formula>AND(B118&gt;200000,B118&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B121 D121 F121">
-    <cfRule type="expression" dxfId="24" priority="29">
-      <formula>AND(B121&gt;200000,B121&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B122 D122 F122">
-    <cfRule type="expression" dxfId="23" priority="28">
-      <formula>AND(B122&gt;200000,B122&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118:E123">
-    <cfRule type="expression" dxfId="22" priority="25">
-      <formula>AND(E118&gt;200000,E118&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G118:G123">
-    <cfRule type="expression" dxfId="21" priority="24">
-      <formula>AND(G118&gt;200000,G118&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H128:H132 J128:J132 L128:L132">
-    <cfRule type="expression" dxfId="20" priority="23">
-      <formula>AND(H128&gt;200000,H128&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I128:I133">
-    <cfRule type="expression" dxfId="19" priority="22">
-      <formula>AND(I128&gt;200000,I128&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K128:K133">
-    <cfRule type="expression" dxfId="18" priority="21">
-      <formula>AND(K128&gt;200000,K128&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M128:M133">
-    <cfRule type="expression" dxfId="17" priority="20">
-      <formula>AND(M128&gt;200000,M128&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B128 D128 F128">
-    <cfRule type="expression" dxfId="16" priority="16">
-      <formula>AND(B128&gt;200000,B128&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B129 D129 F129">
-    <cfRule type="expression" dxfId="15" priority="15">
-      <formula>AND(B129&gt;200000,B129&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B130 D130 F130">
-    <cfRule type="expression" dxfId="14" priority="14">
-      <formula>AND(B130&gt;200000,B130&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B131 D131 F131">
-    <cfRule type="expression" dxfId="13" priority="13">
-      <formula>AND(B131&gt;200000,B131&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B132:B133 D132:D133 F132:F133">
-    <cfRule type="expression" dxfId="12" priority="12">
-      <formula>AND(B132&gt;200000,B132&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C134">
-    <cfRule type="expression" dxfId="11" priority="11">
-      <formula>AND(C134&gt;200000,C134&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B134 D134 F134">
-    <cfRule type="expression" dxfId="10" priority="10">
-      <formula>AND(B134&gt;200000,B134&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E134">
-    <cfRule type="expression" dxfId="9" priority="9">
-      <formula>AND(E134&gt;200000,E134&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G134">
-    <cfRule type="expression" dxfId="8" priority="8">
-      <formula>AND(G134&gt;200000,G134&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C128:C133">
-    <cfRule type="expression" dxfId="7" priority="7">
-      <formula>AND(C128&gt;200000,C128&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E128:E133">
-    <cfRule type="expression" dxfId="6" priority="6">
-      <formula>AND(E128&gt;200000,E128&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G128:G133">
-    <cfRule type="expression" dxfId="5" priority="5">
-      <formula>AND(G128&gt;200000,G128&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I103:I108">
-    <cfRule type="expression" dxfId="4" priority="4">
-      <formula>AND(I103&gt;200000,I103&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C111:C112">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>AND(C111&gt;200000,C111&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E111:E112">
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>AND(E111&gt;200000,E111&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G111:G112">
+  <conditionalFormatting sqref="M118:M123">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>AND(G111&gt;200000,G111&lt;300000)</formula>
+      <formula>AND(M118&gt;200000,M118&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
@@ -14212,8 +14979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L181"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="B183" sqref="B183"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="J127" sqref="J127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -18922,27 +19689,27 @@
       </c>
       <c r="C95" t="str">
         <f>IF(Sheet1!B95="","",IF(Sheet1!B95 &lt; 300000, VLOOKUP(Sheet1!B95,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!B95,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>龙牙</v>
+        <v>千年蛛丝</v>
       </c>
       <c r="D95" t="str">
         <f>IF(Sheet1!D95="","",IF(Sheet1!D95 &lt; 300000, VLOOKUP(Sheet1!D95,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!D95,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>怒斩</v>
+        <v>金创药(黄)</v>
       </c>
       <c r="E95" t="str">
         <f>IF(Sheet1!F95="","",IF(Sheet1!F95 &lt; 300000, VLOOKUP(Sheet1!F95,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!F95,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>逍遥扇</v>
+        <v>魔法药(黄)</v>
       </c>
       <c r="F95" t="str">
         <f>IF(Sheet1!H95="","",IF(Sheet1!H95 &lt; 300000, VLOOKUP(Sheet1!H95,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!H95,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>龙牙</v>
       </c>
       <c r="G95" t="str">
         <f>IF(Sheet1!J95="","",IF(Sheet1!J95 &lt; 300000, VLOOKUP(Sheet1!J95,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!J95,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>怒斩</v>
       </c>
       <c r="H95" t="str">
         <f>IF(Sheet1!L95="","",IF(Sheet1!L95 &lt; 300000, VLOOKUP(Sheet1!L95,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!L95,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>逍遥扇</v>
       </c>
       <c r="I95" t="str">
         <f>IF(Sheet1!N95="","",IF(Sheet1!N95 &lt; 300000, VLOOKUP(Sheet1!N95,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!N95,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -18972,27 +19739,27 @@
       </c>
       <c r="C96" t="str">
         <f>IF(Sheet1!B96="","",IF(Sheet1!B96 &lt; 300000, VLOOKUP(Sheet1!B96,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!B96,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>初级勋章4</v>
+        <v>金创药(黄)</v>
       </c>
       <c r="D96" t="str">
         <f>IF(Sheet1!D96="","",IF(Sheet1!D96 &lt; 300000, VLOOKUP(Sheet1!D96,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!D96,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>初级勋章5</v>
+        <v>魔法药(黄)</v>
       </c>
       <c r="E96" t="str">
         <f>IF(Sheet1!F96="","",IF(Sheet1!F96 &lt; 300000, VLOOKUP(Sheet1!F96,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!F96,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>初级宝石4</v>
+        <v>初级勋章4</v>
       </c>
       <c r="F96" t="str">
         <f>IF(Sheet1!H96="","",IF(Sheet1!H96 &lt; 300000, VLOOKUP(Sheet1!H96,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!H96,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>初级宝石5</v>
+        <v>初级勋章5</v>
       </c>
       <c r="G96" t="str">
         <f>IF(Sheet1!J96="","",IF(Sheet1!J96 &lt; 300000, VLOOKUP(Sheet1!J96,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!J96,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>初级宝石4</v>
       </c>
       <c r="H96" t="str">
         <f>IF(Sheet1!L96="","",IF(Sheet1!L96 &lt; 300000, VLOOKUP(Sheet1!L96,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!L96,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>初级宝石5</v>
       </c>
       <c r="I96" t="str">
         <f>IF(Sheet1!N96="","",IF(Sheet1!N96 &lt; 300000, VLOOKUP(Sheet1!N96,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!N96,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -19322,27 +20089,27 @@
       </c>
       <c r="C103" t="str">
         <f>IF(Sheet1!B103="","",IF(Sheet1!B103 &lt; 300000, VLOOKUP(Sheet1!B103,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!B103,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>龙牙</v>
+        <v>手杖</v>
       </c>
       <c r="D103" t="str">
         <f>IF(Sheet1!D103="","",IF(Sheet1!D103 &lt; 300000, VLOOKUP(Sheet1!D103,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!D103,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>圣龙盔</v>
+        <v>冰咆哮</v>
       </c>
       <c r="E103" t="str">
         <f>IF(Sheet1!F103="","",IF(Sheet1!F103 &lt; 300000, VLOOKUP(Sheet1!F103,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!F103,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>狂雷战盔</v>
+        <v>圣龙盔</v>
       </c>
       <c r="F103" t="str">
         <f>IF(Sheet1!H103="","",IF(Sheet1!H103 &lt; 300000, VLOOKUP(Sheet1!H103,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!H103,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>雷霆项链</v>
+        <v>狂雷战盔</v>
       </c>
       <c r="G103" t="str">
         <f>IF(Sheet1!J103="","",IF(Sheet1!J103 &lt; 300000, VLOOKUP(Sheet1!J103,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!J103,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>狂雷项链</v>
+        <v>雷霆项链</v>
       </c>
       <c r="H103" t="str">
         <f>IF(Sheet1!L103="","",IF(Sheet1!L103 &lt; 300000, VLOOKUP(Sheet1!L103,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!L103,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>狂雷项链</v>
       </c>
       <c r="I103" t="str">
         <f>IF(Sheet1!N103="","",IF(Sheet1!N103 &lt; 300000, VLOOKUP(Sheet1!N103,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!N103,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -19372,27 +20139,27 @@
       </c>
       <c r="C104" t="str">
         <f>IF(Sheet1!B104="","",IF(Sheet1!B104 &lt; 300000, VLOOKUP(Sheet1!B104,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!B104,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>怒斩</v>
+        <v>金创药(黄)</v>
       </c>
       <c r="D104" t="str">
         <f>IF(Sheet1!D104="","",IF(Sheet1!D104 &lt; 300000, VLOOKUP(Sheet1!D104,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!D104,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>天龙盔</v>
+        <v>群体治疗术</v>
       </c>
       <c r="E104" t="str">
         <f>IF(Sheet1!F104="","",IF(Sheet1!F104 &lt; 300000, VLOOKUP(Sheet1!F104,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!F104,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>逆火魔盔</v>
+        <v>天龙盔</v>
       </c>
       <c r="F104" t="str">
         <f>IF(Sheet1!H104="","",IF(Sheet1!H104 &lt; 300000, VLOOKUP(Sheet1!H104,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!H104,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>烈焰项链</v>
+        <v>逆火魔盔</v>
       </c>
       <c r="G104" t="str">
         <f>IF(Sheet1!J104="","",IF(Sheet1!J104 &lt; 300000, VLOOKUP(Sheet1!J104,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!J104,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>逆火项链</v>
+        <v>烈焰项链</v>
       </c>
       <c r="H104" t="str">
         <f>IF(Sheet1!L104="","",IF(Sheet1!L104 &lt; 300000, VLOOKUP(Sheet1!L104,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!L104,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>逆火项链</v>
       </c>
       <c r="I104" t="str">
         <f>IF(Sheet1!N104="","",IF(Sheet1!N104 &lt; 300000, VLOOKUP(Sheet1!N104,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!N104,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -19422,27 +20189,27 @@
       </c>
       <c r="C105" t="str">
         <f>IF(Sheet1!B105="","",IF(Sheet1!B105 &lt; 300000, VLOOKUP(Sheet1!B105,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!B105,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>逍遥扇</v>
+        <v>金创药(黄)</v>
       </c>
       <c r="D105" t="str">
         <f>IF(Sheet1!D105="","",IF(Sheet1!D105 &lt; 300000, VLOOKUP(Sheet1!D105,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!D105,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>魔龙盔</v>
+        <v>烈火剑法</v>
       </c>
       <c r="E105" t="str">
         <f>IF(Sheet1!F105="","",IF(Sheet1!F105 &lt; 300000, VLOOKUP(Sheet1!F105,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!F105,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>通云道盔</v>
+        <v>魔龙盔</v>
       </c>
       <c r="F105" t="str">
         <f>IF(Sheet1!H105="","",IF(Sheet1!H105 &lt; 300000, VLOOKUP(Sheet1!H105,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!H105,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>光芒项链</v>
+        <v>通云道盔</v>
       </c>
       <c r="G105" t="str">
         <f>IF(Sheet1!J105="","",IF(Sheet1!J105 &lt; 300000, VLOOKUP(Sheet1!J105,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!J105,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>通云项链</v>
+        <v>光芒项链</v>
       </c>
       <c r="H105" t="str">
         <f>IF(Sheet1!L105="","",IF(Sheet1!L105 &lt; 300000, VLOOKUP(Sheet1!L105,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!L105,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>通云项链</v>
       </c>
       <c r="I105" t="str">
         <f>IF(Sheet1!N105="","",IF(Sheet1!N105 &lt; 300000, VLOOKUP(Sheet1!N105,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!N105,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -19472,27 +20239,27 @@
       </c>
       <c r="C106" t="str">
         <f>IF(Sheet1!B106="","",IF(Sheet1!B106 &lt; 300000, VLOOKUP(Sheet1!B106,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!B106,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>开天</v>
+        <v>手杖</v>
       </c>
       <c r="D106" t="str">
         <f>IF(Sheet1!D106="","",IF(Sheet1!D106 &lt; 300000, VLOOKUP(Sheet1!D106,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!D106,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>雷霆护腕</v>
+        <v>金创药(黄)</v>
       </c>
       <c r="E106" t="str">
         <f>IF(Sheet1!F106="","",IF(Sheet1!F106 &lt; 300000, VLOOKUP(Sheet1!F106,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!F106,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>狂雷护腕</v>
+        <v>雷霆护腕</v>
       </c>
       <c r="F106" t="str">
         <f>IF(Sheet1!H106="","",IF(Sheet1!H106 &lt; 300000, VLOOKUP(Sheet1!H106,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!H106,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>雷霆战靴</v>
+        <v>狂雷护腕</v>
       </c>
       <c r="G106" t="str">
         <f>IF(Sheet1!J106="","",IF(Sheet1!J106 &lt; 300000, VLOOKUP(Sheet1!J106,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!J106,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>狂雷战靴</v>
+        <v>雷霆战靴</v>
       </c>
       <c r="H106" t="str">
         <f>IF(Sheet1!L106="","",IF(Sheet1!L106 &lt; 300000, VLOOKUP(Sheet1!L106,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!L106,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>狂雷战靴</v>
       </c>
       <c r="I106" t="str">
         <f>IF(Sheet1!N106="","",IF(Sheet1!N106 &lt; 300000, VLOOKUP(Sheet1!N106,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!N106,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -19522,27 +20289,27 @@
       </c>
       <c r="C107" t="str">
         <f>IF(Sheet1!B107="","",IF(Sheet1!B107 &lt; 300000, VLOOKUP(Sheet1!B107,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!B107,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>镇天</v>
+        <v>魔法药(黄)</v>
       </c>
       <c r="D107" t="str">
         <f>IF(Sheet1!D107="","",IF(Sheet1!D107 &lt; 300000, VLOOKUP(Sheet1!D107,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!D107,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>烈焰护腕</v>
+        <v>金创药(黄)</v>
       </c>
       <c r="E107" t="str">
         <f>IF(Sheet1!F107="","",IF(Sheet1!F107 &lt; 300000, VLOOKUP(Sheet1!F107,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!F107,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>逆火护腕</v>
+        <v>烈焰护腕</v>
       </c>
       <c r="F107" t="str">
         <f>IF(Sheet1!H107="","",IF(Sheet1!H107 &lt; 300000, VLOOKUP(Sheet1!H107,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!H107,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>烈焰魔靴</v>
+        <v>逆火护腕</v>
       </c>
       <c r="G107" t="str">
         <f>IF(Sheet1!J107="","",IF(Sheet1!J107 &lt; 300000, VLOOKUP(Sheet1!J107,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!J107,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>逆火魔靴</v>
+        <v>烈焰魔靴</v>
       </c>
       <c r="H107" t="str">
         <f>IF(Sheet1!L107="","",IF(Sheet1!L107 &lt; 300000, VLOOKUP(Sheet1!L107,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!L107,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>逆火魔靴</v>
       </c>
       <c r="I107" t="str">
         <f>IF(Sheet1!N107="","",IF(Sheet1!N107 &lt; 300000, VLOOKUP(Sheet1!N107,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!N107,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -19572,27 +20339,27 @@
       </c>
       <c r="C108" t="str">
         <f>IF(Sheet1!B108="","",IF(Sheet1!B108 &lt; 300000, VLOOKUP(Sheet1!B108,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!B108,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>玄天</v>
+        <v>魔法药(黄)</v>
       </c>
       <c r="D108" t="str">
         <f>IF(Sheet1!D108="","",IF(Sheet1!D108 &lt; 300000, VLOOKUP(Sheet1!D108,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!D108,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>光芒护腕</v>
+        <v>金创药(黄)</v>
       </c>
       <c r="E108" t="str">
         <f>IF(Sheet1!F108="","",IF(Sheet1!F108 &lt; 300000, VLOOKUP(Sheet1!F108,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!F108,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>通云护腕</v>
+        <v>光芒护腕</v>
       </c>
       <c r="F108" t="str">
         <f>IF(Sheet1!H108="","",IF(Sheet1!H108 &lt; 300000, VLOOKUP(Sheet1!H108,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!H108,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>光芒道靴</v>
+        <v>通云护腕</v>
       </c>
       <c r="G108" t="str">
         <f>IF(Sheet1!J108="","",IF(Sheet1!J108 &lt; 300000, VLOOKUP(Sheet1!J108,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!J108,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>通云道靴</v>
+        <v>光芒道靴</v>
       </c>
       <c r="H108" t="str">
         <f>IF(Sheet1!L108="","",IF(Sheet1!L108 &lt; 300000, VLOOKUP(Sheet1!L108,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!L108,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>通云道靴</v>
       </c>
       <c r="I108" t="str">
         <f>IF(Sheet1!N108="","",IF(Sheet1!N108 &lt; 300000, VLOOKUP(Sheet1!N108,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!N108,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -19972,7 +20739,7 @@
       </c>
       <c r="C116" t="str">
         <f>IF(Sheet1!B116="","",IF(Sheet1!B116 &lt; 300000, VLOOKUP(Sheet1!B116,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!B116,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>狼毫</v>
       </c>
       <c r="D116" t="str">
         <f>IF(Sheet1!D116="","",IF(Sheet1!D116 &lt; 300000, VLOOKUP(Sheet1!D116,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!D116,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -20022,11 +20789,11 @@
       </c>
       <c r="C117" t="str">
         <f>IF(Sheet1!B117="","",IF(Sheet1!B117 &lt; 300000, VLOOKUP(Sheet1!B117,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!B117,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>金创药(玄)</v>
       </c>
       <c r="D117" t="str">
         <f>IF(Sheet1!D117="","",IF(Sheet1!D117 &lt; 300000, VLOOKUP(Sheet1!D117,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!D117,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>魔法药(玄)</v>
       </c>
       <c r="E117" t="str">
         <f>IF(Sheet1!F117="","",IF(Sheet1!F117 &lt; 300000, VLOOKUP(Sheet1!F117,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!F117,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -20072,15 +20839,15 @@
       </c>
       <c r="C118" t="str">
         <f>IF(Sheet1!B118="","",IF(Sheet1!B118 &lt; 300000, VLOOKUP(Sheet1!B118,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!B118,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>雷霆项链</v>
+        <v>战神项链</v>
       </c>
       <c r="D118" t="str">
         <f>IF(Sheet1!D118="","",IF(Sheet1!D118 &lt; 300000, VLOOKUP(Sheet1!D118,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!D118,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>烈焰项链</v>
+        <v>圣魔项链</v>
       </c>
       <c r="E118" t="str">
         <f>IF(Sheet1!F118="","",IF(Sheet1!F118 &lt; 300000, VLOOKUP(Sheet1!F118,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!F118,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>光芒项链</v>
+        <v>真魂项链</v>
       </c>
       <c r="F118" t="str">
         <f>IF(Sheet1!H118="","",IF(Sheet1!H118 &lt; 300000, VLOOKUP(Sheet1!H118,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!H118,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -20122,15 +20889,15 @@
       </c>
       <c r="C119" t="str">
         <f>IF(Sheet1!B119="","",IF(Sheet1!B119 &lt; 300000, VLOOKUP(Sheet1!B119,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!B119,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>雷霆护腕</v>
+        <v>战神手镯</v>
       </c>
       <c r="D119" t="str">
         <f>IF(Sheet1!D119="","",IF(Sheet1!D119 &lt; 300000, VLOOKUP(Sheet1!D119,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!D119,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>烈焰护腕</v>
+        <v>圣魔手镯</v>
       </c>
       <c r="E119" t="str">
         <f>IF(Sheet1!F119="","",IF(Sheet1!F119 &lt; 300000, VLOOKUP(Sheet1!F119,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!F119,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>光芒护腕</v>
+        <v>真魂手镯</v>
       </c>
       <c r="F119" t="str">
         <f>IF(Sheet1!H119="","",IF(Sheet1!H119 &lt; 300000, VLOOKUP(Sheet1!H119,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!H119,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -20172,15 +20939,15 @@
       </c>
       <c r="C120" t="str">
         <f>IF(Sheet1!B120="","",IF(Sheet1!B120 &lt; 300000, VLOOKUP(Sheet1!B120,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!B120,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>雷霆战戒</v>
+        <v>战神戒指</v>
       </c>
       <c r="D120" t="str">
         <f>IF(Sheet1!D120="","",IF(Sheet1!D120 &lt; 300000, VLOOKUP(Sheet1!D120,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!D120,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>烈焰魔戒</v>
+        <v>圣魔戒指</v>
       </c>
       <c r="E120" t="str">
         <f>IF(Sheet1!F120="","",IF(Sheet1!F120 &lt; 300000, VLOOKUP(Sheet1!F120,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!F120,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>光芒道戒</v>
+        <v>真魂戒指</v>
       </c>
       <c r="F120" t="str">
         <f>IF(Sheet1!H120="","",IF(Sheet1!H120 &lt; 300000, VLOOKUP(Sheet1!H120,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!H120,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -20372,7 +21139,7 @@
       </c>
       <c r="C124" t="str">
         <f>IF(Sheet1!B124="","",IF(Sheet1!B124 &lt; 300000, VLOOKUP(Sheet1!B124,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!B124,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>魔法药(玄)</v>
       </c>
       <c r="D124" t="str">
         <f>IF(Sheet1!D124="","",IF(Sheet1!D124 &lt; 300000, VLOOKUP(Sheet1!D124,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!D124,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -20422,31 +21189,31 @@
       </c>
       <c r="C125" t="str">
         <f>IF(Sheet1!B125="","",IF(Sheet1!B125 &lt; 300000, VLOOKUP(Sheet1!B125,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!B125,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>圣龙盔</v>
+        <v>冰之精</v>
       </c>
       <c r="D125" t="str">
         <f>IF(Sheet1!D125="","",IF(Sheet1!D125 &lt; 300000, VLOOKUP(Sheet1!D125,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!D125,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>天龙盔</v>
+        <v>圣龙盔</v>
       </c>
       <c r="E125" t="str">
         <f>IF(Sheet1!F125="","",IF(Sheet1!F125 &lt; 300000, VLOOKUP(Sheet1!F125,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!F125,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>魔龙盔</v>
+        <v>天龙盔</v>
       </c>
       <c r="F125" t="str">
         <f>IF(Sheet1!H125="","",IF(Sheet1!H125 &lt; 300000, VLOOKUP(Sheet1!H125,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!H125,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>王者战盔</v>
+        <v>魔龙盔</v>
       </c>
       <c r="G125" t="str">
         <f>IF(Sheet1!J125="","",IF(Sheet1!J125 &lt; 300000, VLOOKUP(Sheet1!J125,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!J125,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>王者魔盔</v>
+        <v>王者战盔</v>
       </c>
       <c r="H125" t="str">
         <f>IF(Sheet1!L125="","",IF(Sheet1!L125 &lt; 300000, VLOOKUP(Sheet1!L125,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!L125,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>王者道盔</v>
+        <v>王者魔盔</v>
       </c>
       <c r="I125" t="str">
         <f>IF(Sheet1!N125="","",IF(Sheet1!N125 &lt; 300000, VLOOKUP(Sheet1!N125,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!N125,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>王者道盔</v>
       </c>
       <c r="J125" t="str">
         <f>IF(Sheet1!P125="","",IF(Sheet1!P125 &lt; 300000, VLOOKUP(Sheet1!P125,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!P125,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -20484,7 +21251,7 @@
       </c>
       <c r="F126" t="str">
         <f>IF(Sheet1!H126="","",IF(Sheet1!H126 &lt; 300000, VLOOKUP(Sheet1!H126,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!H126,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>火之精</v>
       </c>
       <c r="G126" t="str">
         <f>IF(Sheet1!J126="","",IF(Sheet1!J126 &lt; 300000, VLOOKUP(Sheet1!J126,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!J126,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -20534,7 +21301,7 @@
       </c>
       <c r="F127" t="str">
         <f>IF(Sheet1!H127="","",IF(Sheet1!H127 &lt; 300000, VLOOKUP(Sheet1!H127,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!H127,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>火之精</v>
       </c>
       <c r="G127" t="str">
         <f>IF(Sheet1!J127="","",IF(Sheet1!J127 &lt; 300000, VLOOKUP(Sheet1!J127,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!J127,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -20922,15 +21689,15 @@
       </c>
       <c r="C135" t="str">
         <f>IF(Sheet1!B135="","",IF(Sheet1!B135 &lt; 300000, VLOOKUP(Sheet1!B135,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!B135,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>官印</v>
       </c>
       <c r="D135" t="str">
         <f>IF(Sheet1!D135="","",IF(Sheet1!D135 &lt; 300000, VLOOKUP(Sheet1!D135,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!D135,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>金创药(玄)</v>
       </c>
       <c r="E135" t="str">
         <f>IF(Sheet1!F135="","",IF(Sheet1!F135 &lt; 300000, VLOOKUP(Sheet1!F135,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!F135,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>魔法药(玄)</v>
       </c>
       <c r="F135" t="str">
         <f>IF(Sheet1!H135="","",IF(Sheet1!H135 &lt; 300000, VLOOKUP(Sheet1!H135,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!H135,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -22872,27 +23639,27 @@
       </c>
       <c r="C174" t="str">
         <f>IF(Sheet1!B174="","",IF(Sheet1!B174 &lt; 300000, VLOOKUP(Sheet1!B174,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!B174,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>星王战戒</v>
+        <v>开天</v>
       </c>
       <c r="D174" t="str">
         <f>IF(Sheet1!D174="","",IF(Sheet1!D174 &lt; 300000, VLOOKUP(Sheet1!D174,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!D174,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>星王魔戒</v>
+        <v>镇天</v>
       </c>
       <c r="E174" t="str">
         <f>IF(Sheet1!F174="","",IF(Sheet1!F174 &lt; 300000, VLOOKUP(Sheet1!F174,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!F174,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>星王道戒</v>
+        <v>玄天</v>
       </c>
       <c r="F174" t="str">
         <f>IF(Sheet1!H174="","",IF(Sheet1!H174 &lt; 300000, VLOOKUP(Sheet1!H174,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!H174,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>星王战戒</v>
       </c>
       <c r="G174" t="str">
         <f>IF(Sheet1!J174="","",IF(Sheet1!J174 &lt; 300000, VLOOKUP(Sheet1!J174,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!J174,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>星王魔戒</v>
       </c>
       <c r="H174" t="str">
         <f>IF(Sheet1!L174="","",IF(Sheet1!L174 &lt; 300000, VLOOKUP(Sheet1!L174,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!L174,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>星王道戒</v>
       </c>
       <c r="I174" t="str">
         <f>IF(Sheet1!N174="","",IF(Sheet1!N174 &lt; 300000, VLOOKUP(Sheet1!N174,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!N174,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -22926,31 +23693,31 @@
       </c>
       <c r="D175" t="str">
         <f>IF(Sheet1!D175="","",IF(Sheet1!D175 &lt; 300000, VLOOKUP(Sheet1!D175,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!D175,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>虎啸战甲(男)</v>
+        <v>灵魂碎片(小)</v>
       </c>
       <c r="E175" t="str">
         <f>IF(Sheet1!F175="","",IF(Sheet1!F175 &lt; 300000, VLOOKUP(Sheet1!F175,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!F175,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>聚魔法衣(男)</v>
+        <v>虎啸战甲(男)</v>
       </c>
       <c r="F175" t="str">
         <f>IF(Sheet1!H175="","",IF(Sheet1!H175 &lt; 300000, VLOOKUP(Sheet1!H175,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!H175,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>暗咒道袍(男)</v>
+        <v>聚魔法衣(男)</v>
       </c>
       <c r="G175" t="str">
         <f>IF(Sheet1!J175="","",IF(Sheet1!J175 &lt; 300000, VLOOKUP(Sheet1!J175,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!J175,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>虎啸战甲(女)</v>
+        <v>暗咒道袍(男)</v>
       </c>
       <c r="H175" t="str">
         <f>IF(Sheet1!L175="","",IF(Sheet1!L175 &lt; 300000, VLOOKUP(Sheet1!L175,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!L175,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>聚魔法衣(女)</v>
+        <v>虎啸战甲(女)</v>
       </c>
       <c r="I175" t="str">
         <f>IF(Sheet1!N175="","",IF(Sheet1!N175 &lt; 300000, VLOOKUP(Sheet1!N175,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!N175,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>暗咒道袍(女)</v>
+        <v>聚魔法衣(女)</v>
       </c>
       <c r="J175" t="str">
         <f>IF(Sheet1!P175="","",IF(Sheet1!P175 &lt; 300000, VLOOKUP(Sheet1!P175,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!P175,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>暗咒道袍(女)</v>
       </c>
       <c r="K175" t="str">
         <f>IF(Sheet1!R175="","",IF(Sheet1!R175 &lt; 300000, VLOOKUP(Sheet1!R175,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!R175,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -23072,19 +23839,19 @@
       </c>
       <c r="C178" t="str">
         <f>IF(Sheet1!B178="","",IF(Sheet1!B178 &lt; 300000, VLOOKUP(Sheet1!B178,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!B178,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>炎龙刃</v>
+        <v>神石结晶(小)</v>
       </c>
       <c r="D178" t="str">
         <f>IF(Sheet1!D178="","",IF(Sheet1!D178 &lt; 300000, VLOOKUP(Sheet1!D178,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!D178,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>雷龙杖</v>
+        <v>炎龙刃</v>
       </c>
       <c r="E178" t="str">
         <f>IF(Sheet1!F178="","",IF(Sheet1!F178 &lt; 300000, VLOOKUP(Sheet1!F178,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!F178,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>青龙刺</v>
+        <v>雷龙杖</v>
       </c>
       <c r="F178" t="str">
         <f>IF(Sheet1!H178="","",IF(Sheet1!H178 &lt; 300000, VLOOKUP(Sheet1!H178,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!H178,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>青龙刺</v>
       </c>
       <c r="G178" t="str">
         <f>IF(Sheet1!J178="","",IF(Sheet1!J178 &lt; 300000, VLOOKUP(Sheet1!J178,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!J178,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -23122,23 +23889,23 @@
       </c>
       <c r="C179" t="str">
         <f>IF(Sheet1!B179="","",IF(Sheet1!B179 &lt; 300000, VLOOKUP(Sheet1!B179,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!B179,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>神石结晶(小)</v>
+        <v>火龙内丹</v>
       </c>
       <c r="D179" t="str">
         <f>IF(Sheet1!D179="","",IF(Sheet1!D179 &lt; 300000, VLOOKUP(Sheet1!D179,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!D179,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>灵魂碎片(小)</v>
+        <v>炎龙刃</v>
       </c>
       <c r="E179" t="str">
         <f>IF(Sheet1!F179="","",IF(Sheet1!F179 &lt; 300000, VLOOKUP(Sheet1!F179,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!F179,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>炎龙刃</v>
+        <v>雷龙杖</v>
       </c>
       <c r="F179" t="str">
         <f>IF(Sheet1!H179="","",IF(Sheet1!H179 &lt; 300000, VLOOKUP(Sheet1!H179,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!H179,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>雷龙杖</v>
+        <v>青龙刺</v>
       </c>
       <c r="G179" t="str">
         <f>IF(Sheet1!J179="","",IF(Sheet1!J179 &lt; 300000, VLOOKUP(Sheet1!J179,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!J179,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>青龙刺</v>
+        <v/>
       </c>
       <c r="H179" t="str">
         <f>IF(Sheet1!L179="","",IF(Sheet1!L179 &lt; 300000, VLOOKUP(Sheet1!L179,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!L179,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -23266,5 +24033,121 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="10" id="{58C744FE-65AA-41CF-BDFC-C7F8B1195425}">
+            <xm:f>Sheet1!$B1&lt;300000</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="9" tint="0.39994506668294322"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C1:C1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="9" id="{B90FDB3E-EDA3-47D6-9D40-8036FCD06275}">
+            <xm:f>Sheet1!$D1&lt;300000</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="9" tint="0.39994506668294322"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D1:D1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="8" id="{1CD6F9C4-4EBA-4B13-A798-C6CEAE7F0CAC}">
+            <xm:f>Sheet1!$F1&lt;300000</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="9" tint="0.39994506668294322"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>E1:E1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="7" id="{7F4053C0-7914-4BE3-9D15-9E2B453CB246}">
+            <xm:f>Sheet1!$H1&lt;300000</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="9" tint="0.39994506668294322"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>F1:F1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="6" id="{503C3C97-9E09-4326-9727-8D062528AA66}">
+            <xm:f>Sheet1!$J1&lt;300000</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="9" tint="0.39994506668294322"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G1:G1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="5" id="{C7F8194E-4574-4121-8602-1C8C2D2951A6}">
+            <xm:f>Sheet1!$L1&lt;300000</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="9" tint="0.39994506668294322"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H1:H1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="4" id="{D2579127-C846-4650-B89D-C7A617D43C84}">
+            <xm:f>Sheet1!$N1&lt;300000</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="9" tint="0.39994506668294322"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I1:I1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="3" id="{B2CD9B1C-9775-487E-AB95-C0330C83B8C7}">
+            <xm:f>Sheet1!$P1&lt;300000</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="9" tint="0.39994506668294322"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J1:J1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="2" id="{799A1402-26AC-4EEE-A0EA-C4B526CCC289}">
+            <xm:f>Sheet1!$R1&lt;300000</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="9" tint="0.39994506668294322"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K1:K1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{3D2CAD2D-A010-4F5A-9A03-BD6632CFDD05}">
+            <xm:f>Sheet1!$T1&lt;300000</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="9" tint="0.39994506668294322"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L1:L1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/documents/暴率表.xlsx
+++ b/documents/暴率表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="195" windowWidth="13170" windowHeight="9180" activeTab="1"/>
+    <workbookView xWindow="7320" yWindow="195" windowWidth="13170" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -225,202 +225,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="89">
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
+  <dxfs count="55">
     <dxf>
       <font>
         <color theme="9"/>
@@ -514,6 +319,31 @@
     <dxf>
       <font>
         <color theme="9" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
       </font>
     </dxf>
     <dxf>
@@ -8086,11 +7916,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V181"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B152" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B102" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M168" sqref="M168"/>
+      <selection pane="bottomRight" activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -12799,65 +12629,85 @@
       <c r="A136" s="1">
         <v>20001</v>
       </c>
-      <c r="B136" s="1">
+      <c r="B136" s="2">
+        <v>201003</v>
+      </c>
+      <c r="C136" s="1">
+        <v>16</v>
+      </c>
+      <c r="D136" s="2">
+        <v>201013</v>
+      </c>
+      <c r="E136" s="1">
+        <v>16</v>
+      </c>
+      <c r="F136" s="1">
         <v>301020</v>
       </c>
-      <c r="C136" s="1">
+      <c r="G136" s="1">
         <v>40</v>
       </c>
-      <c r="D136" s="1">
+      <c r="H136" s="1">
         <v>301004</v>
       </c>
-      <c r="E136" s="1">
+      <c r="I136" s="1">
         <v>100</v>
       </c>
-      <c r="F136" s="2">
+      <c r="J136" s="2">
         <v>308001</v>
       </c>
-      <c r="G136" s="1">
+      <c r="K136" s="1">
         <v>75</v>
       </c>
-      <c r="H136" s="2">
+      <c r="L136" s="2">
         <v>308002</v>
       </c>
-      <c r="I136" s="1">
+      <c r="M136" s="1">
         <v>150</v>
       </c>
-      <c r="J136" s="2"/>
-      <c r="L136" s="2"/>
       <c r="V136" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="137" spans="1:22">
       <c r="A137" s="1">
         <v>20002</v>
       </c>
-      <c r="B137" s="1">
+      <c r="B137" s="2">
+        <v>201003</v>
+      </c>
+      <c r="C137" s="1">
+        <v>16</v>
+      </c>
+      <c r="D137" s="2">
+        <v>201013</v>
+      </c>
+      <c r="E137" s="1">
+        <v>16</v>
+      </c>
+      <c r="F137" s="1">
         <v>205004</v>
       </c>
-      <c r="C137" s="1">
+      <c r="G137" s="1">
         <v>100</v>
       </c>
-      <c r="D137" s="2">
+      <c r="H137" s="2">
         <v>308001</v>
       </c>
-      <c r="E137" s="1">
+      <c r="I137" s="1">
         <v>75</v>
       </c>
-      <c r="F137" s="2">
+      <c r="J137" s="2">
         <v>308002</v>
       </c>
-      <c r="G137" s="1">
+      <c r="K137" s="1">
         <v>150</v>
       </c>
-      <c r="H137" s="2"/>
-      <c r="J137" s="2"/>
       <c r="L137" s="2"/>
       <c r="V137" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138" spans="1:22">
@@ -13085,27 +12935,39 @@
       <c r="A143" s="1">
         <v>20008</v>
       </c>
-      <c r="B143" s="1">
+      <c r="B143" s="2">
+        <v>201003</v>
+      </c>
+      <c r="C143" s="1">
+        <v>16</v>
+      </c>
+      <c r="D143" s="2">
+        <v>201013</v>
+      </c>
+      <c r="E143" s="1">
+        <v>16</v>
+      </c>
+      <c r="F143" s="1">
         <v>205001</v>
       </c>
-      <c r="C143" s="1">
+      <c r="G143" s="1">
         <v>100</v>
       </c>
-      <c r="D143" s="2">
+      <c r="H143" s="2">
         <v>308001</v>
       </c>
-      <c r="E143" s="1">
+      <c r="I143" s="1">
         <v>75</v>
       </c>
-      <c r="F143" s="2">
+      <c r="J143" s="2">
         <v>308002</v>
       </c>
-      <c r="G143" s="1">
+      <c r="K143" s="1">
         <v>150</v>
       </c>
       <c r="V143" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144" spans="1:22">
@@ -13113,38 +12975,44 @@
         <v>20009</v>
       </c>
       <c r="B144" s="2">
-        <v>205007</v>
+        <v>201003</v>
       </c>
       <c r="C144" s="1">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="D144" s="2">
+        <v>201013</v>
+      </c>
+      <c r="E144" s="1">
+        <v>16</v>
+      </c>
+      <c r="F144" s="2">
         <v>308001</v>
       </c>
-      <c r="E144" s="1">
+      <c r="G144" s="1">
         <v>75</v>
       </c>
-      <c r="F144" s="2">
+      <c r="H144" s="2">
         <v>308002</v>
       </c>
-      <c r="G144" s="1">
+      <c r="I144" s="1">
         <v>150</v>
       </c>
-      <c r="H144" s="2">
+      <c r="J144" s="2">
         <v>311001</v>
       </c>
-      <c r="I144" s="1">
+      <c r="K144" s="1">
         <v>75</v>
       </c>
-      <c r="J144" s="2">
+      <c r="L144" s="2">
         <v>311002</v>
       </c>
-      <c r="K144" s="1">
+      <c r="M144" s="1">
         <v>150</v>
       </c>
       <c r="V144" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="145" spans="1:22">
@@ -14767,9 +14635,27 @@
       <c r="C180" s="1">
         <v>75</v>
       </c>
+      <c r="D180" s="1">
+        <v>203005</v>
+      </c>
+      <c r="E180" s="1">
+        <v>32</v>
+      </c>
+      <c r="F180" s="1">
+        <v>203006</v>
+      </c>
+      <c r="G180" s="1">
+        <v>64</v>
+      </c>
+      <c r="H180" s="1">
+        <v>203007</v>
+      </c>
+      <c r="I180" s="1">
+        <v>75</v>
+      </c>
       <c r="V180" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="181" spans="1:22">
@@ -14782,190 +14668,208 @@
       <c r="C181" s="1">
         <v>75</v>
       </c>
+      <c r="D181" s="1">
+        <v>203005</v>
+      </c>
+      <c r="E181" s="1">
+        <v>32</v>
+      </c>
+      <c r="F181" s="1">
+        <v>203006</v>
+      </c>
+      <c r="G181" s="1">
+        <v>64</v>
+      </c>
+      <c r="H181" s="1">
+        <v>203007</v>
+      </c>
+      <c r="I181" s="1">
+        <v>75</v>
+      </c>
       <c r="V181" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="N118:U123 N128:U133 B110:U110 B118:B119 F118:F119 D118:D119 H134:U134 F109:U109 B111:B112 D111:D112 F111:F112 H111:U112 B104:E109 B103:J103 L103:L108 J103:J105 D104:I108 B135:U1048576 B1:U102 N103:U108 B113:U117 B124:U127">
-    <cfRule type="expression" dxfId="88" priority="70">
+  <conditionalFormatting sqref="N118:U123 N128:U133 B110:U110 B118:B119 F118:F119 D118:D119 H134:U134 F109:U109 B111:B112 D111:D112 F111:F112 H111:U112 B104:E109 B103:J103 L103:L108 J103:J105 D104:I108 B1:U102 N103:U108 B113:U117 B124:U127 B135:U1048576">
+    <cfRule type="expression" dxfId="54" priority="70">
       <formula>AND(B1&gt;200000,B1&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H121:H123 J121:J123 L121:L123 H118:H119 L118:L119 J118:J119">
-    <cfRule type="expression" dxfId="87" priority="62">
+    <cfRule type="expression" dxfId="53" priority="62">
       <formula>AND(H118&gt;200000,H118&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B120 F120 D120 C118:C123">
-    <cfRule type="expression" dxfId="86" priority="59">
+    <cfRule type="expression" dxfId="52" priority="59">
       <formula>AND(B118&gt;200000,B118&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121 D121 F121">
-    <cfRule type="expression" dxfId="85" priority="58">
+    <cfRule type="expression" dxfId="51" priority="58">
       <formula>AND(B121&gt;200000,B121&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122 D122 F122">
-    <cfRule type="expression" dxfId="84" priority="57">
+    <cfRule type="expression" dxfId="50" priority="57">
       <formula>AND(B122&gt;200000,B122&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H128:H132 J128:J132 L128:L132">
-    <cfRule type="expression" dxfId="81" priority="52">
+    <cfRule type="expression" dxfId="49" priority="52">
       <formula>AND(H128&gt;200000,H128&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B128 D128 F128">
-    <cfRule type="expression" dxfId="79" priority="45">
+    <cfRule type="expression" dxfId="48" priority="45">
       <formula>AND(B128&gt;200000,B128&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B129 D129 F129">
-    <cfRule type="expression" dxfId="78" priority="44">
+    <cfRule type="expression" dxfId="47" priority="44">
       <formula>AND(B129&gt;200000,B129&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130 D130 F130">
-    <cfRule type="expression" dxfId="77" priority="43">
+    <cfRule type="expression" dxfId="46" priority="43">
       <formula>AND(B130&gt;200000,B130&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131 D131 F131">
-    <cfRule type="expression" dxfId="76" priority="42">
+    <cfRule type="expression" dxfId="45" priority="42">
       <formula>AND(B131&gt;200000,B131&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B132:B133 D132:D133 F132:F133">
-    <cfRule type="expression" dxfId="75" priority="41">
+    <cfRule type="expression" dxfId="44" priority="41">
       <formula>AND(B132&gt;200000,B132&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C134">
-    <cfRule type="expression" dxfId="74" priority="40">
+    <cfRule type="expression" dxfId="43" priority="40">
       <formula>AND(C134&gt;200000,C134&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B134 D134 F134">
-    <cfRule type="expression" dxfId="73" priority="39">
+    <cfRule type="expression" dxfId="42" priority="39">
       <formula>AND(B134&gt;200000,B134&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I103:I108">
-    <cfRule type="expression" dxfId="67" priority="33">
+    <cfRule type="expression" dxfId="41" priority="33">
       <formula>AND(I103&gt;200000,I103&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C111:C112">
-    <cfRule type="expression" dxfId="66" priority="32">
+    <cfRule type="expression" dxfId="40" priority="32">
       <formula>AND(C111&gt;200000,C111&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111:E112">
-    <cfRule type="expression" dxfId="59" priority="21">
+    <cfRule type="expression" dxfId="39" priority="21">
       <formula>AND(E111&gt;200000,E111&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G111:G112">
-    <cfRule type="expression" dxfId="58" priority="20">
+    <cfRule type="expression" dxfId="38" priority="20">
       <formula>AND(G111&gt;200000,G111&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K103:K108">
-    <cfRule type="expression" dxfId="42" priority="19">
+    <cfRule type="expression" dxfId="37" priority="19">
       <formula>AND(K103&gt;200000,K103&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M103:M108">
-    <cfRule type="expression" dxfId="38" priority="18">
+    <cfRule type="expression" dxfId="36" priority="18">
       <formula>AND(M103&gt;200000,M103&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M103:M108">
-    <cfRule type="expression" dxfId="36" priority="17">
+    <cfRule type="expression" dxfId="35" priority="17">
       <formula>AND(M103&gt;200000,M103&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118:E123">
-    <cfRule type="expression" dxfId="31" priority="16">
+    <cfRule type="expression" dxfId="34" priority="16">
       <formula>AND(E118&gt;200000,E118&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G118:G123">
-    <cfRule type="expression" dxfId="29" priority="15">
+    <cfRule type="expression" dxfId="33" priority="15">
       <formula>AND(G118&gt;200000,G118&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C128:C133">
-    <cfRule type="expression" dxfId="27" priority="14">
+    <cfRule type="expression" dxfId="32" priority="14">
       <formula>AND(C128&gt;200000,C128&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E134">
-    <cfRule type="expression" dxfId="25" priority="13">
+    <cfRule type="expression" dxfId="31" priority="13">
       <formula>AND(E134&gt;200000,E134&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E128:E133">
-    <cfRule type="expression" dxfId="23" priority="12">
+    <cfRule type="expression" dxfId="30" priority="12">
       <formula>AND(E128&gt;200000,E128&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G134">
-    <cfRule type="expression" dxfId="21" priority="11">
+    <cfRule type="expression" dxfId="29" priority="11">
       <formula>AND(G134&gt;200000,G134&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G128:G133">
-    <cfRule type="expression" dxfId="19" priority="10">
+    <cfRule type="expression" dxfId="28" priority="10">
       <formula>AND(G128&gt;200000,G128&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I128:I133">
-    <cfRule type="expression" dxfId="17" priority="9">
+    <cfRule type="expression" dxfId="27" priority="9">
       <formula>AND(I128&gt;200000,I128&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K128:K133">
-    <cfRule type="expression" dxfId="15" priority="8">
+    <cfRule type="expression" dxfId="26" priority="8">
       <formula>AND(K128&gt;200000,K128&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M128:M133">
-    <cfRule type="expression" dxfId="13" priority="7">
+    <cfRule type="expression" dxfId="25" priority="7">
       <formula>AND(M128&gt;200000,M128&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I118:I123">
-    <cfRule type="expression" dxfId="11" priority="6">
+    <cfRule type="expression" dxfId="24" priority="6">
       <formula>AND(I118&gt;200000,I118&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I118:I123">
-    <cfRule type="expression" dxfId="9" priority="5">
+    <cfRule type="expression" dxfId="23" priority="5">
       <formula>AND(I118&gt;200000,I118&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K118:K123">
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="22" priority="4">
       <formula>AND(K118&gt;200000,K118&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K118:K123">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="21" priority="3">
       <formula>AND(K118&gt;200000,K118&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M118:M123">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>AND(M118&gt;200000,M118&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M118:M123">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="19" priority="1">
       <formula>AND(M118&gt;200000,M118&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14979,8 +14883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="J127" sqref="J127"/>
+    <sheetView topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="C172" sqref="C172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -21739,27 +21643,27 @@
       </c>
       <c r="C136" t="str">
         <f>IF(Sheet1!B136="","",IF(Sheet1!B136 &lt; 300000, VLOOKUP(Sheet1!B136,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!B136,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>修罗</v>
+        <v>金创药(大)</v>
       </c>
       <c r="D136" t="str">
         <f>IF(Sheet1!D136="","",IF(Sheet1!D136 &lt; 300000, VLOOKUP(Sheet1!D136,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!D136,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>罗刹</v>
+        <v>魔法药(大)</v>
       </c>
       <c r="E136" t="str">
         <f>IF(Sheet1!F136="","",IF(Sheet1!F136 &lt; 300000, VLOOKUP(Sheet1!F136,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!F136,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>初级勋章1</v>
+        <v>修罗</v>
       </c>
       <c r="F136" t="str">
         <f>IF(Sheet1!H136="","",IF(Sheet1!H136 &lt; 300000, VLOOKUP(Sheet1!H136,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!H136,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>初级勋章2</v>
+        <v>罗刹</v>
       </c>
       <c r="G136" t="str">
         <f>IF(Sheet1!J136="","",IF(Sheet1!J136 &lt; 300000, VLOOKUP(Sheet1!J136,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!J136,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>初级勋章1</v>
       </c>
       <c r="H136" t="str">
         <f>IF(Sheet1!L136="","",IF(Sheet1!L136 &lt; 300000, VLOOKUP(Sheet1!L136,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!L136,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>初级勋章2</v>
       </c>
       <c r="I136" t="str">
         <f>IF(Sheet1!N136="","",IF(Sheet1!N136 &lt; 300000, VLOOKUP(Sheet1!N136,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!N136,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -21789,23 +21693,23 @@
       </c>
       <c r="C137" t="str">
         <f>IF(Sheet1!B137="","",IF(Sheet1!B137 &lt; 300000, VLOOKUP(Sheet1!B137,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!B137,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>防御精华(小)</v>
+        <v>金创药(大)</v>
       </c>
       <c r="D137" t="str">
         <f>IF(Sheet1!D137="","",IF(Sheet1!D137 &lt; 300000, VLOOKUP(Sheet1!D137,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!D137,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>初级勋章1</v>
+        <v>魔法药(大)</v>
       </c>
       <c r="E137" t="str">
         <f>IF(Sheet1!F137="","",IF(Sheet1!F137 &lt; 300000, VLOOKUP(Sheet1!F137,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!F137,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>初级勋章2</v>
+        <v>防御精华(小)</v>
       </c>
       <c r="F137" t="str">
         <f>IF(Sheet1!H137="","",IF(Sheet1!H137 &lt; 300000, VLOOKUP(Sheet1!H137,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!H137,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>初级勋章1</v>
       </c>
       <c r="G137" t="str">
         <f>IF(Sheet1!J137="","",IF(Sheet1!J137 &lt; 300000, VLOOKUP(Sheet1!J137,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!J137,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>初级勋章2</v>
       </c>
       <c r="H137" t="str">
         <f>IF(Sheet1!L137="","",IF(Sheet1!L137 &lt; 300000, VLOOKUP(Sheet1!L137,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!L137,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -22089,23 +21993,23 @@
       </c>
       <c r="C143" t="str">
         <f>IF(Sheet1!B143="","",IF(Sheet1!B143 &lt; 300000, VLOOKUP(Sheet1!B143,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!B143,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>魔御精华(小)</v>
+        <v>金创药(大)</v>
       </c>
       <c r="D143" t="str">
         <f>IF(Sheet1!D143="","",IF(Sheet1!D143 &lt; 300000, VLOOKUP(Sheet1!D143,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!D143,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>初级勋章1</v>
+        <v>魔法药(大)</v>
       </c>
       <c r="E143" t="str">
         <f>IF(Sheet1!F143="","",IF(Sheet1!F143 &lt; 300000, VLOOKUP(Sheet1!F143,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!F143,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>初级勋章2</v>
+        <v>魔御精华(小)</v>
       </c>
       <c r="F143" t="str">
         <f>IF(Sheet1!H143="","",IF(Sheet1!H143 &lt; 300000, VLOOKUP(Sheet1!H143,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!H143,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>初级勋章1</v>
       </c>
       <c r="G143" t="str">
         <f>IF(Sheet1!J143="","",IF(Sheet1!J143 &lt; 300000, VLOOKUP(Sheet1!J143,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!J143,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>初级勋章2</v>
       </c>
       <c r="H143" t="str">
         <f>IF(Sheet1!L143="","",IF(Sheet1!L143 &lt; 300000, VLOOKUP(Sheet1!L143,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!L143,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -22139,27 +22043,27 @@
       </c>
       <c r="C144" t="str">
         <f>IF(Sheet1!B144="","",IF(Sheet1!B144 &lt; 300000, VLOOKUP(Sheet1!B144,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!B144,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>神石结晶(小)</v>
+        <v>金创药(大)</v>
       </c>
       <c r="D144" t="str">
         <f>IF(Sheet1!D144="","",IF(Sheet1!D144 &lt; 300000, VLOOKUP(Sheet1!D144,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!D144,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>初级勋章1</v>
+        <v>魔法药(大)</v>
       </c>
       <c r="E144" t="str">
         <f>IF(Sheet1!F144="","",IF(Sheet1!F144 &lt; 300000, VLOOKUP(Sheet1!F144,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!F144,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>初级勋章2</v>
+        <v>初级勋章1</v>
       </c>
       <c r="F144" t="str">
         <f>IF(Sheet1!H144="","",IF(Sheet1!H144 &lt; 300000, VLOOKUP(Sheet1!H144,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!H144,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>初级宝石1</v>
+        <v>初级勋章2</v>
       </c>
       <c r="G144" t="str">
         <f>IF(Sheet1!J144="","",IF(Sheet1!J144 &lt; 300000, VLOOKUP(Sheet1!J144,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!J144,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>初级宝石2</v>
+        <v>初级宝石1</v>
       </c>
       <c r="H144" t="str">
         <f>IF(Sheet1!L144="","",IF(Sheet1!L144 &lt; 300000, VLOOKUP(Sheet1!L144,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!L144,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>初级宝石2</v>
       </c>
       <c r="I144" t="str">
         <f>IF(Sheet1!N144="","",IF(Sheet1!N144 &lt; 300000, VLOOKUP(Sheet1!N144,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!N144,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -23943,15 +23847,15 @@
       </c>
       <c r="D180" t="str">
         <f>IF(Sheet1!D180="","",IF(Sheet1!D180 &lt; 300000, VLOOKUP(Sheet1!D180,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!D180,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>小堆银币</v>
       </c>
       <c r="E180" t="str">
         <f>IF(Sheet1!F180="","",IF(Sheet1!F180 &lt; 300000, VLOOKUP(Sheet1!F180,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!F180,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>大堆银币</v>
       </c>
       <c r="F180" t="str">
         <f>IF(Sheet1!H180="","",IF(Sheet1!H180 &lt; 300000, VLOOKUP(Sheet1!H180,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!H180,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>银元</v>
       </c>
       <c r="G180" t="str">
         <f>IF(Sheet1!J180="","",IF(Sheet1!J180 &lt; 300000, VLOOKUP(Sheet1!J180,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!J180,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -23993,15 +23897,15 @@
       </c>
       <c r="D181" t="str">
         <f>IF(Sheet1!D181="","",IF(Sheet1!D181 &lt; 300000, VLOOKUP(Sheet1!D181,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!D181,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>小堆银币</v>
       </c>
       <c r="E181" t="str">
         <f>IF(Sheet1!F181="","",IF(Sheet1!F181 &lt; 300000, VLOOKUP(Sheet1!F181,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!F181,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>大堆银币</v>
       </c>
       <c r="F181" t="str">
         <f>IF(Sheet1!H181="","",IF(Sheet1!H181 &lt; 300000, VLOOKUP(Sheet1!H181,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!H181,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>银元</v>
       </c>
       <c r="G181" t="str">
         <f>IF(Sheet1!J181="","",IF(Sheet1!J181 &lt; 300000, VLOOKUP(Sheet1!J181,[2]道具!$A$3:$B$600,2,FALSE), VLOOKUP(Sheet1!J181,[2]装备!$A$3:$B$600,2,FALSE)))</f>

--- a/documents/暴率表.xlsx
+++ b/documents/暴率表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="30" windowWidth="16770" windowHeight="9375"/>
+    <workbookView xWindow="3720" yWindow="15" windowWidth="16770" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -225,7 +225,57 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="357">
+  <dxfs count="395">
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="9" tint="0.39994506668294322"/>
@@ -424,6 +474,146 @@
     <dxf>
       <font>
         <color theme="9" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
       </font>
     </dxf>
     <dxf>
@@ -8376,102 +8566,6 @@
             <v>洪荒护盾-玄</v>
           </cell>
         </row>
-        <row r="476">
-          <cell r="A476">
-            <v>313001</v>
-          </cell>
-          <cell r="B476" t="str">
-            <v>太初</v>
-          </cell>
-        </row>
-        <row r="477">
-          <cell r="A477">
-            <v>313002</v>
-          </cell>
-          <cell r="B477" t="str">
-            <v>两仪</v>
-          </cell>
-        </row>
-        <row r="478">
-          <cell r="A478">
-            <v>313003</v>
-          </cell>
-          <cell r="B478" t="str">
-            <v>三才</v>
-          </cell>
-        </row>
-        <row r="479">
-          <cell r="A479">
-            <v>313004</v>
-          </cell>
-          <cell r="B479" t="str">
-            <v>四象</v>
-          </cell>
-        </row>
-        <row r="480">
-          <cell r="A480">
-            <v>313005</v>
-          </cell>
-          <cell r="B480" t="str">
-            <v>五行</v>
-          </cell>
-        </row>
-        <row r="481">
-          <cell r="A481">
-            <v>313006</v>
-          </cell>
-          <cell r="B481" t="str">
-            <v>六合</v>
-          </cell>
-        </row>
-        <row r="482">
-          <cell r="A482">
-            <v>313007</v>
-          </cell>
-          <cell r="B482" t="str">
-            <v>七星</v>
-          </cell>
-        </row>
-        <row r="483">
-          <cell r="A483">
-            <v>313008</v>
-          </cell>
-          <cell r="B483" t="str">
-            <v>八卦</v>
-          </cell>
-        </row>
-        <row r="484">
-          <cell r="A484">
-            <v>313009</v>
-          </cell>
-          <cell r="B484" t="str">
-            <v>九宫</v>
-          </cell>
-        </row>
-        <row r="485">
-          <cell r="A485">
-            <v>313010</v>
-          </cell>
-          <cell r="B485" t="str">
-            <v>十方</v>
-          </cell>
-        </row>
-        <row r="486">
-          <cell r="A486">
-            <v>313011</v>
-          </cell>
-          <cell r="B486" t="str">
-            <v>神威</v>
-          </cell>
-        </row>
-        <row r="487">
-          <cell r="A487">
-            <v>313012</v>
-          </cell>
-          <cell r="B487" t="str">
-            <v>至尊</v>
-          </cell>
-        </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="3">
@@ -9316,217 +9410,233 @@
         </row>
         <row r="108">
           <cell r="A108">
-            <v>299001</v>
+            <v>220040</v>
           </cell>
           <cell r="B108" t="str">
-            <v>鹿肉</v>
+            <v>召唤撒非</v>
           </cell>
         </row>
         <row r="109">
           <cell r="A109">
-            <v>299002</v>
+            <v>220041</v>
           </cell>
           <cell r="B109" t="str">
-            <v>蟾酥</v>
+            <v>召唤白虎</v>
           </cell>
         </row>
         <row r="110">
           <cell r="A110">
-            <v>299003</v>
+            <v>299001</v>
           </cell>
           <cell r="B110" t="str">
-            <v>树叶</v>
+            <v>鹿肉</v>
           </cell>
         </row>
         <row r="111">
           <cell r="A111">
-            <v>299004</v>
+            <v>299002</v>
           </cell>
           <cell r="B111" t="str">
-            <v>蝎尾</v>
+            <v>蟾酥</v>
           </cell>
         </row>
         <row r="112">
           <cell r="A112">
-            <v>299005</v>
+            <v>299003</v>
           </cell>
           <cell r="B112" t="str">
-            <v>蛆卵</v>
+            <v>树叶</v>
           </cell>
         </row>
         <row r="113">
           <cell r="A113">
-            <v>299006</v>
+            <v>299004</v>
           </cell>
           <cell r="B113" t="str">
-            <v>背刺</v>
+            <v>蝎尾</v>
           </cell>
         </row>
         <row r="114">
           <cell r="A114">
-            <v>299007</v>
+            <v>299005</v>
           </cell>
           <cell r="B114" t="str">
-            <v>蜘蛛牙齿</v>
+            <v>蛆卵</v>
           </cell>
         </row>
         <row r="115">
           <cell r="A115">
-            <v>299008</v>
+            <v>299006</v>
           </cell>
           <cell r="B115" t="str">
-            <v>蛇胆</v>
+            <v>背刺</v>
           </cell>
         </row>
         <row r="116">
           <cell r="A116">
-            <v>299009</v>
+            <v>299007</v>
           </cell>
           <cell r="B116" t="str">
-            <v>羽毛</v>
+            <v>蜘蛛牙齿</v>
           </cell>
         </row>
         <row r="117">
           <cell r="A117">
-            <v>299010</v>
+            <v>299008</v>
           </cell>
           <cell r="B117" t="str">
-            <v>天龙</v>
+            <v>蛇胆</v>
           </cell>
         </row>
         <row r="118">
           <cell r="A118">
-            <v>299011</v>
+            <v>299009</v>
           </cell>
           <cell r="B118" t="str">
-            <v>野猪镣牙</v>
+            <v>羽毛</v>
           </cell>
         </row>
         <row r="119">
           <cell r="A119">
-            <v>299012</v>
+            <v>299010</v>
           </cell>
           <cell r="B119" t="str">
-            <v>蝶粉</v>
+            <v>天龙</v>
           </cell>
         </row>
         <row r="120">
           <cell r="A120">
-            <v>299013</v>
+            <v>299011</v>
           </cell>
           <cell r="B120" t="str">
-            <v>古怪石头</v>
+            <v>野猪镣牙</v>
           </cell>
         </row>
         <row r="121">
           <cell r="A121">
-            <v>299014</v>
+            <v>299012</v>
           </cell>
           <cell r="B121" t="str">
-            <v>蛛丝</v>
+            <v>蝶粉</v>
           </cell>
         </row>
         <row r="122">
           <cell r="A122">
-            <v>299015</v>
+            <v>299013</v>
           </cell>
           <cell r="B122" t="str">
-            <v>发霉的书籍</v>
+            <v>古怪石头</v>
           </cell>
         </row>
         <row r="123">
           <cell r="A123">
-            <v>299016</v>
+            <v>299014</v>
           </cell>
           <cell r="B123" t="str">
-            <v>魂火</v>
+            <v>蛛丝</v>
           </cell>
         </row>
         <row r="124">
           <cell r="A124">
-            <v>299017</v>
+            <v>299015</v>
           </cell>
           <cell r="B124" t="str">
-            <v>牛角</v>
+            <v>发霉的书籍</v>
           </cell>
         </row>
         <row r="125">
           <cell r="A125">
-            <v>299018</v>
+            <v>299016</v>
           </cell>
           <cell r="B125" t="str">
-            <v>牛黄</v>
+            <v>魂火</v>
           </cell>
         </row>
         <row r="126">
           <cell r="A126">
-            <v>299019</v>
+            <v>299017</v>
           </cell>
           <cell r="B126" t="str">
-            <v>带魔气的眼睛</v>
+            <v>牛角</v>
           </cell>
         </row>
         <row r="127">
           <cell r="A127">
-            <v>299020</v>
+            <v>299018</v>
           </cell>
           <cell r="B127" t="str">
-            <v>龙骨</v>
+            <v>牛黄</v>
           </cell>
         </row>
         <row r="128">
           <cell r="A128">
-            <v>299021</v>
+            <v>299019</v>
           </cell>
           <cell r="B128" t="str">
-            <v>千年蛛丝</v>
+            <v>带魔气的眼睛</v>
           </cell>
         </row>
         <row r="129">
           <cell r="A129">
-            <v>299022</v>
+            <v>299020</v>
           </cell>
           <cell r="B129" t="str">
-            <v>手杖</v>
+            <v>龙骨</v>
           </cell>
         </row>
         <row r="130">
           <cell r="A130">
-            <v>299023</v>
+            <v>299021</v>
           </cell>
           <cell r="B130" t="str">
-            <v>狼毫</v>
+            <v>千年蛛丝</v>
           </cell>
         </row>
         <row r="131">
           <cell r="A131">
-            <v>299024</v>
+            <v>299022</v>
           </cell>
           <cell r="B131" t="str">
-            <v>冰之精</v>
+            <v>手杖</v>
           </cell>
         </row>
         <row r="132">
           <cell r="A132">
-            <v>299025</v>
+            <v>299023</v>
           </cell>
           <cell r="B132" t="str">
-            <v>官印</v>
+            <v>狼毫</v>
           </cell>
         </row>
         <row r="133">
           <cell r="A133">
-            <v>299026</v>
+            <v>299024</v>
           </cell>
           <cell r="B133" t="str">
-            <v>火之精</v>
+            <v>冰之精</v>
           </cell>
         </row>
         <row r="134">
           <cell r="A134">
+            <v>299025</v>
+          </cell>
+          <cell r="B134" t="str">
+            <v>官印</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="A135">
+            <v>299026</v>
+          </cell>
+          <cell r="B135" t="str">
+            <v>火之精</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="A136">
             <v>299027</v>
           </cell>
-          <cell r="B134" t="str">
+          <cell r="B136" t="str">
             <v>火龙内丹</v>
           </cell>
         </row>
@@ -9873,10 +9983,10 @@
   <dimension ref="A1:V239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B211" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F167" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F237" sqref="F237"/>
+      <selection pane="bottomRight" activeCell="L178" sqref="L178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -10487,9 +10597,15 @@
       <c r="G20" s="1">
         <v>32</v>
       </c>
+      <c r="H20" s="1">
+        <v>220017</v>
+      </c>
+      <c r="I20" s="1">
+        <v>32</v>
+      </c>
       <c r="V20" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -12965,27 +13081,9 @@
       <c r="G92" s="1">
         <v>64</v>
       </c>
-      <c r="H92" s="1">
-        <v>305035</v>
-      </c>
-      <c r="I92" s="1">
-        <v>320</v>
-      </c>
-      <c r="J92" s="1">
-        <v>305036</v>
-      </c>
-      <c r="K92" s="1">
-        <v>320</v>
-      </c>
-      <c r="L92" s="1">
-        <v>305037</v>
-      </c>
-      <c r="M92" s="1">
-        <v>320</v>
-      </c>
       <c r="V92" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:22">
@@ -13010,27 +13108,9 @@
       <c r="G93" s="1">
         <v>64</v>
       </c>
-      <c r="H93" s="1">
-        <v>306037</v>
-      </c>
-      <c r="I93" s="1">
-        <v>320</v>
-      </c>
-      <c r="J93" s="1">
-        <v>306038</v>
-      </c>
-      <c r="K93" s="1">
-        <v>320</v>
-      </c>
-      <c r="L93" s="1">
-        <v>306039</v>
-      </c>
-      <c r="M93" s="1">
-        <v>320</v>
-      </c>
       <c r="V93" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:22">
@@ -13055,27 +13135,9 @@
       <c r="G94" s="1">
         <v>64</v>
       </c>
-      <c r="H94" s="1">
-        <v>307036</v>
-      </c>
-      <c r="I94" s="1">
-        <v>320</v>
-      </c>
-      <c r="J94" s="1">
-        <v>307037</v>
-      </c>
-      <c r="K94" s="1">
-        <v>320</v>
-      </c>
-      <c r="L94" s="1">
-        <v>307038</v>
-      </c>
-      <c r="M94" s="1">
-        <v>320</v>
-      </c>
       <c r="V94" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:22">
@@ -13364,15 +13426,9 @@
       <c r="K103" s="1">
         <v>75</v>
       </c>
-      <c r="L103" s="1">
-        <v>305038</v>
-      </c>
-      <c r="M103" s="1">
-        <v>500</v>
-      </c>
       <c r="V103" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:22">
@@ -13409,15 +13465,9 @@
       <c r="K104" s="1">
         <v>75</v>
       </c>
-      <c r="L104" s="1">
-        <v>305039</v>
-      </c>
-      <c r="M104" s="1">
-        <v>500</v>
-      </c>
       <c r="V104" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:22">
@@ -13454,15 +13504,9 @@
       <c r="K105" s="1">
         <v>75</v>
       </c>
-      <c r="L105" s="1">
-        <v>305040</v>
-      </c>
-      <c r="M105" s="1">
-        <v>500</v>
-      </c>
       <c r="V105" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:22">
@@ -13487,27 +13531,22 @@
       <c r="G106" s="1">
         <v>75</v>
       </c>
-      <c r="H106" s="1">
-        <v>306040</v>
+      <c r="H106" s="2">
+        <v>310005</v>
       </c>
       <c r="I106" s="1">
+        <v>75</v>
+      </c>
+      <c r="J106" s="2">
+        <v>310011</v>
+      </c>
+      <c r="K106" s="1">
         <v>500</v>
       </c>
-      <c r="J106" s="2">
-        <v>310005</v>
-      </c>
-      <c r="K106" s="1">
-        <v>75</v>
-      </c>
-      <c r="L106" s="2">
-        <v>310011</v>
-      </c>
-      <c r="M106" s="1">
-        <v>500</v>
-      </c>
+      <c r="L106" s="2"/>
       <c r="V106" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:22">
@@ -13532,27 +13571,22 @@
       <c r="G107" s="1">
         <v>75</v>
       </c>
-      <c r="H107" s="1">
-        <v>306041</v>
+      <c r="H107" s="2">
+        <v>310006</v>
       </c>
       <c r="I107" s="1">
+        <v>75</v>
+      </c>
+      <c r="J107" s="2">
+        <v>310012</v>
+      </c>
+      <c r="K107" s="1">
         <v>500</v>
       </c>
-      <c r="J107" s="2">
-        <v>310006</v>
-      </c>
-      <c r="K107" s="1">
-        <v>75</v>
-      </c>
-      <c r="L107" s="2">
-        <v>310012</v>
-      </c>
-      <c r="M107" s="1">
-        <v>500</v>
-      </c>
+      <c r="L107" s="2"/>
       <c r="V107" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108" spans="1:22">
@@ -13577,27 +13611,22 @@
       <c r="G108" s="1">
         <v>75</v>
       </c>
-      <c r="H108" s="1">
-        <v>306042</v>
+      <c r="H108" s="2">
+        <v>310007</v>
       </c>
       <c r="I108" s="1">
+        <v>75</v>
+      </c>
+      <c r="J108" s="2">
+        <v>310013</v>
+      </c>
+      <c r="K108" s="1">
         <v>500</v>
       </c>
-      <c r="J108" s="2">
-        <v>310007</v>
-      </c>
-      <c r="K108" s="1">
-        <v>75</v>
-      </c>
-      <c r="L108" s="2">
-        <v>310013</v>
-      </c>
-      <c r="M108" s="1">
-        <v>500</v>
-      </c>
+      <c r="L108" s="2"/>
       <c r="V108" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:22">
@@ -14285,27 +14314,9 @@
       <c r="G128" s="1">
         <v>100</v>
       </c>
-      <c r="H128" s="1">
-        <v>304023</v>
-      </c>
-      <c r="I128" s="1">
-        <v>750</v>
-      </c>
-      <c r="J128" s="1">
-        <v>304024</v>
-      </c>
-      <c r="K128" s="1">
-        <v>750</v>
-      </c>
-      <c r="L128" s="1">
-        <v>304025</v>
-      </c>
-      <c r="M128" s="1">
-        <v>750</v>
-      </c>
       <c r="V128" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:22">
@@ -14420,27 +14431,9 @@
       <c r="G131" s="1">
         <v>100</v>
       </c>
-      <c r="H131" s="1">
-        <v>305044</v>
-      </c>
-      <c r="I131" s="1">
-        <v>750</v>
-      </c>
-      <c r="J131" s="1">
-        <v>305045</v>
-      </c>
-      <c r="K131" s="1">
-        <v>750</v>
-      </c>
-      <c r="L131" s="1">
-        <v>305046</v>
-      </c>
-      <c r="M131" s="1">
-        <v>750</v>
-      </c>
       <c r="V131" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132" spans="1:22">
@@ -14465,27 +14458,9 @@
       <c r="G132" s="1">
         <v>100</v>
       </c>
-      <c r="H132" s="1">
-        <v>306046</v>
-      </c>
-      <c r="I132" s="1">
-        <v>750</v>
-      </c>
-      <c r="J132" s="1">
-        <v>306047</v>
-      </c>
-      <c r="K132" s="1">
-        <v>750</v>
-      </c>
-      <c r="L132" s="1">
-        <v>306048</v>
-      </c>
-      <c r="M132" s="1">
-        <v>750</v>
-      </c>
       <c r="V132" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:22">
@@ -14510,27 +14485,12 @@
       <c r="G133" s="1">
         <v>100</v>
       </c>
-      <c r="H133" s="5">
-        <v>307045</v>
-      </c>
-      <c r="I133" s="1">
-        <v>750</v>
-      </c>
-      <c r="J133" s="5">
-        <v>307046</v>
-      </c>
-      <c r="K133" s="1">
-        <v>750</v>
-      </c>
-      <c r="L133" s="5">
-        <v>307047</v>
-      </c>
-      <c r="M133" s="1">
-        <v>750</v>
-      </c>
+      <c r="H133" s="5"/>
+      <c r="J133" s="5"/>
+      <c r="L133" s="5"/>
       <c r="V133" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:22">
@@ -15206,27 +15166,9 @@
       <c r="C149" s="1">
         <v>32</v>
       </c>
-      <c r="D149" s="1">
-        <v>305050</v>
-      </c>
-      <c r="E149" s="1">
-        <v>750</v>
-      </c>
-      <c r="F149" s="1">
-        <v>306052</v>
-      </c>
-      <c r="G149" s="1">
-        <v>750</v>
-      </c>
-      <c r="H149" s="1">
-        <v>304029</v>
-      </c>
-      <c r="I149" s="1">
-        <v>750</v>
-      </c>
       <c r="V149" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:22">
@@ -15239,27 +15181,9 @@
       <c r="C150" s="1">
         <v>32</v>
       </c>
-      <c r="D150" s="1">
-        <v>305051</v>
-      </c>
-      <c r="E150" s="1">
-        <v>750</v>
-      </c>
-      <c r="F150" s="1">
-        <v>306053</v>
-      </c>
-      <c r="G150" s="1">
-        <v>750</v>
-      </c>
-      <c r="H150" s="1">
-        <v>304030</v>
-      </c>
-      <c r="I150" s="1">
-        <v>750</v>
-      </c>
       <c r="V150" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:22">
@@ -15272,27 +15196,9 @@
       <c r="C151" s="1">
         <v>32</v>
       </c>
-      <c r="D151" s="1">
-        <v>305052</v>
-      </c>
-      <c r="E151" s="1">
-        <v>750</v>
-      </c>
-      <c r="F151" s="1">
-        <v>306054</v>
-      </c>
-      <c r="G151" s="1">
-        <v>750</v>
-      </c>
-      <c r="H151" s="1">
-        <v>304031</v>
-      </c>
-      <c r="I151" s="1">
-        <v>750</v>
-      </c>
       <c r="V151" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:22">
@@ -15306,19 +15212,19 @@
         <v>32</v>
       </c>
       <c r="D152" s="1">
-        <v>307051</v>
+        <v>310023</v>
       </c>
       <c r="E152" s="1">
         <v>750</v>
       </c>
       <c r="F152" s="1">
-        <v>307052</v>
+        <v>310024</v>
       </c>
       <c r="G152" s="1">
         <v>750</v>
       </c>
       <c r="H152" s="1">
-        <v>307053</v>
+        <v>310025</v>
       </c>
       <c r="I152" s="1">
         <v>750</v>
@@ -15356,27 +15262,9 @@
       <c r="I153" s="1">
         <v>750</v>
       </c>
-      <c r="J153" s="1">
-        <v>310023</v>
-      </c>
-      <c r="K153" s="1">
-        <v>750</v>
-      </c>
-      <c r="L153" s="1">
-        <v>310024</v>
-      </c>
-      <c r="M153" s="1">
-        <v>750</v>
-      </c>
-      <c r="N153" s="1">
-        <v>310025</v>
-      </c>
-      <c r="O153" s="1">
-        <v>750</v>
-      </c>
       <c r="V153" s="1">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="154" spans="1:22">
@@ -15975,26 +15863,14 @@
         <v>32</v>
       </c>
       <c r="F165" s="1">
-        <v>304035</v>
+        <v>308021</v>
       </c>
       <c r="G165" s="1">
         <v>1000</v>
       </c>
-      <c r="H165" s="1">
-        <v>305056</v>
-      </c>
-      <c r="I165" s="1">
-        <v>1000</v>
-      </c>
-      <c r="J165" s="1">
-        <v>306058</v>
-      </c>
-      <c r="K165" s="1">
-        <v>1000</v>
-      </c>
       <c r="V165" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166" spans="1:22">
@@ -16014,26 +15890,14 @@
         <v>32</v>
       </c>
       <c r="F166" s="1">
-        <v>308021</v>
+        <v>309029</v>
       </c>
       <c r="G166" s="1">
         <v>1000</v>
       </c>
-      <c r="H166" s="1">
-        <v>309029</v>
-      </c>
-      <c r="I166" s="1">
-        <v>1000</v>
-      </c>
-      <c r="J166" s="1">
-        <v>310029</v>
-      </c>
-      <c r="K166" s="1">
-        <v>1000</v>
-      </c>
       <c r="V166" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="167" spans="1:22">
@@ -16041,32 +15905,26 @@
         <v>11032</v>
       </c>
       <c r="B167" s="1">
-        <v>203006</v>
+        <v>201016</v>
       </c>
       <c r="C167" s="1">
         <v>32</v>
       </c>
       <c r="D167" s="1">
-        <v>203007</v>
+        <v>201006</v>
       </c>
       <c r="E167" s="1">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F167" s="1">
-        <v>203008</v>
+        <v>310029</v>
       </c>
       <c r="G167" s="1">
-        <v>75</v>
-      </c>
-      <c r="H167" s="1">
-        <v>307057</v>
-      </c>
-      <c r="I167" s="1">
         <v>1000</v>
       </c>
       <c r="V167" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168" spans="1:22">
@@ -16521,25 +16379,25 @@
         <v>301020</v>
       </c>
       <c r="G184" s="1">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="H184" s="1">
         <v>301004</v>
       </c>
       <c r="I184" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="J184" s="2">
         <v>308001</v>
       </c>
       <c r="K184" s="1">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="L184" s="2">
         <v>308002</v>
       </c>
       <c r="M184" s="1">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="V184" s="1">
         <f t="shared" si="1"/>
@@ -16568,22 +16426,12 @@
       <c r="G185" s="1">
         <v>100</v>
       </c>
-      <c r="H185" s="2">
-        <v>308001</v>
-      </c>
-      <c r="I185" s="1">
-        <v>75</v>
-      </c>
-      <c r="J185" s="2">
-        <v>308002</v>
-      </c>
-      <c r="K185" s="1">
-        <v>150</v>
-      </c>
+      <c r="H185" s="2"/>
+      <c r="J185" s="2"/>
       <c r="L185" s="2"/>
       <c r="V185" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="186" spans="1:22">
@@ -16594,31 +16442,31 @@
         <v>301010</v>
       </c>
       <c r="C186" s="1">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="D186" s="1">
         <v>301011</v>
       </c>
       <c r="E186" s="1">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F186" s="1">
         <v>301016</v>
       </c>
       <c r="G186" s="1">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="H186" s="2">
         <v>311001</v>
       </c>
       <c r="I186" s="1">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="J186" s="2">
         <v>311002</v>
       </c>
       <c r="K186" s="1">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="V186" s="1">
         <f t="shared" si="1"/>
@@ -16665,9 +16513,15 @@
       <c r="M187" s="1">
         <v>64</v>
       </c>
+      <c r="N187" s="1">
+        <v>220030</v>
+      </c>
+      <c r="O187" s="1">
+        <v>64</v>
+      </c>
       <c r="V187" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="188" spans="1:22">
@@ -16678,37 +16532,37 @@
         <v>301019</v>
       </c>
       <c r="C188" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="D188" s="1">
         <v>301021</v>
       </c>
       <c r="E188" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="F188" s="1">
         <v>301024</v>
       </c>
       <c r="G188" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="H188" s="1">
         <v>305020</v>
       </c>
       <c r="I188" s="1">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="J188" s="1">
         <v>305021</v>
       </c>
       <c r="K188" s="1">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="L188" s="1">
         <v>305022</v>
       </c>
       <c r="M188" s="1">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="N188" s="2"/>
       <c r="P188" s="2"/>
@@ -16731,37 +16585,37 @@
         <v>301022</v>
       </c>
       <c r="E189" s="1">
-        <v>150</v>
+        <v>64</v>
       </c>
       <c r="F189" s="2">
         <v>306021</v>
       </c>
       <c r="G189" s="1">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="H189" s="2">
         <v>306022</v>
       </c>
       <c r="I189" s="1">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="J189" s="2">
         <v>307014</v>
       </c>
       <c r="K189" s="1">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="L189" s="2">
         <v>307016</v>
       </c>
       <c r="M189" s="1">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="N189" s="2">
         <v>307018</v>
       </c>
       <c r="O189" s="1">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="V189" s="1">
         <f t="shared" si="1"/>
@@ -16776,41 +16630,53 @@
         <v>301010</v>
       </c>
       <c r="C190" s="1">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="D190" s="1">
         <v>301011</v>
       </c>
       <c r="E190" s="1">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F190" s="1">
         <v>301016</v>
       </c>
       <c r="G190" s="1">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="H190" s="1">
         <v>301009</v>
       </c>
       <c r="I190" s="1">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="J190" s="1">
         <v>301014</v>
       </c>
       <c r="K190" s="1">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="L190" s="1">
         <v>301020</v>
       </c>
       <c r="M190" s="1">
-        <v>40</v>
+        <v>8</v>
+      </c>
+      <c r="N190" s="2">
+        <v>308001</v>
+      </c>
+      <c r="O190" s="1">
+        <v>50</v>
+      </c>
+      <c r="P190" s="2">
+        <v>308002</v>
+      </c>
+      <c r="Q190" s="1">
+        <v>75</v>
       </c>
       <c r="V190" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="191" spans="1:22">
@@ -16835,21 +16701,11 @@
       <c r="G191" s="1">
         <v>100</v>
       </c>
-      <c r="H191" s="2">
-        <v>308001</v>
-      </c>
-      <c r="I191" s="1">
-        <v>75</v>
-      </c>
-      <c r="J191" s="2">
-        <v>308002</v>
-      </c>
-      <c r="K191" s="1">
-        <v>150</v>
-      </c>
+      <c r="H191" s="2"/>
+      <c r="J191" s="2"/>
       <c r="V191" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="192" spans="1:22">
@@ -16878,25 +16734,25 @@
         <v>308001</v>
       </c>
       <c r="I192" s="1">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="J192" s="2">
         <v>308002</v>
       </c>
       <c r="K192" s="1">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="L192" s="2">
         <v>311001</v>
       </c>
       <c r="M192" s="1">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="N192" s="2">
         <v>311002</v>
       </c>
       <c r="O192" s="1">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="V192" s="1">
         <f t="shared" si="1"/>
@@ -16911,37 +16767,37 @@
         <v>301019</v>
       </c>
       <c r="C193" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="D193" s="1">
         <v>301021</v>
       </c>
       <c r="E193" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="F193" s="1">
         <v>301024</v>
       </c>
       <c r="G193" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="H193" s="1">
         <v>305020</v>
       </c>
       <c r="I193" s="1">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="J193" s="1">
         <v>305021</v>
       </c>
       <c r="K193" s="1">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="L193" s="1">
         <v>305022</v>
       </c>
       <c r="M193" s="1">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="V193" s="1">
         <f t="shared" si="1"/>
@@ -16968,31 +16824,31 @@
         <v>306021</v>
       </c>
       <c r="G194" s="1">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="H194" s="2">
         <v>306022</v>
       </c>
       <c r="I194" s="1">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="J194" s="2">
         <v>307018</v>
       </c>
       <c r="K194" s="1">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="L194" s="2">
         <v>307014</v>
       </c>
       <c r="M194" s="1">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="N194" s="2">
         <v>307016</v>
       </c>
       <c r="O194" s="1">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="V194" s="1">
         <f t="shared" si="1"/>
@@ -17007,7 +16863,7 @@
         <v>301019</v>
       </c>
       <c r="C195" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="D195" s="1">
         <v>305057</v>
@@ -17031,19 +16887,19 @@
         <v>305020</v>
       </c>
       <c r="K195" s="1">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="L195" s="2">
         <v>307018</v>
       </c>
       <c r="M195" s="1">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="N195" s="2">
         <v>306021</v>
       </c>
       <c r="O195" s="1">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="V195" s="1">
         <f t="shared" si="1"/>
@@ -17058,7 +16914,7 @@
         <v>301021</v>
       </c>
       <c r="C196" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="D196" s="1">
         <v>305016</v>
@@ -17070,23 +16926,35 @@
         <v>305021</v>
       </c>
       <c r="G196" s="1">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="H196" s="2">
-        <v>307014</v>
+        <v>306021</v>
       </c>
       <c r="I196" s="1">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="J196" s="2">
         <v>306022</v>
       </c>
       <c r="K196" s="1">
-        <v>64</v>
+        <v>16</v>
+      </c>
+      <c r="L196" s="2">
+        <v>307014</v>
+      </c>
+      <c r="M196" s="1">
+        <v>16</v>
+      </c>
+      <c r="N196" s="2">
+        <v>307018</v>
+      </c>
+      <c r="O196" s="1">
+        <v>16</v>
       </c>
       <c r="V196" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="197" spans="1:22">
@@ -17097,7 +16965,7 @@
         <v>301024</v>
       </c>
       <c r="C197" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="D197" s="1">
         <v>301022</v>
@@ -17115,17 +16983,23 @@
         <v>305022</v>
       </c>
       <c r="I197" s="1">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="J197" s="2">
+        <v>305020</v>
+      </c>
+      <c r="K197" s="1">
+        <v>16</v>
+      </c>
+      <c r="L197" s="1">
         <v>307016</v>
       </c>
-      <c r="K197" s="1">
-        <v>64</v>
+      <c r="M197" s="1">
+        <v>16</v>
       </c>
       <c r="V197" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="198" spans="1:22">
@@ -17148,25 +17022,25 @@
         <v>301026</v>
       </c>
       <c r="G198" s="1">
-        <v>150</v>
+        <v>64</v>
       </c>
       <c r="H198" s="1">
         <v>301029</v>
       </c>
       <c r="I198" s="1">
-        <v>150</v>
+        <v>64</v>
       </c>
       <c r="J198" s="1">
         <v>301030</v>
       </c>
       <c r="K198" s="1">
-        <v>150</v>
+        <v>64</v>
       </c>
       <c r="L198" s="1">
         <v>304007</v>
       </c>
       <c r="M198" s="1">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="V198" s="1">
         <f t="shared" si="1"/>
@@ -17181,55 +17055,55 @@
         <v>301026</v>
       </c>
       <c r="C199" s="1">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="D199" s="1">
         <v>301029</v>
       </c>
       <c r="E199" s="1">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="F199" s="1">
         <v>301030</v>
       </c>
       <c r="G199" s="1">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="H199" s="1">
         <v>304008</v>
       </c>
       <c r="I199" s="1">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="J199" s="1">
         <v>304009</v>
       </c>
       <c r="K199" s="1">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="L199" s="1">
         <v>304010</v>
       </c>
       <c r="M199" s="1">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="N199" s="2">
         <v>306028</v>
       </c>
       <c r="O199" s="1">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="P199" s="2">
         <v>306029</v>
       </c>
       <c r="Q199" s="1">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="R199" s="2">
         <v>306030</v>
       </c>
       <c r="S199" s="1">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="V199" s="1">
         <f t="shared" si="1"/>
@@ -17244,19 +17118,19 @@
         <v>301026</v>
       </c>
       <c r="C200" s="1">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="D200" s="1">
         <v>301029</v>
       </c>
       <c r="E200" s="1">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="F200" s="1">
         <v>301030</v>
       </c>
       <c r="G200" s="1">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="H200" s="1">
         <v>301025</v>
@@ -17268,19 +17142,19 @@
         <v>305026</v>
       </c>
       <c r="K200" s="1">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="L200" s="1">
         <v>305027</v>
       </c>
       <c r="M200" s="1">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="N200" s="1">
         <v>305028</v>
       </c>
       <c r="O200" s="1">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="P200" s="2"/>
       <c r="V200" s="1">
@@ -17308,19 +17182,19 @@
         <v>307027</v>
       </c>
       <c r="G201" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H201" s="2">
         <v>307028</v>
       </c>
       <c r="I201" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="J201" s="2">
         <v>307029</v>
       </c>
       <c r="K201" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="L201" s="2"/>
       <c r="N201" s="2"/>
@@ -17570,47 +17444,42 @@
         <v>301026</v>
       </c>
       <c r="E207" s="1">
-        <v>150</v>
+        <v>8</v>
       </c>
       <c r="F207" s="2">
         <v>301029</v>
       </c>
       <c r="G207" s="1">
-        <v>150</v>
+        <v>8</v>
       </c>
       <c r="H207" s="2">
         <v>301030</v>
       </c>
       <c r="I207" s="1">
-        <v>150</v>
+        <v>8</v>
       </c>
       <c r="J207" s="2">
         <v>307022</v>
       </c>
       <c r="K207" s="1">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="L207" s="2">
         <v>307023</v>
       </c>
       <c r="M207" s="1">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="N207" s="2">
         <v>307024</v>
       </c>
       <c r="O207" s="1">
-        <v>64</v>
-      </c>
-      <c r="P207" s="2">
-        <v>307019</v>
-      </c>
-      <c r="Q207" s="1">
-        <v>300</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="P207" s="2"/>
       <c r="V207" s="1">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="208" spans="1:22">
@@ -17705,49 +17574,49 @@
         <v>305029</v>
       </c>
       <c r="C210" s="1">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="D210" s="2">
         <v>305033</v>
       </c>
       <c r="E210" s="1">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="F210" s="2">
         <v>306031</v>
       </c>
       <c r="G210" s="1">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H210" s="2">
         <v>306036</v>
       </c>
       <c r="I210" s="1">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="J210" s="5">
         <v>307031</v>
       </c>
       <c r="K210" s="1">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L210" s="5">
         <v>307035</v>
       </c>
       <c r="M210" s="1">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="N210" s="2">
         <v>309006</v>
       </c>
       <c r="O210" s="1">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="P210" s="2">
         <v>310005</v>
       </c>
       <c r="Q210" s="1">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="R210" s="2"/>
       <c r="T210" s="3"/>
@@ -17764,49 +17633,49 @@
         <v>305030</v>
       </c>
       <c r="C211" s="1">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="D211" s="2">
         <v>305034</v>
       </c>
       <c r="E211" s="1">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="F211" s="2">
         <v>306032</v>
       </c>
       <c r="G211" s="1">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H211" s="2">
         <v>306034</v>
       </c>
       <c r="I211" s="1">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="J211" s="5">
         <v>307032</v>
       </c>
       <c r="K211" s="1">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L211" s="5">
         <v>307033</v>
       </c>
       <c r="M211" s="1">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="N211" s="2">
         <v>309007</v>
       </c>
       <c r="O211" s="1">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="P211" s="2">
         <v>310006</v>
       </c>
       <c r="Q211" s="1">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="R211" s="2"/>
       <c r="T211" s="3"/>
@@ -17823,49 +17692,49 @@
         <v>305031</v>
       </c>
       <c r="C212" s="1">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="D212" s="2">
         <v>305032</v>
       </c>
       <c r="E212" s="1">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="F212" s="2">
         <v>306033</v>
       </c>
       <c r="G212" s="1">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H212" s="2">
         <v>306035</v>
       </c>
       <c r="I212" s="1">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="J212" s="5">
         <v>307030</v>
       </c>
       <c r="K212" s="1">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L212" s="5">
         <v>307034</v>
       </c>
       <c r="M212" s="1">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="N212" s="2">
         <v>309005</v>
       </c>
       <c r="O212" s="1">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="P212" s="2">
         <v>310007</v>
       </c>
       <c r="Q212" s="1">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="V212" s="1">
         <f t="shared" si="1"/>
@@ -17880,55 +17749,55 @@
         <v>301037</v>
       </c>
       <c r="C213" s="1">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D213" s="2">
         <v>301038</v>
       </c>
       <c r="E213" s="1">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="F213" s="2">
         <v>301039</v>
       </c>
       <c r="G213" s="1">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="H213" s="2">
         <v>302013</v>
       </c>
       <c r="I213" s="1">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="J213" s="2">
         <v>302014</v>
       </c>
       <c r="K213" s="1">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L213" s="2">
         <v>302015</v>
       </c>
       <c r="M213" s="1">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="N213" s="2">
         <v>303013</v>
       </c>
       <c r="O213" s="1">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="P213" s="2">
         <v>303014</v>
       </c>
       <c r="Q213" s="1">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="R213" s="2">
         <v>303015</v>
       </c>
       <c r="S213" s="1">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="V213" s="1">
         <f t="shared" si="1"/>
@@ -17955,19 +17824,19 @@
         <v>304011</v>
       </c>
       <c r="G214" s="1">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="H214" s="2">
         <v>304012</v>
       </c>
       <c r="I214" s="1">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="J214" s="2">
         <v>304013</v>
       </c>
       <c r="K214" s="1">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="L214" s="2">
         <v>308005</v>
@@ -17991,39 +17860,50 @@
         <v>20032</v>
       </c>
       <c r="B215" s="2">
+        <v>201003</v>
+      </c>
+      <c r="C215" s="1">
+        <v>8</v>
+      </c>
+      <c r="D215" s="2">
+        <v>201003</v>
+      </c>
+      <c r="E215" s="1">
+        <v>8</v>
+      </c>
+      <c r="F215" s="2">
+        <v>201013</v>
+      </c>
+      <c r="G215" s="1">
+        <v>8</v>
+      </c>
+      <c r="H215" s="2">
+        <v>201013</v>
+      </c>
+      <c r="I215" s="1">
+        <v>8</v>
+      </c>
+      <c r="J215" s="2">
         <v>302010</v>
       </c>
-      <c r="C215" s="1">
+      <c r="K215" s="1">
         <v>32</v>
       </c>
-      <c r="D215" s="2">
-        <v>301026</v>
-      </c>
-      <c r="E215" s="1">
-        <v>150</v>
-      </c>
-      <c r="F215" s="2">
-        <v>301029</v>
-      </c>
-      <c r="G215" s="1">
-        <v>150</v>
-      </c>
-      <c r="H215" s="2">
+      <c r="L215" s="2">
         <v>308004</v>
       </c>
-      <c r="I215" s="1">
+      <c r="M215" s="1">
         <v>75</v>
       </c>
-      <c r="J215" s="2">
+      <c r="N215" s="2">
         <v>311004</v>
       </c>
-      <c r="K215" s="1">
+      <c r="O215" s="1">
         <v>75</v>
       </c>
-      <c r="L215" s="2"/>
       <c r="V215" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="216" spans="1:22">
@@ -18031,39 +17911,50 @@
         <v>20033</v>
       </c>
       <c r="B216" s="2">
+        <v>201003</v>
+      </c>
+      <c r="C216" s="1">
+        <v>8</v>
+      </c>
+      <c r="D216" s="2">
+        <v>201003</v>
+      </c>
+      <c r="E216" s="1">
+        <v>8</v>
+      </c>
+      <c r="F216" s="2">
+        <v>201013</v>
+      </c>
+      <c r="G216" s="1">
+        <v>8</v>
+      </c>
+      <c r="H216" s="2">
+        <v>201013</v>
+      </c>
+      <c r="I216" s="1">
+        <v>8</v>
+      </c>
+      <c r="J216" s="2">
         <v>303010</v>
       </c>
-      <c r="C216" s="1">
+      <c r="K216" s="1">
         <v>32</v>
       </c>
-      <c r="D216" s="2">
-        <v>301030</v>
-      </c>
-      <c r="E216" s="1">
-        <v>150</v>
-      </c>
-      <c r="F216" s="2">
-        <v>301026</v>
-      </c>
-      <c r="G216" s="1">
-        <v>150</v>
-      </c>
-      <c r="H216" s="2">
+      <c r="L216" s="2">
         <v>308004</v>
       </c>
-      <c r="I216" s="1">
+      <c r="M216" s="1">
         <v>75</v>
       </c>
-      <c r="J216" s="2">
+      <c r="N216" s="2">
         <v>311004</v>
       </c>
-      <c r="K216" s="1">
+      <c r="O216" s="1">
         <v>75</v>
       </c>
-      <c r="L216" s="2"/>
       <c r="V216" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="217" spans="1:22">
@@ -18071,39 +17962,50 @@
         <v>20034</v>
       </c>
       <c r="B217" s="2">
+        <v>201003</v>
+      </c>
+      <c r="C217" s="1">
+        <v>8</v>
+      </c>
+      <c r="D217" s="2">
+        <v>201003</v>
+      </c>
+      <c r="E217" s="1">
+        <v>8</v>
+      </c>
+      <c r="F217" s="2">
+        <v>201013</v>
+      </c>
+      <c r="G217" s="1">
+        <v>8</v>
+      </c>
+      <c r="H217" s="2">
+        <v>201013</v>
+      </c>
+      <c r="I217" s="1">
+        <v>8</v>
+      </c>
+      <c r="J217" s="2">
         <v>302012</v>
       </c>
-      <c r="C217" s="1">
+      <c r="K217" s="1">
         <v>32</v>
       </c>
-      <c r="D217" s="2">
-        <v>301029</v>
-      </c>
-      <c r="E217" s="1">
-        <v>150</v>
-      </c>
-      <c r="F217" s="2">
-        <v>301030</v>
-      </c>
-      <c r="G217" s="1">
-        <v>150</v>
-      </c>
-      <c r="H217" s="2">
+      <c r="L217" s="2">
         <v>308004</v>
       </c>
-      <c r="I217" s="1">
+      <c r="M217" s="1">
         <v>75</v>
       </c>
-      <c r="J217" s="2">
+      <c r="N217" s="2">
         <v>311004</v>
       </c>
-      <c r="K217" s="1">
+      <c r="O217" s="1">
         <v>75</v>
       </c>
-      <c r="L217" s="2"/>
       <c r="V217" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="218" spans="1:22">
@@ -18111,39 +18013,50 @@
         <v>20035</v>
       </c>
       <c r="B218" s="2">
+        <v>201003</v>
+      </c>
+      <c r="C218" s="1">
+        <v>8</v>
+      </c>
+      <c r="D218" s="2">
+        <v>201003</v>
+      </c>
+      <c r="E218" s="1">
+        <v>8</v>
+      </c>
+      <c r="F218" s="2">
+        <v>201013</v>
+      </c>
+      <c r="G218" s="1">
+        <v>8</v>
+      </c>
+      <c r="H218" s="2">
+        <v>201013</v>
+      </c>
+      <c r="I218" s="1">
+        <v>8</v>
+      </c>
+      <c r="J218" s="2">
         <v>303012</v>
       </c>
-      <c r="C218" s="1">
+      <c r="K218" s="1">
         <v>32</v>
       </c>
-      <c r="D218" s="2">
-        <v>301030</v>
-      </c>
-      <c r="E218" s="1">
-        <v>150</v>
-      </c>
-      <c r="F218" s="2">
-        <v>301026</v>
-      </c>
-      <c r="G218" s="1">
-        <v>150</v>
-      </c>
-      <c r="H218" s="2">
+      <c r="L218" s="2">
         <v>308004</v>
       </c>
-      <c r="I218" s="1">
+      <c r="M218" s="1">
         <v>75</v>
       </c>
-      <c r="J218" s="2">
+      <c r="N218" s="2">
         <v>311004</v>
       </c>
-      <c r="K218" s="1">
+      <c r="O218" s="1">
         <v>75</v>
       </c>
-      <c r="L218" s="2"/>
       <c r="V218" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="219" spans="1:22">
@@ -18151,39 +18064,50 @@
         <v>20036</v>
       </c>
       <c r="B219" s="2">
+        <v>201003</v>
+      </c>
+      <c r="C219" s="1">
+        <v>8</v>
+      </c>
+      <c r="D219" s="2">
+        <v>201003</v>
+      </c>
+      <c r="E219" s="1">
+        <v>8</v>
+      </c>
+      <c r="F219" s="2">
+        <v>201013</v>
+      </c>
+      <c r="G219" s="1">
+        <v>8</v>
+      </c>
+      <c r="H219" s="2">
+        <v>201013</v>
+      </c>
+      <c r="I219" s="1">
+        <v>8</v>
+      </c>
+      <c r="J219" s="2">
         <v>302011</v>
       </c>
-      <c r="C219" s="1">
+      <c r="K219" s="1">
         <v>32</v>
       </c>
-      <c r="D219" s="2">
-        <v>301029</v>
-      </c>
-      <c r="E219" s="1">
-        <v>150</v>
-      </c>
-      <c r="F219" s="2">
-        <v>301026</v>
-      </c>
-      <c r="G219" s="1">
-        <v>150</v>
-      </c>
-      <c r="H219" s="2">
+      <c r="L219" s="2">
         <v>308004</v>
       </c>
-      <c r="I219" s="1">
+      <c r="M219" s="1">
         <v>75</v>
       </c>
-      <c r="J219" s="2">
+      <c r="N219" s="2">
         <v>311004</v>
       </c>
-      <c r="K219" s="1">
+      <c r="O219" s="1">
         <v>75</v>
       </c>
-      <c r="L219" s="2"/>
       <c r="V219" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="220" spans="1:22">
@@ -18191,39 +18115,50 @@
         <v>20037</v>
       </c>
       <c r="B220" s="2">
+        <v>201003</v>
+      </c>
+      <c r="C220" s="1">
+        <v>8</v>
+      </c>
+      <c r="D220" s="2">
+        <v>201003</v>
+      </c>
+      <c r="E220" s="1">
+        <v>8</v>
+      </c>
+      <c r="F220" s="2">
+        <v>201013</v>
+      </c>
+      <c r="G220" s="1">
+        <v>8</v>
+      </c>
+      <c r="H220" s="2">
+        <v>201013</v>
+      </c>
+      <c r="I220" s="1">
+        <v>8</v>
+      </c>
+      <c r="J220" s="2">
         <v>303011</v>
       </c>
-      <c r="C220" s="1">
+      <c r="K220" s="1">
         <v>32</v>
       </c>
-      <c r="D220" s="2">
-        <v>301029</v>
-      </c>
-      <c r="E220" s="1">
-        <v>150</v>
-      </c>
-      <c r="F220" s="2">
-        <v>301030</v>
-      </c>
-      <c r="G220" s="1">
-        <v>150</v>
-      </c>
-      <c r="H220" s="2">
+      <c r="L220" s="2">
         <v>308004</v>
       </c>
-      <c r="I220" s="1">
+      <c r="M220" s="1">
         <v>75</v>
       </c>
-      <c r="J220" s="2">
+      <c r="N220" s="2">
         <v>311004</v>
       </c>
-      <c r="K220" s="1">
+      <c r="O220" s="1">
         <v>75</v>
       </c>
-      <c r="L220" s="2"/>
       <c r="V220" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="221" spans="1:22">
@@ -18234,37 +18169,37 @@
         <v>302010</v>
       </c>
       <c r="C221" s="1">
-        <v>150</v>
+        <v>32</v>
       </c>
       <c r="D221" s="2">
         <v>303010</v>
       </c>
       <c r="E221" s="1">
-        <v>150</v>
+        <v>32</v>
       </c>
       <c r="F221" s="2">
         <v>302011</v>
       </c>
       <c r="G221" s="1">
-        <v>150</v>
+        <v>32</v>
       </c>
       <c r="H221" s="2">
         <v>303011</v>
       </c>
       <c r="I221" s="1">
-        <v>150</v>
+        <v>32</v>
       </c>
       <c r="J221" s="2">
         <v>302012</v>
       </c>
       <c r="K221" s="1">
-        <v>150</v>
+        <v>32</v>
       </c>
       <c r="L221" s="2">
         <v>303012</v>
       </c>
       <c r="M221" s="1">
-        <v>150</v>
+        <v>32</v>
       </c>
       <c r="V221" s="1">
         <f t="shared" ref="V221:V239" si="2">COUNT(B221:U221)/2</f>
@@ -18275,45 +18210,63 @@
       <c r="A222" s="1">
         <v>20039</v>
       </c>
-      <c r="B222" s="2">
-        <v>301037</v>
+      <c r="B222" s="1">
+        <v>305035</v>
       </c>
       <c r="C222" s="1">
-        <v>300</v>
-      </c>
-      <c r="D222" s="2">
-        <v>301038</v>
+        <v>100</v>
+      </c>
+      <c r="D222" s="1">
+        <v>305036</v>
       </c>
       <c r="E222" s="1">
-        <v>300</v>
-      </c>
-      <c r="F222" s="2">
-        <v>301039</v>
+        <v>100</v>
+      </c>
+      <c r="F222" s="1">
+        <v>305037</v>
       </c>
       <c r="G222" s="1">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H222" s="1">
+        <v>306037</v>
+      </c>
+      <c r="I222" s="1">
+        <v>100</v>
+      </c>
+      <c r="J222" s="1">
+        <v>306038</v>
+      </c>
+      <c r="K222" s="1">
+        <v>100</v>
+      </c>
+      <c r="L222" s="1">
+        <v>306039</v>
+      </c>
+      <c r="M222" s="1">
+        <v>100</v>
+      </c>
+      <c r="N222" s="1">
         <v>307036</v>
       </c>
-      <c r="I222" s="1">
-        <v>500</v>
-      </c>
-      <c r="J222" s="1">
+      <c r="O222" s="1">
+        <v>100</v>
+      </c>
+      <c r="P222" s="1">
         <v>307037</v>
       </c>
-      <c r="K222" s="1">
-        <v>500</v>
-      </c>
-      <c r="L222" s="1">
+      <c r="Q222" s="1">
+        <v>100</v>
+      </c>
+      <c r="R222" s="1">
         <v>307038</v>
       </c>
-      <c r="M222" s="1">
-        <v>500</v>
+      <c r="S222" s="1">
+        <v>100</v>
       </c>
       <c r="V222" s="1">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="223" spans="1:22">
@@ -18327,46 +18280,46 @@
         <v>150</v>
       </c>
       <c r="D223" s="1">
-        <v>205010</v>
+        <v>220037</v>
       </c>
       <c r="E223" s="1">
-        <v>150</v>
+        <v>800</v>
       </c>
       <c r="F223" s="1">
         <v>302017</v>
       </c>
       <c r="G223" s="1">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H223" s="1">
         <v>302018</v>
       </c>
       <c r="I223" s="1">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J223" s="1">
         <v>302019</v>
       </c>
       <c r="K223" s="1">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L223" s="1">
         <v>303017</v>
       </c>
       <c r="M223" s="1">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N223" s="1">
         <v>303018</v>
       </c>
       <c r="O223" s="1">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="P223" s="1">
         <v>303019</v>
       </c>
       <c r="Q223" s="1">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="V223" s="1">
         <f t="shared" si="2"/>
@@ -18378,44 +18331,68 @@
         <v>20041</v>
       </c>
       <c r="B224" s="2">
-        <v>301037</v>
+        <v>220040</v>
       </c>
       <c r="C224" s="1">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="D224" s="2">
-        <v>301038</v>
+        <v>305038</v>
       </c>
       <c r="E224" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F224" s="2">
-        <v>301039</v>
+        <v>305039</v>
       </c>
       <c r="G224" s="1">
-        <v>200</v>
-      </c>
-      <c r="H224" s="1">
+        <v>100</v>
+      </c>
+      <c r="H224" s="2">
+        <v>305040</v>
+      </c>
+      <c r="I224" s="1">
+        <v>100</v>
+      </c>
+      <c r="J224" s="1">
+        <v>306040</v>
+      </c>
+      <c r="K224" s="1">
+        <v>100</v>
+      </c>
+      <c r="L224" s="1">
+        <v>306041</v>
+      </c>
+      <c r="M224" s="1">
+        <v>100</v>
+      </c>
+      <c r="N224" s="1">
+        <v>306042</v>
+      </c>
+      <c r="O224" s="1">
+        <v>100</v>
+      </c>
+      <c r="P224" s="1">
         <v>307039</v>
       </c>
-      <c r="I224" s="1">
-        <v>150</v>
-      </c>
-      <c r="J224" s="1">
+      <c r="Q224" s="1">
+        <v>100</v>
+      </c>
+      <c r="R224" s="1">
         <v>307040</v>
       </c>
-      <c r="K224" s="1">
-        <v>150</v>
-      </c>
-      <c r="L224" s="1">
+      <c r="S224" s="1">
+        <v>100</v>
+      </c>
+      <c r="T224" s="1">
         <v>307041</v>
       </c>
-      <c r="M224" s="1">
-        <v>150</v>
+      <c r="U224" s="1">
+        <v>100</v>
       </c>
       <c r="V224" s="1">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="225" spans="1:22">
@@ -18492,22 +18469,22 @@
         <v>150</v>
       </c>
       <c r="D226" s="1">
-        <v>301043</v>
+        <v>305044</v>
       </c>
       <c r="E226" s="1">
-        <v>750</v>
+        <v>150</v>
       </c>
       <c r="F226" s="1">
-        <v>301044</v>
+        <v>305045</v>
       </c>
       <c r="G226" s="1">
-        <v>750</v>
+        <v>150</v>
       </c>
       <c r="H226" s="1">
-        <v>301045</v>
+        <v>305046</v>
       </c>
       <c r="I226" s="1">
-        <v>750</v>
+        <v>150</v>
       </c>
       <c r="J226" s="1">
         <v>306046</v>
@@ -18527,9 +18504,27 @@
       <c r="O226" s="1">
         <v>150</v>
       </c>
+      <c r="P226" s="5">
+        <v>307045</v>
+      </c>
+      <c r="Q226" s="1">
+        <v>150</v>
+      </c>
+      <c r="R226" s="5">
+        <v>307046</v>
+      </c>
+      <c r="S226" s="1">
+        <v>150</v>
+      </c>
+      <c r="T226" s="5">
+        <v>307047</v>
+      </c>
+      <c r="U226" s="1">
+        <v>150</v>
+      </c>
       <c r="V226" s="1">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="227" spans="1:22">
@@ -18543,44 +18538,50 @@
         <v>300</v>
       </c>
       <c r="D227" s="1">
+        <v>220039</v>
+      </c>
+      <c r="E227" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F227" s="1">
         <v>301043</v>
-      </c>
-      <c r="E227" s="1">
-        <v>750</v>
-      </c>
-      <c r="F227" s="1">
-        <v>301044</v>
       </c>
       <c r="G227" s="1">
         <v>750</v>
       </c>
       <c r="H227" s="1">
-        <v>301045</v>
+        <v>301044</v>
       </c>
       <c r="I227" s="1">
         <v>750</v>
       </c>
-      <c r="J227" s="5">
-        <v>307045</v>
+      <c r="J227" s="1">
+        <v>301045</v>
       </c>
       <c r="K227" s="1">
-        <v>150</v>
+        <v>750</v>
       </c>
       <c r="L227" s="5">
-        <v>307046</v>
+        <v>304023</v>
       </c>
       <c r="M227" s="1">
         <v>150</v>
       </c>
       <c r="N227" s="5">
-        <v>307047</v>
+        <v>304024</v>
       </c>
       <c r="O227" s="1">
         <v>150</v>
       </c>
+      <c r="P227" s="5">
+        <v>304025</v>
+      </c>
+      <c r="Q227" s="1">
+        <v>150</v>
+      </c>
       <c r="V227" s="1">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="228" spans="1:22">
@@ -18769,58 +18770,58 @@
         <v>21002</v>
       </c>
       <c r="B233" s="1">
-        <v>301040</v>
+        <v>302023</v>
       </c>
       <c r="C233" s="1">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="D233" s="1">
-        <v>301041</v>
+        <v>302024</v>
       </c>
       <c r="E233" s="1">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F233" s="1">
-        <v>301042</v>
+        <v>302025</v>
       </c>
       <c r="G233" s="1">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="H233" s="1">
-        <v>302020</v>
+        <v>305050</v>
       </c>
       <c r="I233" s="1">
         <v>150</v>
       </c>
       <c r="J233" s="1">
-        <v>302021</v>
+        <v>305051</v>
       </c>
       <c r="K233" s="1">
         <v>150</v>
       </c>
       <c r="L233" s="1">
-        <v>302022</v>
+        <v>305052</v>
       </c>
       <c r="M233" s="1">
         <v>150</v>
       </c>
       <c r="N233" s="1">
-        <v>302023</v>
+        <v>306052</v>
       </c>
       <c r="O233" s="1">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="P233" s="1">
-        <v>302024</v>
+        <v>306053</v>
       </c>
       <c r="Q233" s="1">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="R233" s="1">
-        <v>302025</v>
+        <v>306054</v>
       </c>
       <c r="S233" s="1">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="V233" s="1">
         <f t="shared" si="2"/>
@@ -18850,40 +18851,40 @@
         <v>500</v>
       </c>
       <c r="H234" s="1">
-        <v>303020</v>
+        <v>304029</v>
       </c>
       <c r="I234" s="1">
         <v>150</v>
       </c>
       <c r="J234" s="1">
-        <v>303021</v>
+        <v>304030</v>
       </c>
       <c r="K234" s="1">
         <v>150</v>
       </c>
       <c r="L234" s="1">
-        <v>303022</v>
+        <v>304031</v>
       </c>
       <c r="M234" s="1">
         <v>150</v>
       </c>
       <c r="N234" s="1">
-        <v>303023</v>
+        <v>307051</v>
       </c>
       <c r="O234" s="1">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="P234" s="1">
-        <v>303024</v>
+        <v>307052</v>
       </c>
       <c r="Q234" s="1">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="R234" s="1">
-        <v>303025</v>
+        <v>307053</v>
       </c>
       <c r="S234" s="1">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="V234" s="1">
         <f t="shared" si="2"/>
@@ -18901,62 +18902,50 @@
         <v>1000</v>
       </c>
       <c r="D235" s="1">
-        <v>220037</v>
+        <v>301052</v>
       </c>
       <c r="E235" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F235" s="1">
-        <v>220039</v>
+        <v>302026</v>
       </c>
       <c r="G235" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="H235" s="1">
-        <v>301052</v>
+        <v>302027</v>
       </c>
       <c r="I235" s="1">
         <v>500</v>
       </c>
       <c r="J235" s="1">
-        <v>302026</v>
+        <v>302028</v>
       </c>
       <c r="K235" s="1">
         <v>500</v>
       </c>
       <c r="L235" s="1">
-        <v>302027</v>
+        <v>303026</v>
       </c>
       <c r="M235" s="1">
         <v>500</v>
       </c>
       <c r="N235" s="1">
-        <v>302028</v>
+        <v>303027</v>
       </c>
       <c r="O235" s="1">
         <v>500</v>
       </c>
       <c r="P235" s="1">
-        <v>303026</v>
+        <v>303028</v>
       </c>
       <c r="Q235" s="1">
         <v>500</v>
       </c>
-      <c r="R235" s="1">
-        <v>303027</v>
-      </c>
-      <c r="S235" s="1">
-        <v>500</v>
-      </c>
-      <c r="T235" s="1">
-        <v>303028</v>
-      </c>
-      <c r="U235" s="1">
-        <v>500</v>
-      </c>
       <c r="V235" s="1">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="236" spans="1:22">
@@ -18964,62 +18953,68 @@
         <v>21005</v>
       </c>
       <c r="B236" s="1">
-        <v>205010</v>
+        <v>220041</v>
       </c>
       <c r="C236" s="1">
-        <v>75</v>
+        <v>1500</v>
       </c>
       <c r="D236" s="1">
-        <v>301046</v>
+        <v>301053</v>
       </c>
       <c r="E236" s="1">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F236" s="1">
-        <v>301047</v>
+        <v>301054</v>
       </c>
       <c r="G236" s="1">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="H236" s="1">
-        <v>301048</v>
+        <v>301055</v>
       </c>
       <c r="I236" s="1">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="J236" s="1">
-        <v>301053</v>
+        <v>302029</v>
       </c>
       <c r="K236" s="1">
         <v>500</v>
       </c>
       <c r="L236" s="1">
-        <v>301054</v>
+        <v>303029</v>
       </c>
       <c r="M236" s="1">
         <v>500</v>
       </c>
       <c r="N236" s="1">
-        <v>301055</v>
+        <v>304035</v>
       </c>
       <c r="O236" s="1">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="P236" s="1">
-        <v>302029</v>
+        <v>305056</v>
       </c>
       <c r="Q236" s="1">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="R236" s="1">
-        <v>303029</v>
+        <v>306058</v>
       </c>
       <c r="S236" s="1">
-        <v>500</v>
+        <v>150</v>
+      </c>
+      <c r="T236" s="1">
+        <v>307057</v>
+      </c>
+      <c r="U236" s="1">
+        <v>150</v>
       </c>
       <c r="V236" s="1">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="237" spans="1:22">
@@ -19081,1589 +19076,1749 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="N118:U123 N128:U133 B110:U110 B118:B119 F118:F119 D118:D119 H134:U134 F109:U109 B111:B112 D111:D112 F111:F112 H111:U112 B104:E109 B103:J103 L103:L108 J103:J105 D104:I108 B1:U102 N103:U108 B113:U117 B124:U127 B135:U135 I139 D138 J147 O148:U148 D152 D160 J160:J161 O167:U170 R162:U164 B143:J143 F138 H136:H138 J136:J138 L136:L138 B142:D142 F142 H140:H142 J140:J142 L140:L143 N136:N143 P136:U143 L144:U147 F152 H152 J149:U152 I154 L161 N161 P153:U161 D165:U165 G166:U166 H171:U183 B226:I227 P226:U227 B184:U225 B228:U1048576">
-    <cfRule type="expression" dxfId="356" priority="446">
+  <conditionalFormatting sqref="N118:U123 N128:U133 B110:U110 B118:B119 F118:F119 D118:D119 H134:U134 F109:U109 B111:B112 D111:D112 F111:F112 H111:U112 B104:E109 B103:J103 L103:L108 J103:J105 D104:I108 B1:U102 N103:U108 B113:U117 B124:U127 B135:U135 I139 D138 J147 O148:U148 D160 J160:J161 O167:U170 R162:U164 B143:J143 F138 H136:H138 J136:J138 L136:L138 B142:D142 F142 H140:H142 J140:J142 L140:L143 N136:N143 P136:U143 L144:U147 J149:U152 I154 L161 N161 P153:U161 D165:E165 H171:U183 P227:U227 B226:D226 F226 H226 B227:K227 H165:U166 B184:U225 B228:U1048576">
+    <cfRule type="expression" dxfId="394" priority="484">
       <formula>AND(B1&gt;200000,B1&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H121:H123 J121:J123 L121:L123 H118:H119 L118:L119 J118:J119">
-    <cfRule type="expression" dxfId="355" priority="438">
+    <cfRule type="expression" dxfId="393" priority="476">
       <formula>AND(H118&gt;200000,H118&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B120 F120 D120">
-    <cfRule type="expression" dxfId="354" priority="435">
+    <cfRule type="expression" dxfId="392" priority="473">
       <formula>AND(B120&gt;200000,B120&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121 D121 F121">
-    <cfRule type="expression" dxfId="353" priority="434">
+    <cfRule type="expression" dxfId="391" priority="472">
       <formula>AND(B121&gt;200000,B121&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122 D122 F122">
-    <cfRule type="expression" dxfId="352" priority="433">
+    <cfRule type="expression" dxfId="390" priority="471">
       <formula>AND(B122&gt;200000,B122&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H128:H132 J128:J132 L128:L132">
-    <cfRule type="expression" dxfId="351" priority="428">
+    <cfRule type="expression" dxfId="389" priority="466">
       <formula>AND(H128&gt;200000,H128&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B128 D128 F128">
-    <cfRule type="expression" dxfId="350" priority="421">
+    <cfRule type="expression" dxfId="388" priority="459">
       <formula>AND(B128&gt;200000,B128&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B129 D129 F129">
-    <cfRule type="expression" dxfId="349" priority="420">
+    <cfRule type="expression" dxfId="387" priority="458">
       <formula>AND(B129&gt;200000,B129&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130 D130 F130">
-    <cfRule type="expression" dxfId="348" priority="419">
+    <cfRule type="expression" dxfId="386" priority="457">
       <formula>AND(B130&gt;200000,B130&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131 D131 F131">
-    <cfRule type="expression" dxfId="347" priority="418">
+    <cfRule type="expression" dxfId="385" priority="456">
       <formula>AND(B131&gt;200000,B131&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B132:B133 D132:D133 F132:F133">
-    <cfRule type="expression" dxfId="346" priority="417">
+    <cfRule type="expression" dxfId="384" priority="455">
       <formula>AND(B132&gt;200000,B132&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C134">
-    <cfRule type="expression" dxfId="345" priority="416">
+    <cfRule type="expression" dxfId="383" priority="454">
       <formula>AND(C134&gt;200000,C134&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B134 D134 F134">
-    <cfRule type="expression" dxfId="344" priority="415">
+    <cfRule type="expression" dxfId="382" priority="453">
       <formula>AND(B134&gt;200000,B134&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I103:I108">
-    <cfRule type="expression" dxfId="343" priority="409">
+    <cfRule type="expression" dxfId="381" priority="447">
       <formula>AND(I103&gt;200000,I103&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C111:C112">
-    <cfRule type="expression" dxfId="342" priority="408">
+    <cfRule type="expression" dxfId="380" priority="446">
       <formula>AND(C111&gt;200000,C111&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111:E112">
-    <cfRule type="expression" dxfId="341" priority="397">
+    <cfRule type="expression" dxfId="379" priority="435">
       <formula>AND(E111&gt;200000,E111&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G111:G112">
-    <cfRule type="expression" dxfId="340" priority="396">
+    <cfRule type="expression" dxfId="378" priority="434">
       <formula>AND(G111&gt;200000,G111&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M103:M108">
-    <cfRule type="expression" dxfId="339" priority="394">
+    <cfRule type="expression" dxfId="377" priority="432">
       <formula>AND(M103&gt;200000,M103&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M103:M108">
-    <cfRule type="expression" dxfId="338" priority="393">
+    <cfRule type="expression" dxfId="376" priority="431">
       <formula>AND(M103&gt;200000,M103&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C128:C133">
-    <cfRule type="expression" dxfId="337" priority="390">
+    <cfRule type="expression" dxfId="375" priority="428">
       <formula>AND(C128&gt;200000,C128&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I128:I133">
-    <cfRule type="expression" dxfId="336" priority="385">
+    <cfRule type="expression" dxfId="374" priority="423">
       <formula>AND(I128&gt;200000,I128&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K128:K133">
-    <cfRule type="expression" dxfId="335" priority="384">
+    <cfRule type="expression" dxfId="373" priority="422">
       <formula>AND(K128&gt;200000,K128&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M128:M133">
-    <cfRule type="expression" dxfId="334" priority="383">
+    <cfRule type="expression" dxfId="372" priority="421">
       <formula>AND(M128&gt;200000,M128&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I118:I123">
-    <cfRule type="expression" dxfId="333" priority="382">
+    <cfRule type="expression" dxfId="371" priority="420">
       <formula>AND(I118&gt;200000,I118&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I118:I123">
-    <cfRule type="expression" dxfId="332" priority="381">
+    <cfRule type="expression" dxfId="370" priority="419">
       <formula>AND(I118&gt;200000,I118&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K118:K123">
-    <cfRule type="expression" dxfId="331" priority="380">
+    <cfRule type="expression" dxfId="369" priority="418">
       <formula>AND(K118&gt;200000,K118&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K118:K123">
-    <cfRule type="expression" dxfId="330" priority="379">
+    <cfRule type="expression" dxfId="368" priority="417">
       <formula>AND(K118&gt;200000,K118&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M118:M123">
-    <cfRule type="expression" dxfId="329" priority="378">
+    <cfRule type="expression" dxfId="367" priority="416">
       <formula>AND(M118&gt;200000,M118&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M118:M123">
-    <cfRule type="expression" dxfId="328" priority="377">
+    <cfRule type="expression" dxfId="366" priority="415">
       <formula>AND(M118&gt;200000,M118&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D136">
-    <cfRule type="expression" dxfId="327" priority="375">
+    <cfRule type="expression" dxfId="365" priority="413">
       <formula>AND(D136&gt;200000,D136&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F136">
-    <cfRule type="expression" dxfId="326" priority="374">
+    <cfRule type="expression" dxfId="364" priority="412">
       <formula>AND(F136&gt;200000,F136&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D137">
-    <cfRule type="expression" dxfId="325" priority="373">
+    <cfRule type="expression" dxfId="363" priority="411">
       <formula>AND(D137&gt;200000,D137&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F137">
-    <cfRule type="expression" dxfId="324" priority="372">
+    <cfRule type="expression" dxfId="362" priority="410">
       <formula>AND(F137&gt;200000,F137&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I139">
-    <cfRule type="expression" dxfId="323" priority="368">
+    <cfRule type="expression" dxfId="361" priority="406">
       <formula>AND(I139&gt;200000,I139&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H139">
-    <cfRule type="expression" dxfId="322" priority="367">
+    <cfRule type="expression" dxfId="360" priority="405">
       <formula>AND(H139&gt;200000,H139&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J139">
-    <cfRule type="expression" dxfId="321" priority="366">
+    <cfRule type="expression" dxfId="359" priority="404">
       <formula>AND(J139&gt;200000,J139&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L139">
-    <cfRule type="expression" dxfId="320" priority="365">
+    <cfRule type="expression" dxfId="358" priority="403">
       <formula>AND(L139&gt;200000,L139&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D140">
-    <cfRule type="expression" dxfId="319" priority="364">
+    <cfRule type="expression" dxfId="357" priority="402">
       <formula>AND(D140&gt;200000,D140&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F140">
-    <cfRule type="expression" dxfId="318" priority="363">
+    <cfRule type="expression" dxfId="356" priority="401">
       <formula>AND(F140&gt;200000,F140&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D141">
-    <cfRule type="expression" dxfId="317" priority="362">
+    <cfRule type="expression" dxfId="355" priority="400">
       <formula>AND(D141&gt;200000,D141&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F141">
-    <cfRule type="expression" dxfId="316" priority="361">
+    <cfRule type="expression" dxfId="354" priority="399">
       <formula>AND(F141&gt;200000,F141&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D136:D137 D140:D141">
-    <cfRule type="expression" dxfId="315" priority="360">
+    <cfRule type="expression" dxfId="353" priority="398">
       <formula>AND(D136&gt;200000,D136&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F136">
-    <cfRule type="expression" dxfId="314" priority="359">
+    <cfRule type="expression" dxfId="352" priority="397">
       <formula>AND(F136&gt;200000,F136&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H136">
-    <cfRule type="expression" dxfId="313" priority="358">
+    <cfRule type="expression" dxfId="351" priority="396">
       <formula>AND(H136&gt;200000,H136&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F137">
-    <cfRule type="expression" dxfId="312" priority="357">
+    <cfRule type="expression" dxfId="350" priority="395">
       <formula>AND(F137&gt;200000,F137&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H137">
-    <cfRule type="expression" dxfId="311" priority="356">
+    <cfRule type="expression" dxfId="349" priority="394">
       <formula>AND(H137&gt;200000,H137&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D138">
-    <cfRule type="expression" dxfId="310" priority="355">
+    <cfRule type="expression" dxfId="348" priority="393">
       <formula>AND(D138&gt;200000,D138&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H139">
-    <cfRule type="expression" dxfId="309" priority="353">
+    <cfRule type="expression" dxfId="347" priority="391">
       <formula>AND(H139&gt;200000,H139&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J139">
-    <cfRule type="expression" dxfId="308" priority="352">
+    <cfRule type="expression" dxfId="346" priority="390">
       <formula>AND(J139&gt;200000,J139&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L139">
-    <cfRule type="expression" dxfId="307" priority="351">
+    <cfRule type="expression" dxfId="345" priority="389">
       <formula>AND(L139&gt;200000,L139&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N139">
-    <cfRule type="expression" dxfId="306" priority="350">
+    <cfRule type="expression" dxfId="344" priority="388">
       <formula>AND(N139&gt;200000,N139&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F140">
-    <cfRule type="expression" dxfId="305" priority="349">
+    <cfRule type="expression" dxfId="343" priority="387">
       <formula>AND(F140&gt;200000,F140&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H140">
-    <cfRule type="expression" dxfId="304" priority="348">
+    <cfRule type="expression" dxfId="342" priority="386">
       <formula>AND(H140&gt;200000,H140&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F141">
-    <cfRule type="expression" dxfId="303" priority="347">
+    <cfRule type="expression" dxfId="341" priority="385">
       <formula>AND(F141&gt;200000,F141&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H141">
-    <cfRule type="expression" dxfId="302" priority="346">
+    <cfRule type="expression" dxfId="340" priority="384">
       <formula>AND(H141&gt;200000,H141&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D149">
-    <cfRule type="expression" dxfId="301" priority="345">
+    <cfRule type="expression" dxfId="339" priority="383">
       <formula>AND(D149&gt;200000,D149&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F149">
-    <cfRule type="expression" dxfId="300" priority="344">
+    <cfRule type="expression" dxfId="338" priority="382">
       <formula>AND(F149&gt;200000,F149&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H149">
-    <cfRule type="expression" dxfId="299" priority="343">
+    <cfRule type="expression" dxfId="337" priority="381">
       <formula>AND(H149&gt;200000,H149&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D153">
-    <cfRule type="expression" dxfId="298" priority="341">
+    <cfRule type="expression" dxfId="336" priority="379">
       <formula>AND(D153&gt;200000,D153&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D164">
-    <cfRule type="expression" dxfId="297" priority="261">
+    <cfRule type="expression" dxfId="335" priority="299">
       <formula>AND(D164&gt;200000,D164&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D164">
-    <cfRule type="expression" dxfId="296" priority="260">
+    <cfRule type="expression" dxfId="334" priority="298">
       <formula>AND(D164&gt;200000,D164&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D144">
-    <cfRule type="expression" dxfId="295" priority="338">
+    <cfRule type="expression" dxfId="333" priority="376">
       <formula>AND(D144&gt;200000,D144&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D145">
-    <cfRule type="expression" dxfId="294" priority="337">
+    <cfRule type="expression" dxfId="332" priority="375">
       <formula>AND(D145&gt;200000,D145&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D146">
-    <cfRule type="expression" dxfId="293" priority="336">
+    <cfRule type="expression" dxfId="331" priority="374">
       <formula>AND(D146&gt;200000,D146&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F144">
-    <cfRule type="expression" dxfId="292" priority="335">
+    <cfRule type="expression" dxfId="330" priority="373">
       <formula>AND(F144&gt;200000,F144&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F145">
-    <cfRule type="expression" dxfId="291" priority="334">
+    <cfRule type="expression" dxfId="329" priority="372">
       <formula>AND(F145&gt;200000,F145&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F146">
-    <cfRule type="expression" dxfId="290" priority="333">
+    <cfRule type="expression" dxfId="328" priority="371">
       <formula>AND(F146&gt;200000,F146&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H144">
-    <cfRule type="expression" dxfId="289" priority="332">
+    <cfRule type="expression" dxfId="327" priority="370">
       <formula>AND(H144&gt;200000,H144&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H145">
-    <cfRule type="expression" dxfId="288" priority="331">
+    <cfRule type="expression" dxfId="326" priority="369">
       <formula>AND(H145&gt;200000,H145&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H146">
-    <cfRule type="expression" dxfId="287" priority="330">
+    <cfRule type="expression" dxfId="325" priority="368">
       <formula>AND(H146&gt;200000,H146&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J159">
-    <cfRule type="expression" dxfId="286" priority="329">
+    <cfRule type="expression" dxfId="324" priority="367">
       <formula>AND(J159&gt;200000,J159&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J158 J153">
-    <cfRule type="expression" dxfId="285" priority="328">
+    <cfRule type="expression" dxfId="323" priority="366">
       <formula>AND(J153&gt;200000,J153&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H168">
-    <cfRule type="expression" dxfId="284" priority="266">
+    <cfRule type="expression" dxfId="322" priority="304">
       <formula>AND(H168&gt;200000,H168&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J144">
-    <cfRule type="expression" dxfId="283" priority="325">
+    <cfRule type="expression" dxfId="321" priority="363">
       <formula>AND(J144&gt;200000,J144&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J145">
-    <cfRule type="expression" dxfId="282" priority="324">
+    <cfRule type="expression" dxfId="320" priority="362">
       <formula>AND(J145&gt;200000,J145&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J146">
-    <cfRule type="expression" dxfId="281" priority="323">
+    <cfRule type="expression" dxfId="319" priority="361">
       <formula>AND(J146&gt;200000,J146&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D148">
-    <cfRule type="expression" dxfId="280" priority="320">
+    <cfRule type="expression" dxfId="318" priority="358">
       <formula>AND(D148&gt;200000,D148&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F148">
-    <cfRule type="expression" dxfId="279" priority="319">
+    <cfRule type="expression" dxfId="317" priority="357">
       <formula>AND(F148&gt;200000,F148&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H148">
-    <cfRule type="expression" dxfId="278" priority="318">
+    <cfRule type="expression" dxfId="316" priority="356">
       <formula>AND(H148&gt;200000,H148&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M148">
-    <cfRule type="expression" dxfId="277" priority="317">
+    <cfRule type="expression" dxfId="315" priority="355">
       <formula>AND(M148&gt;200000,M148&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J148">
-    <cfRule type="expression" dxfId="276" priority="316">
+    <cfRule type="expression" dxfId="314" priority="354">
       <formula>AND(J148&gt;200000,J148&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L148">
-    <cfRule type="expression" dxfId="275" priority="315">
+    <cfRule type="expression" dxfId="313" priority="353">
       <formula>AND(L148&gt;200000,L148&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N148">
-    <cfRule type="expression" dxfId="274" priority="314">
+    <cfRule type="expression" dxfId="312" priority="352">
       <formula>AND(N148&gt;200000,N148&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D150">
-    <cfRule type="expression" dxfId="273" priority="313">
+    <cfRule type="expression" dxfId="311" priority="351">
       <formula>AND(D150&gt;200000,D150&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D151">
-    <cfRule type="expression" dxfId="272" priority="312">
+    <cfRule type="expression" dxfId="310" priority="350">
       <formula>AND(D151&gt;200000,D151&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F150">
-    <cfRule type="expression" dxfId="271" priority="311">
+    <cfRule type="expression" dxfId="309" priority="349">
       <formula>AND(F150&gt;200000,F150&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F151">
-    <cfRule type="expression" dxfId="270" priority="310">
+    <cfRule type="expression" dxfId="308" priority="348">
       <formula>AND(F151&gt;200000,F151&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H150">
-    <cfRule type="expression" dxfId="269" priority="309">
+    <cfRule type="expression" dxfId="307" priority="347">
       <formula>AND(H150&gt;200000,H150&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H151">
-    <cfRule type="expression" dxfId="268" priority="308">
+    <cfRule type="expression" dxfId="306" priority="346">
       <formula>AND(H151&gt;200000,H151&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F153">
-    <cfRule type="expression" dxfId="267" priority="307">
+    <cfRule type="expression" dxfId="305" priority="345">
       <formula>AND(F153&gt;200000,F153&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H153">
-    <cfRule type="expression" dxfId="266" priority="306">
+    <cfRule type="expression" dxfId="304" priority="344">
       <formula>AND(H153&gt;200000,H153&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L153">
-    <cfRule type="expression" dxfId="265" priority="305">
+    <cfRule type="expression" dxfId="303" priority="343">
       <formula>AND(L153&gt;200000,L153&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N153">
-    <cfRule type="expression" dxfId="264" priority="304">
+    <cfRule type="expression" dxfId="302" priority="342">
       <formula>AND(N153&gt;200000,N153&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D158">
-    <cfRule type="expression" dxfId="263" priority="303">
+    <cfRule type="expression" dxfId="301" priority="341">
       <formula>AND(D158&gt;200000,D158&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H158">
-    <cfRule type="expression" dxfId="262" priority="302">
+    <cfRule type="expression" dxfId="300" priority="340">
       <formula>AND(H158&gt;200000,H158&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J155:J156">
-    <cfRule type="expression" dxfId="261" priority="299">
+    <cfRule type="expression" dxfId="299" priority="337">
       <formula>AND(J155&gt;200000,J155&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N155:N156">
-    <cfRule type="expression" dxfId="260" priority="298">
+    <cfRule type="expression" dxfId="298" priority="336">
       <formula>AND(N155&gt;200000,N155&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L155:L156">
-    <cfRule type="expression" dxfId="259" priority="297">
+    <cfRule type="expression" dxfId="297" priority="335">
       <formula>AND(L155&gt;200000,L155&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D155">
-    <cfRule type="expression" dxfId="258" priority="295">
+    <cfRule type="expression" dxfId="296" priority="333">
       <formula>AND(D155&gt;200000,D155&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H155">
-    <cfRule type="expression" dxfId="257" priority="294">
+    <cfRule type="expression" dxfId="295" priority="332">
       <formula>AND(H155&gt;200000,H155&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F155">
-    <cfRule type="expression" dxfId="256" priority="293">
+    <cfRule type="expression" dxfId="294" priority="331">
       <formula>AND(F155&gt;200000,F155&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J154">
-    <cfRule type="expression" dxfId="255" priority="291">
+    <cfRule type="expression" dxfId="293" priority="329">
       <formula>AND(J154&gt;200000,J154&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N154">
-    <cfRule type="expression" dxfId="254" priority="290">
+    <cfRule type="expression" dxfId="292" priority="328">
       <formula>AND(N154&gt;200000,N154&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L154">
-    <cfRule type="expression" dxfId="253" priority="289">
+    <cfRule type="expression" dxfId="291" priority="327">
       <formula>AND(L154&gt;200000,L154&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J157">
-    <cfRule type="expression" dxfId="252" priority="287">
+    <cfRule type="expression" dxfId="290" priority="325">
       <formula>AND(J157&gt;200000,J157&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N157">
-    <cfRule type="expression" dxfId="251" priority="286">
+    <cfRule type="expression" dxfId="289" priority="324">
       <formula>AND(N157&gt;200000,N157&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L157">
-    <cfRule type="expression" dxfId="250" priority="285">
+    <cfRule type="expression" dxfId="288" priority="323">
       <formula>AND(L157&gt;200000,L157&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L158">
-    <cfRule type="expression" dxfId="249" priority="284">
+    <cfRule type="expression" dxfId="287" priority="322">
       <formula>AND(L158&gt;200000,L158&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N158">
-    <cfRule type="expression" dxfId="248" priority="283">
+    <cfRule type="expression" dxfId="286" priority="321">
       <formula>AND(N158&gt;200000,N158&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F160">
-    <cfRule type="expression" dxfId="247" priority="282">
+    <cfRule type="expression" dxfId="285" priority="320">
       <formula>AND(F160&gt;200000,F160&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H160">
-    <cfRule type="expression" dxfId="246" priority="281">
+    <cfRule type="expression" dxfId="284" priority="319">
       <formula>AND(H160&gt;200000,H160&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L160">
-    <cfRule type="expression" dxfId="245" priority="280">
+    <cfRule type="expression" dxfId="283" priority="318">
       <formula>AND(L160&gt;200000,L160&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L159">
-    <cfRule type="expression" dxfId="244" priority="279">
+    <cfRule type="expression" dxfId="282" priority="317">
       <formula>AND(L159&gt;200000,L159&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N160">
-    <cfRule type="expression" dxfId="243" priority="278">
+    <cfRule type="expression" dxfId="281" priority="316">
       <formula>AND(N160&gt;200000,N160&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N159">
-    <cfRule type="expression" dxfId="242" priority="277">
+    <cfRule type="expression" dxfId="280" priority="315">
       <formula>AND(N159&gt;200000,N159&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F158">
-    <cfRule type="expression" dxfId="241" priority="276">
+    <cfRule type="expression" dxfId="279" priority="314">
       <formula>AND(F158&gt;200000,F158&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H167 J167:N167 H168:N170">
-    <cfRule type="expression" dxfId="240" priority="275">
+    <cfRule type="expression" dxfId="278" priority="313">
       <formula>AND(H167&gt;200000,H167&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D163">
-    <cfRule type="expression" dxfId="239" priority="262">
+    <cfRule type="expression" dxfId="277" priority="300">
       <formula>AND(D163&gt;200000,D163&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F163">
-    <cfRule type="expression" dxfId="238" priority="258">
+    <cfRule type="expression" dxfId="276" priority="296">
       <formula>AND(F163&gt;200000,F163&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H167">
-    <cfRule type="expression" dxfId="237" priority="268">
+    <cfRule type="expression" dxfId="275" priority="306">
       <formula>AND(H167&gt;200000,H167&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D162">
-    <cfRule type="expression" dxfId="236" priority="265">
+    <cfRule type="expression" dxfId="274" priority="303">
       <formula>AND(D162&gt;200000,D162&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D162">
-    <cfRule type="expression" dxfId="235" priority="264">
+    <cfRule type="expression" dxfId="273" priority="302">
       <formula>AND(D162&gt;200000,D162&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D163">
-    <cfRule type="expression" dxfId="234" priority="263">
+    <cfRule type="expression" dxfId="272" priority="301">
       <formula>AND(D163&gt;200000,D163&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F162">
-    <cfRule type="expression" dxfId="233" priority="259">
+    <cfRule type="expression" dxfId="271" priority="297">
       <formula>AND(F162&gt;200000,F162&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F164">
-    <cfRule type="expression" dxfId="232" priority="257">
+    <cfRule type="expression" dxfId="270" priority="295">
       <formula>AND(F164&gt;200000,F164&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H162">
-    <cfRule type="expression" dxfId="231" priority="256">
+    <cfRule type="expression" dxfId="269" priority="294">
       <formula>AND(H162&gt;200000,H162&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H162">
-    <cfRule type="expression" dxfId="230" priority="255">
+    <cfRule type="expression" dxfId="268" priority="293">
       <formula>AND(H162&gt;200000,H162&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H163">
-    <cfRule type="expression" dxfId="229" priority="254">
+    <cfRule type="expression" dxfId="267" priority="292">
       <formula>AND(H163&gt;200000,H163&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H163">
-    <cfRule type="expression" dxfId="228" priority="253">
+    <cfRule type="expression" dxfId="266" priority="291">
       <formula>AND(H163&gt;200000,H163&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H164">
-    <cfRule type="expression" dxfId="227" priority="252">
+    <cfRule type="expression" dxfId="265" priority="290">
       <formula>AND(H164&gt;200000,H164&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H164">
-    <cfRule type="expression" dxfId="226" priority="251">
+    <cfRule type="expression" dxfId="264" priority="289">
       <formula>AND(H164&gt;200000,H164&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J162">
-    <cfRule type="expression" dxfId="225" priority="250">
+    <cfRule type="expression" dxfId="263" priority="288">
       <formula>AND(J162&gt;200000,J162&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J163">
-    <cfRule type="expression" dxfId="224" priority="249">
+    <cfRule type="expression" dxfId="262" priority="287">
       <formula>AND(J163&gt;200000,J163&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J164">
-    <cfRule type="expression" dxfId="223" priority="248">
+    <cfRule type="expression" dxfId="261" priority="286">
       <formula>AND(J164&gt;200000,J164&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L162">
-    <cfRule type="expression" dxfId="222" priority="247">
+    <cfRule type="expression" dxfId="260" priority="285">
       <formula>AND(L162&gt;200000,L162&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L163">
-    <cfRule type="expression" dxfId="221" priority="246">
+    <cfRule type="expression" dxfId="259" priority="284">
       <formula>AND(L163&gt;200000,L163&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L164">
-    <cfRule type="expression" dxfId="220" priority="245">
+    <cfRule type="expression" dxfId="258" priority="283">
       <formula>AND(L164&gt;200000,L164&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N162">
-    <cfRule type="expression" dxfId="219" priority="244">
+    <cfRule type="expression" dxfId="257" priority="282">
       <formula>AND(N162&gt;200000,N162&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N163">
-    <cfRule type="expression" dxfId="218" priority="243">
+    <cfRule type="expression" dxfId="256" priority="281">
       <formula>AND(N163&gt;200000,N163&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N164">
-    <cfRule type="expression" dxfId="217" priority="242">
+    <cfRule type="expression" dxfId="255" priority="280">
       <formula>AND(N164&gt;200000,N164&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P162">
-    <cfRule type="expression" dxfId="216" priority="241">
+    <cfRule type="expression" dxfId="254" priority="279">
       <formula>AND(P162&gt;200000,P162&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P163">
-    <cfRule type="expression" dxfId="215" priority="240">
+    <cfRule type="expression" dxfId="253" priority="278">
       <formula>AND(P163&gt;200000,P163&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P164">
-    <cfRule type="expression" dxfId="214" priority="239">
+    <cfRule type="expression" dxfId="252" priority="277">
       <formula>AND(P164&gt;200000,P164&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H165">
-    <cfRule type="expression" dxfId="213" priority="238">
+    <cfRule type="expression" dxfId="251" priority="276">
       <formula>AND(H165&gt;200000,H165&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H165">
-    <cfRule type="expression" dxfId="212" priority="237">
+    <cfRule type="expression" dxfId="250" priority="275">
       <formula>AND(H165&gt;200000,H165&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J167">
+    <cfRule type="expression" dxfId="249" priority="268">
+      <formula>AND(J167&gt;200000,J167&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J165">
+    <cfRule type="expression" dxfId="248" priority="267">
+      <formula>AND(J165&gt;200000,J165&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J165">
+    <cfRule type="expression" dxfId="247" priority="266">
+      <formula>AND(J165&gt;200000,J165&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H166">
+    <cfRule type="expression" dxfId="246" priority="264">
+      <formula>AND(H166&gt;200000,H166&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H167">
+    <cfRule type="expression" dxfId="245" priority="263">
+      <formula>AND(H167&gt;200000,H167&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H167">
+    <cfRule type="expression" dxfId="244" priority="262">
+      <formula>AND(H167&gt;200000,H167&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B136:C136">
+    <cfRule type="expression" dxfId="243" priority="261">
+      <formula>AND(B136&gt;200000,B136&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B137:C137">
+    <cfRule type="expression" dxfId="242" priority="260">
+      <formula>AND(B137&gt;200000,B137&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B138:C138">
+    <cfRule type="expression" dxfId="241" priority="259">
+      <formula>AND(B138&gt;200000,B138&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B140:C140">
+    <cfRule type="expression" dxfId="240" priority="258">
+      <formula>AND(B140&gt;200000,B140&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B141:C141">
+    <cfRule type="expression" dxfId="239" priority="257">
+      <formula>AND(B141&gt;200000,B141&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B144:C144">
+    <cfRule type="expression" dxfId="238" priority="256">
+      <formula>AND(B144&gt;200000,B144&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B145:C145">
+    <cfRule type="expression" dxfId="237" priority="255">
+      <formula>AND(B145&gt;200000,B145&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B146:C146">
+    <cfRule type="expression" dxfId="236" priority="254">
+      <formula>AND(B146&gt;200000,B146&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B147:C147">
+    <cfRule type="expression" dxfId="235" priority="253">
+      <formula>AND(B147&gt;200000,B147&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B149:C149">
+    <cfRule type="expression" dxfId="234" priority="251">
+      <formula>AND(B149&gt;200000,B149&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B150:C150">
+    <cfRule type="expression" dxfId="233" priority="250">
+      <formula>AND(B150&gt;200000,B150&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B151:C151">
+    <cfRule type="expression" dxfId="232" priority="249">
+      <formula>AND(B151&gt;200000,B151&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B148:C148">
+    <cfRule type="expression" dxfId="231" priority="248">
+      <formula>AND(B148&gt;200000,B148&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B152:C152">
+    <cfRule type="expression" dxfId="230" priority="247">
+      <formula>AND(B152&gt;200000,B152&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B153:C153">
+    <cfRule type="expression" dxfId="229" priority="246">
+      <formula>AND(B153&gt;200000,B153&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B139:G139">
+    <cfRule type="expression" dxfId="228" priority="245">
+      <formula>AND(B139&gt;200000,B139&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E138">
+    <cfRule type="expression" dxfId="227" priority="244">
+      <formula>AND(E138&gt;200000,E138&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E136:E137">
+    <cfRule type="expression" dxfId="226" priority="243">
+      <formula>AND(E136&gt;200000,E136&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K139">
+    <cfRule type="expression" dxfId="225" priority="234">
+      <formula>AND(K139&gt;200000,K139&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E140:E142">
+    <cfRule type="expression" dxfId="224" priority="229">
+      <formula>AND(E140&gt;200000,E140&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G140:G142">
+    <cfRule type="expression" dxfId="223" priority="228">
+      <formula>AND(G140&gt;200000,G140&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I140:I142">
+    <cfRule type="expression" dxfId="222" priority="227">
+      <formula>AND(I140&gt;200000,I140&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K140:K142">
+    <cfRule type="expression" dxfId="221" priority="226">
+      <formula>AND(K140&gt;200000,K140&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M140:M142">
+    <cfRule type="expression" dxfId="220" priority="225">
+      <formula>AND(M140&gt;200000,M140&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O140:O142">
+    <cfRule type="expression" dxfId="219" priority="224">
+      <formula>AND(O140&gt;200000,O140&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K143">
+    <cfRule type="expression" dxfId="218" priority="223">
+      <formula>AND(K143&gt;200000,K143&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M143">
+    <cfRule type="expression" dxfId="217" priority="222">
+      <formula>AND(M143&gt;200000,M143&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O143">
+    <cfRule type="expression" dxfId="216" priority="221">
+      <formula>AND(O143&gt;200000,O143&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E148">
+    <cfRule type="expression" dxfId="215" priority="218">
+      <formula>AND(E148&gt;200000,E148&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E149:E151">
+    <cfRule type="expression" dxfId="214" priority="204">
+      <formula>AND(E149&gt;200000,E149&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E153">
+    <cfRule type="expression" dxfId="213" priority="203">
+      <formula>AND(E153&gt;200000,E153&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G149:G151">
+    <cfRule type="expression" dxfId="212" priority="202">
+      <formula>AND(G149&gt;200000,G149&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G153">
+    <cfRule type="expression" dxfId="211" priority="201">
+      <formula>AND(G153&gt;200000,G153&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I149:I151">
+    <cfRule type="expression" dxfId="210" priority="200">
+      <formula>AND(I149&gt;200000,I149&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I153">
+    <cfRule type="expression" dxfId="209" priority="199">
+      <formula>AND(I153&gt;200000,I153&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K153">
+    <cfRule type="expression" dxfId="208" priority="198">
+      <formula>AND(K153&gt;200000,K153&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M153">
+    <cfRule type="expression" dxfId="207" priority="197">
+      <formula>AND(M153&gt;200000,M153&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O153">
+    <cfRule type="expression" dxfId="206" priority="196">
+      <formula>AND(O153&gt;200000,O153&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B154:H154">
+    <cfRule type="expression" dxfId="205" priority="195">
+      <formula>AND(B154&gt;200000,B154&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I157">
+    <cfRule type="expression" dxfId="204" priority="194">
+      <formula>AND(I157&gt;200000,I157&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B157:H157">
+    <cfRule type="expression" dxfId="203" priority="193">
+      <formula>AND(B157&gt;200000,B157&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B155:C155">
+    <cfRule type="expression" dxfId="202" priority="192">
+      <formula>AND(B155&gt;200000,B155&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B156:C156">
+    <cfRule type="expression" dxfId="201" priority="191">
+      <formula>AND(B156&gt;200000,B156&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B158:C158">
+    <cfRule type="expression" dxfId="200" priority="190">
+      <formula>AND(B158&gt;200000,B158&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B159:C159">
+    <cfRule type="expression" dxfId="199" priority="189">
+      <formula>AND(B159&gt;200000,B159&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I161">
+    <cfRule type="expression" dxfId="198" priority="188">
+      <formula>AND(I161&gt;200000,I161&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B161:H161">
+    <cfRule type="expression" dxfId="197" priority="187">
+      <formula>AND(B161&gt;200000,B161&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B160:C160">
+    <cfRule type="expression" dxfId="196" priority="186">
+      <formula>AND(B160&gt;200000,B160&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B162:C162">
+    <cfRule type="expression" dxfId="195" priority="185">
+      <formula>AND(B162&gt;200000,B162&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E156">
+    <cfRule type="expression" dxfId="194" priority="184">
+      <formula>AND(E156&gt;200000,E156&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E155">
+    <cfRule type="expression" dxfId="193" priority="183">
+      <formula>AND(E155&gt;200000,E155&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K155">
+    <cfRule type="expression" dxfId="192" priority="178">
+      <formula>AND(K155&gt;200000,K155&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K154">
+    <cfRule type="expression" dxfId="191" priority="177">
+      <formula>AND(K154&gt;200000,K154&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K157">
+    <cfRule type="expression" dxfId="190" priority="174">
+      <formula>AND(K157&gt;200000,K157&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K156">
+    <cfRule type="expression" dxfId="189" priority="173">
+      <formula>AND(K156&gt;200000,K156&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E158:E160">
+    <cfRule type="expression" dxfId="188" priority="166">
+      <formula>AND(E158&gt;200000,E158&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G158:G160">
+    <cfRule type="expression" dxfId="187" priority="165">
+      <formula>AND(G158&gt;200000,G158&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I158:I160">
+    <cfRule type="expression" dxfId="186" priority="164">
+      <formula>AND(I158&gt;200000,I158&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K158:K160">
+    <cfRule type="expression" dxfId="185" priority="163">
+      <formula>AND(K158&gt;200000,K158&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K161">
+    <cfRule type="expression" dxfId="184" priority="162">
+      <formula>AND(K161&gt;200000,K161&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M158:M160">
+    <cfRule type="expression" dxfId="183" priority="161">
+      <formula>AND(M158&gt;200000,M158&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M161">
+    <cfRule type="expression" dxfId="182" priority="160">
+      <formula>AND(M161&gt;200000,M161&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O158:O160">
+    <cfRule type="expression" dxfId="181" priority="159">
+      <formula>AND(O158&gt;200000,O158&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O161">
+    <cfRule type="expression" dxfId="180" priority="158">
+      <formula>AND(O161&gt;200000,O161&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B163:C163">
+    <cfRule type="expression" dxfId="179" priority="157">
+      <formula>AND(B163&gt;200000,B163&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B164:C164">
+    <cfRule type="expression" dxfId="178" priority="156">
+      <formula>AND(B164&gt;200000,B164&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B165:C165">
+    <cfRule type="expression" dxfId="177" priority="155">
+      <formula>AND(B165&gt;200000,B165&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D166:E166">
+    <cfRule type="expression" dxfId="176" priority="154">
+      <formula>AND(D166&gt;200000,D166&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B166:C166">
+    <cfRule type="expression" dxfId="175" priority="153">
+      <formula>AND(B166&gt;200000,B166&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E164">
+    <cfRule type="expression" dxfId="174" priority="151">
+      <formula>AND(E164&gt;200000,E164&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E163">
+    <cfRule type="expression" dxfId="173" priority="150">
+      <formula>AND(E163&gt;200000,E163&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E162">
+    <cfRule type="expression" dxfId="172" priority="149">
+      <formula>AND(E162&gt;200000,E162&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I167">
+    <cfRule type="expression" dxfId="171" priority="129">
+      <formula>AND(I167&gt;200000,I167&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B168:G168">
+    <cfRule type="expression" dxfId="170" priority="128">
+      <formula>AND(B168&gt;200000,B168&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B169:G169">
+    <cfRule type="expression" dxfId="169" priority="127">
+      <formula>AND(B169&gt;200000,B169&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B170:G170">
+    <cfRule type="expression" dxfId="168" priority="126">
+      <formula>AND(B170&gt;200000,B170&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B171:G171">
+    <cfRule type="expression" dxfId="167" priority="125">
+      <formula>AND(B171&gt;200000,B171&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B172:G172">
+    <cfRule type="expression" dxfId="166" priority="124">
+      <formula>AND(B172&gt;200000,B172&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B173:G173">
+    <cfRule type="expression" dxfId="165" priority="123">
+      <formula>AND(B173&gt;200000,B173&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B174:G174">
+    <cfRule type="expression" dxfId="164" priority="122">
+      <formula>AND(B174&gt;200000,B174&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B175:G175">
+    <cfRule type="expression" dxfId="163" priority="121">
+      <formula>AND(B175&gt;200000,B175&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B176:G176">
+    <cfRule type="expression" dxfId="162" priority="120">
+      <formula>AND(B176&gt;200000,B176&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B177:G177">
+    <cfRule type="expression" dxfId="161" priority="119">
+      <formula>AND(B177&gt;200000,B177&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B178:G178">
+    <cfRule type="expression" dxfId="160" priority="118">
+      <formula>AND(B178&gt;200000,B178&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B179:G179">
+    <cfRule type="expression" dxfId="159" priority="117">
+      <formula>AND(B179&gt;200000,B179&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B180:G180">
+    <cfRule type="expression" dxfId="158" priority="116">
+      <formula>AND(B180&gt;200000,B180&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B181:G181">
+    <cfRule type="expression" dxfId="157" priority="115">
+      <formula>AND(B181&gt;200000,B181&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B182:G182">
+    <cfRule type="expression" dxfId="156" priority="114">
+      <formula>AND(B182&gt;200000,B182&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B183:G183">
+    <cfRule type="expression" dxfId="155" priority="113">
+      <formula>AND(B183&gt;200000,B183&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J226">
+    <cfRule type="expression" dxfId="154" priority="112">
+      <formula>AND(J226&gt;200000,J226&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N226">
+    <cfRule type="expression" dxfId="153" priority="111">
+      <formula>AND(N226&gt;200000,N226&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L226">
+    <cfRule type="expression" dxfId="152" priority="110">
+      <formula>AND(L226&gt;200000,L226&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K226">
+    <cfRule type="expression" dxfId="151" priority="108">
+      <formula>AND(K226&gt;200000,K226&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M226">
+    <cfRule type="expression" dxfId="150" priority="106">
+      <formula>AND(M226&gt;200000,M226&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O226">
+    <cfRule type="expression" dxfId="149" priority="104">
+      <formula>AND(O226&gt;200000,O226&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K103:K108">
+    <cfRule type="expression" dxfId="148" priority="103">
+      <formula>AND(K103&gt;200000,K103&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C118:C123">
+    <cfRule type="expression" dxfId="147" priority="102">
+      <formula>AND(C118&gt;200000,C118&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118:E123">
+    <cfRule type="expression" dxfId="146" priority="101">
+      <formula>AND(E118&gt;200000,E118&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G118:G123">
+    <cfRule type="expression" dxfId="145" priority="100">
+      <formula>AND(G118&gt;200000,G118&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E134">
+    <cfRule type="expression" dxfId="144" priority="99">
+      <formula>AND(E134&gt;200000,E134&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E128:E133">
+    <cfRule type="expression" dxfId="143" priority="98">
+      <formula>AND(E128&gt;200000,E128&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G134">
+    <cfRule type="expression" dxfId="142" priority="97">
+      <formula>AND(G134&gt;200000,G134&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G128:G133">
+    <cfRule type="expression" dxfId="141" priority="96">
+      <formula>AND(G128&gt;200000,G128&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G138">
+    <cfRule type="expression" dxfId="140" priority="95">
+      <formula>AND(G138&gt;200000,G138&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G136:G137">
+    <cfRule type="expression" dxfId="139" priority="94">
+      <formula>AND(G136&gt;200000,G136&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I138">
+    <cfRule type="expression" dxfId="138" priority="93">
+      <formula>AND(I138&gt;200000,I138&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I136:I137">
+    <cfRule type="expression" dxfId="137" priority="92">
+      <formula>AND(I136&gt;200000,I136&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K138">
+    <cfRule type="expression" dxfId="136" priority="91">
+      <formula>AND(K138&gt;200000,K138&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K136:K137">
+    <cfRule type="expression" dxfId="135" priority="90">
+      <formula>AND(K136&gt;200000,K136&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M139">
+    <cfRule type="expression" dxfId="134" priority="89">
+      <formula>AND(M139&gt;200000,M139&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M138">
+    <cfRule type="expression" dxfId="133" priority="88">
+      <formula>AND(M138&gt;200000,M138&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M136:M137">
+    <cfRule type="expression" dxfId="132" priority="87">
+      <formula>AND(M136&gt;200000,M136&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O139">
+    <cfRule type="expression" dxfId="131" priority="86">
+      <formula>AND(O139&gt;200000,O139&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O138">
+    <cfRule type="expression" dxfId="130" priority="85">
+      <formula>AND(O138&gt;200000,O138&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O136:O137">
+    <cfRule type="expression" dxfId="129" priority="84">
+      <formula>AND(O136&gt;200000,O136&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E147">
+    <cfRule type="expression" dxfId="128" priority="83">
+      <formula>AND(E147&gt;200000,E147&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E146">
+    <cfRule type="expression" dxfId="127" priority="82">
+      <formula>AND(E146&gt;200000,E146&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E144:E145">
+    <cfRule type="expression" dxfId="126" priority="81">
+      <formula>AND(E144&gt;200000,E144&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G148">
+    <cfRule type="expression" dxfId="125" priority="80">
+      <formula>AND(G148&gt;200000,G148&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G147">
+    <cfRule type="expression" dxfId="124" priority="79">
+      <formula>AND(G147&gt;200000,G147&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G146">
+    <cfRule type="expression" dxfId="123" priority="78">
+      <formula>AND(G146&gt;200000,G146&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G144:G145">
+    <cfRule type="expression" dxfId="122" priority="77">
+      <formula>AND(G144&gt;200000,G144&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I148">
+    <cfRule type="expression" dxfId="121" priority="76">
+      <formula>AND(I148&gt;200000,I148&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I147">
+    <cfRule type="expression" dxfId="120" priority="75">
+      <formula>AND(I147&gt;200000,I147&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I146">
+    <cfRule type="expression" dxfId="119" priority="74">
+      <formula>AND(I146&gt;200000,I146&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I144:I145">
+    <cfRule type="expression" dxfId="118" priority="73">
+      <formula>AND(I144&gt;200000,I144&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K148">
+    <cfRule type="expression" dxfId="117" priority="72">
+      <formula>AND(K148&gt;200000,K148&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K147">
+    <cfRule type="expression" dxfId="116" priority="71">
+      <formula>AND(K147&gt;200000,K147&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K146">
+    <cfRule type="expression" dxfId="115" priority="70">
+      <formula>AND(K146&gt;200000,K146&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K144:K145">
+    <cfRule type="expression" dxfId="114" priority="69">
+      <formula>AND(K144&gt;200000,K144&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M155">
+    <cfRule type="expression" dxfId="113" priority="68">
+      <formula>AND(M155&gt;200000,M155&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M154">
+    <cfRule type="expression" dxfId="112" priority="67">
+      <formula>AND(M154&gt;200000,M154&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M157">
+    <cfRule type="expression" dxfId="111" priority="66">
+      <formula>AND(M157&gt;200000,M157&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M156">
+    <cfRule type="expression" dxfId="110" priority="65">
+      <formula>AND(M156&gt;200000,M156&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O155">
+    <cfRule type="expression" dxfId="109" priority="64">
+      <formula>AND(O155&gt;200000,O155&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O154">
+    <cfRule type="expression" dxfId="108" priority="63">
+      <formula>AND(O154&gt;200000,O154&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O157">
+    <cfRule type="expression" dxfId="107" priority="62">
+      <formula>AND(O157&gt;200000,O157&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O156">
+    <cfRule type="expression" dxfId="106" priority="61">
+      <formula>AND(O156&gt;200000,O156&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G156">
+    <cfRule type="expression" dxfId="105" priority="60">
+      <formula>AND(G156&gt;200000,G156&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G155">
+    <cfRule type="expression" dxfId="104" priority="59">
+      <formula>AND(G155&gt;200000,G155&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I156">
+    <cfRule type="expression" dxfId="103" priority="58">
+      <formula>AND(I156&gt;200000,I156&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I155">
+    <cfRule type="expression" dxfId="102" priority="57">
+      <formula>AND(I155&gt;200000,I155&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G164">
+    <cfRule type="expression" dxfId="101" priority="56">
+      <formula>AND(G164&gt;200000,G164&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G163">
+    <cfRule type="expression" dxfId="100" priority="55">
+      <formula>AND(G163&gt;200000,G163&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G162">
+    <cfRule type="expression" dxfId="99" priority="54">
+      <formula>AND(G162&gt;200000,G162&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I164">
+    <cfRule type="expression" dxfId="98" priority="53">
+      <formula>AND(I164&gt;200000,I164&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I163">
+    <cfRule type="expression" dxfId="97" priority="52">
+      <formula>AND(I163&gt;200000,I163&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I162">
+    <cfRule type="expression" dxfId="96" priority="51">
+      <formula>AND(I162&gt;200000,I162&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K164">
+    <cfRule type="expression" dxfId="95" priority="50">
+      <formula>AND(K164&gt;200000,K164&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K163">
+    <cfRule type="expression" dxfId="94" priority="49">
+      <formula>AND(K163&gt;200000,K163&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K162">
+    <cfRule type="expression" dxfId="93" priority="48">
+      <formula>AND(K162&gt;200000,K162&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M164">
+    <cfRule type="expression" dxfId="92" priority="47">
+      <formula>AND(M164&gt;200000,M164&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M163">
+    <cfRule type="expression" dxfId="91" priority="46">
+      <formula>AND(M163&gt;200000,M163&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M162">
+    <cfRule type="expression" dxfId="90" priority="45">
+      <formula>AND(M162&gt;200000,M162&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O164">
+    <cfRule type="expression" dxfId="89" priority="44">
+      <formula>AND(O164&gt;200000,O164&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O163">
+    <cfRule type="expression" dxfId="88" priority="43">
+      <formula>AND(O163&gt;200000,O163&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O162">
+    <cfRule type="expression" dxfId="87" priority="42">
+      <formula>AND(O162&gt;200000,O162&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q164">
+    <cfRule type="expression" dxfId="86" priority="41">
+      <formula>AND(Q164&gt;200000,Q164&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q163">
+    <cfRule type="expression" dxfId="85" priority="40">
+      <formula>AND(Q163&gt;200000,Q163&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q162">
+    <cfRule type="expression" dxfId="84" priority="39">
+      <formula>AND(Q162&gt;200000,Q162&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J106:J108">
+    <cfRule type="expression" dxfId="83" priority="38">
+      <formula>AND(J106&gt;200000,J106&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K106:K108">
+    <cfRule type="expression" dxfId="82" priority="37">
+      <formula>AND(K106&gt;200000,K106&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K106:K108">
+    <cfRule type="expression" dxfId="81" priority="36">
+      <formula>AND(K106&gt;200000,K106&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I106:I108">
+    <cfRule type="expression" dxfId="80" priority="35">
+      <formula>AND(I106&gt;200000,I106&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q226">
+    <cfRule type="expression" dxfId="79" priority="34">
+      <formula>AND(Q226&gt;200000,Q226&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S226">
+    <cfRule type="expression" dxfId="78" priority="33">
+      <formula>AND(S226&gt;200000,S226&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U226">
+    <cfRule type="expression" dxfId="77" priority="32">
+      <formula>AND(U226&gt;200000,U226&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E226">
+    <cfRule type="expression" dxfId="76" priority="31">
+      <formula>AND(E226&gt;200000,E226&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G226">
+    <cfRule type="expression" dxfId="75" priority="30">
+      <formula>AND(G226&gt;200000,G226&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I226">
+    <cfRule type="expression" dxfId="74" priority="29">
+      <formula>AND(I226&gt;200000,I226&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K227">
+    <cfRule type="expression" dxfId="73" priority="28">
+      <formula>AND(K227&gt;200000,K227&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M227">
+    <cfRule type="expression" dxfId="72" priority="27">
+      <formula>AND(M227&gt;200000,M227&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O227">
+    <cfRule type="expression" dxfId="71" priority="26">
+      <formula>AND(O227&gt;200000,O227&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M227">
+    <cfRule type="expression" dxfId="70" priority="25">
+      <formula>AND(M227&gt;200000,M227&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O227">
+    <cfRule type="expression" dxfId="69" priority="24">
+      <formula>AND(O227&gt;200000,O227&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q227">
+    <cfRule type="expression" dxfId="68" priority="23">
+      <formula>AND(Q227&gt;200000,Q227&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D152">
+    <cfRule type="expression" dxfId="67" priority="22">
+      <formula>AND(D152&gt;200000,D152&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F152">
+    <cfRule type="expression" dxfId="66" priority="21">
+      <formula>AND(F152&gt;200000,F152&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H152">
+    <cfRule type="expression" dxfId="65" priority="20">
+      <formula>AND(H152&gt;200000,H152&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E152">
+    <cfRule type="expression" dxfId="64" priority="19">
+      <formula>AND(E152&gt;200000,E152&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G152">
+    <cfRule type="expression" dxfId="63" priority="18">
+      <formula>AND(G152&gt;200000,G152&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I152">
+    <cfRule type="expression" dxfId="62" priority="17">
+      <formula>AND(I152&gt;200000,I152&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N236">
+    <cfRule type="expression" dxfId="61" priority="16">
+      <formula>AND(N236&gt;200000,N236&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N236">
+    <cfRule type="expression" dxfId="60" priority="15">
+      <formula>AND(N236&gt;200000,N236&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P236">
+    <cfRule type="expression" dxfId="59" priority="14">
+      <formula>AND(P236&gt;200000,P236&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P236">
+    <cfRule type="expression" dxfId="58" priority="13">
+      <formula>AND(P236&gt;200000,P236&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D167:E167">
+    <cfRule type="expression" dxfId="57" priority="12">
+      <formula>AND(D167&gt;200000,D167&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B167:C167">
+    <cfRule type="expression" dxfId="56" priority="11">
+      <formula>AND(B167&gt;200000,B167&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G165">
+    <cfRule type="expression" dxfId="55" priority="10">
+      <formula>AND(G165&gt;200000,G165&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F165">
+    <cfRule type="expression" dxfId="54" priority="9">
+      <formula>AND(F165&gt;200000,F165&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F165">
+    <cfRule type="expression" dxfId="53" priority="8">
+      <formula>AND(F165&gt;200000,F165&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F166:G166">
+    <cfRule type="expression" dxfId="52" priority="7">
+      <formula>AND(F166&gt;200000,F166&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F166">
-    <cfRule type="expression" dxfId="211" priority="235">
+    <cfRule type="expression" dxfId="51" priority="6">
       <formula>AND(F166&gt;200000,F166&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J167">
-    <cfRule type="expression" dxfId="210" priority="230">
-      <formula>AND(J167&gt;200000,J167&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J165">
-    <cfRule type="expression" dxfId="209" priority="229">
-      <formula>AND(J165&gt;200000,J165&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J165">
-    <cfRule type="expression" dxfId="208" priority="228">
-      <formula>AND(J165&gt;200000,J165&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F166">
-    <cfRule type="expression" dxfId="207" priority="227">
-      <formula>AND(F166&gt;200000,F166&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H166">
-    <cfRule type="expression" dxfId="206" priority="226">
-      <formula>AND(H166&gt;200000,H166&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H167">
-    <cfRule type="expression" dxfId="205" priority="225">
-      <formula>AND(H167&gt;200000,H167&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H167">
-    <cfRule type="expression" dxfId="204" priority="224">
-      <formula>AND(H167&gt;200000,H167&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B136:C136">
-    <cfRule type="expression" dxfId="203" priority="223">
-      <formula>AND(B136&gt;200000,B136&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B137:C137">
-    <cfRule type="expression" dxfId="202" priority="222">
-      <formula>AND(B137&gt;200000,B137&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B138:C138">
-    <cfRule type="expression" dxfId="201" priority="221">
-      <formula>AND(B138&gt;200000,B138&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B140:C140">
-    <cfRule type="expression" dxfId="200" priority="220">
-      <formula>AND(B140&gt;200000,B140&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B141:C141">
-    <cfRule type="expression" dxfId="199" priority="219">
-      <formula>AND(B141&gt;200000,B141&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B144:C144">
-    <cfRule type="expression" dxfId="198" priority="218">
-      <formula>AND(B144&gt;200000,B144&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B145:C145">
-    <cfRule type="expression" dxfId="197" priority="217">
-      <formula>AND(B145&gt;200000,B145&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B146:C146">
-    <cfRule type="expression" dxfId="196" priority="216">
-      <formula>AND(B146&gt;200000,B146&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B147:C147">
-    <cfRule type="expression" dxfId="195" priority="215">
-      <formula>AND(B147&gt;200000,B147&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B149:C149">
-    <cfRule type="expression" dxfId="194" priority="213">
-      <formula>AND(B149&gt;200000,B149&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B150:C150">
-    <cfRule type="expression" dxfId="193" priority="212">
-      <formula>AND(B150&gt;200000,B150&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B151:C151">
-    <cfRule type="expression" dxfId="192" priority="211">
-      <formula>AND(B151&gt;200000,B151&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B148:C148">
-    <cfRule type="expression" dxfId="191" priority="210">
-      <formula>AND(B148&gt;200000,B148&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B152:C152">
-    <cfRule type="expression" dxfId="190" priority="209">
-      <formula>AND(B152&gt;200000,B152&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B153:C153">
-    <cfRule type="expression" dxfId="189" priority="208">
-      <formula>AND(B153&gt;200000,B153&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B139:G139">
-    <cfRule type="expression" dxfId="188" priority="207">
-      <formula>AND(B139&gt;200000,B139&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E138">
-    <cfRule type="expression" dxfId="187" priority="206">
-      <formula>AND(E138&gt;200000,E138&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E136:E137">
-    <cfRule type="expression" dxfId="186" priority="205">
-      <formula>AND(E136&gt;200000,E136&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K139">
-    <cfRule type="expression" dxfId="185" priority="196">
-      <formula>AND(K139&gt;200000,K139&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E140:E142">
-    <cfRule type="expression" dxfId="184" priority="191">
-      <formula>AND(E140&gt;200000,E140&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G140:G142">
-    <cfRule type="expression" dxfId="183" priority="190">
-      <formula>AND(G140&gt;200000,G140&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I140:I142">
-    <cfRule type="expression" dxfId="182" priority="189">
-      <formula>AND(I140&gt;200000,I140&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K140:K142">
-    <cfRule type="expression" dxfId="181" priority="188">
-      <formula>AND(K140&gt;200000,K140&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M140:M142">
-    <cfRule type="expression" dxfId="180" priority="187">
-      <formula>AND(M140&gt;200000,M140&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O140:O142">
-    <cfRule type="expression" dxfId="179" priority="186">
-      <formula>AND(O140&gt;200000,O140&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K143">
-    <cfRule type="expression" dxfId="178" priority="185">
-      <formula>AND(K143&gt;200000,K143&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M143">
-    <cfRule type="expression" dxfId="177" priority="184">
-      <formula>AND(M143&gt;200000,M143&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O143">
-    <cfRule type="expression" dxfId="176" priority="183">
-      <formula>AND(O143&gt;200000,O143&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E148">
-    <cfRule type="expression" dxfId="175" priority="180">
-      <formula>AND(E148&gt;200000,E148&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E149:E151">
-    <cfRule type="expression" dxfId="174" priority="166">
-      <formula>AND(E149&gt;200000,E149&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E152:E153">
-    <cfRule type="expression" dxfId="173" priority="165">
-      <formula>AND(E152&gt;200000,E152&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G149:G151">
-    <cfRule type="expression" dxfId="172" priority="164">
-      <formula>AND(G149&gt;200000,G149&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G152:G153">
-    <cfRule type="expression" dxfId="171" priority="163">
-      <formula>AND(G152&gt;200000,G152&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I149:I151">
-    <cfRule type="expression" dxfId="170" priority="162">
-      <formula>AND(I149&gt;200000,I149&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I152:I153">
-    <cfRule type="expression" dxfId="169" priority="161">
-      <formula>AND(I152&gt;200000,I152&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K153">
-    <cfRule type="expression" dxfId="168" priority="160">
-      <formula>AND(K153&gt;200000,K153&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M153">
-    <cfRule type="expression" dxfId="167" priority="159">
-      <formula>AND(M153&gt;200000,M153&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O153">
-    <cfRule type="expression" dxfId="166" priority="158">
-      <formula>AND(O153&gt;200000,O153&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B154:H154">
-    <cfRule type="expression" dxfId="165" priority="157">
-      <formula>AND(B154&gt;200000,B154&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I157">
-    <cfRule type="expression" dxfId="164" priority="156">
-      <formula>AND(I157&gt;200000,I157&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B157:H157">
-    <cfRule type="expression" dxfId="163" priority="155">
-      <formula>AND(B157&gt;200000,B157&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B155:C155">
-    <cfRule type="expression" dxfId="162" priority="154">
-      <formula>AND(B155&gt;200000,B155&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B156:C156">
-    <cfRule type="expression" dxfId="161" priority="153">
-      <formula>AND(B156&gt;200000,B156&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B158:C158">
-    <cfRule type="expression" dxfId="160" priority="152">
-      <formula>AND(B158&gt;200000,B158&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B159:C159">
-    <cfRule type="expression" dxfId="159" priority="151">
-      <formula>AND(B159&gt;200000,B159&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I161">
-    <cfRule type="expression" dxfId="158" priority="150">
-      <formula>AND(I161&gt;200000,I161&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B161:H161">
-    <cfRule type="expression" dxfId="157" priority="149">
-      <formula>AND(B161&gt;200000,B161&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B160:C160">
-    <cfRule type="expression" dxfId="156" priority="148">
-      <formula>AND(B160&gt;200000,B160&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B162:C162">
-    <cfRule type="expression" dxfId="155" priority="147">
-      <formula>AND(B162&gt;200000,B162&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E156">
-    <cfRule type="expression" dxfId="154" priority="146">
-      <formula>AND(E156&gt;200000,E156&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E155">
-    <cfRule type="expression" dxfId="153" priority="145">
-      <formula>AND(E155&gt;200000,E155&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K155">
-    <cfRule type="expression" dxfId="152" priority="140">
-      <formula>AND(K155&gt;200000,K155&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K154">
-    <cfRule type="expression" dxfId="151" priority="139">
-      <formula>AND(K154&gt;200000,K154&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K157">
-    <cfRule type="expression" dxfId="150" priority="136">
-      <formula>AND(K157&gt;200000,K157&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K156">
-    <cfRule type="expression" dxfId="149" priority="135">
-      <formula>AND(K156&gt;200000,K156&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E158:E160">
-    <cfRule type="expression" dxfId="148" priority="128">
-      <formula>AND(E158&gt;200000,E158&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G158:G160">
-    <cfRule type="expression" dxfId="147" priority="127">
-      <formula>AND(G158&gt;200000,G158&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I158:I160">
-    <cfRule type="expression" dxfId="146" priority="126">
-      <formula>AND(I158&gt;200000,I158&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K158:K160">
-    <cfRule type="expression" dxfId="145" priority="125">
-      <formula>AND(K158&gt;200000,K158&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K161">
-    <cfRule type="expression" dxfId="144" priority="124">
-      <formula>AND(K161&gt;200000,K161&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M158:M160">
-    <cfRule type="expression" dxfId="143" priority="123">
-      <formula>AND(M158&gt;200000,M158&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M161">
-    <cfRule type="expression" dxfId="142" priority="122">
-      <formula>AND(M161&gt;200000,M161&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O158:O160">
-    <cfRule type="expression" dxfId="141" priority="121">
-      <formula>AND(O158&gt;200000,O158&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O161">
-    <cfRule type="expression" dxfId="140" priority="120">
-      <formula>AND(O161&gt;200000,O161&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B163:C163">
-    <cfRule type="expression" dxfId="139" priority="119">
-      <formula>AND(B163&gt;200000,B163&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B164:C164">
-    <cfRule type="expression" dxfId="138" priority="118">
-      <formula>AND(B164&gt;200000,B164&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B165:C165">
-    <cfRule type="expression" dxfId="137" priority="117">
-      <formula>AND(B165&gt;200000,B165&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D166:E166">
-    <cfRule type="expression" dxfId="136" priority="116">
-      <formula>AND(D166&gt;200000,D166&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B166:C166">
-    <cfRule type="expression" dxfId="135" priority="115">
-      <formula>AND(B166&gt;200000,B166&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B167:G167">
-    <cfRule type="expression" dxfId="134" priority="114">
-      <formula>AND(B167&gt;200000,B167&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E164">
-    <cfRule type="expression" dxfId="133" priority="113">
-      <formula>AND(E164&gt;200000,E164&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E163">
-    <cfRule type="expression" dxfId="132" priority="112">
-      <formula>AND(E163&gt;200000,E163&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E162">
-    <cfRule type="expression" dxfId="131" priority="111">
-      <formula>AND(E162&gt;200000,E162&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I167">
-    <cfRule type="expression" dxfId="130" priority="91">
-      <formula>AND(I167&gt;200000,I167&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B168:G168">
-    <cfRule type="expression" dxfId="129" priority="90">
-      <formula>AND(B168&gt;200000,B168&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B169:G169">
-    <cfRule type="expression" dxfId="128" priority="89">
-      <formula>AND(B169&gt;200000,B169&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B170:G170">
-    <cfRule type="expression" dxfId="127" priority="88">
-      <formula>AND(B170&gt;200000,B170&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B171:G171">
-    <cfRule type="expression" dxfId="126" priority="87">
-      <formula>AND(B171&gt;200000,B171&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B172:G172">
-    <cfRule type="expression" dxfId="125" priority="86">
-      <formula>AND(B172&gt;200000,B172&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B173:G173">
-    <cfRule type="expression" dxfId="124" priority="85">
-      <formula>AND(B173&gt;200000,B173&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B174:G174">
-    <cfRule type="expression" dxfId="123" priority="84">
-      <formula>AND(B174&gt;200000,B174&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B175:G175">
-    <cfRule type="expression" dxfId="122" priority="83">
-      <formula>AND(B175&gt;200000,B175&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B176:G176">
-    <cfRule type="expression" dxfId="121" priority="82">
-      <formula>AND(B176&gt;200000,B176&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B177:G177">
-    <cfRule type="expression" dxfId="120" priority="81">
-      <formula>AND(B177&gt;200000,B177&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B178:G178">
-    <cfRule type="expression" dxfId="119" priority="80">
-      <formula>AND(B178&gt;200000,B178&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B179:G179">
-    <cfRule type="expression" dxfId="118" priority="79">
-      <formula>AND(B179&gt;200000,B179&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B180:G180">
-    <cfRule type="expression" dxfId="117" priority="78">
-      <formula>AND(B180&gt;200000,B180&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B181:G181">
-    <cfRule type="expression" dxfId="116" priority="77">
-      <formula>AND(B181&gt;200000,B181&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B182:G182">
-    <cfRule type="expression" dxfId="115" priority="76">
-      <formula>AND(B182&gt;200000,B182&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B183:G183">
-    <cfRule type="expression" dxfId="114" priority="75">
-      <formula>AND(B183&gt;200000,B183&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J226">
-    <cfRule type="expression" dxfId="113" priority="74">
-      <formula>AND(J226&gt;200000,J226&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N226">
-    <cfRule type="expression" dxfId="112" priority="73">
-      <formula>AND(N226&gt;200000,N226&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L226">
-    <cfRule type="expression" dxfId="111" priority="72">
-      <formula>AND(L226&gt;200000,L226&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K227">
-    <cfRule type="expression" dxfId="110" priority="71">
-      <formula>AND(K227&gt;200000,K227&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K226">
-    <cfRule type="expression" dxfId="109" priority="70">
-      <formula>AND(K226&gt;200000,K226&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M227">
-    <cfRule type="expression" dxfId="108" priority="69">
-      <formula>AND(M227&gt;200000,M227&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M226">
-    <cfRule type="expression" dxfId="107" priority="68">
-      <formula>AND(M226&gt;200000,M226&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O227">
-    <cfRule type="expression" dxfId="106" priority="67">
-      <formula>AND(O227&gt;200000,O227&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O226">
-    <cfRule type="expression" dxfId="105" priority="66">
-      <formula>AND(O226&gt;200000,O226&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K103:K108">
-    <cfRule type="expression" dxfId="104" priority="65">
-      <formula>AND(K103&gt;200000,K103&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C118:C123">
-    <cfRule type="expression" dxfId="103" priority="64">
-      <formula>AND(C118&gt;200000,C118&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118:E123">
-    <cfRule type="expression" dxfId="102" priority="63">
-      <formula>AND(E118&gt;200000,E118&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G118:G123">
-    <cfRule type="expression" dxfId="101" priority="62">
-      <formula>AND(G118&gt;200000,G118&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E134">
-    <cfRule type="expression" dxfId="100" priority="61">
-      <formula>AND(E134&gt;200000,E134&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E128:E133">
-    <cfRule type="expression" dxfId="99" priority="60">
-      <formula>AND(E128&gt;200000,E128&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G134">
-    <cfRule type="expression" dxfId="98" priority="59">
-      <formula>AND(G134&gt;200000,G134&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G128:G133">
-    <cfRule type="expression" dxfId="97" priority="58">
-      <formula>AND(G128&gt;200000,G128&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G138">
-    <cfRule type="expression" dxfId="96" priority="57">
-      <formula>AND(G138&gt;200000,G138&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G136:G137">
-    <cfRule type="expression" dxfId="95" priority="56">
-      <formula>AND(G136&gt;200000,G136&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I138">
-    <cfRule type="expression" dxfId="94" priority="55">
-      <formula>AND(I138&gt;200000,I138&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I136:I137">
-    <cfRule type="expression" dxfId="93" priority="54">
-      <formula>AND(I136&gt;200000,I136&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K138">
-    <cfRule type="expression" dxfId="92" priority="53">
-      <formula>AND(K138&gt;200000,K138&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K136:K137">
-    <cfRule type="expression" dxfId="91" priority="52">
-      <formula>AND(K136&gt;200000,K136&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M139">
-    <cfRule type="expression" dxfId="90" priority="51">
-      <formula>AND(M139&gt;200000,M139&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M138">
-    <cfRule type="expression" dxfId="89" priority="50">
-      <formula>AND(M138&gt;200000,M138&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M136:M137">
-    <cfRule type="expression" dxfId="88" priority="49">
-      <formula>AND(M136&gt;200000,M136&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O139">
-    <cfRule type="expression" dxfId="87" priority="48">
-      <formula>AND(O139&gt;200000,O139&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O138">
-    <cfRule type="expression" dxfId="86" priority="47">
-      <formula>AND(O138&gt;200000,O138&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O136:O137">
-    <cfRule type="expression" dxfId="85" priority="46">
-      <formula>AND(O136&gt;200000,O136&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E147">
-    <cfRule type="expression" dxfId="84" priority="45">
-      <formula>AND(E147&gt;200000,E147&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E146">
-    <cfRule type="expression" dxfId="83" priority="44">
-      <formula>AND(E146&gt;200000,E146&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E144:E145">
-    <cfRule type="expression" dxfId="82" priority="43">
-      <formula>AND(E144&gt;200000,E144&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G148">
-    <cfRule type="expression" dxfId="81" priority="42">
-      <formula>AND(G148&gt;200000,G148&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G147">
-    <cfRule type="expression" dxfId="80" priority="41">
-      <formula>AND(G147&gt;200000,G147&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G146">
-    <cfRule type="expression" dxfId="79" priority="40">
-      <formula>AND(G146&gt;200000,G146&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G144:G145">
-    <cfRule type="expression" dxfId="78" priority="39">
-      <formula>AND(G144&gt;200000,G144&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I148">
-    <cfRule type="expression" dxfId="77" priority="38">
-      <formula>AND(I148&gt;200000,I148&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I147">
-    <cfRule type="expression" dxfId="76" priority="37">
-      <formula>AND(I147&gt;200000,I147&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I146">
-    <cfRule type="expression" dxfId="75" priority="36">
-      <formula>AND(I146&gt;200000,I146&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I144:I145">
-    <cfRule type="expression" dxfId="74" priority="35">
-      <formula>AND(I144&gt;200000,I144&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K148">
-    <cfRule type="expression" dxfId="73" priority="34">
-      <formula>AND(K148&gt;200000,K148&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K147">
-    <cfRule type="expression" dxfId="72" priority="33">
-      <formula>AND(K147&gt;200000,K147&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K146">
-    <cfRule type="expression" dxfId="71" priority="32">
-      <formula>AND(K146&gt;200000,K146&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K144:K145">
-    <cfRule type="expression" dxfId="70" priority="31">
-      <formula>AND(K144&gt;200000,K144&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M155">
-    <cfRule type="expression" dxfId="69" priority="30">
-      <formula>AND(M155&gt;200000,M155&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M154">
-    <cfRule type="expression" dxfId="68" priority="29">
-      <formula>AND(M154&gt;200000,M154&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M157">
-    <cfRule type="expression" dxfId="67" priority="28">
-      <formula>AND(M157&gt;200000,M157&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M156">
-    <cfRule type="expression" dxfId="66" priority="27">
-      <formula>AND(M156&gt;200000,M156&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O155">
-    <cfRule type="expression" dxfId="65" priority="26">
-      <formula>AND(O155&gt;200000,O155&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O154">
-    <cfRule type="expression" dxfId="64" priority="25">
-      <formula>AND(O154&gt;200000,O154&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O157">
-    <cfRule type="expression" dxfId="63" priority="24">
-      <formula>AND(O157&gt;200000,O157&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O156">
-    <cfRule type="expression" dxfId="62" priority="23">
-      <formula>AND(O156&gt;200000,O156&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G156">
-    <cfRule type="expression" dxfId="61" priority="22">
-      <formula>AND(G156&gt;200000,G156&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G155">
-    <cfRule type="expression" dxfId="60" priority="21">
-      <formula>AND(G155&gt;200000,G155&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I156">
-    <cfRule type="expression" dxfId="59" priority="20">
-      <formula>AND(I156&gt;200000,I156&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I155">
-    <cfRule type="expression" dxfId="58" priority="19">
-      <formula>AND(I155&gt;200000,I155&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G164">
-    <cfRule type="expression" dxfId="57" priority="18">
-      <formula>AND(G164&gt;200000,G164&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G163">
-    <cfRule type="expression" dxfId="56" priority="17">
-      <formula>AND(G163&gt;200000,G163&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G162">
-    <cfRule type="expression" dxfId="55" priority="16">
-      <formula>AND(G162&gt;200000,G162&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I164">
-    <cfRule type="expression" dxfId="54" priority="15">
-      <formula>AND(I164&gt;200000,I164&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I163">
-    <cfRule type="expression" dxfId="53" priority="14">
-      <formula>AND(I163&gt;200000,I163&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I162">
-    <cfRule type="expression" dxfId="52" priority="13">
-      <formula>AND(I162&gt;200000,I162&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K164">
-    <cfRule type="expression" dxfId="51" priority="12">
-      <formula>AND(K164&gt;200000,K164&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K163">
-    <cfRule type="expression" dxfId="50" priority="11">
-      <formula>AND(K163&gt;200000,K163&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K162">
-    <cfRule type="expression" dxfId="49" priority="10">
-      <formula>AND(K162&gt;200000,K162&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M164">
-    <cfRule type="expression" dxfId="48" priority="9">
-      <formula>AND(M164&gt;200000,M164&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M163">
-    <cfRule type="expression" dxfId="47" priority="8">
-      <formula>AND(M163&gt;200000,M163&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M162">
-    <cfRule type="expression" dxfId="46" priority="7">
-      <formula>AND(M162&gt;200000,M162&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O164">
-    <cfRule type="expression" dxfId="45" priority="6">
-      <formula>AND(O164&gt;200000,O164&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O163">
-    <cfRule type="expression" dxfId="44" priority="5">
-      <formula>AND(O163&gt;200000,O163&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O162">
-    <cfRule type="expression" dxfId="43" priority="4">
-      <formula>AND(O162&gt;200000,O162&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q164">
-    <cfRule type="expression" dxfId="42" priority="3">
-      <formula>AND(Q164&gt;200000,Q164&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q163">
-    <cfRule type="expression" dxfId="41" priority="2">
-      <formula>AND(Q163&gt;200000,Q163&lt;300000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q162">
-    <cfRule type="expression" dxfId="40" priority="1">
-      <formula>AND(Q162&gt;200000,Q162&lt;300000)</formula>
+  <conditionalFormatting sqref="F167:G167">
+    <cfRule type="expression" dxfId="50" priority="5">
+      <formula>AND(F167&gt;200000,F167&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P236">
+    <cfRule type="expression" dxfId="7" priority="4">
+      <formula>AND(P236&gt;200000,P236&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P236">
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>AND(P236&gt;200000,P236&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R236">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>AND(R236&gt;200000,R236&lt;300000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R236">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>AND(R236&gt;200000,R236&lt;300000)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
@@ -20677,10 +20832,10 @@
   <dimension ref="A1:L239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B212" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B213" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F239" sqref="F239"/>
+      <selection pane="bottomRight" activeCell="G226" sqref="G226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -21650,7 +21805,7 @@
       </c>
       <c r="F20" t="str">
         <f>IF(Sheet1!H20="","",IF(Sheet1!H20 &lt; 300000, VLOOKUP(Sheet1!H20,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!H20,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>召唤骷髅</v>
       </c>
       <c r="G20" t="str">
         <f>IF(Sheet1!J20="","",IF(Sheet1!J20 &lt; 300000, VLOOKUP(Sheet1!J20,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!J20,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -25250,15 +25405,15 @@
       </c>
       <c r="F92" t="str">
         <f>IF(Sheet1!H92="","",IF(Sheet1!H92 &lt; 300000, VLOOKUP(Sheet1!H92,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!H92,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>星王项链(战)</v>
+        <v/>
       </c>
       <c r="G92" t="str">
         <f>IF(Sheet1!J92="","",IF(Sheet1!J92 &lt; 300000, VLOOKUP(Sheet1!J92,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!J92,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>星王项链(法)</v>
+        <v/>
       </c>
       <c r="H92" t="str">
         <f>IF(Sheet1!L92="","",IF(Sheet1!L92 &lt; 300000, VLOOKUP(Sheet1!L92,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!L92,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>星王项链(道)</v>
+        <v/>
       </c>
       <c r="I92" t="str">
         <f>IF(Sheet1!N92="","",IF(Sheet1!N92 &lt; 300000, VLOOKUP(Sheet1!N92,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!N92,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -25300,15 +25455,15 @@
       </c>
       <c r="F93" t="str">
         <f>IF(Sheet1!H93="","",IF(Sheet1!H93 &lt; 300000, VLOOKUP(Sheet1!H93,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!H93,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>星王护腕(战)</v>
+        <v/>
       </c>
       <c r="G93" t="str">
         <f>IF(Sheet1!J93="","",IF(Sheet1!J93 &lt; 300000, VLOOKUP(Sheet1!J93,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!J93,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>星王护腕(法)</v>
+        <v/>
       </c>
       <c r="H93" t="str">
         <f>IF(Sheet1!L93="","",IF(Sheet1!L93 &lt; 300000, VLOOKUP(Sheet1!L93,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!L93,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>星王护腕(道)</v>
+        <v/>
       </c>
       <c r="I93" t="str">
         <f>IF(Sheet1!N93="","",IF(Sheet1!N93 &lt; 300000, VLOOKUP(Sheet1!N93,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!N93,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -25350,15 +25505,15 @@
       </c>
       <c r="F94" t="str">
         <f>IF(Sheet1!H94="","",IF(Sheet1!H94 &lt; 300000, VLOOKUP(Sheet1!H94,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!H94,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>星王战戒</v>
+        <v/>
       </c>
       <c r="G94" t="str">
         <f>IF(Sheet1!J94="","",IF(Sheet1!J94 &lt; 300000, VLOOKUP(Sheet1!J94,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!J94,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>星王魔戒</v>
+        <v/>
       </c>
       <c r="H94" t="str">
         <f>IF(Sheet1!L94="","",IF(Sheet1!L94 &lt; 300000, VLOOKUP(Sheet1!L94,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!L94,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>星王道戒</v>
+        <v/>
       </c>
       <c r="I94" t="str">
         <f>IF(Sheet1!N94="","",IF(Sheet1!N94 &lt; 300000, VLOOKUP(Sheet1!N94,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!N94,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -25808,7 +25963,7 @@
       </c>
       <c r="H103" t="str">
         <f>IF(Sheet1!L103="","",IF(Sheet1!L103 &lt; 300000, VLOOKUP(Sheet1!L103,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!L103,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>狂雷项链</v>
+        <v/>
       </c>
       <c r="I103" t="str">
         <f>IF(Sheet1!N103="","",IF(Sheet1!N103 &lt; 300000, VLOOKUP(Sheet1!N103,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!N103,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -25858,7 +26013,7 @@
       </c>
       <c r="H104" t="str">
         <f>IF(Sheet1!L104="","",IF(Sheet1!L104 &lt; 300000, VLOOKUP(Sheet1!L104,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!L104,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>逆火项链</v>
+        <v/>
       </c>
       <c r="I104" t="str">
         <f>IF(Sheet1!N104="","",IF(Sheet1!N104 &lt; 300000, VLOOKUP(Sheet1!N104,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!N104,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -25908,7 +26063,7 @@
       </c>
       <c r="H105" t="str">
         <f>IF(Sheet1!L105="","",IF(Sheet1!L105 &lt; 300000, VLOOKUP(Sheet1!L105,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!L105,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>通云项链</v>
+        <v/>
       </c>
       <c r="I105" t="str">
         <f>IF(Sheet1!N105="","",IF(Sheet1!N105 &lt; 300000, VLOOKUP(Sheet1!N105,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!N105,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -25950,15 +26105,15 @@
       </c>
       <c r="F106" t="str">
         <f>IF(Sheet1!H106="","",IF(Sheet1!H106 &lt; 300000, VLOOKUP(Sheet1!H106,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!H106,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>狂雷护腕</v>
+        <v>雷霆战靴</v>
       </c>
       <c r="G106" t="str">
         <f>IF(Sheet1!J106="","",IF(Sheet1!J106 &lt; 300000, VLOOKUP(Sheet1!J106,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!J106,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>雷霆战靴</v>
+        <v>狂雷战靴</v>
       </c>
       <c r="H106" t="str">
         <f>IF(Sheet1!L106="","",IF(Sheet1!L106 &lt; 300000, VLOOKUP(Sheet1!L106,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!L106,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>狂雷战靴</v>
+        <v/>
       </c>
       <c r="I106" t="str">
         <f>IF(Sheet1!N106="","",IF(Sheet1!N106 &lt; 300000, VLOOKUP(Sheet1!N106,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!N106,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -26000,15 +26155,15 @@
       </c>
       <c r="F107" t="str">
         <f>IF(Sheet1!H107="","",IF(Sheet1!H107 &lt; 300000, VLOOKUP(Sheet1!H107,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!H107,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>逆火护腕</v>
+        <v>烈焰魔靴</v>
       </c>
       <c r="G107" t="str">
         <f>IF(Sheet1!J107="","",IF(Sheet1!J107 &lt; 300000, VLOOKUP(Sheet1!J107,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!J107,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>烈焰魔靴</v>
+        <v>逆火魔靴</v>
       </c>
       <c r="H107" t="str">
         <f>IF(Sheet1!L107="","",IF(Sheet1!L107 &lt; 300000, VLOOKUP(Sheet1!L107,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!L107,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>逆火魔靴</v>
+        <v/>
       </c>
       <c r="I107" t="str">
         <f>IF(Sheet1!N107="","",IF(Sheet1!N107 &lt; 300000, VLOOKUP(Sheet1!N107,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!N107,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -26050,15 +26205,15 @@
       </c>
       <c r="F108" t="str">
         <f>IF(Sheet1!H108="","",IF(Sheet1!H108 &lt; 300000, VLOOKUP(Sheet1!H108,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!H108,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>通云护腕</v>
+        <v>光芒道靴</v>
       </c>
       <c r="G108" t="str">
         <f>IF(Sheet1!J108="","",IF(Sheet1!J108 &lt; 300000, VLOOKUP(Sheet1!J108,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!J108,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>光芒道靴</v>
+        <v>通云道靴</v>
       </c>
       <c r="H108" t="str">
         <f>IF(Sheet1!L108="","",IF(Sheet1!L108 &lt; 300000, VLOOKUP(Sheet1!L108,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!L108,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>通云道靴</v>
+        <v/>
       </c>
       <c r="I108" t="str">
         <f>IF(Sheet1!N108="","",IF(Sheet1!N108 &lt; 300000, VLOOKUP(Sheet1!N108,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!N108,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -27050,15 +27205,15 @@
       </c>
       <c r="F128" t="str">
         <f>IF(Sheet1!H128="","",IF(Sheet1!H128 &lt; 300000, VLOOKUP(Sheet1!H128,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!H128,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>炎龙战盔</v>
+        <v/>
       </c>
       <c r="G128" t="str">
         <f>IF(Sheet1!J128="","",IF(Sheet1!J128 &lt; 300000, VLOOKUP(Sheet1!J128,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!J128,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>雷龙魔盔</v>
+        <v/>
       </c>
       <c r="H128" t="str">
         <f>IF(Sheet1!L128="","",IF(Sheet1!L128 &lt; 300000, VLOOKUP(Sheet1!L128,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!L128,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>青龙道盔</v>
+        <v/>
       </c>
       <c r="I128" t="str">
         <f>IF(Sheet1!N128="","",IF(Sheet1!N128 &lt; 300000, VLOOKUP(Sheet1!N128,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!N128,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -27200,15 +27355,15 @@
       </c>
       <c r="F131" t="str">
         <f>IF(Sheet1!H131="","",IF(Sheet1!H131 &lt; 300000, VLOOKUP(Sheet1!H131,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!H131,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>炎龙项链</v>
+        <v/>
       </c>
       <c r="G131" t="str">
         <f>IF(Sheet1!J131="","",IF(Sheet1!J131 &lt; 300000, VLOOKUP(Sheet1!J131,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!J131,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>雷龙项链</v>
+        <v/>
       </c>
       <c r="H131" t="str">
         <f>IF(Sheet1!L131="","",IF(Sheet1!L131 &lt; 300000, VLOOKUP(Sheet1!L131,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!L131,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>青龙项链</v>
+        <v/>
       </c>
       <c r="I131" t="str">
         <f>IF(Sheet1!N131="","",IF(Sheet1!N131 &lt; 300000, VLOOKUP(Sheet1!N131,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!N131,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -27250,15 +27405,15 @@
       </c>
       <c r="F132" t="str">
         <f>IF(Sheet1!H132="","",IF(Sheet1!H132 &lt; 300000, VLOOKUP(Sheet1!H132,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!H132,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>炎龙护腕</v>
+        <v/>
       </c>
       <c r="G132" t="str">
         <f>IF(Sheet1!J132="","",IF(Sheet1!J132 &lt; 300000, VLOOKUP(Sheet1!J132,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!J132,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>雷龙护腕</v>
+        <v/>
       </c>
       <c r="H132" t="str">
         <f>IF(Sheet1!L132="","",IF(Sheet1!L132 &lt; 300000, VLOOKUP(Sheet1!L132,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!L132,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>青龙护腕</v>
+        <v/>
       </c>
       <c r="I132" t="str">
         <f>IF(Sheet1!N132="","",IF(Sheet1!N132 &lt; 300000, VLOOKUP(Sheet1!N132,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!N132,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -27300,15 +27455,15 @@
       </c>
       <c r="F133" t="str">
         <f>IF(Sheet1!H133="","",IF(Sheet1!H133 &lt; 300000, VLOOKUP(Sheet1!H133,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!H133,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>炎龙战戒</v>
+        <v/>
       </c>
       <c r="G133" t="str">
         <f>IF(Sheet1!J133="","",IF(Sheet1!J133 &lt; 300000, VLOOKUP(Sheet1!J133,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!J133,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>雷龙魔戒</v>
+        <v/>
       </c>
       <c r="H133" t="str">
         <f>IF(Sheet1!L133="","",IF(Sheet1!L133 &lt; 300000, VLOOKUP(Sheet1!L133,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!L133,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>青龙道戒</v>
+        <v/>
       </c>
       <c r="I133" t="str">
         <f>IF(Sheet1!N133="","",IF(Sheet1!N133 &lt; 300000, VLOOKUP(Sheet1!N133,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!N133,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -28092,15 +28247,15 @@
       </c>
       <c r="D149" t="str">
         <f>IF(Sheet1!D149="","",IF(Sheet1!D149 &lt; 300000, VLOOKUP(Sheet1!D149,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!D149,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>天龙项链(战)</v>
+        <v/>
       </c>
       <c r="E149" t="str">
         <f>IF(Sheet1!F149="","",IF(Sheet1!F149 &lt; 300000, VLOOKUP(Sheet1!F149,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!F149,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>天龙护腕(战)</v>
+        <v/>
       </c>
       <c r="F149" t="str">
         <f>IF(Sheet1!H149="","",IF(Sheet1!H149 &lt; 300000, VLOOKUP(Sheet1!H149,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!H149,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>天龙战盔</v>
+        <v/>
       </c>
       <c r="G149" t="str">
         <f>IF(Sheet1!J149="","",IF(Sheet1!J149 &lt; 300000, VLOOKUP(Sheet1!J149,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!J149,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -28142,15 +28297,15 @@
       </c>
       <c r="D150" t="str">
         <f>IF(Sheet1!D150="","",IF(Sheet1!D150 &lt; 300000, VLOOKUP(Sheet1!D150,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!D150,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>天龙项链(法)</v>
+        <v/>
       </c>
       <c r="E150" t="str">
         <f>IF(Sheet1!F150="","",IF(Sheet1!F150 &lt; 300000, VLOOKUP(Sheet1!F150,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!F150,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>天龙护腕(法)</v>
+        <v/>
       </c>
       <c r="F150" t="str">
         <f>IF(Sheet1!H150="","",IF(Sheet1!H150 &lt; 300000, VLOOKUP(Sheet1!H150,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!H150,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>天龙魔盔</v>
+        <v/>
       </c>
       <c r="G150" t="str">
         <f>IF(Sheet1!J150="","",IF(Sheet1!J150 &lt; 300000, VLOOKUP(Sheet1!J150,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!J150,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -28192,15 +28347,15 @@
       </c>
       <c r="D151" t="str">
         <f>IF(Sheet1!D151="","",IF(Sheet1!D151 &lt; 300000, VLOOKUP(Sheet1!D151,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!D151,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>天龙项链(道)</v>
+        <v/>
       </c>
       <c r="E151" t="str">
         <f>IF(Sheet1!F151="","",IF(Sheet1!F151 &lt; 300000, VLOOKUP(Sheet1!F151,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!F151,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>天龙护腕(道)</v>
+        <v/>
       </c>
       <c r="F151" t="str">
         <f>IF(Sheet1!H151="","",IF(Sheet1!H151 &lt; 300000, VLOOKUP(Sheet1!H151,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!H151,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>天龙道盔</v>
+        <v/>
       </c>
       <c r="G151" t="str">
         <f>IF(Sheet1!J151="","",IF(Sheet1!J151 &lt; 300000, VLOOKUP(Sheet1!J151,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!J151,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -28242,15 +28397,15 @@
       </c>
       <c r="D152" t="str">
         <f>IF(Sheet1!D152="","",IF(Sheet1!D152 &lt; 300000, VLOOKUP(Sheet1!D152,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!D152,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>天龙战戒</v>
+        <v>天龙战靴</v>
       </c>
       <c r="E152" t="str">
         <f>IF(Sheet1!F152="","",IF(Sheet1!F152 &lt; 300000, VLOOKUP(Sheet1!F152,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!F152,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>天龙魔戒</v>
+        <v>天龙魔靴</v>
       </c>
       <c r="F152" t="str">
         <f>IF(Sheet1!H152="","",IF(Sheet1!H152 &lt; 300000, VLOOKUP(Sheet1!H152,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!H152,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>天龙道戒</v>
+        <v>天龙道靴</v>
       </c>
       <c r="G152" t="str">
         <f>IF(Sheet1!J152="","",IF(Sheet1!J152 &lt; 300000, VLOOKUP(Sheet1!J152,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!J152,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -28304,15 +28459,15 @@
       </c>
       <c r="G153" t="str">
         <f>IF(Sheet1!J153="","",IF(Sheet1!J153 &lt; 300000, VLOOKUP(Sheet1!J153,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!J153,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>天龙战靴</v>
+        <v/>
       </c>
       <c r="H153" t="str">
         <f>IF(Sheet1!L153="","",IF(Sheet1!L153 &lt; 300000, VLOOKUP(Sheet1!L153,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!L153,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>天龙魔靴</v>
+        <v/>
       </c>
       <c r="I153" t="str">
         <f>IF(Sheet1!N153="","",IF(Sheet1!N153 &lt; 300000, VLOOKUP(Sheet1!N153,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!N153,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>天龙道靴</v>
+        <v/>
       </c>
       <c r="J153" t="str">
         <f>IF(Sheet1!P153="","",IF(Sheet1!P153 &lt; 300000, VLOOKUP(Sheet1!P153,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!P153,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -28896,15 +29051,15 @@
       </c>
       <c r="E165" t="str">
         <f>IF(Sheet1!F165="","",IF(Sheet1!F165 &lt; 300000, VLOOKUP(Sheet1!F165,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!F165,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>传奇之冠</v>
+        <v>传奇勋章</v>
       </c>
       <c r="F165" t="str">
         <f>IF(Sheet1!H165="","",IF(Sheet1!H165 &lt; 300000, VLOOKUP(Sheet1!H165,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!H165,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>传奇项链</v>
+        <v/>
       </c>
       <c r="G165" t="str">
         <f>IF(Sheet1!J165="","",IF(Sheet1!J165 &lt; 300000, VLOOKUP(Sheet1!J165,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!J165,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>传奇护腕</v>
+        <v/>
       </c>
       <c r="H165" t="str">
         <f>IF(Sheet1!L165="","",IF(Sheet1!L165 &lt; 300000, VLOOKUP(Sheet1!L165,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!L165,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -28946,15 +29101,15 @@
       </c>
       <c r="E166" t="str">
         <f>IF(Sheet1!F166="","",IF(Sheet1!F166 &lt; 300000, VLOOKUP(Sheet1!F166,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!F166,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>传奇勋章</v>
+        <v>传奇腰带</v>
       </c>
       <c r="F166" t="str">
         <f>IF(Sheet1!H166="","",IF(Sheet1!H166 &lt; 300000, VLOOKUP(Sheet1!H166,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!H166,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>传奇腰带</v>
+        <v/>
       </c>
       <c r="G166" t="str">
         <f>IF(Sheet1!J166="","",IF(Sheet1!J166 &lt; 300000, VLOOKUP(Sheet1!J166,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!J166,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>传奇之靴</v>
+        <v/>
       </c>
       <c r="H166" t="str">
         <f>IF(Sheet1!L166="","",IF(Sheet1!L166 &lt; 300000, VLOOKUP(Sheet1!L166,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!L166,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -28988,19 +29143,19 @@
       </c>
       <c r="C167" t="str">
         <f>IF(Sheet1!B167="","",IF(Sheet1!B167 &lt; 300000, VLOOKUP(Sheet1!B167,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!B167,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>大堆银币</v>
+        <v>魔法药(地)</v>
       </c>
       <c r="D167" t="str">
         <f>IF(Sheet1!D167="","",IF(Sheet1!D167 &lt; 300000, VLOOKUP(Sheet1!D167,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!D167,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>银元</v>
+        <v>金创药(地)</v>
       </c>
       <c r="E167" t="str">
         <f>IF(Sheet1!F167="","",IF(Sheet1!F167 &lt; 300000, VLOOKUP(Sheet1!F167,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!F167,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>零星金币</v>
+        <v>传奇之靴</v>
       </c>
       <c r="F167" t="str">
         <f>IF(Sheet1!H167="","",IF(Sheet1!H167 &lt; 300000, VLOOKUP(Sheet1!H167,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!H167,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>传奇之戒</v>
+        <v/>
       </c>
       <c r="G167" t="str">
         <f>IF(Sheet1!J167="","",IF(Sheet1!J167 &lt; 300000, VLOOKUP(Sheet1!J167,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!J167,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -29900,11 +30055,11 @@
       </c>
       <c r="F185" t="str">
         <f>IF(Sheet1!H185="","",IF(Sheet1!H185 &lt; 300000, VLOOKUP(Sheet1!H185,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!H185,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>初级勋章1</v>
+        <v/>
       </c>
       <c r="G185" t="str">
         <f>IF(Sheet1!J185="","",IF(Sheet1!J185 &lt; 300000, VLOOKUP(Sheet1!J185,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!J185,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>初级勋章2</v>
+        <v/>
       </c>
       <c r="H185" t="str">
         <f>IF(Sheet1!L185="","",IF(Sheet1!L185 &lt; 300000, VLOOKUP(Sheet1!L185,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!L185,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -30012,7 +30167,7 @@
       </c>
       <c r="I187" t="str">
         <f>IF(Sheet1!N187="","",IF(Sheet1!N187 &lt; 300000, VLOOKUP(Sheet1!N187,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!N187,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>召唤神兽</v>
       </c>
       <c r="J187" t="str">
         <f>IF(Sheet1!P187="","",IF(Sheet1!P187 &lt; 300000, VLOOKUP(Sheet1!P187,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!P187,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -30162,11 +30317,11 @@
       </c>
       <c r="I190" t="str">
         <f>IF(Sheet1!N190="","",IF(Sheet1!N190 &lt; 300000, VLOOKUP(Sheet1!N190,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!N190,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>初级勋章1</v>
       </c>
       <c r="J190" t="str">
         <f>IF(Sheet1!P190="","",IF(Sheet1!P190 &lt; 300000, VLOOKUP(Sheet1!P190,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!P190,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>初级勋章2</v>
       </c>
       <c r="K190" t="str">
         <f>IF(Sheet1!R190="","",IF(Sheet1!R190 &lt; 300000, VLOOKUP(Sheet1!R190,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!R190,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -30200,11 +30355,11 @@
       </c>
       <c r="F191" t="str">
         <f>IF(Sheet1!H191="","",IF(Sheet1!H191 &lt; 300000, VLOOKUP(Sheet1!H191,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!H191,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>初级勋章1</v>
+        <v/>
       </c>
       <c r="G191" t="str">
         <f>IF(Sheet1!J191="","",IF(Sheet1!J191 &lt; 300000, VLOOKUP(Sheet1!J191,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!J191,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>初级勋章2</v>
+        <v/>
       </c>
       <c r="H191" t="str">
         <f>IF(Sheet1!L191="","",IF(Sheet1!L191 &lt; 300000, VLOOKUP(Sheet1!L191,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!L191,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -30450,7 +30605,7 @@
       </c>
       <c r="F196" t="str">
         <f>IF(Sheet1!H196="","",IF(Sheet1!H196 &lt; 300000, VLOOKUP(Sheet1!H196,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!H196,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>红宝石戒指</v>
+        <v>思贝儿手镯</v>
       </c>
       <c r="G196" t="str">
         <f>IF(Sheet1!J196="","",IF(Sheet1!J196 &lt; 300000, VLOOKUP(Sheet1!J196,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!J196,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -30458,11 +30613,11 @@
       </c>
       <c r="H196" t="str">
         <f>IF(Sheet1!L196="","",IF(Sheet1!L196 &lt; 300000, VLOOKUP(Sheet1!L196,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!L196,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>红宝石戒指</v>
       </c>
       <c r="I196" t="str">
         <f>IF(Sheet1!N196="","",IF(Sheet1!N196 &lt; 300000, VLOOKUP(Sheet1!N196,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!N196,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>龙之戒指</v>
       </c>
       <c r="J196" t="str">
         <f>IF(Sheet1!P196="","",IF(Sheet1!P196 &lt; 300000, VLOOKUP(Sheet1!P196,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!P196,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -30504,11 +30659,11 @@
       </c>
       <c r="G197" t="str">
         <f>IF(Sheet1!J197="","",IF(Sheet1!J197 &lt; 300000, VLOOKUP(Sheet1!J197,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!J197,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>铂金戒指</v>
+        <v>生命项链</v>
       </c>
       <c r="H197" t="str">
         <f>IF(Sheet1!L197="","",IF(Sheet1!L197 &lt; 300000, VLOOKUP(Sheet1!L197,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!L197,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>铂金戒指</v>
       </c>
       <c r="I197" t="str">
         <f>IF(Sheet1!N197="","",IF(Sheet1!N197 &lt; 300000, VLOOKUP(Sheet1!N197,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!N197,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -31016,7 +31171,7 @@
       </c>
       <c r="J207" t="str">
         <f>IF(Sheet1!P207="","",IF(Sheet1!P207 &lt; 300000, VLOOKUP(Sheet1!P207,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!P207,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>火焰戒指</v>
+        <v/>
       </c>
       <c r="K207" t="str">
         <f>IF(Sheet1!R207="","",IF(Sheet1!R207 &lt; 300000, VLOOKUP(Sheet1!R207,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!R207,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -31388,31 +31543,31 @@
       </c>
       <c r="C215" t="str">
         <f>IF(Sheet1!B215="","",IF(Sheet1!B215 &lt; 300000, VLOOKUP(Sheet1!B215,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!B215,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>天魔神甲</v>
+        <v>金创药(大)</v>
       </c>
       <c r="D215" t="str">
         <f>IF(Sheet1!D215="","",IF(Sheet1!D215 &lt; 300000, VLOOKUP(Sheet1!D215,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!D215,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>裁决之杖</v>
+        <v>金创药(大)</v>
       </c>
       <c r="E215" t="str">
         <f>IF(Sheet1!F215="","",IF(Sheet1!F215 &lt; 300000, VLOOKUP(Sheet1!F215,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!F215,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>骨玉权杖</v>
+        <v>魔法药(大)</v>
       </c>
       <c r="F215" t="str">
         <f>IF(Sheet1!H215="","",IF(Sheet1!H215 &lt; 300000, VLOOKUP(Sheet1!H215,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!H215,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>初级勋章4</v>
+        <v>魔法药(大)</v>
       </c>
       <c r="G215" t="str">
         <f>IF(Sheet1!J215="","",IF(Sheet1!J215 &lt; 300000, VLOOKUP(Sheet1!J215,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!J215,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>初级宝石4</v>
+        <v>天魔神甲</v>
       </c>
       <c r="H215" t="str">
         <f>IF(Sheet1!L215="","",IF(Sheet1!L215 &lt; 300000, VLOOKUP(Sheet1!L215,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!L215,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>初级勋章4</v>
       </c>
       <c r="I215" t="str">
         <f>IF(Sheet1!N215="","",IF(Sheet1!N215 &lt; 300000, VLOOKUP(Sheet1!N215,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!N215,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>初级宝石4</v>
       </c>
       <c r="J215" t="str">
         <f>IF(Sheet1!P215="","",IF(Sheet1!P215 &lt; 300000, VLOOKUP(Sheet1!P215,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!P215,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -31438,31 +31593,31 @@
       </c>
       <c r="C216" t="str">
         <f>IF(Sheet1!B216="","",IF(Sheet1!B216 &lt; 300000, VLOOKUP(Sheet1!B216,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!B216,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>圣战宝甲</v>
+        <v>金创药(大)</v>
       </c>
       <c r="D216" t="str">
         <f>IF(Sheet1!D216="","",IF(Sheet1!D216 &lt; 300000, VLOOKUP(Sheet1!D216,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!D216,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>龙纹剑</v>
+        <v>金创药(大)</v>
       </c>
       <c r="E216" t="str">
         <f>IF(Sheet1!F216="","",IF(Sheet1!F216 &lt; 300000, VLOOKUP(Sheet1!F216,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!F216,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>裁决之杖</v>
+        <v>魔法药(大)</v>
       </c>
       <c r="F216" t="str">
         <f>IF(Sheet1!H216="","",IF(Sheet1!H216 &lt; 300000, VLOOKUP(Sheet1!H216,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!H216,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>初级勋章4</v>
+        <v>魔法药(大)</v>
       </c>
       <c r="G216" t="str">
         <f>IF(Sheet1!J216="","",IF(Sheet1!J216 &lt; 300000, VLOOKUP(Sheet1!J216,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!J216,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>初级宝石4</v>
+        <v>圣战宝甲</v>
       </c>
       <c r="H216" t="str">
         <f>IF(Sheet1!L216="","",IF(Sheet1!L216 &lt; 300000, VLOOKUP(Sheet1!L216,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!L216,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>初级勋章4</v>
       </c>
       <c r="I216" t="str">
         <f>IF(Sheet1!N216="","",IF(Sheet1!N216 &lt; 300000, VLOOKUP(Sheet1!N216,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!N216,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>初级宝石4</v>
       </c>
       <c r="J216" t="str">
         <f>IF(Sheet1!P216="","",IF(Sheet1!P216 &lt; 300000, VLOOKUP(Sheet1!P216,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!P216,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -31488,31 +31643,31 @@
       </c>
       <c r="C217" t="str">
         <f>IF(Sheet1!B217="","",IF(Sheet1!B217 &lt; 300000, VLOOKUP(Sheet1!B217,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!B217,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>天尊道袍</v>
+        <v>金创药(大)</v>
       </c>
       <c r="D217" t="str">
         <f>IF(Sheet1!D217="","",IF(Sheet1!D217 &lt; 300000, VLOOKUP(Sheet1!D217,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!D217,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>骨玉权杖</v>
+        <v>金创药(大)</v>
       </c>
       <c r="E217" t="str">
         <f>IF(Sheet1!F217="","",IF(Sheet1!F217 &lt; 300000, VLOOKUP(Sheet1!F217,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!F217,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>龙纹剑</v>
+        <v>魔法药(大)</v>
       </c>
       <c r="F217" t="str">
         <f>IF(Sheet1!H217="","",IF(Sheet1!H217 &lt; 300000, VLOOKUP(Sheet1!H217,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!H217,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>初级勋章4</v>
+        <v>魔法药(大)</v>
       </c>
       <c r="G217" t="str">
         <f>IF(Sheet1!J217="","",IF(Sheet1!J217 &lt; 300000, VLOOKUP(Sheet1!J217,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!J217,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>初级宝石4</v>
+        <v>天尊道袍</v>
       </c>
       <c r="H217" t="str">
         <f>IF(Sheet1!L217="","",IF(Sheet1!L217 &lt; 300000, VLOOKUP(Sheet1!L217,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!L217,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>初级勋章4</v>
       </c>
       <c r="I217" t="str">
         <f>IF(Sheet1!N217="","",IF(Sheet1!N217 &lt; 300000, VLOOKUP(Sheet1!N217,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!N217,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>初级宝石4</v>
       </c>
       <c r="J217" t="str">
         <f>IF(Sheet1!P217="","",IF(Sheet1!P217 &lt; 300000, VLOOKUP(Sheet1!P217,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!P217,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -31538,31 +31693,31 @@
       </c>
       <c r="C218" t="str">
         <f>IF(Sheet1!B218="","",IF(Sheet1!B218 &lt; 300000, VLOOKUP(Sheet1!B218,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!B218,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>天师长袍</v>
+        <v>金创药(大)</v>
       </c>
       <c r="D218" t="str">
         <f>IF(Sheet1!D218="","",IF(Sheet1!D218 &lt; 300000, VLOOKUP(Sheet1!D218,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!D218,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>龙纹剑</v>
+        <v>金创药(大)</v>
       </c>
       <c r="E218" t="str">
         <f>IF(Sheet1!F218="","",IF(Sheet1!F218 &lt; 300000, VLOOKUP(Sheet1!F218,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!F218,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>裁决之杖</v>
+        <v>魔法药(大)</v>
       </c>
       <c r="F218" t="str">
         <f>IF(Sheet1!H218="","",IF(Sheet1!H218 &lt; 300000, VLOOKUP(Sheet1!H218,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!H218,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>初级勋章4</v>
+        <v>魔法药(大)</v>
       </c>
       <c r="G218" t="str">
         <f>IF(Sheet1!J218="","",IF(Sheet1!J218 &lt; 300000, VLOOKUP(Sheet1!J218,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!J218,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>初级宝石4</v>
+        <v>天师长袍</v>
       </c>
       <c r="H218" t="str">
         <f>IF(Sheet1!L218="","",IF(Sheet1!L218 &lt; 300000, VLOOKUP(Sheet1!L218,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!L218,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>初级勋章4</v>
       </c>
       <c r="I218" t="str">
         <f>IF(Sheet1!N218="","",IF(Sheet1!N218 &lt; 300000, VLOOKUP(Sheet1!N218,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!N218,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>初级宝石4</v>
       </c>
       <c r="J218" t="str">
         <f>IF(Sheet1!P218="","",IF(Sheet1!P218 &lt; 300000, VLOOKUP(Sheet1!P218,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!P218,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -31588,31 +31743,31 @@
       </c>
       <c r="C219" t="str">
         <f>IF(Sheet1!B219="","",IF(Sheet1!B219 &lt; 300000, VLOOKUP(Sheet1!B219,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!B219,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>法神披风</v>
+        <v>金创药(大)</v>
       </c>
       <c r="D219" t="str">
         <f>IF(Sheet1!D219="","",IF(Sheet1!D219 &lt; 300000, VLOOKUP(Sheet1!D219,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!D219,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>骨玉权杖</v>
+        <v>金创药(大)</v>
       </c>
       <c r="E219" t="str">
         <f>IF(Sheet1!F219="","",IF(Sheet1!F219 &lt; 300000, VLOOKUP(Sheet1!F219,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!F219,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>裁决之杖</v>
+        <v>魔法药(大)</v>
       </c>
       <c r="F219" t="str">
         <f>IF(Sheet1!H219="","",IF(Sheet1!H219 &lt; 300000, VLOOKUP(Sheet1!H219,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!H219,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>初级勋章4</v>
+        <v>魔法药(大)</v>
       </c>
       <c r="G219" t="str">
         <f>IF(Sheet1!J219="","",IF(Sheet1!J219 &lt; 300000, VLOOKUP(Sheet1!J219,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!J219,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>初级宝石4</v>
+        <v>法神披风</v>
       </c>
       <c r="H219" t="str">
         <f>IF(Sheet1!L219="","",IF(Sheet1!L219 &lt; 300000, VLOOKUP(Sheet1!L219,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!L219,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>初级勋章4</v>
       </c>
       <c r="I219" t="str">
         <f>IF(Sheet1!N219="","",IF(Sheet1!N219 &lt; 300000, VLOOKUP(Sheet1!N219,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!N219,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>初级宝石4</v>
       </c>
       <c r="J219" t="str">
         <f>IF(Sheet1!P219="","",IF(Sheet1!P219 &lt; 300000, VLOOKUP(Sheet1!P219,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!P219,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -31638,31 +31793,31 @@
       </c>
       <c r="C220" t="str">
         <f>IF(Sheet1!B220="","",IF(Sheet1!B220 &lt; 300000, VLOOKUP(Sheet1!B220,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!B220,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>霓裳羽衣</v>
+        <v>金创药(大)</v>
       </c>
       <c r="D220" t="str">
         <f>IF(Sheet1!D220="","",IF(Sheet1!D220 &lt; 300000, VLOOKUP(Sheet1!D220,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!D220,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>骨玉权杖</v>
+        <v>金创药(大)</v>
       </c>
       <c r="E220" t="str">
         <f>IF(Sheet1!F220="","",IF(Sheet1!F220 &lt; 300000, VLOOKUP(Sheet1!F220,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!F220,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>龙纹剑</v>
+        <v>魔法药(大)</v>
       </c>
       <c r="F220" t="str">
         <f>IF(Sheet1!H220="","",IF(Sheet1!H220 &lt; 300000, VLOOKUP(Sheet1!H220,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!H220,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>初级勋章4</v>
+        <v>魔法药(大)</v>
       </c>
       <c r="G220" t="str">
         <f>IF(Sheet1!J220="","",IF(Sheet1!J220 &lt; 300000, VLOOKUP(Sheet1!J220,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!J220,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>初级宝石4</v>
+        <v>霓裳羽衣</v>
       </c>
       <c r="H220" t="str">
         <f>IF(Sheet1!L220="","",IF(Sheet1!L220 &lt; 300000, VLOOKUP(Sheet1!L220,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!L220,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>初级勋章4</v>
       </c>
       <c r="I220" t="str">
         <f>IF(Sheet1!N220="","",IF(Sheet1!N220 &lt; 300000, VLOOKUP(Sheet1!N220,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!N220,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>初级宝石4</v>
       </c>
       <c r="J220" t="str">
         <f>IF(Sheet1!P220="","",IF(Sheet1!P220 &lt; 300000, VLOOKUP(Sheet1!P220,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!P220,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -31738,39 +31893,39 @@
       </c>
       <c r="C222" t="str">
         <f>IF(Sheet1!B222="","",IF(Sheet1!B222 &lt; 300000, VLOOKUP(Sheet1!B222,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!B222,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>开天</v>
+        <v>星王项链(战)</v>
       </c>
       <c r="D222" t="str">
         <f>IF(Sheet1!D222="","",IF(Sheet1!D222 &lt; 300000, VLOOKUP(Sheet1!D222,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!D222,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>镇天</v>
+        <v>星王项链(法)</v>
       </c>
       <c r="E222" t="str">
         <f>IF(Sheet1!F222="","",IF(Sheet1!F222 &lt; 300000, VLOOKUP(Sheet1!F222,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!F222,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>玄天</v>
+        <v>星王项链(道)</v>
       </c>
       <c r="F222" t="str">
         <f>IF(Sheet1!H222="","",IF(Sheet1!H222 &lt; 300000, VLOOKUP(Sheet1!H222,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!H222,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>星王战戒</v>
+        <v>星王护腕(战)</v>
       </c>
       <c r="G222" t="str">
         <f>IF(Sheet1!J222="","",IF(Sheet1!J222 &lt; 300000, VLOOKUP(Sheet1!J222,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!J222,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>星王魔戒</v>
+        <v>星王护腕(法)</v>
       </c>
       <c r="H222" t="str">
         <f>IF(Sheet1!L222="","",IF(Sheet1!L222 &lt; 300000, VLOOKUP(Sheet1!L222,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!L222,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>星王道戒</v>
+        <v>星王护腕(道)</v>
       </c>
       <c r="I222" t="str">
         <f>IF(Sheet1!N222="","",IF(Sheet1!N222 &lt; 300000, VLOOKUP(Sheet1!N222,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!N222,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>星王战戒</v>
       </c>
       <c r="J222" t="str">
         <f>IF(Sheet1!P222="","",IF(Sheet1!P222 &lt; 300000, VLOOKUP(Sheet1!P222,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!P222,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>星王魔戒</v>
       </c>
       <c r="K222" t="str">
         <f>IF(Sheet1!R222="","",IF(Sheet1!R222 &lt; 300000, VLOOKUP(Sheet1!R222,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!R222,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>星王道戒</v>
       </c>
       <c r="L222" t="str">
         <f>IF(Sheet1!T222="","",IF(Sheet1!T222 &lt; 300000, VLOOKUP(Sheet1!T222,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!T222,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -31792,7 +31947,7 @@
       </c>
       <c r="D223" t="str">
         <f>IF(Sheet1!D223="","",IF(Sheet1!D223 &lt; 300000, VLOOKUP(Sheet1!D223,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!D223,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>灵魂碎片(小)</v>
+        <v>幽冥火咒</v>
       </c>
       <c r="E223" t="str">
         <f>IF(Sheet1!F223="","",IF(Sheet1!F223 &lt; 300000, VLOOKUP(Sheet1!F223,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!F223,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -31838,43 +31993,43 @@
       </c>
       <c r="C224" t="str">
         <f>IF(Sheet1!B224="","",IF(Sheet1!B224 &lt; 300000, VLOOKUP(Sheet1!B224,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!B224,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>开天</v>
+        <v>召唤撒非</v>
       </c>
       <c r="D224" t="str">
         <f>IF(Sheet1!D224="","",IF(Sheet1!D224 &lt; 300000, VLOOKUP(Sheet1!D224,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!D224,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>镇天</v>
+        <v>狂雷项链</v>
       </c>
       <c r="E224" t="str">
         <f>IF(Sheet1!F224="","",IF(Sheet1!F224 &lt; 300000, VLOOKUP(Sheet1!F224,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!F224,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>玄天</v>
+        <v>逆火项链</v>
       </c>
       <c r="F224" t="str">
         <f>IF(Sheet1!H224="","",IF(Sheet1!H224 &lt; 300000, VLOOKUP(Sheet1!H224,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!H224,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>狂雷战戒</v>
+        <v>通云项链</v>
       </c>
       <c r="G224" t="str">
         <f>IF(Sheet1!J224="","",IF(Sheet1!J224 &lt; 300000, VLOOKUP(Sheet1!J224,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!J224,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>逆火魔戒</v>
+        <v>狂雷护腕</v>
       </c>
       <c r="H224" t="str">
         <f>IF(Sheet1!L224="","",IF(Sheet1!L224 &lt; 300000, VLOOKUP(Sheet1!L224,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!L224,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>通云道戒</v>
+        <v>逆火护腕</v>
       </c>
       <c r="I224" t="str">
         <f>IF(Sheet1!N224="","",IF(Sheet1!N224 &lt; 300000, VLOOKUP(Sheet1!N224,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!N224,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>通云护腕</v>
       </c>
       <c r="J224" t="str">
         <f>IF(Sheet1!P224="","",IF(Sheet1!P224 &lt; 300000, VLOOKUP(Sheet1!P224,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!P224,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>狂雷战戒</v>
       </c>
       <c r="K224" t="str">
         <f>IF(Sheet1!R224="","",IF(Sheet1!R224 &lt; 300000, VLOOKUP(Sheet1!R224,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!R224,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>逆火魔戒</v>
       </c>
       <c r="L224" t="str">
         <f>IF(Sheet1!T224="","",IF(Sheet1!T224 &lt; 300000, VLOOKUP(Sheet1!T224,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!T224,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>通云道戒</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -31942,15 +32097,15 @@
       </c>
       <c r="D226" t="str">
         <f>IF(Sheet1!D226="","",IF(Sheet1!D226 &lt; 300000, VLOOKUP(Sheet1!D226,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!D226,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>炎龙刃</v>
+        <v>炎龙项链</v>
       </c>
       <c r="E226" t="str">
         <f>IF(Sheet1!F226="","",IF(Sheet1!F226 &lt; 300000, VLOOKUP(Sheet1!F226,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!F226,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>雷龙杖</v>
+        <v>雷龙项链</v>
       </c>
       <c r="F226" t="str">
         <f>IF(Sheet1!H226="","",IF(Sheet1!H226 &lt; 300000, VLOOKUP(Sheet1!H226,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!H226,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>青龙刺</v>
+        <v>青龙项链</v>
       </c>
       <c r="G226" t="str">
         <f>IF(Sheet1!J226="","",IF(Sheet1!J226 &lt; 300000, VLOOKUP(Sheet1!J226,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!J226,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -31966,15 +32121,15 @@
       </c>
       <c r="J226" t="str">
         <f>IF(Sheet1!P226="","",IF(Sheet1!P226 &lt; 300000, VLOOKUP(Sheet1!P226,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!P226,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>炎龙战戒</v>
       </c>
       <c r="K226" t="str">
         <f>IF(Sheet1!R226="","",IF(Sheet1!R226 &lt; 300000, VLOOKUP(Sheet1!R226,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!R226,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>雷龙魔戒</v>
       </c>
       <c r="L226" t="str">
         <f>IF(Sheet1!T226="","",IF(Sheet1!T226 &lt; 300000, VLOOKUP(Sheet1!T226,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!T226,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>青龙道戒</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -31992,31 +32147,31 @@
       </c>
       <c r="D227" t="str">
         <f>IF(Sheet1!D227="","",IF(Sheet1!D227 &lt; 300000, VLOOKUP(Sheet1!D227,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!D227,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>炎龙刃</v>
+        <v>怒炎</v>
       </c>
       <c r="E227" t="str">
         <f>IF(Sheet1!F227="","",IF(Sheet1!F227 &lt; 300000, VLOOKUP(Sheet1!F227,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!F227,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>雷龙杖</v>
+        <v>炎龙刃</v>
       </c>
       <c r="F227" t="str">
         <f>IF(Sheet1!H227="","",IF(Sheet1!H227 &lt; 300000, VLOOKUP(Sheet1!H227,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!H227,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>青龙刺</v>
+        <v>雷龙杖</v>
       </c>
       <c r="G227" t="str">
         <f>IF(Sheet1!J227="","",IF(Sheet1!J227 &lt; 300000, VLOOKUP(Sheet1!J227,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!J227,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>炎龙战戒</v>
+        <v>青龙刺</v>
       </c>
       <c r="H227" t="str">
         <f>IF(Sheet1!L227="","",IF(Sheet1!L227 &lt; 300000, VLOOKUP(Sheet1!L227,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!L227,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>雷龙魔戒</v>
+        <v>炎龙战盔</v>
       </c>
       <c r="I227" t="str">
         <f>IF(Sheet1!N227="","",IF(Sheet1!N227 &lt; 300000, VLOOKUP(Sheet1!N227,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!N227,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>青龙道戒</v>
+        <v>雷龙魔盔</v>
       </c>
       <c r="J227" t="str">
         <f>IF(Sheet1!P227="","",IF(Sheet1!P227 &lt; 300000, VLOOKUP(Sheet1!P227,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!P227,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>青龙道盔</v>
       </c>
       <c r="K227" t="str">
         <f>IF(Sheet1!R227="","",IF(Sheet1!R227 &lt; 300000, VLOOKUP(Sheet1!R227,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!R227,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -32288,39 +32443,39 @@
       </c>
       <c r="C233" t="str">
         <f>IF(Sheet1!B233="","",IF(Sheet1!B233 &lt; 300000, VLOOKUP(Sheet1!B233,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!B233,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>王者之刃</v>
+        <v>天龙圣衣(男)</v>
       </c>
       <c r="D233" t="str">
         <f>IF(Sheet1!D233="","",IF(Sheet1!D233 &lt; 300000, VLOOKUP(Sheet1!D233,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!D233,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>王者之杖</v>
+        <v>天龙魔衣(男)</v>
       </c>
       <c r="E233" t="str">
         <f>IF(Sheet1!F233="","",IF(Sheet1!F233 &lt; 300000, VLOOKUP(Sheet1!F233,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!F233,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>王者之剑</v>
+        <v>天龙道袍(男)</v>
       </c>
       <c r="F233" t="str">
         <f>IF(Sheet1!H233="","",IF(Sheet1!H233 &lt; 300000, VLOOKUP(Sheet1!H233,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!H233,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>王者战甲(男)</v>
+        <v>天龙项链(战)</v>
       </c>
       <c r="G233" t="str">
         <f>IF(Sheet1!J233="","",IF(Sheet1!J233 &lt; 300000, VLOOKUP(Sheet1!J233,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!J233,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>王者魔衣(男)</v>
+        <v>天龙项链(法)</v>
       </c>
       <c r="H233" t="str">
         <f>IF(Sheet1!L233="","",IF(Sheet1!L233 &lt; 300000, VLOOKUP(Sheet1!L233,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!L233,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>王者道袍(男)</v>
+        <v>天龙项链(道)</v>
       </c>
       <c r="I233" t="str">
         <f>IF(Sheet1!N233="","",IF(Sheet1!N233 &lt; 300000, VLOOKUP(Sheet1!N233,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!N233,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>天龙圣衣(男)</v>
+        <v>天龙护腕(战)</v>
       </c>
       <c r="J233" t="str">
         <f>IF(Sheet1!P233="","",IF(Sheet1!P233 &lt; 300000, VLOOKUP(Sheet1!P233,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!P233,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>天龙魔衣(男)</v>
+        <v>天龙护腕(法)</v>
       </c>
       <c r="K233" t="str">
         <f>IF(Sheet1!R233="","",IF(Sheet1!R233 &lt; 300000, VLOOKUP(Sheet1!R233,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!R233,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>天龙道袍(男)</v>
+        <v>天龙护腕(道)</v>
       </c>
       <c r="L233" t="str">
         <f>IF(Sheet1!T233="","",IF(Sheet1!T233 &lt; 300000, VLOOKUP(Sheet1!T233,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!T233,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -32350,27 +32505,27 @@
       </c>
       <c r="F234" t="str">
         <f>IF(Sheet1!H234="","",IF(Sheet1!H234 &lt; 300000, VLOOKUP(Sheet1!H234,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!H234,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>王者战甲(女)</v>
+        <v>天龙战盔</v>
       </c>
       <c r="G234" t="str">
         <f>IF(Sheet1!J234="","",IF(Sheet1!J234 &lt; 300000, VLOOKUP(Sheet1!J234,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!J234,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>王者魔衣(女)</v>
+        <v>天龙魔盔</v>
       </c>
       <c r="H234" t="str">
         <f>IF(Sheet1!L234="","",IF(Sheet1!L234 &lt; 300000, VLOOKUP(Sheet1!L234,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!L234,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>王者道袍(女)</v>
+        <v>天龙道盔</v>
       </c>
       <c r="I234" t="str">
         <f>IF(Sheet1!N234="","",IF(Sheet1!N234 &lt; 300000, VLOOKUP(Sheet1!N234,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!N234,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>天龙圣衣(女)</v>
+        <v>天龙战戒</v>
       </c>
       <c r="J234" t="str">
         <f>IF(Sheet1!P234="","",IF(Sheet1!P234 &lt; 300000, VLOOKUP(Sheet1!P234,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!P234,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>天龙魔衣(女)</v>
+        <v>天龙魔戒</v>
       </c>
       <c r="K234" t="str">
         <f>IF(Sheet1!R234="","",IF(Sheet1!R234 &lt; 300000, VLOOKUP(Sheet1!R234,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!R234,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>天龙道袍(女)</v>
+        <v>天龙道戒</v>
       </c>
       <c r="L234" t="str">
         <f>IF(Sheet1!T234="","",IF(Sheet1!T234 &lt; 300000, VLOOKUP(Sheet1!T234,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!T234,[2]装备!$A$3:$B$600,2,FALSE)))</f>
@@ -32392,39 +32547,39 @@
       </c>
       <c r="D235" t="str">
         <f>IF(Sheet1!D235="","",IF(Sheet1!D235 &lt; 300000, VLOOKUP(Sheet1!D235,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!D235,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>幽冥火咒</v>
+        <v>倚天</v>
       </c>
       <c r="E235" t="str">
         <f>IF(Sheet1!F235="","",IF(Sheet1!F235 &lt; 300000, VLOOKUP(Sheet1!F235,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!F235,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>怒炎</v>
+        <v>倚天战甲(男)</v>
       </c>
       <c r="F235" t="str">
         <f>IF(Sheet1!H235="","",IF(Sheet1!H235 &lt; 300000, VLOOKUP(Sheet1!H235,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!H235,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>倚天</v>
+        <v>倚天魔衣(男)</v>
       </c>
       <c r="G235" t="str">
         <f>IF(Sheet1!J235="","",IF(Sheet1!J235 &lt; 300000, VLOOKUP(Sheet1!J235,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!J235,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>倚天战甲(男)</v>
+        <v>倚天道袍(男)</v>
       </c>
       <c r="H235" t="str">
         <f>IF(Sheet1!L235="","",IF(Sheet1!L235 &lt; 300000, VLOOKUP(Sheet1!L235,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!L235,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>倚天魔衣(男)</v>
+        <v>倚天战甲(女)</v>
       </c>
       <c r="I235" t="str">
         <f>IF(Sheet1!N235="","",IF(Sheet1!N235 &lt; 300000, VLOOKUP(Sheet1!N235,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!N235,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>倚天道袍(男)</v>
+        <v>倚天魔衣(女)</v>
       </c>
       <c r="J235" t="str">
         <f>IF(Sheet1!P235="","",IF(Sheet1!P235 &lt; 300000, VLOOKUP(Sheet1!P235,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!P235,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>倚天战甲(女)</v>
+        <v>倚天道袍(女)</v>
       </c>
       <c r="K235" t="str">
         <f>IF(Sheet1!R235="","",IF(Sheet1!R235 &lt; 300000, VLOOKUP(Sheet1!R235,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!R235,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>倚天魔衣(女)</v>
+        <v/>
       </c>
       <c r="L235" t="str">
         <f>IF(Sheet1!T235="","",IF(Sheet1!T235 &lt; 300000, VLOOKUP(Sheet1!T235,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!T235,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>倚天道袍(女)</v>
+        <v/>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -32438,43 +32593,43 @@
       </c>
       <c r="C236" t="str">
         <f>IF(Sheet1!B236="","",IF(Sheet1!B236 &lt; 300000, VLOOKUP(Sheet1!B236,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!B236,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>灵魂碎片(小)</v>
+        <v>召唤白虎</v>
       </c>
       <c r="D236" t="str">
         <f>IF(Sheet1!D236="","",IF(Sheet1!D236 &lt; 300000, VLOOKUP(Sheet1!D236,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!D236,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>黄金裁决</v>
+        <v>传奇战刃</v>
       </c>
       <c r="E236" t="str">
         <f>IF(Sheet1!F236="","",IF(Sheet1!F236 &lt; 300000, VLOOKUP(Sheet1!F236,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!F236,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>紫金嗜魂法杖</v>
+        <v>传奇魔刃</v>
       </c>
       <c r="F236" t="str">
         <f>IF(Sheet1!H236="","",IF(Sheet1!H236 &lt; 300000, VLOOKUP(Sheet1!H236,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!H236,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>赤金逍遥扇</v>
+        <v>传奇道刃</v>
       </c>
       <c r="G236" t="str">
         <f>IF(Sheet1!J236="","",IF(Sheet1!J236 &lt; 300000, VLOOKUP(Sheet1!J236,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!J236,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>传奇战刃</v>
+        <v>传奇神甲(男)</v>
       </c>
       <c r="H236" t="str">
         <f>IF(Sheet1!L236="","",IF(Sheet1!L236 &lt; 300000, VLOOKUP(Sheet1!L236,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!L236,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>传奇魔刃</v>
+        <v>传奇神甲(女)</v>
       </c>
       <c r="I236" t="str">
         <f>IF(Sheet1!N236="","",IF(Sheet1!N236 &lt; 300000, VLOOKUP(Sheet1!N236,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!N236,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>传奇道刃</v>
+        <v>传奇之冠</v>
       </c>
       <c r="J236" t="str">
         <f>IF(Sheet1!P236="","",IF(Sheet1!P236 &lt; 300000, VLOOKUP(Sheet1!P236,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!P236,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>传奇神甲(男)</v>
+        <v>传奇项链</v>
       </c>
       <c r="K236" t="str">
         <f>IF(Sheet1!R236="","",IF(Sheet1!R236 &lt; 300000, VLOOKUP(Sheet1!R236,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!R236,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v>传奇神甲(女)</v>
+        <v>传奇护腕</v>
       </c>
       <c r="L236" t="str">
         <f>IF(Sheet1!T236="","",IF(Sheet1!T236 &lt; 300000, VLOOKUP(Sheet1!T236,[2]道具!$A$3:$B$603,2,FALSE), VLOOKUP(Sheet1!T236,[2]装备!$A$3:$B$600,2,FALSE)))</f>
-        <v/>
+        <v>传奇之戒</v>
       </c>
     </row>
     <row r="237" spans="1:12">

--- a/documents/暴率表.xlsx
+++ b/documents/暴率表.xlsx
@@ -4120,7 +4120,7 @@
             <v>220009</v>
           </cell>
           <cell r="B54" t="str">
-            <v>地狱火</v>
+            <v>地狱寒冰</v>
           </cell>
         </row>
         <row r="55">
@@ -4152,7 +4152,7 @@
             <v>220013</v>
           </cell>
           <cell r="B58" t="str">
-            <v>蚀甲</v>
+            <v>幽灵盾</v>
           </cell>
         </row>
         <row r="59">
@@ -4184,7 +4184,7 @@
             <v>220017</v>
           </cell>
           <cell r="B62" t="str">
-            <v>召唤骷髅</v>
+            <v>亡灵召唤</v>
           </cell>
         </row>
         <row r="63">
@@ -4400,7 +4400,7 @@
             <v>220044</v>
           </cell>
           <cell r="B89" t="str">
-            <v>通魔</v>
+            <v>嗜血</v>
           </cell>
         </row>
         <row r="90">
@@ -4408,13 +4408,21 @@
             <v>220045</v>
           </cell>
           <cell r="B90" t="str">
-            <v>圣盾</v>
+            <v>狮子吼</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="A91">
+            <v>220046</v>
+          </cell>
+          <cell r="B91" t="str">
+            <v>蚀甲</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4752,10 +4760,10 @@
   <dimension ref="A1:AK33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K22" sqref="K22"/>
+      <selection pane="bottomRight" activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -4975,6 +4983,24 @@
       <c r="M4">
         <v>309002</v>
       </c>
+      <c r="N4">
+        <v>220001</v>
+      </c>
+      <c r="O4">
+        <v>220002</v>
+      </c>
+      <c r="P4">
+        <v>220003</v>
+      </c>
+      <c r="Q4">
+        <v>220004</v>
+      </c>
+      <c r="R4">
+        <v>220005</v>
+      </c>
+      <c r="S4">
+        <v>220006</v>
+      </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A5">
@@ -4984,22 +5010,22 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>220001</v>
+        <v>307013</v>
       </c>
       <c r="D5">
-        <v>220002</v>
+        <v>307015</v>
       </c>
       <c r="E5">
-        <v>220003</v>
+        <v>307011</v>
       </c>
       <c r="F5">
-        <v>220004</v>
+        <v>307005</v>
       </c>
       <c r="G5">
-        <v>220005</v>
+        <v>307007</v>
       </c>
       <c r="H5">
-        <v>220006</v>
+        <v>310001</v>
       </c>
       <c r="I5">
         <v>220010</v>
@@ -5040,7 +5066,7 @@
         <v>302004</v>
       </c>
       <c r="G6">
-        <v>302005</v>
+        <v>303004</v>
       </c>
       <c r="H6">
         <v>305020</v>
@@ -5049,21 +5075,15 @@
         <v>306016</v>
       </c>
       <c r="J6">
+        <v>306010</v>
+      </c>
+      <c r="K6">
         <v>307008</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>307009</v>
       </c>
-      <c r="L6">
-        <v>307011</v>
-      </c>
       <c r="M6">
-        <v>307005</v>
-      </c>
-      <c r="N6">
-        <v>307007</v>
-      </c>
-      <c r="O6">
         <v>309003</v>
       </c>
     </row>
@@ -5102,16 +5122,7 @@
         <v>306014</v>
       </c>
       <c r="L7">
-        <v>306010</v>
-      </c>
-      <c r="M7">
         <v>306011</v>
-      </c>
-      <c r="N7">
-        <v>307013</v>
-      </c>
-      <c r="O7">
-        <v>310001</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.15">
@@ -5155,9 +5166,6 @@
         <v>307012</v>
       </c>
       <c r="N8">
-        <v>307015</v>
-      </c>
-      <c r="O8">
         <v>310004</v>
       </c>
     </row>
@@ -5331,18 +5339,15 @@
         <v>220024</v>
       </c>
       <c r="K12">
-        <v>220025</v>
+        <v>220026</v>
       </c>
       <c r="L12">
-        <v>220026</v>
+        <v>220029</v>
       </c>
       <c r="M12">
-        <v>220029</v>
+        <v>220030</v>
       </c>
       <c r="N12">
-        <v>220030</v>
-      </c>
-      <c r="O12">
         <v>220033</v>
       </c>
     </row>
@@ -5374,6 +5379,18 @@
       <c r="I13">
         <v>307010</v>
       </c>
+      <c r="J13">
+        <v>220013</v>
+      </c>
+      <c r="K13">
+        <v>220014</v>
+      </c>
+      <c r="L13">
+        <v>220025</v>
+      </c>
+      <c r="M13">
+        <v>220031</v>
+      </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A14">
@@ -5437,25 +5454,46 @@
       <c r="A16">
         <v>15</v>
       </c>
+      <c r="B16">
+        <v>30</v>
+      </c>
       <c r="C16">
         <v>301036</v>
       </c>
       <c r="D16">
+        <v>302007</v>
+      </c>
+      <c r="E16">
+        <v>302008</v>
+      </c>
+      <c r="F16">
+        <v>302009</v>
+      </c>
+      <c r="G16">
         <v>302010</v>
       </c>
-      <c r="E16">
+      <c r="H16">
         <v>302011</v>
       </c>
-      <c r="F16">
+      <c r="I16">
         <v>302012</v>
       </c>
-      <c r="G16">
+      <c r="J16">
+        <v>303007</v>
+      </c>
+      <c r="K16">
+        <v>303008</v>
+      </c>
+      <c r="L16">
+        <v>303009</v>
+      </c>
+      <c r="M16">
         <v>303010</v>
       </c>
-      <c r="H16">
+      <c r="N16">
         <v>303011</v>
       </c>
-      <c r="I16">
+      <c r="O16">
         <v>303012</v>
       </c>
     </row>
@@ -5567,7 +5605,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5577,12 +5615,15 @@
     <col min="3" max="6" width="13.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="13.875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="36" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="36" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.15">
@@ -6035,27 +6076,27 @@
       </c>
       <c r="M4" t="str">
         <f>IF(新暴率表!N4="","",IF(新暴率表!N4 &lt; 300000, VLOOKUP(新暴率表!N4,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!N4,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>火球术</v>
       </c>
       <c r="N4" t="str">
         <f>IF(新暴率表!O4="","",IF(新暴率表!O4 &lt; 300000, VLOOKUP(新暴率表!O4,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!O4,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>治愈术</v>
       </c>
       <c r="O4" t="str">
         <f>IF(新暴率表!P4="","",IF(新暴率表!P4 &lt; 300000, VLOOKUP(新暴率表!P4,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!P4,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>基本剑术</v>
       </c>
       <c r="P4" t="str">
         <f>IF(新暴率表!Q4="","",IF(新暴率表!Q4 &lt; 300000, VLOOKUP(新暴率表!Q4,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!Q4,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>精神力战法</v>
       </c>
       <c r="Q4" t="str">
         <f>IF(新暴率表!R4="","",IF(新暴率表!R4 &lt; 300000, VLOOKUP(新暴率表!R4,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!R4,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>大火球</v>
       </c>
       <c r="R4" t="str">
         <f>IF(新暴率表!S4="","",IF(新暴率表!S4 &lt; 300000, VLOOKUP(新暴率表!S4,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!S4,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>攻杀剑术</v>
       </c>
       <c r="S4" t="str">
         <f>IF(新暴率表!T4="","",IF(新暴率表!T4 &lt; 300000, VLOOKUP(新暴率表!T4,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!T4,[1]装备!$A$3:$B$511,2,FALSE)))</f>
@@ -6136,27 +6177,27 @@
       </c>
       <c r="B5" t="str">
         <f>IF(新暴率表!C5="","",IF(新暴率表!C5 &lt; 300000, VLOOKUP(新暴率表!C5,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!C5,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v>火球术</v>
+        <v>蛇眼戒指</v>
       </c>
       <c r="C5" t="str">
         <f>IF(新暴率表!D5="","",IF(新暴率表!D5 &lt; 300000, VLOOKUP(新暴率表!D5,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!D5,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v>治愈术</v>
+        <v>珍珠戒指</v>
       </c>
       <c r="D5" t="str">
         <f>IF(新暴率表!E5="","",IF(新暴率表!E5 &lt; 300000, VLOOKUP(新暴率表!E5,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!E5,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v>基本剑术</v>
+        <v>黑色水晶戒指</v>
       </c>
       <c r="E5" t="str">
         <f>IF(新暴率表!F5="","",IF(新暴率表!F5 &lt; 300000, VLOOKUP(新暴率表!F5,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!F5,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v>精神力战法</v>
+        <v>蓝色水晶戒指</v>
       </c>
       <c r="F5" t="str">
         <f>IF(新暴率表!G5="","",IF(新暴率表!G5 &lt; 300000, VLOOKUP(新暴率表!G5,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!G5,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v>大火球</v>
+        <v>金戒指</v>
       </c>
       <c r="G5" t="str">
         <f>IF(新暴率表!H5="","",IF(新暴率表!H5 &lt; 300000, VLOOKUP(新暴率表!H5,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!H5,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v>攻杀剑术</v>
+        <v>布鞋</v>
       </c>
       <c r="H5" t="str">
         <f>IF(新暴率表!I5="","",IF(新暴率表!I5 &lt; 300000, VLOOKUP(新暴率表!I5,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!I5,[1]装备!$A$3:$B$511,2,FALSE)))</f>
@@ -6176,7 +6217,7 @@
       </c>
       <c r="L5" t="str">
         <f>IF(新暴率表!M5="","",IF(新暴率表!M5 &lt; 300000, VLOOKUP(新暴率表!M5,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!M5,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v>召唤骷髅</v>
+        <v>亡灵召唤</v>
       </c>
       <c r="M5" t="str">
         <f>IF(新暴率表!N5="","",IF(新暴率表!N5 &lt; 300000, VLOOKUP(新暴率表!N5,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!N5,[1]装备!$A$3:$B$511,2,FALSE)))</f>
@@ -6297,7 +6338,7 @@
       </c>
       <c r="F6" t="str">
         <f>IF(新暴率表!G6="","",IF(新暴率表!G6 &lt; 300000, VLOOKUP(新暴率表!G6,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!G6,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v>魔法长袍(男)</v>
+        <v>重盔甲(女)</v>
       </c>
       <c r="G6" t="str">
         <f>IF(新暴率表!H6="","",IF(新暴率表!H6 &lt; 300000, VLOOKUP(新暴率表!H6,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!H6,[1]装备!$A$3:$B$511,2,FALSE)))</f>
@@ -6309,27 +6350,27 @@
       </c>
       <c r="I6" t="str">
         <f>IF(新暴率表!J6="","",IF(新暴率表!J6 &lt; 300000, VLOOKUP(新暴率表!J6,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!J6,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v>魅力戒指</v>
+        <v>坚固手套</v>
       </c>
       <c r="J6" t="str">
         <f>IF(新暴率表!K6="","",IF(新暴率表!K6 &lt; 300000, VLOOKUP(新暴率表!K6,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!K6,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v>道德戒指</v>
+        <v>魅力戒指</v>
       </c>
       <c r="K6" t="str">
         <f>IF(新暴率表!L6="","",IF(新暴率表!L6 &lt; 300000, VLOOKUP(新暴率表!L6,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!L6,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v>黑色水晶戒指</v>
+        <v>道德戒指</v>
       </c>
       <c r="L6" t="str">
         <f>IF(新暴率表!M6="","",IF(新暴率表!M6 &lt; 300000, VLOOKUP(新暴率表!M6,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!M6,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v>蓝色水晶戒指</v>
+        <v>腰带·纷飞</v>
       </c>
       <c r="M6" t="str">
         <f>IF(新暴率表!N6="","",IF(新暴率表!N6 &lt; 300000, VLOOKUP(新暴率表!N6,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!N6,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v>金戒指</v>
+        <v/>
       </c>
       <c r="N6" t="str">
         <f>IF(新暴率表!O6="","",IF(新暴率表!O6 &lt; 300000, VLOOKUP(新暴率表!O6,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!O6,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v>腰带·纷飞</v>
+        <v/>
       </c>
       <c r="O6" t="str">
         <f>IF(新暴率表!P6="","",IF(新暴率表!P6 &lt; 300000, VLOOKUP(新暴率表!P6,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!P6,[1]装备!$A$3:$B$511,2,FALSE)))</f>
@@ -6462,19 +6503,19 @@
       </c>
       <c r="K7" t="str">
         <f>IF(新暴率表!L7="","",IF(新暴率表!L7 &lt; 300000, VLOOKUP(新暴率表!L7,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!L7,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v>坚固手套</v>
+        <v>魔法手镯</v>
       </c>
       <c r="L7" t="str">
         <f>IF(新暴率表!M7="","",IF(新暴率表!M7 &lt; 300000, VLOOKUP(新暴率表!M7,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!M7,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v>魔法手镯</v>
+        <v/>
       </c>
       <c r="M7" t="str">
         <f>IF(新暴率表!N7="","",IF(新暴率表!N7 &lt; 300000, VLOOKUP(新暴率表!N7,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!N7,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v>蛇眼戒指</v>
+        <v/>
       </c>
       <c r="N7" t="str">
         <f>IF(新暴率表!O7="","",IF(新暴率表!O7 &lt; 300000, VLOOKUP(新暴率表!O7,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!O7,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v>布鞋</v>
+        <v/>
       </c>
       <c r="O7" t="str">
         <f>IF(新暴率表!P7="","",IF(新暴率表!P7 &lt; 300000, VLOOKUP(新暴率表!P7,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!P7,[1]装备!$A$3:$B$511,2,FALSE)))</f>
@@ -6615,11 +6656,11 @@
       </c>
       <c r="M8" t="str">
         <f>IF(新暴率表!N8="","",IF(新暴率表!N8 &lt; 300000, VLOOKUP(新暴率表!N8,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!N8,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v>珍珠戒指</v>
+        <v>避魂靴</v>
       </c>
       <c r="N8" t="str">
         <f>IF(新暴率表!O8="","",IF(新暴率表!O8 &lt; 300000, VLOOKUP(新暴率表!O8,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!O8,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v>避魂靴</v>
+        <v/>
       </c>
       <c r="O8" t="str">
         <f>IF(新暴率表!P8="","",IF(新暴率表!P8 &lt; 300000, VLOOKUP(新暴率表!P8,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!P8,[1]装备!$A$3:$B$511,2,FALSE)))</f>
@@ -7183,23 +7224,23 @@
       </c>
       <c r="J12" t="str">
         <f>IF(新暴率表!K12="","",IF(新暴率表!K12 &lt; 300000, VLOOKUP(新暴率表!K12,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!K12,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v>半月弯刀</v>
+        <v>烈火剑法</v>
       </c>
       <c r="K12" t="str">
         <f>IF(新暴率表!L12="","",IF(新暴率表!L12 &lt; 300000, VLOOKUP(新暴率表!L12,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!L12,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v>烈火剑法</v>
+        <v>群体治疗术</v>
       </c>
       <c r="L12" t="str">
         <f>IF(新暴率表!M12="","",IF(新暴率表!M12 &lt; 300000, VLOOKUP(新暴率表!M12,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!M12,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v>群体治疗术</v>
+        <v>召唤神兽</v>
       </c>
       <c r="M12" t="str">
         <f>IF(新暴率表!N12="","",IF(新暴率表!N12 &lt; 300000, VLOOKUP(新暴率表!N12,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!N12,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v>召唤神兽</v>
+        <v>冰咆哮</v>
       </c>
       <c r="N12" t="str">
         <f>IF(新暴率表!O12="","",IF(新暴率表!O12 &lt; 300000, VLOOKUP(新暴率表!O12,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!O12,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v>冰咆哮</v>
+        <v/>
       </c>
       <c r="O12" t="str">
         <f>IF(新暴率表!P12="","",IF(新暴率表!P12 &lt; 300000, VLOOKUP(新暴率表!P12,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!P12,[1]装备!$A$3:$B$511,2,FALSE)))</f>
@@ -7324,19 +7365,19 @@
       </c>
       <c r="I13" t="str">
         <f>IF(新暴率表!J13="","",IF(新暴率表!J13 &lt; 300000, VLOOKUP(新暴率表!J13,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!J13,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>幽灵盾</v>
       </c>
       <c r="J13" t="str">
         <f>IF(新暴率表!K13="","",IF(新暴率表!K13 &lt; 300000, VLOOKUP(新暴率表!K13,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!K13,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>神圣战甲术</v>
       </c>
       <c r="K13" t="str">
         <f>IF(新暴率表!L13="","",IF(新暴率表!L13 &lt; 300000, VLOOKUP(新暴率表!L13,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!L13,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>半月弯刀</v>
       </c>
       <c r="L13" t="str">
         <f>IF(新暴率表!M13="","",IF(新暴率表!M13 &lt; 300000, VLOOKUP(新暴率表!M13,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!M13,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>魔法盾</v>
       </c>
       <c r="M13" t="str">
         <f>IF(新暴率表!N13="","",IF(新暴率表!N13 &lt; 300000, VLOOKUP(新暴率表!N13,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!N13,[1]装备!$A$3:$B$511,2,FALSE)))</f>
@@ -7735,51 +7776,51 @@
       </c>
       <c r="C16" t="str">
         <f>IF(新暴率表!D16="","",IF(新暴率表!D16 &lt; 300000, VLOOKUP(新暴率表!D16,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!D16,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v>天魔神甲</v>
+        <v>战神盔甲(男)</v>
       </c>
       <c r="D16" t="str">
         <f>IF(新暴率表!E16="","",IF(新暴率表!E16 &lt; 300000, VLOOKUP(新暴率表!E16,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!E16,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v>法神披风</v>
+        <v>幽灵战衣(男)</v>
       </c>
       <c r="E16" t="str">
         <f>IF(新暴率表!F16="","",IF(新暴率表!F16 &lt; 300000, VLOOKUP(新暴率表!F16,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!F16,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v>天尊道袍</v>
+        <v>恶魔长袍(男)</v>
       </c>
       <c r="F16" t="str">
         <f>IF(新暴率表!G16="","",IF(新暴率表!G16 &lt; 300000, VLOOKUP(新暴率表!G16,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!G16,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v>圣战宝甲</v>
+        <v>天魔神甲</v>
       </c>
       <c r="G16" t="str">
         <f>IF(新暴率表!H16="","",IF(新暴率表!H16 &lt; 300000, VLOOKUP(新暴率表!H16,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!H16,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v>霓裳羽衣</v>
+        <v>法神披风</v>
       </c>
       <c r="H16" t="str">
         <f>IF(新暴率表!I16="","",IF(新暴率表!I16 &lt; 300000, VLOOKUP(新暴率表!I16,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!I16,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v>天师长袍</v>
+        <v>天尊道袍</v>
       </c>
       <c r="I16" t="str">
         <f>IF(新暴率表!J16="","",IF(新暴率表!J16 &lt; 300000, VLOOKUP(新暴率表!J16,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!J16,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>战神盔甲(女)</v>
       </c>
       <c r="J16" t="str">
         <f>IF(新暴率表!K16="","",IF(新暴率表!K16 &lt; 300000, VLOOKUP(新暴率表!K16,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!K16,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>幽灵战衣(女)</v>
       </c>
       <c r="K16" t="str">
         <f>IF(新暴率表!L16="","",IF(新暴率表!L16 &lt; 300000, VLOOKUP(新暴率表!L16,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!L16,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>恶魔长袍(女)</v>
       </c>
       <c r="L16" t="str">
         <f>IF(新暴率表!M16="","",IF(新暴率表!M16 &lt; 300000, VLOOKUP(新暴率表!M16,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!M16,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>圣战宝甲</v>
       </c>
       <c r="M16" t="str">
         <f>IF(新暴率表!N16="","",IF(新暴率表!N16 &lt; 300000, VLOOKUP(新暴率表!N16,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!N16,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>霓裳羽衣</v>
       </c>
       <c r="N16" t="str">
         <f>IF(新暴率表!O16="","",IF(新暴率表!O16 &lt; 300000, VLOOKUP(新暴率表!O16,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!O16,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>天师长袍</v>
       </c>
       <c r="O16" t="str">
         <f>IF(新暴率表!P16="","",IF(新暴率表!P16 &lt; 300000, VLOOKUP(新暴率表!P16,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!P16,[1]装备!$A$3:$B$511,2,FALSE)))</f>

--- a/documents/暴率表.xlsx
+++ b/documents/暴率表.xlsx
@@ -4420,9 +4420,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4760,10 +4760,10 @@
   <dimension ref="A1:AK33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S10" sqref="S10"/>
+      <selection pane="bottomRight" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5218,7 +5218,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>301026</v>
@@ -5251,6 +5251,9 @@
         <v>307018</v>
       </c>
       <c r="M10">
+        <v>307021</v>
+      </c>
+      <c r="N10">
         <v>309004</v>
       </c>
     </row>
@@ -5259,7 +5262,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C11">
         <v>301027</v>
@@ -5312,7 +5315,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>301028</v>
@@ -5345,10 +5348,13 @@
         <v>220029</v>
       </c>
       <c r="M12">
-        <v>220030</v>
+        <v>307014</v>
       </c>
       <c r="N12">
-        <v>220033</v>
+        <v>307016</v>
+      </c>
+      <c r="O12">
+        <v>307018</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.15">
@@ -5356,7 +5362,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C13">
         <v>301033</v>
@@ -5386,10 +5392,16 @@
         <v>220014</v>
       </c>
       <c r="L13">
-        <v>220025</v>
+        <v>301018</v>
       </c>
       <c r="M13">
-        <v>220031</v>
+        <v>305020</v>
+      </c>
+      <c r="N13">
+        <v>306022</v>
+      </c>
+      <c r="O13">
+        <v>307014</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.15">
@@ -5397,7 +5409,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C14">
         <v>301034</v>
@@ -5419,6 +5431,24 @@
       </c>
       <c r="I14">
         <v>307024</v>
+      </c>
+      <c r="J14">
+        <v>220025</v>
+      </c>
+      <c r="K14">
+        <v>220031</v>
+      </c>
+      <c r="L14">
+        <v>301022</v>
+      </c>
+      <c r="M14">
+        <v>305021</v>
+      </c>
+      <c r="N14">
+        <v>306021</v>
+      </c>
+      <c r="O14">
+        <v>307016</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.15">
@@ -5426,7 +5456,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C15">
         <v>301035</v>
@@ -5448,6 +5478,24 @@
       </c>
       <c r="I15">
         <v>309005</v>
+      </c>
+      <c r="J15">
+        <v>220030</v>
+      </c>
+      <c r="K15">
+        <v>220033</v>
+      </c>
+      <c r="L15">
+        <v>301025</v>
+      </c>
+      <c r="M15">
+        <v>305022</v>
+      </c>
+      <c r="N15">
+        <v>306018</v>
+      </c>
+      <c r="O15">
+        <v>307018</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.15">
@@ -5455,7 +5503,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C16">
         <v>301036</v>
@@ -5602,10 +5650,10 @@
   <dimension ref="A1:AJ33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -6942,11 +6990,11 @@
       </c>
       <c r="L10" t="str">
         <f>IF(新暴率表!M10="","",IF(新暴率表!M10 &lt; 300000, VLOOKUP(新暴率表!M10,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!M10,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v>腰带·风铃</v>
+        <v>祈祷戒指</v>
       </c>
       <c r="M10" t="str">
         <f>IF(新暴率表!N10="","",IF(新暴率表!N10 &lt; 300000, VLOOKUP(新暴率表!N10,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!N10,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>腰带·风铃</v>
       </c>
       <c r="N10" t="str">
         <f>IF(新暴率表!O10="","",IF(新暴率表!O10 &lt; 300000, VLOOKUP(新暴率表!O10,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!O10,[1]装备!$A$3:$B$511,2,FALSE)))</f>
@@ -7232,15 +7280,15 @@
       </c>
       <c r="L12" t="str">
         <f>IF(新暴率表!M12="","",IF(新暴率表!M12 &lt; 300000, VLOOKUP(新暴率表!M12,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!M12,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v>召唤神兽</v>
+        <v>红宝石戒指</v>
       </c>
       <c r="M12" t="str">
         <f>IF(新暴率表!N12="","",IF(新暴率表!N12 &lt; 300000, VLOOKUP(新暴率表!N12,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!N12,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v>冰咆哮</v>
+        <v>铂金戒指</v>
       </c>
       <c r="N12" t="str">
         <f>IF(新暴率表!O12="","",IF(新暴率表!O12 &lt; 300000, VLOOKUP(新暴率表!O12,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!O12,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>龙之戒指</v>
       </c>
       <c r="O12" t="str">
         <f>IF(新暴率表!P12="","",IF(新暴率表!P12 &lt; 300000, VLOOKUP(新暴率表!P12,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!P12,[1]装备!$A$3:$B$511,2,FALSE)))</f>
@@ -7373,19 +7421,19 @@
       </c>
       <c r="K13" t="str">
         <f>IF(新暴率表!L13="","",IF(新暴率表!L13 &lt; 300000, VLOOKUP(新暴率表!L13,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!L13,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v>半月弯刀</v>
+        <v>井中月</v>
       </c>
       <c r="L13" t="str">
         <f>IF(新暴率表!M13="","",IF(新暴率表!M13 &lt; 300000, VLOOKUP(新暴率表!M13,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!M13,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v>魔法盾</v>
+        <v>生命项链</v>
       </c>
       <c r="M13" t="str">
         <f>IF(新暴率表!N13="","",IF(新暴率表!N13 &lt; 300000, VLOOKUP(新暴率表!N13,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!N13,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>心灵手镯</v>
       </c>
       <c r="N13" t="str">
         <f>IF(新暴率表!O13="","",IF(新暴率表!O13 &lt; 300000, VLOOKUP(新暴率表!O13,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!O13,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>红宝石戒指</v>
       </c>
       <c r="O13" t="str">
         <f>IF(新暴率表!P13="","",IF(新暴率表!P13 &lt; 300000, VLOOKUP(新暴率表!P13,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!P13,[1]装备!$A$3:$B$511,2,FALSE)))</f>
@@ -7510,27 +7558,27 @@
       </c>
       <c r="I14" t="str">
         <f>IF(新暴率表!J14="","",IF(新暴率表!J14 &lt; 300000, VLOOKUP(新暴率表!J14,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!J14,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>半月弯刀</v>
       </c>
       <c r="J14" t="str">
         <f>IF(新暴率表!K14="","",IF(新暴率表!K14 &lt; 300000, VLOOKUP(新暴率表!K14,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!K14,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>魔法盾</v>
       </c>
       <c r="K14" t="str">
         <f>IF(新暴率表!L14="","",IF(新暴率表!L14 &lt; 300000, VLOOKUP(新暴率表!L14,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!L14,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>无极棍</v>
       </c>
       <c r="L14" t="str">
         <f>IF(新暴率表!M14="","",IF(新暴率表!M14 &lt; 300000, VLOOKUP(新暴率表!M14,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!M14,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>天珠项链</v>
       </c>
       <c r="M14" t="str">
         <f>IF(新暴率表!N14="","",IF(新暴率表!N14 &lt; 300000, VLOOKUP(新暴率表!N14,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!N14,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>思贝儿手镯</v>
       </c>
       <c r="N14" t="str">
         <f>IF(新暴率表!O14="","",IF(新暴率表!O14 &lt; 300000, VLOOKUP(新暴率表!O14,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!O14,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>铂金戒指</v>
       </c>
       <c r="O14" t="str">
         <f>IF(新暴率表!P14="","",IF(新暴率表!P14 &lt; 300000, VLOOKUP(新暴率表!P14,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!P14,[1]装备!$A$3:$B$511,2,FALSE)))</f>
@@ -7655,27 +7703,27 @@
       </c>
       <c r="I15" t="str">
         <f>IF(新暴率表!J15="","",IF(新暴率表!J15 &lt; 300000, VLOOKUP(新暴率表!J15,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!J15,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>召唤神兽</v>
       </c>
       <c r="J15" t="str">
         <f>IF(新暴率表!K15="","",IF(新暴率表!K15 &lt; 300000, VLOOKUP(新暴率表!K15,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!K15,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>冰咆哮</v>
       </c>
       <c r="K15" t="str">
         <f>IF(新暴率表!L15="","",IF(新暴率表!L15 &lt; 300000, VLOOKUP(新暴率表!L15,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!L15,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>血饮</v>
       </c>
       <c r="L15" t="str">
         <f>IF(新暴率表!M15="","",IF(新暴率表!M15 &lt; 300000, VLOOKUP(新暴率表!M15,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!M15,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>幽灵项链</v>
       </c>
       <c r="M15" t="str">
         <f>IF(新暴率表!N15="","",IF(新暴率表!N15 &lt; 300000, VLOOKUP(新暴率表!N15,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!N15,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>幽灵手套</v>
       </c>
       <c r="N15" t="str">
         <f>IF(新暴率表!O15="","",IF(新暴率表!O15 &lt; 300000, VLOOKUP(新暴率表!O15,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!O15,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>龙之戒指</v>
       </c>
       <c r="O15" t="str">
         <f>IF(新暴率表!P15="","",IF(新暴率表!P15 &lt; 300000, VLOOKUP(新暴率表!P15,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!P15,[1]装备!$A$3:$B$511,2,FALSE)))</f>

--- a/documents/暴率表.xlsx
+++ b/documents/暴率表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="4590" yWindow="75" windowWidth="15900" windowHeight="9285"/>
+    <workbookView xWindow="4290" yWindow="75" windowWidth="16200" windowHeight="9255"/>
   </bookViews>
   <sheets>
     <sheet name="新暴率表" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="76">
   <si>
     <t>item1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -180,12 +180,6 @@
     <t>王者禁地</t>
   </si>
   <si>
-    <t>魔龙寨</t>
-  </si>
-  <si>
-    <t>雷炎窟</t>
-  </si>
-  <si>
     <t>古代遗迹</t>
   </si>
   <si>
@@ -236,6 +230,34 @@
   </si>
   <si>
     <t>祖玛神殿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔龙血域</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔龙东郊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔龙西郊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔龙祭坛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔龙谷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷炎1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷炎2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1590,2118 +1612,2134 @@
             <v>304035</v>
           </cell>
           <cell r="B161" t="str">
-            <v>传奇之冠</v>
+            <v>传奇战盔</v>
           </cell>
         </row>
         <row r="162">
           <cell r="A162">
-            <v>305001</v>
+            <v>304036</v>
           </cell>
           <cell r="B162" t="str">
-            <v>金项链</v>
+            <v>传奇法帽</v>
           </cell>
         </row>
         <row r="163">
           <cell r="A163">
-            <v>305002</v>
+            <v>304037</v>
           </cell>
           <cell r="B163" t="str">
-            <v>传统项链</v>
+            <v>传奇道冠</v>
           </cell>
         </row>
         <row r="164">
           <cell r="A164">
-            <v>305003</v>
+            <v>305001</v>
           </cell>
           <cell r="B164" t="str">
-            <v>黑檀项链</v>
+            <v>金项链</v>
           </cell>
         </row>
         <row r="165">
           <cell r="A165">
-            <v>305004</v>
+            <v>305002</v>
           </cell>
           <cell r="B165" t="str">
-            <v>黄色水晶项链</v>
+            <v>传统项链</v>
           </cell>
         </row>
         <row r="166">
           <cell r="A166">
-            <v>305005</v>
+            <v>305003</v>
           </cell>
           <cell r="B166" t="str">
-            <v>黑色水晶项链</v>
+            <v>黑檀项链</v>
           </cell>
         </row>
         <row r="167">
           <cell r="A167">
-            <v>305006</v>
+            <v>305004</v>
           </cell>
           <cell r="B167" t="str">
-            <v>灯笼项链</v>
+            <v>黄色水晶项链</v>
           </cell>
         </row>
         <row r="168">
           <cell r="A168">
-            <v>305007</v>
+            <v>305005</v>
           </cell>
           <cell r="B168" t="str">
-            <v>白色虎齿项链</v>
+            <v>黑色水晶项链</v>
           </cell>
         </row>
         <row r="169">
           <cell r="A169">
-            <v>305008</v>
+            <v>305006</v>
           </cell>
           <cell r="B169" t="str">
-            <v>白金项链</v>
+            <v>灯笼项链</v>
           </cell>
         </row>
         <row r="170">
           <cell r="A170">
-            <v>305009</v>
+            <v>305007</v>
           </cell>
           <cell r="B170" t="str">
-            <v>魔鬼项链</v>
+            <v>白色虎齿项链</v>
           </cell>
         </row>
         <row r="171">
           <cell r="A171">
-            <v>305010</v>
+            <v>305008</v>
           </cell>
           <cell r="B171" t="str">
-            <v>蓝翡翠项链</v>
+            <v>白金项链</v>
           </cell>
         </row>
         <row r="172">
           <cell r="A172">
-            <v>305011</v>
+            <v>305009</v>
           </cell>
           <cell r="B172" t="str">
-            <v>琥珀项链</v>
+            <v>魔鬼项链</v>
           </cell>
         </row>
         <row r="173">
           <cell r="A173">
-            <v>305012</v>
+            <v>305010</v>
           </cell>
           <cell r="B173" t="str">
-            <v>放大镜</v>
+            <v>蓝翡翠项链</v>
           </cell>
         </row>
         <row r="174">
           <cell r="A174">
-            <v>305013</v>
+            <v>305011</v>
           </cell>
           <cell r="B174" t="str">
-            <v>竹笛</v>
+            <v>琥珀项链</v>
           </cell>
         </row>
         <row r="175">
           <cell r="A175">
-            <v>305014</v>
+            <v>305012</v>
           </cell>
           <cell r="B175" t="str">
-            <v>凤凰明珠</v>
+            <v>放大镜</v>
           </cell>
         </row>
         <row r="176">
           <cell r="A176">
-            <v>305015</v>
+            <v>305013</v>
           </cell>
           <cell r="B176" t="str">
-            <v>狂风项链</v>
+            <v>竹笛</v>
           </cell>
         </row>
         <row r="177">
           <cell r="A177">
-            <v>305016</v>
+            <v>305014</v>
           </cell>
           <cell r="B177" t="str">
-            <v>记忆项链</v>
+            <v>凤凰明珠</v>
           </cell>
         </row>
         <row r="178">
           <cell r="A178">
-            <v>305017</v>
+            <v>305015</v>
           </cell>
           <cell r="B178" t="str">
-            <v>祈祷项链</v>
+            <v>狂风项链</v>
           </cell>
         </row>
         <row r="179">
           <cell r="A179">
-            <v>305018</v>
+            <v>305016</v>
           </cell>
           <cell r="B179" t="str">
-            <v>魔血项链</v>
+            <v>记忆项链</v>
           </cell>
         </row>
         <row r="180">
           <cell r="A180">
-            <v>305019</v>
+            <v>305017</v>
           </cell>
           <cell r="B180" t="str">
-            <v>虹魔项链</v>
+            <v>祈祷项链</v>
           </cell>
         </row>
         <row r="181">
           <cell r="A181">
-            <v>305020</v>
+            <v>305018</v>
           </cell>
           <cell r="B181" t="str">
-            <v>生命项链</v>
+            <v>魔血项链</v>
           </cell>
         </row>
         <row r="182">
           <cell r="A182">
-            <v>305021</v>
+            <v>305019</v>
           </cell>
           <cell r="B182" t="str">
-            <v>天珠项链</v>
+            <v>虹魔项链</v>
           </cell>
         </row>
         <row r="183">
           <cell r="A183">
-            <v>305022</v>
+            <v>305020</v>
           </cell>
           <cell r="B183" t="str">
-            <v>幽灵项链</v>
+            <v>生命项链</v>
           </cell>
         </row>
         <row r="184">
           <cell r="A184">
-            <v>305023</v>
+            <v>305021</v>
           </cell>
           <cell r="B184" t="str">
-            <v>绿色项链</v>
+            <v>天珠项链</v>
           </cell>
         </row>
         <row r="185">
           <cell r="A185">
-            <v>305024</v>
+            <v>305022</v>
           </cell>
           <cell r="B185" t="str">
-            <v>灵魂项链</v>
+            <v>幽灵项链</v>
           </cell>
         </row>
         <row r="186">
           <cell r="A186">
-            <v>305025</v>
+            <v>305023</v>
           </cell>
           <cell r="B186" t="str">
-            <v>恶魔铃铛</v>
+            <v>绿色项链</v>
           </cell>
         </row>
         <row r="187">
           <cell r="A187">
-            <v>305026</v>
+            <v>305024</v>
           </cell>
           <cell r="B187" t="str">
-            <v>圣战项链</v>
+            <v>灵魂项链</v>
           </cell>
         </row>
         <row r="188">
           <cell r="A188">
-            <v>305027</v>
+            <v>305025</v>
           </cell>
           <cell r="B188" t="str">
-            <v>法神项链</v>
+            <v>恶魔铃铛</v>
           </cell>
         </row>
         <row r="189">
           <cell r="A189">
-            <v>305028</v>
+            <v>305026</v>
           </cell>
           <cell r="B189" t="str">
-            <v>天尊项链</v>
+            <v>圣战项链</v>
           </cell>
         </row>
         <row r="190">
           <cell r="A190">
-            <v>305029</v>
+            <v>305027</v>
           </cell>
           <cell r="B190" t="str">
-            <v>战神项链</v>
+            <v>法神项链</v>
           </cell>
         </row>
         <row r="191">
           <cell r="A191">
-            <v>305030</v>
+            <v>305028</v>
           </cell>
           <cell r="B191" t="str">
-            <v>圣魔项链</v>
+            <v>天尊项链</v>
           </cell>
         </row>
         <row r="192">
           <cell r="A192">
-            <v>305031</v>
+            <v>305029</v>
           </cell>
           <cell r="B192" t="str">
-            <v>真魂项链</v>
+            <v>战神项链</v>
           </cell>
         </row>
         <row r="193">
           <cell r="A193">
-            <v>305032</v>
+            <v>305030</v>
           </cell>
           <cell r="B193" t="str">
-            <v>雷霆项链</v>
+            <v>圣魔项链</v>
           </cell>
         </row>
         <row r="194">
           <cell r="A194">
-            <v>305033</v>
+            <v>305031</v>
           </cell>
           <cell r="B194" t="str">
-            <v>烈焰项链</v>
+            <v>真魂项链</v>
           </cell>
         </row>
         <row r="195">
           <cell r="A195">
-            <v>305034</v>
+            <v>305032</v>
           </cell>
           <cell r="B195" t="str">
-            <v>光芒项链</v>
+            <v>雷霆项链</v>
           </cell>
         </row>
         <row r="196">
           <cell r="A196">
-            <v>305035</v>
+            <v>305033</v>
           </cell>
           <cell r="B196" t="str">
-            <v>星王项链(战)</v>
+            <v>烈焰项链</v>
           </cell>
         </row>
         <row r="197">
           <cell r="A197">
-            <v>305036</v>
+            <v>305034</v>
           </cell>
           <cell r="B197" t="str">
-            <v>星王项链(法)</v>
+            <v>光芒项链</v>
           </cell>
         </row>
         <row r="198">
           <cell r="A198">
-            <v>305037</v>
+            <v>305035</v>
           </cell>
           <cell r="B198" t="str">
-            <v>星王项链(道)</v>
+            <v>星王项链(战)</v>
           </cell>
         </row>
         <row r="199">
           <cell r="A199">
-            <v>305038</v>
+            <v>305036</v>
           </cell>
           <cell r="B199" t="str">
-            <v>狂雷项链</v>
+            <v>星王项链(法)</v>
           </cell>
         </row>
         <row r="200">
           <cell r="A200">
-            <v>305039</v>
+            <v>305037</v>
           </cell>
           <cell r="B200" t="str">
-            <v>逆火项链</v>
+            <v>星王项链(道)</v>
           </cell>
         </row>
         <row r="201">
           <cell r="A201">
-            <v>305040</v>
+            <v>305038</v>
           </cell>
           <cell r="B201" t="str">
-            <v>通云项链</v>
+            <v>狂雷项链</v>
           </cell>
         </row>
         <row r="202">
           <cell r="A202">
-            <v>305041</v>
+            <v>305039</v>
           </cell>
           <cell r="B202" t="str">
-            <v>王者项链(战)</v>
+            <v>逆火项链</v>
           </cell>
         </row>
         <row r="203">
           <cell r="A203">
-            <v>305042</v>
+            <v>305040</v>
           </cell>
           <cell r="B203" t="str">
-            <v>王者项链(法)</v>
+            <v>通云项链</v>
           </cell>
         </row>
         <row r="204">
           <cell r="A204">
-            <v>305043</v>
+            <v>305041</v>
           </cell>
           <cell r="B204" t="str">
-            <v>王者项链(道)</v>
+            <v>王者项链(战)</v>
           </cell>
         </row>
         <row r="205">
           <cell r="A205">
-            <v>305044</v>
+            <v>305042</v>
           </cell>
           <cell r="B205" t="str">
-            <v>炎龙项链</v>
+            <v>王者项链(法)</v>
           </cell>
         </row>
         <row r="206">
           <cell r="A206">
-            <v>305045</v>
+            <v>305043</v>
           </cell>
           <cell r="B206" t="str">
-            <v>雷龙项链</v>
+            <v>王者项链(道)</v>
           </cell>
         </row>
         <row r="207">
           <cell r="A207">
-            <v>305046</v>
+            <v>305044</v>
           </cell>
           <cell r="B207" t="str">
-            <v>青龙项链</v>
+            <v>炎龙项链</v>
           </cell>
         </row>
         <row r="208">
           <cell r="A208">
-            <v>305047</v>
+            <v>305045</v>
           </cell>
           <cell r="B208" t="str">
-            <v>荣耀项链(战)</v>
+            <v>雷龙项链</v>
           </cell>
         </row>
         <row r="209">
           <cell r="A209">
-            <v>305048</v>
+            <v>305046</v>
           </cell>
           <cell r="B209" t="str">
-            <v>荣耀项链(法)</v>
+            <v>青龙项链</v>
           </cell>
         </row>
         <row r="210">
           <cell r="A210">
-            <v>305049</v>
+            <v>305047</v>
           </cell>
           <cell r="B210" t="str">
-            <v>荣耀项链(道)</v>
+            <v>荣耀项链(战)</v>
           </cell>
         </row>
         <row r="211">
           <cell r="A211">
-            <v>305050</v>
+            <v>305048</v>
           </cell>
           <cell r="B211" t="str">
-            <v>天龙项链(战)</v>
+            <v>荣耀项链(法)</v>
           </cell>
         </row>
         <row r="212">
           <cell r="A212">
-            <v>305051</v>
+            <v>305049</v>
           </cell>
           <cell r="B212" t="str">
-            <v>天龙项链(法)</v>
+            <v>荣耀项链(道)</v>
           </cell>
         </row>
         <row r="213">
           <cell r="A213">
-            <v>305052</v>
+            <v>305050</v>
           </cell>
           <cell r="B213" t="str">
-            <v>天龙项链(道)</v>
+            <v>天龙项链(战)</v>
           </cell>
         </row>
         <row r="214">
           <cell r="A214">
-            <v>305053</v>
+            <v>305051</v>
           </cell>
           <cell r="B214" t="str">
-            <v>虎威项链(战)</v>
+            <v>天龙项链(法)</v>
           </cell>
         </row>
         <row r="215">
           <cell r="A215">
-            <v>305054</v>
+            <v>305052</v>
           </cell>
           <cell r="B215" t="str">
-            <v>虎威项链(法)</v>
+            <v>天龙项链(道)</v>
           </cell>
         </row>
         <row r="216">
           <cell r="A216">
-            <v>305055</v>
+            <v>305053</v>
           </cell>
           <cell r="B216" t="str">
-            <v>虎威项链(道)</v>
+            <v>虎威项链(战)</v>
           </cell>
         </row>
         <row r="217">
           <cell r="A217">
-            <v>305056</v>
+            <v>305054</v>
           </cell>
           <cell r="B217" t="str">
-            <v>传奇项链(战)</v>
+            <v>虎威项链(法)</v>
           </cell>
         </row>
         <row r="218">
           <cell r="A218">
-            <v>305057</v>
+            <v>305055</v>
           </cell>
           <cell r="B218" t="str">
-            <v>传奇项链(法)</v>
+            <v>虎威项链(道)</v>
           </cell>
         </row>
         <row r="219">
           <cell r="A219">
-            <v>305058</v>
+            <v>305056</v>
           </cell>
           <cell r="B219" t="str">
-            <v>传奇项链(道)</v>
+            <v>传奇项链(战)</v>
           </cell>
         </row>
         <row r="220">
           <cell r="A220">
-            <v>306001</v>
+            <v>305057</v>
           </cell>
           <cell r="B220" t="str">
-            <v>铁手镯</v>
+            <v>传奇项链(法)</v>
           </cell>
         </row>
         <row r="221">
           <cell r="A221">
-            <v>306002</v>
+            <v>305058</v>
           </cell>
           <cell r="B221" t="str">
-            <v>皮制手套</v>
+            <v>传奇项链(道)</v>
           </cell>
         </row>
         <row r="222">
           <cell r="A222">
-            <v>306003</v>
+            <v>306001</v>
           </cell>
           <cell r="B222" t="str">
-            <v>钢手镯</v>
+            <v>铁手镯</v>
           </cell>
         </row>
         <row r="223">
           <cell r="A223">
-            <v>306004</v>
+            <v>306002</v>
           </cell>
           <cell r="B223" t="str">
-            <v>小手镯</v>
+            <v>皮制手套</v>
           </cell>
         </row>
         <row r="224">
           <cell r="A224">
-            <v>306005</v>
+            <v>306003</v>
           </cell>
           <cell r="B224" t="str">
-            <v>银手镯</v>
+            <v>钢手镯</v>
           </cell>
         </row>
         <row r="225">
           <cell r="A225">
-            <v>306006</v>
+            <v>306004</v>
           </cell>
           <cell r="B225" t="str">
-            <v>大手镯</v>
+            <v>小手镯</v>
           </cell>
         </row>
         <row r="226">
           <cell r="A226">
-            <v>306007</v>
+            <v>306005</v>
           </cell>
           <cell r="B226" t="str">
-            <v>躲避手链</v>
+            <v>银手镯</v>
           </cell>
         </row>
         <row r="227">
           <cell r="A227">
-            <v>306008</v>
+            <v>306006</v>
           </cell>
           <cell r="B227" t="str">
-            <v>夏普儿手镯</v>
+            <v>大手镯</v>
           </cell>
         </row>
         <row r="228">
           <cell r="A228">
-            <v>306009</v>
+            <v>306007</v>
           </cell>
           <cell r="B228" t="str">
-            <v>避邪手镯</v>
+            <v>躲避手链</v>
           </cell>
         </row>
         <row r="229">
           <cell r="A229">
-            <v>306010</v>
+            <v>306008</v>
           </cell>
           <cell r="B229" t="str">
-            <v>坚固手套</v>
+            <v>夏普儿手镯</v>
           </cell>
         </row>
         <row r="230">
           <cell r="A230">
-            <v>306011</v>
+            <v>306009</v>
           </cell>
           <cell r="B230" t="str">
-            <v>魔法手镯</v>
+            <v>避邪手镯</v>
           </cell>
         </row>
         <row r="231">
           <cell r="A231">
-            <v>306012</v>
+            <v>306010</v>
           </cell>
           <cell r="B231" t="str">
-            <v>死神手套</v>
+            <v>坚固手套</v>
           </cell>
         </row>
         <row r="232">
           <cell r="A232">
-            <v>306013</v>
+            <v>306011</v>
           </cell>
           <cell r="B232" t="str">
-            <v>金手镯</v>
+            <v>魔法手镯</v>
           </cell>
         </row>
         <row r="233">
           <cell r="A233">
-            <v>306014</v>
+            <v>306012</v>
           </cell>
           <cell r="B233" t="str">
-            <v>道士手镯</v>
+            <v>死神手套</v>
           </cell>
         </row>
         <row r="234">
           <cell r="A234">
-            <v>306015</v>
+            <v>306013</v>
           </cell>
           <cell r="B234" t="str">
-            <v>黑檀手镯</v>
+            <v>金手镯</v>
           </cell>
         </row>
         <row r="235">
           <cell r="A235">
-            <v>306016</v>
+            <v>306014</v>
           </cell>
           <cell r="B235" t="str">
-            <v>记忆手镯</v>
+            <v>道士手镯</v>
           </cell>
         </row>
         <row r="236">
           <cell r="A236">
-            <v>306017</v>
+            <v>306015</v>
           </cell>
           <cell r="B236" t="str">
-            <v>祈祷手镯</v>
+            <v>黑檀手镯</v>
           </cell>
         </row>
         <row r="237">
           <cell r="A237">
-            <v>306018</v>
+            <v>306016</v>
           </cell>
           <cell r="B237" t="str">
-            <v>幽灵手套</v>
+            <v>记忆手镯</v>
           </cell>
         </row>
         <row r="238">
           <cell r="A238">
-            <v>306019</v>
+            <v>306017</v>
           </cell>
           <cell r="B238" t="str">
-            <v>阎罗手套</v>
+            <v>祈祷手镯</v>
           </cell>
         </row>
         <row r="239">
           <cell r="A239">
-            <v>306020</v>
+            <v>306018</v>
           </cell>
           <cell r="B239" t="str">
-            <v>魔力手镯</v>
+            <v>幽灵手套</v>
           </cell>
         </row>
         <row r="240">
           <cell r="A240">
-            <v>306021</v>
+            <v>306019</v>
           </cell>
           <cell r="B240" t="str">
-            <v>思贝儿手镯</v>
+            <v>阎罗手套</v>
           </cell>
         </row>
         <row r="241">
           <cell r="A241">
-            <v>306022</v>
+            <v>306020</v>
           </cell>
           <cell r="B241" t="str">
-            <v>心灵手镯</v>
+            <v>魔力手镯</v>
           </cell>
         </row>
         <row r="242">
           <cell r="A242">
-            <v>306023</v>
+            <v>306021</v>
           </cell>
           <cell r="B242" t="str">
-            <v>魔血手镯</v>
+            <v>思贝儿手镯</v>
           </cell>
         </row>
         <row r="243">
           <cell r="A243">
-            <v>306024</v>
+            <v>306022</v>
           </cell>
           <cell r="B243" t="str">
-            <v>虹魔手镯</v>
+            <v>心灵手镯</v>
           </cell>
         </row>
         <row r="244">
           <cell r="A244">
-            <v>306025</v>
+            <v>306023</v>
           </cell>
           <cell r="B244" t="str">
-            <v>骑士手镯</v>
+            <v>魔血手镯</v>
           </cell>
         </row>
         <row r="245">
           <cell r="A245">
-            <v>306026</v>
+            <v>306024</v>
           </cell>
           <cell r="B245" t="str">
-            <v>龙之手镯</v>
+            <v>虹魔手镯</v>
           </cell>
         </row>
         <row r="246">
           <cell r="A246">
-            <v>306027</v>
+            <v>306025</v>
           </cell>
           <cell r="B246" t="str">
-            <v>三眼手镯</v>
+            <v>骑士手镯</v>
           </cell>
         </row>
         <row r="247">
           <cell r="A247">
-            <v>306028</v>
+            <v>306026</v>
           </cell>
           <cell r="B247" t="str">
-            <v>圣战手镯</v>
+            <v>龙之手镯</v>
           </cell>
         </row>
         <row r="248">
           <cell r="A248">
-            <v>306029</v>
+            <v>306027</v>
           </cell>
           <cell r="B248" t="str">
-            <v>法神手镯</v>
+            <v>三眼手镯</v>
           </cell>
         </row>
         <row r="249">
           <cell r="A249">
-            <v>306030</v>
+            <v>306028</v>
           </cell>
           <cell r="B249" t="str">
-            <v>天尊手镯</v>
+            <v>圣战手镯</v>
           </cell>
         </row>
         <row r="250">
           <cell r="A250">
-            <v>306031</v>
+            <v>306029</v>
           </cell>
           <cell r="B250" t="str">
-            <v>战神手镯</v>
+            <v>法神手镯</v>
           </cell>
         </row>
         <row r="251">
           <cell r="A251">
-            <v>306032</v>
+            <v>306030</v>
           </cell>
           <cell r="B251" t="str">
-            <v>圣魔手镯</v>
+            <v>天尊手镯</v>
           </cell>
         </row>
         <row r="252">
           <cell r="A252">
-            <v>306033</v>
+            <v>306031</v>
           </cell>
           <cell r="B252" t="str">
-            <v>真魂手镯</v>
+            <v>战神手镯</v>
           </cell>
         </row>
         <row r="253">
           <cell r="A253">
-            <v>306034</v>
+            <v>306032</v>
           </cell>
           <cell r="B253" t="str">
-            <v>雷霆护腕</v>
+            <v>圣魔手镯</v>
           </cell>
         </row>
         <row r="254">
           <cell r="A254">
-            <v>306035</v>
+            <v>306033</v>
           </cell>
           <cell r="B254" t="str">
-            <v>烈焰护腕</v>
+            <v>真魂手镯</v>
           </cell>
         </row>
         <row r="255">
           <cell r="A255">
-            <v>306036</v>
+            <v>306034</v>
           </cell>
           <cell r="B255" t="str">
-            <v>光芒护腕</v>
+            <v>雷霆护腕</v>
           </cell>
         </row>
         <row r="256">
           <cell r="A256">
-            <v>306037</v>
+            <v>306035</v>
           </cell>
           <cell r="B256" t="str">
-            <v>星王护腕(战)</v>
+            <v>烈焰护腕</v>
           </cell>
         </row>
         <row r="257">
           <cell r="A257">
-            <v>306038</v>
+            <v>306036</v>
           </cell>
           <cell r="B257" t="str">
-            <v>星王护腕(法)</v>
+            <v>光芒护腕</v>
           </cell>
         </row>
         <row r="258">
           <cell r="A258">
-            <v>306039</v>
+            <v>306037</v>
           </cell>
           <cell r="B258" t="str">
-            <v>星王护腕(道)</v>
+            <v>星王护腕(战)</v>
           </cell>
         </row>
         <row r="259">
           <cell r="A259">
-            <v>306040</v>
+            <v>306038</v>
           </cell>
           <cell r="B259" t="str">
-            <v>狂雷护腕</v>
+            <v>星王护腕(法)</v>
           </cell>
         </row>
         <row r="260">
           <cell r="A260">
-            <v>306041</v>
+            <v>306039</v>
           </cell>
           <cell r="B260" t="str">
-            <v>逆火护腕</v>
+            <v>星王护腕(道)</v>
           </cell>
         </row>
         <row r="261">
           <cell r="A261">
-            <v>306042</v>
+            <v>306040</v>
           </cell>
           <cell r="B261" t="str">
-            <v>通云护腕</v>
+            <v>狂雷护腕</v>
           </cell>
         </row>
         <row r="262">
           <cell r="A262">
-            <v>306043</v>
+            <v>306041</v>
           </cell>
           <cell r="B262" t="str">
-            <v>王者护腕(战)</v>
+            <v>逆火护腕</v>
           </cell>
         </row>
         <row r="263">
           <cell r="A263">
-            <v>306044</v>
+            <v>306042</v>
           </cell>
           <cell r="B263" t="str">
-            <v>王者护腕(法)</v>
+            <v>通云护腕</v>
           </cell>
         </row>
         <row r="264">
           <cell r="A264">
-            <v>306045</v>
+            <v>306043</v>
           </cell>
           <cell r="B264" t="str">
-            <v>王者护腕(道)</v>
+            <v>王者护腕(战)</v>
           </cell>
         </row>
         <row r="265">
           <cell r="A265">
-            <v>306046</v>
+            <v>306044</v>
           </cell>
           <cell r="B265" t="str">
-            <v>炎龙护腕</v>
+            <v>王者护腕(法)</v>
           </cell>
         </row>
         <row r="266">
           <cell r="A266">
-            <v>306047</v>
+            <v>306045</v>
           </cell>
           <cell r="B266" t="str">
-            <v>雷龙护腕</v>
+            <v>王者护腕(道)</v>
           </cell>
         </row>
         <row r="267">
           <cell r="A267">
-            <v>306048</v>
+            <v>306046</v>
           </cell>
           <cell r="B267" t="str">
-            <v>青龙护腕</v>
+            <v>炎龙护腕</v>
           </cell>
         </row>
         <row r="268">
           <cell r="A268">
-            <v>306049</v>
+            <v>306047</v>
           </cell>
           <cell r="B268" t="str">
-            <v>荣耀护腕(战)</v>
+            <v>雷龙护腕</v>
           </cell>
         </row>
         <row r="269">
           <cell r="A269">
-            <v>306050</v>
+            <v>306048</v>
           </cell>
           <cell r="B269" t="str">
-            <v>荣耀护腕(法)</v>
+            <v>青龙护腕</v>
           </cell>
         </row>
         <row r="270">
           <cell r="A270">
-            <v>306051</v>
+            <v>306049</v>
           </cell>
           <cell r="B270" t="str">
-            <v>荣耀护腕(道)</v>
+            <v>荣耀护腕(战)</v>
           </cell>
         </row>
         <row r="271">
           <cell r="A271">
-            <v>306052</v>
+            <v>306050</v>
           </cell>
           <cell r="B271" t="str">
-            <v>天龙护腕(战)</v>
+            <v>荣耀护腕(法)</v>
           </cell>
         </row>
         <row r="272">
           <cell r="A272">
-            <v>306053</v>
+            <v>306051</v>
           </cell>
           <cell r="B272" t="str">
-            <v>天龙护腕(法)</v>
+            <v>荣耀护腕(道)</v>
           </cell>
         </row>
         <row r="273">
           <cell r="A273">
-            <v>306054</v>
+            <v>306052</v>
           </cell>
           <cell r="B273" t="str">
-            <v>天龙护腕(道)</v>
+            <v>天龙护腕(战)</v>
           </cell>
         </row>
         <row r="274">
           <cell r="A274">
-            <v>306055</v>
+            <v>306053</v>
           </cell>
           <cell r="B274" t="str">
-            <v>虎威护腕(战)</v>
+            <v>天龙护腕(法)</v>
           </cell>
         </row>
         <row r="275">
           <cell r="A275">
-            <v>306056</v>
+            <v>306054</v>
           </cell>
           <cell r="B275" t="str">
-            <v>虎威护腕(法)</v>
+            <v>天龙护腕(道)</v>
           </cell>
         </row>
         <row r="276">
           <cell r="A276">
-            <v>306057</v>
+            <v>306055</v>
           </cell>
           <cell r="B276" t="str">
-            <v>虎威护腕(道)</v>
+            <v>虎威护腕(战)</v>
           </cell>
         </row>
         <row r="277">
           <cell r="A277">
-            <v>306058</v>
+            <v>306056</v>
           </cell>
           <cell r="B277" t="str">
-            <v>传奇护腕(战）</v>
+            <v>虎威护腕(法)</v>
           </cell>
         </row>
         <row r="278">
           <cell r="A278">
-            <v>306059</v>
+            <v>306057</v>
           </cell>
           <cell r="B278" t="str">
-            <v>传奇护腕(法）</v>
+            <v>虎威护腕(道)</v>
           </cell>
         </row>
         <row r="279">
           <cell r="A279">
-            <v>306060</v>
+            <v>306058</v>
           </cell>
           <cell r="B279" t="str">
-            <v>传奇护腕(道）</v>
+            <v>传奇护腕(战）</v>
           </cell>
         </row>
         <row r="280">
           <cell r="A280">
-            <v>307001</v>
+            <v>306059</v>
           </cell>
           <cell r="B280" t="str">
-            <v>古铜戒指</v>
+            <v>传奇护腕(法）</v>
           </cell>
         </row>
         <row r="281">
           <cell r="A281">
-            <v>307002</v>
+            <v>306060</v>
           </cell>
           <cell r="B281" t="str">
-            <v>六角戒指</v>
+            <v>传奇护腕(道）</v>
           </cell>
         </row>
         <row r="282">
           <cell r="A282">
-            <v>307003</v>
+            <v>307001</v>
           </cell>
           <cell r="B282" t="str">
-            <v>玻璃戒指</v>
+            <v>古铜戒指</v>
           </cell>
         </row>
         <row r="283">
           <cell r="A283">
-            <v>307004</v>
+            <v>307002</v>
           </cell>
           <cell r="B283" t="str">
-            <v>牛角戒指</v>
+            <v>六角戒指</v>
           </cell>
         </row>
         <row r="284">
           <cell r="A284">
-            <v>307005</v>
+            <v>307003</v>
           </cell>
           <cell r="B284" t="str">
-            <v>蓝色水晶戒指</v>
+            <v>玻璃戒指</v>
           </cell>
         </row>
         <row r="285">
           <cell r="A285">
-            <v>307006</v>
+            <v>307004</v>
           </cell>
           <cell r="B285" t="str">
-            <v>生铁戒指</v>
+            <v>牛角戒指</v>
           </cell>
         </row>
         <row r="286">
           <cell r="A286">
-            <v>307007</v>
+            <v>307005</v>
           </cell>
           <cell r="B286" t="str">
-            <v>金戒指</v>
+            <v>蓝色水晶戒指</v>
           </cell>
         </row>
         <row r="287">
           <cell r="A287">
-            <v>307008</v>
+            <v>307006</v>
           </cell>
           <cell r="B287" t="str">
-            <v>魅力戒指</v>
+            <v>生铁戒指</v>
           </cell>
         </row>
         <row r="288">
           <cell r="A288">
-            <v>307009</v>
+            <v>307007</v>
           </cell>
           <cell r="B288" t="str">
-            <v>道德戒指</v>
+            <v>金戒指</v>
           </cell>
         </row>
         <row r="289">
           <cell r="A289">
-            <v>307010</v>
+            <v>307008</v>
           </cell>
           <cell r="B289" t="str">
-            <v>降妖除魔戒指</v>
+            <v>魅力戒指</v>
           </cell>
         </row>
         <row r="290">
           <cell r="A290">
-            <v>307011</v>
+            <v>307009</v>
           </cell>
           <cell r="B290" t="str">
-            <v>黑色水晶戒指</v>
+            <v>道德戒指</v>
           </cell>
         </row>
         <row r="291">
           <cell r="A291">
-            <v>307012</v>
+            <v>307010</v>
           </cell>
           <cell r="B291" t="str">
-            <v>珊瑚戒指</v>
+            <v>降妖除魔戒指</v>
           </cell>
         </row>
         <row r="292">
           <cell r="A292">
-            <v>307013</v>
+            <v>307011</v>
           </cell>
           <cell r="B292" t="str">
-            <v>蛇眼戒指</v>
+            <v>黑色水晶戒指</v>
           </cell>
         </row>
         <row r="293">
           <cell r="A293">
-            <v>307014</v>
+            <v>307012</v>
           </cell>
           <cell r="B293" t="str">
-            <v>红宝石戒指</v>
+            <v>珊瑚戒指</v>
           </cell>
         </row>
         <row r="294">
           <cell r="A294">
-            <v>307015</v>
+            <v>307013</v>
           </cell>
           <cell r="B294" t="str">
-            <v>珍珠戒指</v>
+            <v>蛇眼戒指</v>
           </cell>
         </row>
         <row r="295">
           <cell r="A295">
-            <v>307016</v>
+            <v>307014</v>
           </cell>
           <cell r="B295" t="str">
-            <v>铂金戒指</v>
+            <v>红宝石戒指</v>
           </cell>
         </row>
         <row r="296">
           <cell r="A296">
-            <v>307017</v>
+            <v>307015</v>
           </cell>
           <cell r="B296" t="str">
-            <v>骷髅戒指</v>
+            <v>珍珠戒指</v>
           </cell>
         </row>
         <row r="297">
           <cell r="A297">
-            <v>307018</v>
+            <v>307016</v>
           </cell>
           <cell r="B297" t="str">
-            <v>龙之戒指</v>
+            <v>铂金戒指</v>
           </cell>
         </row>
         <row r="298">
           <cell r="A298">
-            <v>307019</v>
+            <v>307017</v>
           </cell>
           <cell r="B298" t="str">
-            <v>火焰戒指</v>
+            <v>骷髅戒指</v>
           </cell>
         </row>
         <row r="299">
           <cell r="A299">
-            <v>307020</v>
+            <v>307018</v>
           </cell>
           <cell r="B299" t="str">
-            <v>记忆戒指</v>
+            <v>龙之戒指</v>
           </cell>
         </row>
         <row r="300">
           <cell r="A300">
-            <v>307021</v>
+            <v>307019</v>
           </cell>
           <cell r="B300" t="str">
-            <v>祈祷戒指</v>
+            <v>火焰戒指</v>
           </cell>
         </row>
         <row r="301">
           <cell r="A301">
-            <v>307022</v>
+            <v>307020</v>
           </cell>
           <cell r="B301" t="str">
-            <v>力量戒指</v>
+            <v>记忆戒指</v>
           </cell>
         </row>
         <row r="302">
           <cell r="A302">
-            <v>307023</v>
+            <v>307021</v>
           </cell>
           <cell r="B302" t="str">
-            <v>紫碧螺</v>
+            <v>祈祷戒指</v>
           </cell>
         </row>
         <row r="303">
           <cell r="A303">
-            <v>307024</v>
+            <v>307022</v>
           </cell>
           <cell r="B303" t="str">
-            <v>泰坦戒指</v>
+            <v>力量戒指</v>
           </cell>
         </row>
         <row r="304">
           <cell r="A304">
-            <v>307025</v>
+            <v>307023</v>
           </cell>
           <cell r="B304" t="str">
-            <v>魔血戒指</v>
+            <v>紫碧螺</v>
           </cell>
         </row>
         <row r="305">
           <cell r="A305">
-            <v>307026</v>
+            <v>307024</v>
           </cell>
           <cell r="B305" t="str">
-            <v>虹魔戒指</v>
+            <v>泰坦戒指</v>
           </cell>
         </row>
         <row r="306">
           <cell r="A306">
-            <v>307027</v>
+            <v>307025</v>
           </cell>
           <cell r="B306" t="str">
-            <v>圣战戒指</v>
+            <v>魔血戒指</v>
           </cell>
         </row>
         <row r="307">
           <cell r="A307">
-            <v>307028</v>
+            <v>307026</v>
           </cell>
           <cell r="B307" t="str">
-            <v>法神戒指</v>
+            <v>虹魔戒指</v>
           </cell>
         </row>
         <row r="308">
           <cell r="A308">
-            <v>307029</v>
+            <v>307027</v>
           </cell>
           <cell r="B308" t="str">
-            <v>天尊戒指</v>
+            <v>圣战戒指</v>
           </cell>
         </row>
         <row r="309">
           <cell r="A309">
-            <v>307030</v>
+            <v>307028</v>
           </cell>
           <cell r="B309" t="str">
-            <v>战神戒指</v>
+            <v>法神戒指</v>
           </cell>
         </row>
         <row r="310">
           <cell r="A310">
-            <v>307031</v>
+            <v>307029</v>
           </cell>
           <cell r="B310" t="str">
-            <v>圣魔戒指</v>
+            <v>天尊戒指</v>
           </cell>
         </row>
         <row r="311">
           <cell r="A311">
-            <v>307032</v>
+            <v>307030</v>
           </cell>
           <cell r="B311" t="str">
-            <v>真魂戒指</v>
+            <v>战神戒指</v>
           </cell>
         </row>
         <row r="312">
           <cell r="A312">
-            <v>307033</v>
+            <v>307031</v>
           </cell>
           <cell r="B312" t="str">
-            <v>雷霆战戒</v>
+            <v>圣魔戒指</v>
           </cell>
         </row>
         <row r="313">
           <cell r="A313">
-            <v>307034</v>
+            <v>307032</v>
           </cell>
           <cell r="B313" t="str">
-            <v>烈焰魔戒</v>
+            <v>真魂戒指</v>
           </cell>
         </row>
         <row r="314">
           <cell r="A314">
-            <v>307035</v>
+            <v>307033</v>
           </cell>
           <cell r="B314" t="str">
-            <v>光芒道戒</v>
+            <v>雷霆战戒</v>
           </cell>
         </row>
         <row r="315">
           <cell r="A315">
-            <v>307036</v>
+            <v>307034</v>
           </cell>
           <cell r="B315" t="str">
-            <v>星王战戒</v>
+            <v>烈焰魔戒</v>
           </cell>
         </row>
         <row r="316">
           <cell r="A316">
-            <v>307037</v>
+            <v>307035</v>
           </cell>
           <cell r="B316" t="str">
-            <v>星王魔戒</v>
+            <v>光芒道戒</v>
           </cell>
         </row>
         <row r="317">
           <cell r="A317">
-            <v>307038</v>
+            <v>307036</v>
           </cell>
           <cell r="B317" t="str">
-            <v>星王道戒</v>
+            <v>星王战戒</v>
           </cell>
         </row>
         <row r="318">
           <cell r="A318">
-            <v>307039</v>
+            <v>307037</v>
           </cell>
           <cell r="B318" t="str">
-            <v>狂雷战戒</v>
+            <v>星王魔戒</v>
           </cell>
         </row>
         <row r="319">
           <cell r="A319">
-            <v>307040</v>
+            <v>307038</v>
           </cell>
           <cell r="B319" t="str">
-            <v>逆火魔戒</v>
+            <v>星王道戒</v>
           </cell>
         </row>
         <row r="320">
           <cell r="A320">
-            <v>307041</v>
+            <v>307039</v>
           </cell>
           <cell r="B320" t="str">
-            <v>通云道戒</v>
+            <v>狂雷战戒</v>
           </cell>
         </row>
         <row r="321">
           <cell r="A321">
-            <v>307042</v>
+            <v>307040</v>
           </cell>
           <cell r="B321" t="str">
-            <v>王者战戒</v>
+            <v>逆火魔戒</v>
           </cell>
         </row>
         <row r="322">
           <cell r="A322">
-            <v>307043</v>
+            <v>307041</v>
           </cell>
           <cell r="B322" t="str">
-            <v>王者魔戒</v>
+            <v>通云道戒</v>
           </cell>
         </row>
         <row r="323">
           <cell r="A323">
-            <v>307044</v>
+            <v>307042</v>
           </cell>
           <cell r="B323" t="str">
-            <v>王者道戒</v>
+            <v>王者战戒</v>
           </cell>
         </row>
         <row r="324">
           <cell r="A324">
-            <v>307045</v>
+            <v>307043</v>
           </cell>
           <cell r="B324" t="str">
-            <v>炎龙战戒</v>
+            <v>王者魔戒</v>
           </cell>
         </row>
         <row r="325">
           <cell r="A325">
-            <v>307046</v>
+            <v>307044</v>
           </cell>
           <cell r="B325" t="str">
-            <v>雷龙魔戒</v>
+            <v>王者道戒</v>
           </cell>
         </row>
         <row r="326">
           <cell r="A326">
-            <v>307047</v>
+            <v>307045</v>
           </cell>
           <cell r="B326" t="str">
-            <v>青龙道戒</v>
+            <v>炎龙战戒</v>
           </cell>
         </row>
         <row r="327">
           <cell r="A327">
-            <v>307048</v>
+            <v>307046</v>
           </cell>
           <cell r="B327" t="str">
-            <v>荣耀战戒</v>
+            <v>雷龙魔戒</v>
           </cell>
         </row>
         <row r="328">
           <cell r="A328">
-            <v>307049</v>
+            <v>307047</v>
           </cell>
           <cell r="B328" t="str">
-            <v>荣耀魔戒</v>
+            <v>青龙道戒</v>
           </cell>
         </row>
         <row r="329">
           <cell r="A329">
-            <v>307050</v>
+            <v>307048</v>
           </cell>
           <cell r="B329" t="str">
-            <v>荣耀道戒</v>
+            <v>荣耀战戒</v>
           </cell>
         </row>
         <row r="330">
           <cell r="A330">
-            <v>307051</v>
+            <v>307049</v>
           </cell>
           <cell r="B330" t="str">
-            <v>天龙战戒</v>
+            <v>荣耀魔戒</v>
           </cell>
         </row>
         <row r="331">
           <cell r="A331">
-            <v>307052</v>
+            <v>307050</v>
           </cell>
           <cell r="B331" t="str">
-            <v>天龙魔戒</v>
+            <v>荣耀道戒</v>
           </cell>
         </row>
         <row r="332">
           <cell r="A332">
-            <v>307053</v>
+            <v>307051</v>
           </cell>
           <cell r="B332" t="str">
-            <v>天龙道戒</v>
+            <v>天龙战戒</v>
           </cell>
         </row>
         <row r="333">
           <cell r="A333">
-            <v>307054</v>
+            <v>307052</v>
           </cell>
           <cell r="B333" t="str">
-            <v>虎威战戒</v>
+            <v>天龙魔戒</v>
           </cell>
         </row>
         <row r="334">
           <cell r="A334">
-            <v>307055</v>
+            <v>307053</v>
           </cell>
           <cell r="B334" t="str">
-            <v>虎威魔戒</v>
+            <v>天龙道戒</v>
           </cell>
         </row>
         <row r="335">
           <cell r="A335">
-            <v>307056</v>
+            <v>307054</v>
           </cell>
           <cell r="B335" t="str">
-            <v>虎威道戒</v>
+            <v>虎威战戒</v>
           </cell>
         </row>
         <row r="336">
           <cell r="A336">
-            <v>307057</v>
+            <v>307055</v>
           </cell>
           <cell r="B336" t="str">
-            <v>传奇战戒</v>
+            <v>虎威魔戒</v>
           </cell>
         </row>
         <row r="337">
           <cell r="A337">
-            <v>307058</v>
+            <v>307056</v>
           </cell>
           <cell r="B337" t="str">
-            <v>传奇魔戒</v>
+            <v>虎威道戒</v>
           </cell>
         </row>
         <row r="338">
           <cell r="A338">
-            <v>307059</v>
+            <v>307057</v>
           </cell>
           <cell r="B338" t="str">
-            <v>传奇道戒</v>
+            <v>传奇战戒</v>
           </cell>
         </row>
         <row r="339">
           <cell r="A339">
-            <v>308001</v>
+            <v>307058</v>
           </cell>
           <cell r="B339" t="str">
-            <v>初入江湖</v>
+            <v>传奇魔戒</v>
           </cell>
         </row>
         <row r="340">
           <cell r="A340">
-            <v>308002</v>
+            <v>307059</v>
           </cell>
           <cell r="B340" t="str">
-            <v>江湖豪杰</v>
+            <v>传奇道戒</v>
           </cell>
         </row>
         <row r="341">
           <cell r="A341">
-            <v>308003</v>
+            <v>308001</v>
           </cell>
           <cell r="B341" t="str">
-            <v>名动江湖</v>
+            <v>初入江湖</v>
           </cell>
         </row>
         <row r="342">
           <cell r="A342">
-            <v>308004</v>
+            <v>308002</v>
           </cell>
           <cell r="B342" t="str">
-            <v>威震八方</v>
+            <v>江湖豪杰</v>
           </cell>
         </row>
         <row r="343">
           <cell r="A343">
-            <v>308005</v>
+            <v>308003</v>
           </cell>
           <cell r="B343" t="str">
-            <v>盖世奇侠</v>
+            <v>名动江湖</v>
           </cell>
         </row>
         <row r="344">
           <cell r="A344">
-            <v>308006</v>
+            <v>308004</v>
           </cell>
           <cell r="B344" t="str">
-            <v>一代宗师</v>
+            <v>威震八方</v>
           </cell>
         </row>
         <row r="345">
           <cell r="A345">
-            <v>308007</v>
+            <v>308005</v>
           </cell>
           <cell r="B345" t="str">
-            <v>名扬四海</v>
+            <v>盖世奇侠</v>
           </cell>
         </row>
         <row r="346">
           <cell r="A346">
-            <v>308008</v>
+            <v>308006</v>
           </cell>
           <cell r="B346" t="str">
-            <v>震铄古今</v>
+            <v>一代宗师</v>
           </cell>
         </row>
         <row r="347">
           <cell r="A347">
-            <v>308009</v>
+            <v>308007</v>
           </cell>
           <cell r="B347" t="str">
-            <v>霸者无敌</v>
+            <v>名扬四海</v>
           </cell>
         </row>
         <row r="348">
           <cell r="A348">
-            <v>308010</v>
+            <v>308008</v>
           </cell>
           <cell r="B348" t="str">
-            <v>武林至尊</v>
+            <v>震铄古今</v>
           </cell>
         </row>
         <row r="349">
           <cell r="A349">
-            <v>308011</v>
+            <v>308009</v>
           </cell>
           <cell r="B349" t="str">
-            <v>天下霸主</v>
+            <v>霸者无敌</v>
           </cell>
         </row>
         <row r="350">
           <cell r="A350">
-            <v>308012</v>
+            <v>308010</v>
           </cell>
           <cell r="B350" t="str">
-            <v>苍生主宰</v>
+            <v>武林至尊</v>
           </cell>
         </row>
         <row r="351">
           <cell r="A351">
-            <v>309001</v>
+            <v>308011</v>
           </cell>
           <cell r="B351" t="str">
-            <v>腰带·紫晴</v>
+            <v>天下霸主</v>
           </cell>
         </row>
         <row r="352">
           <cell r="A352">
-            <v>309002</v>
+            <v>308012</v>
           </cell>
           <cell r="B352" t="str">
-            <v>腰带·羽化</v>
+            <v>苍生主宰</v>
           </cell>
         </row>
         <row r="353">
           <cell r="A353">
-            <v>309003</v>
+            <v>309001</v>
           </cell>
           <cell r="B353" t="str">
-            <v>腰带·纷飞</v>
+            <v>腰带·紫晴</v>
           </cell>
         </row>
         <row r="354">
           <cell r="A354">
-            <v>309004</v>
+            <v>309002</v>
           </cell>
           <cell r="B354" t="str">
-            <v>腰带·风铃</v>
+            <v>腰带·羽化</v>
           </cell>
         </row>
         <row r="355">
           <cell r="A355">
-            <v>309005</v>
+            <v>309003</v>
           </cell>
           <cell r="B355" t="str">
-            <v>腰带·绝然</v>
+            <v>腰带·纷飞</v>
           </cell>
         </row>
         <row r="356">
           <cell r="A356">
-            <v>309006</v>
+            <v>309004</v>
           </cell>
           <cell r="B356" t="str">
-            <v>腰带·光辉</v>
+            <v>腰带·风铃</v>
           </cell>
         </row>
         <row r="357">
           <cell r="A357">
-            <v>309007</v>
+            <v>309005</v>
           </cell>
           <cell r="B357" t="str">
-            <v>腰带·紫霞</v>
+            <v>腰带·绝然</v>
           </cell>
         </row>
         <row r="358">
           <cell r="A358">
-            <v>309008</v>
+            <v>309006</v>
           </cell>
           <cell r="B358" t="str">
-            <v>腰带·落日</v>
+            <v>腰带·光辉</v>
           </cell>
         </row>
         <row r="359">
           <cell r="A359">
-            <v>309009</v>
+            <v>309007</v>
           </cell>
           <cell r="B359" t="str">
-            <v>腰带·晨曦</v>
+            <v>腰带·紫霞</v>
           </cell>
         </row>
         <row r="360">
           <cell r="A360">
-            <v>309010</v>
+            <v>309008</v>
           </cell>
           <cell r="B360" t="str">
-            <v>腰带·朱曦</v>
+            <v>腰带·落日</v>
           </cell>
         </row>
         <row r="361">
           <cell r="A361">
-            <v>309011</v>
+            <v>309009</v>
           </cell>
           <cell r="B361" t="str">
-            <v>腰带·素影</v>
+            <v>腰带·晨曦</v>
           </cell>
         </row>
         <row r="362">
           <cell r="A362">
-            <v>309012</v>
+            <v>309010</v>
           </cell>
           <cell r="B362" t="str">
-            <v>腰带·霞光</v>
+            <v>腰带·朱曦</v>
           </cell>
         </row>
         <row r="363">
           <cell r="A363">
-            <v>309013</v>
+            <v>309011</v>
           </cell>
           <cell r="B363" t="str">
-            <v>腰带·虹彩</v>
+            <v>腰带·素影</v>
           </cell>
         </row>
         <row r="364">
           <cell r="A364">
-            <v>309014</v>
+            <v>309012</v>
           </cell>
           <cell r="B364" t="str">
-            <v>腰带·流云</v>
+            <v>腰带·霞光</v>
           </cell>
         </row>
         <row r="365">
           <cell r="A365">
-            <v>309015</v>
+            <v>309013</v>
           </cell>
           <cell r="B365" t="str">
-            <v>腰带·曼陀</v>
+            <v>腰带·虹彩</v>
           </cell>
         </row>
         <row r="366">
           <cell r="A366">
-            <v>309016</v>
+            <v>309014</v>
           </cell>
           <cell r="B366" t="str">
-            <v>腰带·惊风</v>
+            <v>腰带·流云</v>
           </cell>
         </row>
         <row r="367">
           <cell r="A367">
-            <v>309017</v>
+            <v>309015</v>
           </cell>
           <cell r="B367" t="str">
-            <v>腰带·怒雪</v>
+            <v>腰带·曼陀</v>
           </cell>
         </row>
         <row r="368">
           <cell r="A368">
-            <v>309018</v>
+            <v>309016</v>
           </cell>
           <cell r="B368" t="str">
-            <v>腰带·纤云</v>
+            <v>腰带·惊风</v>
           </cell>
         </row>
         <row r="369">
           <cell r="A369">
-            <v>309019</v>
+            <v>309017</v>
           </cell>
           <cell r="B369" t="str">
-            <v>腰带·清虚</v>
+            <v>腰带·怒雪</v>
           </cell>
         </row>
         <row r="370">
           <cell r="A370">
-            <v>309020</v>
+            <v>309018</v>
           </cell>
           <cell r="B370" t="str">
-            <v>腰带·洞幽</v>
+            <v>腰带·纤云</v>
           </cell>
         </row>
         <row r="371">
           <cell r="A371">
-            <v>310001</v>
+            <v>309019</v>
           </cell>
           <cell r="B371" t="str">
-            <v>布鞋</v>
+            <v>腰带·清虚</v>
           </cell>
         </row>
         <row r="372">
           <cell r="A372">
-            <v>310002</v>
+            <v>309020</v>
           </cell>
           <cell r="B372" t="str">
-            <v>鹿皮靴</v>
+            <v>腰带·洞幽</v>
           </cell>
         </row>
         <row r="373">
           <cell r="A373">
-            <v>310003</v>
+            <v>310001</v>
           </cell>
           <cell r="B373" t="str">
-            <v>紫绸靴</v>
+            <v>布鞋</v>
           </cell>
         </row>
         <row r="374">
           <cell r="A374">
-            <v>310004</v>
+            <v>310002</v>
           </cell>
           <cell r="B374" t="str">
-            <v>避魂靴</v>
+            <v>鹿皮靴</v>
           </cell>
         </row>
         <row r="375">
           <cell r="A375">
-            <v>310005</v>
+            <v>310003</v>
           </cell>
           <cell r="B375" t="str">
-            <v>雷霆战靴</v>
+            <v>紫绸靴</v>
           </cell>
         </row>
         <row r="376">
           <cell r="A376">
-            <v>310006</v>
+            <v>310004</v>
           </cell>
           <cell r="B376" t="str">
-            <v>烈焰魔靴</v>
+            <v>避魂靴</v>
           </cell>
         </row>
         <row r="377">
           <cell r="A377">
-            <v>310007</v>
+            <v>310005</v>
           </cell>
           <cell r="B377" t="str">
-            <v>光芒道靴</v>
+            <v>雷霆战靴</v>
           </cell>
         </row>
         <row r="378">
           <cell r="A378">
-            <v>310008</v>
+            <v>310006</v>
           </cell>
           <cell r="B378" t="str">
-            <v>星王战靴</v>
+            <v>烈焰魔靴</v>
           </cell>
         </row>
         <row r="379">
           <cell r="A379">
-            <v>310009</v>
+            <v>310007</v>
           </cell>
           <cell r="B379" t="str">
-            <v>星王魔靴</v>
+            <v>光芒道靴</v>
           </cell>
         </row>
         <row r="380">
           <cell r="A380">
-            <v>310010</v>
+            <v>310008</v>
           </cell>
           <cell r="B380" t="str">
-            <v>星王道靴</v>
+            <v>星王战靴</v>
           </cell>
         </row>
         <row r="381">
           <cell r="A381">
-            <v>310011</v>
+            <v>310009</v>
           </cell>
           <cell r="B381" t="str">
-            <v>狂雷战靴</v>
+            <v>星王魔靴</v>
           </cell>
         </row>
         <row r="382">
           <cell r="A382">
-            <v>310012</v>
+            <v>310010</v>
           </cell>
           <cell r="B382" t="str">
-            <v>逆火魔靴</v>
+            <v>星王道靴</v>
           </cell>
         </row>
         <row r="383">
           <cell r="A383">
-            <v>310013</v>
+            <v>310011</v>
           </cell>
           <cell r="B383" t="str">
-            <v>通云道靴</v>
+            <v>狂雷战靴</v>
           </cell>
         </row>
         <row r="384">
           <cell r="A384">
-            <v>310014</v>
+            <v>310012</v>
           </cell>
           <cell r="B384" t="str">
-            <v>王者战靴</v>
+            <v>逆火魔靴</v>
           </cell>
         </row>
         <row r="385">
           <cell r="A385">
-            <v>310015</v>
+            <v>310013</v>
           </cell>
           <cell r="B385" t="str">
-            <v>王者魔靴</v>
+            <v>通云道靴</v>
           </cell>
         </row>
         <row r="386">
           <cell r="A386">
-            <v>310016</v>
+            <v>310014</v>
           </cell>
           <cell r="B386" t="str">
-            <v>王者道靴</v>
+            <v>王者战靴</v>
           </cell>
         </row>
         <row r="387">
           <cell r="A387">
-            <v>310017</v>
+            <v>310015</v>
           </cell>
           <cell r="B387" t="str">
-            <v>炎龙战靴</v>
+            <v>王者魔靴</v>
           </cell>
         </row>
         <row r="388">
           <cell r="A388">
-            <v>310018</v>
+            <v>310016</v>
           </cell>
           <cell r="B388" t="str">
-            <v>雷龙魔靴</v>
+            <v>王者道靴</v>
           </cell>
         </row>
         <row r="389">
           <cell r="A389">
-            <v>310019</v>
+            <v>310017</v>
           </cell>
           <cell r="B389" t="str">
-            <v>青龙道靴</v>
+            <v>炎龙战靴</v>
           </cell>
         </row>
         <row r="390">
           <cell r="A390">
-            <v>310020</v>
+            <v>310018</v>
           </cell>
           <cell r="B390" t="str">
-            <v>荣耀战靴</v>
+            <v>雷龙魔靴</v>
           </cell>
         </row>
         <row r="391">
           <cell r="A391">
-            <v>310021</v>
+            <v>310019</v>
           </cell>
           <cell r="B391" t="str">
-            <v>荣耀魔靴</v>
+            <v>青龙道靴</v>
           </cell>
         </row>
         <row r="392">
           <cell r="A392">
-            <v>310022</v>
+            <v>310020</v>
           </cell>
           <cell r="B392" t="str">
-            <v>荣耀道靴</v>
+            <v>荣耀战靴</v>
           </cell>
         </row>
         <row r="393">
           <cell r="A393">
-            <v>310023</v>
+            <v>310021</v>
           </cell>
           <cell r="B393" t="str">
-            <v>天龙战靴</v>
+            <v>荣耀魔靴</v>
           </cell>
         </row>
         <row r="394">
           <cell r="A394">
-            <v>310024</v>
+            <v>310022</v>
           </cell>
           <cell r="B394" t="str">
-            <v>天龙魔靴</v>
+            <v>荣耀道靴</v>
           </cell>
         </row>
         <row r="395">
           <cell r="A395">
-            <v>310025</v>
+            <v>310023</v>
           </cell>
           <cell r="B395" t="str">
-            <v>天龙道靴</v>
+            <v>天龙战靴</v>
           </cell>
         </row>
         <row r="396">
           <cell r="A396">
-            <v>310026</v>
+            <v>310024</v>
           </cell>
           <cell r="B396" t="str">
-            <v>虎威战靴</v>
+            <v>天龙魔靴</v>
           </cell>
         </row>
         <row r="397">
           <cell r="A397">
-            <v>310027</v>
+            <v>310025</v>
           </cell>
           <cell r="B397" t="str">
-            <v>虎威魔靴</v>
+            <v>天龙道靴</v>
           </cell>
         </row>
         <row r="398">
           <cell r="A398">
-            <v>310028</v>
+            <v>310026</v>
           </cell>
           <cell r="B398" t="str">
-            <v>虎威道靴</v>
+            <v>虎威战靴</v>
           </cell>
         </row>
         <row r="399">
           <cell r="A399">
-            <v>310029</v>
+            <v>310027</v>
           </cell>
           <cell r="B399" t="str">
-            <v>传奇战靴</v>
+            <v>虎威魔靴</v>
           </cell>
         </row>
         <row r="400">
           <cell r="A400">
-            <v>310030</v>
+            <v>310028</v>
           </cell>
           <cell r="B400" t="str">
-            <v>传奇魔靴</v>
+            <v>虎威道靴</v>
           </cell>
         </row>
         <row r="401">
           <cell r="A401">
-            <v>310031</v>
+            <v>310029</v>
           </cell>
           <cell r="B401" t="str">
-            <v>传奇道靴</v>
+            <v>传奇战靴</v>
           </cell>
         </row>
         <row r="402">
           <cell r="A402">
-            <v>311001</v>
+            <v>310030</v>
           </cell>
           <cell r="B402" t="str">
-            <v>尘埃(微光)</v>
+            <v>传奇魔靴</v>
           </cell>
         </row>
         <row r="403">
           <cell r="A403">
-            <v>311002</v>
+            <v>310031</v>
           </cell>
           <cell r="B403" t="str">
-            <v>米粒(珠光)</v>
+            <v>传奇道靴</v>
           </cell>
         </row>
         <row r="404">
           <cell r="A404">
-            <v>311003</v>
+            <v>311001</v>
           </cell>
           <cell r="B404" t="str">
-            <v>结晶(闪耀)</v>
+            <v>尘埃(微光)</v>
           </cell>
         </row>
         <row r="405">
           <cell r="A405">
-            <v>311004</v>
+            <v>311002</v>
           </cell>
           <cell r="B405" t="str">
-            <v>碎片(灼目)</v>
+            <v>米粒(珠光)</v>
           </cell>
         </row>
         <row r="406">
           <cell r="A406">
-            <v>311005</v>
+            <v>311003</v>
           </cell>
           <cell r="B406" t="str">
-            <v>宝石(彷惶)</v>
+            <v>结晶(闪耀)</v>
           </cell>
         </row>
         <row r="407">
           <cell r="A407">
-            <v>311006</v>
+            <v>311004</v>
           </cell>
           <cell r="B407" t="str">
-            <v>菲娜(碎片)</v>
+            <v>碎片(灼目)</v>
           </cell>
         </row>
         <row r="408">
           <cell r="A408">
-            <v>311007</v>
+            <v>311005</v>
           </cell>
           <cell r="B408" t="str">
-            <v>菲娜(结晶)</v>
+            <v>宝石(彷惶)</v>
           </cell>
         </row>
         <row r="409">
           <cell r="A409">
-            <v>311008</v>
+            <v>311006</v>
           </cell>
           <cell r="B409" t="str">
-            <v>菲娜(打磨)</v>
+            <v>菲娜(碎片)</v>
           </cell>
         </row>
         <row r="410">
           <cell r="A410">
-            <v>311009</v>
+            <v>311007</v>
           </cell>
           <cell r="B410" t="str">
-            <v>菲娜(雕琢)</v>
+            <v>菲娜(结晶)</v>
           </cell>
         </row>
         <row r="411">
           <cell r="A411">
-            <v>311010</v>
+            <v>311008</v>
           </cell>
           <cell r="B411" t="str">
-            <v>菲娜(精致)</v>
+            <v>菲娜(打磨)</v>
           </cell>
         </row>
         <row r="412">
           <cell r="A412">
-            <v>311011</v>
+            <v>311009</v>
           </cell>
           <cell r="B412" t="str">
-            <v>菲娜(完美)</v>
+            <v>菲娜(雕琢)</v>
           </cell>
         </row>
         <row r="413">
           <cell r="A413">
-            <v>311012</v>
+            <v>311010</v>
           </cell>
           <cell r="B413" t="str">
-            <v>菲娜(祝福)</v>
+            <v>菲娜(精致)</v>
           </cell>
         </row>
         <row r="414">
           <cell r="A414">
-            <v>312001</v>
+            <v>311011</v>
           </cell>
           <cell r="B414" t="str">
-            <v>护盾·驰天</v>
+            <v>菲娜(完美)</v>
           </cell>
         </row>
         <row r="415">
           <cell r="A415">
-            <v>312002</v>
+            <v>311012</v>
           </cell>
           <cell r="B415" t="str">
-            <v>护盾·洪天</v>
+            <v>菲娜(祝福)</v>
           </cell>
         </row>
         <row r="416">
           <cell r="A416">
-            <v>312003</v>
+            <v>312001</v>
           </cell>
           <cell r="B416" t="str">
-            <v>护盾·玄天</v>
+            <v>护盾·驰天</v>
           </cell>
         </row>
         <row r="417">
           <cell r="A417">
-            <v>312004</v>
+            <v>312002</v>
           </cell>
           <cell r="B417" t="str">
-            <v>护盾·鸿天</v>
+            <v>护盾·洪天</v>
           </cell>
         </row>
         <row r="418">
           <cell r="A418">
-            <v>312005</v>
+            <v>312003</v>
           </cell>
           <cell r="B418" t="str">
-            <v>护盾·镇天</v>
+            <v>护盾·玄天</v>
           </cell>
         </row>
         <row r="419">
           <cell r="A419">
-            <v>312006</v>
+            <v>312004</v>
           </cell>
           <cell r="B419" t="str">
-            <v>护盾·通天</v>
+            <v>护盾·鸿天</v>
           </cell>
         </row>
         <row r="420">
           <cell r="A420">
-            <v>312007</v>
+            <v>312005</v>
           </cell>
           <cell r="B420" t="str">
-            <v>护盾·凌天</v>
+            <v>护盾·镇天</v>
           </cell>
         </row>
         <row r="421">
           <cell r="A421">
-            <v>312008</v>
+            <v>312006</v>
           </cell>
           <cell r="B421" t="str">
-            <v>护盾·傲天</v>
+            <v>护盾·通天</v>
           </cell>
         </row>
         <row r="422">
           <cell r="A422">
-            <v>312009</v>
+            <v>312007</v>
           </cell>
           <cell r="B422" t="str">
-            <v>护盾·逆天</v>
+            <v>护盾·凌天</v>
           </cell>
         </row>
         <row r="423">
           <cell r="A423">
-            <v>312010</v>
+            <v>312008</v>
           </cell>
           <cell r="B423" t="str">
-            <v>护盾·不灭</v>
+            <v>护盾·傲天</v>
           </cell>
         </row>
         <row r="424">
           <cell r="A424">
-            <v>312011</v>
+            <v>312009</v>
           </cell>
           <cell r="B424" t="str">
-            <v>护盾·无上</v>
+            <v>护盾·逆天</v>
           </cell>
         </row>
         <row r="425">
           <cell r="A425">
+            <v>312010</v>
+          </cell>
+          <cell r="B425" t="str">
+            <v>护盾·不灭</v>
+          </cell>
+        </row>
+        <row r="426">
+          <cell r="A426">
+            <v>312011</v>
+          </cell>
+          <cell r="B426" t="str">
+            <v>护盾·无上</v>
+          </cell>
+        </row>
+        <row r="427">
+          <cell r="A427">
             <v>312012</v>
           </cell>
-          <cell r="B425" t="str">
+          <cell r="B427" t="str">
             <v>护盾·洪荒</v>
           </cell>
         </row>
@@ -4420,9 +4458,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4757,13 +4795,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK33"/>
+  <dimension ref="A1:AK31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M12" sqref="M12"/>
+      <selection pane="bottomRight" activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -4777,7 +4815,7 @@
         <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -5124,6 +5162,12 @@
       <c r="L7">
         <v>306011</v>
       </c>
+      <c r="M7">
+        <v>220007</v>
+      </c>
+      <c r="N7">
+        <v>220028</v>
+      </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A8">
@@ -5545,98 +5589,484 @@
         <v>303012</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
+      <c r="B17">
+        <v>25</v>
+      </c>
       <c r="C17">
-        <v>301037</v>
+        <v>301034</v>
       </c>
       <c r="D17">
-        <v>301038</v>
+        <v>302007</v>
       </c>
       <c r="E17">
-        <v>301039</v>
+        <v>303007</v>
+      </c>
+      <c r="F17">
+        <v>302013</v>
+      </c>
+      <c r="G17">
+        <v>303013</v>
+      </c>
+      <c r="H17">
+        <v>305023</v>
+      </c>
+      <c r="I17">
+        <v>305032</v>
+      </c>
+      <c r="J17">
+        <v>306025</v>
+      </c>
+      <c r="K17">
+        <v>306034</v>
+      </c>
+      <c r="L17">
+        <v>307022</v>
+      </c>
+      <c r="M17">
+        <v>307033</v>
+      </c>
+      <c r="N17">
+        <v>310004</v>
+      </c>
+      <c r="O17">
+        <v>310005</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
+      <c r="B18">
+        <v>25</v>
+      </c>
+      <c r="C18">
+        <v>301033</v>
+      </c>
+      <c r="D18">
+        <v>302009</v>
+      </c>
+      <c r="E18">
+        <v>303009</v>
+      </c>
+      <c r="F18">
+        <v>302014</v>
+      </c>
+      <c r="G18">
+        <v>303014</v>
+      </c>
+      <c r="H18">
+        <v>305025</v>
+      </c>
+      <c r="I18">
+        <v>305033</v>
+      </c>
+      <c r="J18">
+        <v>306026</v>
+      </c>
+      <c r="K18">
+        <v>306035</v>
+      </c>
+      <c r="L18">
+        <v>307023</v>
+      </c>
+      <c r="M18">
+        <v>307034</v>
+      </c>
+      <c r="N18">
+        <v>310004</v>
+      </c>
+      <c r="O18">
+        <v>310006</v>
+      </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
+      <c r="B19">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <v>301035</v>
+      </c>
+      <c r="D19">
+        <v>302008</v>
+      </c>
+      <c r="E19">
+        <v>303008</v>
+      </c>
+      <c r="F19">
+        <v>302015</v>
+      </c>
+      <c r="G19">
+        <v>303015</v>
+      </c>
+      <c r="H19">
+        <v>305024</v>
+      </c>
+      <c r="I19">
+        <v>305034</v>
+      </c>
+      <c r="J19">
+        <v>306027</v>
+      </c>
+      <c r="K19">
+        <v>306036</v>
+      </c>
+      <c r="L19">
+        <v>307024</v>
+      </c>
+      <c r="M19">
+        <v>307035</v>
+      </c>
+      <c r="N19">
+        <v>310004</v>
+      </c>
+      <c r="O19">
+        <v>310007</v>
+      </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
+      <c r="B20">
+        <v>25</v>
+      </c>
+      <c r="C20">
+        <v>305026</v>
+      </c>
+      <c r="D20">
+        <v>305027</v>
+      </c>
+      <c r="E20">
+        <v>305028</v>
+      </c>
+      <c r="F20">
+        <v>305029</v>
+      </c>
+      <c r="G20">
+        <v>305030</v>
+      </c>
+      <c r="H20">
+        <v>305031</v>
+      </c>
+      <c r="I20">
+        <v>306028</v>
+      </c>
+      <c r="J20">
+        <v>306029</v>
+      </c>
+      <c r="K20">
+        <v>306030</v>
+      </c>
+      <c r="L20">
+        <v>306031</v>
+      </c>
+      <c r="M20">
+        <v>306032</v>
+      </c>
+      <c r="N20">
+        <v>306033</v>
+      </c>
+      <c r="O20">
+        <v>307027</v>
+      </c>
+      <c r="P20">
+        <v>307028</v>
+      </c>
+      <c r="Q20">
+        <v>307029</v>
+      </c>
+      <c r="R20">
+        <v>307030</v>
+      </c>
+      <c r="S20">
+        <v>307031</v>
+      </c>
+      <c r="T20">
+        <v>307032</v>
+      </c>
+      <c r="U20">
+        <v>309006</v>
+      </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
+      <c r="B21">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>301037</v>
+      </c>
+      <c r="D21">
+        <v>301038</v>
+      </c>
+      <c r="E21">
+        <v>301039</v>
+      </c>
+      <c r="F21">
+        <v>302007</v>
+      </c>
+      <c r="G21">
+        <v>302008</v>
+      </c>
+      <c r="H21">
+        <v>302009</v>
+      </c>
+      <c r="I21">
+        <v>302016</v>
+      </c>
+      <c r="J21">
+        <v>303007</v>
+      </c>
+      <c r="K21">
+        <v>303008</v>
+      </c>
+      <c r="L21">
+        <v>303009</v>
+      </c>
+      <c r="M21">
+        <v>303016</v>
+      </c>
+      <c r="N21">
+        <v>304008</v>
+      </c>
+      <c r="O21">
+        <v>304009</v>
+      </c>
+      <c r="P21">
+        <v>304010</v>
+      </c>
+      <c r="Q21">
+        <v>304011</v>
+      </c>
+      <c r="R21">
+        <v>304012</v>
+      </c>
+      <c r="S21">
+        <v>304013</v>
+      </c>
+      <c r="T21">
+        <v>309007</v>
+      </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
+      <c r="B22">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <v>304008</v>
+      </c>
+      <c r="D22">
+        <v>304009</v>
+      </c>
+      <c r="E22">
+        <v>304010</v>
+      </c>
+      <c r="F22">
+        <v>304014</v>
+      </c>
+      <c r="G22">
+        <v>304015</v>
+      </c>
+      <c r="H22">
+        <v>304016</v>
+      </c>
+      <c r="I22">
+        <v>310008</v>
+      </c>
+      <c r="J22">
+        <v>310009</v>
+      </c>
+      <c r="K22">
+        <v>310010</v>
+      </c>
+      <c r="L22">
+        <v>309007</v>
+      </c>
+      <c r="M22">
+        <v>309008</v>
+      </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
+      <c r="B23">
+        <v>25</v>
+      </c>
+      <c r="C23">
+        <v>305026</v>
+      </c>
+      <c r="D23">
+        <v>305027</v>
+      </c>
+      <c r="E23">
+        <v>305028</v>
+      </c>
+      <c r="F23">
+        <v>305035</v>
+      </c>
+      <c r="G23">
+        <v>305036</v>
+      </c>
+      <c r="H23">
+        <v>305037</v>
+      </c>
+      <c r="I23">
+        <v>306028</v>
+      </c>
+      <c r="J23">
+        <v>306029</v>
+      </c>
+      <c r="K23">
+        <v>306030</v>
+      </c>
+      <c r="L23">
+        <v>306037</v>
+      </c>
+      <c r="M23">
+        <v>306038</v>
+      </c>
+      <c r="N23">
+        <v>306039</v>
+      </c>
+      <c r="O23">
+        <v>307027</v>
+      </c>
+      <c r="P23">
+        <v>307028</v>
+      </c>
+      <c r="Q23">
+        <v>307029</v>
+      </c>
+      <c r="R23">
+        <v>307036</v>
+      </c>
+      <c r="S23">
+        <v>307037</v>
+      </c>
+      <c r="T23">
+        <v>307038</v>
+      </c>
+      <c r="U23">
+        <v>220022</v>
+      </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
+      <c r="B24">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <v>302010</v>
+      </c>
+      <c r="D24">
+        <v>302011</v>
+      </c>
+      <c r="E24">
+        <v>302012</v>
+      </c>
+      <c r="F24">
+        <v>302017</v>
+      </c>
+      <c r="G24">
+        <v>302018</v>
+      </c>
+      <c r="H24">
+        <v>302019</v>
+      </c>
+      <c r="I24">
+        <v>303010</v>
+      </c>
+      <c r="J24">
+        <v>303011</v>
+      </c>
+      <c r="K24">
+        <v>303012</v>
+      </c>
+      <c r="L24">
+        <v>303017</v>
+      </c>
+      <c r="M24">
+        <v>303018</v>
+      </c>
+      <c r="N24">
+        <v>303019</v>
+      </c>
+      <c r="O24">
+        <v>220034</v>
+      </c>
+      <c r="P24">
+        <v>220046</v>
+      </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
+      <c r="B25">
+        <v>25</v>
+      </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
+      <c r="B27">
+        <v>25</v>
+      </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
+      <c r="B28">
+        <v>25</v>
+      </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
+      <c r="B29">
+        <v>25</v>
+      </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
+      <c r="B30">
+        <v>25</v>
+      </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33">
-        <v>32</v>
+      <c r="B31">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -5647,31 +6077,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ33"/>
+  <dimension ref="A1:AJ38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
+      <selection pane="bottomRight" activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="13" width="13.875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="36" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="36" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.15">
@@ -6555,11 +6980,11 @@
       </c>
       <c r="L7" t="str">
         <f>IF(新暴率表!M7="","",IF(新暴率表!M7 &lt; 300000, VLOOKUP(新暴率表!M7,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!M7,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>施毒术</v>
       </c>
       <c r="M7" t="str">
         <f>IF(新暴率表!N7="","",IF(新暴率表!N7 &lt; 300000, VLOOKUP(新暴率表!N7,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!N7,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>群体施毒术</v>
       </c>
       <c r="N7" t="str">
         <f>IF(新暴率表!O7="","",IF(新暴率表!O7 &lt; 300000, VLOOKUP(新暴率表!O7,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!O7,[1]装备!$A$3:$B$511,2,FALSE)))</f>
@@ -6946,7 +7371,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B10" t="str">
         <f>IF(新暴率表!C10="","",IF(新暴率表!C10 &lt; 300000, VLOOKUP(新暴率表!C10,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!C10,[1]装备!$A$3:$B$511,2,FALSE)))</f>
@@ -7961,59 +8386,59 @@
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="B17" t="str">
         <f>IF(新暴率表!C17="","",IF(新暴率表!C17 &lt; 300000, VLOOKUP(新暴率表!C17,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!C17,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v>开天</v>
+        <v>怒斩</v>
       </c>
       <c r="C17" t="str">
         <f>IF(新暴率表!D17="","",IF(新暴率表!D17 &lt; 300000, VLOOKUP(新暴率表!D17,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!D17,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v>镇天</v>
+        <v>战神盔甲(男)</v>
       </c>
       <c r="D17" t="str">
         <f>IF(新暴率表!E17="","",IF(新暴率表!E17 &lt; 300000, VLOOKUP(新暴率表!E17,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!E17,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v>玄天</v>
+        <v>战神盔甲(女)</v>
       </c>
       <c r="E17" t="str">
         <f>IF(新暴率表!F17="","",IF(新暴率表!F17 &lt; 300000, VLOOKUP(新暴率表!F17,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!F17,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>雷霆战甲(男)</v>
       </c>
       <c r="F17" t="str">
         <f>IF(新暴率表!G17="","",IF(新暴率表!G17 &lt; 300000, VLOOKUP(新暴率表!G17,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!G17,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>雷霆战甲(女)</v>
       </c>
       <c r="G17" t="str">
         <f>IF(新暴率表!H17="","",IF(新暴率表!H17 &lt; 300000, VLOOKUP(新暴率表!H17,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!H17,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>绿色项链</v>
       </c>
       <c r="H17" t="str">
         <f>IF(新暴率表!I17="","",IF(新暴率表!I17 &lt; 300000, VLOOKUP(新暴率表!I17,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!I17,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>雷霆项链</v>
       </c>
       <c r="I17" t="str">
         <f>IF(新暴率表!J17="","",IF(新暴率表!J17 &lt; 300000, VLOOKUP(新暴率表!J17,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!J17,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>骑士手镯</v>
       </c>
       <c r="J17" t="str">
         <f>IF(新暴率表!K17="","",IF(新暴率表!K17 &lt; 300000, VLOOKUP(新暴率表!K17,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!K17,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>雷霆护腕</v>
       </c>
       <c r="K17" t="str">
         <f>IF(新暴率表!L17="","",IF(新暴率表!L17 &lt; 300000, VLOOKUP(新暴率表!L17,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!L17,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>力量戒指</v>
       </c>
       <c r="L17" t="str">
         <f>IF(新暴率表!M17="","",IF(新暴率表!M17 &lt; 300000, VLOOKUP(新暴率表!M17,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!M17,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>雷霆战戒</v>
       </c>
       <c r="M17" t="str">
         <f>IF(新暴率表!N17="","",IF(新暴率表!N17 &lt; 300000, VLOOKUP(新暴率表!N17,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!N17,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>避魂靴</v>
       </c>
       <c r="N17" t="str">
         <f>IF(新暴率表!O17="","",IF(新暴率表!O17 &lt; 300000, VLOOKUP(新暴率表!O17,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!O17,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>雷霆战靴</v>
       </c>
       <c r="O17" t="str">
         <f>IF(新暴率表!P17="","",IF(新暴率表!P17 &lt; 300000, VLOOKUP(新暴率表!P17,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!P17,[1]装备!$A$3:$B$511,2,FALSE)))</f>
@@ -8106,59 +8531,59 @@
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="B18" t="str">
         <f>IF(新暴率表!C18="","",IF(新暴率表!C18 &lt; 300000, VLOOKUP(新暴率表!C18,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!C18,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>龙牙</v>
       </c>
       <c r="C18" t="str">
         <f>IF(新暴率表!D18="","",IF(新暴率表!D18 &lt; 300000, VLOOKUP(新暴率表!D18,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!D18,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>恶魔长袍(男)</v>
       </c>
       <c r="D18" t="str">
         <f>IF(新暴率表!E18="","",IF(新暴率表!E18 &lt; 300000, VLOOKUP(新暴率表!E18,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!E18,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>恶魔长袍(女)</v>
       </c>
       <c r="E18" t="str">
         <f>IF(新暴率表!F18="","",IF(新暴率表!F18 &lt; 300000, VLOOKUP(新暴率表!F18,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!F18,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>烈焰魔衣(男)</v>
       </c>
       <c r="F18" t="str">
         <f>IF(新暴率表!G18="","",IF(新暴率表!G18 &lt; 300000, VLOOKUP(新暴率表!G18,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!G18,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>烈焰魔衣(女)</v>
       </c>
       <c r="G18" t="str">
         <f>IF(新暴率表!H18="","",IF(新暴率表!H18 &lt; 300000, VLOOKUP(新暴率表!H18,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!H18,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>恶魔铃铛</v>
       </c>
       <c r="H18" t="str">
         <f>IF(新暴率表!I18="","",IF(新暴率表!I18 &lt; 300000, VLOOKUP(新暴率表!I18,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!I18,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>烈焰项链</v>
       </c>
       <c r="I18" t="str">
         <f>IF(新暴率表!J18="","",IF(新暴率表!J18 &lt; 300000, VLOOKUP(新暴率表!J18,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!J18,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>龙之手镯</v>
       </c>
       <c r="J18" t="str">
         <f>IF(新暴率表!K18="","",IF(新暴率表!K18 &lt; 300000, VLOOKUP(新暴率表!K18,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!K18,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>烈焰护腕</v>
       </c>
       <c r="K18" t="str">
         <f>IF(新暴率表!L18="","",IF(新暴率表!L18 &lt; 300000, VLOOKUP(新暴率表!L18,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!L18,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>紫碧螺</v>
       </c>
       <c r="L18" t="str">
         <f>IF(新暴率表!M18="","",IF(新暴率表!M18 &lt; 300000, VLOOKUP(新暴率表!M18,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!M18,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>烈焰魔戒</v>
       </c>
       <c r="M18" t="str">
         <f>IF(新暴率表!N18="","",IF(新暴率表!N18 &lt; 300000, VLOOKUP(新暴率表!N18,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!N18,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>避魂靴</v>
       </c>
       <c r="N18" t="str">
         <f>IF(新暴率表!O18="","",IF(新暴率表!O18 &lt; 300000, VLOOKUP(新暴率表!O18,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!O18,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>烈焰魔靴</v>
       </c>
       <c r="O18" t="str">
         <f>IF(新暴率表!P18="","",IF(新暴率表!P18 &lt; 300000, VLOOKUP(新暴率表!P18,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!P18,[1]装备!$A$3:$B$511,2,FALSE)))</f>
@@ -8251,59 +8676,59 @@
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="B19" t="str">
         <f>IF(新暴率表!C19="","",IF(新暴率表!C19 &lt; 300000, VLOOKUP(新暴率表!C19,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!C19,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>逍遥扇</v>
       </c>
       <c r="C19" t="str">
         <f>IF(新暴率表!D19="","",IF(新暴率表!D19 &lt; 300000, VLOOKUP(新暴率表!D19,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!D19,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>幽灵战衣(男)</v>
       </c>
       <c r="D19" t="str">
         <f>IF(新暴率表!E19="","",IF(新暴率表!E19 &lt; 300000, VLOOKUP(新暴率表!E19,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!E19,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>幽灵战衣(女)</v>
       </c>
       <c r="E19" t="str">
         <f>IF(新暴率表!F19="","",IF(新暴率表!F19 &lt; 300000, VLOOKUP(新暴率表!F19,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!F19,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>光芒道袍(男)</v>
       </c>
       <c r="F19" t="str">
         <f>IF(新暴率表!G19="","",IF(新暴率表!G19 &lt; 300000, VLOOKUP(新暴率表!G19,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!G19,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>光芒道袍(女)</v>
       </c>
       <c r="G19" t="str">
         <f>IF(新暴率表!H19="","",IF(新暴率表!H19 &lt; 300000, VLOOKUP(新暴率表!H19,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!H19,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>灵魂项链</v>
       </c>
       <c r="H19" t="str">
         <f>IF(新暴率表!I19="","",IF(新暴率表!I19 &lt; 300000, VLOOKUP(新暴率表!I19,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!I19,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>光芒项链</v>
       </c>
       <c r="I19" t="str">
         <f>IF(新暴率表!J19="","",IF(新暴率表!J19 &lt; 300000, VLOOKUP(新暴率表!J19,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!J19,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>三眼手镯</v>
       </c>
       <c r="J19" t="str">
         <f>IF(新暴率表!K19="","",IF(新暴率表!K19 &lt; 300000, VLOOKUP(新暴率表!K19,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!K19,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>光芒护腕</v>
       </c>
       <c r="K19" t="str">
         <f>IF(新暴率表!L19="","",IF(新暴率表!L19 &lt; 300000, VLOOKUP(新暴率表!L19,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!L19,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>泰坦戒指</v>
       </c>
       <c r="L19" t="str">
         <f>IF(新暴率表!M19="","",IF(新暴率表!M19 &lt; 300000, VLOOKUP(新暴率表!M19,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!M19,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>光芒道戒</v>
       </c>
       <c r="M19" t="str">
         <f>IF(新暴率表!N19="","",IF(新暴率表!N19 &lt; 300000, VLOOKUP(新暴率表!N19,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!N19,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>避魂靴</v>
       </c>
       <c r="N19" t="str">
         <f>IF(新暴率表!O19="","",IF(新暴率表!O19 &lt; 300000, VLOOKUP(新暴率表!O19,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!O19,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>光芒道靴</v>
       </c>
       <c r="O19" t="str">
         <f>IF(新暴率表!P19="","",IF(新暴率表!P19 &lt; 300000, VLOOKUP(新暴率表!P19,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!P19,[1]装备!$A$3:$B$511,2,FALSE)))</f>
@@ -8396,83 +8821,83 @@
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B20" t="str">
         <f>IF(新暴率表!C20="","",IF(新暴率表!C20 &lt; 300000, VLOOKUP(新暴率表!C20,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!C20,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>圣战项链</v>
       </c>
       <c r="C20" t="str">
         <f>IF(新暴率表!D20="","",IF(新暴率表!D20 &lt; 300000, VLOOKUP(新暴率表!D20,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!D20,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>法神项链</v>
       </c>
       <c r="D20" t="str">
         <f>IF(新暴率表!E20="","",IF(新暴率表!E20 &lt; 300000, VLOOKUP(新暴率表!E20,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!E20,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>天尊项链</v>
       </c>
       <c r="E20" t="str">
         <f>IF(新暴率表!F20="","",IF(新暴率表!F20 &lt; 300000, VLOOKUP(新暴率表!F20,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!F20,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>战神项链</v>
       </c>
       <c r="F20" t="str">
         <f>IF(新暴率表!G20="","",IF(新暴率表!G20 &lt; 300000, VLOOKUP(新暴率表!G20,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!G20,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>圣魔项链</v>
       </c>
       <c r="G20" t="str">
         <f>IF(新暴率表!H20="","",IF(新暴率表!H20 &lt; 300000, VLOOKUP(新暴率表!H20,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!H20,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>真魂项链</v>
       </c>
       <c r="H20" t="str">
         <f>IF(新暴率表!I20="","",IF(新暴率表!I20 &lt; 300000, VLOOKUP(新暴率表!I20,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!I20,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>圣战手镯</v>
       </c>
       <c r="I20" t="str">
         <f>IF(新暴率表!J20="","",IF(新暴率表!J20 &lt; 300000, VLOOKUP(新暴率表!J20,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!J20,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>法神手镯</v>
       </c>
       <c r="J20" t="str">
         <f>IF(新暴率表!K20="","",IF(新暴率表!K20 &lt; 300000, VLOOKUP(新暴率表!K20,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!K20,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>天尊手镯</v>
       </c>
       <c r="K20" t="str">
         <f>IF(新暴率表!L20="","",IF(新暴率表!L20 &lt; 300000, VLOOKUP(新暴率表!L20,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!L20,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>战神手镯</v>
       </c>
       <c r="L20" t="str">
         <f>IF(新暴率表!M20="","",IF(新暴率表!M20 &lt; 300000, VLOOKUP(新暴率表!M20,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!M20,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>圣魔手镯</v>
       </c>
       <c r="M20" t="str">
         <f>IF(新暴率表!N20="","",IF(新暴率表!N20 &lt; 300000, VLOOKUP(新暴率表!N20,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!N20,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>真魂手镯</v>
       </c>
       <c r="N20" t="str">
         <f>IF(新暴率表!O20="","",IF(新暴率表!O20 &lt; 300000, VLOOKUP(新暴率表!O20,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!O20,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>圣战戒指</v>
       </c>
       <c r="O20" t="str">
         <f>IF(新暴率表!P20="","",IF(新暴率表!P20 &lt; 300000, VLOOKUP(新暴率表!P20,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!P20,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>法神戒指</v>
       </c>
       <c r="P20" t="str">
         <f>IF(新暴率表!Q20="","",IF(新暴率表!Q20 &lt; 300000, VLOOKUP(新暴率表!Q20,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!Q20,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>天尊戒指</v>
       </c>
       <c r="Q20" t="str">
         <f>IF(新暴率表!R20="","",IF(新暴率表!R20 &lt; 300000, VLOOKUP(新暴率表!R20,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!R20,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>战神戒指</v>
       </c>
       <c r="R20" t="str">
         <f>IF(新暴率表!S20="","",IF(新暴率表!S20 &lt; 300000, VLOOKUP(新暴率表!S20,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!S20,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>圣魔戒指</v>
       </c>
       <c r="S20" t="str">
         <f>IF(新暴率表!T20="","",IF(新暴率表!T20 &lt; 300000, VLOOKUP(新暴率表!T20,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!T20,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>真魂戒指</v>
       </c>
       <c r="T20" t="str">
         <f>IF(新暴率表!U20="","",IF(新暴率表!U20 &lt; 300000, VLOOKUP(新暴率表!U20,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!U20,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>腰带·光辉</v>
       </c>
       <c r="U20" t="str">
         <f>IF(新暴率表!V20="","",IF(新暴率表!V20 &lt; 300000, VLOOKUP(新暴率表!V20,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!V20,[1]装备!$A$3:$B$511,2,FALSE)))</f>
@@ -8541,79 +8966,79 @@
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B21" t="str">
         <f>IF(新暴率表!C21="","",IF(新暴率表!C21 &lt; 300000, VLOOKUP(新暴率表!C21,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!C21,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>开天</v>
       </c>
       <c r="C21" t="str">
         <f>IF(新暴率表!D21="","",IF(新暴率表!D21 &lt; 300000, VLOOKUP(新暴率表!D21,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!D21,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>镇天</v>
       </c>
       <c r="D21" t="str">
         <f>IF(新暴率表!E21="","",IF(新暴率表!E21 &lt; 300000, VLOOKUP(新暴率表!E21,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!E21,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>玄天</v>
       </c>
       <c r="E21" t="str">
         <f>IF(新暴率表!F21="","",IF(新暴率表!F21 &lt; 300000, VLOOKUP(新暴率表!F21,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!F21,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>战神盔甲(男)</v>
       </c>
       <c r="F21" t="str">
         <f>IF(新暴率表!G21="","",IF(新暴率表!G21 &lt; 300000, VLOOKUP(新暴率表!G21,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!G21,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>幽灵战衣(男)</v>
       </c>
       <c r="G21" t="str">
         <f>IF(新暴率表!H21="","",IF(新暴率表!H21 &lt; 300000, VLOOKUP(新暴率表!H21,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!H21,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>恶魔长袍(男)</v>
       </c>
       <c r="H21" t="str">
         <f>IF(新暴率表!I21="","",IF(新暴率表!I21 &lt; 300000, VLOOKUP(新暴率表!I21,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!I21,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>凤天魔甲</v>
       </c>
       <c r="I21" t="str">
         <f>IF(新暴率表!J21="","",IF(新暴率表!J21 &lt; 300000, VLOOKUP(新暴率表!J21,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!J21,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>战神盔甲(女)</v>
       </c>
       <c r="J21" t="str">
         <f>IF(新暴率表!K21="","",IF(新暴率表!K21 &lt; 300000, VLOOKUP(新暴率表!K21,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!K21,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>幽灵战衣(女)</v>
       </c>
       <c r="K21" t="str">
         <f>IF(新暴率表!L21="","",IF(新暴率表!L21 &lt; 300000, VLOOKUP(新暴率表!L21,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!L21,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>恶魔长袍(女)</v>
       </c>
       <c r="L21" t="str">
         <f>IF(新暴率表!M21="","",IF(新暴率表!M21 &lt; 300000, VLOOKUP(新暴率表!M21,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!M21,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>凰天魔衣</v>
       </c>
       <c r="M21" t="str">
         <f>IF(新暴率表!N21="","",IF(新暴率表!N21 &lt; 300000, VLOOKUP(新暴率表!N21,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!N21,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>圣战头盔</v>
       </c>
       <c r="N21" t="str">
         <f>IF(新暴率表!O21="","",IF(新暴率表!O21 &lt; 300000, VLOOKUP(新暴率表!O21,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!O21,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>法神头盔</v>
       </c>
       <c r="O21" t="str">
         <f>IF(新暴率表!P21="","",IF(新暴率表!P21 &lt; 300000, VLOOKUP(新暴率表!P21,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!P21,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>天尊头盔</v>
       </c>
       <c r="P21" t="str">
         <f>IF(新暴率表!Q21="","",IF(新暴率表!Q21 &lt; 300000, VLOOKUP(新暴率表!Q21,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!Q21,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>圣龙盔</v>
       </c>
       <c r="Q21" t="str">
         <f>IF(新暴率表!R21="","",IF(新暴率表!R21 &lt; 300000, VLOOKUP(新暴率表!R21,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!R21,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>天龙盔</v>
       </c>
       <c r="R21" t="str">
         <f>IF(新暴率表!S21="","",IF(新暴率表!S21 &lt; 300000, VLOOKUP(新暴率表!S21,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!S21,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>魔龙盔</v>
       </c>
       <c r="S21" t="str">
         <f>IF(新暴率表!T21="","",IF(新暴率表!T21 &lt; 300000, VLOOKUP(新暴率表!T21,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!T21,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>腰带·紫霞</v>
       </c>
       <c r="T21" t="str">
         <f>IF(新暴率表!U21="","",IF(新暴率表!U21 &lt; 300000, VLOOKUP(新暴率表!U21,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!U21,[1]装备!$A$3:$B$511,2,FALSE)))</f>
@@ -8686,51 +9111,51 @@
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="B22" t="str">
         <f>IF(新暴率表!C22="","",IF(新暴率表!C22 &lt; 300000, VLOOKUP(新暴率表!C22,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!C22,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>圣战头盔</v>
       </c>
       <c r="C22" t="str">
         <f>IF(新暴率表!D22="","",IF(新暴率表!D22 &lt; 300000, VLOOKUP(新暴率表!D22,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!D22,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>法神头盔</v>
       </c>
       <c r="D22" t="str">
         <f>IF(新暴率表!E22="","",IF(新暴率表!E22 &lt; 300000, VLOOKUP(新暴率表!E22,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!E22,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>天尊头盔</v>
       </c>
       <c r="E22" t="str">
         <f>IF(新暴率表!F22="","",IF(新暴率表!F22 &lt; 300000, VLOOKUP(新暴率表!F22,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!F22,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>星王战盔</v>
       </c>
       <c r="F22" t="str">
         <f>IF(新暴率表!G22="","",IF(新暴率表!G22 &lt; 300000, VLOOKUP(新暴率表!G22,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!G22,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>星王魔盔</v>
       </c>
       <c r="G22" t="str">
         <f>IF(新暴率表!H22="","",IF(新暴率表!H22 &lt; 300000, VLOOKUP(新暴率表!H22,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!H22,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>星王道盔</v>
       </c>
       <c r="H22" t="str">
         <f>IF(新暴率表!I22="","",IF(新暴率表!I22 &lt; 300000, VLOOKUP(新暴率表!I22,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!I22,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>星王战靴</v>
       </c>
       <c r="I22" t="str">
         <f>IF(新暴率表!J22="","",IF(新暴率表!J22 &lt; 300000, VLOOKUP(新暴率表!J22,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!J22,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>星王魔靴</v>
       </c>
       <c r="J22" t="str">
         <f>IF(新暴率表!K22="","",IF(新暴率表!K22 &lt; 300000, VLOOKUP(新暴率表!K22,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!K22,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>星王道靴</v>
       </c>
       <c r="K22" t="str">
         <f>IF(新暴率表!L22="","",IF(新暴率表!L22 &lt; 300000, VLOOKUP(新暴率表!L22,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!L22,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>腰带·紫霞</v>
       </c>
       <c r="L22" t="str">
         <f>IF(新暴率表!M22="","",IF(新暴率表!M22 &lt; 300000, VLOOKUP(新暴率表!M22,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!M22,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>腰带·落日</v>
       </c>
       <c r="M22" t="str">
         <f>IF(新暴率表!N22="","",IF(新暴率表!N22 &lt; 300000, VLOOKUP(新暴率表!N22,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!N22,[1]装备!$A$3:$B$511,2,FALSE)))</f>
@@ -8831,83 +9256,83 @@
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="B23" t="str">
         <f>IF(新暴率表!C23="","",IF(新暴率表!C23 &lt; 300000, VLOOKUP(新暴率表!C23,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!C23,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>圣战项链</v>
       </c>
       <c r="C23" t="str">
         <f>IF(新暴率表!D23="","",IF(新暴率表!D23 &lt; 300000, VLOOKUP(新暴率表!D23,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!D23,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>法神项链</v>
       </c>
       <c r="D23" t="str">
         <f>IF(新暴率表!E23="","",IF(新暴率表!E23 &lt; 300000, VLOOKUP(新暴率表!E23,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!E23,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>天尊项链</v>
       </c>
       <c r="E23" t="str">
         <f>IF(新暴率表!F23="","",IF(新暴率表!F23 &lt; 300000, VLOOKUP(新暴率表!F23,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!F23,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>星王项链(战)</v>
       </c>
       <c r="F23" t="str">
         <f>IF(新暴率表!G23="","",IF(新暴率表!G23 &lt; 300000, VLOOKUP(新暴率表!G23,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!G23,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>星王项链(法)</v>
       </c>
       <c r="G23" t="str">
         <f>IF(新暴率表!H23="","",IF(新暴率表!H23 &lt; 300000, VLOOKUP(新暴率表!H23,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!H23,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>星王项链(道)</v>
       </c>
       <c r="H23" t="str">
         <f>IF(新暴率表!I23="","",IF(新暴率表!I23 &lt; 300000, VLOOKUP(新暴率表!I23,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!I23,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>圣战手镯</v>
       </c>
       <c r="I23" t="str">
         <f>IF(新暴率表!J23="","",IF(新暴率表!J23 &lt; 300000, VLOOKUP(新暴率表!J23,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!J23,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>法神手镯</v>
       </c>
       <c r="J23" t="str">
         <f>IF(新暴率表!K23="","",IF(新暴率表!K23 &lt; 300000, VLOOKUP(新暴率表!K23,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!K23,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>天尊手镯</v>
       </c>
       <c r="K23" t="str">
         <f>IF(新暴率表!L23="","",IF(新暴率表!L23 &lt; 300000, VLOOKUP(新暴率表!L23,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!L23,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>星王护腕(战)</v>
       </c>
       <c r="L23" t="str">
         <f>IF(新暴率表!M23="","",IF(新暴率表!M23 &lt; 300000, VLOOKUP(新暴率表!M23,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!M23,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>星王护腕(法)</v>
       </c>
       <c r="M23" t="str">
         <f>IF(新暴率表!N23="","",IF(新暴率表!N23 &lt; 300000, VLOOKUP(新暴率表!N23,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!N23,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>星王护腕(道)</v>
       </c>
       <c r="N23" t="str">
         <f>IF(新暴率表!O23="","",IF(新暴率表!O23 &lt; 300000, VLOOKUP(新暴率表!O23,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!O23,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>圣战戒指</v>
       </c>
       <c r="O23" t="str">
         <f>IF(新暴率表!P23="","",IF(新暴率表!P23 &lt; 300000, VLOOKUP(新暴率表!P23,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!P23,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>法神戒指</v>
       </c>
       <c r="P23" t="str">
         <f>IF(新暴率表!Q23="","",IF(新暴率表!Q23 &lt; 300000, VLOOKUP(新暴率表!Q23,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!Q23,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>天尊戒指</v>
       </c>
       <c r="Q23" t="str">
         <f>IF(新暴率表!R23="","",IF(新暴率表!R23 &lt; 300000, VLOOKUP(新暴率表!R23,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!R23,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>星王战戒</v>
       </c>
       <c r="R23" t="str">
         <f>IF(新暴率表!S23="","",IF(新暴率表!S23 &lt; 300000, VLOOKUP(新暴率表!S23,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!S23,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>星王魔戒</v>
       </c>
       <c r="S23" t="str">
         <f>IF(新暴率表!T23="","",IF(新暴率表!T23 &lt; 300000, VLOOKUP(新暴率表!T23,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!T23,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>星王道戒</v>
       </c>
       <c r="T23" t="str">
         <f>IF(新暴率表!U23="","",IF(新暴率表!U23 &lt; 300000, VLOOKUP(新暴率表!U23,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!U23,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>附体之炎</v>
       </c>
       <c r="U23" t="str">
         <f>IF(新暴率表!V23="","",IF(新暴率表!V23 &lt; 300000, VLOOKUP(新暴率表!V23,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!V23,[1]装备!$A$3:$B$511,2,FALSE)))</f>
@@ -8976,63 +9401,63 @@
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B24" t="str">
         <f>IF(新暴率表!C24="","",IF(新暴率表!C24 &lt; 300000, VLOOKUP(新暴率表!C24,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!C24,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>天魔神甲</v>
       </c>
       <c r="C24" t="str">
         <f>IF(新暴率表!D24="","",IF(新暴率表!D24 &lt; 300000, VLOOKUP(新暴率表!D24,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!D24,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>法神披风</v>
       </c>
       <c r="D24" t="str">
         <f>IF(新暴率表!E24="","",IF(新暴率表!E24 &lt; 300000, VLOOKUP(新暴率表!E24,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!E24,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>天尊道袍</v>
       </c>
       <c r="E24" t="str">
         <f>IF(新暴率表!F24="","",IF(新暴率表!F24 &lt; 300000, VLOOKUP(新暴率表!F24,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!F24,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>虎啸战甲(男)</v>
       </c>
       <c r="F24" t="str">
         <f>IF(新暴率表!G24="","",IF(新暴率表!G24 &lt; 300000, VLOOKUP(新暴率表!G24,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!G24,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>聚魔法衣(男)</v>
       </c>
       <c r="G24" t="str">
         <f>IF(新暴率表!H24="","",IF(新暴率表!H24 &lt; 300000, VLOOKUP(新暴率表!H24,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!H24,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>暗咒道袍(男)</v>
       </c>
       <c r="H24" t="str">
         <f>IF(新暴率表!I24="","",IF(新暴率表!I24 &lt; 300000, VLOOKUP(新暴率表!I24,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!I24,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>圣战宝甲</v>
       </c>
       <c r="I24" t="str">
         <f>IF(新暴率表!J24="","",IF(新暴率表!J24 &lt; 300000, VLOOKUP(新暴率表!J24,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!J24,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>霓裳羽衣</v>
       </c>
       <c r="J24" t="str">
         <f>IF(新暴率表!K24="","",IF(新暴率表!K24 &lt; 300000, VLOOKUP(新暴率表!K24,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!K24,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>天师长袍</v>
       </c>
       <c r="K24" t="str">
         <f>IF(新暴率表!L24="","",IF(新暴率表!L24 &lt; 300000, VLOOKUP(新暴率表!L24,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!L24,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>虎啸战甲(女)</v>
       </c>
       <c r="L24" t="str">
         <f>IF(新暴率表!M24="","",IF(新暴率表!M24 &lt; 300000, VLOOKUP(新暴率表!M24,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!M24,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>聚魔法衣(女)</v>
       </c>
       <c r="M24" t="str">
         <f>IF(新暴率表!N24="","",IF(新暴率表!N24 &lt; 300000, VLOOKUP(新暴率表!N24,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!N24,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>暗咒道袍(女)</v>
       </c>
       <c r="N24" t="str">
         <f>IF(新暴率表!O24="","",IF(新暴率表!O24 &lt; 300000, VLOOKUP(新暴率表!O24,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!O24,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>战神守护</v>
       </c>
       <c r="O24" t="str">
         <f>IF(新暴率表!P24="","",IF(新暴率表!P24 &lt; 300000, VLOOKUP(新暴率表!P24,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!P24,[1]装备!$A$3:$B$511,2,FALSE)))</f>
-        <v/>
+        <v>蚀甲</v>
       </c>
       <c r="P24" t="str">
         <f>IF(新暴率表!Q24="","",IF(新暴率表!Q24 &lt; 300000, VLOOKUP(新暴率表!Q24,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!Q24,[1]装备!$A$3:$B$511,2,FALSE)))</f>
@@ -9121,7 +9546,7 @@
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B25" t="str">
         <f>IF(新暴率表!C25="","",IF(新暴率表!C25 &lt; 300000, VLOOKUP(新暴率表!C25,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!C25,[1]装备!$A$3:$B$511,2,FALSE)))</f>
@@ -9266,7 +9691,7 @@
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B26" t="str">
         <f>IF(新暴率表!C26="","",IF(新暴率表!C26 &lt; 300000, VLOOKUP(新暴率表!C26,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!C26,[1]装备!$A$3:$B$511,2,FALSE)))</f>
@@ -9411,7 +9836,7 @@
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B27" t="str">
         <f>IF(新暴率表!C27="","",IF(新暴率表!C27 &lt; 300000, VLOOKUP(新暴率表!C27,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!C27,[1]装备!$A$3:$B$511,2,FALSE)))</f>
@@ -9556,7 +9981,7 @@
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B28" t="str">
         <f>IF(新暴率表!C28="","",IF(新暴率表!C28 &lt; 300000, VLOOKUP(新暴率表!C28,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!C28,[1]装备!$A$3:$B$511,2,FALSE)))</f>
@@ -9701,7 +10126,7 @@
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B29" t="str">
         <f>IF(新暴率表!C29="","",IF(新暴率表!C29 &lt; 300000, VLOOKUP(新暴率表!C29,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!C29,[1]装备!$A$3:$B$511,2,FALSE)))</f>
@@ -9846,7 +10271,7 @@
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B30" t="str">
         <f>IF(新暴率表!C30="","",IF(新暴率表!C30 &lt; 300000, VLOOKUP(新暴率表!C30,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!C30,[1]装备!$A$3:$B$511,2,FALSE)))</f>
@@ -9991,7 +10416,7 @@
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B31" t="str">
         <f>IF(新暴率表!C31="","",IF(新暴率表!C31 &lt; 300000, VLOOKUP(新暴率表!C31,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!C31,[1]装备!$A$3:$B$511,2,FALSE)))</f>
@@ -10136,7 +10561,7 @@
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B32" t="str">
         <f>IF(新暴率表!C32="","",IF(新暴率表!C32 &lt; 300000, VLOOKUP(新暴率表!C32,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!C32,[1]装备!$A$3:$B$511,2,FALSE)))</f>
@@ -10281,7 +10706,7 @@
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B33" t="str">
         <f>IF(新暴率表!C33="","",IF(新暴率表!C33 &lt; 300000, VLOOKUP(新暴率表!C33,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!C33,[1]装备!$A$3:$B$511,2,FALSE)))</f>
@@ -10421,6 +10846,731 @@
       </c>
       <c r="AJ33" t="str">
         <f>IF(新暴率表!AK33="","",IF(新暴率表!AK33 &lt; 300000, VLOOKUP(新暴率表!AK33,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!AK33,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" t="str">
+        <f>IF(新暴率表!C34="","",IF(新暴率表!C34 &lt; 300000, VLOOKUP(新暴率表!C34,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!C34,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="C34" t="str">
+        <f>IF(新暴率表!D34="","",IF(新暴率表!D34 &lt; 300000, VLOOKUP(新暴率表!D34,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!D34,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="D34" t="str">
+        <f>IF(新暴率表!E34="","",IF(新暴率表!E34 &lt; 300000, VLOOKUP(新暴率表!E34,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!E34,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="E34" t="str">
+        <f>IF(新暴率表!F34="","",IF(新暴率表!F34 &lt; 300000, VLOOKUP(新暴率表!F34,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!F34,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="F34" t="str">
+        <f>IF(新暴率表!G34="","",IF(新暴率表!G34 &lt; 300000, VLOOKUP(新暴率表!G34,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!G34,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="G34" t="str">
+        <f>IF(新暴率表!H34="","",IF(新暴率表!H34 &lt; 300000, VLOOKUP(新暴率表!H34,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!H34,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="H34" t="str">
+        <f>IF(新暴率表!I34="","",IF(新暴率表!I34 &lt; 300000, VLOOKUP(新暴率表!I34,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!I34,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="I34" t="str">
+        <f>IF(新暴率表!J34="","",IF(新暴率表!J34 &lt; 300000, VLOOKUP(新暴率表!J34,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!J34,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="J34" t="str">
+        <f>IF(新暴率表!K34="","",IF(新暴率表!K34 &lt; 300000, VLOOKUP(新暴率表!K34,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!K34,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="K34" t="str">
+        <f>IF(新暴率表!L34="","",IF(新暴率表!L34 &lt; 300000, VLOOKUP(新暴率表!L34,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!L34,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="L34" t="str">
+        <f>IF(新暴率表!M34="","",IF(新暴率表!M34 &lt; 300000, VLOOKUP(新暴率表!M34,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!M34,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="M34" t="str">
+        <f>IF(新暴率表!N34="","",IF(新暴率表!N34 &lt; 300000, VLOOKUP(新暴率表!N34,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!N34,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="N34" t="str">
+        <f>IF(新暴率表!O34="","",IF(新暴率表!O34 &lt; 300000, VLOOKUP(新暴率表!O34,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!O34,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="O34" t="str">
+        <f>IF(新暴率表!P34="","",IF(新暴率表!P34 &lt; 300000, VLOOKUP(新暴率表!P34,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!P34,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="P34" t="str">
+        <f>IF(新暴率表!Q34="","",IF(新暴率表!Q34 &lt; 300000, VLOOKUP(新暴率表!Q34,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!Q34,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="Q34" t="str">
+        <f>IF(新暴率表!R34="","",IF(新暴率表!R34 &lt; 300000, VLOOKUP(新暴率表!R34,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!R34,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="R34" t="str">
+        <f>IF(新暴率表!S34="","",IF(新暴率表!S34 &lt; 300000, VLOOKUP(新暴率表!S34,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!S34,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="S34" t="str">
+        <f>IF(新暴率表!T34="","",IF(新暴率表!T34 &lt; 300000, VLOOKUP(新暴率表!T34,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!T34,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="T34" t="str">
+        <f>IF(新暴率表!U34="","",IF(新暴率表!U34 &lt; 300000, VLOOKUP(新暴率表!U34,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!U34,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="U34" t="str">
+        <f>IF(新暴率表!V34="","",IF(新暴率表!V34 &lt; 300000, VLOOKUP(新暴率表!V34,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!V34,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="V34" t="str">
+        <f>IF(新暴率表!W34="","",IF(新暴率表!W34 &lt; 300000, VLOOKUP(新暴率表!W34,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!W34,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="W34" t="str">
+        <f>IF(新暴率表!X34="","",IF(新暴率表!X34 &lt; 300000, VLOOKUP(新暴率表!X34,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!X34,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="X34" t="str">
+        <f>IF(新暴率表!Y34="","",IF(新暴率表!Y34 &lt; 300000, VLOOKUP(新暴率表!Y34,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!Y34,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="Y34" t="str">
+        <f>IF(新暴率表!Z34="","",IF(新暴率表!Z34 &lt; 300000, VLOOKUP(新暴率表!Z34,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!Z34,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="Z34" t="str">
+        <f>IF(新暴率表!AA34="","",IF(新暴率表!AA34 &lt; 300000, VLOOKUP(新暴率表!AA34,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!AA34,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AA34" t="str">
+        <f>IF(新暴率表!AB34="","",IF(新暴率表!AB34 &lt; 300000, VLOOKUP(新暴率表!AB34,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!AB34,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AB34" t="str">
+        <f>IF(新暴率表!AC34="","",IF(新暴率表!AC34 &lt; 300000, VLOOKUP(新暴率表!AC34,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!AC34,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AC34" t="str">
+        <f>IF(新暴率表!AD34="","",IF(新暴率表!AD34 &lt; 300000, VLOOKUP(新暴率表!AD34,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!AD34,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AD34" t="str">
+        <f>IF(新暴率表!AE34="","",IF(新暴率表!AE34 &lt; 300000, VLOOKUP(新暴率表!AE34,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!AE34,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AE34" t="str">
+        <f>IF(新暴率表!AF34="","",IF(新暴率表!AF34 &lt; 300000, VLOOKUP(新暴率表!AF34,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!AF34,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AF34" t="str">
+        <f>IF(新暴率表!AG34="","",IF(新暴率表!AG34 &lt; 300000, VLOOKUP(新暴率表!AG34,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!AG34,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AG34" t="str">
+        <f>IF(新暴率表!AH34="","",IF(新暴率表!AH34 &lt; 300000, VLOOKUP(新暴率表!AH34,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!AH34,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AH34" t="str">
+        <f>IF(新暴率表!AI34="","",IF(新暴率表!AI34 &lt; 300000, VLOOKUP(新暴率表!AI34,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!AI34,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AI34" t="str">
+        <f>IF(新暴率表!AJ34="","",IF(新暴率表!AJ34 &lt; 300000, VLOOKUP(新暴率表!AJ34,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!AJ34,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AJ34" t="str">
+        <f>IF(新暴率表!AK34="","",IF(新暴率表!AK34 &lt; 300000, VLOOKUP(新暴率表!AK34,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!AK34,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" t="str">
+        <f>IF(新暴率表!C35="","",IF(新暴率表!C35 &lt; 300000, VLOOKUP(新暴率表!C35,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!C35,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="C35" t="str">
+        <f>IF(新暴率表!D35="","",IF(新暴率表!D35 &lt; 300000, VLOOKUP(新暴率表!D35,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!D35,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="D35" t="str">
+        <f>IF(新暴率表!E35="","",IF(新暴率表!E35 &lt; 300000, VLOOKUP(新暴率表!E35,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!E35,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="E35" t="str">
+        <f>IF(新暴率表!F35="","",IF(新暴率表!F35 &lt; 300000, VLOOKUP(新暴率表!F35,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!F35,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="F35" t="str">
+        <f>IF(新暴率表!G35="","",IF(新暴率表!G35 &lt; 300000, VLOOKUP(新暴率表!G35,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!G35,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="G35" t="str">
+        <f>IF(新暴率表!H35="","",IF(新暴率表!H35 &lt; 300000, VLOOKUP(新暴率表!H35,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!H35,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="H35" t="str">
+        <f>IF(新暴率表!I35="","",IF(新暴率表!I35 &lt; 300000, VLOOKUP(新暴率表!I35,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!I35,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="I35" t="str">
+        <f>IF(新暴率表!J35="","",IF(新暴率表!J35 &lt; 300000, VLOOKUP(新暴率表!J35,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!J35,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="J35" t="str">
+        <f>IF(新暴率表!K35="","",IF(新暴率表!K35 &lt; 300000, VLOOKUP(新暴率表!K35,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!K35,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="K35" t="str">
+        <f>IF(新暴率表!L35="","",IF(新暴率表!L35 &lt; 300000, VLOOKUP(新暴率表!L35,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!L35,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="L35" t="str">
+        <f>IF(新暴率表!M35="","",IF(新暴率表!M35 &lt; 300000, VLOOKUP(新暴率表!M35,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!M35,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="M35" t="str">
+        <f>IF(新暴率表!N35="","",IF(新暴率表!N35 &lt; 300000, VLOOKUP(新暴率表!N35,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!N35,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="N35" t="str">
+        <f>IF(新暴率表!O35="","",IF(新暴率表!O35 &lt; 300000, VLOOKUP(新暴率表!O35,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!O35,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="O35" t="str">
+        <f>IF(新暴率表!P35="","",IF(新暴率表!P35 &lt; 300000, VLOOKUP(新暴率表!P35,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!P35,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="P35" t="str">
+        <f>IF(新暴率表!Q35="","",IF(新暴率表!Q35 &lt; 300000, VLOOKUP(新暴率表!Q35,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!Q35,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="Q35" t="str">
+        <f>IF(新暴率表!R35="","",IF(新暴率表!R35 &lt; 300000, VLOOKUP(新暴率表!R35,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!R35,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="R35" t="str">
+        <f>IF(新暴率表!S35="","",IF(新暴率表!S35 &lt; 300000, VLOOKUP(新暴率表!S35,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!S35,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="S35" t="str">
+        <f>IF(新暴率表!T35="","",IF(新暴率表!T35 &lt; 300000, VLOOKUP(新暴率表!T35,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!T35,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="T35" t="str">
+        <f>IF(新暴率表!U35="","",IF(新暴率表!U35 &lt; 300000, VLOOKUP(新暴率表!U35,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!U35,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="U35" t="str">
+        <f>IF(新暴率表!V35="","",IF(新暴率表!V35 &lt; 300000, VLOOKUP(新暴率表!V35,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!V35,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="V35" t="str">
+        <f>IF(新暴率表!W35="","",IF(新暴率表!W35 &lt; 300000, VLOOKUP(新暴率表!W35,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!W35,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="W35" t="str">
+        <f>IF(新暴率表!X35="","",IF(新暴率表!X35 &lt; 300000, VLOOKUP(新暴率表!X35,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!X35,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="X35" t="str">
+        <f>IF(新暴率表!Y35="","",IF(新暴率表!Y35 &lt; 300000, VLOOKUP(新暴率表!Y35,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!Y35,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="Y35" t="str">
+        <f>IF(新暴率表!Z35="","",IF(新暴率表!Z35 &lt; 300000, VLOOKUP(新暴率表!Z35,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!Z35,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="Z35" t="str">
+        <f>IF(新暴率表!AA35="","",IF(新暴率表!AA35 &lt; 300000, VLOOKUP(新暴率表!AA35,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!AA35,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AA35" t="str">
+        <f>IF(新暴率表!AB35="","",IF(新暴率表!AB35 &lt; 300000, VLOOKUP(新暴率表!AB35,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!AB35,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AB35" t="str">
+        <f>IF(新暴率表!AC35="","",IF(新暴率表!AC35 &lt; 300000, VLOOKUP(新暴率表!AC35,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!AC35,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AC35" t="str">
+        <f>IF(新暴率表!AD35="","",IF(新暴率表!AD35 &lt; 300000, VLOOKUP(新暴率表!AD35,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!AD35,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AD35" t="str">
+        <f>IF(新暴率表!AE35="","",IF(新暴率表!AE35 &lt; 300000, VLOOKUP(新暴率表!AE35,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!AE35,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AE35" t="str">
+        <f>IF(新暴率表!AF35="","",IF(新暴率表!AF35 &lt; 300000, VLOOKUP(新暴率表!AF35,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!AF35,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AF35" t="str">
+        <f>IF(新暴率表!AG35="","",IF(新暴率表!AG35 &lt; 300000, VLOOKUP(新暴率表!AG35,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!AG35,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AG35" t="str">
+        <f>IF(新暴率表!AH35="","",IF(新暴率表!AH35 &lt; 300000, VLOOKUP(新暴率表!AH35,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!AH35,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AH35" t="str">
+        <f>IF(新暴率表!AI35="","",IF(新暴率表!AI35 &lt; 300000, VLOOKUP(新暴率表!AI35,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!AI35,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AI35" t="str">
+        <f>IF(新暴率表!AJ35="","",IF(新暴率表!AJ35 &lt; 300000, VLOOKUP(新暴率表!AJ35,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!AJ35,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AJ35" t="str">
+        <f>IF(新暴率表!AK35="","",IF(新暴率表!AK35 &lt; 300000, VLOOKUP(新暴率表!AK35,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!AK35,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" t="str">
+        <f>IF(新暴率表!C36="","",IF(新暴率表!C36 &lt; 300000, VLOOKUP(新暴率表!C36,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!C36,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="C36" t="str">
+        <f>IF(新暴率表!D36="","",IF(新暴率表!D36 &lt; 300000, VLOOKUP(新暴率表!D36,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!D36,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="D36" t="str">
+        <f>IF(新暴率表!E36="","",IF(新暴率表!E36 &lt; 300000, VLOOKUP(新暴率表!E36,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!E36,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="E36" t="str">
+        <f>IF(新暴率表!F36="","",IF(新暴率表!F36 &lt; 300000, VLOOKUP(新暴率表!F36,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!F36,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="F36" t="str">
+        <f>IF(新暴率表!G36="","",IF(新暴率表!G36 &lt; 300000, VLOOKUP(新暴率表!G36,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!G36,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="G36" t="str">
+        <f>IF(新暴率表!H36="","",IF(新暴率表!H36 &lt; 300000, VLOOKUP(新暴率表!H36,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!H36,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="H36" t="str">
+        <f>IF(新暴率表!I36="","",IF(新暴率表!I36 &lt; 300000, VLOOKUP(新暴率表!I36,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!I36,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="I36" t="str">
+        <f>IF(新暴率表!J36="","",IF(新暴率表!J36 &lt; 300000, VLOOKUP(新暴率表!J36,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!J36,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="J36" t="str">
+        <f>IF(新暴率表!K36="","",IF(新暴率表!K36 &lt; 300000, VLOOKUP(新暴率表!K36,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!K36,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="K36" t="str">
+        <f>IF(新暴率表!L36="","",IF(新暴率表!L36 &lt; 300000, VLOOKUP(新暴率表!L36,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!L36,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="L36" t="str">
+        <f>IF(新暴率表!M36="","",IF(新暴率表!M36 &lt; 300000, VLOOKUP(新暴率表!M36,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!M36,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="M36" t="str">
+        <f>IF(新暴率表!N36="","",IF(新暴率表!N36 &lt; 300000, VLOOKUP(新暴率表!N36,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!N36,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="N36" t="str">
+        <f>IF(新暴率表!O36="","",IF(新暴率表!O36 &lt; 300000, VLOOKUP(新暴率表!O36,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!O36,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="O36" t="str">
+        <f>IF(新暴率表!P36="","",IF(新暴率表!P36 &lt; 300000, VLOOKUP(新暴率表!P36,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!P36,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="P36" t="str">
+        <f>IF(新暴率表!Q36="","",IF(新暴率表!Q36 &lt; 300000, VLOOKUP(新暴率表!Q36,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!Q36,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="Q36" t="str">
+        <f>IF(新暴率表!R36="","",IF(新暴率表!R36 &lt; 300000, VLOOKUP(新暴率表!R36,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!R36,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="R36" t="str">
+        <f>IF(新暴率表!S36="","",IF(新暴率表!S36 &lt; 300000, VLOOKUP(新暴率表!S36,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!S36,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="S36" t="str">
+        <f>IF(新暴率表!T36="","",IF(新暴率表!T36 &lt; 300000, VLOOKUP(新暴率表!T36,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!T36,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="T36" t="str">
+        <f>IF(新暴率表!U36="","",IF(新暴率表!U36 &lt; 300000, VLOOKUP(新暴率表!U36,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!U36,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="U36" t="str">
+        <f>IF(新暴率表!V36="","",IF(新暴率表!V36 &lt; 300000, VLOOKUP(新暴率表!V36,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!V36,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="V36" t="str">
+        <f>IF(新暴率表!W36="","",IF(新暴率表!W36 &lt; 300000, VLOOKUP(新暴率表!W36,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!W36,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="W36" t="str">
+        <f>IF(新暴率表!X36="","",IF(新暴率表!X36 &lt; 300000, VLOOKUP(新暴率表!X36,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!X36,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="X36" t="str">
+        <f>IF(新暴率表!Y36="","",IF(新暴率表!Y36 &lt; 300000, VLOOKUP(新暴率表!Y36,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!Y36,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="Y36" t="str">
+        <f>IF(新暴率表!Z36="","",IF(新暴率表!Z36 &lt; 300000, VLOOKUP(新暴率表!Z36,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!Z36,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="Z36" t="str">
+        <f>IF(新暴率表!AA36="","",IF(新暴率表!AA36 &lt; 300000, VLOOKUP(新暴率表!AA36,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!AA36,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AA36" t="str">
+        <f>IF(新暴率表!AB36="","",IF(新暴率表!AB36 &lt; 300000, VLOOKUP(新暴率表!AB36,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!AB36,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AB36" t="str">
+        <f>IF(新暴率表!AC36="","",IF(新暴率表!AC36 &lt; 300000, VLOOKUP(新暴率表!AC36,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!AC36,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AC36" t="str">
+        <f>IF(新暴率表!AD36="","",IF(新暴率表!AD36 &lt; 300000, VLOOKUP(新暴率表!AD36,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!AD36,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AD36" t="str">
+        <f>IF(新暴率表!AE36="","",IF(新暴率表!AE36 &lt; 300000, VLOOKUP(新暴率表!AE36,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!AE36,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AE36" t="str">
+        <f>IF(新暴率表!AF36="","",IF(新暴率表!AF36 &lt; 300000, VLOOKUP(新暴率表!AF36,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!AF36,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AF36" t="str">
+        <f>IF(新暴率表!AG36="","",IF(新暴率表!AG36 &lt; 300000, VLOOKUP(新暴率表!AG36,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!AG36,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AG36" t="str">
+        <f>IF(新暴率表!AH36="","",IF(新暴率表!AH36 &lt; 300000, VLOOKUP(新暴率表!AH36,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!AH36,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AH36" t="str">
+        <f>IF(新暴率表!AI36="","",IF(新暴率表!AI36 &lt; 300000, VLOOKUP(新暴率表!AI36,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!AI36,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AI36" t="str">
+        <f>IF(新暴率表!AJ36="","",IF(新暴率表!AJ36 &lt; 300000, VLOOKUP(新暴率表!AJ36,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!AJ36,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AJ36" t="str">
+        <f>IF(新暴率表!AK36="","",IF(新暴率表!AK36 &lt; 300000, VLOOKUP(新暴率表!AK36,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!AK36,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" t="str">
+        <f>IF(新暴率表!C37="","",IF(新暴率表!C37 &lt; 300000, VLOOKUP(新暴率表!C37,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!C37,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="C37" t="str">
+        <f>IF(新暴率表!D37="","",IF(新暴率表!D37 &lt; 300000, VLOOKUP(新暴率表!D37,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!D37,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="D37" t="str">
+        <f>IF(新暴率表!E37="","",IF(新暴率表!E37 &lt; 300000, VLOOKUP(新暴率表!E37,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!E37,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="E37" t="str">
+        <f>IF(新暴率表!F37="","",IF(新暴率表!F37 &lt; 300000, VLOOKUP(新暴率表!F37,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!F37,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="F37" t="str">
+        <f>IF(新暴率表!G37="","",IF(新暴率表!G37 &lt; 300000, VLOOKUP(新暴率表!G37,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!G37,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="G37" t="str">
+        <f>IF(新暴率表!H37="","",IF(新暴率表!H37 &lt; 300000, VLOOKUP(新暴率表!H37,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!H37,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="H37" t="str">
+        <f>IF(新暴率表!I37="","",IF(新暴率表!I37 &lt; 300000, VLOOKUP(新暴率表!I37,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!I37,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="I37" t="str">
+        <f>IF(新暴率表!J37="","",IF(新暴率表!J37 &lt; 300000, VLOOKUP(新暴率表!J37,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!J37,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="J37" t="str">
+        <f>IF(新暴率表!K37="","",IF(新暴率表!K37 &lt; 300000, VLOOKUP(新暴率表!K37,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!K37,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="K37" t="str">
+        <f>IF(新暴率表!L37="","",IF(新暴率表!L37 &lt; 300000, VLOOKUP(新暴率表!L37,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!L37,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="L37" t="str">
+        <f>IF(新暴率表!M37="","",IF(新暴率表!M37 &lt; 300000, VLOOKUP(新暴率表!M37,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!M37,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="M37" t="str">
+        <f>IF(新暴率表!N37="","",IF(新暴率表!N37 &lt; 300000, VLOOKUP(新暴率表!N37,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!N37,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="N37" t="str">
+        <f>IF(新暴率表!O37="","",IF(新暴率表!O37 &lt; 300000, VLOOKUP(新暴率表!O37,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!O37,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="O37" t="str">
+        <f>IF(新暴率表!P37="","",IF(新暴率表!P37 &lt; 300000, VLOOKUP(新暴率表!P37,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!P37,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="P37" t="str">
+        <f>IF(新暴率表!Q37="","",IF(新暴率表!Q37 &lt; 300000, VLOOKUP(新暴率表!Q37,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!Q37,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="Q37" t="str">
+        <f>IF(新暴率表!R37="","",IF(新暴率表!R37 &lt; 300000, VLOOKUP(新暴率表!R37,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!R37,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="R37" t="str">
+        <f>IF(新暴率表!S37="","",IF(新暴率表!S37 &lt; 300000, VLOOKUP(新暴率表!S37,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!S37,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="S37" t="str">
+        <f>IF(新暴率表!T37="","",IF(新暴率表!T37 &lt; 300000, VLOOKUP(新暴率表!T37,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!T37,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="T37" t="str">
+        <f>IF(新暴率表!U37="","",IF(新暴率表!U37 &lt; 300000, VLOOKUP(新暴率表!U37,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!U37,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="U37" t="str">
+        <f>IF(新暴率表!V37="","",IF(新暴率表!V37 &lt; 300000, VLOOKUP(新暴率表!V37,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!V37,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="V37" t="str">
+        <f>IF(新暴率表!W37="","",IF(新暴率表!W37 &lt; 300000, VLOOKUP(新暴率表!W37,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!W37,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="W37" t="str">
+        <f>IF(新暴率表!X37="","",IF(新暴率表!X37 &lt; 300000, VLOOKUP(新暴率表!X37,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!X37,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="X37" t="str">
+        <f>IF(新暴率表!Y37="","",IF(新暴率表!Y37 &lt; 300000, VLOOKUP(新暴率表!Y37,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!Y37,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="Y37" t="str">
+        <f>IF(新暴率表!Z37="","",IF(新暴率表!Z37 &lt; 300000, VLOOKUP(新暴率表!Z37,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!Z37,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="Z37" t="str">
+        <f>IF(新暴率表!AA37="","",IF(新暴率表!AA37 &lt; 300000, VLOOKUP(新暴率表!AA37,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!AA37,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AA37" t="str">
+        <f>IF(新暴率表!AB37="","",IF(新暴率表!AB37 &lt; 300000, VLOOKUP(新暴率表!AB37,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!AB37,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AB37" t="str">
+        <f>IF(新暴率表!AC37="","",IF(新暴率表!AC37 &lt; 300000, VLOOKUP(新暴率表!AC37,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!AC37,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AC37" t="str">
+        <f>IF(新暴率表!AD37="","",IF(新暴率表!AD37 &lt; 300000, VLOOKUP(新暴率表!AD37,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!AD37,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AD37" t="str">
+        <f>IF(新暴率表!AE37="","",IF(新暴率表!AE37 &lt; 300000, VLOOKUP(新暴率表!AE37,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!AE37,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AE37" t="str">
+        <f>IF(新暴率表!AF37="","",IF(新暴率表!AF37 &lt; 300000, VLOOKUP(新暴率表!AF37,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!AF37,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AF37" t="str">
+        <f>IF(新暴率表!AG37="","",IF(新暴率表!AG37 &lt; 300000, VLOOKUP(新暴率表!AG37,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!AG37,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AG37" t="str">
+        <f>IF(新暴率表!AH37="","",IF(新暴率表!AH37 &lt; 300000, VLOOKUP(新暴率表!AH37,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!AH37,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AH37" t="str">
+        <f>IF(新暴率表!AI37="","",IF(新暴率表!AI37 &lt; 300000, VLOOKUP(新暴率表!AI37,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!AI37,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AI37" t="str">
+        <f>IF(新暴率表!AJ37="","",IF(新暴率表!AJ37 &lt; 300000, VLOOKUP(新暴率表!AJ37,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!AJ37,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AJ37" t="str">
+        <f>IF(新暴率表!AK37="","",IF(新暴率表!AK37 &lt; 300000, VLOOKUP(新暴率表!AK37,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!AK37,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" t="str">
+        <f>IF(新暴率表!C38="","",IF(新暴率表!C38 &lt; 300000, VLOOKUP(新暴率表!C38,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!C38,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="C38" t="str">
+        <f>IF(新暴率表!D38="","",IF(新暴率表!D38 &lt; 300000, VLOOKUP(新暴率表!D38,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!D38,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="D38" t="str">
+        <f>IF(新暴率表!E38="","",IF(新暴率表!E38 &lt; 300000, VLOOKUP(新暴率表!E38,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!E38,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="E38" t="str">
+        <f>IF(新暴率表!F38="","",IF(新暴率表!F38 &lt; 300000, VLOOKUP(新暴率表!F38,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!F38,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="F38" t="str">
+        <f>IF(新暴率表!G38="","",IF(新暴率表!G38 &lt; 300000, VLOOKUP(新暴率表!G38,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!G38,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="G38" t="str">
+        <f>IF(新暴率表!H38="","",IF(新暴率表!H38 &lt; 300000, VLOOKUP(新暴率表!H38,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!H38,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="H38" t="str">
+        <f>IF(新暴率表!I38="","",IF(新暴率表!I38 &lt; 300000, VLOOKUP(新暴率表!I38,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!I38,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="I38" t="str">
+        <f>IF(新暴率表!J38="","",IF(新暴率表!J38 &lt; 300000, VLOOKUP(新暴率表!J38,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!J38,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="J38" t="str">
+        <f>IF(新暴率表!K38="","",IF(新暴率表!K38 &lt; 300000, VLOOKUP(新暴率表!K38,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!K38,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="K38" t="str">
+        <f>IF(新暴率表!L38="","",IF(新暴率表!L38 &lt; 300000, VLOOKUP(新暴率表!L38,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!L38,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="L38" t="str">
+        <f>IF(新暴率表!M38="","",IF(新暴率表!M38 &lt; 300000, VLOOKUP(新暴率表!M38,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!M38,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="M38" t="str">
+        <f>IF(新暴率表!N38="","",IF(新暴率表!N38 &lt; 300000, VLOOKUP(新暴率表!N38,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!N38,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="N38" t="str">
+        <f>IF(新暴率表!O38="","",IF(新暴率表!O38 &lt; 300000, VLOOKUP(新暴率表!O38,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!O38,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="O38" t="str">
+        <f>IF(新暴率表!P38="","",IF(新暴率表!P38 &lt; 300000, VLOOKUP(新暴率表!P38,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!P38,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="P38" t="str">
+        <f>IF(新暴率表!Q38="","",IF(新暴率表!Q38 &lt; 300000, VLOOKUP(新暴率表!Q38,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!Q38,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="Q38" t="str">
+        <f>IF(新暴率表!R38="","",IF(新暴率表!R38 &lt; 300000, VLOOKUP(新暴率表!R38,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!R38,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="R38" t="str">
+        <f>IF(新暴率表!S38="","",IF(新暴率表!S38 &lt; 300000, VLOOKUP(新暴率表!S38,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!S38,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="S38" t="str">
+        <f>IF(新暴率表!T38="","",IF(新暴率表!T38 &lt; 300000, VLOOKUP(新暴率表!T38,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!T38,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="T38" t="str">
+        <f>IF(新暴率表!U38="","",IF(新暴率表!U38 &lt; 300000, VLOOKUP(新暴率表!U38,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!U38,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="U38" t="str">
+        <f>IF(新暴率表!V38="","",IF(新暴率表!V38 &lt; 300000, VLOOKUP(新暴率表!V38,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!V38,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="V38" t="str">
+        <f>IF(新暴率表!W38="","",IF(新暴率表!W38 &lt; 300000, VLOOKUP(新暴率表!W38,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!W38,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="W38" t="str">
+        <f>IF(新暴率表!X38="","",IF(新暴率表!X38 &lt; 300000, VLOOKUP(新暴率表!X38,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!X38,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="X38" t="str">
+        <f>IF(新暴率表!Y38="","",IF(新暴率表!Y38 &lt; 300000, VLOOKUP(新暴率表!Y38,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!Y38,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="Y38" t="str">
+        <f>IF(新暴率表!Z38="","",IF(新暴率表!Z38 &lt; 300000, VLOOKUP(新暴率表!Z38,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!Z38,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="Z38" t="str">
+        <f>IF(新暴率表!AA38="","",IF(新暴率表!AA38 &lt; 300000, VLOOKUP(新暴率表!AA38,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!AA38,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AA38" t="str">
+        <f>IF(新暴率表!AB38="","",IF(新暴率表!AB38 &lt; 300000, VLOOKUP(新暴率表!AB38,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!AB38,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AB38" t="str">
+        <f>IF(新暴率表!AC38="","",IF(新暴率表!AC38 &lt; 300000, VLOOKUP(新暴率表!AC38,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!AC38,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AC38" t="str">
+        <f>IF(新暴率表!AD38="","",IF(新暴率表!AD38 &lt; 300000, VLOOKUP(新暴率表!AD38,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!AD38,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AD38" t="str">
+        <f>IF(新暴率表!AE38="","",IF(新暴率表!AE38 &lt; 300000, VLOOKUP(新暴率表!AE38,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!AE38,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AE38" t="str">
+        <f>IF(新暴率表!AF38="","",IF(新暴率表!AF38 &lt; 300000, VLOOKUP(新暴率表!AF38,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!AF38,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AF38" t="str">
+        <f>IF(新暴率表!AG38="","",IF(新暴率表!AG38 &lt; 300000, VLOOKUP(新暴率表!AG38,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!AG38,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AG38" t="str">
+        <f>IF(新暴率表!AH38="","",IF(新暴率表!AH38 &lt; 300000, VLOOKUP(新暴率表!AH38,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!AH38,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AH38" t="str">
+        <f>IF(新暴率表!AI38="","",IF(新暴率表!AI38 &lt; 300000, VLOOKUP(新暴率表!AI38,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!AI38,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AI38" t="str">
+        <f>IF(新暴率表!AJ38="","",IF(新暴率表!AJ38 &lt; 300000, VLOOKUP(新暴率表!AJ38,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!AJ38,[1]装备!$A$3:$B$511,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AJ38" t="str">
+        <f>IF(新暴率表!AK38="","",IF(新暴率表!AK38 &lt; 300000, VLOOKUP(新暴率表!AK38,[1]道具!$A$3:$B$606,2,FALSE), VLOOKUP(新暴率表!AK38,[1]装备!$A$3:$B$511,2,FALSE)))</f>
         <v/>
       </c>
     </row>

--- a/documents/暴率表.xlsx
+++ b/documents/暴率表.xlsx
@@ -4798,10 +4798,10 @@
   <dimension ref="A1:AK31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K29" sqref="K29"/>
+      <selection pane="bottomRight" activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -6080,10 +6080,10 @@
   <dimension ref="A1:AJ38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N24" sqref="N24"/>
+      <selection pane="bottomRight" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
